--- a/ExchangeWebServices/Docs/MS-OXWSMSG/MS-OXWSMSG_RequirementSpecification.xlsx
+++ b/ExchangeWebServices/Docs/MS-OXWSMSG/MS-OXWSMSG_RequirementSpecification.xlsx
@@ -1,13 +1,8 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Final Review\ExchangeEWSR2\Exchange Server EWS Protocol Test Suites\Docs\MS-OXWSMSG\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="-15" yWindow="60" windowWidth="15405" windowHeight="6900" tabRatio="570"/>
   </bookViews>
@@ -15,7 +10,7 @@
     <sheet name="Requirements" sheetId="2" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Requirements!$A$19:$G$229</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Requirements!$A$19:$G$256</definedName>
     <definedName name="ExtensionList">Requirements!#REF!</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">Requirements!$A:$A,Requirements!$19:$19</definedName>
     <definedName name="ScopeList">Requirements!#REF!</definedName>
@@ -33,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1529" uniqueCount="506">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1730" uniqueCount="566">
   <si>
     <t>Req ID</t>
   </si>
@@ -317,9 +312,6 @@
     <t>MS-OXWSMSG_R12</t>
   </si>
   <si>
-    <t>MS-OXWSMSG_R13</t>
-  </si>
-  <si>
     <t>MS-OXWSMSG_R14</t>
   </si>
   <si>
@@ -437,9 +429,6 @@
     <t>MS-OXWSMSG_R43</t>
   </si>
   <si>
-    <t>MS-OXWSMSG_R44</t>
-  </si>
-  <si>
     <t>MS-OXWSMSG_R45</t>
   </si>
   <si>
@@ -980,12 +969,6 @@
     <t>2.2.4.60</t>
   </si>
   <si>
-    <t>The endpoint (4) URL that is returned by either the Autodiscover Publishing Lookup SOAP-Based Web Service Protocol, as described in [MS-OXWSADISC], or the Autodiscover Publishing and Lookup Protocol, as described in [MS-OXDSCLI], is required to form the HTTP request to the Web server that hosts this protocol.</t>
-  </si>
-  <si>
-    <t>The operations that this protocol defines cannot be accessed unless the correct endpoint (4) is identified in the HTTP Web requests that target this protocol.</t>
-  </si>
-  <si>
     <t>[In Messages] In the following sections[Section 2], the schema definition might differ from the processing rules imposed by the protocol.</t>
   </si>
   <si>
@@ -998,24 +981,15 @@
     <t>[In Messages] For example, the schema definition might allow for an element to be empty, null, or not present but the behavior of the protocol as specified restricts the same elements to being non-empty, present, and not null.</t>
   </si>
   <si>
-    <t>[In Transport] The SOAP version supported is SOAP 1.1.</t>
-  </si>
-  <si>
     <t>[In Transport] For details, see [SOAP1.1].</t>
   </si>
   <si>
-    <t>[In Transport] This protocol relies on the Web server that hosts the application to perform authentication.</t>
-  </si>
-  <si>
     <t>[In Transport] The protocol SHOULD use secure communications via HTTPS, as defined in [RFC2818].</t>
   </si>
   <si>
     <t>[In Common Message Syntax] This section contains common definitions that are used by this protocol.</t>
   </si>
   <si>
-    <t>[In Common Message Syntax] The syntax of the definitions uses XML schema, as specified in [XMLSCHEMA1] and [XMLSCHEMA2], and Web Services Description Language (WSDL), as specified in [WSDL].</t>
-  </si>
-  <si>
     <t>[In Namespaces] This specification defines and references various XML namespaces by using the mechanisms specified in [XMLNS].</t>
   </si>
   <si>
@@ -1029,9 +1003,6 @@
   </si>
   <si>
     <t>[In Namespaces] The namespace URI of prefix "s" is http://www.w3.org/2001/XMLSchema, which refers to [XMLSCHEMA1].</t>
-  </si>
-  <si>
-    <t>[In Namespaces] The namespace URI of prefix "targetNamespace" is http://schemas.microsoft.com/exchange/services/2006/messages.</t>
   </si>
   <si>
     <t>[In Namespaces] The namespace URI of prefix "wsdl" is http://schemas.xmlsoap.org/wsdl/, which refers to 
@@ -1053,94 +1024,9 @@
     <t>[In Complex Types] XML schema complex type definitions[MessageType] that are specific to a particular operation are defined with the operation.</t>
   </si>
   <si>
-    <t>[In t:MessageType Complex Type] The MessageType complex type represents a server e-mail message in a mailbox.</t>
-  </si>
-  <si>
-    <t>[In t:MessageType Complex Type] The MessageType complex type extends the ItemType complex type ([MS-OXWSCORE] section 2.2.4.8).</t>
-  </si>
-  <si>
-    <t>[In t:MessageType Complex Type] The MessageType schema is &lt;xs:complexType name="MessageType"&gt;
-  &lt;xs:complexContent&gt;
-    &lt;xs:extension
-      base="t:ItemType"
-    &gt;
-      &lt;xs:sequence&gt;
-        &lt;xs:element name="Sender"
-          type="t:SingleRecipientType"
-          minOccurs="0"
-         /&gt;
-        &lt;xs:element name="ToRecipients"
-          type="t:ArrayOfRecipientsType"
-          minOccurs="0"
-         /&gt;
-        &lt;xs:element name="CcRecipients"
-          type="t:ArrayOfRecipientsType"
-          minOccurs="0"
-         /&gt;
-        &lt;xs:element name="BccRecipients"
-          type="t:ArrayOfRecipientsType"
-          minOccurs="0"
-         /&gt;
-        &lt;xs:element name="IsReadReceiptRequested"
-          type="xs:boolean"
-          minOccurs="0"
-         /&gt;
-        &lt;xs:element name="IsDeliveryReceiptRequested"
-          type="xs:boolean"
-          minOccurs="0"
-         /&gt;
-        &lt;xs:element name="ConversationIndex"
-          type="xs:base64Binary"
-          minOccurs="0"
-         /&gt;
-        &lt;xs:element name="ConversationTopic"
-          type="xs:string"
-          minOccurs="0"
-         /&gt;
-        &lt;xs:element name="From"
-          type="t:SingleRecipientType"
-          minOccurs="0"
-         /&gt;
-        &lt;xs:element name="InternetMessageId"
-          type="xs:string"
-          minOccurs="0"
-         /&gt;
-        &lt;xs:element name="IsRead"
-          type="xs:boolean"
-          minOccurs="0"
-         /&gt;
-        &lt;xs:element name="IsResponseRequested"
-          type="xs:boolean"
-          minOccurs="0"
-         /&gt;
-        &lt;xs:element name="References"
-          type="xs:string"
-          minOccurs="0"
-         /&gt;
-        &lt;xs:element name="ReplyTo"
-          type="t:ArrayOfRecipientsType"
-          minOccurs="0"
-         /&gt;
-        &lt;xs:element name="ReceivedBy"
-          type="t:SingleRecipientType"
-          minOccurs="0"
-         /&gt;
-        &lt;xs:element name="ReceivedRepresenting"
-          type="t:SingleRecipientType"
-          minOccurs="0"
-         /&gt;
-      &lt;/xs:sequence&gt;
-    &lt;/xs:extension&gt;
-  &lt;/xs:complexContent&gt;
-&lt;/xs:complexType&gt;</t>
-  </si>
-  <si>
     <t>[In t:MessageType Complex Type] The following table lists the child elements[Sender, ToRecipients, CcRecipients, BccRecipients, IsReadReceiptRequested, IsDeliveryReceiptRequested, ConversationIndex, ConversationTopic, From, InternetMessageId, IsRead, IsResponseRequested, References, ReplyTo, ReceivedBy and ReceivedRepresenting] of the MessageType complex type.</t>
   </si>
   <si>
-    <t>[In t:MessageType Complex Type] The Sender element is t:SingleRecipientType ([MS-OXWSCDATA] section 2.2.4.60) type.</t>
-  </si>
-  <si>
     <t>[In t:MessageType Complex Type] When the Mailbox element of Sender element include an MailboxType element of t:MailboxTypeType, the value "Mailbox" of t:MailboxTypeType specifies a mail-enabled directory service object.</t>
   </si>
   <si>
@@ -1156,18 +1042,12 @@
     <t>[In t:MessageType Complex Type] [Sender element] This is a read/write element.</t>
   </si>
   <si>
-    <t>[In t:MessageType Complex Type] ToRecipients element is t:ArrayOfRecipientsType ([MS-OXWSCDATA] section 2.2.4.9) type.</t>
-  </si>
-  <si>
     <t>[In t:MessageType Complex Type]When the Mailbox element of ToRecipients element include an MailboxType element of t:MailboxTypeType, the value "Mailbox" of t:MailboxTypeType specifies a mail-enabled directory service object.</t>
   </si>
   <si>
     <t>[In t:MessageType Complex Type] When the Mailbox element of ToRecipients element include an EmailAddress element of t:NonEmptyStringType, the t:NonEmptyStringType simple type specifies a string that MUST have a minimum of one character.</t>
   </si>
   <si>
-    <t>[In t:MessageType Complex Type] ToRecipients element Specifies a collection of recipients of an e-mail.</t>
-  </si>
-  <si>
     <t>[In t:MessageType Complex Type] [ToRecipients element] This element is required for sending a message.</t>
   </si>
   <si>
@@ -1177,9 +1057,6 @@
     <t>[In t:MessageType Complex Type] CcRecipients element is t:ArrayOfRecipientsType type.</t>
   </si>
   <si>
-    <t>[In t:MessageType Complex Type] CcRecipients element Specifies a collection of recipients that receive a carbon copy (Cc) of an e-mail.</t>
-  </si>
-  <si>
     <t>[In t:MessageType Complex Type] [CcRecipients element] This element is optional.</t>
   </si>
   <si>
@@ -1189,9 +1066,6 @@
     <t>[In t:MessageType Complex Type] BccRecipients element is t:ArrayOfRecipientsType type.</t>
   </si>
   <si>
-    <t>[In t:MessageType Complex Type] BccRecipients element Specifies a collection of recipients that receive a blind carbon copy (Bcc) of an e-mail.</t>
-  </si>
-  <si>
     <t>[In t:MessageType Complex Type] [BccRecipients element] This element is optional.</t>
   </si>
   <si>
@@ -1222,9 +1096,6 @@
     <t>[In t:MessageType Complex Type] IsDeliveryReceiptRequested element Specifies a Boolean value that indicates whether the sender of the message has requested a delivery receipt.</t>
   </si>
   <si>
-    <t>[In t:MessageType Complex Type] [IsDeliveryReceiptRequested element] This element is required when the IsDeliveryReceiptRequested element is specified.</t>
-  </si>
-  <si>
     <t>[In t:MessageType Complex Type] [IsDeliveryReceiptRequested element] This is a read/write element.</t>
   </si>
   <si>
@@ -1234,18 +1105,9 @@
     <t>[In t:MessageType Complex Type] [IsDeliveryReceiptRequested element] A text value of "false" indicates that a delivery receipt has not been requested from the recipient of the message.</t>
   </si>
   <si>
-    <t>[In t:MessageType Complex Type] ConversationIndex element is xs:base64Binary ([XMLSCHEMA2]) type.</t>
-  </si>
-  <si>
-    <t>[In t:MessageType Complex Type] ConversationIndex element Specifies the identifier to the thread to which the message belongs.</t>
-  </si>
-  <si>
     <t>[In t:MessageType Complex Type] [ConversationIndex element] This element is optional.</t>
   </si>
   <si>
-    <t>[In t:MessageType Complex Type] [ConversationIndex element] This is a read/write element.</t>
-  </si>
-  <si>
     <t>[In t:MessageType Complex Type] ConversationTopic element is xs:string ([XMLSCHEMA2]) type.</t>
   </si>
   <si>
@@ -1279,18 +1141,12 @@
     <t>[In t:MessageType Complex Type] [InternetMessageId element] This element is optional.</t>
   </si>
   <si>
-    <t>[In t:MessageType Complex Type] [InternetMessageId element] This is a read/write element.</t>
-  </si>
-  <si>
     <t>[In t:MessageType Complex Type] IsRead element is xs:boolean type.</t>
   </si>
   <si>
     <t>[In t:MessageType Complex Type] IsRead element Specifies a Boolean value that indicates whether the message has been read.</t>
   </si>
   <si>
-    <t>[In t:MessageType Complex Type] [IsRead element] This element is read-only.</t>
-  </si>
-  <si>
     <t>[In t:MessageType Complex Type] [IsRead element]The text value of "true" indicates that the message has been read.</t>
   </si>
   <si>
@@ -1300,9 +1156,6 @@
     <t>[In t:MessageType Complex Type] IsResponseRequested element is xs:boolean type.</t>
   </si>
   <si>
-    <t>[In t:MessageType Complex Type] IsResponseRequested element Specifies a Boolean value that indicates whether a response to an e-mail has been requested.</t>
-  </si>
-  <si>
     <t>[In t:MessageType Complex Type] [IsResponseRequested element] This element is optional.</t>
   </si>
   <si>
@@ -1328,9 +1181,6 @@
   </si>
   <si>
     <t>[In t:MessageType Complex Type] ReplyTo element is t:ArrayOfRecipientsType type.</t>
-  </si>
-  <si>
-    <t>[In t:MessageType Complex Type] ReplyTo element Specifies a collection of addresses to which replies should be sent.</t>
   </si>
   <si>
     <t>[In t:MessageType Complex Type] [ReplyTo element] This element is optional.</t>
@@ -1383,30 +1233,15 @@
     <t>[In t:MessageDispositionType Simple Type] The following table lists the values[SaveOnly, SendOnly and SendAndSaveCopy] that are defined by the MessageDispositionType simple type.</t>
   </si>
   <si>
-    <t>[In t:MessageDispositionType Simple Type] The value "SaveOnly" means when used in the CreateItemType element ([MS-OXWSCORE] section 3.1.4.2.2.1), the e-mail message item is saved in the folder that is specified by the TargetFolderIdType complex type ([MS-OXWSFOLD] section 2.2.4.14).</t>
-  </si>
-  <si>
     <t>[In t:MessageDispositionType Simple Type] [when "SaveOnly" used in CreateItem Type element] Messages can be sent later by using the SendItem operation (section 3.1.4.7) on an ExchangeServiceBinding object.</t>
   </si>
   <si>
     <t>[In t:MessageDispositionType Simple Type] [when "SaveOnly" used in CreateItem Type element] In this case, an item identifier is returned.</t>
   </si>
   <si>
-    <t>[In t:MessageDispositionType Simple Type] The value "SendOnly" means when used in the CreateItemType element ([MS-OXWSCORE] section 3.1.4.2.2.1), the e-mail message item is sent.</t>
-  </si>
-  <si>
-    <t>[In t:MessageDispositionType Simple Type] The value "SendOnly" means when used in the CreateItemType element ([MS-OXWSCORE] section 3.1.4.2.2.1), the e-mail message item [is sent] but no copy is saved.</t>
-  </si>
-  <si>
     <t>[In t:MessageDispositionType Simple Type] [When "SendOnly" used in CreateItem Type element] In this case, an item identifier is not returned.</t>
   </si>
   <si>
-    <t>[In t:MessageDispositionType Simple Type] The value "SendAndSaveCopy" means when used in the CreateItemType element ([MS-OXWSCORE] section 3.1.4.2.2.1), the e-mail message item is sent.</t>
-  </si>
-  <si>
-    <t>[In t:MessageDispositionType Simple Type] The value "SendAndSaveCopy" means when used in the CreateItemType element ([MS-OXWSCORE] section 3.1.4.2.2.1), the e-mail message item [is sent] and a copy is saved in the TargetFolderIdType complex type ([MS-OXWSFOLD] section 2.2.4.14).</t>
-  </si>
-  <si>
     <t>[In t:MessageDispositionType Simple Type] [When "SendAndSaveCopy" used in CreateItem Type element] In this case, an item identifier is not returned.</t>
   </si>
   <si>
@@ -1428,9 +1263,6 @@
     <t>[In Protocol Details] Calls made by the higher-layer protocol or application are passed directly to the transport, and the results returned by the transport are passed directly back to the higher-layer protocol or application.</t>
   </si>
   <si>
-    <t>[In ExchangeServicePortType Server Details] The E-Mail Message Types Items Web Service Protocol defines a single port type with seven operations.</t>
-  </si>
-  <si>
     <t>[In Abstract Data Model] This section describes a conceptual model of possible data organization that an implementation maintains to participate in this protocol.</t>
   </si>
   <si>
@@ -1441,30 +1273,6 @@
   </si>
   <si>
     <t>[In Message Processing Events and Sequencing Rules] The following table summarizes the list of WSDL operations[CopyItem, CreateItem, DeleteItem, GetItem, MoveItem, SendItem and UpdateItem] as defined by this specification.</t>
-  </si>
-  <si>
-    <t>[In Message Processing Events and Sequencing Rules] CopyItem operation Copies a message on the server.</t>
-  </si>
-  <si>
-    <t>[In Message Processing Events and Sequencing Rules] CreateItem operation Creates a message on the server.</t>
-  </si>
-  <si>
-    <t>[In Message Processing Events and Sequencing Rules] DeleteItem operation Deletes a message from the server.</t>
-  </si>
-  <si>
-    <t>[In Message Processing Events and Sequencing Rules] GetItem operation Gets a message from the server.</t>
-  </si>
-  <si>
-    <t>[In Message Processing Events and Sequencing Rules] MoveItem operation Moves a message on the server.</t>
-  </si>
-  <si>
-    <t>[In Message Processing Events and Sequencing Rules] SendItem operation Sends a message to the server.</t>
-  </si>
-  <si>
-    <t>[In Message Processing Events and Sequencing Rules] UpdateItem operation Updates a message on the server.</t>
-  </si>
-  <si>
-    <t>[In CreateItem] The CreateItem operation creates e-mail messages.</t>
   </si>
   <si>
     <t>[In CreateItem] The following is the WSDL port type specification of the CreateItem operation.
@@ -1493,16 +1301,7 @@
     <t>[In CreateItem] The protocol client sends a CreateItemSoapIn request WSDL message, and the protocol server responds with a CreateItemSoapOut response WSDL message.</t>
   </si>
   <si>
-    <t>[In CreateItem] A successful CreateItem operation request returns a CreateItemResponse element with the ResponseClass attribute of the CreateItemResponseMessage element set to "Success".</t>
-  </si>
-  <si>
-    <t>[In CreateItem] [A successful CreateItem operation request returns a CreateItemResponse element] The ResponseCode element of the CreateItemResponse element is set to "NoError".</t>
-  </si>
-  <si>
     <t>[In CreateItem] For more information, see CreateItem as described in [MS-OXWSCORE] section 3.1.4.2.</t>
-  </si>
-  <si>
-    <t>[In GetItem] The GetItem operation enables the user to get e-mail messages and to access information about e-mail messages.</t>
   </si>
   <si>
     <t>[In GetItem] The following is the WSDL port type specification of the GetItem operation.&lt;wsdl:operation name="GetItem"&gt;
@@ -1572,16 +1371,7 @@
     <t>[In GetItem] The protocol client sends a GetItemSoapIn request WSDL message, and the protocol server responds with a GetItemSoapOut response WSDL message.</t>
   </si>
   <si>
-    <t>[In GetItem] A successful GetItem operation request returns a GetItemResponse element with the ResponseClass attribute of the GetItemResponseMessage element set to "Success".</t>
-  </si>
-  <si>
-    <t>[In GetItem] [A successful GetItem operation request returns a GetItemResponse element] The ResponseCode element of the GetItemResponse element is set to "NoError".</t>
-  </si>
-  <si>
     <t>[In GetItem] For more information, see GetItem as described in [MS-OXWSCORE] section 3.1.4.2.</t>
-  </si>
-  <si>
-    <t>[In UpdateItem] The UpdateItem operation updates e-mail message properties in the server store.</t>
   </si>
   <si>
     <t>[In UpdateItem] The following is the WSDL port type specification of the operation. &lt;wsdl:operation name="UpdateItem"&gt;
@@ -1618,16 +1408,7 @@
     <t>[In UpdateItem] The protocol client sends an UpdateItemSoapIn request WSDL message, and the protocol server responds with an UpdateItemSoapOut response WSDL message.</t>
   </si>
   <si>
-    <t>[In UpdateItem] A successful UpdateItem operation request returns an UpdateItemResponse element with the ResponseClass attribute of the UpdateItemResponseMessage element set to "Success".</t>
-  </si>
-  <si>
-    <t>[In UpdateItem] [A successful UpdateItem operation request returns an UpdateItemResponse element] The ResponseCode element of the UpdateItemResponse element is set to "NoError".</t>
-  </si>
-  <si>
     <t>[In UpdateItem] For more information, see UpdateItem as described in [MS-OXWSCORE] section 3.1.4.9.</t>
-  </si>
-  <si>
-    <t>[In DeleteItem] The DeleteItem operation deletes e-mail messages from the server store.</t>
   </si>
   <si>
     <t>[In DeleteItem] The following is the WSDL port type specification of the DeleteItem operation. &lt;wsdl:operation name="DeleteItem"&gt;
@@ -1654,18 +1435,6 @@
     <t>[In DeleteItem] The protocol client sends a DeleteItemSoapIn request WSDL message, and the protocol server responds with a DeleteItemSoapOut response WSDL message.</t>
   </si>
   <si>
-    <t>[In DeleteItem] A successful DeleteItem operation request returns a DeleteItemResponse element with the ResponseClass attribute of the DeleteItemResponseMessage element set to "Success".</t>
-  </si>
-  <si>
-    <t>[In DeleteItem] [A successful DeleteItem operation request returns a DeleteItemResponse element] The ResponseCode element of the DeleteItemResponse element is set to "NoError".</t>
-  </si>
-  <si>
-    <t>[In DeleteItem] For more information, see DeleteItem as described in [MS-OXWSCORE] section 3.1.4.2.</t>
-  </si>
-  <si>
-    <t>[In MoveItem] The MoveItem operation moves one or more e-mail messages to a single destination folder.</t>
-  </si>
-  <si>
     <t>[In MoveItem] The following is the WSDL port type specification of the MoveItem operation. &lt;wsdl:operation name="MoveItem"&gt;
     &lt;wsdl:input message="tns:MoveItemSoapIn" /&gt;
     &lt;wsdl:output message="tns:MoveItemSoapOut" /&gt;
@@ -1690,16 +1459,7 @@
     <t>[In MoveItem] The protocol client sends a MoveItemSoapIn request WSDL message, and the protocol server responds with a MoveItemSoapOut response WSDL message.</t>
   </si>
   <si>
-    <t>[In MoveItem] A successful MoveItem operation request returns a MoveItemResponse element with the ResponseClass attribute of the MoveItemResponseMessage element set to "Success".</t>
-  </si>
-  <si>
-    <t>[In MoveItem] [A successful MoveItem operation request returns a MoveItemResponse element] The ResponseCode element of the MoveItemResponse element is set to "NoError".</t>
-  </si>
-  <si>
     <t>[In MoveItem] For more information, see MoveItem as described in [MS-OXWSCORE] section 3.1.4.7.</t>
-  </si>
-  <si>
-    <t>[In CopyItem] The CopyItem operation copies e-mail messages and puts them in a different folder.</t>
   </si>
   <si>
     <t>[In CopyItem] The following is the WSDL port type specification of the CopyItem operation. &lt;wsdl:operation name="CopyItem"&gt;
@@ -1724,15 +1484,6 @@
   </si>
   <si>
     <t>[In CopyItem] The protocol client sends a CopyItemSoapIn request WSDL message, and the protocol server responds with a CopyItemSoapOut response WSDL message.</t>
-  </si>
-  <si>
-    <t>[In CopyItem] A successful CopyItem operation request returns a CopyItemResponse element with the ResponseClass attribute of the CopyItemResponseMessage element set to "Success".</t>
-  </si>
-  <si>
-    <t>[In CopyItem] [A successful CopyItem operation request returns a CopyItemResponse element] The ResponseCode element of the CopyItemResponse element is set to "NoError".</t>
-  </si>
-  <si>
-    <t>[In CopyItem] For more information, see CopyItem as described in [MS-OXWSCORE] section 3.1.4.1.</t>
   </si>
   <si>
     <t>[In SendItem] The SendItem operation sends e-mail messages that are located in the server store.</t>
@@ -1907,9 +1658,6 @@
   </si>
   <si>
     <t>E-Mail Message Types Web Service Protocol Specification</t>
-  </si>
-  <si>
-    <t>[In Complex Types] The MessageType complex type Represents a server e-mail message in a user's mailbox.</t>
   </si>
   <si>
     <t>[In ExchangeServicePortType Server Details] The operations enable client implementations to get, create, delete, update, move, copy, and send messages in a user's mailbox.</t>
@@ -2036,6 +1784,445 @@
       <t xml:space="preserve"> Indicates that a requirement is verifiable, but choose not to test because of cost or other reason.</t>
     </r>
   </si>
+  <si>
+    <t>[In Transport] This protocol uses SOAP 1.1.</t>
+  </si>
+  <si>
+    <t>The endpoint URL that is returned by either the Autodiscover Publishing Lookup SOAP-Based Web Service Protocol,as specified by [MS-OXWSADISC], or the Autodiscover Publishing and Lookup Protocol, as specified by [MS-OXDSCLI], is required to form the HTTP request to the Web server that hosts this protocol.</t>
+  </si>
+  <si>
+    <t>The operations that this protocol defines cannot be accessed unless the correct endpoint is identified in the HTTP Web requests that target this protocol.</t>
+  </si>
+  <si>
+    <t>MS-OXWSMSG_R1501001</t>
+  </si>
+  <si>
+    <t xml:space="preserve">To access this protocol, all callers are authenticated. </t>
+  </si>
+  <si>
+    <t>This protocol relies on the web server that hosts the application to perform authentication.</t>
+  </si>
+  <si>
+    <t>MS-OXWSMSG_R1501002</t>
+  </si>
+  <si>
+    <t>[In Transport] This protocol relies on the web server that hosts the application to perform authentication.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[In Transport] The protocol MUST support SOAP over HTTP, as specified in [RFC2616]. </t>
+  </si>
+  <si>
+    <t>MS-OXWSMSG_R3001</t>
+  </si>
+  <si>
+    <t>[In Common Message Syntax] The syntax of the definitions uses XML schema, as specified in [XMLSCHEMA1] and [XMLSCHEMA2], and WSDL, as specified in [WSDL].</t>
+  </si>
+  <si>
+    <t>[In Complex Types] The MessageType complex type Represents a server email message in a user's mailbox.</t>
+  </si>
+  <si>
+    <t>[In t:MessageType Complex Type] The MessageType complex type represents a server email message in a mailbox.</t>
+  </si>
+  <si>
+    <t>[In t:MessageType Complex Type] The MessageType complex type extends the ItemType complex type ([MS-OXWSCORE] section 2.2.4.24).</t>
+  </si>
+  <si>
+    <t>[In t:MessageType Complex Type] The MessageType schema is &lt;xs:complexType name="MessageType"&gt;
+  &lt;xs:complexContent&gt;
+    &lt;xs:extension
+      base="t:ItemType"
+    &gt;
+      &lt;xs:sequence&gt;
+        &lt;xs:element name="Sender"
+          type="t:SingleRecipientType"
+          minOccurs="0"
+         /&gt;
+        &lt;xs:element name="ToRecipients"
+          type="t:ArrayOfRecipientsType"
+          minOccurs="0"
+         /&gt;
+        &lt;xs:element name="CcRecipients"
+          type="t:ArrayOfRecipientsType"
+          minOccurs="0"
+         /&gt;
+        &lt;xs:element name="BccRecipients"
+          type="t:ArrayOfRecipientsType"
+          minOccurs="0"
+         /&gt;
+        &lt;xs:element name="IsReadReceiptRequested"
+          type="xs:boolean"
+          minOccurs="0"
+         /&gt;
+        &lt;xs:element name="IsDeliveryReceiptRequested"
+          type="xs:boolean"
+          minOccurs="0"
+         /&gt;
+        &lt;xs:element name="ConversationIndex"
+          type="xs:base64Binary"
+          minOccurs="0"
+         /&gt;
+        &lt;xs:element name="ConversationTopic"
+          type="xs:string"
+          minOccurs="0"
+         /&gt;
+        &lt;xs:element name="From"
+          type="t:SingleRecipientType"
+          minOccurs="0"
+         /&gt;
+        &lt;xs:element name="InternetMessageId"
+          type="xs:string"
+          minOccurs="0"
+         /&gt;
+        &lt;xs:element name="IsRead"
+          type="xs:boolean"
+          minOccurs="0"
+         /&gt;
+        &lt;xs:element name="IsResponseRequested"
+          type="xs:boolean"
+          minOccurs="0"
+         /&gt;
+        &lt;xs:element name="References"
+          type="xs:string"
+          minOccurs="0"
+         /&gt;
+        &lt;xs:element name="ReplyTo"
+          type="t:ArrayOfRecipientsType"
+          minOccurs="0"
+         /&gt;
+        &lt;xs:element name="ReceivedBy"
+          type="t:SingleRecipientType"
+          minOccurs="0"
+         /&gt;
+        &lt;xs:element name="ReceivedRepresenting"
+          type="t:SingleRecipientType"
+          minOccurs="0"
+         /&gt;
+        &lt;xs:element name="ApprovalRequestData"
+           type="t:ApprovalRequestDataType" 
+           minOccurs="0"
+          /&gt;
+         &lt;xs:element name="VotingInformation"
+           type="t:VotingInformationType" 
+           minOccurs="0"
+          /&gt;
+         &lt;xs:element name="ReminderMessageData" 
+           type="t:ReminderMessageDataType" 
+           minOccurs="0"
+          /&gt;
+      &lt;/xs:sequence&gt;
+    &lt;/xs:extension&gt;
+  &lt;/xs:complexContent&gt;
+&lt;/xs:complexType&gt;</t>
+  </si>
+  <si>
+    <t>[In t:MessageType Complex Type] The Sender element is t:SingleRecipientType ([MS-OXWSCDATA] section 2.2.4.71) type.</t>
+  </si>
+  <si>
+    <t>[In t:MessageType Complex Type] ToRecipients element is t:ArrayOfRecipientsType ([MS-OXWSCDATA] section 2.2.4.11) type.</t>
+  </si>
+  <si>
+    <t>[In t:MessageType Complex Type] ToRecipients element Specifies a collection of recipients of an email.</t>
+  </si>
+  <si>
+    <t>[In t:MessageType Complex Type] BccRecipients element Specifies a collection of recipients that receive a blind carbon copy (Bcc) of an email.</t>
+  </si>
+  <si>
+    <t>[In t:MessageType Complex Type] CcRecipients element Specifies a collection of recipients that receive a carbon copy (Cc) of an email.</t>
+  </si>
+  <si>
+    <t>[In t:MessageType Complex Type] ConversationIndex element is xs:base64Binary ([XMLSCHEMA2] sec 3.2.16) type.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[In t:MessageType Complex Type] ConversationIndex element Specifies the position of the message within a conversation. </t>
+  </si>
+  <si>
+    <t>[In t:MessageType Complex Type] [ConversationIndex element] This element is read-only.</t>
+  </si>
+  <si>
+    <t>[In t:MessageType Complex Type] [InternetMessageId element] This element is read-only.</t>
+  </si>
+  <si>
+    <t>[In t:MessageType Complex Type] [IsRead element] This is a read/write element.</t>
+  </si>
+  <si>
+    <t>[In t:MessageType Complex Type] IsResponseRequested element Specifies a Boolean value that indicates whether a response to an email has been requested.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[In t:MessageType Complex Type] ReplyTo element Specifies a collection of addresses to send replies to. </t>
+  </si>
+  <si>
+    <t>[In t:MessageType Complex Type] [ReceivedBy element] This element is read-only.</t>
+  </si>
+  <si>
+    <t>MS-OXWSMSG_R72001</t>
+  </si>
+  <si>
+    <t>[In t:MessageType Complex Type] [ReceivedRepresenting element] This element is read-only.</t>
+  </si>
+  <si>
+    <t>MS-OXWSMSG_R73001</t>
+  </si>
+  <si>
+    <t>[In t:MessageType Complex Type] The type of child element ApprovalRequestData is t:ApprovalRequestDataType ([MS-OXWSMTGS] section 2.2.4.3).</t>
+  </si>
+  <si>
+    <t>[In t:MessageType Complex Type] [ApprovalRequestData] Specifies the approval state of an approval request message.&lt;1&gt;</t>
+  </si>
+  <si>
+    <t>[In t:MessageType Complex Type] The type of child element VotingInformation is t:VotingInformationType ([MS-OXWSMTGS] section 2.2.4.39).</t>
+  </si>
+  <si>
+    <t>[In t:MessageType Complex Type] [VotingInformation] Specifies voting information on messages that include voting buttons or voting response messages. &lt;2&gt;</t>
+  </si>
+  <si>
+    <t>[In t:MessageType Complex Type] The type of child element ReminderMessageData is t:ReminderMessageDataType ( [MS-OXWSMTGS] section 2.2.4.33).</t>
+  </si>
+  <si>
+    <t>[In t:MessageType Complex Type] [ReminderMessageData] Specifies the data in a reminder message. &lt;3&gt;</t>
+  </si>
+  <si>
+    <t>MS-OXWSMSG_R73002</t>
+  </si>
+  <si>
+    <t>MS-OXWSMSG_R73003</t>
+  </si>
+  <si>
+    <t>MS-OXWSMSG_R73004</t>
+  </si>
+  <si>
+    <t>MS-OXWSMSG_R73005</t>
+  </si>
+  <si>
+    <t>MS-OXWSMSG_R73006</t>
+  </si>
+  <si>
+    <t>MS-OXWSMSG_R73007</t>
+  </si>
+  <si>
+    <t>[In t:MessageDispositionType Simple Type] The value "SaveOnly" means when used in the CreateItemType complex type ([MS-OXWSCORE] section 3.1.4.2.3.2), the email message item is saved in the folder that is specified by the TargetFolderIdType complex type ([MS-OXWSFOLD] section 2.2.4.16).</t>
+  </si>
+  <si>
+    <t>[In t:MessageDispositionType Simple Type] The value "SendOnly" means when used in the CreateItemType complex type, the email message item is sent.</t>
+  </si>
+  <si>
+    <t>[In t:MessageDispositionType Simple Type] The value "SendOnly" means when used in the CreateItemType complex type, the email message item [is sent] but no copy is saved.</t>
+  </si>
+  <si>
+    <t>[In t:MessageDispositionType Simple Type] The value "SendAndSaveCopy" means when used in the CreateItemType complex type, the email message item is sent.</t>
+  </si>
+  <si>
+    <t>[In t:MessageDispositionType Simple Type] The value "SendAndSaveCopy" means when used in the CreateItemType complex type, the email message item [is sent] and a copy is saved in the TargetFolderIdType complex type.</t>
+  </si>
+  <si>
+    <t>[In ExchangeServicePortType Server Details] The EMail Message Types Items Web Service Protocol defines a single port type with seven operations.</t>
+  </si>
+  <si>
+    <t>[In Message Processing Events and Sequencing Rules] CreateItem operation Creates an email message on the server.</t>
+  </si>
+  <si>
+    <t>[In Message Processing Events and Sequencing Rules] CopyItem operation Copies an email message on the server.</t>
+  </si>
+  <si>
+    <t>[In Message Processing Events and Sequencing Rules] DeleteItem operation Deletes an email message from the server.</t>
+  </si>
+  <si>
+    <t>[In Message Processing Events and Sequencing Rules] GetItem operation Gets an email message from the server.</t>
+  </si>
+  <si>
+    <t>[In Message Processing Events and Sequencing Rules] MoveItem operation Moves an email message on the server.</t>
+  </si>
+  <si>
+    <t>[In Message Processing Events and Sequencing Rules] SendItem operation Sends an email message to the server.</t>
+  </si>
+  <si>
+    <t>[In Message Processing Events and Sequencing Rules] UpdateItem operation Updates an email message on the server.</t>
+  </si>
+  <si>
+    <t>[In CopyItem] The CopyItem operation copies email messages on the server.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[In CopyItem] If the CreateItem WSDL operation request is successful, the server returns a CreateItemResponse element, as specified in [MS-OXWSCORE] section 3.1.4.2.2.2, with the ResponseClass attribute, as specified in [MS-OXWSCDATA] section 2.2.4.67, of the CreateItemResponseMessage element, as specified in [MS-OXWSCDATA] section 2.2.4.12, set to "Success". </t>
+  </si>
+  <si>
+    <t xml:space="preserve">[In CopyItem] [A successful CopyItem operation request returns a CopyItemResponse element] The ResponseCode element, as specified in [MS-OXWSCDATA] section 2.2.4.67, of the CreateItemResponseMessage element is set to "NoError". </t>
+  </si>
+  <si>
+    <t xml:space="preserve">[In CopyItem] If the CreateItem WSDL operation is not successful, it returns a CreateItemResponse element with the ResponseClass attribute of the CreateItemResponseMessage element set to "Error". </t>
+  </si>
+  <si>
+    <t>MS-OXWSMSG_R170001</t>
+  </si>
+  <si>
+    <t>MS-OXWSMSG_R170002</t>
+  </si>
+  <si>
+    <t>[In CopyItem]For more information, see CopyItem as described in [MS-OXWSCORE] section 3.1.4.1.</t>
+  </si>
+  <si>
+    <t>[In CreateItem] The CreateItem operation creates email messages.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[In CreateItem]If the CreateItem WSDL operation request is successful, the server returns a CreateItemResponse element, as specified in [MS-OXWSCORE] section 3.1.4.2.2.2, with the ResponseClass attribute, as specified in [MS-OXWSCDATA] section 2.2.4.67, of the CreateItemResponseMessage element, as specified in [MS-OXWSCDATA] section 2.2.4.12, set to "Success". </t>
+  </si>
+  <si>
+    <t xml:space="preserve">[In CreateItem] [A successful CreateItem operation request returns a CreateItemResponse element] The ResponseCode element, as specified in [MS-OXWSCDATA] section 2.2.4.67, of the CreateItemResponseMessage element is set to "NoError". </t>
+  </si>
+  <si>
+    <t xml:space="preserve">[In CreateItem] If the CreateItem WSDL operation is not successful, it returns a CreateItemResponse element with the ResponseClass attribute of the CreateItemResponseMessage element set to "Error". </t>
+  </si>
+  <si>
+    <t>[In CreateItem] [A unsuccessful CreateItem operation request returns a CreateItemResponse element] The ResponseCode element of the CreateItemResponseMessage element is set to one of the common errors defined in [MS-OXWSCDATA] section 2.2.5.24.</t>
+  </si>
+  <si>
+    <t>MS-OXWSMSG_R113001</t>
+  </si>
+  <si>
+    <t>MS-OXWSMSG_R113002</t>
+  </si>
+  <si>
+    <t>[In CopyItem] [A unsuccessful CopyItem operation request returns a CopyItemResponse element] The ResponseCode element of the CreateItemResponseMessage element is set to one of the common errors defined in [MS-OXWSCDATA] section 2.2.5.24.</t>
+  </si>
+  <si>
+    <t>[In DeleteItem] The DeleteItem operation deletes email messages from the server store.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[In DeleteItem] If the DeleteItem WSDL operation request is successful, the server returns a DeleteItemResponse element, as specified in [MS-OXWSCORE] section 3.1.4.3.2.2, with the ResponseClass attribute, as specified in [MS-OXWSCDATA] section 2.2.4.67, of the DeleteItemResponseMessage element, as specified in [MS-OXWSCDATA] section 2.2.4.12, set to "Success". </t>
+  </si>
+  <si>
+    <t xml:space="preserve">[In DeleteItem] [A successful DeleteItem operation request returns a DeleteItemResponse element] The ResponseCode element, as specified by [MS-OXWSCDATA] section 2.2.4.67, of the DeleteItemResponseMessage element is set to "NoError". </t>
+  </si>
+  <si>
+    <t>[In DeleteItem] For more information, see DeleteItem as described in [MS-OXWSCORE] section 3.1.4.3.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[In DeleteItem] If the DeleteItem WSDL operation request is not successful, it returns a DeleteItemResponse element with the ResponseClass attribute of the DeleteItemResponseMessage element set to "Error". </t>
+  </si>
+  <si>
+    <t>[In DeleteItem] [A unsuccessful DeleteItem operation request returns a DeleteItemResponse element] The ResponseCode element of the DeleteItemResponseMessage element is set to one of the common errors defined in [MS-OXWSCDATA] section 2.2.5.24.</t>
+  </si>
+  <si>
+    <t>MS-OXWSMSG_R154001</t>
+  </si>
+  <si>
+    <t>MS-OXWSMSG_R154002</t>
+  </si>
+  <si>
+    <t>[In GetItem] The GetItem operation enables the user to get email messages and to access information about email messages.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[In GetItem] If the GetItem WSDL operation request is successful, the server returns a GetItemResponse element, as specified in [MS-OXWSCORE] section 3.1.4.4.2.2, with the ResponseClass attribute, as specified in [MS-OXWSCDATA] section 2.2.4.67, of the GetItemResponseMessage element, as specified in [MS-OXWSCDATA] section 2.2.4.12, set to "Success". </t>
+  </si>
+  <si>
+    <t xml:space="preserve">[In GetItem] [A successful GetItem operation request returns a GetItemResponse element] The ResponseCode element, as specified in [MS-OXWSCDATA] section 2.2.4.67, of the GetItemResponseMessage element is set to "NoError". </t>
+  </si>
+  <si>
+    <t xml:space="preserve">[In GetItem] If the GetItem WSDL operation request is not successful, it returns a GetItemResponse element with the ResponseClass attribute of the GetItemResponseMessage element set to "Error". </t>
+  </si>
+  <si>
+    <t>[In GetItem] [A unsuccessful GetItem operation request returns a GetItemResponse element] The ResponseCode element of the GetItemResponseMessage element is set to one of the common errors defined in [MS-OXWSCDATA] section 2.2.5.24.</t>
+  </si>
+  <si>
+    <t>MS-OXWSMSG_R135001</t>
+  </si>
+  <si>
+    <t>MS-OXWSMSG_R135002</t>
+  </si>
+  <si>
+    <t>[In MoveItem] The MoveItem operation moves one or more email messages to a single destination folder.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[In MoveItem] If the MoveItem WSDL operation request is successful, the server returns a MoveItemResponse element, as specified in [MS-OXWSCORE] section 3.1.4.7.2.2, with the ResponseClass attribute, as specified in [MS-OXWSCDATA] section 2.2.4.67, of the MoveItemResponseMessage element, as specified in [MS-OXWSCDATA] section 2.2.4.12, set to "Success". </t>
+  </si>
+  <si>
+    <t xml:space="preserve">[In MoveItem] [A successful MoveItem operation request returns a MoveItemResponse element] The ResponseCode element, as specified in [MS-OXWSCDATA] section 2.2.4.67, of the MoveItemResponseMessage element is set to "NoError". </t>
+  </si>
+  <si>
+    <t xml:space="preserve">[In MoveItem] If the MoveItem WSDL operation request is not successful, it returns a MoveItemResponse element with the ResponseClass attribute of the MoveItemResponseMessage element set to "Error". </t>
+  </si>
+  <si>
+    <t>[In MoveItem] [A unsuccessful MoveItem operation request returns a MoveItemResponse element] The ResponseCode element of the MoveItemResponseMessage element is set to one of the common errors defined in [MS-OXWSCDATA] section 2.2.5.24.</t>
+  </si>
+  <si>
+    <t>MS-OXWSMSG_R163001</t>
+  </si>
+  <si>
+    <t>MS-OXWSMSG_R163002</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[In UpdateItem] The UpdateItem operation updates email message properties in the server store. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">[In UpdateItem] If the UpdateItem WSDL operation request is successful, the server returns an UpdateItemResponse element, as specified in [MS-OXWSCORE] section 3.1.4.9.2.2, with the ResponseClass attribute, as specified in [MS-OXWSCDATA] section 2.2.4.67, of the UpdateItemResponseMessage element, as specified in [MS-OXWSCDATA] section 2.2.4.12, set to "Success". </t>
+  </si>
+  <si>
+    <t xml:space="preserve">[In UpdateItem] [A successful UpdateItem operation request returns an UpdateItemResponse element] The ResponseCode element, as specified in [MS-OXWSCDATA] section 2.2.4.67, of the UpdateItemResponseMessage element is set to "NoError". </t>
+  </si>
+  <si>
+    <t xml:space="preserve">[In UpdateItem] If the UpdateItem WSDL operation request is not successful, it returns an UpdateItemResponse element with the ResponseClass attribute of the UpdateItemResponseMessage element set to "Error". </t>
+  </si>
+  <si>
+    <t>[In UpdateItem] [A unsuccessful UpdateItem operation request returns an UpdateItemResponse element] The ResponseCode element of the UpdateItemResponseMessage element is set to one of the common errors defined in [MS-OXWSCDATA] section 2.2.5.24.</t>
+  </si>
+  <si>
+    <t>MS-OXWSMSG_R145001</t>
+  </si>
+  <si>
+    <t>MS-OXWSMSG_R145002</t>
+  </si>
+  <si>
+    <t>[In Appendix C: Product Behavior] Implementation does not support the ApprovalRequestData element. (&lt;1&gt; Section 2.2.4.1: Exchange 2007, Exchange 2010, and the initial release of Exchange 2013 do not support the ApprovalRequestData element. )</t>
+  </si>
+  <si>
+    <t>[In Appendix C: Product Behavior] Implementation does introduce the ApprovalRequestData element. (This element was introduced in Microsoft Exchange Server 2013 Service Pack 1 (SP1).)</t>
+  </si>
+  <si>
+    <t>[In Appendix C: Product Behavior] Implementation does not support the ReminderMessageData element. (&lt;3&gt; Section 2.2.4.1:  Exchange 2007,Exchange 2010, and the initial release of Exchange 2013 do not support the ReminderMessageData element. )</t>
+  </si>
+  <si>
+    <t>[In Appendix C: Product Behavior] Implementation does introduce the ReminderMessageData element. (This element was introduced in Exchange 2013 SP1.)</t>
+  </si>
+  <si>
+    <t>[In Appendix C: Product Behavior] Implementation does introduce the VotingInformation element. (This element was introduced in Exchange 2013 SP1.)</t>
+  </si>
+  <si>
+    <t>[In Appendix C: Product Behavior] Implementation does not support the VotingInformation element. (&lt;2&gt; Section 2.2.4.1:  Exchange 2007,Exchange 2010, and the initial release of Exchange 2013 do not support the VotingInformation element. This .)</t>
+  </si>
+  <si>
+    <t>MS-OXWSMSG_R182001</t>
+  </si>
+  <si>
+    <t>MS-OXWSMSG_R182002</t>
+  </si>
+  <si>
+    <t>MS-OXWSMSG_R182003</t>
+  </si>
+  <si>
+    <t>MS-OXWSMSG_R182004</t>
+  </si>
+  <si>
+    <t>MS-OXWSMSG_R182005</t>
+  </si>
+  <si>
+    <t>MS-OXWSMSG_R182006</t>
+  </si>
+  <si>
+    <t>Verified by derived requirement: MS-OXWSMSG_R182001.</t>
+  </si>
+  <si>
+    <t>MS-OXWSMSG_R73003:i</t>
+  </si>
+  <si>
+    <t>Verified by derived requirement: MS-OXWSMSG_R182004.</t>
+  </si>
+  <si>
+    <t>MS-OXWSMSG_R73005:i</t>
+  </si>
+  <si>
+    <t>Verified by derived requirement: MS-OXWSMSG_R182006.</t>
+  </si>
+  <si>
+    <t>MS-OXWSMSG_R73007:i</t>
+  </si>
 </sst>
 </file>
 
@@ -2045,7 +2232,7 @@
     <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd"/>
     <numFmt numFmtId="165" formatCode="0.0.0"/>
   </numFmts>
-  <fonts count="7">
+  <fonts count="8">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2090,6 +2277,11 @@
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
     </font>
   </fonts>
   <fills count="6">
@@ -2237,7 +2429,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="44">
+  <cellXfs count="47">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -2307,6 +2499,21 @@
     <xf numFmtId="2" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -2325,26 +2532,911 @@
     <xf numFmtId="0" fontId="3" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="2" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="33">
+  <dxfs count="161">
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <name val="Calibri"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <name val="Calibri"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <alignment horizontal="left" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <name val="Calibri"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <name val="Calibri"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <name val="Calibri"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <name val="Calibri"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <name val="Calibri"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <name val="Calibri"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <alignment horizontal="left" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <name val="Calibri"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="left" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <name val="Calibri"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
     <dxf>
       <font>
         <b val="0"/>
@@ -2508,253 +3600,6 @@
         <color auto="1"/>
         <name val="Calibri"/>
         <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <name val="Calibri"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="30" formatCode="@"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="left" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <name val="Calibri"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="30" formatCode="@"/>
-      <alignment horizontal="left" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <name val="Calibri"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="30" formatCode="@"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="left" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <name val="Calibri"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="30" formatCode="@"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="left" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <name val="Calibri"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="30" formatCode="@"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="left" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <name val="Calibri"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <name val="Calibri"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="30" formatCode="@"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <name val="Calibri"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="30" formatCode="@"/>
-      <alignment horizontal="left" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <name val="Calibri"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="left" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <name val="Calibri"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
       </font>
     </dxf>
   </dxfs>
@@ -2886,34 +3731,34 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Requirement" displayName="Requirement" ref="A19:I229" tableType="xml" totalsRowShown="0" headerRowDxfId="18" dataDxfId="17" headerRowCellStyle="Normal" dataCellStyle="Normal" connectionId="1">
-  <autoFilter ref="A19:I229"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Requirement" displayName="Requirement" ref="A19:I256" tableType="xml" totalsRowShown="0" headerRowDxfId="98" dataDxfId="97" headerRowCellStyle="Normal" dataCellStyle="Normal" connectionId="1">
+  <autoFilter ref="A19:I256"/>
   <tableColumns count="9">
-    <tableColumn id="1" uniqueName="ns1:REQ_ID" name="Req ID" dataDxfId="16" dataCellStyle="Normal">
+    <tableColumn id="1" uniqueName="ns1:REQ_ID" name="Req ID" dataDxfId="96" dataCellStyle="Normal">
       <xmlColumnPr mapId="12" xpath="/ns1:ReqTable/ns1:Requirement/ns1:REQ_ID" xmlDataType="string"/>
     </tableColumn>
-    <tableColumn id="2" uniqueName="ns1:Doc_Sect" name="Doc Sect" dataDxfId="15" dataCellStyle="Normal">
+    <tableColumn id="2" uniqueName="ns1:Doc_Sect" name="Doc Sect" dataDxfId="95" dataCellStyle="Normal">
       <xmlColumnPr mapId="12" xpath="/ns1:ReqTable/ns1:Requirement/ns1:Doc_Sect" xmlDataType="string"/>
     </tableColumn>
-    <tableColumn id="3" uniqueName="ns1:Description" name="Description" dataDxfId="14" dataCellStyle="Normal">
+    <tableColumn id="3" uniqueName="ns1:Description" name="Description" dataDxfId="94" dataCellStyle="Normal">
       <xmlColumnPr mapId="12" xpath="/ns1:ReqTable/ns1:Requirement/ns1:Description" xmlDataType="string"/>
     </tableColumn>
-    <tableColumn id="18" uniqueName="ns1:Derived" name="Derived" dataDxfId="13" dataCellStyle="Normal">
+    <tableColumn id="18" uniqueName="ns1:Derived" name="Derived" dataDxfId="93" dataCellStyle="Normal">
       <xmlColumnPr mapId="12" xpath="/ns1:ReqTable/ns1:Requirement/ns1:Derived" xmlDataType="string"/>
     </tableColumn>
-    <tableColumn id="6" uniqueName="ns1:Behavior" name="Behavior" dataDxfId="12" dataCellStyle="Normal">
+    <tableColumn id="6" uniqueName="ns1:Behavior" name="Behavior" dataDxfId="92" dataCellStyle="Normal">
       <xmlColumnPr mapId="12" xpath="/ns1:ReqTable/ns1:Requirement/ns1:Behavior" xmlDataType="string"/>
     </tableColumn>
-    <tableColumn id="7" uniqueName="ns1:Scope" name="Scope" dataDxfId="11" dataCellStyle="Normal">
+    <tableColumn id="7" uniqueName="ns1:Scope" name="Scope" dataDxfId="91" dataCellStyle="Normal">
       <xmlColumnPr mapId="12" xpath="/ns1:ReqTable/ns1:Requirement/ns1:Scope" xmlDataType="string"/>
     </tableColumn>
-    <tableColumn id="9" uniqueName="ns1:IsNormative" name="Informative_x000a_/Normative" dataDxfId="10" dataCellStyle="Normal">
+    <tableColumn id="9" uniqueName="ns1:IsNormative" name="Informative_x000a_/Normative" dataDxfId="90" dataCellStyle="Normal">
       <xmlColumnPr mapId="12" xpath="/ns1:ReqTable/ns1:Requirement/ns1:IsNormative" xmlDataType="string"/>
     </tableColumn>
-    <tableColumn id="10" uniqueName="ns1:Verification" name="Verification" dataDxfId="9" dataCellStyle="Normal">
+    <tableColumn id="10" uniqueName="ns1:Verification" name="Verification" dataDxfId="89" dataCellStyle="Normal">
       <xmlColumnPr mapId="12" xpath="/ns1:ReqTable/ns1:Requirement/ns1:Verification" xmlDataType="string"/>
     </tableColumn>
-    <tableColumn id="8" uniqueName="ns1:VerificationComment" name="Verification Comment" dataDxfId="8">
+    <tableColumn id="8" uniqueName="ns1:VerificationComment" name="Verification Comment" dataDxfId="88">
       <xmlColumnPr mapId="12" xpath="/ns1:ReqTable/ns1:Requirement/ns1:VerificationComment" xmlDataType="string"/>
     </tableColumn>
   </tableColumns>
@@ -2922,12 +3767,12 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Scope" displayName="Scope" ref="A12:C15" totalsRowShown="0" headerRowDxfId="7" dataDxfId="5" headerRowBorderDxfId="6" tableBorderDxfId="4" totalsRowBorderDxfId="3">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Scope" displayName="Scope" ref="A12:C15" totalsRowShown="0" headerRowDxfId="160" dataDxfId="158" headerRowBorderDxfId="159" tableBorderDxfId="157" totalsRowBorderDxfId="156">
   <autoFilter ref="A12:C15"/>
   <tableColumns count="3">
-    <tableColumn id="1" name="Scope" dataDxfId="2"/>
-    <tableColumn id="2" name="Test" dataDxfId="1"/>
-    <tableColumn id="3" name="Description" dataDxfId="0"/>
+    <tableColumn id="1" name="Scope" dataDxfId="155"/>
+    <tableColumn id="2" name="Test" dataDxfId="154"/>
+    <tableColumn id="3" name="Description" dataDxfId="153"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -2976,7 +3821,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -3011,7 +3856,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -3221,9 +4066,11 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:L231"/>
+  <dimension ref="A1:L258"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="C246" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D249" sqref="D249"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
@@ -3241,7 +4088,7 @@
   <sheetData>
     <row r="1" spans="1:10">
       <c r="A1" s="1" t="s">
-        <v>500</v>
+        <v>443</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>27</v>
@@ -3251,7 +4098,7 @@
     </row>
     <row r="2" spans="1:10">
       <c r="A2" s="6" t="s">
-        <v>501</v>
+        <v>444</v>
       </c>
       <c r="B2" s="7"/>
       <c r="C2" s="7"/>
@@ -3276,127 +4123,127 @@
       <c r="J3" s="5"/>
     </row>
     <row r="4" spans="1:10" ht="21">
-      <c r="A4" s="39" t="s">
+      <c r="A4" s="33" t="s">
         <v>24</v>
       </c>
-      <c r="B4" s="39"/>
-      <c r="C4" s="39"/>
-      <c r="D4" s="39"/>
-      <c r="E4" s="39"/>
-      <c r="F4" s="39"/>
-      <c r="G4" s="39"/>
+      <c r="B4" s="33"/>
+      <c r="C4" s="33"/>
+      <c r="D4" s="33"/>
+      <c r="E4" s="33"/>
+      <c r="F4" s="33"/>
+      <c r="G4" s="33"/>
       <c r="J4" s="5"/>
     </row>
     <row r="5" spans="1:10">
       <c r="A5" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="B5" s="42" t="s">
+      <c r="B5" s="36" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="43"/>
-      <c r="D5" s="43"/>
-      <c r="E5" s="43"/>
-      <c r="F5" s="43"/>
-      <c r="G5" s="43"/>
-      <c r="H5" s="43"/>
-      <c r="I5" s="43"/>
+      <c r="C5" s="37"/>
+      <c r="D5" s="37"/>
+      <c r="E5" s="37"/>
+      <c r="F5" s="37"/>
+      <c r="G5" s="37"/>
+      <c r="H5" s="37"/>
+      <c r="I5" s="37"/>
       <c r="J5" s="5"/>
     </row>
     <row r="6" spans="1:10">
       <c r="A6" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="B6" s="41" t="s">
+      <c r="B6" s="35" t="s">
         <v>34</v>
       </c>
-      <c r="C6" s="41"/>
-      <c r="D6" s="41"/>
-      <c r="E6" s="41"/>
-      <c r="F6" s="41"/>
-      <c r="G6" s="41"/>
-      <c r="H6" s="41"/>
-      <c r="I6" s="41"/>
+      <c r="C6" s="35"/>
+      <c r="D6" s="35"/>
+      <c r="E6" s="35"/>
+      <c r="F6" s="35"/>
+      <c r="G6" s="35"/>
+      <c r="H6" s="35"/>
+      <c r="I6" s="35"/>
       <c r="J6" s="5"/>
     </row>
     <row r="7" spans="1:10">
       <c r="A7" s="14" t="s">
         <v>38</v>
       </c>
-      <c r="B7" s="40" t="s">
+      <c r="B7" s="34" t="s">
         <v>28</v>
       </c>
-      <c r="C7" s="40"/>
-      <c r="D7" s="40"/>
-      <c r="E7" s="40"/>
-      <c r="F7" s="40"/>
-      <c r="G7" s="40"/>
-      <c r="H7" s="40"/>
-      <c r="I7" s="40"/>
+      <c r="C7" s="34"/>
+      <c r="D7" s="34"/>
+      <c r="E7" s="34"/>
+      <c r="F7" s="34"/>
+      <c r="G7" s="34"/>
+      <c r="H7" s="34"/>
+      <c r="I7" s="34"/>
       <c r="J7" s="5"/>
     </row>
     <row r="8" spans="1:10">
       <c r="A8" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="B8" s="40" t="s">
+      <c r="B8" s="34" t="s">
         <v>29</v>
       </c>
-      <c r="C8" s="40"/>
-      <c r="D8" s="40"/>
-      <c r="E8" s="40"/>
-      <c r="F8" s="40"/>
-      <c r="G8" s="40"/>
-      <c r="H8" s="40"/>
-      <c r="I8" s="40"/>
+      <c r="C8" s="34"/>
+      <c r="D8" s="34"/>
+      <c r="E8" s="34"/>
+      <c r="F8" s="34"/>
+      <c r="G8" s="34"/>
+      <c r="H8" s="34"/>
+      <c r="I8" s="34"/>
       <c r="J8" s="5"/>
     </row>
     <row r="9" spans="1:10" ht="75.75" customHeight="1">
       <c r="A9" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="B9" s="37" t="s">
+      <c r="B9" s="42" t="s">
         <v>37</v>
       </c>
-      <c r="C9" s="38"/>
-      <c r="D9" s="38"/>
-      <c r="E9" s="38"/>
-      <c r="F9" s="38"/>
-      <c r="G9" s="38"/>
-      <c r="H9" s="38"/>
-      <c r="I9" s="38"/>
+      <c r="C9" s="43"/>
+      <c r="D9" s="43"/>
+      <c r="E9" s="43"/>
+      <c r="F9" s="43"/>
+      <c r="G9" s="43"/>
+      <c r="H9" s="43"/>
+      <c r="I9" s="43"/>
       <c r="J9" s="5"/>
     </row>
     <row r="10" spans="1:10" ht="30.75" customHeight="1">
       <c r="A10" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="B10" s="37" t="s">
-        <v>504</v>
-      </c>
-      <c r="C10" s="38"/>
-      <c r="D10" s="38"/>
-      <c r="E10" s="38"/>
-      <c r="F10" s="38"/>
-      <c r="G10" s="38"/>
-      <c r="H10" s="38"/>
-      <c r="I10" s="38"/>
+      <c r="B10" s="42" t="s">
+        <v>446</v>
+      </c>
+      <c r="C10" s="43"/>
+      <c r="D10" s="43"/>
+      <c r="E10" s="43"/>
+      <c r="F10" s="43"/>
+      <c r="G10" s="43"/>
+      <c r="H10" s="43"/>
+      <c r="I10" s="43"/>
       <c r="J10" s="5"/>
     </row>
     <row r="11" spans="1:10">
       <c r="A11" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="B11" s="33" t="s">
+      <c r="B11" s="38" t="s">
         <v>40</v>
       </c>
-      <c r="C11" s="33"/>
-      <c r="D11" s="33"/>
-      <c r="E11" s="33"/>
-      <c r="F11" s="33"/>
-      <c r="G11" s="33"/>
-      <c r="H11" s="33"/>
-      <c r="I11" s="33"/>
+      <c r="C11" s="38"/>
+      <c r="D11" s="38"/>
+      <c r="E11" s="38"/>
+      <c r="F11" s="38"/>
+      <c r="G11" s="38"/>
+      <c r="H11" s="38"/>
+      <c r="I11" s="38"/>
       <c r="J11" s="5"/>
     </row>
     <row r="12" spans="1:10">
@@ -3409,12 +4256,12 @@
       <c r="C12" s="19" t="s">
         <v>1</v>
       </c>
-      <c r="D12" s="34"/>
-      <c r="E12" s="34"/>
-      <c r="F12" s="34"/>
-      <c r="G12" s="34"/>
-      <c r="H12" s="34"/>
-      <c r="I12" s="34"/>
+      <c r="D12" s="39"/>
+      <c r="E12" s="39"/>
+      <c r="F12" s="39"/>
+      <c r="G12" s="39"/>
+      <c r="H12" s="39"/>
+      <c r="I12" s="39"/>
       <c r="J12" s="5"/>
     </row>
     <row r="13" spans="1:10">
@@ -3427,12 +4274,12 @@
       <c r="C13" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="D13" s="35"/>
-      <c r="E13" s="35"/>
-      <c r="F13" s="35"/>
-      <c r="G13" s="35"/>
-      <c r="H13" s="35"/>
-      <c r="I13" s="35"/>
+      <c r="D13" s="40"/>
+      <c r="E13" s="40"/>
+      <c r="F13" s="40"/>
+      <c r="G13" s="40"/>
+      <c r="H13" s="40"/>
+      <c r="I13" s="40"/>
       <c r="J13" s="5"/>
     </row>
     <row r="14" spans="1:10">
@@ -3445,12 +4292,12 @@
       <c r="C14" s="16" t="s">
         <v>35</v>
       </c>
-      <c r="D14" s="35"/>
-      <c r="E14" s="35"/>
-      <c r="F14" s="35"/>
-      <c r="G14" s="35"/>
-      <c r="H14" s="35"/>
-      <c r="I14" s="35"/>
+      <c r="D14" s="40"/>
+      <c r="E14" s="40"/>
+      <c r="F14" s="40"/>
+      <c r="G14" s="40"/>
+      <c r="H14" s="40"/>
+      <c r="I14" s="40"/>
       <c r="J14" s="5"/>
     </row>
     <row r="15" spans="1:10">
@@ -3463,60 +4310,60 @@
       <c r="C15" s="16" t="s">
         <v>30</v>
       </c>
-      <c r="D15" s="36"/>
-      <c r="E15" s="36"/>
-      <c r="F15" s="36"/>
-      <c r="G15" s="36"/>
-      <c r="H15" s="36"/>
-      <c r="I15" s="36"/>
+      <c r="D15" s="41"/>
+      <c r="E15" s="41"/>
+      <c r="F15" s="41"/>
+      <c r="G15" s="41"/>
+      <c r="H15" s="41"/>
+      <c r="I15" s="41"/>
       <c r="J15" s="5"/>
     </row>
     <row r="16" spans="1:10" ht="30">
       <c r="A16" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="B16" s="33" t="s">
+      <c r="B16" s="38" t="s">
         <v>41</v>
       </c>
-      <c r="C16" s="33"/>
-      <c r="D16" s="33"/>
-      <c r="E16" s="33"/>
-      <c r="F16" s="33"/>
-      <c r="G16" s="33"/>
-      <c r="H16" s="33"/>
-      <c r="I16" s="33"/>
+      <c r="C16" s="38"/>
+      <c r="D16" s="38"/>
+      <c r="E16" s="38"/>
+      <c r="F16" s="38"/>
+      <c r="G16" s="38"/>
+      <c r="H16" s="38"/>
+      <c r="I16" s="38"/>
       <c r="J16" s="5"/>
     </row>
     <row r="17" spans="1:12" ht="61.5" customHeight="1">
       <c r="A17" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="B17" s="37" t="s">
-        <v>505</v>
-      </c>
-      <c r="C17" s="38"/>
-      <c r="D17" s="38"/>
-      <c r="E17" s="38"/>
-      <c r="F17" s="38"/>
-      <c r="G17" s="38"/>
-      <c r="H17" s="38"/>
-      <c r="I17" s="38"/>
+      <c r="B17" s="42" t="s">
+        <v>447</v>
+      </c>
+      <c r="C17" s="43"/>
+      <c r="D17" s="43"/>
+      <c r="E17" s="43"/>
+      <c r="F17" s="43"/>
+      <c r="G17" s="43"/>
+      <c r="H17" s="43"/>
+      <c r="I17" s="43"/>
       <c r="J17" s="5"/>
     </row>
     <row r="18" spans="1:12" ht="30">
       <c r="A18" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="B18" s="33" t="s">
+      <c r="B18" s="38" t="s">
         <v>36</v>
       </c>
-      <c r="C18" s="33"/>
-      <c r="D18" s="33"/>
-      <c r="E18" s="33"/>
-      <c r="F18" s="33"/>
-      <c r="G18" s="33"/>
-      <c r="H18" s="33"/>
-      <c r="I18" s="33"/>
+      <c r="C18" s="38"/>
+      <c r="D18" s="38"/>
+      <c r="E18" s="38"/>
+      <c r="F18" s="38"/>
+      <c r="G18" s="38"/>
+      <c r="H18" s="38"/>
+      <c r="I18" s="38"/>
       <c r="J18" s="5"/>
       <c r="L18" s="4"/>
     </row>
@@ -3555,10 +4402,10 @@
         <v>42</v>
       </c>
       <c r="B20" s="24" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="C20" s="21" t="s">
-        <v>280</v>
+        <v>449</v>
       </c>
       <c r="D20" s="22"/>
       <c r="E20" s="22" t="s">
@@ -3580,10 +4427,10 @@
         <v>43</v>
       </c>
       <c r="B21" s="24" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="C21" s="20" t="s">
-        <v>281</v>
+        <v>450</v>
       </c>
       <c r="D21" s="22"/>
       <c r="E21" s="22" t="s">
@@ -3600,65 +4447,65 @@
       </c>
       <c r="I21" s="24"/>
     </row>
-    <row r="22" spans="1:12" s="23" customFormat="1" ht="30">
-      <c r="A22" s="22" t="s">
-        <v>44</v>
-      </c>
-      <c r="B22" s="24" t="s">
-        <v>253</v>
-      </c>
-      <c r="C22" s="20" t="s">
-        <v>282</v>
-      </c>
-      <c r="D22" s="22"/>
-      <c r="E22" s="22" t="s">
-        <v>19</v>
-      </c>
-      <c r="F22" s="22" t="s">
-        <v>3</v>
-      </c>
-      <c r="G22" s="22" t="s">
+    <row r="22" spans="1:12" s="23" customFormat="1">
+      <c r="A22" s="44" t="s">
+        <v>451</v>
+      </c>
+      <c r="B22" s="45" t="s">
+        <v>250</v>
+      </c>
+      <c r="C22" s="46" t="s">
+        <v>452</v>
+      </c>
+      <c r="D22" s="44"/>
+      <c r="E22" s="44" t="s">
+        <v>19</v>
+      </c>
+      <c r="F22" s="44" t="s">
+        <v>3</v>
+      </c>
+      <c r="G22" s="44" t="s">
         <v>16</v>
       </c>
-      <c r="H22" s="22" t="s">
+      <c r="H22" s="44" t="s">
         <v>18</v>
       </c>
-      <c r="I22" s="24"/>
-    </row>
-    <row r="23" spans="1:12" s="23" customFormat="1" ht="30">
-      <c r="A23" s="22" t="s">
-        <v>45</v>
-      </c>
-      <c r="B23" s="24" t="s">
-        <v>253</v>
-      </c>
-      <c r="C23" s="20" t="s">
-        <v>283</v>
-      </c>
-      <c r="D23" s="22"/>
-      <c r="E23" s="22" t="s">
-        <v>19</v>
-      </c>
-      <c r="F23" s="22" t="s">
-        <v>3</v>
-      </c>
-      <c r="G23" s="22" t="s">
+      <c r="I22" s="46"/>
+    </row>
+    <row r="23" spans="1:12" s="23" customFormat="1">
+      <c r="A23" s="44" t="s">
+        <v>454</v>
+      </c>
+      <c r="B23" s="45" t="s">
+        <v>250</v>
+      </c>
+      <c r="C23" s="46" t="s">
+        <v>453</v>
+      </c>
+      <c r="D23" s="44"/>
+      <c r="E23" s="44" t="s">
+        <v>19</v>
+      </c>
+      <c r="F23" s="44" t="s">
+        <v>3</v>
+      </c>
+      <c r="G23" s="44" t="s">
         <v>16</v>
       </c>
-      <c r="H23" s="22" t="s">
+      <c r="H23" s="44" t="s">
         <v>18</v>
       </c>
-      <c r="I23" s="24"/>
+      <c r="I23" s="46"/>
     </row>
     <row r="24" spans="1:12" s="23" customFormat="1" ht="30">
       <c r="A24" s="22" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B24" s="24" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="C24" s="20" t="s">
-        <v>284</v>
+        <v>278</v>
       </c>
       <c r="D24" s="22"/>
       <c r="E24" s="22" t="s">
@@ -3675,15 +4522,15 @@
       </c>
       <c r="I24" s="24"/>
     </row>
-    <row r="25" spans="1:12" s="23" customFormat="1" ht="45">
+    <row r="25" spans="1:12" s="23" customFormat="1" ht="30">
       <c r="A25" s="22" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B25" s="24" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="C25" s="20" t="s">
-        <v>285</v>
+        <v>279</v>
       </c>
       <c r="D25" s="22"/>
       <c r="E25" s="22" t="s">
@@ -3700,15 +4547,15 @@
       </c>
       <c r="I25" s="24"/>
     </row>
-    <row r="26" spans="1:12" s="23" customFormat="1">
+    <row r="26" spans="1:12" s="23" customFormat="1" ht="30">
       <c r="A26" s="22" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B26" s="24" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="C26" s="20" t="s">
-        <v>286</v>
+        <v>280</v>
       </c>
       <c r="D26" s="22"/>
       <c r="E26" s="22" t="s">
@@ -3718,22 +4565,22 @@
         <v>3</v>
       </c>
       <c r="G26" s="22" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H26" s="22" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="I26" s="24"/>
     </row>
-    <row r="27" spans="1:12" s="23" customFormat="1">
+    <row r="27" spans="1:12" s="23" customFormat="1" ht="45">
       <c r="A27" s="22" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B27" s="24" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="C27" s="20" t="s">
-        <v>287</v>
+        <v>281</v>
       </c>
       <c r="D27" s="22"/>
       <c r="E27" s="22" t="s">
@@ -3750,15 +4597,15 @@
       </c>
       <c r="I27" s="24"/>
     </row>
-    <row r="28" spans="1:12" s="23" customFormat="1" ht="30">
+    <row r="28" spans="1:12" s="23" customFormat="1">
       <c r="A28" s="22" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B28" s="24" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="C28" s="20" t="s">
-        <v>288</v>
+        <v>448</v>
       </c>
       <c r="D28" s="22"/>
       <c r="E28" s="22" t="s">
@@ -3768,22 +4615,22 @@
         <v>3</v>
       </c>
       <c r="G28" s="22" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H28" s="22" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="I28" s="24"/>
     </row>
-    <row r="29" spans="1:12" s="23" customFormat="1" ht="45">
+    <row r="29" spans="1:12" s="23" customFormat="1">
       <c r="A29" s="22" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B29" s="24" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="C29" s="20" t="s">
-        <v>289</v>
+        <v>282</v>
       </c>
       <c r="D29" s="22"/>
       <c r="E29" s="22" t="s">
@@ -3793,24 +4640,22 @@
         <v>3</v>
       </c>
       <c r="G29" s="22" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H29" s="22" t="s">
-        <v>17</v>
-      </c>
-      <c r="I29" s="24" t="s">
-        <v>497</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="I29" s="24"/>
     </row>
     <row r="30" spans="1:12" s="23" customFormat="1" ht="30">
       <c r="A30" s="22" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B30" s="24" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="C30" s="20" t="s">
-        <v>290</v>
+        <v>455</v>
       </c>
       <c r="D30" s="22"/>
       <c r="E30" s="22" t="s">
@@ -3827,40 +4672,40 @@
       </c>
       <c r="I30" s="24"/>
     </row>
-    <row r="31" spans="1:12" s="23" customFormat="1" ht="45">
+    <row r="31" spans="1:12" s="23" customFormat="1">
       <c r="A31" s="22" t="s">
-        <v>53</v>
-      </c>
-      <c r="B31" s="24" t="s">
-        <v>255</v>
-      </c>
-      <c r="C31" s="20" t="s">
-        <v>291</v>
-      </c>
-      <c r="D31" s="22"/>
-      <c r="E31" s="22" t="s">
-        <v>19</v>
-      </c>
-      <c r="F31" s="22" t="s">
-        <v>3</v>
-      </c>
-      <c r="G31" s="22" t="s">
-        <v>16</v>
-      </c>
-      <c r="H31" s="22" t="s">
-        <v>18</v>
-      </c>
-      <c r="I31" s="24"/>
-    </row>
-    <row r="32" spans="1:12" s="23" customFormat="1" ht="30">
+        <v>457</v>
+      </c>
+      <c r="B31" s="45" t="s">
+        <v>252</v>
+      </c>
+      <c r="C31" s="46" t="s">
+        <v>456</v>
+      </c>
+      <c r="D31" s="44"/>
+      <c r="E31" s="44" t="s">
+        <v>19</v>
+      </c>
+      <c r="F31" s="44" t="s">
+        <v>3</v>
+      </c>
+      <c r="G31" s="44" t="s">
+        <v>15</v>
+      </c>
+      <c r="H31" s="44" t="s">
+        <v>21</v>
+      </c>
+      <c r="I31" s="46"/>
+    </row>
+    <row r="32" spans="1:12" s="23" customFormat="1" ht="45">
       <c r="A32" s="22" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="B32" s="24" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="C32" s="20" t="s">
-        <v>292</v>
+        <v>283</v>
       </c>
       <c r="D32" s="22"/>
       <c r="E32" s="22" t="s">
@@ -3870,22 +4715,24 @@
         <v>3</v>
       </c>
       <c r="G32" s="22" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H32" s="22" t="s">
-        <v>18</v>
-      </c>
-      <c r="I32" s="24"/>
-    </row>
-    <row r="33" spans="1:9" s="23" customFormat="1" ht="45">
+        <v>17</v>
+      </c>
+      <c r="I32" s="24" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" s="23" customFormat="1" ht="30">
       <c r="A33" s="22" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="B33" s="24" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="C33" s="20" t="s">
-        <v>293</v>
+        <v>284</v>
       </c>
       <c r="D33" s="22"/>
       <c r="E33" s="22" t="s">
@@ -3902,90 +4749,90 @@
       </c>
       <c r="I33" s="24"/>
     </row>
-    <row r="34" spans="1:9" ht="30">
-      <c r="A34" s="30" t="s">
-        <v>56</v>
-      </c>
-      <c r="B34" s="31" t="s">
-        <v>256</v>
-      </c>
-      <c r="C34" s="32" t="s">
-        <v>294</v>
-      </c>
-      <c r="D34" s="30"/>
-      <c r="E34" s="30" t="s">
-        <v>19</v>
-      </c>
-      <c r="F34" s="30" t="s">
-        <v>3</v>
-      </c>
-      <c r="G34" s="30" t="s">
+    <row r="34" spans="1:9" s="23" customFormat="1" ht="30">
+      <c r="A34" s="22" t="s">
+        <v>53</v>
+      </c>
+      <c r="B34" s="24" t="s">
+        <v>253</v>
+      </c>
+      <c r="C34" s="20" t="s">
+        <v>458</v>
+      </c>
+      <c r="D34" s="22"/>
+      <c r="E34" s="22" t="s">
+        <v>19</v>
+      </c>
+      <c r="F34" s="22" t="s">
+        <v>3</v>
+      </c>
+      <c r="G34" s="22" t="s">
         <v>16</v>
       </c>
-      <c r="H34" s="30" t="s">
+      <c r="H34" s="22" t="s">
         <v>18</v>
       </c>
-      <c r="I34" s="32"/>
-    </row>
-    <row r="35" spans="1:9" ht="30">
-      <c r="A35" s="30" t="s">
-        <v>57</v>
-      </c>
-      <c r="B35" s="31" t="s">
-        <v>256</v>
-      </c>
-      <c r="C35" s="32" t="s">
-        <v>295</v>
-      </c>
-      <c r="D35" s="30"/>
-      <c r="E35" s="30" t="s">
-        <v>19</v>
-      </c>
-      <c r="F35" s="30" t="s">
-        <v>3</v>
-      </c>
-      <c r="G35" s="30" t="s">
+      <c r="I34" s="24"/>
+    </row>
+    <row r="35" spans="1:9" s="23" customFormat="1" ht="30">
+      <c r="A35" s="22" t="s">
+        <v>54</v>
+      </c>
+      <c r="B35" s="24" t="s">
+        <v>254</v>
+      </c>
+      <c r="C35" s="20" t="s">
+        <v>285</v>
+      </c>
+      <c r="D35" s="22"/>
+      <c r="E35" s="22" t="s">
+        <v>19</v>
+      </c>
+      <c r="F35" s="22" t="s">
+        <v>3</v>
+      </c>
+      <c r="G35" s="22" t="s">
         <v>16</v>
       </c>
-      <c r="H35" s="30" t="s">
+      <c r="H35" s="22" t="s">
         <v>18</v>
       </c>
-      <c r="I35" s="32"/>
-    </row>
-    <row r="36" spans="1:9" ht="30">
-      <c r="A36" s="30" t="s">
-        <v>58</v>
-      </c>
-      <c r="B36" s="31" t="s">
-        <v>256</v>
-      </c>
-      <c r="C36" s="32" t="s">
-        <v>296</v>
-      </c>
-      <c r="D36" s="30"/>
-      <c r="E36" s="30" t="s">
-        <v>19</v>
-      </c>
-      <c r="F36" s="30" t="s">
-        <v>3</v>
-      </c>
-      <c r="G36" s="30" t="s">
+      <c r="I35" s="24"/>
+    </row>
+    <row r="36" spans="1:9" s="23" customFormat="1" ht="45">
+      <c r="A36" s="22" t="s">
+        <v>55</v>
+      </c>
+      <c r="B36" s="24" t="s">
+        <v>254</v>
+      </c>
+      <c r="C36" s="20" t="s">
+        <v>286</v>
+      </c>
+      <c r="D36" s="22"/>
+      <c r="E36" s="22" t="s">
+        <v>19</v>
+      </c>
+      <c r="F36" s="22" t="s">
+        <v>3</v>
+      </c>
+      <c r="G36" s="22" t="s">
         <v>16</v>
       </c>
-      <c r="H36" s="30" t="s">
+      <c r="H36" s="22" t="s">
         <v>18</v>
       </c>
-      <c r="I36" s="32"/>
+      <c r="I36" s="24"/>
     </row>
     <row r="37" spans="1:9" ht="30">
       <c r="A37" s="30" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="B37" s="31" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="C37" s="32" t="s">
-        <v>297</v>
+        <v>287</v>
       </c>
       <c r="D37" s="30"/>
       <c r="E37" s="30" t="s">
@@ -4002,15 +4849,15 @@
       </c>
       <c r="I37" s="32"/>
     </row>
-    <row r="38" spans="1:9" ht="45">
+    <row r="38" spans="1:9" ht="30">
       <c r="A38" s="30" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="B38" s="31" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="C38" s="32" t="s">
-        <v>298</v>
+        <v>288</v>
       </c>
       <c r="D38" s="30"/>
       <c r="E38" s="30" t="s">
@@ -4029,13 +4876,13 @@
     </row>
     <row r="39" spans="1:9" ht="30">
       <c r="A39" s="30" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="B39" s="31" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="C39" s="32" t="s">
-        <v>299</v>
+        <v>289</v>
       </c>
       <c r="D39" s="30"/>
       <c r="E39" s="30" t="s">
@@ -4052,15 +4899,15 @@
       </c>
       <c r="I39" s="32"/>
     </row>
-    <row r="40" spans="1:9" ht="30">
+    <row r="40" spans="1:9" ht="45">
       <c r="A40" s="30" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="B40" s="31" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="C40" s="32" t="s">
-        <v>300</v>
+        <v>290</v>
       </c>
       <c r="D40" s="30"/>
       <c r="E40" s="30" t="s">
@@ -4079,13 +4926,13 @@
     </row>
     <row r="41" spans="1:9" ht="30">
       <c r="A41" s="30" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="B41" s="31" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="C41" s="32" t="s">
-        <v>301</v>
+        <v>291</v>
       </c>
       <c r="D41" s="30"/>
       <c r="E41" s="30" t="s">
@@ -4104,13 +4951,13 @@
     </row>
     <row r="42" spans="1:9" ht="30">
       <c r="A42" s="30" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="B42" s="31" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="C42" s="32" t="s">
-        <v>302</v>
+        <v>292</v>
       </c>
       <c r="D42" s="30"/>
       <c r="E42" s="30" t="s">
@@ -4129,13 +4976,13 @@
     </row>
     <row r="43" spans="1:9" ht="30">
       <c r="A43" s="30" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="B43" s="31" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="C43" s="32" t="s">
-        <v>303</v>
+        <v>293</v>
       </c>
       <c r="D43" s="30"/>
       <c r="E43" s="30" t="s">
@@ -4154,13 +5001,13 @@
     </row>
     <row r="44" spans="1:9" ht="30">
       <c r="A44" s="30" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="B44" s="31" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="C44" s="32" t="s">
-        <v>502</v>
+        <v>294</v>
       </c>
       <c r="D44" s="30"/>
       <c r="E44" s="30" t="s">
@@ -4179,13 +5026,13 @@
     </row>
     <row r="45" spans="1:9" ht="30">
       <c r="A45" s="30" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="B45" s="31" t="s">
-        <v>31</v>
+        <v>257</v>
       </c>
       <c r="C45" s="32" t="s">
-        <v>304</v>
+        <v>295</v>
       </c>
       <c r="D45" s="30"/>
       <c r="E45" s="30" t="s">
@@ -4204,13 +5051,13 @@
     </row>
     <row r="46" spans="1:9" ht="30">
       <c r="A46" s="30" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="B46" s="31" t="s">
-        <v>31</v>
-      </c>
-      <c r="C46" s="32" t="s">
-        <v>305</v>
+        <v>257</v>
+      </c>
+      <c r="C46" s="20" t="s">
+        <v>459</v>
       </c>
       <c r="D46" s="30"/>
       <c r="E46" s="30" t="s">
@@ -4220,22 +5067,22 @@
         <v>3</v>
       </c>
       <c r="G46" s="30" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H46" s="30" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="I46" s="32"/>
     </row>
-    <row r="47" spans="1:9" ht="409.5">
+    <row r="47" spans="1:9" ht="30">
       <c r="A47" s="30" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="B47" s="31" t="s">
         <v>31</v>
       </c>
-      <c r="C47" s="32" t="s">
-        <v>306</v>
+      <c r="C47" s="20" t="s">
+        <v>460</v>
       </c>
       <c r="D47" s="30"/>
       <c r="E47" s="30" t="s">
@@ -4245,22 +5092,22 @@
         <v>3</v>
       </c>
       <c r="G47" s="30" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H47" s="30" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="I47" s="32"/>
     </row>
-    <row r="48" spans="1:9" ht="75">
+    <row r="48" spans="1:9" ht="30">
       <c r="A48" s="30" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="B48" s="31" t="s">
         <v>31</v>
       </c>
-      <c r="C48" s="32" t="s">
-        <v>307</v>
+      <c r="C48" s="20" t="s">
+        <v>461</v>
       </c>
       <c r="D48" s="30"/>
       <c r="E48" s="30" t="s">
@@ -4270,22 +5117,22 @@
         <v>3</v>
       </c>
       <c r="G48" s="30" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H48" s="30" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="I48" s="32"/>
     </row>
-    <row r="49" spans="1:9" ht="30">
+    <row r="49" spans="1:9" ht="409.5">
       <c r="A49" s="30" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="B49" s="31" t="s">
         <v>31</v>
       </c>
-      <c r="C49" s="32" t="s">
-        <v>308</v>
+      <c r="C49" s="20" t="s">
+        <v>462</v>
       </c>
       <c r="D49" s="30"/>
       <c r="E49" s="30" t="s">
@@ -4302,19 +5149,17 @@
       </c>
       <c r="I49" s="32"/>
     </row>
-    <row r="50" spans="1:9" ht="45">
+    <row r="50" spans="1:9" ht="75">
       <c r="A50" s="30" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="B50" s="31" t="s">
         <v>31</v>
       </c>
       <c r="C50" s="32" t="s">
-        <v>309</v>
-      </c>
-      <c r="D50" s="30" t="s">
-        <v>488</v>
-      </c>
+        <v>296</v>
+      </c>
+      <c r="D50" s="30"/>
       <c r="E50" s="30" t="s">
         <v>19</v>
       </c>
@@ -4322,26 +5167,24 @@
         <v>3</v>
       </c>
       <c r="G50" s="30" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H50" s="30" t="s">
         <v>18</v>
       </c>
       <c r="I50" s="32"/>
     </row>
-    <row r="51" spans="1:9" ht="45">
+    <row r="51" spans="1:9" ht="30">
       <c r="A51" s="30" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="B51" s="31" t="s">
         <v>31</v>
       </c>
-      <c r="C51" s="32" t="s">
-        <v>310</v>
-      </c>
-      <c r="D51" s="30" t="s">
-        <v>489</v>
-      </c>
+      <c r="C51" s="20" t="s">
+        <v>463</v>
+      </c>
+      <c r="D51" s="30"/>
       <c r="E51" s="30" t="s">
         <v>19</v>
       </c>
@@ -4352,21 +5195,23 @@
         <v>15</v>
       </c>
       <c r="H51" s="30" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="I51" s="32"/>
     </row>
-    <row r="52" spans="1:9">
+    <row r="52" spans="1:9" ht="45">
       <c r="A52" s="30" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="B52" s="31" t="s">
         <v>31</v>
       </c>
       <c r="C52" s="32" t="s">
-        <v>311</v>
-      </c>
-      <c r="D52" s="30"/>
+        <v>297</v>
+      </c>
+      <c r="D52" s="30" t="s">
+        <v>431</v>
+      </c>
       <c r="E52" s="30" t="s">
         <v>19</v>
       </c>
@@ -4377,21 +5222,23 @@
         <v>15</v>
       </c>
       <c r="H52" s="30" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="I52" s="32"/>
     </row>
-    <row r="53" spans="1:9">
+    <row r="53" spans="1:9" ht="45">
       <c r="A53" s="30" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="B53" s="31" t="s">
         <v>31</v>
       </c>
       <c r="C53" s="32" t="s">
-        <v>312</v>
-      </c>
-      <c r="D53" s="30"/>
+        <v>298</v>
+      </c>
+      <c r="D53" s="30" t="s">
+        <v>432</v>
+      </c>
       <c r="E53" s="30" t="s">
         <v>19</v>
       </c>
@@ -4408,13 +5255,13 @@
     </row>
     <row r="54" spans="1:9">
       <c r="A54" s="30" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="B54" s="31" t="s">
         <v>31</v>
       </c>
       <c r="C54" s="32" t="s">
-        <v>313</v>
+        <v>299</v>
       </c>
       <c r="D54" s="30"/>
       <c r="E54" s="30" t="s">
@@ -4431,15 +5278,15 @@
       </c>
       <c r="I54" s="32"/>
     </row>
-    <row r="55" spans="1:9" ht="30">
+    <row r="55" spans="1:9">
       <c r="A55" s="30" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="B55" s="31" t="s">
         <v>31</v>
       </c>
       <c r="C55" s="32" t="s">
-        <v>314</v>
+        <v>300</v>
       </c>
       <c r="D55" s="30"/>
       <c r="E55" s="30" t="s">
@@ -4452,23 +5299,21 @@
         <v>15</v>
       </c>
       <c r="H55" s="30" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="I55" s="32"/>
     </row>
-    <row r="56" spans="1:9" ht="45">
+    <row r="56" spans="1:9">
       <c r="A56" s="30" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="B56" s="31" t="s">
         <v>31</v>
       </c>
       <c r="C56" s="32" t="s">
-        <v>315</v>
-      </c>
-      <c r="D56" s="30" t="s">
-        <v>490</v>
-      </c>
+        <v>301</v>
+      </c>
+      <c r="D56" s="30"/>
       <c r="E56" s="30" t="s">
         <v>19</v>
       </c>
@@ -4479,23 +5324,21 @@
         <v>15</v>
       </c>
       <c r="H56" s="30" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I56" s="32"/>
     </row>
-    <row r="57" spans="1:9" ht="45">
+    <row r="57" spans="1:9" ht="30">
       <c r="A57" s="30" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="B57" s="31" t="s">
         <v>31</v>
       </c>
-      <c r="C57" s="32" t="s">
-        <v>316</v>
-      </c>
-      <c r="D57" s="30" t="s">
-        <v>491</v>
-      </c>
+      <c r="C57" s="20" t="s">
+        <v>464</v>
+      </c>
+      <c r="D57" s="30"/>
       <c r="E57" s="30" t="s">
         <v>19</v>
       </c>
@@ -4506,21 +5349,23 @@
         <v>15</v>
       </c>
       <c r="H57" s="30" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="I57" s="32"/>
     </row>
-    <row r="58" spans="1:9" ht="30">
+    <row r="58" spans="1:9" ht="45">
       <c r="A58" s="30" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="B58" s="31" t="s">
         <v>31</v>
       </c>
       <c r="C58" s="32" t="s">
-        <v>317</v>
-      </c>
-      <c r="D58" s="30"/>
+        <v>302</v>
+      </c>
+      <c r="D58" s="30" t="s">
+        <v>433</v>
+      </c>
       <c r="E58" s="30" t="s">
         <v>19</v>
       </c>
@@ -4531,21 +5376,23 @@
         <v>15</v>
       </c>
       <c r="H58" s="30" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="I58" s="32"/>
     </row>
-    <row r="59" spans="1:9" ht="30">
+    <row r="59" spans="1:9" ht="45">
       <c r="A59" s="30" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="B59" s="31" t="s">
         <v>31</v>
       </c>
-      <c r="C59" s="32" t="s">
-        <v>318</v>
-      </c>
-      <c r="D59" s="30"/>
+      <c r="C59" s="20" t="s">
+        <v>303</v>
+      </c>
+      <c r="D59" s="30" t="s">
+        <v>434</v>
+      </c>
       <c r="E59" s="30" t="s">
         <v>19</v>
       </c>
@@ -4560,15 +5407,15 @@
       </c>
       <c r="I59" s="32"/>
     </row>
-    <row r="60" spans="1:9">
+    <row r="60" spans="1:9" ht="30">
       <c r="A60" s="30" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="B60" s="31" t="s">
         <v>31</v>
       </c>
-      <c r="C60" s="32" t="s">
-        <v>319</v>
+      <c r="C60" s="20" t="s">
+        <v>465</v>
       </c>
       <c r="D60" s="30"/>
       <c r="E60" s="30" t="s">
@@ -4585,15 +5432,15 @@
       </c>
       <c r="I60" s="32"/>
     </row>
-    <row r="61" spans="1:9">
+    <row r="61" spans="1:9" ht="30">
       <c r="A61" s="30" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="B61" s="31" t="s">
         <v>31</v>
       </c>
       <c r="C61" s="32" t="s">
-        <v>320</v>
+        <v>304</v>
       </c>
       <c r="D61" s="30"/>
       <c r="E61" s="30" t="s">
@@ -4606,19 +5453,19 @@
         <v>15</v>
       </c>
       <c r="H61" s="30" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="I61" s="32"/>
     </row>
-    <row r="62" spans="1:9" ht="30">
+    <row r="62" spans="1:9">
       <c r="A62" s="30" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="B62" s="31" t="s">
         <v>31</v>
       </c>
       <c r="C62" s="32" t="s">
-        <v>321</v>
+        <v>305</v>
       </c>
       <c r="D62" s="30"/>
       <c r="E62" s="30" t="s">
@@ -4637,13 +5484,13 @@
     </row>
     <row r="63" spans="1:9">
       <c r="A63" s="30" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="B63" s="31" t="s">
         <v>31</v>
       </c>
       <c r="C63" s="32" t="s">
-        <v>322</v>
+        <v>306</v>
       </c>
       <c r="D63" s="30"/>
       <c r="E63" s="30" t="s">
@@ -4656,19 +5503,19 @@
         <v>15</v>
       </c>
       <c r="H63" s="30" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="I63" s="32"/>
     </row>
-    <row r="64" spans="1:9">
+    <row r="64" spans="1:9" ht="30">
       <c r="A64" s="30" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="B64" s="31" t="s">
         <v>31</v>
       </c>
-      <c r="C64" s="32" t="s">
-        <v>323</v>
+      <c r="C64" s="20" t="s">
+        <v>467</v>
       </c>
       <c r="D64" s="30"/>
       <c r="E64" s="30" t="s">
@@ -4687,13 +5534,13 @@
     </row>
     <row r="65" spans="1:9">
       <c r="A65" s="30" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="B65" s="31" t="s">
         <v>31</v>
       </c>
       <c r="C65" s="32" t="s">
-        <v>324</v>
+        <v>307</v>
       </c>
       <c r="D65" s="30"/>
       <c r="E65" s="30" t="s">
@@ -4706,19 +5553,19 @@
         <v>15</v>
       </c>
       <c r="H65" s="30" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="I65" s="32"/>
     </row>
-    <row r="66" spans="1:9" ht="30">
+    <row r="66" spans="1:9">
       <c r="A66" s="30" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="B66" s="31" t="s">
         <v>31</v>
       </c>
       <c r="C66" s="32" t="s">
-        <v>325</v>
+        <v>308</v>
       </c>
       <c r="D66" s="30"/>
       <c r="E66" s="30" t="s">
@@ -4737,13 +5584,13 @@
     </row>
     <row r="67" spans="1:9">
       <c r="A67" s="30" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="B67" s="31" t="s">
         <v>31</v>
       </c>
       <c r="C67" s="32" t="s">
-        <v>326</v>
+        <v>309</v>
       </c>
       <c r="D67" s="30"/>
       <c r="E67" s="30" t="s">
@@ -4756,19 +5603,19 @@
         <v>15</v>
       </c>
       <c r="H67" s="30" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="I67" s="32"/>
     </row>
-    <row r="68" spans="1:9">
+    <row r="68" spans="1:9" ht="30">
       <c r="A68" s="30" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="B68" s="31" t="s">
         <v>31</v>
       </c>
-      <c r="C68" s="32" t="s">
-        <v>327</v>
+      <c r="C68" s="20" t="s">
+        <v>466</v>
       </c>
       <c r="D68" s="30"/>
       <c r="E68" s="30" t="s">
@@ -4785,15 +5632,15 @@
       </c>
       <c r="I68" s="32"/>
     </row>
-    <row r="69" spans="1:9" ht="30">
+    <row r="69" spans="1:9">
       <c r="A69" s="30" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="B69" s="31" t="s">
         <v>31</v>
       </c>
       <c r="C69" s="32" t="s">
-        <v>328</v>
+        <v>310</v>
       </c>
       <c r="D69" s="30"/>
       <c r="E69" s="30" t="s">
@@ -4806,19 +5653,19 @@
         <v>15</v>
       </c>
       <c r="H69" s="30" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="I69" s="32"/>
     </row>
-    <row r="70" spans="1:9" ht="30">
+    <row r="70" spans="1:9">
       <c r="A70" s="30" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="B70" s="31" t="s">
         <v>31</v>
       </c>
       <c r="C70" s="32" t="s">
-        <v>329</v>
+        <v>311</v>
       </c>
       <c r="D70" s="30"/>
       <c r="E70" s="30" t="s">
@@ -4837,13 +5684,13 @@
     </row>
     <row r="71" spans="1:9" ht="30">
       <c r="A71" s="30" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="B71" s="31" t="s">
         <v>31</v>
       </c>
       <c r="C71" s="32" t="s">
-        <v>330</v>
+        <v>312</v>
       </c>
       <c r="D71" s="30"/>
       <c r="E71" s="30" t="s">
@@ -4856,19 +5703,19 @@
         <v>15</v>
       </c>
       <c r="H71" s="30" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="I71" s="32"/>
     </row>
     <row r="72" spans="1:9" ht="30">
       <c r="A72" s="30" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="B72" s="31" t="s">
         <v>31</v>
       </c>
       <c r="C72" s="32" t="s">
-        <v>331</v>
+        <v>313</v>
       </c>
       <c r="D72" s="30"/>
       <c r="E72" s="30" t="s">
@@ -4887,13 +5734,13 @@
     </row>
     <row r="73" spans="1:9" ht="30">
       <c r="A73" s="30" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="B73" s="31" t="s">
         <v>31</v>
       </c>
       <c r="C73" s="32" t="s">
-        <v>332</v>
+        <v>314</v>
       </c>
       <c r="D73" s="30"/>
       <c r="E73" s="30" t="s">
@@ -4912,17 +5759,15 @@
     </row>
     <row r="74" spans="1:9" ht="30">
       <c r="A74" s="30" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="B74" s="31" t="s">
         <v>31</v>
       </c>
       <c r="C74" s="32" t="s">
-        <v>333</v>
-      </c>
-      <c r="D74" s="30" t="s">
-        <v>492</v>
-      </c>
+        <v>315</v>
+      </c>
+      <c r="D74" s="30"/>
       <c r="E74" s="30" t="s">
         <v>19</v>
       </c>
@@ -4937,15 +5782,15 @@
       </c>
       <c r="I74" s="32"/>
     </row>
-    <row r="75" spans="1:9">
+    <row r="75" spans="1:9" ht="30">
       <c r="A75" s="30" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="B75" s="31" t="s">
         <v>31</v>
       </c>
       <c r="C75" s="32" t="s">
-        <v>334</v>
+        <v>316</v>
       </c>
       <c r="D75" s="30"/>
       <c r="E75" s="30" t="s">
@@ -4958,21 +5803,23 @@
         <v>15</v>
       </c>
       <c r="H75" s="30" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="I75" s="32"/>
     </row>
     <row r="76" spans="1:9" ht="30">
       <c r="A76" s="30" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="B76" s="31" t="s">
         <v>31</v>
       </c>
       <c r="C76" s="32" t="s">
-        <v>335</v>
-      </c>
-      <c r="D76" s="30"/>
+        <v>317</v>
+      </c>
+      <c r="D76" s="30" t="s">
+        <v>435</v>
+      </c>
       <c r="E76" s="30" t="s">
         <v>19</v>
       </c>
@@ -4987,15 +5834,15 @@
       </c>
       <c r="I76" s="32"/>
     </row>
-    <row r="77" spans="1:9" ht="30">
+    <row r="77" spans="1:9">
       <c r="A77" s="30" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="B77" s="31" t="s">
         <v>31</v>
       </c>
       <c r="C77" s="32" t="s">
-        <v>336</v>
+        <v>318</v>
       </c>
       <c r="D77" s="30"/>
       <c r="E77" s="30" t="s">
@@ -5008,19 +5855,19 @@
         <v>15</v>
       </c>
       <c r="H77" s="30" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="I77" s="32"/>
     </row>
     <row r="78" spans="1:9" ht="30">
       <c r="A78" s="30" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="B78" s="31" t="s">
         <v>31</v>
       </c>
       <c r="C78" s="32" t="s">
-        <v>337</v>
+        <v>319</v>
       </c>
       <c r="D78" s="30"/>
       <c r="E78" s="30" t="s">
@@ -5037,22 +5884,22 @@
       </c>
       <c r="I78" s="32"/>
     </row>
-    <row r="79" spans="1:9" ht="45">
+    <row r="79" spans="1:9" ht="30">
       <c r="A79" s="30" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="B79" s="31" t="s">
         <v>31</v>
       </c>
       <c r="C79" s="32" t="s">
-        <v>338</v>
+        <v>320</v>
       </c>
       <c r="D79" s="30"/>
       <c r="E79" s="30" t="s">
         <v>19</v>
       </c>
       <c r="F79" s="30" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="G79" s="30" t="s">
         <v>15</v>
@@ -5064,17 +5911,15 @@
     </row>
     <row r="80" spans="1:9" ht="45">
       <c r="A80" s="30" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="B80" s="31" t="s">
         <v>31</v>
       </c>
       <c r="C80" s="32" t="s">
-        <v>339</v>
-      </c>
-      <c r="D80" s="30" t="s">
-        <v>493</v>
-      </c>
+        <v>321</v>
+      </c>
+      <c r="D80" s="30"/>
       <c r="E80" s="30" t="s">
         <v>19</v>
       </c>
@@ -5089,40 +5934,42 @@
       </c>
       <c r="I80" s="32"/>
     </row>
-    <row r="81" spans="1:9" ht="30">
+    <row r="81" spans="1:9" ht="45">
       <c r="A81" s="30" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="B81" s="31" t="s">
         <v>31</v>
       </c>
       <c r="C81" s="32" t="s">
-        <v>340</v>
-      </c>
-      <c r="D81" s="30"/>
+        <v>322</v>
+      </c>
+      <c r="D81" s="30" t="s">
+        <v>436</v>
+      </c>
       <c r="E81" s="30" t="s">
         <v>19</v>
       </c>
       <c r="F81" s="30" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="G81" s="30" t="s">
         <v>15</v>
       </c>
       <c r="H81" s="30" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="I81" s="32"/>
     </row>
     <row r="82" spans="1:9" ht="30">
       <c r="A82" s="30" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="B82" s="31" t="s">
         <v>31</v>
       </c>
-      <c r="C82" s="32" t="s">
-        <v>341</v>
+      <c r="C82" s="20" t="s">
+        <v>468</v>
       </c>
       <c r="D82" s="30"/>
       <c r="E82" s="30" t="s">
@@ -5135,19 +5982,19 @@
         <v>15</v>
       </c>
       <c r="H82" s="30" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="I82" s="32"/>
     </row>
-    <row r="83" spans="1:9">
+    <row r="83" spans="1:9" ht="30">
       <c r="A83" s="30" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="B83" s="31" t="s">
         <v>31</v>
       </c>
-      <c r="C83" s="32" t="s">
-        <v>342</v>
+      <c r="C83" s="20" t="s">
+        <v>469</v>
       </c>
       <c r="D83" s="30"/>
       <c r="E83" s="30" t="s">
@@ -5160,19 +6007,19 @@
         <v>15</v>
       </c>
       <c r="H83" s="30" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="I83" s="32"/>
     </row>
-    <row r="84" spans="1:9" ht="30">
+    <row r="84" spans="1:9">
       <c r="A84" s="30" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="B84" s="31" t="s">
         <v>31</v>
       </c>
       <c r="C84" s="32" t="s">
-        <v>343</v>
+        <v>323</v>
       </c>
       <c r="D84" s="30"/>
       <c r="E84" s="30" t="s">
@@ -5185,19 +6032,19 @@
         <v>15</v>
       </c>
       <c r="H84" s="30" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I84" s="32"/>
     </row>
-    <row r="85" spans="1:9" ht="30">
+    <row r="85" spans="1:9">
       <c r="A85" s="30" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="B85" s="31" t="s">
         <v>31</v>
       </c>
-      <c r="C85" s="32" t="s">
-        <v>344</v>
+      <c r="C85" s="20" t="s">
+        <v>470</v>
       </c>
       <c r="D85" s="30"/>
       <c r="E85" s="30" t="s">
@@ -5210,19 +6057,19 @@
         <v>15</v>
       </c>
       <c r="H85" s="30" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="I85" s="32"/>
     </row>
     <row r="86" spans="1:9" ht="30">
       <c r="A86" s="30" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="B86" s="31" t="s">
         <v>31</v>
       </c>
       <c r="C86" s="32" t="s">
-        <v>345</v>
+        <v>324</v>
       </c>
       <c r="D86" s="30"/>
       <c r="E86" s="30" t="s">
@@ -5235,19 +6082,19 @@
         <v>15</v>
       </c>
       <c r="H86" s="30" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="I86" s="32"/>
     </row>
-    <row r="87" spans="1:9">
+    <row r="87" spans="1:9" ht="30">
       <c r="A87" s="30" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="B87" s="31" t="s">
         <v>31</v>
       </c>
       <c r="C87" s="32" t="s">
-        <v>346</v>
+        <v>325</v>
       </c>
       <c r="D87" s="30"/>
       <c r="E87" s="30" t="s">
@@ -5260,19 +6107,19 @@
         <v>15</v>
       </c>
       <c r="H87" s="30" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="I87" s="32"/>
     </row>
-    <row r="88" spans="1:9" ht="30">
+    <row r="88" spans="1:9">
       <c r="A88" s="30" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="B88" s="31" t="s">
         <v>31</v>
       </c>
       <c r="C88" s="32" t="s">
-        <v>347</v>
+        <v>326</v>
       </c>
       <c r="D88" s="30"/>
       <c r="E88" s="30" t="s">
@@ -5285,19 +6132,19 @@
         <v>15</v>
       </c>
       <c r="H88" s="30" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I88" s="32"/>
     </row>
-    <row r="89" spans="1:9">
+    <row r="89" spans="1:9" ht="30">
       <c r="A89" s="30" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="B89" s="31" t="s">
         <v>31</v>
       </c>
       <c r="C89" s="32" t="s">
-        <v>348</v>
+        <v>327</v>
       </c>
       <c r="D89" s="30"/>
       <c r="E89" s="30" t="s">
@@ -5310,19 +6157,19 @@
         <v>15</v>
       </c>
       <c r="H89" s="30" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="I89" s="32"/>
     </row>
-    <row r="90" spans="1:9" ht="30">
+    <row r="90" spans="1:9">
       <c r="A90" s="30" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="B90" s="31" t="s">
         <v>31</v>
       </c>
       <c r="C90" s="32" t="s">
-        <v>349</v>
+        <v>328</v>
       </c>
       <c r="D90" s="30"/>
       <c r="E90" s="30" t="s">
@@ -5335,19 +6182,19 @@
         <v>15</v>
       </c>
       <c r="H90" s="30" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="I90" s="32"/>
     </row>
-    <row r="91" spans="1:9">
+    <row r="91" spans="1:9" ht="30">
       <c r="A91" s="30" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="B91" s="31" t="s">
         <v>31</v>
       </c>
       <c r="C91" s="32" t="s">
-        <v>350</v>
+        <v>329</v>
       </c>
       <c r="D91" s="30"/>
       <c r="E91" s="30" t="s">
@@ -5366,13 +6213,13 @@
     </row>
     <row r="92" spans="1:9">
       <c r="A92" s="30" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="B92" s="31" t="s">
         <v>31</v>
       </c>
       <c r="C92" s="32" t="s">
-        <v>351</v>
+        <v>330</v>
       </c>
       <c r="D92" s="30"/>
       <c r="E92" s="30" t="s">
@@ -5391,13 +6238,13 @@
     </row>
     <row r="93" spans="1:9">
       <c r="A93" s="30" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="B93" s="31" t="s">
         <v>31</v>
       </c>
       <c r="C93" s="32" t="s">
-        <v>352</v>
+        <v>331</v>
       </c>
       <c r="D93" s="30"/>
       <c r="E93" s="30" t="s">
@@ -5410,19 +6257,19 @@
         <v>15</v>
       </c>
       <c r="H93" s="30" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="I93" s="32"/>
     </row>
-    <row r="94" spans="1:9" ht="30">
+    <row r="94" spans="1:9">
       <c r="A94" s="30" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="B94" s="31" t="s">
         <v>31</v>
       </c>
       <c r="C94" s="32" t="s">
-        <v>353</v>
+        <v>332</v>
       </c>
       <c r="D94" s="30"/>
       <c r="E94" s="30" t="s">
@@ -5435,19 +6282,19 @@
         <v>15</v>
       </c>
       <c r="H94" s="30" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="I94" s="32"/>
     </row>
-    <row r="95" spans="1:9">
+    <row r="95" spans="1:9" ht="30">
       <c r="A95" s="30" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="B95" s="31" t="s">
         <v>31</v>
       </c>
       <c r="C95" s="32" t="s">
-        <v>354</v>
+        <v>333</v>
       </c>
       <c r="D95" s="30"/>
       <c r="E95" s="30" t="s">
@@ -5460,19 +6307,19 @@
         <v>15</v>
       </c>
       <c r="H95" s="30" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="I95" s="32"/>
     </row>
-    <row r="96" spans="1:9" ht="30">
+    <row r="96" spans="1:9">
       <c r="A96" s="30" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="B96" s="31" t="s">
         <v>31</v>
       </c>
       <c r="C96" s="32" t="s">
-        <v>355</v>
+        <v>334</v>
       </c>
       <c r="D96" s="30"/>
       <c r="E96" s="30" t="s">
@@ -5485,44 +6332,44 @@
         <v>15</v>
       </c>
       <c r="H96" s="30" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I96" s="32"/>
     </row>
     <row r="97" spans="1:9">
       <c r="A97" s="30" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="B97" s="31" t="s">
         <v>31</v>
       </c>
-      <c r="C97" s="32" t="s">
-        <v>356</v>
+      <c r="C97" s="20" t="s">
+        <v>471</v>
       </c>
       <c r="D97" s="30"/>
       <c r="E97" s="30" t="s">
         <v>19</v>
       </c>
       <c r="F97" s="30" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="G97" s="30" t="s">
         <v>15</v>
       </c>
       <c r="H97" s="30" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="I97" s="32"/>
     </row>
-    <row r="98" spans="1:9" ht="30">
+    <row r="98" spans="1:9">
       <c r="A98" s="30" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="B98" s="31" t="s">
         <v>31</v>
       </c>
       <c r="C98" s="32" t="s">
-        <v>357</v>
+        <v>335</v>
       </c>
       <c r="D98" s="30"/>
       <c r="E98" s="30" t="s">
@@ -5535,19 +6382,19 @@
         <v>15</v>
       </c>
       <c r="H98" s="30" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="I98" s="32"/>
     </row>
-    <row r="99" spans="1:9">
+    <row r="99" spans="1:9" ht="30">
       <c r="A99" s="30" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="B99" s="31" t="s">
         <v>31</v>
       </c>
       <c r="C99" s="32" t="s">
-        <v>358</v>
+        <v>336</v>
       </c>
       <c r="D99" s="30"/>
       <c r="E99" s="30" t="s">
@@ -5560,19 +6407,19 @@
         <v>15</v>
       </c>
       <c r="H99" s="30" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I99" s="32"/>
     </row>
-    <row r="100" spans="1:9" ht="30">
+    <row r="100" spans="1:9">
       <c r="A100" s="30" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="B100" s="31" t="s">
         <v>31</v>
       </c>
-      <c r="C100" s="32" t="s">
-        <v>359</v>
+      <c r="C100" s="20" t="s">
+        <v>472</v>
       </c>
       <c r="D100" s="30"/>
       <c r="E100" s="30" t="s">
@@ -5585,23 +6432,21 @@
         <v>15</v>
       </c>
       <c r="H100" s="30" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="I100" s="32"/>
     </row>
     <row r="101" spans="1:9" ht="30">
       <c r="A101" s="30" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="B101" s="31" t="s">
         <v>31</v>
       </c>
       <c r="C101" s="32" t="s">
-        <v>360</v>
-      </c>
-      <c r="D101" s="30" t="s">
-        <v>494</v>
-      </c>
+        <v>337</v>
+      </c>
+      <c r="D101" s="30"/>
       <c r="E101" s="30" t="s">
         <v>19</v>
       </c>
@@ -5616,40 +6461,42 @@
       </c>
       <c r="I101" s="32"/>
     </row>
-    <row r="102" spans="1:9">
+    <row r="102" spans="1:9" ht="30">
       <c r="A102" s="30" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="B102" s="31" t="s">
         <v>31</v>
       </c>
       <c r="C102" s="32" t="s">
-        <v>361</v>
-      </c>
-      <c r="D102" s="30"/>
+        <v>338</v>
+      </c>
+      <c r="D102" s="30" t="s">
+        <v>437</v>
+      </c>
       <c r="E102" s="30" t="s">
         <v>19</v>
       </c>
       <c r="F102" s="30" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="G102" s="30" t="s">
         <v>15</v>
       </c>
       <c r="H102" s="30" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="I102" s="32"/>
     </row>
-    <row r="103" spans="1:9" ht="30">
+    <row r="103" spans="1:9">
       <c r="A103" s="30" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="B103" s="31" t="s">
         <v>31</v>
       </c>
       <c r="C103" s="32" t="s">
-        <v>362</v>
+        <v>339</v>
       </c>
       <c r="D103" s="30"/>
       <c r="E103" s="30" t="s">
@@ -5662,19 +6509,19 @@
         <v>15</v>
       </c>
       <c r="H103" s="30" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="I103" s="32"/>
     </row>
     <row r="104" spans="1:9" ht="30">
       <c r="A104" s="30" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="B104" s="31" t="s">
         <v>31</v>
       </c>
-      <c r="C104" s="32" t="s">
-        <v>363</v>
+      <c r="C104" s="20" t="s">
+        <v>473</v>
       </c>
       <c r="D104" s="30"/>
       <c r="E104" s="30" t="s">
@@ -5693,13 +6540,13 @@
     </row>
     <row r="105" spans="1:9" ht="30">
       <c r="A105" s="30" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="B105" s="31" t="s">
         <v>31</v>
       </c>
       <c r="C105" s="32" t="s">
-        <v>364</v>
+        <v>340</v>
       </c>
       <c r="D105" s="30"/>
       <c r="E105" s="30" t="s">
@@ -5718,13 +6565,13 @@
     </row>
     <row r="106" spans="1:9" ht="30">
       <c r="A106" s="30" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="B106" s="31" t="s">
         <v>31</v>
       </c>
       <c r="C106" s="32" t="s">
-        <v>365</v>
+        <v>341</v>
       </c>
       <c r="D106" s="30"/>
       <c r="E106" s="30" t="s">
@@ -5743,17 +6590,15 @@
     </row>
     <row r="107" spans="1:9" ht="30">
       <c r="A107" s="30" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="B107" s="31" t="s">
         <v>31</v>
       </c>
       <c r="C107" s="32" t="s">
-        <v>366</v>
-      </c>
-      <c r="D107" s="30" t="s">
-        <v>495</v>
-      </c>
+        <v>342</v>
+      </c>
+      <c r="D107" s="30"/>
       <c r="E107" s="30" t="s">
         <v>19</v>
       </c>
@@ -5768,17 +6613,19 @@
       </c>
       <c r="I107" s="32"/>
     </row>
-    <row r="108" spans="1:9">
+    <row r="108" spans="1:9" ht="30">
       <c r="A108" s="30" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="B108" s="31" t="s">
         <v>31</v>
       </c>
       <c r="C108" s="32" t="s">
-        <v>367</v>
-      </c>
-      <c r="D108" s="30"/>
+        <v>343</v>
+      </c>
+      <c r="D108" s="30" t="s">
+        <v>438</v>
+      </c>
       <c r="E108" s="30" t="s">
         <v>19</v>
       </c>
@@ -5789,19 +6636,19 @@
         <v>15</v>
       </c>
       <c r="H108" s="30" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="I108" s="32"/>
     </row>
-    <row r="109" spans="1:9" ht="30">
+    <row r="109" spans="1:9">
       <c r="A109" s="30" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="B109" s="31" t="s">
         <v>31</v>
       </c>
       <c r="C109" s="32" t="s">
-        <v>368</v>
+        <v>344</v>
       </c>
       <c r="D109" s="30"/>
       <c r="E109" s="30" t="s">
@@ -5814,19 +6661,19 @@
         <v>15</v>
       </c>
       <c r="H109" s="30" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="I109" s="32"/>
     </row>
-    <row r="110" spans="1:9">
+    <row r="110" spans="1:9" ht="30">
       <c r="A110" s="30" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="B110" s="31" t="s">
         <v>31</v>
       </c>
       <c r="C110" s="32" t="s">
-        <v>369</v>
+        <v>345</v>
       </c>
       <c r="D110" s="30"/>
       <c r="E110" s="30" t="s">
@@ -5845,13 +6692,13 @@
     </row>
     <row r="111" spans="1:9">
       <c r="A111" s="30" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="B111" s="31" t="s">
         <v>31</v>
       </c>
       <c r="C111" s="32" t="s">
-        <v>370</v>
+        <v>346</v>
       </c>
       <c r="D111" s="30"/>
       <c r="E111" s="30" t="s">
@@ -5870,13 +6717,13 @@
     </row>
     <row r="112" spans="1:9">
       <c r="A112" s="30" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="B112" s="31" t="s">
         <v>31</v>
       </c>
       <c r="C112" s="32" t="s">
-        <v>371</v>
+        <v>347</v>
       </c>
       <c r="D112" s="30"/>
       <c r="E112" s="30" t="s">
@@ -5889,19 +6736,19 @@
         <v>15</v>
       </c>
       <c r="H112" s="30" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="I112" s="32"/>
     </row>
-    <row r="113" spans="1:9" ht="30">
+    <row r="113" spans="1:9">
       <c r="A113" s="30" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="B113" s="31" t="s">
         <v>31</v>
       </c>
       <c r="C113" s="32" t="s">
-        <v>372</v>
+        <v>348</v>
       </c>
       <c r="D113" s="30"/>
       <c r="E113" s="30" t="s">
@@ -5914,19 +6761,19 @@
         <v>15</v>
       </c>
       <c r="H113" s="30" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="I113" s="32"/>
     </row>
-    <row r="114" spans="1:9">
+    <row r="114" spans="1:9" ht="30">
       <c r="A114" s="30" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="B114" s="31" t="s">
         <v>31</v>
       </c>
-      <c r="C114" s="32" t="s">
-        <v>373</v>
+      <c r="C114" s="20" t="s">
+        <v>474</v>
       </c>
       <c r="D114" s="30"/>
       <c r="E114" s="30" t="s">
@@ -5945,13 +6792,13 @@
     </row>
     <row r="115" spans="1:9">
       <c r="A115" s="30" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="B115" s="31" t="s">
         <v>31</v>
       </c>
       <c r="C115" s="32" t="s">
-        <v>374</v>
+        <v>349</v>
       </c>
       <c r="D115" s="30"/>
       <c r="E115" s="30" t="s">
@@ -5970,13 +6817,13 @@
     </row>
     <row r="116" spans="1:9">
       <c r="A116" s="30" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="B116" s="31" t="s">
         <v>31</v>
       </c>
       <c r="C116" s="32" t="s">
-        <v>375</v>
+        <v>350</v>
       </c>
       <c r="D116" s="30"/>
       <c r="E116" s="30" t="s">
@@ -5989,19 +6836,19 @@
         <v>15</v>
       </c>
       <c r="H116" s="30" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I116" s="32"/>
     </row>
-    <row r="117" spans="1:9" ht="30">
+    <row r="117" spans="1:9">
       <c r="A117" s="30" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="B117" s="31" t="s">
         <v>31</v>
       </c>
       <c r="C117" s="32" t="s">
-        <v>376</v>
+        <v>351</v>
       </c>
       <c r="D117" s="30"/>
       <c r="E117" s="30" t="s">
@@ -6018,15 +6865,15 @@
       </c>
       <c r="I117" s="32"/>
     </row>
-    <row r="118" spans="1:9">
+    <row r="118" spans="1:9" ht="30">
       <c r="A118" s="30" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="B118" s="31" t="s">
         <v>31</v>
       </c>
-      <c r="C118" s="32" t="s">
-        <v>377</v>
+      <c r="C118" s="20" t="s">
+        <v>352</v>
       </c>
       <c r="D118" s="30"/>
       <c r="E118" s="30" t="s">
@@ -6043,50 +6890,50 @@
       </c>
       <c r="I118" s="32"/>
     </row>
-    <row r="119" spans="1:9" ht="30">
-      <c r="A119" s="30" t="s">
-        <v>141</v>
+    <row r="119" spans="1:9">
+      <c r="A119" s="22" t="s">
+        <v>476</v>
       </c>
       <c r="B119" s="31" t="s">
         <v>31</v>
       </c>
-      <c r="C119" s="32" t="s">
-        <v>378</v>
-      </c>
-      <c r="D119" s="30"/>
-      <c r="E119" s="30" t="s">
-        <v>19</v>
-      </c>
-      <c r="F119" s="30" t="s">
-        <v>3</v>
-      </c>
-      <c r="G119" s="30" t="s">
-        <v>15</v>
-      </c>
-      <c r="H119" s="30" t="s">
+      <c r="C119" s="46" t="s">
+        <v>475</v>
+      </c>
+      <c r="D119" s="44"/>
+      <c r="E119" s="44" t="s">
+        <v>19</v>
+      </c>
+      <c r="F119" s="44" t="s">
+        <v>3</v>
+      </c>
+      <c r="G119" s="44" t="s">
+        <v>15</v>
+      </c>
+      <c r="H119" s="44" t="s">
         <v>18</v>
       </c>
-      <c r="I119" s="32"/>
-    </row>
-    <row r="120" spans="1:9" ht="30">
+      <c r="I119" s="46"/>
+    </row>
+    <row r="120" spans="1:9">
       <c r="A120" s="30" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="B120" s="31" t="s">
-        <v>260</v>
+        <v>31</v>
       </c>
       <c r="C120" s="32" t="s">
-        <v>379</v>
+        <v>353</v>
       </c>
       <c r="D120" s="30"/>
       <c r="E120" s="30" t="s">
         <v>19</v>
       </c>
       <c r="F120" s="30" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="G120" s="30" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H120" s="30" t="s">
         <v>18</v>
@@ -6095,23 +6942,23 @@
     </row>
     <row r="121" spans="1:9" ht="30">
       <c r="A121" s="30" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="B121" s="31" t="s">
-        <v>260</v>
-      </c>
-      <c r="C121" s="32" t="s">
-        <v>380</v>
+        <v>31</v>
+      </c>
+      <c r="C121" s="20" t="s">
+        <v>354</v>
       </c>
       <c r="D121" s="30"/>
       <c r="E121" s="30" t="s">
         <v>19</v>
       </c>
       <c r="F121" s="30" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="G121" s="30" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H121" s="30" t="s">
         <v>18</v>
@@ -6119,339 +6966,345 @@
       <c r="I121" s="32"/>
     </row>
     <row r="122" spans="1:9" ht="30">
-      <c r="A122" s="30" t="s">
-        <v>144</v>
+      <c r="A122" s="22" t="s">
+        <v>478</v>
       </c>
       <c r="B122" s="31" t="s">
-        <v>260</v>
-      </c>
-      <c r="C122" s="32" t="s">
-        <v>381</v>
-      </c>
-      <c r="D122" s="30"/>
-      <c r="E122" s="30" t="s">
-        <v>19</v>
-      </c>
-      <c r="F122" s="30" t="s">
-        <v>7</v>
-      </c>
-      <c r="G122" s="30" t="s">
-        <v>16</v>
-      </c>
-      <c r="H122" s="30" t="s">
+        <v>31</v>
+      </c>
+      <c r="C122" s="46" t="s">
+        <v>477</v>
+      </c>
+      <c r="D122" s="44"/>
+      <c r="E122" s="44" t="s">
+        <v>19</v>
+      </c>
+      <c r="F122" s="44" t="s">
+        <v>3</v>
+      </c>
+      <c r="G122" s="44" t="s">
+        <v>15</v>
+      </c>
+      <c r="H122" s="44" t="s">
         <v>18</v>
       </c>
-      <c r="I122" s="32"/>
+      <c r="I122" s="46"/>
     </row>
     <row r="123" spans="1:9" ht="30">
-      <c r="A123" s="30" t="s">
-        <v>145</v>
+      <c r="A123" s="22" t="s">
+        <v>485</v>
       </c>
       <c r="B123" s="31" t="s">
-        <v>261</v>
-      </c>
-      <c r="C123" s="32" t="s">
-        <v>382</v>
-      </c>
-      <c r="D123" s="30"/>
-      <c r="E123" s="30" t="s">
-        <v>19</v>
-      </c>
-      <c r="F123" s="30" t="s">
-        <v>7</v>
-      </c>
-      <c r="G123" s="30" t="s">
-        <v>16</v>
-      </c>
-      <c r="H123" s="30" t="s">
-        <v>18</v>
-      </c>
-      <c r="I123" s="32"/>
-    </row>
-    <row r="124" spans="1:9" ht="240">
-      <c r="A124" s="30" t="s">
-        <v>146</v>
+        <v>31</v>
+      </c>
+      <c r="C123" s="46" t="s">
+        <v>479</v>
+      </c>
+      <c r="D123" s="44"/>
+      <c r="E123" s="44" t="s">
+        <v>19</v>
+      </c>
+      <c r="F123" s="44" t="s">
+        <v>3</v>
+      </c>
+      <c r="G123" s="44" t="s">
+        <v>15</v>
+      </c>
+      <c r="H123" s="44" t="s">
+        <v>21</v>
+      </c>
+      <c r="I123" s="46"/>
+    </row>
+    <row r="124" spans="1:9" ht="45">
+      <c r="A124" s="22" t="s">
+        <v>486</v>
       </c>
       <c r="B124" s="31" t="s">
-        <v>261</v>
-      </c>
-      <c r="C124" s="32" t="s">
-        <v>383</v>
-      </c>
-      <c r="D124" s="30"/>
-      <c r="E124" s="30" t="s">
-        <v>19</v>
-      </c>
-      <c r="F124" s="30" t="s">
-        <v>7</v>
-      </c>
-      <c r="G124" s="30" t="s">
-        <v>15</v>
-      </c>
-      <c r="H124" s="30" t="s">
-        <v>18</v>
-      </c>
-      <c r="I124" s="32"/>
-    </row>
-    <row r="125" spans="1:9" ht="45">
-      <c r="A125" s="30" t="s">
-        <v>147</v>
+        <v>31</v>
+      </c>
+      <c r="C124" s="46" t="s">
+        <v>480</v>
+      </c>
+      <c r="D124" s="44"/>
+      <c r="E124" s="44" t="s">
+        <v>19</v>
+      </c>
+      <c r="F124" s="44" t="s">
+        <v>3</v>
+      </c>
+      <c r="G124" s="44" t="s">
+        <v>15</v>
+      </c>
+      <c r="H124" s="44" t="s">
+        <v>17</v>
+      </c>
+      <c r="I124" s="46" t="s">
+        <v>560</v>
+      </c>
+    </row>
+    <row r="125" spans="1:9" ht="30">
+      <c r="A125" s="22" t="s">
+        <v>487</v>
       </c>
       <c r="B125" s="31" t="s">
-        <v>261</v>
-      </c>
-      <c r="C125" s="32" t="s">
-        <v>384</v>
-      </c>
-      <c r="D125" s="30"/>
-      <c r="E125" s="30" t="s">
-        <v>19</v>
-      </c>
-      <c r="F125" s="30" t="s">
-        <v>7</v>
-      </c>
-      <c r="G125" s="30" t="s">
-        <v>16</v>
-      </c>
-      <c r="H125" s="30" t="s">
-        <v>18</v>
-      </c>
-      <c r="I125" s="32"/>
-    </row>
-    <row r="126" spans="1:9" ht="60">
-      <c r="A126" s="30" t="s">
-        <v>148</v>
+        <v>31</v>
+      </c>
+      <c r="C125" s="46" t="s">
+        <v>481</v>
+      </c>
+      <c r="D125" s="44"/>
+      <c r="E125" s="44" t="s">
+        <v>19</v>
+      </c>
+      <c r="F125" s="44" t="s">
+        <v>3</v>
+      </c>
+      <c r="G125" s="44" t="s">
+        <v>15</v>
+      </c>
+      <c r="H125" s="44" t="s">
+        <v>21</v>
+      </c>
+      <c r="I125" s="46"/>
+    </row>
+    <row r="126" spans="1:9" ht="45">
+      <c r="A126" s="22" t="s">
+        <v>488</v>
       </c>
       <c r="B126" s="31" t="s">
-        <v>261</v>
-      </c>
-      <c r="C126" s="32" t="s">
-        <v>385</v>
-      </c>
-      <c r="D126" s="30"/>
-      <c r="E126" s="30" t="s">
-        <v>19</v>
-      </c>
-      <c r="F126" s="30" t="s">
-        <v>3</v>
-      </c>
-      <c r="G126" s="30" t="s">
-        <v>15</v>
-      </c>
-      <c r="H126" s="30" t="s">
-        <v>20</v>
-      </c>
-      <c r="I126" s="32"/>
-    </row>
-    <row r="127" spans="1:9" ht="45">
-      <c r="A127" s="30" t="s">
-        <v>149</v>
+        <v>31</v>
+      </c>
+      <c r="C126" s="46" t="s">
+        <v>482</v>
+      </c>
+      <c r="D126" s="44"/>
+      <c r="E126" s="44" t="s">
+        <v>19</v>
+      </c>
+      <c r="F126" s="44" t="s">
+        <v>3</v>
+      </c>
+      <c r="G126" s="44" t="s">
+        <v>15</v>
+      </c>
+      <c r="H126" s="44" t="s">
+        <v>17</v>
+      </c>
+      <c r="I126" s="46" t="s">
+        <v>562</v>
+      </c>
+    </row>
+    <row r="127" spans="1:9" ht="30">
+      <c r="A127" s="22" t="s">
+        <v>489</v>
       </c>
       <c r="B127" s="31" t="s">
-        <v>261</v>
-      </c>
-      <c r="C127" s="32" t="s">
-        <v>386</v>
-      </c>
-      <c r="D127" s="30"/>
-      <c r="E127" s="30" t="s">
-        <v>19</v>
-      </c>
-      <c r="F127" s="30" t="s">
-        <v>3</v>
-      </c>
-      <c r="G127" s="30" t="s">
-        <v>15</v>
-      </c>
-      <c r="H127" s="30" t="s">
-        <v>20</v>
-      </c>
-      <c r="I127" s="32"/>
-    </row>
-    <row r="128" spans="1:9" ht="30">
-      <c r="A128" s="30" t="s">
-        <v>150</v>
+        <v>31</v>
+      </c>
+      <c r="C127" s="46" t="s">
+        <v>483</v>
+      </c>
+      <c r="D127" s="44"/>
+      <c r="E127" s="44" t="s">
+        <v>19</v>
+      </c>
+      <c r="F127" s="44" t="s">
+        <v>3</v>
+      </c>
+      <c r="G127" s="44" t="s">
+        <v>15</v>
+      </c>
+      <c r="H127" s="44" t="s">
+        <v>21</v>
+      </c>
+      <c r="I127" s="46"/>
+    </row>
+    <row r="128" spans="1:9" ht="45">
+      <c r="A128" s="22" t="s">
+        <v>490</v>
       </c>
       <c r="B128" s="31" t="s">
-        <v>261</v>
-      </c>
-      <c r="C128" s="32" t="s">
-        <v>387</v>
-      </c>
-      <c r="D128" s="30"/>
-      <c r="E128" s="30" t="s">
-        <v>19</v>
-      </c>
-      <c r="F128" s="30" t="s">
-        <v>3</v>
-      </c>
-      <c r="G128" s="30" t="s">
-        <v>15</v>
-      </c>
-      <c r="H128" s="30" t="s">
-        <v>20</v>
-      </c>
-      <c r="I128" s="32"/>
-    </row>
-    <row r="129" spans="1:9" ht="45">
+        <v>31</v>
+      </c>
+      <c r="C128" s="46" t="s">
+        <v>484</v>
+      </c>
+      <c r="D128" s="44"/>
+      <c r="E128" s="44" t="s">
+        <v>19</v>
+      </c>
+      <c r="F128" s="44" t="s">
+        <v>3</v>
+      </c>
+      <c r="G128" s="44" t="s">
+        <v>15</v>
+      </c>
+      <c r="H128" s="44" t="s">
+        <v>17</v>
+      </c>
+      <c r="I128" s="46" t="s">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="129" spans="1:9" ht="30">
       <c r="A129" s="30" t="s">
-        <v>151</v>
+        <v>140</v>
       </c>
       <c r="B129" s="31" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="C129" s="32" t="s">
-        <v>388</v>
+        <v>355</v>
       </c>
       <c r="D129" s="30"/>
       <c r="E129" s="30" t="s">
         <v>19</v>
       </c>
       <c r="F129" s="30" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="G129" s="30" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H129" s="30" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="I129" s="32"/>
     </row>
-    <row r="130" spans="1:9" ht="45">
+    <row r="130" spans="1:9" ht="30">
       <c r="A130" s="30" t="s">
-        <v>152</v>
+        <v>141</v>
       </c>
       <c r="B130" s="31" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="C130" s="32" t="s">
-        <v>389</v>
+        <v>356</v>
       </c>
       <c r="D130" s="30"/>
       <c r="E130" s="30" t="s">
         <v>19</v>
       </c>
       <c r="F130" s="30" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="G130" s="30" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H130" s="30" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="I130" s="32"/>
     </row>
     <row r="131" spans="1:9" ht="30">
       <c r="A131" s="30" t="s">
-        <v>153</v>
+        <v>142</v>
       </c>
       <c r="B131" s="31" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="C131" s="32" t="s">
-        <v>390</v>
+        <v>357</v>
       </c>
       <c r="D131" s="30"/>
       <c r="E131" s="30" t="s">
         <v>19</v>
       </c>
       <c r="F131" s="30" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="G131" s="30" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H131" s="30" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="I131" s="32"/>
     </row>
-    <row r="132" spans="1:9" ht="45">
+    <row r="132" spans="1:9" ht="30">
       <c r="A132" s="30" t="s">
-        <v>154</v>
+        <v>143</v>
       </c>
       <c r="B132" s="31" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="C132" s="32" t="s">
-        <v>391</v>
+        <v>358</v>
       </c>
       <c r="D132" s="30"/>
       <c r="E132" s="30" t="s">
         <v>19</v>
       </c>
       <c r="F132" s="30" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="G132" s="30" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H132" s="30" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="I132" s="32"/>
     </row>
-    <row r="133" spans="1:9" ht="60">
+    <row r="133" spans="1:9" ht="240">
       <c r="A133" s="30" t="s">
-        <v>155</v>
+        <v>144</v>
       </c>
       <c r="B133" s="31" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="C133" s="32" t="s">
-        <v>392</v>
+        <v>359</v>
       </c>
       <c r="D133" s="30"/>
       <c r="E133" s="30" t="s">
         <v>19</v>
       </c>
       <c r="F133" s="30" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="G133" s="30" t="s">
         <v>15</v>
       </c>
       <c r="H133" s="30" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="I133" s="32"/>
     </row>
-    <row r="134" spans="1:9" ht="30">
+    <row r="134" spans="1:9" ht="45">
       <c r="A134" s="30" t="s">
-        <v>156</v>
+        <v>145</v>
       </c>
       <c r="B134" s="31" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="C134" s="32" t="s">
-        <v>393</v>
+        <v>360</v>
       </c>
       <c r="D134" s="30"/>
       <c r="E134" s="30" t="s">
         <v>19</v>
       </c>
       <c r="F134" s="30" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="G134" s="30" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H134" s="30" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="I134" s="32"/>
     </row>
-    <row r="135" spans="1:9" ht="30">
+    <row r="135" spans="1:9" ht="60">
       <c r="A135" s="30" t="s">
-        <v>157</v>
+        <v>146</v>
       </c>
       <c r="B135" s="31" t="s">
-        <v>262</v>
-      </c>
-      <c r="C135" s="32" t="s">
-        <v>394</v>
+        <v>259</v>
+      </c>
+      <c r="C135" s="20" t="s">
+        <v>491</v>
       </c>
       <c r="D135" s="30"/>
       <c r="E135" s="30" t="s">
@@ -6461,22 +7314,22 @@
         <v>3</v>
       </c>
       <c r="G135" s="30" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H135" s="30" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I135" s="32"/>
     </row>
-    <row r="136" spans="1:9">
+    <row r="136" spans="1:9" ht="45">
       <c r="A136" s="30" t="s">
-        <v>158</v>
+        <v>147</v>
       </c>
       <c r="B136" s="31" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="C136" s="32" t="s">
-        <v>395</v>
+        <v>361</v>
       </c>
       <c r="D136" s="30"/>
       <c r="E136" s="30" t="s">
@@ -6486,22 +7339,22 @@
         <v>3</v>
       </c>
       <c r="G136" s="30" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H136" s="30" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I136" s="32"/>
     </row>
     <row r="137" spans="1:9" ht="30">
       <c r="A137" s="30" t="s">
-        <v>159</v>
+        <v>148</v>
       </c>
       <c r="B137" s="31" t="s">
-        <v>264</v>
+        <v>259</v>
       </c>
       <c r="C137" s="32" t="s">
-        <v>396</v>
+        <v>362</v>
       </c>
       <c r="D137" s="30"/>
       <c r="E137" s="30" t="s">
@@ -6511,72 +7364,72 @@
         <v>3</v>
       </c>
       <c r="G137" s="30" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H137" s="30" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I137" s="32"/>
     </row>
-    <row r="138" spans="1:9">
+    <row r="138" spans="1:9" ht="30">
       <c r="A138" s="30" t="s">
-        <v>160</v>
+        <v>149</v>
       </c>
       <c r="B138" s="31" t="s">
-        <v>265</v>
-      </c>
-      <c r="C138" s="32" t="s">
-        <v>397</v>
+        <v>259</v>
+      </c>
+      <c r="C138" s="20" t="s">
+        <v>492</v>
       </c>
       <c r="D138" s="30"/>
       <c r="E138" s="30" t="s">
         <v>19</v>
       </c>
       <c r="F138" s="30" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="G138" s="30" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H138" s="30" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I138" s="32"/>
     </row>
     <row r="139" spans="1:9" ht="30">
       <c r="A139" s="30" t="s">
-        <v>161</v>
+        <v>150</v>
       </c>
       <c r="B139" s="31" t="s">
-        <v>265</v>
-      </c>
-      <c r="C139" s="32" t="s">
-        <v>398</v>
+        <v>259</v>
+      </c>
+      <c r="C139" s="20" t="s">
+        <v>493</v>
       </c>
       <c r="D139" s="30"/>
       <c r="E139" s="30" t="s">
         <v>19</v>
       </c>
       <c r="F139" s="30" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="G139" s="30" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H139" s="30" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I139" s="32"/>
     </row>
-    <row r="140" spans="1:9" ht="45">
+    <row r="140" spans="1:9" ht="30">
       <c r="A140" s="30" t="s">
-        <v>162</v>
+        <v>151</v>
       </c>
       <c r="B140" s="31" t="s">
-        <v>265</v>
-      </c>
-      <c r="C140" s="32" t="s">
-        <v>399</v>
+        <v>259</v>
+      </c>
+      <c r="C140" s="20" t="s">
+        <v>363</v>
       </c>
       <c r="D140" s="30"/>
       <c r="E140" s="30" t="s">
@@ -6586,22 +7439,22 @@
         <v>3</v>
       </c>
       <c r="G140" s="30" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H140" s="30" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I140" s="32"/>
     </row>
     <row r="141" spans="1:9" ht="30">
       <c r="A141" s="30" t="s">
-        <v>163</v>
+        <v>152</v>
       </c>
       <c r="B141" s="31" t="s">
-        <v>266</v>
-      </c>
-      <c r="C141" s="32" t="s">
-        <v>400</v>
+        <v>259</v>
+      </c>
+      <c r="C141" s="20" t="s">
+        <v>494</v>
       </c>
       <c r="D141" s="30"/>
       <c r="E141" s="30" t="s">
@@ -6611,22 +7464,22 @@
         <v>3</v>
       </c>
       <c r="G141" s="30" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H141" s="30" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I141" s="32"/>
     </row>
-    <row r="142" spans="1:9" ht="30">
+    <row r="142" spans="1:9" ht="45">
       <c r="A142" s="30" t="s">
-        <v>164</v>
+        <v>153</v>
       </c>
       <c r="B142" s="31" t="s">
-        <v>266</v>
-      </c>
-      <c r="C142" s="32" t="s">
-        <v>503</v>
+        <v>259</v>
+      </c>
+      <c r="C142" s="20" t="s">
+        <v>495</v>
       </c>
       <c r="D142" s="30"/>
       <c r="E142" s="30" t="s">
@@ -6636,22 +7489,22 @@
         <v>3</v>
       </c>
       <c r="G142" s="30" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H142" s="30" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I142" s="32"/>
     </row>
     <row r="143" spans="1:9" ht="30">
       <c r="A143" s="30" t="s">
-        <v>165</v>
+        <v>154</v>
       </c>
       <c r="B143" s="31" t="s">
-        <v>267</v>
-      </c>
-      <c r="C143" s="32" t="s">
-        <v>401</v>
+        <v>259</v>
+      </c>
+      <c r="C143" s="20" t="s">
+        <v>364</v>
       </c>
       <c r="D143" s="30"/>
       <c r="E143" s="30" t="s">
@@ -6661,22 +7514,22 @@
         <v>3</v>
       </c>
       <c r="G143" s="30" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H143" s="30" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I143" s="32"/>
     </row>
     <row r="144" spans="1:9" ht="30">
       <c r="A144" s="30" t="s">
-        <v>166</v>
+        <v>155</v>
       </c>
       <c r="B144" s="31" t="s">
-        <v>267</v>
+        <v>260</v>
       </c>
       <c r="C144" s="32" t="s">
-        <v>402</v>
+        <v>365</v>
       </c>
       <c r="D144" s="30"/>
       <c r="E144" s="30" t="s">
@@ -6693,15 +7546,15 @@
       </c>
       <c r="I144" s="32"/>
     </row>
-    <row r="145" spans="1:9" ht="45">
+    <row r="145" spans="1:9">
       <c r="A145" s="30" t="s">
-        <v>167</v>
+        <v>156</v>
       </c>
       <c r="B145" s="31" t="s">
-        <v>267</v>
+        <v>261</v>
       </c>
       <c r="C145" s="32" t="s">
-        <v>403</v>
+        <v>366</v>
       </c>
       <c r="D145" s="30"/>
       <c r="E145" s="30" t="s">
@@ -6718,15 +7571,15 @@
       </c>
       <c r="I145" s="32"/>
     </row>
-    <row r="146" spans="1:9" ht="45">
+    <row r="146" spans="1:9" ht="30">
       <c r="A146" s="30" t="s">
-        <v>168</v>
+        <v>157</v>
       </c>
       <c r="B146" s="31" t="s">
-        <v>268</v>
+        <v>262</v>
       </c>
       <c r="C146" s="32" t="s">
-        <v>404</v>
+        <v>367</v>
       </c>
       <c r="D146" s="30"/>
       <c r="E146" s="30" t="s">
@@ -6743,22 +7596,22 @@
       </c>
       <c r="I146" s="32"/>
     </row>
-    <row r="147" spans="1:9" ht="30">
+    <row r="147" spans="1:9">
       <c r="A147" s="30" t="s">
-        <v>169</v>
+        <v>158</v>
       </c>
       <c r="B147" s="31" t="s">
-        <v>268</v>
+        <v>263</v>
       </c>
       <c r="C147" s="32" t="s">
-        <v>405</v>
+        <v>368</v>
       </c>
       <c r="D147" s="30"/>
       <c r="E147" s="30" t="s">
         <v>19</v>
       </c>
       <c r="F147" s="30" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="G147" s="30" t="s">
         <v>16</v>
@@ -6770,20 +7623,20 @@
     </row>
     <row r="148" spans="1:9" ht="30">
       <c r="A148" s="30" t="s">
-        <v>170</v>
+        <v>159</v>
       </c>
       <c r="B148" s="31" t="s">
-        <v>268</v>
+        <v>263</v>
       </c>
       <c r="C148" s="32" t="s">
-        <v>406</v>
+        <v>369</v>
       </c>
       <c r="D148" s="30"/>
       <c r="E148" s="30" t="s">
         <v>19</v>
       </c>
       <c r="F148" s="30" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="G148" s="30" t="s">
         <v>16</v>
@@ -6793,15 +7646,15 @@
       </c>
       <c r="I148" s="32"/>
     </row>
-    <row r="149" spans="1:9" ht="30">
+    <row r="149" spans="1:9" ht="45">
       <c r="A149" s="30" t="s">
-        <v>171</v>
+        <v>160</v>
       </c>
       <c r="B149" s="31" t="s">
-        <v>268</v>
+        <v>263</v>
       </c>
       <c r="C149" s="32" t="s">
-        <v>407</v>
+        <v>370</v>
       </c>
       <c r="D149" s="30"/>
       <c r="E149" s="30" t="s">
@@ -6820,13 +7673,13 @@
     </row>
     <row r="150" spans="1:9" ht="30">
       <c r="A150" s="30" t="s">
-        <v>172</v>
+        <v>161</v>
       </c>
       <c r="B150" s="31" t="s">
-        <v>268</v>
-      </c>
-      <c r="C150" s="32" t="s">
-        <v>408</v>
+        <v>264</v>
+      </c>
+      <c r="C150" s="20" t="s">
+        <v>496</v>
       </c>
       <c r="D150" s="30"/>
       <c r="E150" s="30" t="s">
@@ -6845,13 +7698,13 @@
     </row>
     <row r="151" spans="1:9" ht="30">
       <c r="A151" s="30" t="s">
-        <v>173</v>
+        <v>162</v>
       </c>
       <c r="B151" s="31" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="C151" s="32" t="s">
-        <v>409</v>
+        <v>445</v>
       </c>
       <c r="D151" s="30"/>
       <c r="E151" s="30" t="s">
@@ -6870,13 +7723,13 @@
     </row>
     <row r="152" spans="1:9" ht="30">
       <c r="A152" s="30" t="s">
-        <v>174</v>
+        <v>163</v>
       </c>
       <c r="B152" s="31" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="C152" s="32" t="s">
-        <v>410</v>
+        <v>371</v>
       </c>
       <c r="D152" s="30"/>
       <c r="E152" s="30" t="s">
@@ -6895,13 +7748,13 @@
     </row>
     <row r="153" spans="1:9" ht="30">
       <c r="A153" s="30" t="s">
-        <v>175</v>
+        <v>164</v>
       </c>
       <c r="B153" s="31" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="C153" s="32" t="s">
-        <v>411</v>
+        <v>372</v>
       </c>
       <c r="D153" s="30"/>
       <c r="E153" s="30" t="s">
@@ -6918,15 +7771,15 @@
       </c>
       <c r="I153" s="32"/>
     </row>
-    <row r="154" spans="1:9">
+    <row r="154" spans="1:9" ht="45">
       <c r="A154" s="30" t="s">
-        <v>176</v>
+        <v>165</v>
       </c>
       <c r="B154" s="31" t="s">
-        <v>32</v>
+        <v>265</v>
       </c>
       <c r="C154" s="32" t="s">
-        <v>412</v>
+        <v>373</v>
       </c>
       <c r="D154" s="30"/>
       <c r="E154" s="30" t="s">
@@ -6943,15 +7796,15 @@
       </c>
       <c r="I154" s="32"/>
     </row>
-    <row r="155" spans="1:9" ht="90">
+    <row r="155" spans="1:9" ht="45">
       <c r="A155" s="30" t="s">
-        <v>177</v>
+        <v>166</v>
       </c>
       <c r="B155" s="31" t="s">
-        <v>32</v>
+        <v>266</v>
       </c>
       <c r="C155" s="32" t="s">
-        <v>413</v>
+        <v>374</v>
       </c>
       <c r="D155" s="30"/>
       <c r="E155" s="30" t="s">
@@ -6961,22 +7814,22 @@
         <v>3</v>
       </c>
       <c r="G155" s="30" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H155" s="30" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="I155" s="32"/>
     </row>
-    <row r="156" spans="1:9" ht="270">
+    <row r="156" spans="1:9" ht="30">
       <c r="A156" s="30" t="s">
-        <v>178</v>
+        <v>167</v>
       </c>
       <c r="B156" s="31" t="s">
-        <v>32</v>
-      </c>
-      <c r="C156" s="32" t="s">
-        <v>414</v>
+        <v>266</v>
+      </c>
+      <c r="C156" s="20" t="s">
+        <v>498</v>
       </c>
       <c r="D156" s="30"/>
       <c r="E156" s="30" t="s">
@@ -6986,22 +7839,22 @@
         <v>3</v>
       </c>
       <c r="G156" s="30" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H156" s="30" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="I156" s="32"/>
     </row>
     <row r="157" spans="1:9" ht="30">
       <c r="A157" s="30" t="s">
-        <v>179</v>
+        <v>168</v>
       </c>
       <c r="B157" s="31" t="s">
-        <v>32</v>
-      </c>
-      <c r="C157" s="32" t="s">
-        <v>415</v>
+        <v>266</v>
+      </c>
+      <c r="C157" s="20" t="s">
+        <v>497</v>
       </c>
       <c r="D157" s="30"/>
       <c r="E157" s="30" t="s">
@@ -7011,22 +7864,22 @@
         <v>3</v>
       </c>
       <c r="G157" s="30" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H157" s="30" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="I157" s="32"/>
     </row>
-    <row r="158" spans="1:9" ht="45">
+    <row r="158" spans="1:9" ht="30">
       <c r="A158" s="30" t="s">
-        <v>180</v>
+        <v>169</v>
       </c>
       <c r="B158" s="31" t="s">
-        <v>32</v>
-      </c>
-      <c r="C158" s="32" t="s">
-        <v>416</v>
+        <v>266</v>
+      </c>
+      <c r="C158" s="20" t="s">
+        <v>499</v>
       </c>
       <c r="D158" s="30"/>
       <c r="E158" s="30" t="s">
@@ -7036,22 +7889,22 @@
         <v>3</v>
       </c>
       <c r="G158" s="30" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H158" s="30" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="I158" s="32"/>
     </row>
-    <row r="159" spans="1:9" ht="45">
+    <row r="159" spans="1:9" ht="30">
       <c r="A159" s="30" t="s">
-        <v>181</v>
+        <v>170</v>
       </c>
       <c r="B159" s="31" t="s">
-        <v>32</v>
-      </c>
-      <c r="C159" s="32" t="s">
-        <v>417</v>
+        <v>266</v>
+      </c>
+      <c r="C159" s="20" t="s">
+        <v>500</v>
       </c>
       <c r="D159" s="30"/>
       <c r="E159" s="30" t="s">
@@ -7061,22 +7914,22 @@
         <v>3</v>
       </c>
       <c r="G159" s="30" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H159" s="30" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="I159" s="32"/>
     </row>
     <row r="160" spans="1:9" ht="30">
       <c r="A160" s="30" t="s">
-        <v>182</v>
+        <v>171</v>
       </c>
       <c r="B160" s="31" t="s">
-        <v>32</v>
-      </c>
-      <c r="C160" s="32" t="s">
-        <v>418</v>
+        <v>266</v>
+      </c>
+      <c r="C160" s="20" t="s">
+        <v>501</v>
       </c>
       <c r="D160" s="30"/>
       <c r="E160" s="30" t="s">
@@ -7095,13 +7948,13 @@
     </row>
     <row r="161" spans="1:9" ht="30">
       <c r="A161" s="30" t="s">
-        <v>183</v>
+        <v>172</v>
       </c>
       <c r="B161" s="31" t="s">
-        <v>33</v>
-      </c>
-      <c r="C161" s="32" t="s">
-        <v>419</v>
+        <v>266</v>
+      </c>
+      <c r="C161" s="20" t="s">
+        <v>502</v>
       </c>
       <c r="D161" s="30"/>
       <c r="E161" s="30" t="s">
@@ -7118,15 +7971,15 @@
       </c>
       <c r="I161" s="32"/>
     </row>
-    <row r="162" spans="1:9" ht="75">
+    <row r="162" spans="1:9" ht="30">
       <c r="A162" s="30" t="s">
-        <v>184</v>
+        <v>173</v>
       </c>
       <c r="B162" s="31" t="s">
-        <v>33</v>
-      </c>
-      <c r="C162" s="32" t="s">
-        <v>420</v>
+        <v>266</v>
+      </c>
+      <c r="C162" s="20" t="s">
+        <v>503</v>
       </c>
       <c r="D162" s="30"/>
       <c r="E162" s="30" t="s">
@@ -7136,22 +7989,22 @@
         <v>3</v>
       </c>
       <c r="G162" s="30" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H162" s="30" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="I162" s="32"/>
     </row>
-    <row r="163" spans="1:9" ht="240">
+    <row r="163" spans="1:9">
       <c r="A163" s="30" t="s">
-        <v>185</v>
-      </c>
-      <c r="B163" s="31" t="s">
-        <v>33</v>
-      </c>
-      <c r="C163" s="32" t="s">
-        <v>421</v>
+        <v>226</v>
+      </c>
+      <c r="B163" s="24" t="s">
+        <v>32</v>
+      </c>
+      <c r="C163" s="20" t="s">
+        <v>504</v>
       </c>
       <c r="D163" s="30"/>
       <c r="E163" s="30" t="s">
@@ -7161,197 +8014,197 @@
         <v>3</v>
       </c>
       <c r="G163" s="30" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H163" s="30" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="I163" s="32"/>
     </row>
-    <row r="164" spans="1:9" ht="30">
+    <row r="164" spans="1:9" ht="75">
       <c r="A164" s="30" t="s">
-        <v>186</v>
-      </c>
-      <c r="B164" s="31" t="s">
-        <v>33</v>
+        <v>227</v>
+      </c>
+      <c r="B164" s="24" t="s">
+        <v>32</v>
       </c>
       <c r="C164" s="32" t="s">
-        <v>422</v>
+        <v>411</v>
       </c>
       <c r="D164" s="30"/>
       <c r="E164" s="30" t="s">
         <v>19</v>
       </c>
       <c r="F164" s="30" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="G164" s="30" t="s">
         <v>15</v>
       </c>
       <c r="H164" s="30" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="I164" s="32"/>
     </row>
-    <row r="165" spans="1:9">
+    <row r="165" spans="1:9" ht="240">
       <c r="A165" s="30" t="s">
-        <v>187</v>
-      </c>
-      <c r="B165" s="31" t="s">
-        <v>33</v>
+        <v>228</v>
+      </c>
+      <c r="B165" s="24" t="s">
+        <v>32</v>
       </c>
       <c r="C165" s="32" t="s">
-        <v>423</v>
+        <v>412</v>
       </c>
       <c r="D165" s="30"/>
       <c r="E165" s="30" t="s">
         <v>19</v>
       </c>
       <c r="F165" s="30" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="G165" s="30" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H165" s="30" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="I165" s="32"/>
     </row>
-    <row r="166" spans="1:9" ht="45">
+    <row r="166" spans="1:9" ht="30">
       <c r="A166" s="30" t="s">
-        <v>188</v>
-      </c>
-      <c r="B166" s="31" t="s">
-        <v>33</v>
+        <v>229</v>
+      </c>
+      <c r="B166" s="24" t="s">
+        <v>32</v>
       </c>
       <c r="C166" s="32" t="s">
-        <v>424</v>
+        <v>413</v>
       </c>
       <c r="D166" s="30"/>
       <c r="E166" s="30" t="s">
         <v>19</v>
       </c>
       <c r="F166" s="30" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="G166" s="30" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H166" s="30" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I166" s="32"/>
     </row>
-    <row r="167" spans="1:9">
+    <row r="167" spans="1:9" ht="75">
       <c r="A167" s="30" t="s">
-        <v>189</v>
-      </c>
-      <c r="B167" s="31" t="s">
-        <v>33</v>
-      </c>
-      <c r="C167" s="32" t="s">
-        <v>425</v>
+        <v>230</v>
+      </c>
+      <c r="B167" s="24" t="s">
+        <v>32</v>
+      </c>
+      <c r="C167" s="20" t="s">
+        <v>505</v>
       </c>
       <c r="D167" s="30"/>
       <c r="E167" s="30" t="s">
         <v>19</v>
       </c>
       <c r="F167" s="30" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="G167" s="30" t="s">
         <v>15</v>
       </c>
       <c r="H167" s="30" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I167" s="32"/>
     </row>
     <row r="168" spans="1:9" ht="45">
       <c r="A168" s="30" t="s">
-        <v>190</v>
-      </c>
-      <c r="B168" s="31" t="s">
-        <v>33</v>
-      </c>
-      <c r="C168" s="32" t="s">
-        <v>426</v>
+        <v>231</v>
+      </c>
+      <c r="B168" s="24" t="s">
+        <v>32</v>
+      </c>
+      <c r="C168" s="20" t="s">
+        <v>506</v>
       </c>
       <c r="D168" s="30"/>
       <c r="E168" s="30" t="s">
         <v>19</v>
       </c>
       <c r="F168" s="30" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="G168" s="30" t="s">
         <v>15</v>
       </c>
       <c r="H168" s="30" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I168" s="32"/>
     </row>
     <row r="169" spans="1:9" ht="45">
-      <c r="A169" s="30" t="s">
-        <v>191</v>
-      </c>
-      <c r="B169" s="31" t="s">
-        <v>33</v>
-      </c>
-      <c r="C169" s="32" t="s">
-        <v>427</v>
-      </c>
-      <c r="D169" s="30"/>
-      <c r="E169" s="30" t="s">
-        <v>19</v>
-      </c>
-      <c r="F169" s="30" t="s">
-        <v>7</v>
-      </c>
-      <c r="G169" s="30" t="s">
-        <v>16</v>
-      </c>
-      <c r="H169" s="30" t="s">
-        <v>18</v>
-      </c>
-      <c r="I169" s="32"/>
-    </row>
-    <row r="170" spans="1:9" ht="30">
-      <c r="A170" s="30" t="s">
-        <v>192</v>
-      </c>
-      <c r="B170" s="31" t="s">
-        <v>33</v>
-      </c>
-      <c r="C170" s="32" t="s">
-        <v>428</v>
-      </c>
-      <c r="D170" s="30"/>
-      <c r="E170" s="30" t="s">
-        <v>19</v>
-      </c>
-      <c r="F170" s="30" t="s">
-        <v>7</v>
-      </c>
-      <c r="G170" s="30" t="s">
-        <v>15</v>
-      </c>
-      <c r="H170" s="30" t="s">
-        <v>18</v>
-      </c>
-      <c r="I170" s="32"/>
+      <c r="A169" s="22" t="s">
+        <v>508</v>
+      </c>
+      <c r="B169" s="24" t="s">
+        <v>32</v>
+      </c>
+      <c r="C169" s="46" t="s">
+        <v>507</v>
+      </c>
+      <c r="D169" s="44"/>
+      <c r="E169" s="44" t="s">
+        <v>19</v>
+      </c>
+      <c r="F169" s="44" t="s">
+        <v>3</v>
+      </c>
+      <c r="G169" s="44" t="s">
+        <v>15</v>
+      </c>
+      <c r="H169" s="44" t="s">
+        <v>20</v>
+      </c>
+      <c r="I169" s="46"/>
+    </row>
+    <row r="170" spans="1:9" ht="45">
+      <c r="A170" s="22" t="s">
+        <v>509</v>
+      </c>
+      <c r="B170" s="24" t="s">
+        <v>32</v>
+      </c>
+      <c r="C170" s="46" t="s">
+        <v>518</v>
+      </c>
+      <c r="D170" s="44"/>
+      <c r="E170" s="44" t="s">
+        <v>19</v>
+      </c>
+      <c r="F170" s="44" t="s">
+        <v>3</v>
+      </c>
+      <c r="G170" s="44" t="s">
+        <v>15</v>
+      </c>
+      <c r="H170" s="44" t="s">
+        <v>20</v>
+      </c>
+      <c r="I170" s="46"/>
     </row>
     <row r="171" spans="1:9" ht="30">
       <c r="A171" s="30" t="s">
-        <v>193</v>
-      </c>
-      <c r="B171" s="31" t="s">
-        <v>33</v>
-      </c>
-      <c r="C171" s="32" t="s">
-        <v>429</v>
+        <v>232</v>
+      </c>
+      <c r="B171" s="24" t="s">
+        <v>32</v>
+      </c>
+      <c r="C171" s="20" t="s">
+        <v>510</v>
       </c>
       <c r="D171" s="30"/>
       <c r="E171" s="30" t="s">
@@ -7361,22 +8214,22 @@
         <v>3</v>
       </c>
       <c r="G171" s="30" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H171" s="30" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="I171" s="32"/>
     </row>
-    <row r="172" spans="1:9" ht="45">
+    <row r="172" spans="1:9">
       <c r="A172" s="30" t="s">
-        <v>194</v>
-      </c>
-      <c r="B172" s="31" t="s">
+        <v>174</v>
+      </c>
+      <c r="B172" s="24" t="s">
         <v>33</v>
       </c>
-      <c r="C172" s="32" t="s">
-        <v>430</v>
+      <c r="C172" s="20" t="s">
+        <v>511</v>
       </c>
       <c r="D172" s="30"/>
       <c r="E172" s="30" t="s">
@@ -7386,47 +8239,47 @@
         <v>3</v>
       </c>
       <c r="G172" s="30" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H172" s="30" t="s">
         <v>18</v>
       </c>
       <c r="I172" s="32"/>
     </row>
-    <row r="173" spans="1:9" ht="30">
+    <row r="173" spans="1:9" ht="90">
       <c r="A173" s="30" t="s">
-        <v>195</v>
-      </c>
-      <c r="B173" s="31" t="s">
+        <v>175</v>
+      </c>
+      <c r="B173" s="24" t="s">
         <v>33</v>
       </c>
       <c r="C173" s="32" t="s">
-        <v>431</v>
+        <v>375</v>
       </c>
       <c r="D173" s="30"/>
       <c r="E173" s="30" t="s">
         <v>19</v>
       </c>
       <c r="F173" s="30" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="G173" s="30" t="s">
         <v>15</v>
       </c>
       <c r="H173" s="30" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="I173" s="32"/>
     </row>
-    <row r="174" spans="1:9" ht="30">
+    <row r="174" spans="1:9" ht="270">
       <c r="A174" s="30" t="s">
-        <v>196</v>
-      </c>
-      <c r="B174" s="31" t="s">
+        <v>176</v>
+      </c>
+      <c r="B174" s="24" t="s">
         <v>33</v>
       </c>
       <c r="C174" s="32" t="s">
-        <v>432</v>
+        <v>376</v>
       </c>
       <c r="D174" s="30"/>
       <c r="E174" s="30" t="s">
@@ -7439,19 +8292,19 @@
         <v>15</v>
       </c>
       <c r="H174" s="30" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="I174" s="32"/>
     </row>
     <row r="175" spans="1:9" ht="30">
       <c r="A175" s="30" t="s">
-        <v>197</v>
-      </c>
-      <c r="B175" s="31" t="s">
+        <v>177</v>
+      </c>
+      <c r="B175" s="24" t="s">
         <v>33</v>
       </c>
       <c r="C175" s="32" t="s">
-        <v>433</v>
+        <v>377</v>
       </c>
       <c r="D175" s="30"/>
       <c r="E175" s="30" t="s">
@@ -7464,19 +8317,19 @@
         <v>15</v>
       </c>
       <c r="H175" s="30" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I175" s="32"/>
     </row>
-    <row r="176" spans="1:9" ht="30">
+    <row r="176" spans="1:9" ht="75">
       <c r="A176" s="30" t="s">
-        <v>198</v>
-      </c>
-      <c r="B176" s="31" t="s">
+        <v>178</v>
+      </c>
+      <c r="B176" s="24" t="s">
         <v>33</v>
       </c>
-      <c r="C176" s="32" t="s">
-        <v>434</v>
+      <c r="C176" s="20" t="s">
+        <v>512</v>
       </c>
       <c r="D176" s="30"/>
       <c r="E176" s="30" t="s">
@@ -7489,19 +8342,19 @@
         <v>15</v>
       </c>
       <c r="H176" s="30" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I176" s="32"/>
     </row>
-    <row r="177" spans="1:9" ht="30">
+    <row r="177" spans="1:9" ht="45">
       <c r="A177" s="30" t="s">
-        <v>199</v>
-      </c>
-      <c r="B177" s="31" t="s">
+        <v>179</v>
+      </c>
+      <c r="B177" s="24" t="s">
         <v>33</v>
       </c>
-      <c r="C177" s="32" t="s">
-        <v>435</v>
+      <c r="C177" s="20" t="s">
+        <v>513</v>
       </c>
       <c r="D177" s="30"/>
       <c r="E177" s="30" t="s">
@@ -7514,69 +8367,69 @@
         <v>15</v>
       </c>
       <c r="H177" s="30" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I177" s="32"/>
     </row>
-    <row r="178" spans="1:9" ht="30">
-      <c r="A178" s="30" t="s">
-        <v>200</v>
-      </c>
-      <c r="B178" s="31" t="s">
+    <row r="178" spans="1:9" ht="45">
+      <c r="A178" s="22" t="s">
+        <v>516</v>
+      </c>
+      <c r="B178" s="24" t="s">
         <v>33</v>
       </c>
-      <c r="C178" s="32" t="s">
-        <v>436</v>
-      </c>
-      <c r="D178" s="30"/>
-      <c r="E178" s="30" t="s">
-        <v>19</v>
-      </c>
-      <c r="F178" s="30" t="s">
-        <v>3</v>
-      </c>
-      <c r="G178" s="30" t="s">
-        <v>15</v>
-      </c>
-      <c r="H178" s="30" t="s">
+      <c r="C178" s="46" t="s">
+        <v>514</v>
+      </c>
+      <c r="D178" s="44"/>
+      <c r="E178" s="44" t="s">
+        <v>19</v>
+      </c>
+      <c r="F178" s="44" t="s">
+        <v>3</v>
+      </c>
+      <c r="G178" s="44" t="s">
+        <v>15</v>
+      </c>
+      <c r="H178" s="44" t="s">
         <v>20</v>
       </c>
-      <c r="I178" s="32"/>
-    </row>
-    <row r="179" spans="1:9" ht="45">
-      <c r="A179" s="30" t="s">
-        <v>201</v>
-      </c>
-      <c r="B179" s="31" t="s">
+      <c r="I178" s="46"/>
+    </row>
+    <row r="179" spans="1:9" ht="60">
+      <c r="A179" s="22" t="s">
+        <v>517</v>
+      </c>
+      <c r="B179" s="24" t="s">
         <v>33</v>
       </c>
-      <c r="C179" s="32" t="s">
-        <v>437</v>
-      </c>
-      <c r="D179" s="30"/>
-      <c r="E179" s="30" t="s">
-        <v>19</v>
-      </c>
-      <c r="F179" s="30" t="s">
-        <v>3</v>
-      </c>
-      <c r="G179" s="30" t="s">
-        <v>15</v>
-      </c>
-      <c r="H179" s="30" t="s">
+      <c r="C179" s="46" t="s">
+        <v>515</v>
+      </c>
+      <c r="D179" s="44"/>
+      <c r="E179" s="44" t="s">
+        <v>19</v>
+      </c>
+      <c r="F179" s="44" t="s">
+        <v>3</v>
+      </c>
+      <c r="G179" s="44" t="s">
+        <v>15</v>
+      </c>
+      <c r="H179" s="44" t="s">
         <v>20</v>
       </c>
-      <c r="I179" s="32"/>
+      <c r="I179" s="46"/>
     </row>
     <row r="180" spans="1:9" ht="30">
       <c r="A180" s="30" t="s">
-        <v>202</v>
-      </c>
-      <c r="B180" s="31" t="s">
+        <v>180</v>
+      </c>
+      <c r="B180" s="24" t="s">
         <v>33</v>
       </c>
-      <c r="C180" s="32" t="s">
-        <v>438</v>
+      <c r="C180" s="20" t="s">
+        <v>378</v>
       </c>
       <c r="D180" s="30"/>
       <c r="E180" s="30" t="s">
@@ -7586,22 +8439,22 @@
         <v>3</v>
       </c>
       <c r="G180" s="30" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H180" s="30" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="I180" s="32"/>
     </row>
-    <row r="181" spans="1:9" ht="30">
+    <row r="181" spans="1:9">
       <c r="A181" s="30" t="s">
-        <v>203</v>
-      </c>
-      <c r="B181" s="31" t="s">
-        <v>33</v>
-      </c>
-      <c r="C181" s="32" t="s">
-        <v>439</v>
+        <v>212</v>
+      </c>
+      <c r="B181" s="24" t="s">
+        <v>267</v>
+      </c>
+      <c r="C181" s="20" t="s">
+        <v>519</v>
       </c>
       <c r="D181" s="30"/>
       <c r="E181" s="30" t="s">
@@ -7618,15 +8471,15 @@
       </c>
       <c r="I181" s="32"/>
     </row>
-    <row r="182" spans="1:9" ht="30">
+    <row r="182" spans="1:9" ht="75">
       <c r="A182" s="30" t="s">
-        <v>204</v>
-      </c>
-      <c r="B182" s="31" t="s">
-        <v>269</v>
+        <v>213</v>
+      </c>
+      <c r="B182" s="24" t="s">
+        <v>267</v>
       </c>
       <c r="C182" s="32" t="s">
-        <v>440</v>
+        <v>404</v>
       </c>
       <c r="D182" s="30"/>
       <c r="E182" s="30" t="s">
@@ -7636,22 +8489,22 @@
         <v>3</v>
       </c>
       <c r="G182" s="30" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H182" s="30" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="I182" s="32"/>
     </row>
-    <row r="183" spans="1:9" ht="75">
+    <row r="183" spans="1:9" ht="240">
       <c r="A183" s="30" t="s">
-        <v>205</v>
-      </c>
-      <c r="B183" s="31" t="s">
-        <v>269</v>
+        <v>214</v>
+      </c>
+      <c r="B183" s="24" t="s">
+        <v>267</v>
       </c>
       <c r="C183" s="32" t="s">
-        <v>441</v>
+        <v>405</v>
       </c>
       <c r="D183" s="30"/>
       <c r="E183" s="30" t="s">
@@ -7668,15 +8521,15 @@
       </c>
       <c r="I183" s="32"/>
     </row>
-    <row r="184" spans="1:9" ht="270">
+    <row r="184" spans="1:9" ht="30">
       <c r="A184" s="30" t="s">
-        <v>206</v>
-      </c>
-      <c r="B184" s="31" t="s">
-        <v>269</v>
-      </c>
-      <c r="C184" s="32" t="s">
-        <v>442</v>
+        <v>215</v>
+      </c>
+      <c r="B184" s="24" t="s">
+        <v>267</v>
+      </c>
+      <c r="C184" s="20" t="s">
+        <v>406</v>
       </c>
       <c r="D184" s="30"/>
       <c r="E184" s="30" t="s">
@@ -7689,19 +8542,19 @@
         <v>15</v>
       </c>
       <c r="H184" s="30" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="I184" s="32"/>
     </row>
-    <row r="185" spans="1:9" ht="30">
+    <row r="185" spans="1:9" ht="75">
       <c r="A185" s="30" t="s">
-        <v>207</v>
-      </c>
-      <c r="B185" s="31" t="s">
-        <v>269</v>
-      </c>
-      <c r="C185" s="32" t="s">
-        <v>443</v>
+        <v>216</v>
+      </c>
+      <c r="B185" s="24" t="s">
+        <v>267</v>
+      </c>
+      <c r="C185" s="20" t="s">
+        <v>520</v>
       </c>
       <c r="D185" s="30"/>
       <c r="E185" s="30" t="s">
@@ -7711,97 +8564,97 @@
         <v>3</v>
       </c>
       <c r="G185" s="30" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H185" s="30" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I185" s="32"/>
     </row>
-    <row r="186" spans="1:9" ht="30">
+    <row r="186" spans="1:9" ht="45">
       <c r="A186" s="30" t="s">
-        <v>208</v>
-      </c>
-      <c r="B186" s="31" t="s">
-        <v>269</v>
-      </c>
-      <c r="C186" s="32" t="s">
-        <v>444</v>
+        <v>217</v>
+      </c>
+      <c r="B186" s="24" t="s">
+        <v>267</v>
+      </c>
+      <c r="C186" s="20" t="s">
+        <v>521</v>
       </c>
       <c r="D186" s="30"/>
       <c r="E186" s="30" t="s">
         <v>19</v>
       </c>
       <c r="F186" s="30" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="G186" s="30" t="s">
         <v>15</v>
       </c>
       <c r="H186" s="30" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I186" s="32"/>
     </row>
-    <row r="187" spans="1:9" ht="30">
-      <c r="A187" s="30" t="s">
-        <v>209</v>
-      </c>
-      <c r="B187" s="31" t="s">
-        <v>269</v>
-      </c>
-      <c r="C187" s="32" t="s">
-        <v>445</v>
-      </c>
-      <c r="D187" s="30"/>
+    <row r="187" spans="1:9" ht="45">
+      <c r="A187" s="22" t="s">
+        <v>525</v>
+      </c>
+      <c r="B187" s="24" t="s">
+        <v>267</v>
+      </c>
+      <c r="C187" s="46" t="s">
+        <v>523</v>
+      </c>
+      <c r="D187" s="44"/>
       <c r="E187" s="30" t="s">
         <v>19</v>
       </c>
       <c r="F187" s="30" t="s">
-        <v>7</v>
-      </c>
-      <c r="G187" s="30" t="s">
-        <v>15</v>
-      </c>
-      <c r="H187" s="30" t="s">
-        <v>18</v>
-      </c>
-      <c r="I187" s="32"/>
-    </row>
-    <row r="188" spans="1:9" ht="30">
-      <c r="A188" s="30" t="s">
-        <v>210</v>
-      </c>
-      <c r="B188" s="31" t="s">
-        <v>269</v>
-      </c>
-      <c r="C188" s="32" t="s">
-        <v>446</v>
-      </c>
-      <c r="D188" s="30"/>
+        <v>3</v>
+      </c>
+      <c r="G187" s="44" t="s">
+        <v>15</v>
+      </c>
+      <c r="H187" s="44" t="s">
+        <v>20</v>
+      </c>
+      <c r="I187" s="46"/>
+    </row>
+    <row r="188" spans="1:9" ht="60">
+      <c r="A188" s="22" t="s">
+        <v>526</v>
+      </c>
+      <c r="B188" s="24" t="s">
+        <v>267</v>
+      </c>
+      <c r="C188" s="46" t="s">
+        <v>524</v>
+      </c>
+      <c r="D188" s="44"/>
       <c r="E188" s="30" t="s">
         <v>19</v>
       </c>
       <c r="F188" s="30" t="s">
         <v>3</v>
       </c>
-      <c r="G188" s="30" t="s">
-        <v>15</v>
-      </c>
-      <c r="H188" s="30" t="s">
+      <c r="G188" s="44" t="s">
+        <v>15</v>
+      </c>
+      <c r="H188" s="44" t="s">
         <v>20</v>
       </c>
-      <c r="I188" s="32"/>
-    </row>
-    <row r="189" spans="1:9" ht="45">
+      <c r="I188" s="46"/>
+    </row>
+    <row r="189" spans="1:9" ht="30">
       <c r="A189" s="30" t="s">
-        <v>211</v>
-      </c>
-      <c r="B189" s="31" t="s">
-        <v>269</v>
-      </c>
-      <c r="C189" s="32" t="s">
-        <v>447</v>
+        <v>218</v>
+      </c>
+      <c r="B189" s="24" t="s">
+        <v>267</v>
+      </c>
+      <c r="C189" s="20" t="s">
+        <v>522</v>
       </c>
       <c r="D189" s="30"/>
       <c r="E189" s="30" t="s">
@@ -7811,22 +8664,22 @@
         <v>3</v>
       </c>
       <c r="G189" s="30" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H189" s="30" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="I189" s="32"/>
     </row>
-    <row r="190" spans="1:9" ht="45">
+    <row r="190" spans="1:9" ht="30">
       <c r="A190" s="30" t="s">
-        <v>212</v>
-      </c>
-      <c r="B190" s="31" t="s">
-        <v>269</v>
-      </c>
-      <c r="C190" s="32" t="s">
-        <v>448</v>
+        <v>181</v>
+      </c>
+      <c r="B190" s="24" t="s">
+        <v>268</v>
+      </c>
+      <c r="C190" s="20" t="s">
+        <v>527</v>
       </c>
       <c r="D190" s="30"/>
       <c r="E190" s="30" t="s">
@@ -7836,22 +8689,22 @@
         <v>3</v>
       </c>
       <c r="G190" s="30" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H190" s="30" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="I190" s="32"/>
     </row>
-    <row r="191" spans="1:9" ht="30">
+    <row r="191" spans="1:9" ht="75">
       <c r="A191" s="30" t="s">
-        <v>213</v>
-      </c>
-      <c r="B191" s="31" t="s">
-        <v>269</v>
+        <v>182</v>
+      </c>
+      <c r="B191" s="24" t="s">
+        <v>268</v>
       </c>
       <c r="C191" s="32" t="s">
-        <v>449</v>
+        <v>379</v>
       </c>
       <c r="D191" s="30"/>
       <c r="E191" s="30" t="s">
@@ -7861,22 +8714,22 @@
         <v>3</v>
       </c>
       <c r="G191" s="30" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H191" s="30" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="I191" s="32"/>
     </row>
-    <row r="192" spans="1:9">
+    <row r="192" spans="1:9" ht="240">
       <c r="A192" s="30" t="s">
-        <v>214</v>
-      </c>
-      <c r="B192" s="31" t="s">
-        <v>270</v>
+        <v>183</v>
+      </c>
+      <c r="B192" s="24" t="s">
+        <v>268</v>
       </c>
       <c r="C192" s="32" t="s">
-        <v>450</v>
+        <v>380</v>
       </c>
       <c r="D192" s="30"/>
       <c r="E192" s="30" t="s">
@@ -7886,154 +8739,154 @@
         <v>3</v>
       </c>
       <c r="G192" s="30" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H192" s="30" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="I192" s="32"/>
     </row>
-    <row r="193" spans="1:9" ht="75">
+    <row r="193" spans="1:9" ht="30">
       <c r="A193" s="30" t="s">
-        <v>215</v>
-      </c>
-      <c r="B193" s="31" t="s">
-        <v>270</v>
+        <v>184</v>
+      </c>
+      <c r="B193" s="24" t="s">
+        <v>268</v>
       </c>
       <c r="C193" s="32" t="s">
-        <v>451</v>
+        <v>381</v>
       </c>
       <c r="D193" s="30"/>
       <c r="E193" s="30" t="s">
         <v>19</v>
       </c>
       <c r="F193" s="30" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="G193" s="30" t="s">
         <v>15</v>
       </c>
       <c r="H193" s="30" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="I193" s="32"/>
     </row>
-    <row r="194" spans="1:9" ht="240">
+    <row r="194" spans="1:9">
       <c r="A194" s="30" t="s">
-        <v>216</v>
-      </c>
-      <c r="B194" s="31" t="s">
-        <v>270</v>
+        <v>185</v>
+      </c>
+      <c r="B194" s="24" t="s">
+        <v>268</v>
       </c>
       <c r="C194" s="32" t="s">
-        <v>452</v>
+        <v>382</v>
       </c>
       <c r="D194" s="30"/>
       <c r="E194" s="30" t="s">
         <v>19</v>
       </c>
       <c r="F194" s="30" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="G194" s="30" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H194" s="30" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="I194" s="32"/>
     </row>
-    <row r="195" spans="1:9" ht="30">
+    <row r="195" spans="1:9" ht="45">
       <c r="A195" s="30" t="s">
-        <v>217</v>
-      </c>
-      <c r="B195" s="31" t="s">
-        <v>270</v>
+        <v>186</v>
+      </c>
+      <c r="B195" s="24" t="s">
+        <v>268</v>
       </c>
       <c r="C195" s="32" t="s">
-        <v>453</v>
+        <v>383</v>
       </c>
       <c r="D195" s="30"/>
       <c r="E195" s="30" t="s">
         <v>19</v>
       </c>
       <c r="F195" s="30" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="G195" s="30" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H195" s="30" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="I195" s="32"/>
     </row>
-    <row r="196" spans="1:9" ht="45">
+    <row r="196" spans="1:9">
       <c r="A196" s="30" t="s">
-        <v>218</v>
-      </c>
-      <c r="B196" s="31" t="s">
-        <v>270</v>
+        <v>187</v>
+      </c>
+      <c r="B196" s="24" t="s">
+        <v>268</v>
       </c>
       <c r="C196" s="32" t="s">
-        <v>454</v>
+        <v>384</v>
       </c>
       <c r="D196" s="30"/>
       <c r="E196" s="30" t="s">
         <v>19</v>
       </c>
       <c r="F196" s="30" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="G196" s="30" t="s">
         <v>15</v>
       </c>
       <c r="H196" s="30" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="I196" s="32"/>
     </row>
     <row r="197" spans="1:9" ht="45">
       <c r="A197" s="30" t="s">
-        <v>219</v>
-      </c>
-      <c r="B197" s="31" t="s">
-        <v>270</v>
+        <v>188</v>
+      </c>
+      <c r="B197" s="24" t="s">
+        <v>268</v>
       </c>
       <c r="C197" s="32" t="s">
-        <v>455</v>
+        <v>385</v>
       </c>
       <c r="D197" s="30"/>
       <c r="E197" s="30" t="s">
         <v>19</v>
       </c>
       <c r="F197" s="30" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="G197" s="30" t="s">
         <v>15</v>
       </c>
       <c r="H197" s="30" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="I197" s="32"/>
     </row>
-    <row r="198" spans="1:9" ht="30">
+    <row r="198" spans="1:9" ht="45">
       <c r="A198" s="30" t="s">
-        <v>220</v>
-      </c>
-      <c r="B198" s="31" t="s">
-        <v>270</v>
+        <v>189</v>
+      </c>
+      <c r="B198" s="24" t="s">
+        <v>268</v>
       </c>
       <c r="C198" s="32" t="s">
-        <v>456</v>
+        <v>386</v>
       </c>
       <c r="D198" s="30"/>
       <c r="E198" s="30" t="s">
         <v>19</v>
       </c>
       <c r="F198" s="30" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="G198" s="30" t="s">
         <v>16</v>
@@ -8045,38 +8898,38 @@
     </row>
     <row r="199" spans="1:9" ht="30">
       <c r="A199" s="30" t="s">
-        <v>221</v>
-      </c>
-      <c r="B199" s="31" t="s">
-        <v>271</v>
+        <v>190</v>
+      </c>
+      <c r="B199" s="24" t="s">
+        <v>268</v>
       </c>
       <c r="C199" s="32" t="s">
-        <v>457</v>
+        <v>387</v>
       </c>
       <c r="D199" s="30"/>
       <c r="E199" s="30" t="s">
         <v>19</v>
       </c>
       <c r="F199" s="30" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="G199" s="30" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H199" s="30" t="s">
         <v>18</v>
       </c>
       <c r="I199" s="32"/>
     </row>
-    <row r="200" spans="1:9" ht="75">
+    <row r="200" spans="1:9" ht="30">
       <c r="A200" s="30" t="s">
-        <v>222</v>
-      </c>
-      <c r="B200" s="31" t="s">
-        <v>271</v>
+        <v>191</v>
+      </c>
+      <c r="B200" s="24" t="s">
+        <v>268</v>
       </c>
       <c r="C200" s="32" t="s">
-        <v>458</v>
+        <v>388</v>
       </c>
       <c r="D200" s="30"/>
       <c r="E200" s="30" t="s">
@@ -8089,19 +8942,19 @@
         <v>15</v>
       </c>
       <c r="H200" s="30" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="I200" s="32"/>
     </row>
-    <row r="201" spans="1:9" ht="240">
+    <row r="201" spans="1:9" ht="45">
       <c r="A201" s="30" t="s">
-        <v>223</v>
-      </c>
-      <c r="B201" s="31" t="s">
-        <v>271</v>
+        <v>192</v>
+      </c>
+      <c r="B201" s="24" t="s">
+        <v>268</v>
       </c>
       <c r="C201" s="32" t="s">
-        <v>459</v>
+        <v>389</v>
       </c>
       <c r="D201" s="30"/>
       <c r="E201" s="30" t="s">
@@ -8114,44 +8967,44 @@
         <v>15</v>
       </c>
       <c r="H201" s="30" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="I201" s="32"/>
     </row>
     <row r="202" spans="1:9" ht="30">
       <c r="A202" s="30" t="s">
-        <v>224</v>
-      </c>
-      <c r="B202" s="31" t="s">
-        <v>271</v>
+        <v>193</v>
+      </c>
+      <c r="B202" s="24" t="s">
+        <v>268</v>
       </c>
       <c r="C202" s="32" t="s">
-        <v>460</v>
+        <v>390</v>
       </c>
       <c r="D202" s="30"/>
       <c r="E202" s="30" t="s">
         <v>19</v>
       </c>
       <c r="F202" s="30" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="G202" s="30" t="s">
         <v>15</v>
       </c>
       <c r="H202" s="30" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="I202" s="32"/>
     </row>
-    <row r="203" spans="1:9" ht="45">
+    <row r="203" spans="1:9" ht="30">
       <c r="A203" s="30" t="s">
-        <v>225</v>
-      </c>
-      <c r="B203" s="31" t="s">
-        <v>271</v>
+        <v>194</v>
+      </c>
+      <c r="B203" s="24" t="s">
+        <v>268</v>
       </c>
       <c r="C203" s="32" t="s">
-        <v>461</v>
+        <v>391</v>
       </c>
       <c r="D203" s="30"/>
       <c r="E203" s="30" t="s">
@@ -8164,19 +9017,19 @@
         <v>15</v>
       </c>
       <c r="H203" s="30" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="I203" s="32"/>
     </row>
-    <row r="204" spans="1:9" ht="45">
+    <row r="204" spans="1:9" ht="30">
       <c r="A204" s="30" t="s">
-        <v>226</v>
-      </c>
-      <c r="B204" s="31" t="s">
-        <v>271</v>
+        <v>195</v>
+      </c>
+      <c r="B204" s="24" t="s">
+        <v>268</v>
       </c>
       <c r="C204" s="32" t="s">
-        <v>462</v>
+        <v>392</v>
       </c>
       <c r="D204" s="30"/>
       <c r="E204" s="30" t="s">
@@ -8189,19 +9042,19 @@
         <v>15</v>
       </c>
       <c r="H204" s="30" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="I204" s="32"/>
     </row>
     <row r="205" spans="1:9" ht="30">
       <c r="A205" s="30" t="s">
-        <v>227</v>
-      </c>
-      <c r="B205" s="31" t="s">
-        <v>271</v>
+        <v>196</v>
+      </c>
+      <c r="B205" s="24" t="s">
+        <v>268</v>
       </c>
       <c r="C205" s="32" t="s">
-        <v>463</v>
+        <v>393</v>
       </c>
       <c r="D205" s="30"/>
       <c r="E205" s="30" t="s">
@@ -8211,7 +9064,7 @@
         <v>3</v>
       </c>
       <c r="G205" s="30" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H205" s="30" t="s">
         <v>18</v>
@@ -8220,13 +9073,13 @@
     </row>
     <row r="206" spans="1:9" ht="30">
       <c r="A206" s="30" t="s">
-        <v>228</v>
-      </c>
-      <c r="B206" s="31" t="s">
-        <v>272</v>
+        <v>197</v>
+      </c>
+      <c r="B206" s="24" t="s">
+        <v>268</v>
       </c>
       <c r="C206" s="32" t="s">
-        <v>464</v>
+        <v>394</v>
       </c>
       <c r="D206" s="30"/>
       <c r="E206" s="30" t="s">
@@ -8236,22 +9089,22 @@
         <v>3</v>
       </c>
       <c r="G206" s="30" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H206" s="30" t="s">
         <v>18</v>
       </c>
       <c r="I206" s="32"/>
     </row>
-    <row r="207" spans="1:9" ht="75">
+    <row r="207" spans="1:9" ht="30">
       <c r="A207" s="30" t="s">
-        <v>229</v>
-      </c>
-      <c r="B207" s="31" t="s">
-        <v>272</v>
+        <v>198</v>
+      </c>
+      <c r="B207" s="24" t="s">
+        <v>268</v>
       </c>
       <c r="C207" s="32" t="s">
-        <v>465</v>
+        <v>395</v>
       </c>
       <c r="D207" s="30"/>
       <c r="E207" s="30" t="s">
@@ -8264,19 +9117,19 @@
         <v>15</v>
       </c>
       <c r="H207" s="30" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="I207" s="32"/>
     </row>
-    <row r="208" spans="1:9" ht="240">
+    <row r="208" spans="1:9" ht="75">
       <c r="A208" s="30" t="s">
-        <v>230</v>
-      </c>
-      <c r="B208" s="31" t="s">
-        <v>272</v>
-      </c>
-      <c r="C208" s="32" t="s">
-        <v>466</v>
+        <v>199</v>
+      </c>
+      <c r="B208" s="24" t="s">
+        <v>268</v>
+      </c>
+      <c r="C208" s="20" t="s">
+        <v>528</v>
       </c>
       <c r="D208" s="30"/>
       <c r="E208" s="30" t="s">
@@ -8289,19 +9142,19 @@
         <v>15</v>
       </c>
       <c r="H208" s="30" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="I208" s="32"/>
     </row>
-    <row r="209" spans="1:9" ht="30">
+    <row r="209" spans="1:9" ht="45">
       <c r="A209" s="30" t="s">
-        <v>231</v>
-      </c>
-      <c r="B209" s="31" t="s">
-        <v>272</v>
-      </c>
-      <c r="C209" s="32" t="s">
-        <v>467</v>
+        <v>200</v>
+      </c>
+      <c r="B209" s="24" t="s">
+        <v>268</v>
+      </c>
+      <c r="C209" s="20" t="s">
+        <v>529</v>
       </c>
       <c r="D209" s="30"/>
       <c r="E209" s="30" t="s">
@@ -8319,64 +9172,64 @@
       <c r="I209" s="32"/>
     </row>
     <row r="210" spans="1:9" ht="45">
-      <c r="A210" s="30" t="s">
-        <v>232</v>
-      </c>
-      <c r="B210" s="31" t="s">
-        <v>272</v>
-      </c>
-      <c r="C210" s="32" t="s">
-        <v>468</v>
-      </c>
-      <c r="D210" s="30"/>
+      <c r="A210" s="22" t="s">
+        <v>532</v>
+      </c>
+      <c r="B210" s="24" t="s">
+        <v>268</v>
+      </c>
+      <c r="C210" s="46" t="s">
+        <v>530</v>
+      </c>
+      <c r="D210" s="44"/>
       <c r="E210" s="30" t="s">
         <v>19</v>
       </c>
       <c r="F210" s="30" t="s">
         <v>3</v>
       </c>
-      <c r="G210" s="30" t="s">
-        <v>15</v>
-      </c>
-      <c r="H210" s="30" t="s">
+      <c r="G210" s="44" t="s">
+        <v>15</v>
+      </c>
+      <c r="H210" s="44" t="s">
         <v>20</v>
       </c>
-      <c r="I210" s="32"/>
+      <c r="I210" s="46"/>
     </row>
     <row r="211" spans="1:9" ht="45">
-      <c r="A211" s="30" t="s">
-        <v>233</v>
-      </c>
-      <c r="B211" s="31" t="s">
-        <v>272</v>
-      </c>
-      <c r="C211" s="32" t="s">
-        <v>469</v>
-      </c>
-      <c r="D211" s="30"/>
+      <c r="A211" s="22" t="s">
+        <v>533</v>
+      </c>
+      <c r="B211" s="24" t="s">
+        <v>268</v>
+      </c>
+      <c r="C211" s="46" t="s">
+        <v>531</v>
+      </c>
+      <c r="D211" s="44"/>
       <c r="E211" s="30" t="s">
         <v>19</v>
       </c>
       <c r="F211" s="30" t="s">
         <v>3</v>
       </c>
-      <c r="G211" s="30" t="s">
-        <v>15</v>
-      </c>
-      <c r="H211" s="30" t="s">
+      <c r="G211" s="44" t="s">
+        <v>15</v>
+      </c>
+      <c r="H211" s="44" t="s">
         <v>20</v>
       </c>
-      <c r="I211" s="32"/>
+      <c r="I211" s="46"/>
     </row>
     <row r="212" spans="1:9" ht="30">
       <c r="A212" s="30" t="s">
-        <v>234</v>
-      </c>
-      <c r="B212" s="31" t="s">
-        <v>272</v>
-      </c>
-      <c r="C212" s="32" t="s">
-        <v>470</v>
+        <v>201</v>
+      </c>
+      <c r="B212" s="24" t="s">
+        <v>268</v>
+      </c>
+      <c r="C212" s="20" t="s">
+        <v>396</v>
       </c>
       <c r="D212" s="30"/>
       <c r="E212" s="30" t="s">
@@ -8395,13 +9248,13 @@
     </row>
     <row r="213" spans="1:9" ht="30">
       <c r="A213" s="30" t="s">
-        <v>235</v>
+        <v>219</v>
       </c>
       <c r="B213" s="31" t="s">
-        <v>273</v>
-      </c>
-      <c r="C213" s="32" t="s">
-        <v>471</v>
+        <v>269</v>
+      </c>
+      <c r="C213" s="20" t="s">
+        <v>534</v>
       </c>
       <c r="D213" s="30"/>
       <c r="E213" s="30" t="s">
@@ -8420,13 +9273,13 @@
     </row>
     <row r="214" spans="1:9" ht="75">
       <c r="A214" s="30" t="s">
-        <v>236</v>
+        <v>220</v>
       </c>
       <c r="B214" s="31" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
       <c r="C214" s="32" t="s">
-        <v>472</v>
+        <v>407</v>
       </c>
       <c r="D214" s="30"/>
       <c r="E214" s="30" t="s">
@@ -8445,13 +9298,13 @@
     </row>
     <row r="215" spans="1:9" ht="240">
       <c r="A215" s="30" t="s">
-        <v>237</v>
+        <v>221</v>
       </c>
       <c r="B215" s="31" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
       <c r="C215" s="32" t="s">
-        <v>473</v>
+        <v>408</v>
       </c>
       <c r="D215" s="30"/>
       <c r="E215" s="30" t="s">
@@ -8470,13 +9323,13 @@
     </row>
     <row r="216" spans="1:9" ht="30">
       <c r="A216" s="30" t="s">
-        <v>238</v>
+        <v>222</v>
       </c>
       <c r="B216" s="31" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
       <c r="C216" s="32" t="s">
-        <v>474</v>
+        <v>409</v>
       </c>
       <c r="D216" s="30"/>
       <c r="E216" s="30" t="s">
@@ -8493,15 +9346,15 @@
       </c>
       <c r="I216" s="32"/>
     </row>
-    <row r="217" spans="1:9" ht="45">
+    <row r="217" spans="1:9" ht="75">
       <c r="A217" s="30" t="s">
-        <v>239</v>
+        <v>223</v>
       </c>
       <c r="B217" s="31" t="s">
-        <v>273</v>
-      </c>
-      <c r="C217" s="32" t="s">
-        <v>475</v>
+        <v>269</v>
+      </c>
+      <c r="C217" s="20" t="s">
+        <v>535</v>
       </c>
       <c r="D217" s="30"/>
       <c r="E217" s="30" t="s">
@@ -8520,13 +9373,13 @@
     </row>
     <row r="218" spans="1:9" ht="45">
       <c r="A218" s="30" t="s">
-        <v>240</v>
+        <v>224</v>
       </c>
       <c r="B218" s="31" t="s">
-        <v>273</v>
-      </c>
-      <c r="C218" s="32" t="s">
-        <v>476</v>
+        <v>269</v>
+      </c>
+      <c r="C218" s="20" t="s">
+        <v>536</v>
       </c>
       <c r="D218" s="30"/>
       <c r="E218" s="30" t="s">
@@ -8543,98 +9396,94 @@
       </c>
       <c r="I218" s="32"/>
     </row>
-    <row r="219" spans="1:9" ht="30">
-      <c r="A219" s="30" t="s">
-        <v>241</v>
+    <row r="219" spans="1:9" ht="45">
+      <c r="A219" s="22" t="s">
+        <v>539</v>
       </c>
       <c r="B219" s="31" t="s">
-        <v>273</v>
-      </c>
-      <c r="C219" s="32" t="s">
-        <v>477</v>
-      </c>
-      <c r="D219" s="30"/>
+        <v>269</v>
+      </c>
+      <c r="C219" s="46" t="s">
+        <v>537</v>
+      </c>
+      <c r="D219" s="44"/>
       <c r="E219" s="30" t="s">
         <v>19</v>
       </c>
       <c r="F219" s="30" t="s">
         <v>3</v>
       </c>
-      <c r="G219" s="30" t="s">
+      <c r="G219" s="44" t="s">
+        <v>15</v>
+      </c>
+      <c r="H219" s="44" t="s">
+        <v>20</v>
+      </c>
+      <c r="I219" s="46"/>
+    </row>
+    <row r="220" spans="1:9" ht="45">
+      <c r="A220" s="22" t="s">
+        <v>540</v>
+      </c>
+      <c r="B220" s="31" t="s">
+        <v>269</v>
+      </c>
+      <c r="C220" s="46" t="s">
+        <v>538</v>
+      </c>
+      <c r="D220" s="44"/>
+      <c r="E220" s="30" t="s">
+        <v>19</v>
+      </c>
+      <c r="F220" s="30" t="s">
+        <v>3</v>
+      </c>
+      <c r="G220" s="44" t="s">
+        <v>15</v>
+      </c>
+      <c r="H220" s="44" t="s">
+        <v>20</v>
+      </c>
+      <c r="I220" s="46"/>
+    </row>
+    <row r="221" spans="1:9" ht="30">
+      <c r="A221" s="30" t="s">
+        <v>225</v>
+      </c>
+      <c r="B221" s="31" t="s">
+        <v>269</v>
+      </c>
+      <c r="C221" s="20" t="s">
+        <v>410</v>
+      </c>
+      <c r="D221" s="30"/>
+      <c r="E221" s="30" t="s">
+        <v>19</v>
+      </c>
+      <c r="F221" s="30" t="s">
+        <v>3</v>
+      </c>
+      <c r="G221" s="30" t="s">
         <v>16</v>
       </c>
-      <c r="H219" s="30" t="s">
+      <c r="H221" s="30" t="s">
         <v>18</v>
       </c>
-      <c r="I219" s="32"/>
-    </row>
-    <row r="220" spans="1:9" ht="45">
-      <c r="A220" s="30" t="s">
-        <v>242</v>
-      </c>
-      <c r="B220" s="31" t="s">
-        <v>274</v>
-      </c>
-      <c r="C220" s="32" t="s">
-        <v>478</v>
-      </c>
-      <c r="D220" s="30"/>
-      <c r="E220" s="30" t="s">
-        <v>22</v>
-      </c>
-      <c r="F220" s="30" t="s">
-        <v>3</v>
-      </c>
-      <c r="G220" s="30" t="s">
-        <v>16</v>
-      </c>
-      <c r="H220" s="30" t="s">
-        <v>18</v>
-      </c>
-      <c r="I220" s="32"/>
-    </row>
-    <row r="221" spans="1:9" ht="45">
-      <c r="A221" s="30" t="s">
-        <v>243</v>
-      </c>
-      <c r="B221" s="31" t="s">
-        <v>274</v>
-      </c>
-      <c r="C221" s="32" t="s">
-        <v>479</v>
-      </c>
-      <c r="D221" s="30" t="s">
-        <v>496</v>
-      </c>
-      <c r="E221" s="30" t="s">
-        <v>22</v>
-      </c>
-      <c r="F221" s="30" t="s">
-        <v>3</v>
-      </c>
-      <c r="G221" s="30" t="s">
-        <v>15</v>
-      </c>
-      <c r="H221" s="30" t="s">
-        <v>21</v>
-      </c>
-      <c r="I221" s="32" t="s">
-        <v>498</v>
-      </c>
+      <c r="I221" s="32"/>
     </row>
     <row r="222" spans="1:9" ht="30">
       <c r="A222" s="30" t="s">
-        <v>244</v>
-      </c>
-      <c r="B222" s="31" t="s">
-        <v>274</v>
+        <v>233</v>
+      </c>
+      <c r="B222" s="24" t="s">
+        <v>270</v>
       </c>
       <c r="C222" s="32" t="s">
-        <v>480</v>
+        <v>414</v>
       </c>
       <c r="D222" s="30"/>
       <c r="E222" s="30" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="F222" s="30" t="s">
         <v>3</v>
@@ -8647,15 +9496,15 @@
       </c>
       <c r="I222" s="32"/>
     </row>
-    <row r="223" spans="1:9" ht="180">
+    <row r="223" spans="1:9" ht="75">
       <c r="A223" s="30" t="s">
-        <v>245</v>
-      </c>
-      <c r="B223" s="31" t="s">
-        <v>275</v>
+        <v>234</v>
+      </c>
+      <c r="B223" s="24" t="s">
+        <v>270</v>
       </c>
       <c r="C223" s="32" t="s">
-        <v>481</v>
+        <v>415</v>
       </c>
       <c r="D223" s="30"/>
       <c r="E223" s="30" t="s">
@@ -8672,15 +9521,15 @@
       </c>
       <c r="I223" s="32"/>
     </row>
-    <row r="224" spans="1:9" ht="30">
+    <row r="224" spans="1:9" ht="240">
       <c r="A224" s="30" t="s">
-        <v>246</v>
-      </c>
-      <c r="B224" s="31" t="s">
-        <v>275</v>
+        <v>235</v>
+      </c>
+      <c r="B224" s="24" t="s">
+        <v>270</v>
       </c>
       <c r="C224" s="32" t="s">
-        <v>482</v>
+        <v>416</v>
       </c>
       <c r="D224" s="30"/>
       <c r="E224" s="30" t="s">
@@ -8693,19 +9542,19 @@
         <v>15</v>
       </c>
       <c r="H224" s="30" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="I224" s="32"/>
     </row>
-    <row r="225" spans="1:9" ht="60">
+    <row r="225" spans="1:9" ht="30">
       <c r="A225" s="30" t="s">
-        <v>247</v>
-      </c>
-      <c r="B225" s="31" t="s">
-        <v>276</v>
+        <v>236</v>
+      </c>
+      <c r="B225" s="24" t="s">
+        <v>270</v>
       </c>
       <c r="C225" s="32" t="s">
-        <v>483</v>
+        <v>417</v>
       </c>
       <c r="D225" s="30"/>
       <c r="E225" s="30" t="s">
@@ -8718,21 +9567,19 @@
         <v>15</v>
       </c>
       <c r="H225" s="30" t="s">
-        <v>17</v>
-      </c>
-      <c r="I225" s="32" t="s">
-        <v>499</v>
-      </c>
-    </row>
-    <row r="226" spans="1:9" ht="105">
+        <v>20</v>
+      </c>
+      <c r="I225" s="32"/>
+    </row>
+    <row r="226" spans="1:9" ht="45">
       <c r="A226" s="30" t="s">
-        <v>248</v>
-      </c>
-      <c r="B226" s="31" t="s">
-        <v>276</v>
+        <v>237</v>
+      </c>
+      <c r="B226" s="24" t="s">
+        <v>270</v>
       </c>
       <c r="C226" s="32" t="s">
-        <v>484</v>
+        <v>418</v>
       </c>
       <c r="D226" s="30"/>
       <c r="E226" s="30" t="s">
@@ -8745,19 +9592,19 @@
         <v>15</v>
       </c>
       <c r="H226" s="30" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="I226" s="32"/>
     </row>
-    <row r="227" spans="1:9" ht="180">
+    <row r="227" spans="1:9" ht="45">
       <c r="A227" s="30" t="s">
-        <v>249</v>
-      </c>
-      <c r="B227" s="31" t="s">
-        <v>277</v>
+        <v>238</v>
+      </c>
+      <c r="B227" s="24" t="s">
+        <v>270</v>
       </c>
       <c r="C227" s="32" t="s">
-        <v>485</v>
+        <v>419</v>
       </c>
       <c r="D227" s="30"/>
       <c r="E227" s="30" t="s">
@@ -8770,19 +9617,19 @@
         <v>15</v>
       </c>
       <c r="H227" s="30" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="I227" s="32"/>
     </row>
-    <row r="228" spans="1:9" ht="409.5">
+    <row r="228" spans="1:9" ht="30">
       <c r="A228" s="30" t="s">
-        <v>250</v>
-      </c>
-      <c r="B228" s="31" t="s">
-        <v>278</v>
+        <v>239</v>
+      </c>
+      <c r="B228" s="24" t="s">
+        <v>270</v>
       </c>
       <c r="C228" s="32" t="s">
-        <v>486</v>
+        <v>420</v>
       </c>
       <c r="D228" s="30"/>
       <c r="E228" s="30" t="s">
@@ -8792,22 +9639,22 @@
         <v>3</v>
       </c>
       <c r="G228" s="30" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H228" s="30" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="I228" s="32"/>
     </row>
-    <row r="229" spans="1:9" ht="135">
+    <row r="229" spans="1:9" ht="30">
       <c r="A229" s="30" t="s">
-        <v>251</v>
-      </c>
-      <c r="B229" s="31" t="s">
-        <v>279</v>
-      </c>
-      <c r="C229" s="32" t="s">
-        <v>487</v>
+        <v>202</v>
+      </c>
+      <c r="B229" s="24" t="s">
+        <v>271</v>
+      </c>
+      <c r="C229" s="20" t="s">
+        <v>541</v>
       </c>
       <c r="D229" s="30"/>
       <c r="E229" s="30" t="s">
@@ -8817,28 +9664,722 @@
         <v>3</v>
       </c>
       <c r="G229" s="30" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H229" s="30" t="s">
+        <v>18</v>
+      </c>
+      <c r="I229" s="32"/>
+    </row>
+    <row r="230" spans="1:9" ht="75">
+      <c r="A230" s="30" t="s">
+        <v>203</v>
+      </c>
+      <c r="B230" s="24" t="s">
+        <v>271</v>
+      </c>
+      <c r="C230" s="32" t="s">
+        <v>397</v>
+      </c>
+      <c r="D230" s="30"/>
+      <c r="E230" s="30" t="s">
+        <v>19</v>
+      </c>
+      <c r="F230" s="30" t="s">
+        <v>3</v>
+      </c>
+      <c r="G230" s="30" t="s">
+        <v>15</v>
+      </c>
+      <c r="H230" s="30" t="s">
         <v>21</v>
       </c>
-      <c r="I229" s="32"/>
-    </row>
-    <row r="230" spans="1:9">
-      <c r="A230" s="3"/>
-      <c r="B230" s="10"/>
-    </row>
-    <row r="231" spans="1:9">
-      <c r="A231" s="3"/>
-      <c r="B231" s="10"/>
+      <c r="I230" s="32"/>
+    </row>
+    <row r="231" spans="1:9" ht="270">
+      <c r="A231" s="30" t="s">
+        <v>204</v>
+      </c>
+      <c r="B231" s="24" t="s">
+        <v>271</v>
+      </c>
+      <c r="C231" s="32" t="s">
+        <v>398</v>
+      </c>
+      <c r="D231" s="30"/>
+      <c r="E231" s="30" t="s">
+        <v>19</v>
+      </c>
+      <c r="F231" s="30" t="s">
+        <v>3</v>
+      </c>
+      <c r="G231" s="30" t="s">
+        <v>15</v>
+      </c>
+      <c r="H231" s="30" t="s">
+        <v>21</v>
+      </c>
+      <c r="I231" s="32"/>
+    </row>
+    <row r="232" spans="1:9" ht="30">
+      <c r="A232" s="30" t="s">
+        <v>205</v>
+      </c>
+      <c r="B232" s="24" t="s">
+        <v>271</v>
+      </c>
+      <c r="C232" s="32" t="s">
+        <v>399</v>
+      </c>
+      <c r="D232" s="30"/>
+      <c r="E232" s="30" t="s">
+        <v>19</v>
+      </c>
+      <c r="F232" s="30" t="s">
+        <v>3</v>
+      </c>
+      <c r="G232" s="30" t="s">
+        <v>16</v>
+      </c>
+      <c r="H232" s="30" t="s">
+        <v>18</v>
+      </c>
+      <c r="I232" s="32"/>
+    </row>
+    <row r="233" spans="1:9" ht="30">
+      <c r="A233" s="30" t="s">
+        <v>206</v>
+      </c>
+      <c r="B233" s="24" t="s">
+        <v>271</v>
+      </c>
+      <c r="C233" s="32" t="s">
+        <v>400</v>
+      </c>
+      <c r="D233" s="30"/>
+      <c r="E233" s="30" t="s">
+        <v>19</v>
+      </c>
+      <c r="F233" s="30" t="s">
+        <v>7</v>
+      </c>
+      <c r="G233" s="30" t="s">
+        <v>15</v>
+      </c>
+      <c r="H233" s="30" t="s">
+        <v>18</v>
+      </c>
+      <c r="I233" s="32"/>
+    </row>
+    <row r="234" spans="1:9" ht="30">
+      <c r="A234" s="30" t="s">
+        <v>207</v>
+      </c>
+      <c r="B234" s="24" t="s">
+        <v>271</v>
+      </c>
+      <c r="C234" s="32" t="s">
+        <v>401</v>
+      </c>
+      <c r="D234" s="30"/>
+      <c r="E234" s="30" t="s">
+        <v>19</v>
+      </c>
+      <c r="F234" s="30" t="s">
+        <v>7</v>
+      </c>
+      <c r="G234" s="30" t="s">
+        <v>15</v>
+      </c>
+      <c r="H234" s="30" t="s">
+        <v>18</v>
+      </c>
+      <c r="I234" s="32"/>
+    </row>
+    <row r="235" spans="1:9" ht="30">
+      <c r="A235" s="30" t="s">
+        <v>208</v>
+      </c>
+      <c r="B235" s="24" t="s">
+        <v>271</v>
+      </c>
+      <c r="C235" s="32" t="s">
+        <v>402</v>
+      </c>
+      <c r="D235" s="30"/>
+      <c r="E235" s="30" t="s">
+        <v>19</v>
+      </c>
+      <c r="F235" s="30" t="s">
+        <v>3</v>
+      </c>
+      <c r="G235" s="30" t="s">
+        <v>15</v>
+      </c>
+      <c r="H235" s="30" t="s">
+        <v>20</v>
+      </c>
+      <c r="I235" s="32"/>
+    </row>
+    <row r="236" spans="1:9" ht="75">
+      <c r="A236" s="30" t="s">
+        <v>209</v>
+      </c>
+      <c r="B236" s="24" t="s">
+        <v>271</v>
+      </c>
+      <c r="C236" s="20" t="s">
+        <v>542</v>
+      </c>
+      <c r="D236" s="30"/>
+      <c r="E236" s="30" t="s">
+        <v>19</v>
+      </c>
+      <c r="F236" s="30" t="s">
+        <v>3</v>
+      </c>
+      <c r="G236" s="30" t="s">
+        <v>15</v>
+      </c>
+      <c r="H236" s="30" t="s">
+        <v>20</v>
+      </c>
+      <c r="I236" s="32"/>
+    </row>
+    <row r="237" spans="1:9" ht="60">
+      <c r="A237" s="30" t="s">
+        <v>210</v>
+      </c>
+      <c r="B237" s="24" t="s">
+        <v>271</v>
+      </c>
+      <c r="C237" s="20" t="s">
+        <v>543</v>
+      </c>
+      <c r="D237" s="30"/>
+      <c r="E237" s="30" t="s">
+        <v>19</v>
+      </c>
+      <c r="F237" s="30" t="s">
+        <v>3</v>
+      </c>
+      <c r="G237" s="30" t="s">
+        <v>15</v>
+      </c>
+      <c r="H237" s="30" t="s">
+        <v>20</v>
+      </c>
+      <c r="I237" s="32"/>
+    </row>
+    <row r="238" spans="1:9" ht="45">
+      <c r="A238" s="22" t="s">
+        <v>546</v>
+      </c>
+      <c r="B238" s="24" t="s">
+        <v>271</v>
+      </c>
+      <c r="C238" s="46" t="s">
+        <v>544</v>
+      </c>
+      <c r="D238" s="44"/>
+      <c r="E238" s="30" t="s">
+        <v>19</v>
+      </c>
+      <c r="F238" s="30" t="s">
+        <v>3</v>
+      </c>
+      <c r="G238" s="44" t="s">
+        <v>15</v>
+      </c>
+      <c r="H238" s="44" t="s">
+        <v>20</v>
+      </c>
+      <c r="I238" s="46"/>
+    </row>
+    <row r="239" spans="1:9" ht="60">
+      <c r="A239" s="22" t="s">
+        <v>547</v>
+      </c>
+      <c r="B239" s="24" t="s">
+        <v>271</v>
+      </c>
+      <c r="C239" s="46" t="s">
+        <v>545</v>
+      </c>
+      <c r="D239" s="44"/>
+      <c r="E239" s="30" t="s">
+        <v>19</v>
+      </c>
+      <c r="F239" s="30" t="s">
+        <v>3</v>
+      </c>
+      <c r="G239" s="44" t="s">
+        <v>15</v>
+      </c>
+      <c r="H239" s="44" t="s">
+        <v>20</v>
+      </c>
+      <c r="I239" s="46"/>
+    </row>
+    <row r="240" spans="1:9" ht="30">
+      <c r="A240" s="30" t="s">
+        <v>211</v>
+      </c>
+      <c r="B240" s="24" t="s">
+        <v>271</v>
+      </c>
+      <c r="C240" s="32" t="s">
+        <v>403</v>
+      </c>
+      <c r="D240" s="30"/>
+      <c r="E240" s="30" t="s">
+        <v>19</v>
+      </c>
+      <c r="F240" s="30" t="s">
+        <v>3</v>
+      </c>
+      <c r="G240" s="30" t="s">
+        <v>16</v>
+      </c>
+      <c r="H240" s="30" t="s">
+        <v>18</v>
+      </c>
+      <c r="I240" s="32"/>
+    </row>
+    <row r="241" spans="1:9" ht="45">
+      <c r="A241" s="30" t="s">
+        <v>240</v>
+      </c>
+      <c r="B241" s="31" t="s">
+        <v>272</v>
+      </c>
+      <c r="C241" s="32" t="s">
+        <v>421</v>
+      </c>
+      <c r="D241" s="30"/>
+      <c r="E241" s="30" t="s">
+        <v>22</v>
+      </c>
+      <c r="F241" s="30" t="s">
+        <v>3</v>
+      </c>
+      <c r="G241" s="30" t="s">
+        <v>16</v>
+      </c>
+      <c r="H241" s="30" t="s">
+        <v>18</v>
+      </c>
+      <c r="I241" s="32"/>
+    </row>
+    <row r="242" spans="1:9" ht="45">
+      <c r="A242" s="30" t="s">
+        <v>241</v>
+      </c>
+      <c r="B242" s="31" t="s">
+        <v>272</v>
+      </c>
+      <c r="C242" s="20" t="s">
+        <v>422</v>
+      </c>
+      <c r="D242" s="30" t="s">
+        <v>439</v>
+      </c>
+      <c r="E242" s="30" t="s">
+        <v>22</v>
+      </c>
+      <c r="F242" s="30" t="s">
+        <v>3</v>
+      </c>
+      <c r="G242" s="30" t="s">
+        <v>15</v>
+      </c>
+      <c r="H242" s="30" t="s">
+        <v>21</v>
+      </c>
+      <c r="I242" s="32" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="243" spans="1:9" ht="30">
+      <c r="A243" s="30" t="s">
+        <v>242</v>
+      </c>
+      <c r="B243" s="31" t="s">
+        <v>272</v>
+      </c>
+      <c r="C243" s="32" t="s">
+        <v>423</v>
+      </c>
+      <c r="D243" s="30"/>
+      <c r="E243" s="30" t="s">
+        <v>22</v>
+      </c>
+      <c r="F243" s="30" t="s">
+        <v>3</v>
+      </c>
+      <c r="G243" s="30" t="s">
+        <v>16</v>
+      </c>
+      <c r="H243" s="30" t="s">
+        <v>18</v>
+      </c>
+      <c r="I243" s="32"/>
+    </row>
+    <row r="244" spans="1:9" ht="45">
+      <c r="A244" s="22" t="s">
+        <v>554</v>
+      </c>
+      <c r="B244" s="31" t="s">
+        <v>272</v>
+      </c>
+      <c r="C244" s="46" t="s">
+        <v>548</v>
+      </c>
+      <c r="D244" s="44" t="s">
+        <v>561</v>
+      </c>
+      <c r="E244" s="30" t="s">
+        <v>22</v>
+      </c>
+      <c r="F244" s="30" t="s">
+        <v>3</v>
+      </c>
+      <c r="G244" s="44" t="s">
+        <v>15</v>
+      </c>
+      <c r="H244" s="44" t="s">
+        <v>18</v>
+      </c>
+      <c r="I244" s="46"/>
+    </row>
+    <row r="245" spans="1:9" ht="45">
+      <c r="A245" s="22" t="s">
+        <v>555</v>
+      </c>
+      <c r="B245" s="31" t="s">
+        <v>272</v>
+      </c>
+      <c r="C245" s="46" t="s">
+        <v>549</v>
+      </c>
+      <c r="D245" s="44" t="s">
+        <v>561</v>
+      </c>
+      <c r="E245" s="30" t="s">
+        <v>22</v>
+      </c>
+      <c r="F245" s="30" t="s">
+        <v>3</v>
+      </c>
+      <c r="G245" s="44" t="s">
+        <v>15</v>
+      </c>
+      <c r="H245" s="44" t="s">
+        <v>21</v>
+      </c>
+      <c r="I245" s="46" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="246" spans="1:9" ht="45">
+      <c r="A246" s="22" t="s">
+        <v>556</v>
+      </c>
+      <c r="B246" s="31" t="s">
+        <v>272</v>
+      </c>
+      <c r="C246" s="46" t="s">
+        <v>553</v>
+      </c>
+      <c r="D246" s="44" t="s">
+        <v>563</v>
+      </c>
+      <c r="E246" s="30" t="s">
+        <v>22</v>
+      </c>
+      <c r="F246" s="30" t="s">
+        <v>3</v>
+      </c>
+      <c r="G246" s="44" t="s">
+        <v>15</v>
+      </c>
+      <c r="H246" s="44" t="s">
+        <v>18</v>
+      </c>
+      <c r="I246" s="46"/>
+    </row>
+    <row r="247" spans="1:9" ht="45">
+      <c r="A247" s="22" t="s">
+        <v>557</v>
+      </c>
+      <c r="B247" s="31" t="s">
+        <v>272</v>
+      </c>
+      <c r="C247" s="46" t="s">
+        <v>552</v>
+      </c>
+      <c r="D247" s="44" t="s">
+        <v>563</v>
+      </c>
+      <c r="E247" s="30" t="s">
+        <v>22</v>
+      </c>
+      <c r="F247" s="30" t="s">
+        <v>3</v>
+      </c>
+      <c r="G247" s="44" t="s">
+        <v>15</v>
+      </c>
+      <c r="H247" s="44" t="s">
+        <v>21</v>
+      </c>
+      <c r="I247" s="46" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="248" spans="1:9" ht="45">
+      <c r="A248" s="22" t="s">
+        <v>558</v>
+      </c>
+      <c r="B248" s="31" t="s">
+        <v>272</v>
+      </c>
+      <c r="C248" s="46" t="s">
+        <v>550</v>
+      </c>
+      <c r="D248" s="44" t="s">
+        <v>565</v>
+      </c>
+      <c r="E248" s="30" t="s">
+        <v>22</v>
+      </c>
+      <c r="F248" s="30" t="s">
+        <v>3</v>
+      </c>
+      <c r="G248" s="44" t="s">
+        <v>15</v>
+      </c>
+      <c r="H248" s="44" t="s">
+        <v>18</v>
+      </c>
+      <c r="I248" s="46"/>
+    </row>
+    <row r="249" spans="1:9" ht="45">
+      <c r="A249" s="22" t="s">
+        <v>559</v>
+      </c>
+      <c r="B249" s="31" t="s">
+        <v>272</v>
+      </c>
+      <c r="C249" s="46" t="s">
+        <v>551</v>
+      </c>
+      <c r="D249" s="44" t="s">
+        <v>565</v>
+      </c>
+      <c r="E249" s="30" t="s">
+        <v>22</v>
+      </c>
+      <c r="F249" s="30" t="s">
+        <v>3</v>
+      </c>
+      <c r="G249" s="44" t="s">
+        <v>15</v>
+      </c>
+      <c r="H249" s="44" t="s">
+        <v>21</v>
+      </c>
+      <c r="I249" s="46" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="250" spans="1:9" ht="180">
+      <c r="A250" s="30" t="s">
+        <v>243</v>
+      </c>
+      <c r="B250" s="31" t="s">
+        <v>273</v>
+      </c>
+      <c r="C250" s="32" t="s">
+        <v>424</v>
+      </c>
+      <c r="D250" s="30"/>
+      <c r="E250" s="30" t="s">
+        <v>19</v>
+      </c>
+      <c r="F250" s="30" t="s">
+        <v>3</v>
+      </c>
+      <c r="G250" s="30" t="s">
+        <v>15</v>
+      </c>
+      <c r="H250" s="30" t="s">
+        <v>21</v>
+      </c>
+      <c r="I250" s="32"/>
+    </row>
+    <row r="251" spans="1:9" ht="30">
+      <c r="A251" s="30" t="s">
+        <v>244</v>
+      </c>
+      <c r="B251" s="31" t="s">
+        <v>273</v>
+      </c>
+      <c r="C251" s="32" t="s">
+        <v>425</v>
+      </c>
+      <c r="D251" s="30"/>
+      <c r="E251" s="30" t="s">
+        <v>19</v>
+      </c>
+      <c r="F251" s="30" t="s">
+        <v>3</v>
+      </c>
+      <c r="G251" s="30" t="s">
+        <v>15</v>
+      </c>
+      <c r="H251" s="30" t="s">
+        <v>17</v>
+      </c>
+      <c r="I251" s="32"/>
+    </row>
+    <row r="252" spans="1:9" ht="60">
+      <c r="A252" s="30" t="s">
+        <v>245</v>
+      </c>
+      <c r="B252" s="31" t="s">
+        <v>274</v>
+      </c>
+      <c r="C252" s="32" t="s">
+        <v>426</v>
+      </c>
+      <c r="D252" s="30"/>
+      <c r="E252" s="30" t="s">
+        <v>19</v>
+      </c>
+      <c r="F252" s="30" t="s">
+        <v>3</v>
+      </c>
+      <c r="G252" s="30" t="s">
+        <v>15</v>
+      </c>
+      <c r="H252" s="30" t="s">
+        <v>17</v>
+      </c>
+      <c r="I252" s="32" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="253" spans="1:9" ht="105">
+      <c r="A253" s="30" t="s">
+        <v>246</v>
+      </c>
+      <c r="B253" s="31" t="s">
+        <v>274</v>
+      </c>
+      <c r="C253" s="32" t="s">
+        <v>427</v>
+      </c>
+      <c r="D253" s="30"/>
+      <c r="E253" s="30" t="s">
+        <v>19</v>
+      </c>
+      <c r="F253" s="30" t="s">
+        <v>3</v>
+      </c>
+      <c r="G253" s="30" t="s">
+        <v>15</v>
+      </c>
+      <c r="H253" s="30" t="s">
+        <v>21</v>
+      </c>
+      <c r="I253" s="32"/>
+    </row>
+    <row r="254" spans="1:9" ht="180">
+      <c r="A254" s="30" t="s">
+        <v>247</v>
+      </c>
+      <c r="B254" s="31" t="s">
+        <v>275</v>
+      </c>
+      <c r="C254" s="32" t="s">
+        <v>428</v>
+      </c>
+      <c r="D254" s="30"/>
+      <c r="E254" s="30" t="s">
+        <v>19</v>
+      </c>
+      <c r="F254" s="30" t="s">
+        <v>3</v>
+      </c>
+      <c r="G254" s="30" t="s">
+        <v>15</v>
+      </c>
+      <c r="H254" s="30" t="s">
+        <v>21</v>
+      </c>
+      <c r="I254" s="32"/>
+    </row>
+    <row r="255" spans="1:9" ht="409.5">
+      <c r="A255" s="30" t="s">
+        <v>248</v>
+      </c>
+      <c r="B255" s="31" t="s">
+        <v>276</v>
+      </c>
+      <c r="C255" s="32" t="s">
+        <v>429</v>
+      </c>
+      <c r="D255" s="30"/>
+      <c r="E255" s="30" t="s">
+        <v>19</v>
+      </c>
+      <c r="F255" s="30" t="s">
+        <v>3</v>
+      </c>
+      <c r="G255" s="30" t="s">
+        <v>15</v>
+      </c>
+      <c r="H255" s="30" t="s">
+        <v>21</v>
+      </c>
+      <c r="I255" s="32"/>
+    </row>
+    <row r="256" spans="1:9" ht="135">
+      <c r="A256" s="30" t="s">
+        <v>249</v>
+      </c>
+      <c r="B256" s="31" t="s">
+        <v>277</v>
+      </c>
+      <c r="C256" s="32" t="s">
+        <v>430</v>
+      </c>
+      <c r="D256" s="30"/>
+      <c r="E256" s="30" t="s">
+        <v>19</v>
+      </c>
+      <c r="F256" s="30" t="s">
+        <v>3</v>
+      </c>
+      <c r="G256" s="30" t="s">
+        <v>15</v>
+      </c>
+      <c r="H256" s="30" t="s">
+        <v>21</v>
+      </c>
+      <c r="I256" s="32"/>
+    </row>
+    <row r="257" spans="1:2">
+      <c r="A257" s="3"/>
+      <c r="B257" s="10"/>
+    </row>
+    <row r="258" spans="1:2">
+      <c r="A258" s="3"/>
+      <c r="B258" s="10"/>
     </row>
   </sheetData>
   <mergeCells count="12">
-    <mergeCell ref="A4:G4"/>
-    <mergeCell ref="B8:I8"/>
-    <mergeCell ref="B7:I7"/>
-    <mergeCell ref="B6:I6"/>
-    <mergeCell ref="B5:I5"/>
     <mergeCell ref="B11:I11"/>
     <mergeCell ref="D12:I15"/>
     <mergeCell ref="B16:I16"/>
@@ -8846,75 +10387,58 @@
     <mergeCell ref="B9:I9"/>
     <mergeCell ref="B10:I10"/>
     <mergeCell ref="B17:I17"/>
+    <mergeCell ref="A4:G4"/>
+    <mergeCell ref="B8:I8"/>
+    <mergeCell ref="B7:I7"/>
+    <mergeCell ref="B6:I6"/>
+    <mergeCell ref="B5:I5"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
-  <conditionalFormatting sqref="A20:H229 A34:I229">
-    <cfRule type="expression" dxfId="32" priority="53">
+  <conditionalFormatting sqref="A20:I256">
+    <cfRule type="expression" dxfId="87" priority="53">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Section Deleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="31" priority="54">
+    <cfRule type="expression" dxfId="86" priority="54">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Deleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="30" priority="61">
+    <cfRule type="expression" dxfId="85" priority="61">
       <formula>EXACT(INDIRECT("L"&amp;ROW()),"Deleted")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A20:H229 A34:I229">
-    <cfRule type="expression" dxfId="29" priority="7">
+  <conditionalFormatting sqref="A20:I256">
+    <cfRule type="expression" dxfId="84" priority="7">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"SectionDeleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="28" priority="8">
+    <cfRule type="expression" dxfId="83" priority="8">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Deleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="27" priority="9">
+    <cfRule type="expression" dxfId="82" priority="9">
       <formula>EXACT(INDIRECT("L"&amp;ROW()),"Deleted")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F20:F229">
-    <cfRule type="expression" dxfId="26" priority="13">
+  <conditionalFormatting sqref="F20:F256">
+    <cfRule type="expression" dxfId="81" priority="13">
       <formula>NOT(VLOOKUP(F20,$A$12:$C$15,2,FALSE)="In")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="25" priority="14">
+    <cfRule type="expression" dxfId="80" priority="14">
       <formula>(VLOOKUP(F20,$A$12:$C$15,2,FALSE)="In")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I20:I229">
-    <cfRule type="expression" dxfId="24" priority="4">
-      <formula>EXACT(INDIRECT("P"&amp;ROW()),"Section Deleted")</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="23" priority="5">
-      <formula>EXACT(INDIRECT("P"&amp;ROW()),"Deleted")</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="22" priority="6">
-      <formula>EXACT(INDIRECT("L"&amp;ROW()),"Deleted")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I20:I229">
-    <cfRule type="expression" dxfId="21" priority="1">
-      <formula>EXACT(INDIRECT("P"&amp;ROW()),"SectionDeleted")</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="20" priority="2">
-      <formula>EXACT(INDIRECT("P"&amp;ROW()),"Deleted")</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="19" priority="3">
-      <formula>EXACT(INDIRECT("L"&amp;ROW()),"Deleted")</formula>
-    </cfRule>
-  </conditionalFormatting>
   <dataValidations count="6">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F4 F20:F229">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F4 F20:F256">
       <formula1>$A$13:$A$15</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E4 E20:E229">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E4 E20:E256">
       <formula1>"Protocol,Product"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G4 G20:G229">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G4 G20:G256">
       <formula1>"Informative,Normative"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B13:B15">
       <formula1>"In, Out"</formula1>
     </dataValidation>
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C3"/>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H20:H229">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H20:H256">
       <formula1>"Non-testable, Unverified, Adapter, Test Case"</formula1>
     </dataValidation>
   </dataValidations>
@@ -8924,7 +10448,7 @@
     <oddFooter>&amp;F&amp;RPage &amp;P</oddFooter>
   </headerFooter>
   <ignoredErrors>
-    <ignoredError sqref="B1:B9 C3 B11:B16 B18:B231" numberStoredAsText="1"/>
+    <ignoredError sqref="B1:B9 C3 B11:B16 B18:B21 B24:B30 B32:B118 B120:B121 B250:B258 B129:B162 B241:B243" numberStoredAsText="1"/>
   </ignoredErrors>
   <tableParts count="2">
     <tablePart r:id="rId2"/>
@@ -8934,9 +10458,12 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance">
-  <documentManagement/>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -8989,24 +10516,15 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{923F65C5-DEAB-400B-AA1F-124F40EE10AC}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B6D33261-F3C6-4621-88F1-D76E5ABE1865}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -9027,9 +10545,15 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B6D33261-F3C6-4621-88F1-D76E5ABE1865}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{923F65C5-DEAB-400B-AA1F-124F40EE10AC}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/ExchangeWebServices/Docs/MS-OXWSMSG/MS-OXWSMSG_RequirementSpecification.xlsx
+++ b/ExchangeWebServices/Docs/MS-OXWSMSG/MS-OXWSMSG_RequirementSpecification.xlsx
@@ -10,7 +10,7 @@
     <sheet name="Requirements" sheetId="2" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Requirements!$A$19:$G$256</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Requirements!$A$19:$G$261</definedName>
     <definedName name="ExtensionList">Requirements!#REF!</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">Requirements!$A:$A,Requirements!$19:$19</definedName>
     <definedName name="ScopeList">Requirements!#REF!</definedName>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1730" uniqueCount="566">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1770" uniqueCount="581">
   <si>
     <t>Req ID</t>
   </si>
@@ -1115,9 +1115,6 @@
   </si>
   <si>
     <t>[In t:MessageType Complex Type] [ConversationTopic element] This element is optional.</t>
-  </si>
-  <si>
-    <t>[In t:MessageType Complex Type] [ConversationTopic element] This is a read/write element.</t>
   </si>
   <si>
     <t>[In t:MessageType Complex Type] From element is t:SingleRecipientType type.</t>
@@ -2206,9 +2203,6 @@
     <t>MS-OXWSMSG_R182006</t>
   </si>
   <si>
-    <t>Verified by derived requirement: MS-OXWSMSG_R182001.</t>
-  </si>
-  <si>
     <t>MS-OXWSMSG_R73003:i</t>
   </si>
   <si>
@@ -2222,6 +2216,57 @@
   </si>
   <si>
     <t>MS-OXWSMSG_R73007:i</t>
+  </si>
+  <si>
+    <t>Verified by derived requirement: MS-OXWSMSG_R182002.</t>
+  </si>
+  <si>
+    <t>[In t:MessageType Complex Type] [ConversationTopic element] This element is read-only.</t>
+  </si>
+  <si>
+    <t>Verified by requirements: MS-OXWSCDATA_R1188, MS-OXWSCDATA_R21188, MS-OXWSCDATA_R21189.</t>
+  </si>
+  <si>
+    <t>MS-OXWSCDATA_R1188</t>
+  </si>
+  <si>
+    <t>2.2.4.38</t>
+  </si>
+  <si>
+    <t>[In t:ItemResponseShapeType Complex Type] The element "IncludeMimeContent" with type "xs:boolean" specifies whether the MIME content of an item is returned in a response.</t>
+  </si>
+  <si>
+    <t>MS-OXWSCDATA_R21188</t>
+  </si>
+  <si>
+    <t>[In t:ItemResponseShapeType Complex Type] [IncludeMimeContent is] True, specifies the MIME content of an item is returned in a response.</t>
+  </si>
+  <si>
+    <t>MS-OXWSCDATA_R1188:c</t>
+  </si>
+  <si>
+    <t>MS-OXWSCDATA_R21189</t>
+  </si>
+  <si>
+    <t>[In t:ItemResponseShapeType Complex Type] otherwise [IncludeMimeContent is] false, specifies [the MIME content of an item is not returned in a response].</t>
+  </si>
+  <si>
+    <t>Verified by requirement: MS-OXWSCDATA_R1190.</t>
+  </si>
+  <si>
+    <t>MS-OXWSCDATA_R1190</t>
+  </si>
+  <si>
+    <t>[In t:ItemResponseShapeType Complex Type] The element "BodyType" with type "t:BodyTypeResponseType(section 2.2.3.1)" specifies the requested body text format for the Body property that is returned in a response.</t>
+  </si>
+  <si>
+    <t>Verified by requirement: MS-OXWSCDATA_R1197.</t>
+  </si>
+  <si>
+    <t>MS-OXWSCDATA_R1197</t>
+  </si>
+  <si>
+    <t>[In t:ItemResponseShapeType Complex Type] The element "AdditionalProperties" with type "t:NonEmptyArrayOfPathsToElementType" specifies a set of requested additional properties to return in a response.</t>
   </si>
 </sst>
 </file>
@@ -2499,6 +2544,15 @@
     <xf numFmtId="2" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -2532,466 +2586,174 @@
     <xf numFmtId="0" fontId="3" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="161">
+  <dxfs count="67">
     <dxf>
       <font>
-        <strike/>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color theme="0"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <name val="Calibri"/>
+        <scheme val="none"/>
       </font>
     </dxf>
     <dxf>
-      <font>
-        <strike/>
-      </font>
+      <border outline="0">
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
     </dxf>
     <dxf>
       <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <scheme val="none"/>
       </font>
     </dxf>
     <dxf>
@@ -3168,9 +2930,18 @@
       </font>
     </dxf>
     <dxf>
-      <font>
-        <strike/>
-      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
     </dxf>
     <dxf>
       <font>
@@ -3203,9 +2974,18 @@
       </font>
     </dxf>
     <dxf>
-      <font>
-        <strike/>
-      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
     </dxf>
     <dxf>
       <font>
@@ -3238,9 +3018,18 @@
       </font>
     </dxf>
     <dxf>
-      <font>
-        <strike/>
-      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
     </dxf>
     <dxf>
       <font>
@@ -3273,9 +3062,18 @@
       </font>
     </dxf>
     <dxf>
-      <font>
-        <strike/>
-      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
     </dxf>
     <dxf>
       <font>
@@ -3308,9 +3106,18 @@
       </font>
     </dxf>
     <dxf>
-      <font>
-        <strike/>
-      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
     </dxf>
     <dxf>
       <font>
@@ -3343,9 +3150,18 @@
       </font>
     </dxf>
     <dxf>
-      <font>
-        <strike/>
-      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
     </dxf>
     <dxf>
       <font>
@@ -3375,231 +3191,6 @@
     <dxf>
       <font>
         <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color theme="0"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <name val="Calibri"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <scheme val="none"/>
       </font>
     </dxf>
   </dxfs>
@@ -3731,34 +3322,34 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Requirement" displayName="Requirement" ref="A19:I256" tableType="xml" totalsRowShown="0" headerRowDxfId="98" dataDxfId="97" headerRowCellStyle="Normal" dataCellStyle="Normal" connectionId="1">
-  <autoFilter ref="A19:I256"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Requirement" displayName="Requirement" ref="A19:I261" tableType="xml" totalsRowShown="0" headerRowDxfId="18" dataDxfId="17" headerRowCellStyle="Normal" dataCellStyle="Normal" connectionId="1">
+  <autoFilter ref="A19:I261"/>
   <tableColumns count="9">
-    <tableColumn id="1" uniqueName="ns1:REQ_ID" name="Req ID" dataDxfId="96" dataCellStyle="Normal">
+    <tableColumn id="1" uniqueName="ns1:REQ_ID" name="Req ID" dataDxfId="16" dataCellStyle="Normal">
       <xmlColumnPr mapId="12" xpath="/ns1:ReqTable/ns1:Requirement/ns1:REQ_ID" xmlDataType="string"/>
     </tableColumn>
-    <tableColumn id="2" uniqueName="ns1:Doc_Sect" name="Doc Sect" dataDxfId="95" dataCellStyle="Normal">
+    <tableColumn id="2" uniqueName="ns1:Doc_Sect" name="Doc Sect" dataDxfId="15" dataCellStyle="Normal">
       <xmlColumnPr mapId="12" xpath="/ns1:ReqTable/ns1:Requirement/ns1:Doc_Sect" xmlDataType="string"/>
     </tableColumn>
-    <tableColumn id="3" uniqueName="ns1:Description" name="Description" dataDxfId="94" dataCellStyle="Normal">
+    <tableColumn id="3" uniqueName="ns1:Description" name="Description" dataDxfId="14" dataCellStyle="Normal">
       <xmlColumnPr mapId="12" xpath="/ns1:ReqTable/ns1:Requirement/ns1:Description" xmlDataType="string"/>
     </tableColumn>
-    <tableColumn id="18" uniqueName="ns1:Derived" name="Derived" dataDxfId="93" dataCellStyle="Normal">
+    <tableColumn id="18" uniqueName="ns1:Derived" name="Derived" dataDxfId="13" dataCellStyle="Normal">
       <xmlColumnPr mapId="12" xpath="/ns1:ReqTable/ns1:Requirement/ns1:Derived" xmlDataType="string"/>
     </tableColumn>
-    <tableColumn id="6" uniqueName="ns1:Behavior" name="Behavior" dataDxfId="92" dataCellStyle="Normal">
+    <tableColumn id="6" uniqueName="ns1:Behavior" name="Behavior" dataDxfId="12" dataCellStyle="Normal">
       <xmlColumnPr mapId="12" xpath="/ns1:ReqTable/ns1:Requirement/ns1:Behavior" xmlDataType="string"/>
     </tableColumn>
-    <tableColumn id="7" uniqueName="ns1:Scope" name="Scope" dataDxfId="91" dataCellStyle="Normal">
+    <tableColumn id="7" uniqueName="ns1:Scope" name="Scope" dataDxfId="11" dataCellStyle="Normal">
       <xmlColumnPr mapId="12" xpath="/ns1:ReqTable/ns1:Requirement/ns1:Scope" xmlDataType="string"/>
     </tableColumn>
-    <tableColumn id="9" uniqueName="ns1:IsNormative" name="Informative_x000a_/Normative" dataDxfId="90" dataCellStyle="Normal">
+    <tableColumn id="9" uniqueName="ns1:IsNormative" name="Informative_x000a_/Normative" dataDxfId="10" dataCellStyle="Normal">
       <xmlColumnPr mapId="12" xpath="/ns1:ReqTable/ns1:Requirement/ns1:IsNormative" xmlDataType="string"/>
     </tableColumn>
-    <tableColumn id="10" uniqueName="ns1:Verification" name="Verification" dataDxfId="89" dataCellStyle="Normal">
+    <tableColumn id="10" uniqueName="ns1:Verification" name="Verification" dataDxfId="9" dataCellStyle="Normal">
       <xmlColumnPr mapId="12" xpath="/ns1:ReqTable/ns1:Requirement/ns1:Verification" xmlDataType="string"/>
     </tableColumn>
-    <tableColumn id="8" uniqueName="ns1:VerificationComment" name="Verification Comment" dataDxfId="88">
+    <tableColumn id="8" uniqueName="ns1:VerificationComment" name="Verification Comment" dataDxfId="8">
       <xmlColumnPr mapId="12" xpath="/ns1:ReqTable/ns1:Requirement/ns1:VerificationComment" xmlDataType="string"/>
     </tableColumn>
   </tableColumns>
@@ -3767,12 +3358,12 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Scope" displayName="Scope" ref="A12:C15" totalsRowShown="0" headerRowDxfId="160" dataDxfId="158" headerRowBorderDxfId="159" tableBorderDxfId="157" totalsRowBorderDxfId="156">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Scope" displayName="Scope" ref="A12:C15" totalsRowShown="0" headerRowDxfId="7" dataDxfId="5" headerRowBorderDxfId="6" tableBorderDxfId="4" totalsRowBorderDxfId="3">
   <autoFilter ref="A12:C15"/>
   <tableColumns count="3">
-    <tableColumn id="1" name="Scope" dataDxfId="155"/>
-    <tableColumn id="2" name="Test" dataDxfId="154"/>
-    <tableColumn id="3" name="Description" dataDxfId="153"/>
+    <tableColumn id="1" name="Scope" dataDxfId="2"/>
+    <tableColumn id="2" name="Test" dataDxfId="1"/>
+    <tableColumn id="3" name="Description" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -4066,18 +3657,18 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:L258"/>
+  <dimension ref="A1:L262"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C246" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D249" sqref="D249"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A20" sqref="A20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="12.42578125" style="11" customWidth="1"/>
+    <col min="1" max="1" width="23" style="11" customWidth="1"/>
     <col min="2" max="2" width="13" style="3" customWidth="1"/>
     <col min="3" max="3" width="85" style="3" customWidth="1"/>
-    <col min="4" max="4" width="28.5703125" style="3" customWidth="1"/>
+    <col min="4" max="4" width="25.5703125" style="3" customWidth="1"/>
     <col min="5" max="5" width="12.42578125" style="3" customWidth="1"/>
     <col min="6" max="6" width="12.140625" style="3" customWidth="1"/>
     <col min="7" max="7" width="13.42578125" style="3" customWidth="1"/>
@@ -4088,7 +3679,7 @@
   <sheetData>
     <row r="1" spans="1:10">
       <c r="A1" s="1" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>27</v>
@@ -4098,7 +3689,7 @@
     </row>
     <row r="2" spans="1:10">
       <c r="A2" s="6" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="B2" s="7"/>
       <c r="C2" s="7"/>
@@ -4123,127 +3714,127 @@
       <c r="J3" s="5"/>
     </row>
     <row r="4" spans="1:10" ht="21">
-      <c r="A4" s="33" t="s">
+      <c r="A4" s="36" t="s">
         <v>24</v>
       </c>
-      <c r="B4" s="33"/>
-      <c r="C4" s="33"/>
-      <c r="D4" s="33"/>
-      <c r="E4" s="33"/>
-      <c r="F4" s="33"/>
-      <c r="G4" s="33"/>
+      <c r="B4" s="36"/>
+      <c r="C4" s="36"/>
+      <c r="D4" s="36"/>
+      <c r="E4" s="36"/>
+      <c r="F4" s="36"/>
+      <c r="G4" s="36"/>
       <c r="J4" s="5"/>
     </row>
     <row r="5" spans="1:10">
       <c r="A5" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="B5" s="36" t="s">
+      <c r="B5" s="39" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="37"/>
-      <c r="D5" s="37"/>
-      <c r="E5" s="37"/>
-      <c r="F5" s="37"/>
-      <c r="G5" s="37"/>
-      <c r="H5" s="37"/>
-      <c r="I5" s="37"/>
+      <c r="C5" s="40"/>
+      <c r="D5" s="40"/>
+      <c r="E5" s="40"/>
+      <c r="F5" s="40"/>
+      <c r="G5" s="40"/>
+      <c r="H5" s="40"/>
+      <c r="I5" s="40"/>
       <c r="J5" s="5"/>
     </row>
     <row r="6" spans="1:10">
       <c r="A6" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="B6" s="35" t="s">
+      <c r="B6" s="38" t="s">
         <v>34</v>
       </c>
-      <c r="C6" s="35"/>
-      <c r="D6" s="35"/>
-      <c r="E6" s="35"/>
-      <c r="F6" s="35"/>
-      <c r="G6" s="35"/>
-      <c r="H6" s="35"/>
-      <c r="I6" s="35"/>
+      <c r="C6" s="38"/>
+      <c r="D6" s="38"/>
+      <c r="E6" s="38"/>
+      <c r="F6" s="38"/>
+      <c r="G6" s="38"/>
+      <c r="H6" s="38"/>
+      <c r="I6" s="38"/>
       <c r="J6" s="5"/>
     </row>
     <row r="7" spans="1:10">
       <c r="A7" s="14" t="s">
         <v>38</v>
       </c>
-      <c r="B7" s="34" t="s">
+      <c r="B7" s="37" t="s">
         <v>28</v>
       </c>
-      <c r="C7" s="34"/>
-      <c r="D7" s="34"/>
-      <c r="E7" s="34"/>
-      <c r="F7" s="34"/>
-      <c r="G7" s="34"/>
-      <c r="H7" s="34"/>
-      <c r="I7" s="34"/>
+      <c r="C7" s="37"/>
+      <c r="D7" s="37"/>
+      <c r="E7" s="37"/>
+      <c r="F7" s="37"/>
+      <c r="G7" s="37"/>
+      <c r="H7" s="37"/>
+      <c r="I7" s="37"/>
       <c r="J7" s="5"/>
     </row>
     <row r="8" spans="1:10">
       <c r="A8" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="B8" s="34" t="s">
+      <c r="B8" s="37" t="s">
         <v>29</v>
       </c>
-      <c r="C8" s="34"/>
-      <c r="D8" s="34"/>
-      <c r="E8" s="34"/>
-      <c r="F8" s="34"/>
-      <c r="G8" s="34"/>
-      <c r="H8" s="34"/>
-      <c r="I8" s="34"/>
+      <c r="C8" s="37"/>
+      <c r="D8" s="37"/>
+      <c r="E8" s="37"/>
+      <c r="F8" s="37"/>
+      <c r="G8" s="37"/>
+      <c r="H8" s="37"/>
+      <c r="I8" s="37"/>
       <c r="J8" s="5"/>
     </row>
     <row r="9" spans="1:10" ht="75.75" customHeight="1">
       <c r="A9" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="B9" s="42" t="s">
+      <c r="B9" s="45" t="s">
         <v>37</v>
       </c>
-      <c r="C9" s="43"/>
-      <c r="D9" s="43"/>
-      <c r="E9" s="43"/>
-      <c r="F9" s="43"/>
-      <c r="G9" s="43"/>
-      <c r="H9" s="43"/>
-      <c r="I9" s="43"/>
+      <c r="C9" s="46"/>
+      <c r="D9" s="46"/>
+      <c r="E9" s="46"/>
+      <c r="F9" s="46"/>
+      <c r="G9" s="46"/>
+      <c r="H9" s="46"/>
+      <c r="I9" s="46"/>
       <c r="J9" s="5"/>
     </row>
     <row r="10" spans="1:10" ht="30.75" customHeight="1">
       <c r="A10" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="B10" s="42" t="s">
-        <v>446</v>
-      </c>
-      <c r="C10" s="43"/>
-      <c r="D10" s="43"/>
-      <c r="E10" s="43"/>
-      <c r="F10" s="43"/>
-      <c r="G10" s="43"/>
-      <c r="H10" s="43"/>
-      <c r="I10" s="43"/>
+      <c r="B10" s="45" t="s">
+        <v>445</v>
+      </c>
+      <c r="C10" s="46"/>
+      <c r="D10" s="46"/>
+      <c r="E10" s="46"/>
+      <c r="F10" s="46"/>
+      <c r="G10" s="46"/>
+      <c r="H10" s="46"/>
+      <c r="I10" s="46"/>
       <c r="J10" s="5"/>
     </row>
     <row r="11" spans="1:10">
       <c r="A11" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="B11" s="38" t="s">
+      <c r="B11" s="41" t="s">
         <v>40</v>
       </c>
-      <c r="C11" s="38"/>
-      <c r="D11" s="38"/>
-      <c r="E11" s="38"/>
-      <c r="F11" s="38"/>
-      <c r="G11" s="38"/>
-      <c r="H11" s="38"/>
-      <c r="I11" s="38"/>
+      <c r="C11" s="41"/>
+      <c r="D11" s="41"/>
+      <c r="E11" s="41"/>
+      <c r="F11" s="41"/>
+      <c r="G11" s="41"/>
+      <c r="H11" s="41"/>
+      <c r="I11" s="41"/>
       <c r="J11" s="5"/>
     </row>
     <row r="12" spans="1:10">
@@ -4256,12 +3847,12 @@
       <c r="C12" s="19" t="s">
         <v>1</v>
       </c>
-      <c r="D12" s="39"/>
-      <c r="E12" s="39"/>
-      <c r="F12" s="39"/>
-      <c r="G12" s="39"/>
-      <c r="H12" s="39"/>
-      <c r="I12" s="39"/>
+      <c r="D12" s="42"/>
+      <c r="E12" s="42"/>
+      <c r="F12" s="42"/>
+      <c r="G12" s="42"/>
+      <c r="H12" s="42"/>
+      <c r="I12" s="42"/>
       <c r="J12" s="5"/>
     </row>
     <row r="13" spans="1:10">
@@ -4274,12 +3865,12 @@
       <c r="C13" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="D13" s="40"/>
-      <c r="E13" s="40"/>
-      <c r="F13" s="40"/>
-      <c r="G13" s="40"/>
-      <c r="H13" s="40"/>
-      <c r="I13" s="40"/>
+      <c r="D13" s="43"/>
+      <c r="E13" s="43"/>
+      <c r="F13" s="43"/>
+      <c r="G13" s="43"/>
+      <c r="H13" s="43"/>
+      <c r="I13" s="43"/>
       <c r="J13" s="5"/>
     </row>
     <row r="14" spans="1:10">
@@ -4292,12 +3883,12 @@
       <c r="C14" s="16" t="s">
         <v>35</v>
       </c>
-      <c r="D14" s="40"/>
-      <c r="E14" s="40"/>
-      <c r="F14" s="40"/>
-      <c r="G14" s="40"/>
-      <c r="H14" s="40"/>
-      <c r="I14" s="40"/>
+      <c r="D14" s="43"/>
+      <c r="E14" s="43"/>
+      <c r="F14" s="43"/>
+      <c r="G14" s="43"/>
+      <c r="H14" s="43"/>
+      <c r="I14" s="43"/>
       <c r="J14" s="5"/>
     </row>
     <row r="15" spans="1:10">
@@ -4310,60 +3901,60 @@
       <c r="C15" s="16" t="s">
         <v>30</v>
       </c>
-      <c r="D15" s="41"/>
-      <c r="E15" s="41"/>
-      <c r="F15" s="41"/>
-      <c r="G15" s="41"/>
-      <c r="H15" s="41"/>
-      <c r="I15" s="41"/>
+      <c r="D15" s="44"/>
+      <c r="E15" s="44"/>
+      <c r="F15" s="44"/>
+      <c r="G15" s="44"/>
+      <c r="H15" s="44"/>
+      <c r="I15" s="44"/>
       <c r="J15" s="5"/>
     </row>
-    <row r="16" spans="1:10" ht="30">
+    <row r="16" spans="1:10">
       <c r="A16" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="B16" s="38" t="s">
+      <c r="B16" s="41" t="s">
         <v>41</v>
       </c>
-      <c r="C16" s="38"/>
-      <c r="D16" s="38"/>
-      <c r="E16" s="38"/>
-      <c r="F16" s="38"/>
-      <c r="G16" s="38"/>
-      <c r="H16" s="38"/>
-      <c r="I16" s="38"/>
+      <c r="C16" s="41"/>
+      <c r="D16" s="41"/>
+      <c r="E16" s="41"/>
+      <c r="F16" s="41"/>
+      <c r="G16" s="41"/>
+      <c r="H16" s="41"/>
+      <c r="I16" s="41"/>
       <c r="J16" s="5"/>
     </row>
     <row r="17" spans="1:12" ht="61.5" customHeight="1">
       <c r="A17" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="B17" s="42" t="s">
-        <v>447</v>
-      </c>
-      <c r="C17" s="43"/>
-      <c r="D17" s="43"/>
-      <c r="E17" s="43"/>
-      <c r="F17" s="43"/>
-      <c r="G17" s="43"/>
-      <c r="H17" s="43"/>
-      <c r="I17" s="43"/>
+      <c r="B17" s="45" t="s">
+        <v>446</v>
+      </c>
+      <c r="C17" s="46"/>
+      <c r="D17" s="46"/>
+      <c r="E17" s="46"/>
+      <c r="F17" s="46"/>
+      <c r="G17" s="46"/>
+      <c r="H17" s="46"/>
+      <c r="I17" s="46"/>
       <c r="J17" s="5"/>
     </row>
-    <row r="18" spans="1:12" ht="30">
+    <row r="18" spans="1:12">
       <c r="A18" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="B18" s="38" t="s">
+      <c r="B18" s="41" t="s">
         <v>36</v>
       </c>
-      <c r="C18" s="38"/>
-      <c r="D18" s="38"/>
-      <c r="E18" s="38"/>
-      <c r="F18" s="38"/>
-      <c r="G18" s="38"/>
-      <c r="H18" s="38"/>
-      <c r="I18" s="38"/>
+      <c r="C18" s="41"/>
+      <c r="D18" s="41"/>
+      <c r="E18" s="41"/>
+      <c r="F18" s="41"/>
+      <c r="G18" s="41"/>
+      <c r="H18" s="41"/>
+      <c r="I18" s="41"/>
       <c r="J18" s="5"/>
       <c r="L18" s="4"/>
     </row>
@@ -4405,7 +3996,7 @@
         <v>250</v>
       </c>
       <c r="C20" s="21" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="D20" s="22"/>
       <c r="E20" s="22" t="s">
@@ -4430,7 +4021,7 @@
         <v>250</v>
       </c>
       <c r="C21" s="20" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="D21" s="22"/>
       <c r="E21" s="22" t="s">
@@ -4448,54 +4039,54 @@
       <c r="I21" s="24"/>
     </row>
     <row r="22" spans="1:12" s="23" customFormat="1">
-      <c r="A22" s="44" t="s">
+      <c r="A22" s="33" t="s">
+        <v>450</v>
+      </c>
+      <c r="B22" s="34" t="s">
+        <v>250</v>
+      </c>
+      <c r="C22" s="35" t="s">
         <v>451</v>
       </c>
-      <c r="B22" s="45" t="s">
+      <c r="D22" s="33"/>
+      <c r="E22" s="33" t="s">
+        <v>19</v>
+      </c>
+      <c r="F22" s="33" t="s">
+        <v>3</v>
+      </c>
+      <c r="G22" s="33" t="s">
+        <v>16</v>
+      </c>
+      <c r="H22" s="33" t="s">
+        <v>18</v>
+      </c>
+      <c r="I22" s="35"/>
+    </row>
+    <row r="23" spans="1:12" s="23" customFormat="1">
+      <c r="A23" s="33" t="s">
+        <v>453</v>
+      </c>
+      <c r="B23" s="34" t="s">
         <v>250</v>
       </c>
-      <c r="C22" s="46" t="s">
+      <c r="C23" s="35" t="s">
         <v>452</v>
       </c>
-      <c r="D22" s="44"/>
-      <c r="E22" s="44" t="s">
-        <v>19</v>
-      </c>
-      <c r="F22" s="44" t="s">
-        <v>3</v>
-      </c>
-      <c r="G22" s="44" t="s">
+      <c r="D23" s="33"/>
+      <c r="E23" s="33" t="s">
+        <v>19</v>
+      </c>
+      <c r="F23" s="33" t="s">
+        <v>3</v>
+      </c>
+      <c r="G23" s="33" t="s">
         <v>16</v>
       </c>
-      <c r="H22" s="44" t="s">
+      <c r="H23" s="33" t="s">
         <v>18</v>
       </c>
-      <c r="I22" s="46"/>
-    </row>
-    <row r="23" spans="1:12" s="23" customFormat="1">
-      <c r="A23" s="44" t="s">
-        <v>454</v>
-      </c>
-      <c r="B23" s="45" t="s">
-        <v>250</v>
-      </c>
-      <c r="C23" s="46" t="s">
-        <v>453</v>
-      </c>
-      <c r="D23" s="44"/>
-      <c r="E23" s="44" t="s">
-        <v>19</v>
-      </c>
-      <c r="F23" s="44" t="s">
-        <v>3</v>
-      </c>
-      <c r="G23" s="44" t="s">
-        <v>16</v>
-      </c>
-      <c r="H23" s="44" t="s">
-        <v>18</v>
-      </c>
-      <c r="I23" s="46"/>
+      <c r="I23" s="35"/>
     </row>
     <row r="24" spans="1:12" s="23" customFormat="1" ht="30">
       <c r="A24" s="22" t="s">
@@ -4605,7 +4196,7 @@
         <v>252</v>
       </c>
       <c r="C28" s="20" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="D28" s="22"/>
       <c r="E28" s="22" t="s">
@@ -4655,7 +4246,7 @@
         <v>252</v>
       </c>
       <c r="C30" s="20" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="D30" s="22"/>
       <c r="E30" s="22" t="s">
@@ -4674,28 +4265,28 @@
     </row>
     <row r="31" spans="1:12" s="23" customFormat="1">
       <c r="A31" s="22" t="s">
-        <v>457</v>
-      </c>
-      <c r="B31" s="45" t="s">
+        <v>456</v>
+      </c>
+      <c r="B31" s="34" t="s">
         <v>252</v>
       </c>
-      <c r="C31" s="46" t="s">
-        <v>456</v>
-      </c>
-      <c r="D31" s="44"/>
-      <c r="E31" s="44" t="s">
-        <v>19</v>
-      </c>
-      <c r="F31" s="44" t="s">
-        <v>3</v>
-      </c>
-      <c r="G31" s="44" t="s">
-        <v>15</v>
-      </c>
-      <c r="H31" s="44" t="s">
+      <c r="C31" s="35" t="s">
+        <v>455</v>
+      </c>
+      <c r="D31" s="33"/>
+      <c r="E31" s="33" t="s">
+        <v>19</v>
+      </c>
+      <c r="F31" s="33" t="s">
+        <v>3</v>
+      </c>
+      <c r="G31" s="33" t="s">
+        <v>15</v>
+      </c>
+      <c r="H31" s="33" t="s">
         <v>21</v>
       </c>
-      <c r="I31" s="46"/>
+      <c r="I31" s="35"/>
     </row>
     <row r="32" spans="1:12" s="23" customFormat="1" ht="45">
       <c r="A32" s="22" t="s">
@@ -4721,7 +4312,7 @@
         <v>17</v>
       </c>
       <c r="I32" s="24" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
     </row>
     <row r="33" spans="1:9" s="23" customFormat="1" ht="30">
@@ -4757,7 +4348,7 @@
         <v>253</v>
       </c>
       <c r="C34" s="20" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="D34" s="22"/>
       <c r="E34" s="22" t="s">
@@ -5057,7 +4648,7 @@
         <v>257</v>
       </c>
       <c r="C46" s="20" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="D46" s="30"/>
       <c r="E46" s="30" t="s">
@@ -5082,7 +4673,7 @@
         <v>31</v>
       </c>
       <c r="C47" s="20" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="D47" s="30"/>
       <c r="E47" s="30" t="s">
@@ -5107,7 +4698,7 @@
         <v>31</v>
       </c>
       <c r="C48" s="20" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="D48" s="30"/>
       <c r="E48" s="30" t="s">
@@ -5132,7 +4723,7 @@
         <v>31</v>
       </c>
       <c r="C49" s="20" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="D49" s="30"/>
       <c r="E49" s="30" t="s">
@@ -5182,7 +4773,7 @@
         <v>31</v>
       </c>
       <c r="C51" s="20" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="D51" s="30"/>
       <c r="E51" s="30" t="s">
@@ -5210,7 +4801,7 @@
         <v>297</v>
       </c>
       <c r="D52" s="30" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="E52" s="30" t="s">
         <v>19</v>
@@ -5221,8 +4812,8 @@
       <c r="G52" s="30" t="s">
         <v>15</v>
       </c>
-      <c r="H52" s="30" t="s">
-        <v>18</v>
+      <c r="H52" s="22" t="s">
+        <v>20</v>
       </c>
       <c r="I52" s="32"/>
     </row>
@@ -5237,7 +4828,7 @@
         <v>298</v>
       </c>
       <c r="D53" s="30" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="E53" s="30" t="s">
         <v>19</v>
@@ -5336,7 +4927,7 @@
         <v>31</v>
       </c>
       <c r="C57" s="20" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="D57" s="30"/>
       <c r="E57" s="30" t="s">
@@ -5364,7 +4955,7 @@
         <v>302</v>
       </c>
       <c r="D58" s="30" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="E58" s="30" t="s">
         <v>19</v>
@@ -5375,8 +4966,8 @@
       <c r="G58" s="30" t="s">
         <v>15</v>
       </c>
-      <c r="H58" s="30" t="s">
-        <v>18</v>
+      <c r="H58" s="22" t="s">
+        <v>20</v>
       </c>
       <c r="I58" s="32"/>
     </row>
@@ -5391,7 +4982,7 @@
         <v>303</v>
       </c>
       <c r="D59" s="30" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="E59" s="30" t="s">
         <v>19</v>
@@ -5415,7 +5006,7 @@
         <v>31</v>
       </c>
       <c r="C60" s="20" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="D60" s="30"/>
       <c r="E60" s="30" t="s">
@@ -5515,7 +5106,7 @@
         <v>31</v>
       </c>
       <c r="C64" s="20" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="D64" s="30"/>
       <c r="E64" s="30" t="s">
@@ -5615,7 +5206,7 @@
         <v>31</v>
       </c>
       <c r="C68" s="20" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="D68" s="30"/>
       <c r="E68" s="30" t="s">
@@ -5818,7 +5409,7 @@
         <v>317</v>
       </c>
       <c r="D76" s="30" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="E76" s="30" t="s">
         <v>19</v>
@@ -5945,7 +5536,7 @@
         <v>322</v>
       </c>
       <c r="D81" s="30" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="E81" s="30" t="s">
         <v>19</v>
@@ -5969,7 +5560,7 @@
         <v>31</v>
       </c>
       <c r="C82" s="20" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="D82" s="30"/>
       <c r="E82" s="30" t="s">
@@ -5994,7 +5585,7 @@
         <v>31</v>
       </c>
       <c r="C83" s="20" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="D83" s="30"/>
       <c r="E83" s="30" t="s">
@@ -6044,7 +5635,7 @@
         <v>31</v>
       </c>
       <c r="C85" s="20" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="D85" s="30"/>
       <c r="E85" s="30" t="s">
@@ -6056,8 +5647,8 @@
       <c r="G85" s="30" t="s">
         <v>15</v>
       </c>
-      <c r="H85" s="30" t="s">
-        <v>18</v>
+      <c r="H85" s="22" t="s">
+        <v>20</v>
       </c>
       <c r="I85" s="32"/>
     </row>
@@ -6136,15 +5727,15 @@
       </c>
       <c r="I88" s="32"/>
     </row>
-    <row r="89" spans="1:9" ht="30">
+    <row r="89" spans="1:9">
       <c r="A89" s="30" t="s">
         <v>108</v>
       </c>
       <c r="B89" s="31" t="s">
         <v>31</v>
       </c>
-      <c r="C89" s="32" t="s">
-        <v>327</v>
+      <c r="C89" s="20" t="s">
+        <v>565</v>
       </c>
       <c r="D89" s="30"/>
       <c r="E89" s="30" t="s">
@@ -6156,8 +5747,8 @@
       <c r="G89" s="30" t="s">
         <v>15</v>
       </c>
-      <c r="H89" s="30" t="s">
-        <v>18</v>
+      <c r="H89" s="22" t="s">
+        <v>20</v>
       </c>
       <c r="I89" s="32"/>
     </row>
@@ -6169,7 +5760,7 @@
         <v>31</v>
       </c>
       <c r="C90" s="32" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="D90" s="30"/>
       <c r="E90" s="30" t="s">
@@ -6194,7 +5785,7 @@
         <v>31</v>
       </c>
       <c r="C91" s="32" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="D91" s="30"/>
       <c r="E91" s="30" t="s">
@@ -6219,7 +5810,7 @@
         <v>31</v>
       </c>
       <c r="C92" s="32" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="D92" s="30"/>
       <c r="E92" s="30" t="s">
@@ -6244,7 +5835,7 @@
         <v>31</v>
       </c>
       <c r="C93" s="32" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="D93" s="30"/>
       <c r="E93" s="30" t="s">
@@ -6269,7 +5860,7 @@
         <v>31</v>
       </c>
       <c r="C94" s="32" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="D94" s="30"/>
       <c r="E94" s="30" t="s">
@@ -6294,7 +5885,7 @@
         <v>31</v>
       </c>
       <c r="C95" s="32" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="D95" s="30"/>
       <c r="E95" s="30" t="s">
@@ -6319,7 +5910,7 @@
         <v>31</v>
       </c>
       <c r="C96" s="32" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="D96" s="30"/>
       <c r="E96" s="30" t="s">
@@ -6344,7 +5935,7 @@
         <v>31</v>
       </c>
       <c r="C97" s="20" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="D97" s="30"/>
       <c r="E97" s="30" t="s">
@@ -6356,8 +5947,8 @@
       <c r="G97" s="30" t="s">
         <v>15</v>
       </c>
-      <c r="H97" s="30" t="s">
-        <v>18</v>
+      <c r="H97" s="22" t="s">
+        <v>20</v>
       </c>
       <c r="I97" s="32"/>
     </row>
@@ -6369,7 +5960,7 @@
         <v>31</v>
       </c>
       <c r="C98" s="32" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="D98" s="30"/>
       <c r="E98" s="30" t="s">
@@ -6394,7 +5985,7 @@
         <v>31</v>
       </c>
       <c r="C99" s="32" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="D99" s="30"/>
       <c r="E99" s="30" t="s">
@@ -6419,7 +6010,7 @@
         <v>31</v>
       </c>
       <c r="C100" s="20" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="D100" s="30"/>
       <c r="E100" s="30" t="s">
@@ -6431,8 +6022,8 @@
       <c r="G100" s="30" t="s">
         <v>15</v>
       </c>
-      <c r="H100" s="30" t="s">
-        <v>18</v>
+      <c r="H100" s="22" t="s">
+        <v>20</v>
       </c>
       <c r="I100" s="32"/>
     </row>
@@ -6444,7 +6035,7 @@
         <v>31</v>
       </c>
       <c r="C101" s="32" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="D101" s="30"/>
       <c r="E101" s="30" t="s">
@@ -6469,10 +6060,10 @@
         <v>31</v>
       </c>
       <c r="C102" s="32" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="D102" s="30" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="E102" s="30" t="s">
         <v>19</v>
@@ -6496,7 +6087,7 @@
         <v>31</v>
       </c>
       <c r="C103" s="32" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="D103" s="30"/>
       <c r="E103" s="30" t="s">
@@ -6521,7 +6112,7 @@
         <v>31</v>
       </c>
       <c r="C104" s="20" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="D104" s="30"/>
       <c r="E104" s="30" t="s">
@@ -6546,7 +6137,7 @@
         <v>31</v>
       </c>
       <c r="C105" s="32" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="D105" s="30"/>
       <c r="E105" s="30" t="s">
@@ -6571,7 +6162,7 @@
         <v>31</v>
       </c>
       <c r="C106" s="32" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="D106" s="30"/>
       <c r="E106" s="30" t="s">
@@ -6596,7 +6187,7 @@
         <v>31</v>
       </c>
       <c r="C107" s="32" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="D107" s="30"/>
       <c r="E107" s="30" t="s">
@@ -6621,10 +6212,10 @@
         <v>31</v>
       </c>
       <c r="C108" s="32" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="D108" s="30" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="E108" s="30" t="s">
         <v>19</v>
@@ -6648,7 +6239,7 @@
         <v>31</v>
       </c>
       <c r="C109" s="32" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="D109" s="30"/>
       <c r="E109" s="30" t="s">
@@ -6673,7 +6264,7 @@
         <v>31</v>
       </c>
       <c r="C110" s="32" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="D110" s="30"/>
       <c r="E110" s="30" t="s">
@@ -6698,7 +6289,7 @@
         <v>31</v>
       </c>
       <c r="C111" s="32" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="D111" s="30"/>
       <c r="E111" s="30" t="s">
@@ -6723,7 +6314,7 @@
         <v>31</v>
       </c>
       <c r="C112" s="32" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="D112" s="30"/>
       <c r="E112" s="30" t="s">
@@ -6748,7 +6339,7 @@
         <v>31</v>
       </c>
       <c r="C113" s="32" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="D113" s="30"/>
       <c r="E113" s="30" t="s">
@@ -6773,7 +6364,7 @@
         <v>31</v>
       </c>
       <c r="C114" s="20" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="D114" s="30"/>
       <c r="E114" s="30" t="s">
@@ -6798,7 +6389,7 @@
         <v>31</v>
       </c>
       <c r="C115" s="32" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="D115" s="30"/>
       <c r="E115" s="30" t="s">
@@ -6823,7 +6414,7 @@
         <v>31</v>
       </c>
       <c r="C116" s="32" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="D116" s="30"/>
       <c r="E116" s="30" t="s">
@@ -6848,7 +6439,7 @@
         <v>31</v>
       </c>
       <c r="C117" s="32" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="D117" s="30"/>
       <c r="E117" s="30" t="s">
@@ -6860,8 +6451,8 @@
       <c r="G117" s="30" t="s">
         <v>15</v>
       </c>
-      <c r="H117" s="30" t="s">
-        <v>18</v>
+      <c r="H117" s="22" t="s">
+        <v>21</v>
       </c>
       <c r="I117" s="32"/>
     </row>
@@ -6873,7 +6464,7 @@
         <v>31</v>
       </c>
       <c r="C118" s="20" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="D118" s="30"/>
       <c r="E118" s="30" t="s">
@@ -6885,45 +6476,45 @@
       <c r="G118" s="30" t="s">
         <v>15</v>
       </c>
-      <c r="H118" s="30" t="s">
-        <v>18</v>
+      <c r="H118" s="22" t="s">
+        <v>20</v>
       </c>
       <c r="I118" s="32"/>
     </row>
     <row r="119" spans="1:9">
       <c r="A119" s="22" t="s">
-        <v>476</v>
-      </c>
-      <c r="B119" s="31" t="s">
+        <v>475</v>
+      </c>
+      <c r="B119" s="24" t="s">
         <v>31</v>
       </c>
-      <c r="C119" s="46" t="s">
-        <v>475</v>
-      </c>
-      <c r="D119" s="44"/>
-      <c r="E119" s="44" t="s">
-        <v>19</v>
-      </c>
-      <c r="F119" s="44" t="s">
-        <v>3</v>
-      </c>
-      <c r="G119" s="44" t="s">
-        <v>15</v>
-      </c>
-      <c r="H119" s="44" t="s">
-        <v>18</v>
-      </c>
-      <c r="I119" s="46"/>
+      <c r="C119" s="35" t="s">
+        <v>474</v>
+      </c>
+      <c r="D119" s="33"/>
+      <c r="E119" s="33" t="s">
+        <v>19</v>
+      </c>
+      <c r="F119" s="33" t="s">
+        <v>3</v>
+      </c>
+      <c r="G119" s="33" t="s">
+        <v>15</v>
+      </c>
+      <c r="H119" s="33" t="s">
+        <v>20</v>
+      </c>
+      <c r="I119" s="35"/>
     </row>
     <row r="120" spans="1:9">
-      <c r="A120" s="30" t="s">
+      <c r="A120" s="22" t="s">
         <v>138</v>
       </c>
       <c r="B120" s="31" t="s">
         <v>31</v>
       </c>
       <c r="C120" s="32" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="D120" s="30"/>
       <c r="E120" s="30" t="s">
@@ -6935,8 +6526,8 @@
       <c r="G120" s="30" t="s">
         <v>15</v>
       </c>
-      <c r="H120" s="30" t="s">
-        <v>18</v>
+      <c r="H120" s="22" t="s">
+        <v>21</v>
       </c>
       <c r="I120" s="32"/>
     </row>
@@ -6948,7 +6539,7 @@
         <v>31</v>
       </c>
       <c r="C121" s="20" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="D121" s="30"/>
       <c r="E121" s="30" t="s">
@@ -6960,190 +6551,190 @@
       <c r="G121" s="30" t="s">
         <v>15</v>
       </c>
-      <c r="H121" s="30" t="s">
-        <v>18</v>
+      <c r="H121" s="22" t="s">
+        <v>20</v>
       </c>
       <c r="I121" s="32"/>
     </row>
     <row r="122" spans="1:9" ht="30">
       <c r="A122" s="22" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="B122" s="31" t="s">
         <v>31</v>
       </c>
-      <c r="C122" s="46" t="s">
-        <v>477</v>
-      </c>
-      <c r="D122" s="44"/>
-      <c r="E122" s="44" t="s">
-        <v>19</v>
-      </c>
-      <c r="F122" s="44" t="s">
-        <v>3</v>
-      </c>
-      <c r="G122" s="44" t="s">
-        <v>15</v>
-      </c>
-      <c r="H122" s="44" t="s">
+      <c r="C122" s="35" t="s">
+        <v>476</v>
+      </c>
+      <c r="D122" s="33"/>
+      <c r="E122" s="33" t="s">
+        <v>19</v>
+      </c>
+      <c r="F122" s="33" t="s">
+        <v>3</v>
+      </c>
+      <c r="G122" s="33" t="s">
+        <v>15</v>
+      </c>
+      <c r="H122" s="33" t="s">
         <v>18</v>
       </c>
-      <c r="I122" s="46"/>
+      <c r="I122" s="35"/>
     </row>
     <row r="123" spans="1:9" ht="30">
       <c r="A123" s="22" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="B123" s="31" t="s">
         <v>31</v>
       </c>
-      <c r="C123" s="46" t="s">
-        <v>479</v>
-      </c>
-      <c r="D123" s="44"/>
-      <c r="E123" s="44" t="s">
-        <v>19</v>
-      </c>
-      <c r="F123" s="44" t="s">
-        <v>3</v>
-      </c>
-      <c r="G123" s="44" t="s">
-        <v>15</v>
-      </c>
-      <c r="H123" s="44" t="s">
+      <c r="C123" s="35" t="s">
+        <v>478</v>
+      </c>
+      <c r="D123" s="33"/>
+      <c r="E123" s="33" t="s">
+        <v>19</v>
+      </c>
+      <c r="F123" s="33" t="s">
+        <v>3</v>
+      </c>
+      <c r="G123" s="33" t="s">
+        <v>15</v>
+      </c>
+      <c r="H123" s="33" t="s">
         <v>21</v>
       </c>
-      <c r="I123" s="46"/>
+      <c r="I123" s="35"/>
     </row>
     <row r="124" spans="1:9" ht="45">
       <c r="A124" s="22" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="B124" s="31" t="s">
         <v>31</v>
       </c>
-      <c r="C124" s="46" t="s">
-        <v>480</v>
-      </c>
-      <c r="D124" s="44"/>
-      <c r="E124" s="44" t="s">
-        <v>19</v>
-      </c>
-      <c r="F124" s="44" t="s">
-        <v>3</v>
-      </c>
-      <c r="G124" s="44" t="s">
-        <v>15</v>
-      </c>
-      <c r="H124" s="44" t="s">
+      <c r="C124" s="35" t="s">
+        <v>479</v>
+      </c>
+      <c r="D124" s="33"/>
+      <c r="E124" s="33" t="s">
+        <v>19</v>
+      </c>
+      <c r="F124" s="33" t="s">
+        <v>3</v>
+      </c>
+      <c r="G124" s="33" t="s">
+        <v>15</v>
+      </c>
+      <c r="H124" s="33" t="s">
         <v>17</v>
       </c>
-      <c r="I124" s="46" t="s">
-        <v>560</v>
+      <c r="I124" s="35" t="s">
+        <v>564</v>
       </c>
     </row>
     <row r="125" spans="1:9" ht="30">
       <c r="A125" s="22" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="B125" s="31" t="s">
         <v>31</v>
       </c>
-      <c r="C125" s="46" t="s">
-        <v>481</v>
-      </c>
-      <c r="D125" s="44"/>
-      <c r="E125" s="44" t="s">
-        <v>19</v>
-      </c>
-      <c r="F125" s="44" t="s">
-        <v>3</v>
-      </c>
-      <c r="G125" s="44" t="s">
-        <v>15</v>
-      </c>
-      <c r="H125" s="44" t="s">
+      <c r="C125" s="35" t="s">
+        <v>480</v>
+      </c>
+      <c r="D125" s="33"/>
+      <c r="E125" s="33" t="s">
+        <v>19</v>
+      </c>
+      <c r="F125" s="33" t="s">
+        <v>3</v>
+      </c>
+      <c r="G125" s="33" t="s">
+        <v>15</v>
+      </c>
+      <c r="H125" s="33" t="s">
         <v>21</v>
       </c>
-      <c r="I125" s="46"/>
+      <c r="I125" s="35"/>
     </row>
     <row r="126" spans="1:9" ht="45">
       <c r="A126" s="22" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="B126" s="31" t="s">
         <v>31</v>
       </c>
-      <c r="C126" s="46" t="s">
-        <v>482</v>
-      </c>
-      <c r="D126" s="44"/>
-      <c r="E126" s="44" t="s">
-        <v>19</v>
-      </c>
-      <c r="F126" s="44" t="s">
-        <v>3</v>
-      </c>
-      <c r="G126" s="44" t="s">
-        <v>15</v>
-      </c>
-      <c r="H126" s="44" t="s">
+      <c r="C126" s="35" t="s">
+        <v>481</v>
+      </c>
+      <c r="D126" s="33"/>
+      <c r="E126" s="33" t="s">
+        <v>19</v>
+      </c>
+      <c r="F126" s="33" t="s">
+        <v>3</v>
+      </c>
+      <c r="G126" s="33" t="s">
+        <v>15</v>
+      </c>
+      <c r="H126" s="33" t="s">
         <v>17</v>
       </c>
-      <c r="I126" s="46" t="s">
-        <v>562</v>
+      <c r="I126" s="35" t="s">
+        <v>560</v>
       </c>
     </row>
     <row r="127" spans="1:9" ht="30">
       <c r="A127" s="22" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="B127" s="31" t="s">
         <v>31</v>
       </c>
-      <c r="C127" s="46" t="s">
-        <v>483</v>
-      </c>
-      <c r="D127" s="44"/>
-      <c r="E127" s="44" t="s">
-        <v>19</v>
-      </c>
-      <c r="F127" s="44" t="s">
-        <v>3</v>
-      </c>
-      <c r="G127" s="44" t="s">
-        <v>15</v>
-      </c>
-      <c r="H127" s="44" t="s">
+      <c r="C127" s="35" t="s">
+        <v>482</v>
+      </c>
+      <c r="D127" s="33"/>
+      <c r="E127" s="33" t="s">
+        <v>19</v>
+      </c>
+      <c r="F127" s="33" t="s">
+        <v>3</v>
+      </c>
+      <c r="G127" s="33" t="s">
+        <v>15</v>
+      </c>
+      <c r="H127" s="33" t="s">
         <v>21</v>
       </c>
-      <c r="I127" s="46"/>
+      <c r="I127" s="35"/>
     </row>
     <row r="128" spans="1:9" ht="45">
       <c r="A128" s="22" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="B128" s="31" t="s">
         <v>31</v>
       </c>
-      <c r="C128" s="46" t="s">
-        <v>484</v>
-      </c>
-      <c r="D128" s="44"/>
-      <c r="E128" s="44" t="s">
-        <v>19</v>
-      </c>
-      <c r="F128" s="44" t="s">
-        <v>3</v>
-      </c>
-      <c r="G128" s="44" t="s">
-        <v>15</v>
-      </c>
-      <c r="H128" s="44" t="s">
+      <c r="C128" s="35" t="s">
+        <v>483</v>
+      </c>
+      <c r="D128" s="33"/>
+      <c r="E128" s="33" t="s">
+        <v>19</v>
+      </c>
+      <c r="F128" s="33" t="s">
+        <v>3</v>
+      </c>
+      <c r="G128" s="33" t="s">
+        <v>15</v>
+      </c>
+      <c r="H128" s="33" t="s">
         <v>17</v>
       </c>
-      <c r="I128" s="46" t="s">
-        <v>564</v>
+      <c r="I128" s="35" t="s">
+        <v>562</v>
       </c>
     </row>
     <row r="129" spans="1:9" ht="30">
@@ -7154,7 +6745,7 @@
         <v>258</v>
       </c>
       <c r="C129" s="32" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="D129" s="30"/>
       <c r="E129" s="30" t="s">
@@ -7179,7 +6770,7 @@
         <v>258</v>
       </c>
       <c r="C130" s="32" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="D130" s="30"/>
       <c r="E130" s="30" t="s">
@@ -7204,7 +6795,7 @@
         <v>258</v>
       </c>
       <c r="C131" s="32" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="D131" s="30"/>
       <c r="E131" s="30" t="s">
@@ -7229,7 +6820,7 @@
         <v>259</v>
       </c>
       <c r="C132" s="32" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="D132" s="30"/>
       <c r="E132" s="30" t="s">
@@ -7254,7 +6845,7 @@
         <v>259</v>
       </c>
       <c r="C133" s="32" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="D133" s="30"/>
       <c r="E133" s="30" t="s">
@@ -7279,7 +6870,7 @@
         <v>259</v>
       </c>
       <c r="C134" s="32" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="D134" s="30"/>
       <c r="E134" s="30" t="s">
@@ -7304,7 +6895,7 @@
         <v>259</v>
       </c>
       <c r="C135" s="20" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="D135" s="30"/>
       <c r="E135" s="30" t="s">
@@ -7329,7 +6920,7 @@
         <v>259</v>
       </c>
       <c r="C136" s="32" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="D136" s="30"/>
       <c r="E136" s="30" t="s">
@@ -7354,7 +6945,7 @@
         <v>259</v>
       </c>
       <c r="C137" s="32" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="D137" s="30"/>
       <c r="E137" s="30" t="s">
@@ -7379,7 +6970,7 @@
         <v>259</v>
       </c>
       <c r="C138" s="20" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="D138" s="30"/>
       <c r="E138" s="30" t="s">
@@ -7404,7 +6995,7 @@
         <v>259</v>
       </c>
       <c r="C139" s="20" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="D139" s="30"/>
       <c r="E139" s="30" t="s">
@@ -7429,7 +7020,7 @@
         <v>259</v>
       </c>
       <c r="C140" s="20" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="D140" s="30"/>
       <c r="E140" s="30" t="s">
@@ -7454,7 +7045,7 @@
         <v>259</v>
       </c>
       <c r="C141" s="20" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="D141" s="30"/>
       <c r="E141" s="30" t="s">
@@ -7479,7 +7070,7 @@
         <v>259</v>
       </c>
       <c r="C142" s="20" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="D142" s="30"/>
       <c r="E142" s="30" t="s">
@@ -7504,7 +7095,7 @@
         <v>259</v>
       </c>
       <c r="C143" s="20" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="D143" s="30"/>
       <c r="E143" s="30" t="s">
@@ -7529,7 +7120,7 @@
         <v>260</v>
       </c>
       <c r="C144" s="32" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="D144" s="30"/>
       <c r="E144" s="30" t="s">
@@ -7554,7 +7145,7 @@
         <v>261</v>
       </c>
       <c r="C145" s="32" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="D145" s="30"/>
       <c r="E145" s="30" t="s">
@@ -7579,7 +7170,7 @@
         <v>262</v>
       </c>
       <c r="C146" s="32" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="D146" s="30"/>
       <c r="E146" s="30" t="s">
@@ -7604,7 +7195,7 @@
         <v>263</v>
       </c>
       <c r="C147" s="32" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="D147" s="30"/>
       <c r="E147" s="30" t="s">
@@ -7629,7 +7220,7 @@
         <v>263</v>
       </c>
       <c r="C148" s="32" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="D148" s="30"/>
       <c r="E148" s="30" t="s">
@@ -7654,7 +7245,7 @@
         <v>263</v>
       </c>
       <c r="C149" s="32" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="D149" s="30"/>
       <c r="E149" s="30" t="s">
@@ -7679,7 +7270,7 @@
         <v>264</v>
       </c>
       <c r="C150" s="20" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="D150" s="30"/>
       <c r="E150" s="30" t="s">
@@ -7704,7 +7295,7 @@
         <v>264</v>
       </c>
       <c r="C151" s="32" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="D151" s="30"/>
       <c r="E151" s="30" t="s">
@@ -7729,7 +7320,7 @@
         <v>265</v>
       </c>
       <c r="C152" s="32" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="D152" s="30"/>
       <c r="E152" s="30" t="s">
@@ -7754,7 +7345,7 @@
         <v>265</v>
       </c>
       <c r="C153" s="32" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="D153" s="30"/>
       <c r="E153" s="30" t="s">
@@ -7779,7 +7370,7 @@
         <v>265</v>
       </c>
       <c r="C154" s="32" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="D154" s="30"/>
       <c r="E154" s="30" t="s">
@@ -7804,7 +7395,7 @@
         <v>266</v>
       </c>
       <c r="C155" s="32" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="D155" s="30"/>
       <c r="E155" s="30" t="s">
@@ -7829,7 +7420,7 @@
         <v>266</v>
       </c>
       <c r="C156" s="20" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="D156" s="30"/>
       <c r="E156" s="30" t="s">
@@ -7854,7 +7445,7 @@
         <v>266</v>
       </c>
       <c r="C157" s="20" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="D157" s="30"/>
       <c r="E157" s="30" t="s">
@@ -7879,7 +7470,7 @@
         <v>266</v>
       </c>
       <c r="C158" s="20" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="D158" s="30"/>
       <c r="E158" s="30" t="s">
@@ -7904,7 +7495,7 @@
         <v>266</v>
       </c>
       <c r="C159" s="20" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="D159" s="30"/>
       <c r="E159" s="30" t="s">
@@ -7929,7 +7520,7 @@
         <v>266</v>
       </c>
       <c r="C160" s="20" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="D160" s="30"/>
       <c r="E160" s="30" t="s">
@@ -7954,7 +7545,7 @@
         <v>266</v>
       </c>
       <c r="C161" s="20" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="D161" s="30"/>
       <c r="E161" s="30" t="s">
@@ -7979,7 +7570,7 @@
         <v>266</v>
       </c>
       <c r="C162" s="20" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="D162" s="30"/>
       <c r="E162" s="30" t="s">
@@ -8004,7 +7595,7 @@
         <v>32</v>
       </c>
       <c r="C163" s="20" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="D163" s="30"/>
       <c r="E163" s="30" t="s">
@@ -8029,7 +7620,7 @@
         <v>32</v>
       </c>
       <c r="C164" s="32" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="D164" s="30"/>
       <c r="E164" s="30" t="s">
@@ -8054,7 +7645,7 @@
         <v>32</v>
       </c>
       <c r="C165" s="32" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="D165" s="30"/>
       <c r="E165" s="30" t="s">
@@ -8079,7 +7670,7 @@
         <v>32</v>
       </c>
       <c r="C166" s="32" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="D166" s="30"/>
       <c r="E166" s="30" t="s">
@@ -8104,7 +7695,7 @@
         <v>32</v>
       </c>
       <c r="C167" s="20" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="D167" s="30"/>
       <c r="E167" s="30" t="s">
@@ -8129,7 +7720,7 @@
         <v>32</v>
       </c>
       <c r="C168" s="20" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="D168" s="30"/>
       <c r="E168" s="30" t="s">
@@ -8148,53 +7739,53 @@
     </row>
     <row r="169" spans="1:9" ht="45">
       <c r="A169" s="22" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="B169" s="24" t="s">
         <v>32</v>
       </c>
-      <c r="C169" s="46" t="s">
-        <v>507</v>
-      </c>
-      <c r="D169" s="44"/>
-      <c r="E169" s="44" t="s">
-        <v>19</v>
-      </c>
-      <c r="F169" s="44" t="s">
-        <v>3</v>
-      </c>
-      <c r="G169" s="44" t="s">
-        <v>15</v>
-      </c>
-      <c r="H169" s="44" t="s">
+      <c r="C169" s="35" t="s">
+        <v>506</v>
+      </c>
+      <c r="D169" s="33"/>
+      <c r="E169" s="33" t="s">
+        <v>19</v>
+      </c>
+      <c r="F169" s="33" t="s">
+        <v>3</v>
+      </c>
+      <c r="G169" s="33" t="s">
+        <v>15</v>
+      </c>
+      <c r="H169" s="33" t="s">
         <v>20</v>
       </c>
-      <c r="I169" s="46"/>
+      <c r="I169" s="35"/>
     </row>
     <row r="170" spans="1:9" ht="45">
       <c r="A170" s="22" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="B170" s="24" t="s">
         <v>32</v>
       </c>
-      <c r="C170" s="46" t="s">
-        <v>518</v>
-      </c>
-      <c r="D170" s="44"/>
-      <c r="E170" s="44" t="s">
-        <v>19</v>
-      </c>
-      <c r="F170" s="44" t="s">
-        <v>3</v>
-      </c>
-      <c r="G170" s="44" t="s">
-        <v>15</v>
-      </c>
-      <c r="H170" s="44" t="s">
+      <c r="C170" s="35" t="s">
+        <v>517</v>
+      </c>
+      <c r="D170" s="33"/>
+      <c r="E170" s="33" t="s">
+        <v>19</v>
+      </c>
+      <c r="F170" s="33" t="s">
+        <v>3</v>
+      </c>
+      <c r="G170" s="33" t="s">
+        <v>15</v>
+      </c>
+      <c r="H170" s="33" t="s">
         <v>20</v>
       </c>
-      <c r="I170" s="46"/>
+      <c r="I170" s="35"/>
     </row>
     <row r="171" spans="1:9" ht="30">
       <c r="A171" s="30" t="s">
@@ -8204,7 +7795,7 @@
         <v>32</v>
       </c>
       <c r="C171" s="20" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="D171" s="30"/>
       <c r="E171" s="30" t="s">
@@ -8229,7 +7820,7 @@
         <v>33</v>
       </c>
       <c r="C172" s="20" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="D172" s="30"/>
       <c r="E172" s="30" t="s">
@@ -8254,7 +7845,7 @@
         <v>33</v>
       </c>
       <c r="C173" s="32" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="D173" s="30"/>
       <c r="E173" s="30" t="s">
@@ -8279,7 +7870,7 @@
         <v>33</v>
       </c>
       <c r="C174" s="32" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="D174" s="30"/>
       <c r="E174" s="30" t="s">
@@ -8304,7 +7895,7 @@
         <v>33</v>
       </c>
       <c r="C175" s="32" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="D175" s="30"/>
       <c r="E175" s="30" t="s">
@@ -8329,7 +7920,7 @@
         <v>33</v>
       </c>
       <c r="C176" s="20" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="D176" s="30"/>
       <c r="E176" s="30" t="s">
@@ -8354,7 +7945,7 @@
         <v>33</v>
       </c>
       <c r="C177" s="20" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="D177" s="30"/>
       <c r="E177" s="30" t="s">
@@ -8373,53 +7964,53 @@
     </row>
     <row r="178" spans="1:9" ht="45">
       <c r="A178" s="22" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="B178" s="24" t="s">
         <v>33</v>
       </c>
-      <c r="C178" s="46" t="s">
-        <v>514</v>
-      </c>
-      <c r="D178" s="44"/>
-      <c r="E178" s="44" t="s">
-        <v>19</v>
-      </c>
-      <c r="F178" s="44" t="s">
-        <v>3</v>
-      </c>
-      <c r="G178" s="44" t="s">
-        <v>15</v>
-      </c>
-      <c r="H178" s="44" t="s">
+      <c r="C178" s="35" t="s">
+        <v>513</v>
+      </c>
+      <c r="D178" s="33"/>
+      <c r="E178" s="33" t="s">
+        <v>19</v>
+      </c>
+      <c r="F178" s="33" t="s">
+        <v>3</v>
+      </c>
+      <c r="G178" s="33" t="s">
+        <v>15</v>
+      </c>
+      <c r="H178" s="33" t="s">
         <v>20</v>
       </c>
-      <c r="I178" s="46"/>
+      <c r="I178" s="35"/>
     </row>
     <row r="179" spans="1:9" ht="60">
       <c r="A179" s="22" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="B179" s="24" t="s">
         <v>33</v>
       </c>
-      <c r="C179" s="46" t="s">
-        <v>515</v>
-      </c>
-      <c r="D179" s="44"/>
-      <c r="E179" s="44" t="s">
-        <v>19</v>
-      </c>
-      <c r="F179" s="44" t="s">
-        <v>3</v>
-      </c>
-      <c r="G179" s="44" t="s">
-        <v>15</v>
-      </c>
-      <c r="H179" s="44" t="s">
+      <c r="C179" s="35" t="s">
+        <v>514</v>
+      </c>
+      <c r="D179" s="33"/>
+      <c r="E179" s="33" t="s">
+        <v>19</v>
+      </c>
+      <c r="F179" s="33" t="s">
+        <v>3</v>
+      </c>
+      <c r="G179" s="33" t="s">
+        <v>15</v>
+      </c>
+      <c r="H179" s="33" t="s">
         <v>20</v>
       </c>
-      <c r="I179" s="46"/>
+      <c r="I179" s="35"/>
     </row>
     <row r="180" spans="1:9" ht="30">
       <c r="A180" s="30" t="s">
@@ -8429,7 +8020,7 @@
         <v>33</v>
       </c>
       <c r="C180" s="20" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="D180" s="30"/>
       <c r="E180" s="30" t="s">
@@ -8454,7 +8045,7 @@
         <v>267</v>
       </c>
       <c r="C181" s="20" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="D181" s="30"/>
       <c r="E181" s="30" t="s">
@@ -8479,7 +8070,7 @@
         <v>267</v>
       </c>
       <c r="C182" s="32" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="D182" s="30"/>
       <c r="E182" s="30" t="s">
@@ -8504,7 +8095,7 @@
         <v>267</v>
       </c>
       <c r="C183" s="32" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="D183" s="30"/>
       <c r="E183" s="30" t="s">
@@ -8529,7 +8120,7 @@
         <v>267</v>
       </c>
       <c r="C184" s="20" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="D184" s="30"/>
       <c r="E184" s="30" t="s">
@@ -8554,7 +8145,7 @@
         <v>267</v>
       </c>
       <c r="C185" s="20" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="D185" s="30"/>
       <c r="E185" s="30" t="s">
@@ -8579,7 +8170,7 @@
         <v>267</v>
       </c>
       <c r="C186" s="20" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="D186" s="30"/>
       <c r="E186" s="30" t="s">
@@ -8598,53 +8189,53 @@
     </row>
     <row r="187" spans="1:9" ht="45">
       <c r="A187" s="22" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="B187" s="24" t="s">
         <v>267</v>
       </c>
-      <c r="C187" s="46" t="s">
-        <v>523</v>
-      </c>
-      <c r="D187" s="44"/>
+      <c r="C187" s="35" t="s">
+        <v>522</v>
+      </c>
+      <c r="D187" s="33"/>
       <c r="E187" s="30" t="s">
         <v>19</v>
       </c>
       <c r="F187" s="30" t="s">
         <v>3</v>
       </c>
-      <c r="G187" s="44" t="s">
-        <v>15</v>
-      </c>
-      <c r="H187" s="44" t="s">
+      <c r="G187" s="33" t="s">
+        <v>15</v>
+      </c>
+      <c r="H187" s="33" t="s">
         <v>20</v>
       </c>
-      <c r="I187" s="46"/>
+      <c r="I187" s="35"/>
     </row>
     <row r="188" spans="1:9" ht="60">
       <c r="A188" s="22" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="B188" s="24" t="s">
         <v>267</v>
       </c>
-      <c r="C188" s="46" t="s">
-        <v>524</v>
-      </c>
-      <c r="D188" s="44"/>
+      <c r="C188" s="35" t="s">
+        <v>523</v>
+      </c>
+      <c r="D188" s="33"/>
       <c r="E188" s="30" t="s">
         <v>19</v>
       </c>
       <c r="F188" s="30" t="s">
         <v>3</v>
       </c>
-      <c r="G188" s="44" t="s">
-        <v>15</v>
-      </c>
-      <c r="H188" s="44" t="s">
+      <c r="G188" s="33" t="s">
+        <v>15</v>
+      </c>
+      <c r="H188" s="33" t="s">
         <v>20</v>
       </c>
-      <c r="I188" s="46"/>
+      <c r="I188" s="35"/>
     </row>
     <row r="189" spans="1:9" ht="30">
       <c r="A189" s="30" t="s">
@@ -8654,7 +8245,7 @@
         <v>267</v>
       </c>
       <c r="C189" s="20" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="D189" s="30"/>
       <c r="E189" s="30" t="s">
@@ -8679,7 +8270,7 @@
         <v>268</v>
       </c>
       <c r="C190" s="20" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="D190" s="30"/>
       <c r="E190" s="30" t="s">
@@ -8704,7 +8295,7 @@
         <v>268</v>
       </c>
       <c r="C191" s="32" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="D191" s="30"/>
       <c r="E191" s="30" t="s">
@@ -8729,7 +8320,7 @@
         <v>268</v>
       </c>
       <c r="C192" s="32" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="D192" s="30"/>
       <c r="E192" s="30" t="s">
@@ -8754,7 +8345,7 @@
         <v>268</v>
       </c>
       <c r="C193" s="32" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="D193" s="30"/>
       <c r="E193" s="30" t="s">
@@ -8779,7 +8370,7 @@
         <v>268</v>
       </c>
       <c r="C194" s="32" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="D194" s="30"/>
       <c r="E194" s="30" t="s">
@@ -8804,7 +8395,7 @@
         <v>268</v>
       </c>
       <c r="C195" s="32" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="D195" s="30"/>
       <c r="E195" s="30" t="s">
@@ -8829,7 +8420,7 @@
         <v>268</v>
       </c>
       <c r="C196" s="32" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="D196" s="30"/>
       <c r="E196" s="30" t="s">
@@ -8854,7 +8445,7 @@
         <v>268</v>
       </c>
       <c r="C197" s="32" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="D197" s="30"/>
       <c r="E197" s="30" t="s">
@@ -8879,7 +8470,7 @@
         <v>268</v>
       </c>
       <c r="C198" s="32" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="D198" s="30"/>
       <c r="E198" s="30" t="s">
@@ -8904,7 +8495,7 @@
         <v>268</v>
       </c>
       <c r="C199" s="32" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="D199" s="30"/>
       <c r="E199" s="30" t="s">
@@ -8929,7 +8520,7 @@
         <v>268</v>
       </c>
       <c r="C200" s="32" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="D200" s="30"/>
       <c r="E200" s="30" t="s">
@@ -8954,7 +8545,7 @@
         <v>268</v>
       </c>
       <c r="C201" s="32" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="D201" s="30"/>
       <c r="E201" s="30" t="s">
@@ -8966,8 +8557,8 @@
       <c r="G201" s="30" t="s">
         <v>15</v>
       </c>
-      <c r="H201" s="30" t="s">
-        <v>18</v>
+      <c r="H201" s="22" t="s">
+        <v>20</v>
       </c>
       <c r="I201" s="32"/>
     </row>
@@ -8979,7 +8570,7 @@
         <v>268</v>
       </c>
       <c r="C202" s="32" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="D202" s="30"/>
       <c r="E202" s="30" t="s">
@@ -8996,7 +8587,7 @@
       </c>
       <c r="I202" s="32"/>
     </row>
-    <row r="203" spans="1:9" ht="30">
+    <row r="203" spans="1:9" ht="60">
       <c r="A203" s="30" t="s">
         <v>194</v>
       </c>
@@ -9004,7 +8595,7 @@
         <v>268</v>
       </c>
       <c r="C203" s="32" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="D203" s="30"/>
       <c r="E203" s="30" t="s">
@@ -9016,10 +8607,12 @@
       <c r="G203" s="30" t="s">
         <v>15</v>
       </c>
-      <c r="H203" s="30" t="s">
-        <v>18</v>
-      </c>
-      <c r="I203" s="32"/>
+      <c r="H203" s="22" t="s">
+        <v>17</v>
+      </c>
+      <c r="I203" s="20" t="s">
+        <v>566</v>
+      </c>
     </row>
     <row r="204" spans="1:9" ht="30">
       <c r="A204" s="30" t="s">
@@ -9029,7 +8622,7 @@
         <v>268</v>
       </c>
       <c r="C204" s="32" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="D204" s="30"/>
       <c r="E204" s="30" t="s">
@@ -9041,10 +8634,12 @@
       <c r="G204" s="30" t="s">
         <v>15</v>
       </c>
-      <c r="H204" s="30" t="s">
-        <v>18</v>
-      </c>
-      <c r="I204" s="32"/>
+      <c r="H204" s="22" t="s">
+        <v>17</v>
+      </c>
+      <c r="I204" s="20" t="s">
+        <v>575</v>
+      </c>
     </row>
     <row r="205" spans="1:9" ht="30">
       <c r="A205" s="30" t="s">
@@ -9054,7 +8649,7 @@
         <v>268</v>
       </c>
       <c r="C205" s="32" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="D205" s="30"/>
       <c r="E205" s="30" t="s">
@@ -9066,10 +8661,10 @@
       <c r="G205" s="30" t="s">
         <v>15</v>
       </c>
-      <c r="H205" s="30" t="s">
+      <c r="H205" s="22" t="s">
         <v>18</v>
       </c>
-      <c r="I205" s="32"/>
+      <c r="I205" s="20"/>
     </row>
     <row r="206" spans="1:9" ht="30">
       <c r="A206" s="30" t="s">
@@ -9079,7 +8674,7 @@
         <v>268</v>
       </c>
       <c r="C206" s="32" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="D206" s="30"/>
       <c r="E206" s="30" t="s">
@@ -9091,10 +8686,12 @@
       <c r="G206" s="30" t="s">
         <v>15</v>
       </c>
-      <c r="H206" s="30" t="s">
-        <v>18</v>
-      </c>
-      <c r="I206" s="32"/>
+      <c r="H206" s="22" t="s">
+        <v>17</v>
+      </c>
+      <c r="I206" s="20" t="s">
+        <v>578</v>
+      </c>
     </row>
     <row r="207" spans="1:9" ht="30">
       <c r="A207" s="30" t="s">
@@ -9104,7 +8701,7 @@
         <v>268</v>
       </c>
       <c r="C207" s="32" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="D207" s="30"/>
       <c r="E207" s="30" t="s">
@@ -9129,7 +8726,7 @@
         <v>268</v>
       </c>
       <c r="C208" s="20" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="D208" s="30"/>
       <c r="E208" s="30" t="s">
@@ -9154,7 +8751,7 @@
         <v>268</v>
       </c>
       <c r="C209" s="20" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="D209" s="30"/>
       <c r="E209" s="30" t="s">
@@ -9173,53 +8770,53 @@
     </row>
     <row r="210" spans="1:9" ht="45">
       <c r="A210" s="22" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="B210" s="24" t="s">
         <v>268</v>
       </c>
-      <c r="C210" s="46" t="s">
-        <v>530</v>
-      </c>
-      <c r="D210" s="44"/>
+      <c r="C210" s="35" t="s">
+        <v>529</v>
+      </c>
+      <c r="D210" s="33"/>
       <c r="E210" s="30" t="s">
         <v>19</v>
       </c>
       <c r="F210" s="30" t="s">
         <v>3</v>
       </c>
-      <c r="G210" s="44" t="s">
-        <v>15</v>
-      </c>
-      <c r="H210" s="44" t="s">
+      <c r="G210" s="33" t="s">
+        <v>15</v>
+      </c>
+      <c r="H210" s="33" t="s">
         <v>20</v>
       </c>
-      <c r="I210" s="46"/>
+      <c r="I210" s="35"/>
     </row>
     <row r="211" spans="1:9" ht="45">
       <c r="A211" s="22" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="B211" s="24" t="s">
         <v>268</v>
       </c>
-      <c r="C211" s="46" t="s">
-        <v>531</v>
-      </c>
-      <c r="D211" s="44"/>
+      <c r="C211" s="35" t="s">
+        <v>530</v>
+      </c>
+      <c r="D211" s="33"/>
       <c r="E211" s="30" t="s">
         <v>19</v>
       </c>
       <c r="F211" s="30" t="s">
         <v>3</v>
       </c>
-      <c r="G211" s="44" t="s">
-        <v>15</v>
-      </c>
-      <c r="H211" s="44" t="s">
+      <c r="G211" s="33" t="s">
+        <v>15</v>
+      </c>
+      <c r="H211" s="33" t="s">
         <v>20</v>
       </c>
-      <c r="I211" s="46"/>
+      <c r="I211" s="35"/>
     </row>
     <row r="212" spans="1:9" ht="30">
       <c r="A212" s="30" t="s">
@@ -9229,7 +8826,7 @@
         <v>268</v>
       </c>
       <c r="C212" s="20" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="D212" s="30"/>
       <c r="E212" s="30" t="s">
@@ -9254,7 +8851,7 @@
         <v>269</v>
       </c>
       <c r="C213" s="20" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="D213" s="30"/>
       <c r="E213" s="30" t="s">
@@ -9279,7 +8876,7 @@
         <v>269</v>
       </c>
       <c r="C214" s="32" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="D214" s="30"/>
       <c r="E214" s="30" t="s">
@@ -9304,7 +8901,7 @@
         <v>269</v>
       </c>
       <c r="C215" s="32" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="D215" s="30"/>
       <c r="E215" s="30" t="s">
@@ -9329,7 +8926,7 @@
         <v>269</v>
       </c>
       <c r="C216" s="32" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="D216" s="30"/>
       <c r="E216" s="30" t="s">
@@ -9354,7 +8951,7 @@
         <v>269</v>
       </c>
       <c r="C217" s="20" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="D217" s="30"/>
       <c r="E217" s="30" t="s">
@@ -9379,7 +8976,7 @@
         <v>269</v>
       </c>
       <c r="C218" s="20" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="D218" s="30"/>
       <c r="E218" s="30" t="s">
@@ -9398,53 +8995,53 @@
     </row>
     <row r="219" spans="1:9" ht="45">
       <c r="A219" s="22" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="B219" s="31" t="s">
         <v>269</v>
       </c>
-      <c r="C219" s="46" t="s">
-        <v>537</v>
-      </c>
-      <c r="D219" s="44"/>
+      <c r="C219" s="35" t="s">
+        <v>536</v>
+      </c>
+      <c r="D219" s="33"/>
       <c r="E219" s="30" t="s">
         <v>19</v>
       </c>
       <c r="F219" s="30" t="s">
         <v>3</v>
       </c>
-      <c r="G219" s="44" t="s">
-        <v>15</v>
-      </c>
-      <c r="H219" s="44" t="s">
+      <c r="G219" s="33" t="s">
+        <v>15</v>
+      </c>
+      <c r="H219" s="33" t="s">
         <v>20</v>
       </c>
-      <c r="I219" s="46"/>
+      <c r="I219" s="35"/>
     </row>
     <row r="220" spans="1:9" ht="45">
       <c r="A220" s="22" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="B220" s="31" t="s">
         <v>269</v>
       </c>
-      <c r="C220" s="46" t="s">
-        <v>538</v>
-      </c>
-      <c r="D220" s="44"/>
+      <c r="C220" s="35" t="s">
+        <v>537</v>
+      </c>
+      <c r="D220" s="33"/>
       <c r="E220" s="30" t="s">
         <v>19</v>
       </c>
       <c r="F220" s="30" t="s">
         <v>3</v>
       </c>
-      <c r="G220" s="44" t="s">
-        <v>15</v>
-      </c>
-      <c r="H220" s="44" t="s">
+      <c r="G220" s="33" t="s">
+        <v>15</v>
+      </c>
+      <c r="H220" s="33" t="s">
         <v>20</v>
       </c>
-      <c r="I220" s="46"/>
+      <c r="I220" s="35"/>
     </row>
     <row r="221" spans="1:9" ht="30">
       <c r="A221" s="30" t="s">
@@ -9454,7 +9051,7 @@
         <v>269</v>
       </c>
       <c r="C221" s="20" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="D221" s="30"/>
       <c r="E221" s="30" t="s">
@@ -9479,7 +9076,7 @@
         <v>270</v>
       </c>
       <c r="C222" s="32" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="D222" s="30"/>
       <c r="E222" s="30" t="s">
@@ -9504,7 +9101,7 @@
         <v>270</v>
       </c>
       <c r="C223" s="32" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="D223" s="30"/>
       <c r="E223" s="30" t="s">
@@ -9529,7 +9126,7 @@
         <v>270</v>
       </c>
       <c r="C224" s="32" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="D224" s="30"/>
       <c r="E224" s="30" t="s">
@@ -9554,7 +9151,7 @@
         <v>270</v>
       </c>
       <c r="C225" s="32" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="D225" s="30"/>
       <c r="E225" s="30" t="s">
@@ -9579,7 +9176,7 @@
         <v>270</v>
       </c>
       <c r="C226" s="32" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="D226" s="30"/>
       <c r="E226" s="30" t="s">
@@ -9604,7 +9201,7 @@
         <v>270</v>
       </c>
       <c r="C227" s="32" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="D227" s="30"/>
       <c r="E227" s="30" t="s">
@@ -9629,7 +9226,7 @@
         <v>270</v>
       </c>
       <c r="C228" s="32" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="D228" s="30"/>
       <c r="E228" s="30" t="s">
@@ -9654,7 +9251,7 @@
         <v>271</v>
       </c>
       <c r="C229" s="20" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="D229" s="30"/>
       <c r="E229" s="30" t="s">
@@ -9679,7 +9276,7 @@
         <v>271</v>
       </c>
       <c r="C230" s="32" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="D230" s="30"/>
       <c r="E230" s="30" t="s">
@@ -9704,7 +9301,7 @@
         <v>271</v>
       </c>
       <c r="C231" s="32" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="D231" s="30"/>
       <c r="E231" s="30" t="s">
@@ -9729,7 +9326,7 @@
         <v>271</v>
       </c>
       <c r="C232" s="32" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="D232" s="30"/>
       <c r="E232" s="30" t="s">
@@ -9754,7 +9351,7 @@
         <v>271</v>
       </c>
       <c r="C233" s="32" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="D233" s="30"/>
       <c r="E233" s="30" t="s">
@@ -9779,7 +9376,7 @@
         <v>271</v>
       </c>
       <c r="C234" s="32" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="D234" s="30"/>
       <c r="E234" s="30" t="s">
@@ -9804,7 +9401,7 @@
         <v>271</v>
       </c>
       <c r="C235" s="32" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="D235" s="30"/>
       <c r="E235" s="30" t="s">
@@ -9829,7 +9426,7 @@
         <v>271</v>
       </c>
       <c r="C236" s="20" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="D236" s="30"/>
       <c r="E236" s="30" t="s">
@@ -9854,7 +9451,7 @@
         <v>271</v>
       </c>
       <c r="C237" s="20" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="D237" s="30"/>
       <c r="E237" s="30" t="s">
@@ -9873,53 +9470,53 @@
     </row>
     <row r="238" spans="1:9" ht="45">
       <c r="A238" s="22" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="B238" s="24" t="s">
         <v>271</v>
       </c>
-      <c r="C238" s="46" t="s">
-        <v>544</v>
-      </c>
-      <c r="D238" s="44"/>
+      <c r="C238" s="35" t="s">
+        <v>543</v>
+      </c>
+      <c r="D238" s="33"/>
       <c r="E238" s="30" t="s">
         <v>19</v>
       </c>
       <c r="F238" s="30" t="s">
         <v>3</v>
       </c>
-      <c r="G238" s="44" t="s">
-        <v>15</v>
-      </c>
-      <c r="H238" s="44" t="s">
+      <c r="G238" s="33" t="s">
+        <v>15</v>
+      </c>
+      <c r="H238" s="33" t="s">
         <v>20</v>
       </c>
-      <c r="I238" s="46"/>
+      <c r="I238" s="35"/>
     </row>
     <row r="239" spans="1:9" ht="60">
       <c r="A239" s="22" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="B239" s="24" t="s">
         <v>271</v>
       </c>
-      <c r="C239" s="46" t="s">
-        <v>545</v>
-      </c>
-      <c r="D239" s="44"/>
+      <c r="C239" s="35" t="s">
+        <v>544</v>
+      </c>
+      <c r="D239" s="33"/>
       <c r="E239" s="30" t="s">
         <v>19</v>
       </c>
       <c r="F239" s="30" t="s">
         <v>3</v>
       </c>
-      <c r="G239" s="44" t="s">
-        <v>15</v>
-      </c>
-      <c r="H239" s="44" t="s">
+      <c r="G239" s="33" t="s">
+        <v>15</v>
+      </c>
+      <c r="H239" s="33" t="s">
         <v>20</v>
       </c>
-      <c r="I239" s="46"/>
+      <c r="I239" s="35"/>
     </row>
     <row r="240" spans="1:9" ht="30">
       <c r="A240" s="30" t="s">
@@ -9929,7 +9526,7 @@
         <v>271</v>
       </c>
       <c r="C240" s="32" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="D240" s="30"/>
       <c r="E240" s="30" t="s">
@@ -9954,7 +9551,7 @@
         <v>272</v>
       </c>
       <c r="C241" s="32" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="D241" s="30"/>
       <c r="E241" s="30" t="s">
@@ -9979,10 +9576,10 @@
         <v>272</v>
       </c>
       <c r="C242" s="20" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="D242" s="30" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="E242" s="30" t="s">
         <v>22</v>
@@ -9997,7 +9594,7 @@
         <v>21</v>
       </c>
       <c r="I242" s="32" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
     </row>
     <row r="243" spans="1:9" ht="30">
@@ -10008,7 +9605,7 @@
         <v>272</v>
       </c>
       <c r="C243" s="32" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="D243" s="30"/>
       <c r="E243" s="30" t="s">
@@ -10027,16 +9624,16 @@
     </row>
     <row r="244" spans="1:9" ht="45">
       <c r="A244" s="22" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="B244" s="31" t="s">
         <v>272</v>
       </c>
-      <c r="C244" s="46" t="s">
-        <v>548</v>
-      </c>
-      <c r="D244" s="44" t="s">
-        <v>561</v>
+      <c r="C244" s="35" t="s">
+        <v>547</v>
+      </c>
+      <c r="D244" s="33" t="s">
+        <v>559</v>
       </c>
       <c r="E244" s="30" t="s">
         <v>22</v>
@@ -10044,26 +9641,26 @@
       <c r="F244" s="30" t="s">
         <v>3</v>
       </c>
-      <c r="G244" s="44" t="s">
-        <v>15</v>
-      </c>
-      <c r="H244" s="44" t="s">
+      <c r="G244" s="33" t="s">
+        <v>15</v>
+      </c>
+      <c r="H244" s="33" t="s">
         <v>18</v>
       </c>
-      <c r="I244" s="46"/>
+      <c r="I244" s="35"/>
     </row>
     <row r="245" spans="1:9" ht="45">
       <c r="A245" s="22" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="B245" s="31" t="s">
         <v>272</v>
       </c>
-      <c r="C245" s="46" t="s">
-        <v>549</v>
-      </c>
-      <c r="D245" s="44" t="s">
-        <v>561</v>
+      <c r="C245" s="35" t="s">
+        <v>548</v>
+      </c>
+      <c r="D245" s="33" t="s">
+        <v>559</v>
       </c>
       <c r="E245" s="30" t="s">
         <v>22</v>
@@ -10071,28 +9668,28 @@
       <c r="F245" s="30" t="s">
         <v>3</v>
       </c>
-      <c r="G245" s="44" t="s">
-        <v>15</v>
-      </c>
-      <c r="H245" s="44" t="s">
+      <c r="G245" s="33" t="s">
+        <v>15</v>
+      </c>
+      <c r="H245" s="33" t="s">
         <v>21</v>
       </c>
-      <c r="I245" s="46" t="s">
-        <v>441</v>
+      <c r="I245" s="35" t="s">
+        <v>440</v>
       </c>
     </row>
     <row r="246" spans="1:9" ht="45">
       <c r="A246" s="22" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="B246" s="31" t="s">
         <v>272</v>
       </c>
-      <c r="C246" s="46" t="s">
-        <v>553</v>
-      </c>
-      <c r="D246" s="44" t="s">
-        <v>563</v>
+      <c r="C246" s="35" t="s">
+        <v>552</v>
+      </c>
+      <c r="D246" s="33" t="s">
+        <v>561</v>
       </c>
       <c r="E246" s="30" t="s">
         <v>22</v>
@@ -10100,26 +9697,26 @@
       <c r="F246" s="30" t="s">
         <v>3</v>
       </c>
-      <c r="G246" s="44" t="s">
-        <v>15</v>
-      </c>
-      <c r="H246" s="44" t="s">
+      <c r="G246" s="33" t="s">
+        <v>15</v>
+      </c>
+      <c r="H246" s="33" t="s">
         <v>18</v>
       </c>
-      <c r="I246" s="46"/>
+      <c r="I246" s="35"/>
     </row>
     <row r="247" spans="1:9" ht="45">
       <c r="A247" s="22" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="B247" s="31" t="s">
         <v>272</v>
       </c>
-      <c r="C247" s="46" t="s">
-        <v>552</v>
-      </c>
-      <c r="D247" s="44" t="s">
-        <v>563</v>
+      <c r="C247" s="35" t="s">
+        <v>551</v>
+      </c>
+      <c r="D247" s="33" t="s">
+        <v>561</v>
       </c>
       <c r="E247" s="30" t="s">
         <v>22</v>
@@ -10127,28 +9724,28 @@
       <c r="F247" s="30" t="s">
         <v>3</v>
       </c>
-      <c r="G247" s="44" t="s">
-        <v>15</v>
-      </c>
-      <c r="H247" s="44" t="s">
+      <c r="G247" s="33" t="s">
+        <v>15</v>
+      </c>
+      <c r="H247" s="33" t="s">
         <v>21</v>
       </c>
-      <c r="I247" s="46" t="s">
-        <v>441</v>
+      <c r="I247" s="35" t="s">
+        <v>440</v>
       </c>
     </row>
     <row r="248" spans="1:9" ht="45">
       <c r="A248" s="22" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="B248" s="31" t="s">
         <v>272</v>
       </c>
-      <c r="C248" s="46" t="s">
-        <v>550</v>
-      </c>
-      <c r="D248" s="44" t="s">
-        <v>565</v>
+      <c r="C248" s="35" t="s">
+        <v>549</v>
+      </c>
+      <c r="D248" s="33" t="s">
+        <v>563</v>
       </c>
       <c r="E248" s="30" t="s">
         <v>22</v>
@@ -10156,26 +9753,26 @@
       <c r="F248" s="30" t="s">
         <v>3</v>
       </c>
-      <c r="G248" s="44" t="s">
-        <v>15</v>
-      </c>
-      <c r="H248" s="44" t="s">
+      <c r="G248" s="33" t="s">
+        <v>15</v>
+      </c>
+      <c r="H248" s="33" t="s">
         <v>18</v>
       </c>
-      <c r="I248" s="46"/>
+      <c r="I248" s="35"/>
     </row>
     <row r="249" spans="1:9" ht="45">
       <c r="A249" s="22" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="B249" s="31" t="s">
         <v>272</v>
       </c>
-      <c r="C249" s="46" t="s">
-        <v>551</v>
-      </c>
-      <c r="D249" s="44" t="s">
-        <v>565</v>
+      <c r="C249" s="35" t="s">
+        <v>550</v>
+      </c>
+      <c r="D249" s="33" t="s">
+        <v>563</v>
       </c>
       <c r="E249" s="30" t="s">
         <v>22</v>
@@ -10183,14 +9780,14 @@
       <c r="F249" s="30" t="s">
         <v>3</v>
       </c>
-      <c r="G249" s="44" t="s">
-        <v>15</v>
-      </c>
-      <c r="H249" s="44" t="s">
+      <c r="G249" s="33" t="s">
+        <v>15</v>
+      </c>
+      <c r="H249" s="33" t="s">
         <v>21</v>
       </c>
-      <c r="I249" s="46" t="s">
-        <v>441</v>
+      <c r="I249" s="35" t="s">
+        <v>440</v>
       </c>
     </row>
     <row r="250" spans="1:9" ht="180">
@@ -10201,7 +9798,7 @@
         <v>273</v>
       </c>
       <c r="C250" s="32" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="D250" s="30"/>
       <c r="E250" s="30" t="s">
@@ -10226,7 +9823,7 @@
         <v>273</v>
       </c>
       <c r="C251" s="32" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="D251" s="30"/>
       <c r="E251" s="30" t="s">
@@ -10251,7 +9848,7 @@
         <v>274</v>
       </c>
       <c r="C252" s="32" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="D252" s="30"/>
       <c r="E252" s="30" t="s">
@@ -10267,7 +9864,7 @@
         <v>17</v>
       </c>
       <c r="I252" s="32" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
     </row>
     <row r="253" spans="1:9" ht="105">
@@ -10278,7 +9875,7 @@
         <v>274</v>
       </c>
       <c r="C253" s="32" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="D253" s="30"/>
       <c r="E253" s="30" t="s">
@@ -10303,7 +9900,7 @@
         <v>275</v>
       </c>
       <c r="C254" s="32" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="D254" s="30"/>
       <c r="E254" s="30" t="s">
@@ -10328,7 +9925,7 @@
         <v>276</v>
       </c>
       <c r="C255" s="32" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="D255" s="30"/>
       <c r="E255" s="30" t="s">
@@ -10353,7 +9950,7 @@
         <v>277</v>
       </c>
       <c r="C256" s="32" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="D256" s="30"/>
       <c r="E256" s="30" t="s">
@@ -10370,13 +9967,143 @@
       </c>
       <c r="I256" s="32"/>
     </row>
-    <row r="257" spans="1:2">
-      <c r="A257" s="3"/>
-      <c r="B257" s="10"/>
-    </row>
-    <row r="258" spans="1:2">
-      <c r="A258" s="3"/>
-      <c r="B258" s="10"/>
+    <row r="257" spans="1:10" ht="30">
+      <c r="A257" s="22" t="s">
+        <v>567</v>
+      </c>
+      <c r="B257" s="24" t="s">
+        <v>568</v>
+      </c>
+      <c r="C257" s="20" t="s">
+        <v>569</v>
+      </c>
+      <c r="D257" s="22"/>
+      <c r="E257" s="22" t="s">
+        <v>19</v>
+      </c>
+      <c r="F257" s="22" t="s">
+        <v>3</v>
+      </c>
+      <c r="G257" s="22" t="s">
+        <v>15</v>
+      </c>
+      <c r="H257" s="22" t="s">
+        <v>20</v>
+      </c>
+      <c r="I257" s="20"/>
+      <c r="J257"/>
+    </row>
+    <row r="258" spans="1:10" ht="30">
+      <c r="A258" s="22" t="s">
+        <v>570</v>
+      </c>
+      <c r="B258" s="24" t="s">
+        <v>568</v>
+      </c>
+      <c r="C258" s="20" t="s">
+        <v>571</v>
+      </c>
+      <c r="D258" s="22" t="s">
+        <v>572</v>
+      </c>
+      <c r="E258" s="22" t="s">
+        <v>19</v>
+      </c>
+      <c r="F258" s="22" t="s">
+        <v>3</v>
+      </c>
+      <c r="G258" s="22" t="s">
+        <v>15</v>
+      </c>
+      <c r="H258" s="22" t="s">
+        <v>20</v>
+      </c>
+      <c r="I258" s="20"/>
+      <c r="J258"/>
+    </row>
+    <row r="259" spans="1:10" ht="30">
+      <c r="A259" s="22" t="s">
+        <v>573</v>
+      </c>
+      <c r="B259" s="24" t="s">
+        <v>568</v>
+      </c>
+      <c r="C259" s="20" t="s">
+        <v>574</v>
+      </c>
+      <c r="D259" s="22" t="s">
+        <v>572</v>
+      </c>
+      <c r="E259" s="22" t="s">
+        <v>19</v>
+      </c>
+      <c r="F259" s="22" t="s">
+        <v>3</v>
+      </c>
+      <c r="G259" s="22" t="s">
+        <v>15</v>
+      </c>
+      <c r="H259" s="22" t="s">
+        <v>20</v>
+      </c>
+      <c r="I259" s="20"/>
+      <c r="J259"/>
+    </row>
+    <row r="260" spans="1:10" ht="45">
+      <c r="A260" s="22" t="s">
+        <v>576</v>
+      </c>
+      <c r="B260" s="24" t="s">
+        <v>568</v>
+      </c>
+      <c r="C260" s="20" t="s">
+        <v>577</v>
+      </c>
+      <c r="D260" s="22"/>
+      <c r="E260" s="22" t="s">
+        <v>19</v>
+      </c>
+      <c r="F260" s="22" t="s">
+        <v>3</v>
+      </c>
+      <c r="G260" s="22" t="s">
+        <v>15</v>
+      </c>
+      <c r="H260" s="22" t="s">
+        <v>20</v>
+      </c>
+      <c r="I260" s="20"/>
+      <c r="J260"/>
+    </row>
+    <row r="261" spans="1:10" ht="45">
+      <c r="A261" s="22" t="s">
+        <v>579</v>
+      </c>
+      <c r="B261" s="24" t="s">
+        <v>568</v>
+      </c>
+      <c r="C261" s="20" t="s">
+        <v>580</v>
+      </c>
+      <c r="D261" s="22"/>
+      <c r="E261" s="22" t="s">
+        <v>19</v>
+      </c>
+      <c r="F261" s="22" t="s">
+        <v>3</v>
+      </c>
+      <c r="G261" s="22" t="s">
+        <v>15</v>
+      </c>
+      <c r="H261" s="22" t="s">
+        <v>20</v>
+      </c>
+      <c r="I261" s="20"/>
+      <c r="J261"/>
+    </row>
+    <row r="262" spans="1:10">
+      <c r="A262" s="3"/>
+      <c r="B262" s="10"/>
     </row>
   </sheetData>
   <mergeCells count="12">
@@ -10394,44 +10121,194 @@
     <mergeCell ref="B5:I5"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
-  <conditionalFormatting sqref="A20:I256">
-    <cfRule type="expression" dxfId="87" priority="53">
+  <conditionalFormatting sqref="A20:I255">
+    <cfRule type="expression" dxfId="66" priority="117">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Section Deleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="86" priority="54">
+    <cfRule type="expression" dxfId="65" priority="118">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Deleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="85" priority="61">
+    <cfRule type="expression" dxfId="64" priority="125">
       <formula>EXACT(INDIRECT("L"&amp;ROW()),"Deleted")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A20:I256">
-    <cfRule type="expression" dxfId="84" priority="7">
+  <conditionalFormatting sqref="A20:I255">
+    <cfRule type="expression" dxfId="63" priority="71">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"SectionDeleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="83" priority="8">
+    <cfRule type="expression" dxfId="62" priority="72">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Deleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="82" priority="9">
+    <cfRule type="expression" dxfId="61" priority="73">
       <formula>EXACT(INDIRECT("L"&amp;ROW()),"Deleted")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F20:F256">
-    <cfRule type="expression" dxfId="81" priority="13">
+  <conditionalFormatting sqref="F20:F255">
+    <cfRule type="expression" dxfId="60" priority="77">
       <formula>NOT(VLOOKUP(F20,$A$12:$C$15,2,FALSE)="In")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="80" priority="14">
+    <cfRule type="expression" dxfId="59" priority="78">
       <formula>(VLOOKUP(F20,$A$12:$C$15,2,FALSE)="In")</formula>
     </cfRule>
   </conditionalFormatting>
-  <dataValidations count="6">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F4 F20:F256">
+  <conditionalFormatting sqref="A260:I260">
+    <cfRule type="expression" dxfId="58" priority="22">
+      <formula>EXACT(INDIRECT("P"&amp;ROW()),"Section Deleted")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="57" priority="23">
+      <formula>EXACT(INDIRECT("P"&amp;ROW()),"Deleted")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="56" priority="24">
+      <formula>EXACT(INDIRECT("L"&amp;ROW()),"Deleted")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A260:I260">
+    <cfRule type="expression" dxfId="55" priority="17">
+      <formula>EXACT(INDIRECT("P"&amp;ROW()),"SectionDeleted")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="54" priority="18">
+      <formula>EXACT(INDIRECT("P"&amp;ROW()),"Deleted")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="53" priority="19">
+      <formula>EXACT(INDIRECT("L"&amp;ROW()),"Deleted")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F260">
+    <cfRule type="expression" dxfId="52" priority="20">
+      <formula>NOT(VLOOKUP(F260,$A$12:$C$15,2,FALSE)="In")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="51" priority="21">
+      <formula>(VLOOKUP(F260,$A$12:$C$15,2,FALSE)="In")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A256:I256">
+    <cfRule type="expression" dxfId="50" priority="54">
+      <formula>EXACT(INDIRECT("P"&amp;ROW()),"Section Deleted")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="49" priority="55">
+      <formula>EXACT(INDIRECT("P"&amp;ROW()),"Deleted")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="48" priority="56">
+      <formula>EXACT(INDIRECT("L"&amp;ROW()),"Deleted")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A256:I256">
+    <cfRule type="expression" dxfId="47" priority="49">
+      <formula>EXACT(INDIRECT("P"&amp;ROW()),"SectionDeleted")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="46" priority="50">
+      <formula>EXACT(INDIRECT("P"&amp;ROW()),"Deleted")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="45" priority="51">
+      <formula>EXACT(INDIRECT("L"&amp;ROW()),"Deleted")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F256">
+    <cfRule type="expression" dxfId="44" priority="52">
+      <formula>NOT(VLOOKUP(F256,$A$12:$C$15,2,FALSE)="In")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="43" priority="53">
+      <formula>(VLOOKUP(F256,$A$12:$C$15,2,FALSE)="In")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A257:I257">
+    <cfRule type="expression" dxfId="42" priority="38">
+      <formula>EXACT(INDIRECT("P"&amp;ROW()),"Section Deleted")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="41" priority="39">
+      <formula>EXACT(INDIRECT("P"&amp;ROW()),"Deleted")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="40" priority="40">
+      <formula>EXACT(INDIRECT("L"&amp;ROW()),"Deleted")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A257:I257">
+    <cfRule type="expression" dxfId="39" priority="33">
+      <formula>EXACT(INDIRECT("P"&amp;ROW()),"SectionDeleted")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="38" priority="34">
+      <formula>EXACT(INDIRECT("P"&amp;ROW()),"Deleted")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="37" priority="35">
+      <formula>EXACT(INDIRECT("L"&amp;ROW()),"Deleted")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F257">
+    <cfRule type="expression" dxfId="36" priority="36">
+      <formula>NOT(VLOOKUP(F257,$A$12:$C$15,2,FALSE)="In")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="35" priority="37">
+      <formula>(VLOOKUP(F257,$A$12:$C$15,2,FALSE)="In")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A258:I259">
+    <cfRule type="expression" dxfId="34" priority="30">
+      <formula>EXACT(INDIRECT("P"&amp;ROW()),"Section Deleted")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="33" priority="31">
+      <formula>EXACT(INDIRECT("P"&amp;ROW()),"Deleted")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="32" priority="32">
+      <formula>EXACT(INDIRECT("L"&amp;ROW()),"Deleted")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A258:I259">
+    <cfRule type="expression" dxfId="31" priority="25">
+      <formula>EXACT(INDIRECT("P"&amp;ROW()),"SectionDeleted")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="30" priority="26">
+      <formula>EXACT(INDIRECT("P"&amp;ROW()),"Deleted")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="29" priority="27">
+      <formula>EXACT(INDIRECT("L"&amp;ROW()),"Deleted")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F258:F259">
+    <cfRule type="expression" dxfId="28" priority="28">
+      <formula>NOT(VLOOKUP(F258,$A$12:$C$15,2,FALSE)="In")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="27" priority="29">
+      <formula>(VLOOKUP(F258,$A$12:$C$15,2,FALSE)="In")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A261:I261">
+    <cfRule type="expression" dxfId="26" priority="14">
+      <formula>EXACT(INDIRECT("P"&amp;ROW()),"Section Deleted")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="25" priority="15">
+      <formula>EXACT(INDIRECT("P"&amp;ROW()),"Deleted")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="24" priority="16">
+      <formula>EXACT(INDIRECT("L"&amp;ROW()),"Deleted")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A261:I261">
+    <cfRule type="expression" dxfId="23" priority="9">
+      <formula>EXACT(INDIRECT("P"&amp;ROW()),"SectionDeleted")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="22" priority="10">
+      <formula>EXACT(INDIRECT("P"&amp;ROW()),"Deleted")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="21" priority="11">
+      <formula>EXACT(INDIRECT("L"&amp;ROW()),"Deleted")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F261">
+    <cfRule type="expression" dxfId="20" priority="12">
+      <formula>NOT(VLOOKUP(F261,$A$12:$C$15,2,FALSE)="In")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="19" priority="13">
+      <formula>(VLOOKUP(F261,$A$12:$C$15,2,FALSE)="In")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <dataValidations count="7">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F4 F20:F261">
       <formula1>$A$13:$A$15</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E4 E20:E256">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E4 E20:E261">
       <formula1>"Protocol,Product"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G4 G20:G256">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G4 G20:G261">
       <formula1>"Informative,Normative"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B13:B15">
@@ -10441,6 +10318,9 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H20:H256">
       <formula1>"Non-testable, Unverified, Adapter, Test Case"</formula1>
     </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H257:H261">
+      <formula1>"Message Deserialization, Non-testable, Unverified, Adapter, Test Case"</formula1>
+    </dataValidation>
   </dataValidations>
   <pageMargins left="0.25" right="0.25" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="74" orientation="landscape" blackAndWhite="1" r:id="rId1"/>
@@ -10448,7 +10328,7 @@
     <oddFooter>&amp;F&amp;RPage &amp;P</oddFooter>
   </headerFooter>
   <ignoredErrors>
-    <ignoredError sqref="B1:B9 C3 B11:B16 B18:B21 B24:B30 B32:B118 B120:B121 B250:B258 B129:B162 B241:B243" numberStoredAsText="1"/>
+    <ignoredError sqref="B1:B9 C3 B11:B16 B18:B21 B24:B30 B32:B118 B120:B121 B129:B162 B241:B243 B262 B250:B255" numberStoredAsText="1"/>
   </ignoredErrors>
   <tableParts count="2">
     <tablePart r:id="rId2"/>

--- a/ExchangeWebServices/Docs/MS-OXWSMSG/MS-OXWSMSG_RequirementSpecification.xlsx
+++ b/ExchangeWebServices/Docs/MS-OXWSMSG/MS-OXWSMSG_RequirementSpecification.xlsx
@@ -10,7 +10,7 @@
     <sheet name="Requirements" sheetId="2" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Requirements!$A$19:$G$261</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Requirements!$A$19:$G$264</definedName>
     <definedName name="ExtensionList">Requirements!#REF!</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">Requirements!$A:$A,Requirements!$19:$19</definedName>
     <definedName name="ScopeList">Requirements!#REF!</definedName>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1770" uniqueCount="581">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1796" uniqueCount="591">
   <si>
     <t>Req ID</t>
   </si>
@@ -1072,9 +1072,6 @@
     <t>[In t:MessageType Complex Type] [BccRecipients element] This is a read/write element.</t>
   </si>
   <si>
-    <t>[In t:MessageType Complex Type] IsReadReceiptRequested element is xs:boolean ([XMLSCHEMA2]) type.</t>
-  </si>
-  <si>
     <t>[In t:MessageType Complex Type] IsReadReceiptRequested element Specifies a Boolean value that indicates whether the sender of a message requests a read receipt.</t>
   </si>
   <si>
@@ -1106,9 +1103,6 @@
   </si>
   <si>
     <t>[In t:MessageType Complex Type] [ConversationIndex element] This element is optional.</t>
-  </si>
-  <si>
-    <t>[In t:MessageType Complex Type] ConversationTopic element is xs:string ([XMLSCHEMA2]) type.</t>
   </si>
   <si>
     <t>[In t:MessageType Complex Type] ConversationTopic element Specifies the conversation identifier.</t>
@@ -2267,6 +2261,42 @@
   </si>
   <si>
     <t>[In t:ItemResponseShapeType Complex Type] The element "AdditionalProperties" with type "t:NonEmptyArrayOfPathsToElementType" specifies a set of requested additional properties to return in a response.</t>
+  </si>
+  <si>
+    <t>[In t:MessageType Complex Type] IsReadReceiptRequested element is xs:boolean ([XMLSCHEMA2] sec 3.2.2) type.</t>
+  </si>
+  <si>
+    <t>[In t:MessageType Complex Type] ConversationTopic element is xs:string ([XMLSCHEMA2] sec 3.2.1) type.</t>
+  </si>
+  <si>
+    <t>Verified by requirements: MS-OXWSCDATA_R1193, MS-OXWSCDATA_R21193, MS-OXWSCDATA_R21194.</t>
+  </si>
+  <si>
+    <t>MS-OXWSCDATA_R1193</t>
+  </si>
+  <si>
+    <t>[In t:ItemResponseShapeType Complex Type] The element "FilterHtmlContent" with type "xs:boolean" Specifies whether HTML content filtering is enabled.</t>
+  </si>
+  <si>
+    <t>MS-OXWSCDATA_R21193</t>
+  </si>
+  <si>
+    <t>[In t:ItemResponseShapeType Complex Type] [FilterHtmlContent is] True, specifies HTML content filtering is enabled.</t>
+  </si>
+  <si>
+    <t>MS-OXWSCDATA_R1193:c</t>
+  </si>
+  <si>
+    <t>MS-OXWSCDATA_R21194</t>
+  </si>
+  <si>
+    <t>[In t:ItemResponseShapeType Complex Type] otherwise [FilterHtmlContent is] false, specifies [HTML content filtering is not enabled].</t>
+  </si>
+  <si>
+    <t>Verified by derived requirements: MS-OXWSMSG_R21188, MS-OXWSMSG_R21189.</t>
+  </si>
+  <si>
+    <t>Verified by derived requirements: MS-OXWSMSG_R21193, MS-OXWSMSG_R21194.</t>
   </si>
 </sst>
 </file>
@@ -2553,21 +2583,6 @@
     <xf numFmtId="2" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -2586,11 +2601,378 @@
     <xf numFmtId="0" fontId="3" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="67">
+  <dxfs count="83">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
     <dxf>
       <font>
         <b val="0"/>
@@ -2929,270 +3311,6 @@
         <scheme val="none"/>
       </font>
     </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -3322,34 +3440,34 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Requirement" displayName="Requirement" ref="A19:I261" tableType="xml" totalsRowShown="0" headerRowDxfId="18" dataDxfId="17" headerRowCellStyle="Normal" dataCellStyle="Normal" connectionId="1">
-  <autoFilter ref="A19:I261"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Requirement" displayName="Requirement" ref="A19:I264" tableType="xml" totalsRowShown="0" headerRowDxfId="82" dataDxfId="81" headerRowCellStyle="Normal" dataCellStyle="Normal" connectionId="1">
+  <autoFilter ref="A19:I264"/>
   <tableColumns count="9">
-    <tableColumn id="1" uniqueName="ns1:REQ_ID" name="Req ID" dataDxfId="16" dataCellStyle="Normal">
+    <tableColumn id="1" uniqueName="ns1:REQ_ID" name="Req ID" dataDxfId="80" dataCellStyle="Normal">
       <xmlColumnPr mapId="12" xpath="/ns1:ReqTable/ns1:Requirement/ns1:REQ_ID" xmlDataType="string"/>
     </tableColumn>
-    <tableColumn id="2" uniqueName="ns1:Doc_Sect" name="Doc Sect" dataDxfId="15" dataCellStyle="Normal">
+    <tableColumn id="2" uniqueName="ns1:Doc_Sect" name="Doc Sect" dataDxfId="79" dataCellStyle="Normal">
       <xmlColumnPr mapId="12" xpath="/ns1:ReqTable/ns1:Requirement/ns1:Doc_Sect" xmlDataType="string"/>
     </tableColumn>
-    <tableColumn id="3" uniqueName="ns1:Description" name="Description" dataDxfId="14" dataCellStyle="Normal">
+    <tableColumn id="3" uniqueName="ns1:Description" name="Description" dataDxfId="78" dataCellStyle="Normal">
       <xmlColumnPr mapId="12" xpath="/ns1:ReqTable/ns1:Requirement/ns1:Description" xmlDataType="string"/>
     </tableColumn>
-    <tableColumn id="18" uniqueName="ns1:Derived" name="Derived" dataDxfId="13" dataCellStyle="Normal">
+    <tableColumn id="18" uniqueName="ns1:Derived" name="Derived" dataDxfId="77" dataCellStyle="Normal">
       <xmlColumnPr mapId="12" xpath="/ns1:ReqTable/ns1:Requirement/ns1:Derived" xmlDataType="string"/>
     </tableColumn>
-    <tableColumn id="6" uniqueName="ns1:Behavior" name="Behavior" dataDxfId="12" dataCellStyle="Normal">
+    <tableColumn id="6" uniqueName="ns1:Behavior" name="Behavior" dataDxfId="76" dataCellStyle="Normal">
       <xmlColumnPr mapId="12" xpath="/ns1:ReqTable/ns1:Requirement/ns1:Behavior" xmlDataType="string"/>
     </tableColumn>
-    <tableColumn id="7" uniqueName="ns1:Scope" name="Scope" dataDxfId="11" dataCellStyle="Normal">
+    <tableColumn id="7" uniqueName="ns1:Scope" name="Scope" dataDxfId="75" dataCellStyle="Normal">
       <xmlColumnPr mapId="12" xpath="/ns1:ReqTable/ns1:Requirement/ns1:Scope" xmlDataType="string"/>
     </tableColumn>
-    <tableColumn id="9" uniqueName="ns1:IsNormative" name="Informative_x000a_/Normative" dataDxfId="10" dataCellStyle="Normal">
+    <tableColumn id="9" uniqueName="ns1:IsNormative" name="Informative_x000a_/Normative" dataDxfId="74" dataCellStyle="Normal">
       <xmlColumnPr mapId="12" xpath="/ns1:ReqTable/ns1:Requirement/ns1:IsNormative" xmlDataType="string"/>
     </tableColumn>
-    <tableColumn id="10" uniqueName="ns1:Verification" name="Verification" dataDxfId="9" dataCellStyle="Normal">
+    <tableColumn id="10" uniqueName="ns1:Verification" name="Verification" dataDxfId="73" dataCellStyle="Normal">
       <xmlColumnPr mapId="12" xpath="/ns1:ReqTable/ns1:Requirement/ns1:Verification" xmlDataType="string"/>
     </tableColumn>
-    <tableColumn id="8" uniqueName="ns1:VerificationComment" name="Verification Comment" dataDxfId="8">
+    <tableColumn id="8" uniqueName="ns1:VerificationComment" name="Verification Comment" dataDxfId="72">
       <xmlColumnPr mapId="12" xpath="/ns1:ReqTable/ns1:Requirement/ns1:VerificationComment" xmlDataType="string"/>
     </tableColumn>
   </tableColumns>
@@ -3358,12 +3476,12 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Scope" displayName="Scope" ref="A12:C15" totalsRowShown="0" headerRowDxfId="7" dataDxfId="5" headerRowBorderDxfId="6" tableBorderDxfId="4" totalsRowBorderDxfId="3">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Scope" displayName="Scope" ref="A12:C15" totalsRowShown="0" headerRowDxfId="71" dataDxfId="69" headerRowBorderDxfId="70" tableBorderDxfId="68" totalsRowBorderDxfId="67">
   <autoFilter ref="A12:C15"/>
   <tableColumns count="3">
-    <tableColumn id="1" name="Scope" dataDxfId="2"/>
-    <tableColumn id="2" name="Test" dataDxfId="1"/>
-    <tableColumn id="3" name="Description" dataDxfId="0"/>
+    <tableColumn id="1" name="Scope" dataDxfId="66"/>
+    <tableColumn id="2" name="Test" dataDxfId="65"/>
+    <tableColumn id="3" name="Description" dataDxfId="64"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -3657,10 +3775,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:L262"/>
+  <dimension ref="A1:L265"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A20" sqref="A20"/>
+    <sheetView tabSelected="1" topLeftCell="B256" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="K262" sqref="K262"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -3679,7 +3797,7 @@
   <sheetData>
     <row r="1" spans="1:10">
       <c r="A1" s="1" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>27</v>
@@ -3689,7 +3807,7 @@
     </row>
     <row r="2" spans="1:10">
       <c r="A2" s="6" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="B2" s="7"/>
       <c r="C2" s="7"/>
@@ -3714,127 +3832,127 @@
       <c r="J3" s="5"/>
     </row>
     <row r="4" spans="1:10" ht="21">
-      <c r="A4" s="36" t="s">
+      <c r="A4" s="42" t="s">
         <v>24</v>
       </c>
-      <c r="B4" s="36"/>
-      <c r="C4" s="36"/>
-      <c r="D4" s="36"/>
-      <c r="E4" s="36"/>
-      <c r="F4" s="36"/>
-      <c r="G4" s="36"/>
+      <c r="B4" s="42"/>
+      <c r="C4" s="42"/>
+      <c r="D4" s="42"/>
+      <c r="E4" s="42"/>
+      <c r="F4" s="42"/>
+      <c r="G4" s="42"/>
       <c r="J4" s="5"/>
     </row>
     <row r="5" spans="1:10">
       <c r="A5" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="B5" s="39" t="s">
+      <c r="B5" s="45" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="40"/>
-      <c r="D5" s="40"/>
-      <c r="E5" s="40"/>
-      <c r="F5" s="40"/>
-      <c r="G5" s="40"/>
-      <c r="H5" s="40"/>
-      <c r="I5" s="40"/>
+      <c r="C5" s="46"/>
+      <c r="D5" s="46"/>
+      <c r="E5" s="46"/>
+      <c r="F5" s="46"/>
+      <c r="G5" s="46"/>
+      <c r="H5" s="46"/>
+      <c r="I5" s="46"/>
       <c r="J5" s="5"/>
     </row>
     <row r="6" spans="1:10">
       <c r="A6" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="B6" s="38" t="s">
+      <c r="B6" s="44" t="s">
         <v>34</v>
       </c>
-      <c r="C6" s="38"/>
-      <c r="D6" s="38"/>
-      <c r="E6" s="38"/>
-      <c r="F6" s="38"/>
-      <c r="G6" s="38"/>
-      <c r="H6" s="38"/>
-      <c r="I6" s="38"/>
+      <c r="C6" s="44"/>
+      <c r="D6" s="44"/>
+      <c r="E6" s="44"/>
+      <c r="F6" s="44"/>
+      <c r="G6" s="44"/>
+      <c r="H6" s="44"/>
+      <c r="I6" s="44"/>
       <c r="J6" s="5"/>
     </row>
     <row r="7" spans="1:10">
       <c r="A7" s="14" t="s">
         <v>38</v>
       </c>
-      <c r="B7" s="37" t="s">
+      <c r="B7" s="43" t="s">
         <v>28</v>
       </c>
-      <c r="C7" s="37"/>
-      <c r="D7" s="37"/>
-      <c r="E7" s="37"/>
-      <c r="F7" s="37"/>
-      <c r="G7" s="37"/>
-      <c r="H7" s="37"/>
-      <c r="I7" s="37"/>
+      <c r="C7" s="43"/>
+      <c r="D7" s="43"/>
+      <c r="E7" s="43"/>
+      <c r="F7" s="43"/>
+      <c r="G7" s="43"/>
+      <c r="H7" s="43"/>
+      <c r="I7" s="43"/>
       <c r="J7" s="5"/>
     </row>
     <row r="8" spans="1:10">
       <c r="A8" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="B8" s="37" t="s">
+      <c r="B8" s="43" t="s">
         <v>29</v>
       </c>
-      <c r="C8" s="37"/>
-      <c r="D8" s="37"/>
-      <c r="E8" s="37"/>
-      <c r="F8" s="37"/>
-      <c r="G8" s="37"/>
-      <c r="H8" s="37"/>
-      <c r="I8" s="37"/>
+      <c r="C8" s="43"/>
+      <c r="D8" s="43"/>
+      <c r="E8" s="43"/>
+      <c r="F8" s="43"/>
+      <c r="G8" s="43"/>
+      <c r="H8" s="43"/>
+      <c r="I8" s="43"/>
       <c r="J8" s="5"/>
     </row>
     <row r="9" spans="1:10" ht="75.75" customHeight="1">
       <c r="A9" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="B9" s="45" t="s">
+      <c r="B9" s="40" t="s">
         <v>37</v>
       </c>
-      <c r="C9" s="46"/>
-      <c r="D9" s="46"/>
-      <c r="E9" s="46"/>
-      <c r="F9" s="46"/>
-      <c r="G9" s="46"/>
-      <c r="H9" s="46"/>
-      <c r="I9" s="46"/>
+      <c r="C9" s="41"/>
+      <c r="D9" s="41"/>
+      <c r="E9" s="41"/>
+      <c r="F9" s="41"/>
+      <c r="G9" s="41"/>
+      <c r="H9" s="41"/>
+      <c r="I9" s="41"/>
       <c r="J9" s="5"/>
     </row>
     <row r="10" spans="1:10" ht="30.75" customHeight="1">
       <c r="A10" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="B10" s="45" t="s">
-        <v>445</v>
-      </c>
-      <c r="C10" s="46"/>
-      <c r="D10" s="46"/>
-      <c r="E10" s="46"/>
-      <c r="F10" s="46"/>
-      <c r="G10" s="46"/>
-      <c r="H10" s="46"/>
-      <c r="I10" s="46"/>
+      <c r="B10" s="40" t="s">
+        <v>443</v>
+      </c>
+      <c r="C10" s="41"/>
+      <c r="D10" s="41"/>
+      <c r="E10" s="41"/>
+      <c r="F10" s="41"/>
+      <c r="G10" s="41"/>
+      <c r="H10" s="41"/>
+      <c r="I10" s="41"/>
       <c r="J10" s="5"/>
     </row>
     <row r="11" spans="1:10">
       <c r="A11" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="B11" s="41" t="s">
+      <c r="B11" s="36" t="s">
         <v>40</v>
       </c>
-      <c r="C11" s="41"/>
-      <c r="D11" s="41"/>
-      <c r="E11" s="41"/>
-      <c r="F11" s="41"/>
-      <c r="G11" s="41"/>
-      <c r="H11" s="41"/>
-      <c r="I11" s="41"/>
+      <c r="C11" s="36"/>
+      <c r="D11" s="36"/>
+      <c r="E11" s="36"/>
+      <c r="F11" s="36"/>
+      <c r="G11" s="36"/>
+      <c r="H11" s="36"/>
+      <c r="I11" s="36"/>
       <c r="J11" s="5"/>
     </row>
     <row r="12" spans="1:10">
@@ -3847,12 +3965,12 @@
       <c r="C12" s="19" t="s">
         <v>1</v>
       </c>
-      <c r="D12" s="42"/>
-      <c r="E12" s="42"/>
-      <c r="F12" s="42"/>
-      <c r="G12" s="42"/>
-      <c r="H12" s="42"/>
-      <c r="I12" s="42"/>
+      <c r="D12" s="37"/>
+      <c r="E12" s="37"/>
+      <c r="F12" s="37"/>
+      <c r="G12" s="37"/>
+      <c r="H12" s="37"/>
+      <c r="I12" s="37"/>
       <c r="J12" s="5"/>
     </row>
     <row r="13" spans="1:10">
@@ -3865,12 +3983,12 @@
       <c r="C13" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="D13" s="43"/>
-      <c r="E13" s="43"/>
-      <c r="F13" s="43"/>
-      <c r="G13" s="43"/>
-      <c r="H13" s="43"/>
-      <c r="I13" s="43"/>
+      <c r="D13" s="38"/>
+      <c r="E13" s="38"/>
+      <c r="F13" s="38"/>
+      <c r="G13" s="38"/>
+      <c r="H13" s="38"/>
+      <c r="I13" s="38"/>
       <c r="J13" s="5"/>
     </row>
     <row r="14" spans="1:10">
@@ -3883,12 +4001,12 @@
       <c r="C14" s="16" t="s">
         <v>35</v>
       </c>
-      <c r="D14" s="43"/>
-      <c r="E14" s="43"/>
-      <c r="F14" s="43"/>
-      <c r="G14" s="43"/>
-      <c r="H14" s="43"/>
-      <c r="I14" s="43"/>
+      <c r="D14" s="38"/>
+      <c r="E14" s="38"/>
+      <c r="F14" s="38"/>
+      <c r="G14" s="38"/>
+      <c r="H14" s="38"/>
+      <c r="I14" s="38"/>
       <c r="J14" s="5"/>
     </row>
     <row r="15" spans="1:10">
@@ -3901,60 +4019,60 @@
       <c r="C15" s="16" t="s">
         <v>30</v>
       </c>
-      <c r="D15" s="44"/>
-      <c r="E15" s="44"/>
-      <c r="F15" s="44"/>
-      <c r="G15" s="44"/>
-      <c r="H15" s="44"/>
-      <c r="I15" s="44"/>
+      <c r="D15" s="39"/>
+      <c r="E15" s="39"/>
+      <c r="F15" s="39"/>
+      <c r="G15" s="39"/>
+      <c r="H15" s="39"/>
+      <c r="I15" s="39"/>
       <c r="J15" s="5"/>
     </row>
     <row r="16" spans="1:10">
       <c r="A16" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="B16" s="41" t="s">
+      <c r="B16" s="36" t="s">
         <v>41</v>
       </c>
-      <c r="C16" s="41"/>
-      <c r="D16" s="41"/>
-      <c r="E16" s="41"/>
-      <c r="F16" s="41"/>
-      <c r="G16" s="41"/>
-      <c r="H16" s="41"/>
-      <c r="I16" s="41"/>
+      <c r="C16" s="36"/>
+      <c r="D16" s="36"/>
+      <c r="E16" s="36"/>
+      <c r="F16" s="36"/>
+      <c r="G16" s="36"/>
+      <c r="H16" s="36"/>
+      <c r="I16" s="36"/>
       <c r="J16" s="5"/>
     </row>
     <row r="17" spans="1:12" ht="61.5" customHeight="1">
       <c r="A17" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="B17" s="45" t="s">
-        <v>446</v>
-      </c>
-      <c r="C17" s="46"/>
-      <c r="D17" s="46"/>
-      <c r="E17" s="46"/>
-      <c r="F17" s="46"/>
-      <c r="G17" s="46"/>
-      <c r="H17" s="46"/>
-      <c r="I17" s="46"/>
+      <c r="B17" s="40" t="s">
+        <v>444</v>
+      </c>
+      <c r="C17" s="41"/>
+      <c r="D17" s="41"/>
+      <c r="E17" s="41"/>
+      <c r="F17" s="41"/>
+      <c r="G17" s="41"/>
+      <c r="H17" s="41"/>
+      <c r="I17" s="41"/>
       <c r="J17" s="5"/>
     </row>
     <row r="18" spans="1:12">
       <c r="A18" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="B18" s="41" t="s">
+      <c r="B18" s="36" t="s">
         <v>36</v>
       </c>
-      <c r="C18" s="41"/>
-      <c r="D18" s="41"/>
-      <c r="E18" s="41"/>
-      <c r="F18" s="41"/>
-      <c r="G18" s="41"/>
-      <c r="H18" s="41"/>
-      <c r="I18" s="41"/>
+      <c r="C18" s="36"/>
+      <c r="D18" s="36"/>
+      <c r="E18" s="36"/>
+      <c r="F18" s="36"/>
+      <c r="G18" s="36"/>
+      <c r="H18" s="36"/>
+      <c r="I18" s="36"/>
       <c r="J18" s="5"/>
       <c r="L18" s="4"/>
     </row>
@@ -3996,7 +4114,7 @@
         <v>250</v>
       </c>
       <c r="C20" s="21" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="D20" s="22"/>
       <c r="E20" s="22" t="s">
@@ -4021,7 +4139,7 @@
         <v>250</v>
       </c>
       <c r="C21" s="20" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="D21" s="22"/>
       <c r="E21" s="22" t="s">
@@ -4040,13 +4158,13 @@
     </row>
     <row r="22" spans="1:12" s="23" customFormat="1">
       <c r="A22" s="33" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="B22" s="34" t="s">
         <v>250</v>
       </c>
       <c r="C22" s="35" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="D22" s="33"/>
       <c r="E22" s="33" t="s">
@@ -4065,13 +4183,13 @@
     </row>
     <row r="23" spans="1:12" s="23" customFormat="1">
       <c r="A23" s="33" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="B23" s="34" t="s">
         <v>250</v>
       </c>
       <c r="C23" s="35" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="D23" s="33"/>
       <c r="E23" s="33" t="s">
@@ -4196,7 +4314,7 @@
         <v>252</v>
       </c>
       <c r="C28" s="20" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="D28" s="22"/>
       <c r="E28" s="22" t="s">
@@ -4246,7 +4364,7 @@
         <v>252</v>
       </c>
       <c r="C30" s="20" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="D30" s="22"/>
       <c r="E30" s="22" t="s">
@@ -4265,13 +4383,13 @@
     </row>
     <row r="31" spans="1:12" s="23" customFormat="1">
       <c r="A31" s="22" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="B31" s="34" t="s">
         <v>252</v>
       </c>
       <c r="C31" s="35" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="D31" s="33"/>
       <c r="E31" s="33" t="s">
@@ -4312,7 +4430,7 @@
         <v>17</v>
       </c>
       <c r="I32" s="24" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
     </row>
     <row r="33" spans="1:9" s="23" customFormat="1" ht="30">
@@ -4348,7 +4466,7 @@
         <v>253</v>
       </c>
       <c r="C34" s="20" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="D34" s="22"/>
       <c r="E34" s="22" t="s">
@@ -4648,7 +4766,7 @@
         <v>257</v>
       </c>
       <c r="C46" s="20" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="D46" s="30"/>
       <c r="E46" s="30" t="s">
@@ -4673,7 +4791,7 @@
         <v>31</v>
       </c>
       <c r="C47" s="20" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="D47" s="30"/>
       <c r="E47" s="30" t="s">
@@ -4698,7 +4816,7 @@
         <v>31</v>
       </c>
       <c r="C48" s="20" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="D48" s="30"/>
       <c r="E48" s="30" t="s">
@@ -4723,7 +4841,7 @@
         <v>31</v>
       </c>
       <c r="C49" s="20" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="D49" s="30"/>
       <c r="E49" s="30" t="s">
@@ -4773,7 +4891,7 @@
         <v>31</v>
       </c>
       <c r="C51" s="20" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
       <c r="D51" s="30"/>
       <c r="E51" s="30" t="s">
@@ -4801,7 +4919,7 @@
         <v>297</v>
       </c>
       <c r="D52" s="30" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="E52" s="30" t="s">
         <v>19</v>
@@ -4828,7 +4946,7 @@
         <v>298</v>
       </c>
       <c r="D53" s="30" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="E53" s="30" t="s">
         <v>19</v>
@@ -4927,7 +5045,7 @@
         <v>31</v>
       </c>
       <c r="C57" s="20" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
       <c r="D57" s="30"/>
       <c r="E57" s="30" t="s">
@@ -4955,7 +5073,7 @@
         <v>302</v>
       </c>
       <c r="D58" s="30" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="E58" s="30" t="s">
         <v>19</v>
@@ -4982,7 +5100,7 @@
         <v>303</v>
       </c>
       <c r="D59" s="30" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="E59" s="30" t="s">
         <v>19</v>
@@ -5006,7 +5124,7 @@
         <v>31</v>
       </c>
       <c r="C60" s="20" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="D60" s="30"/>
       <c r="E60" s="30" t="s">
@@ -5106,7 +5224,7 @@
         <v>31</v>
       </c>
       <c r="C64" s="20" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="D64" s="30"/>
       <c r="E64" s="30" t="s">
@@ -5206,7 +5324,7 @@
         <v>31</v>
       </c>
       <c r="C68" s="20" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="D68" s="30"/>
       <c r="E68" s="30" t="s">
@@ -5280,8 +5398,8 @@
       <c r="B71" s="31" t="s">
         <v>31</v>
       </c>
-      <c r="C71" s="32" t="s">
-        <v>312</v>
+      <c r="C71" s="20" t="s">
+        <v>579</v>
       </c>
       <c r="D71" s="30"/>
       <c r="E71" s="30" t="s">
@@ -5306,7 +5424,7 @@
         <v>31</v>
       </c>
       <c r="C72" s="32" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="D72" s="30"/>
       <c r="E72" s="30" t="s">
@@ -5331,7 +5449,7 @@
         <v>31</v>
       </c>
       <c r="C73" s="32" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="D73" s="30"/>
       <c r="E73" s="30" t="s">
@@ -5356,7 +5474,7 @@
         <v>31</v>
       </c>
       <c r="C74" s="32" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="D74" s="30"/>
       <c r="E74" s="30" t="s">
@@ -5381,7 +5499,7 @@
         <v>31</v>
       </c>
       <c r="C75" s="32" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="D75" s="30"/>
       <c r="E75" s="30" t="s">
@@ -5406,10 +5524,10 @@
         <v>31</v>
       </c>
       <c r="C76" s="32" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="D76" s="30" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="E76" s="30" t="s">
         <v>19</v>
@@ -5433,7 +5551,7 @@
         <v>31</v>
       </c>
       <c r="C77" s="32" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="D77" s="30"/>
       <c r="E77" s="30" t="s">
@@ -5458,7 +5576,7 @@
         <v>31</v>
       </c>
       <c r="C78" s="32" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="D78" s="30"/>
       <c r="E78" s="30" t="s">
@@ -5483,7 +5601,7 @@
         <v>31</v>
       </c>
       <c r="C79" s="32" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="D79" s="30"/>
       <c r="E79" s="30" t="s">
@@ -5508,7 +5626,7 @@
         <v>31</v>
       </c>
       <c r="C80" s="32" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="D80" s="30"/>
       <c r="E80" s="30" t="s">
@@ -5533,10 +5651,10 @@
         <v>31</v>
       </c>
       <c r="C81" s="32" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="D81" s="30" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="E81" s="30" t="s">
         <v>19</v>
@@ -5560,7 +5678,7 @@
         <v>31</v>
       </c>
       <c r="C82" s="20" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="D82" s="30"/>
       <c r="E82" s="30" t="s">
@@ -5585,7 +5703,7 @@
         <v>31</v>
       </c>
       <c r="C83" s="20" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
       <c r="D83" s="30"/>
       <c r="E83" s="30" t="s">
@@ -5610,7 +5728,7 @@
         <v>31</v>
       </c>
       <c r="C84" s="32" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="D84" s="30"/>
       <c r="E84" s="30" t="s">
@@ -5635,7 +5753,7 @@
         <v>31</v>
       </c>
       <c r="C85" s="20" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
       <c r="D85" s="30"/>
       <c r="E85" s="30" t="s">
@@ -5659,8 +5777,8 @@
       <c r="B86" s="31" t="s">
         <v>31</v>
       </c>
-      <c r="C86" s="32" t="s">
-        <v>324</v>
+      <c r="C86" s="20" t="s">
+        <v>580</v>
       </c>
       <c r="D86" s="30"/>
       <c r="E86" s="30" t="s">
@@ -5685,7 +5803,7 @@
         <v>31</v>
       </c>
       <c r="C87" s="32" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="D87" s="30"/>
       <c r="E87" s="30" t="s">
@@ -5710,7 +5828,7 @@
         <v>31</v>
       </c>
       <c r="C88" s="32" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="D88" s="30"/>
       <c r="E88" s="30" t="s">
@@ -5735,7 +5853,7 @@
         <v>31</v>
       </c>
       <c r="C89" s="20" t="s">
-        <v>565</v>
+        <v>563</v>
       </c>
       <c r="D89" s="30"/>
       <c r="E89" s="30" t="s">
@@ -5760,7 +5878,7 @@
         <v>31</v>
       </c>
       <c r="C90" s="32" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="D90" s="30"/>
       <c r="E90" s="30" t="s">
@@ -5785,7 +5903,7 @@
         <v>31</v>
       </c>
       <c r="C91" s="32" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="D91" s="30"/>
       <c r="E91" s="30" t="s">
@@ -5810,7 +5928,7 @@
         <v>31</v>
       </c>
       <c r="C92" s="32" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="D92" s="30"/>
       <c r="E92" s="30" t="s">
@@ -5835,7 +5953,7 @@
         <v>31</v>
       </c>
       <c r="C93" s="32" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="D93" s="30"/>
       <c r="E93" s="30" t="s">
@@ -5860,7 +5978,7 @@
         <v>31</v>
       </c>
       <c r="C94" s="32" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="D94" s="30"/>
       <c r="E94" s="30" t="s">
@@ -5885,7 +6003,7 @@
         <v>31</v>
       </c>
       <c r="C95" s="32" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="D95" s="30"/>
       <c r="E95" s="30" t="s">
@@ -5910,7 +6028,7 @@
         <v>31</v>
       </c>
       <c r="C96" s="32" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="D96" s="30"/>
       <c r="E96" s="30" t="s">
@@ -5935,7 +6053,7 @@
         <v>31</v>
       </c>
       <c r="C97" s="20" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="D97" s="30"/>
       <c r="E97" s="30" t="s">
@@ -5960,7 +6078,7 @@
         <v>31</v>
       </c>
       <c r="C98" s="32" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="D98" s="30"/>
       <c r="E98" s="30" t="s">
@@ -5985,7 +6103,7 @@
         <v>31</v>
       </c>
       <c r="C99" s="32" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="D99" s="30"/>
       <c r="E99" s="30" t="s">
@@ -6010,7 +6128,7 @@
         <v>31</v>
       </c>
       <c r="C100" s="20" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="D100" s="30"/>
       <c r="E100" s="30" t="s">
@@ -6035,7 +6153,7 @@
         <v>31</v>
       </c>
       <c r="C101" s="32" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="D101" s="30"/>
       <c r="E101" s="30" t="s">
@@ -6060,10 +6178,10 @@
         <v>31</v>
       </c>
       <c r="C102" s="32" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="D102" s="30" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="E102" s="30" t="s">
         <v>19</v>
@@ -6087,7 +6205,7 @@
         <v>31</v>
       </c>
       <c r="C103" s="32" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="D103" s="30"/>
       <c r="E103" s="30" t="s">
@@ -6112,7 +6230,7 @@
         <v>31</v>
       </c>
       <c r="C104" s="20" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
       <c r="D104" s="30"/>
       <c r="E104" s="30" t="s">
@@ -6137,7 +6255,7 @@
         <v>31</v>
       </c>
       <c r="C105" s="32" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="D105" s="30"/>
       <c r="E105" s="30" t="s">
@@ -6162,7 +6280,7 @@
         <v>31</v>
       </c>
       <c r="C106" s="32" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="D106" s="30"/>
       <c r="E106" s="30" t="s">
@@ -6187,7 +6305,7 @@
         <v>31</v>
       </c>
       <c r="C107" s="32" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="D107" s="30"/>
       <c r="E107" s="30" t="s">
@@ -6212,10 +6330,10 @@
         <v>31</v>
       </c>
       <c r="C108" s="32" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="D108" s="30" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="E108" s="30" t="s">
         <v>19</v>
@@ -6239,7 +6357,7 @@
         <v>31</v>
       </c>
       <c r="C109" s="32" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="D109" s="30"/>
       <c r="E109" s="30" t="s">
@@ -6264,7 +6382,7 @@
         <v>31</v>
       </c>
       <c r="C110" s="32" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="D110" s="30"/>
       <c r="E110" s="30" t="s">
@@ -6289,7 +6407,7 @@
         <v>31</v>
       </c>
       <c r="C111" s="32" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="D111" s="30"/>
       <c r="E111" s="30" t="s">
@@ -6314,7 +6432,7 @@
         <v>31</v>
       </c>
       <c r="C112" s="32" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="D112" s="30"/>
       <c r="E112" s="30" t="s">
@@ -6339,7 +6457,7 @@
         <v>31</v>
       </c>
       <c r="C113" s="32" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="D113" s="30"/>
       <c r="E113" s="30" t="s">
@@ -6364,7 +6482,7 @@
         <v>31</v>
       </c>
       <c r="C114" s="20" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
       <c r="D114" s="30"/>
       <c r="E114" s="30" t="s">
@@ -6389,7 +6507,7 @@
         <v>31</v>
       </c>
       <c r="C115" s="32" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="D115" s="30"/>
       <c r="E115" s="30" t="s">
@@ -6414,7 +6532,7 @@
         <v>31</v>
       </c>
       <c r="C116" s="32" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="D116" s="30"/>
       <c r="E116" s="30" t="s">
@@ -6439,7 +6557,7 @@
         <v>31</v>
       </c>
       <c r="C117" s="32" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="D117" s="30"/>
       <c r="E117" s="30" t="s">
@@ -6464,7 +6582,7 @@
         <v>31</v>
       </c>
       <c r="C118" s="20" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="D118" s="30"/>
       <c r="E118" s="30" t="s">
@@ -6483,13 +6601,13 @@
     </row>
     <row r="119" spans="1:9">
       <c r="A119" s="22" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
       <c r="B119" s="24" t="s">
         <v>31</v>
       </c>
       <c r="C119" s="35" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
       <c r="D119" s="33"/>
       <c r="E119" s="33" t="s">
@@ -6514,7 +6632,7 @@
         <v>31</v>
       </c>
       <c r="C120" s="32" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="D120" s="30"/>
       <c r="E120" s="30" t="s">
@@ -6539,7 +6657,7 @@
         <v>31</v>
       </c>
       <c r="C121" s="20" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="D121" s="30"/>
       <c r="E121" s="30" t="s">
@@ -6558,13 +6676,13 @@
     </row>
     <row r="122" spans="1:9" ht="30">
       <c r="A122" s="22" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
       <c r="B122" s="31" t="s">
         <v>31</v>
       </c>
       <c r="C122" s="35" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
       <c r="D122" s="33"/>
       <c r="E122" s="33" t="s">
@@ -6577,19 +6695,19 @@
         <v>15</v>
       </c>
       <c r="H122" s="33" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I122" s="35"/>
     </row>
     <row r="123" spans="1:9" ht="30">
       <c r="A123" s="22" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="B123" s="31" t="s">
         <v>31</v>
       </c>
       <c r="C123" s="35" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="D123" s="33"/>
       <c r="E123" s="33" t="s">
@@ -6608,13 +6726,13 @@
     </row>
     <row r="124" spans="1:9" ht="45">
       <c r="A124" s="22" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="B124" s="31" t="s">
         <v>31</v>
       </c>
       <c r="C124" s="35" t="s">
-        <v>479</v>
+        <v>477</v>
       </c>
       <c r="D124" s="33"/>
       <c r="E124" s="33" t="s">
@@ -6630,18 +6748,18 @@
         <v>17</v>
       </c>
       <c r="I124" s="35" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
     </row>
     <row r="125" spans="1:9" ht="30">
       <c r="A125" s="22" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
       <c r="B125" s="31" t="s">
         <v>31</v>
       </c>
       <c r="C125" s="35" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
       <c r="D125" s="33"/>
       <c r="E125" s="33" t="s">
@@ -6660,13 +6778,13 @@
     </row>
     <row r="126" spans="1:9" ht="45">
       <c r="A126" s="22" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
       <c r="B126" s="31" t="s">
         <v>31</v>
       </c>
       <c r="C126" s="35" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
       <c r="D126" s="33"/>
       <c r="E126" s="33" t="s">
@@ -6682,18 +6800,18 @@
         <v>17</v>
       </c>
       <c r="I126" s="35" t="s">
-        <v>560</v>
+        <v>558</v>
       </c>
     </row>
     <row r="127" spans="1:9" ht="30">
       <c r="A127" s="22" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="B127" s="31" t="s">
         <v>31</v>
       </c>
       <c r="C127" s="35" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
       <c r="D127" s="33"/>
       <c r="E127" s="33" t="s">
@@ -6712,13 +6830,13 @@
     </row>
     <row r="128" spans="1:9" ht="45">
       <c r="A128" s="22" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="B128" s="31" t="s">
         <v>31</v>
       </c>
       <c r="C128" s="35" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
       <c r="D128" s="33"/>
       <c r="E128" s="33" t="s">
@@ -6734,7 +6852,7 @@
         <v>17</v>
       </c>
       <c r="I128" s="35" t="s">
-        <v>562</v>
+        <v>560</v>
       </c>
     </row>
     <row r="129" spans="1:9" ht="30">
@@ -6745,7 +6863,7 @@
         <v>258</v>
       </c>
       <c r="C129" s="32" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="D129" s="30"/>
       <c r="E129" s="30" t="s">
@@ -6770,7 +6888,7 @@
         <v>258</v>
       </c>
       <c r="C130" s="32" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="D130" s="30"/>
       <c r="E130" s="30" t="s">
@@ -6795,7 +6913,7 @@
         <v>258</v>
       </c>
       <c r="C131" s="32" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="D131" s="30"/>
       <c r="E131" s="30" t="s">
@@ -6820,7 +6938,7 @@
         <v>259</v>
       </c>
       <c r="C132" s="32" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="D132" s="30"/>
       <c r="E132" s="30" t="s">
@@ -6845,7 +6963,7 @@
         <v>259</v>
       </c>
       <c r="C133" s="32" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="D133" s="30"/>
       <c r="E133" s="30" t="s">
@@ -6870,7 +6988,7 @@
         <v>259</v>
       </c>
       <c r="C134" s="32" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="D134" s="30"/>
       <c r="E134" s="30" t="s">
@@ -6895,7 +7013,7 @@
         <v>259</v>
       </c>
       <c r="C135" s="20" t="s">
-        <v>490</v>
+        <v>488</v>
       </c>
       <c r="D135" s="30"/>
       <c r="E135" s="30" t="s">
@@ -6920,7 +7038,7 @@
         <v>259</v>
       </c>
       <c r="C136" s="32" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="D136" s="30"/>
       <c r="E136" s="30" t="s">
@@ -6945,7 +7063,7 @@
         <v>259</v>
       </c>
       <c r="C137" s="32" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="D137" s="30"/>
       <c r="E137" s="30" t="s">
@@ -6970,7 +7088,7 @@
         <v>259</v>
       </c>
       <c r="C138" s="20" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
       <c r="D138" s="30"/>
       <c r="E138" s="30" t="s">
@@ -6995,7 +7113,7 @@
         <v>259</v>
       </c>
       <c r="C139" s="20" t="s">
-        <v>492</v>
+        <v>490</v>
       </c>
       <c r="D139" s="30"/>
       <c r="E139" s="30" t="s">
@@ -7020,7 +7138,7 @@
         <v>259</v>
       </c>
       <c r="C140" s="20" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="D140" s="30"/>
       <c r="E140" s="30" t="s">
@@ -7045,7 +7163,7 @@
         <v>259</v>
       </c>
       <c r="C141" s="20" t="s">
-        <v>493</v>
+        <v>491</v>
       </c>
       <c r="D141" s="30"/>
       <c r="E141" s="30" t="s">
@@ -7070,7 +7188,7 @@
         <v>259</v>
       </c>
       <c r="C142" s="20" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
       <c r="D142" s="30"/>
       <c r="E142" s="30" t="s">
@@ -7095,7 +7213,7 @@
         <v>259</v>
       </c>
       <c r="C143" s="20" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="D143" s="30"/>
       <c r="E143" s="30" t="s">
@@ -7120,7 +7238,7 @@
         <v>260</v>
       </c>
       <c r="C144" s="32" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="D144" s="30"/>
       <c r="E144" s="30" t="s">
@@ -7145,7 +7263,7 @@
         <v>261</v>
       </c>
       <c r="C145" s="32" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="D145" s="30"/>
       <c r="E145" s="30" t="s">
@@ -7170,7 +7288,7 @@
         <v>262</v>
       </c>
       <c r="C146" s="32" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="D146" s="30"/>
       <c r="E146" s="30" t="s">
@@ -7195,7 +7313,7 @@
         <v>263</v>
       </c>
       <c r="C147" s="32" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="D147" s="30"/>
       <c r="E147" s="30" t="s">
@@ -7220,7 +7338,7 @@
         <v>263</v>
       </c>
       <c r="C148" s="32" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="D148" s="30"/>
       <c r="E148" s="30" t="s">
@@ -7245,7 +7363,7 @@
         <v>263</v>
       </c>
       <c r="C149" s="32" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="D149" s="30"/>
       <c r="E149" s="30" t="s">
@@ -7270,7 +7388,7 @@
         <v>264</v>
       </c>
       <c r="C150" s="20" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="D150" s="30"/>
       <c r="E150" s="30" t="s">
@@ -7295,7 +7413,7 @@
         <v>264</v>
       </c>
       <c r="C151" s="32" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="D151" s="30"/>
       <c r="E151" s="30" t="s">
@@ -7320,7 +7438,7 @@
         <v>265</v>
       </c>
       <c r="C152" s="32" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="D152" s="30"/>
       <c r="E152" s="30" t="s">
@@ -7345,7 +7463,7 @@
         <v>265</v>
       </c>
       <c r="C153" s="32" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="D153" s="30"/>
       <c r="E153" s="30" t="s">
@@ -7370,7 +7488,7 @@
         <v>265</v>
       </c>
       <c r="C154" s="32" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="D154" s="30"/>
       <c r="E154" s="30" t="s">
@@ -7395,7 +7513,7 @@
         <v>266</v>
       </c>
       <c r="C155" s="32" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="D155" s="30"/>
       <c r="E155" s="30" t="s">
@@ -7420,7 +7538,7 @@
         <v>266</v>
       </c>
       <c r="C156" s="20" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="D156" s="30"/>
       <c r="E156" s="30" t="s">
@@ -7445,7 +7563,7 @@
         <v>266</v>
       </c>
       <c r="C157" s="20" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="D157" s="30"/>
       <c r="E157" s="30" t="s">
@@ -7470,7 +7588,7 @@
         <v>266</v>
       </c>
       <c r="C158" s="20" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
       <c r="D158" s="30"/>
       <c r="E158" s="30" t="s">
@@ -7495,7 +7613,7 @@
         <v>266</v>
       </c>
       <c r="C159" s="20" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="D159" s="30"/>
       <c r="E159" s="30" t="s">
@@ -7520,7 +7638,7 @@
         <v>266</v>
       </c>
       <c r="C160" s="20" t="s">
-        <v>500</v>
+        <v>498</v>
       </c>
       <c r="D160" s="30"/>
       <c r="E160" s="30" t="s">
@@ -7545,7 +7663,7 @@
         <v>266</v>
       </c>
       <c r="C161" s="20" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
       <c r="D161" s="30"/>
       <c r="E161" s="30" t="s">
@@ -7570,7 +7688,7 @@
         <v>266</v>
       </c>
       <c r="C162" s="20" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
       <c r="D162" s="30"/>
       <c r="E162" s="30" t="s">
@@ -7595,7 +7713,7 @@
         <v>32</v>
       </c>
       <c r="C163" s="20" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
       <c r="D163" s="30"/>
       <c r="E163" s="30" t="s">
@@ -7620,7 +7738,7 @@
         <v>32</v>
       </c>
       <c r="C164" s="32" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="D164" s="30"/>
       <c r="E164" s="30" t="s">
@@ -7645,7 +7763,7 @@
         <v>32</v>
       </c>
       <c r="C165" s="32" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="D165" s="30"/>
       <c r="E165" s="30" t="s">
@@ -7670,7 +7788,7 @@
         <v>32</v>
       </c>
       <c r="C166" s="32" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="D166" s="30"/>
       <c r="E166" s="30" t="s">
@@ -7695,7 +7813,7 @@
         <v>32</v>
       </c>
       <c r="C167" s="20" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
       <c r="D167" s="30"/>
       <c r="E167" s="30" t="s">
@@ -7720,7 +7838,7 @@
         <v>32</v>
       </c>
       <c r="C168" s="20" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
       <c r="D168" s="30"/>
       <c r="E168" s="30" t="s">
@@ -7739,13 +7857,13 @@
     </row>
     <row r="169" spans="1:9" ht="45">
       <c r="A169" s="22" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
       <c r="B169" s="24" t="s">
         <v>32</v>
       </c>
       <c r="C169" s="35" t="s">
-        <v>506</v>
+        <v>504</v>
       </c>
       <c r="D169" s="33"/>
       <c r="E169" s="33" t="s">
@@ -7764,13 +7882,13 @@
     </row>
     <row r="170" spans="1:9" ht="45">
       <c r="A170" s="22" t="s">
-        <v>508</v>
+        <v>506</v>
       </c>
       <c r="B170" s="24" t="s">
         <v>32</v>
       </c>
       <c r="C170" s="35" t="s">
-        <v>517</v>
+        <v>515</v>
       </c>
       <c r="D170" s="33"/>
       <c r="E170" s="33" t="s">
@@ -7795,7 +7913,7 @@
         <v>32</v>
       </c>
       <c r="C171" s="20" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
       <c r="D171" s="30"/>
       <c r="E171" s="30" t="s">
@@ -7820,7 +7938,7 @@
         <v>33</v>
       </c>
       <c r="C172" s="20" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
       <c r="D172" s="30"/>
       <c r="E172" s="30" t="s">
@@ -7845,7 +7963,7 @@
         <v>33</v>
       </c>
       <c r="C173" s="32" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="D173" s="30"/>
       <c r="E173" s="30" t="s">
@@ -7870,7 +7988,7 @@
         <v>33</v>
       </c>
       <c r="C174" s="32" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="D174" s="30"/>
       <c r="E174" s="30" t="s">
@@ -7895,7 +8013,7 @@
         <v>33</v>
       </c>
       <c r="C175" s="32" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="D175" s="30"/>
       <c r="E175" s="30" t="s">
@@ -7920,7 +8038,7 @@
         <v>33</v>
       </c>
       <c r="C176" s="20" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="D176" s="30"/>
       <c r="E176" s="30" t="s">
@@ -7945,7 +8063,7 @@
         <v>33</v>
       </c>
       <c r="C177" s="20" t="s">
-        <v>512</v>
+        <v>510</v>
       </c>
       <c r="D177" s="30"/>
       <c r="E177" s="30" t="s">
@@ -7964,13 +8082,13 @@
     </row>
     <row r="178" spans="1:9" ht="45">
       <c r="A178" s="22" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
       <c r="B178" s="24" t="s">
         <v>33</v>
       </c>
       <c r="C178" s="35" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
       <c r="D178" s="33"/>
       <c r="E178" s="33" t="s">
@@ -7989,13 +8107,13 @@
     </row>
     <row r="179" spans="1:9" ht="60">
       <c r="A179" s="22" t="s">
-        <v>516</v>
+        <v>514</v>
       </c>
       <c r="B179" s="24" t="s">
         <v>33</v>
       </c>
       <c r="C179" s="35" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
       <c r="D179" s="33"/>
       <c r="E179" s="33" t="s">
@@ -8020,7 +8138,7 @@
         <v>33</v>
       </c>
       <c r="C180" s="20" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="D180" s="30"/>
       <c r="E180" s="30" t="s">
@@ -8045,7 +8163,7 @@
         <v>267</v>
       </c>
       <c r="C181" s="20" t="s">
-        <v>518</v>
+        <v>516</v>
       </c>
       <c r="D181" s="30"/>
       <c r="E181" s="30" t="s">
@@ -8070,7 +8188,7 @@
         <v>267</v>
       </c>
       <c r="C182" s="32" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="D182" s="30"/>
       <c r="E182" s="30" t="s">
@@ -8095,7 +8213,7 @@
         <v>267</v>
       </c>
       <c r="C183" s="32" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="D183" s="30"/>
       <c r="E183" s="30" t="s">
@@ -8120,7 +8238,7 @@
         <v>267</v>
       </c>
       <c r="C184" s="20" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="D184" s="30"/>
       <c r="E184" s="30" t="s">
@@ -8145,7 +8263,7 @@
         <v>267</v>
       </c>
       <c r="C185" s="20" t="s">
-        <v>519</v>
+        <v>517</v>
       </c>
       <c r="D185" s="30"/>
       <c r="E185" s="30" t="s">
@@ -8170,7 +8288,7 @@
         <v>267</v>
       </c>
       <c r="C186" s="20" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
       <c r="D186" s="30"/>
       <c r="E186" s="30" t="s">
@@ -8189,13 +8307,13 @@
     </row>
     <row r="187" spans="1:9" ht="45">
       <c r="A187" s="22" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
       <c r="B187" s="24" t="s">
         <v>267</v>
       </c>
       <c r="C187" s="35" t="s">
-        <v>522</v>
+        <v>520</v>
       </c>
       <c r="D187" s="33"/>
       <c r="E187" s="30" t="s">
@@ -8214,13 +8332,13 @@
     </row>
     <row r="188" spans="1:9" ht="60">
       <c r="A188" s="22" t="s">
-        <v>525</v>
+        <v>523</v>
       </c>
       <c r="B188" s="24" t="s">
         <v>267</v>
       </c>
       <c r="C188" s="35" t="s">
-        <v>523</v>
+        <v>521</v>
       </c>
       <c r="D188" s="33"/>
       <c r="E188" s="30" t="s">
@@ -8245,7 +8363,7 @@
         <v>267</v>
       </c>
       <c r="C189" s="20" t="s">
-        <v>521</v>
+        <v>519</v>
       </c>
       <c r="D189" s="30"/>
       <c r="E189" s="30" t="s">
@@ -8270,7 +8388,7 @@
         <v>268</v>
       </c>
       <c r="C190" s="20" t="s">
-        <v>526</v>
+        <v>524</v>
       </c>
       <c r="D190" s="30"/>
       <c r="E190" s="30" t="s">
@@ -8295,7 +8413,7 @@
         <v>268</v>
       </c>
       <c r="C191" s="32" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="D191" s="30"/>
       <c r="E191" s="30" t="s">
@@ -8320,7 +8438,7 @@
         <v>268</v>
       </c>
       <c r="C192" s="32" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="D192" s="30"/>
       <c r="E192" s="30" t="s">
@@ -8345,7 +8463,7 @@
         <v>268</v>
       </c>
       <c r="C193" s="32" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="D193" s="30"/>
       <c r="E193" s="30" t="s">
@@ -8370,7 +8488,7 @@
         <v>268</v>
       </c>
       <c r="C194" s="32" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="D194" s="30"/>
       <c r="E194" s="30" t="s">
@@ -8395,7 +8513,7 @@
         <v>268</v>
       </c>
       <c r="C195" s="32" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="D195" s="30"/>
       <c r="E195" s="30" t="s">
@@ -8420,7 +8538,7 @@
         <v>268</v>
       </c>
       <c r="C196" s="32" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="D196" s="30"/>
       <c r="E196" s="30" t="s">
@@ -8445,7 +8563,7 @@
         <v>268</v>
       </c>
       <c r="C197" s="32" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="D197" s="30"/>
       <c r="E197" s="30" t="s">
@@ -8470,7 +8588,7 @@
         <v>268</v>
       </c>
       <c r="C198" s="32" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="D198" s="30"/>
       <c r="E198" s="30" t="s">
@@ -8495,7 +8613,7 @@
         <v>268</v>
       </c>
       <c r="C199" s="32" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="D199" s="30"/>
       <c r="E199" s="30" t="s">
@@ -8520,7 +8638,7 @@
         <v>268</v>
       </c>
       <c r="C200" s="32" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="D200" s="30"/>
       <c r="E200" s="30" t="s">
@@ -8545,7 +8663,7 @@
         <v>268</v>
       </c>
       <c r="C201" s="32" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="D201" s="30"/>
       <c r="E201" s="30" t="s">
@@ -8570,7 +8688,7 @@
         <v>268</v>
       </c>
       <c r="C202" s="32" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="D202" s="30"/>
       <c r="E202" s="30" t="s">
@@ -8595,7 +8713,7 @@
         <v>268</v>
       </c>
       <c r="C203" s="32" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="D203" s="30"/>
       <c r="E203" s="30" t="s">
@@ -8611,7 +8729,7 @@
         <v>17</v>
       </c>
       <c r="I203" s="20" t="s">
-        <v>566</v>
+        <v>564</v>
       </c>
     </row>
     <row r="204" spans="1:9" ht="30">
@@ -8622,7 +8740,7 @@
         <v>268</v>
       </c>
       <c r="C204" s="32" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="D204" s="30"/>
       <c r="E204" s="30" t="s">
@@ -8638,10 +8756,10 @@
         <v>17</v>
       </c>
       <c r="I204" s="20" t="s">
-        <v>575</v>
-      </c>
-    </row>
-    <row r="205" spans="1:9" ht="30">
+        <v>573</v>
+      </c>
+    </row>
+    <row r="205" spans="1:9" ht="60">
       <c r="A205" s="30" t="s">
         <v>196</v>
       </c>
@@ -8649,7 +8767,7 @@
         <v>268</v>
       </c>
       <c r="C205" s="32" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="D205" s="30"/>
       <c r="E205" s="30" t="s">
@@ -8662,9 +8780,11 @@
         <v>15</v>
       </c>
       <c r="H205" s="22" t="s">
-        <v>18</v>
-      </c>
-      <c r="I205" s="20"/>
+        <v>17</v>
+      </c>
+      <c r="I205" s="20" t="s">
+        <v>581</v>
+      </c>
     </row>
     <row r="206" spans="1:9" ht="30">
       <c r="A206" s="30" t="s">
@@ -8674,7 +8794,7 @@
         <v>268</v>
       </c>
       <c r="C206" s="32" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="D206" s="30"/>
       <c r="E206" s="30" t="s">
@@ -8690,7 +8810,7 @@
         <v>17</v>
       </c>
       <c r="I206" s="20" t="s">
-        <v>578</v>
+        <v>576</v>
       </c>
     </row>
     <row r="207" spans="1:9" ht="30">
@@ -8701,7 +8821,7 @@
         <v>268</v>
       </c>
       <c r="C207" s="32" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="D207" s="30"/>
       <c r="E207" s="30" t="s">
@@ -8726,7 +8846,7 @@
         <v>268</v>
       </c>
       <c r="C208" s="20" t="s">
-        <v>527</v>
+        <v>525</v>
       </c>
       <c r="D208" s="30"/>
       <c r="E208" s="30" t="s">
@@ -8751,7 +8871,7 @@
         <v>268</v>
       </c>
       <c r="C209" s="20" t="s">
-        <v>528</v>
+        <v>526</v>
       </c>
       <c r="D209" s="30"/>
       <c r="E209" s="30" t="s">
@@ -8770,13 +8890,13 @@
     </row>
     <row r="210" spans="1:9" ht="45">
       <c r="A210" s="22" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
       <c r="B210" s="24" t="s">
         <v>268</v>
       </c>
       <c r="C210" s="35" t="s">
-        <v>529</v>
+        <v>527</v>
       </c>
       <c r="D210" s="33"/>
       <c r="E210" s="30" t="s">
@@ -8795,13 +8915,13 @@
     </row>
     <row r="211" spans="1:9" ht="45">
       <c r="A211" s="22" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
       <c r="B211" s="24" t="s">
         <v>268</v>
       </c>
       <c r="C211" s="35" t="s">
-        <v>530</v>
+        <v>528</v>
       </c>
       <c r="D211" s="33"/>
       <c r="E211" s="30" t="s">
@@ -8826,7 +8946,7 @@
         <v>268</v>
       </c>
       <c r="C212" s="20" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="D212" s="30"/>
       <c r="E212" s="30" t="s">
@@ -8851,7 +8971,7 @@
         <v>269</v>
       </c>
       <c r="C213" s="20" t="s">
-        <v>533</v>
+        <v>531</v>
       </c>
       <c r="D213" s="30"/>
       <c r="E213" s="30" t="s">
@@ -8876,7 +8996,7 @@
         <v>269</v>
       </c>
       <c r="C214" s="32" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="D214" s="30"/>
       <c r="E214" s="30" t="s">
@@ -8901,7 +9021,7 @@
         <v>269</v>
       </c>
       <c r="C215" s="32" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="D215" s="30"/>
       <c r="E215" s="30" t="s">
@@ -8926,7 +9046,7 @@
         <v>269</v>
       </c>
       <c r="C216" s="32" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="D216" s="30"/>
       <c r="E216" s="30" t="s">
@@ -8951,7 +9071,7 @@
         <v>269</v>
       </c>
       <c r="C217" s="20" t="s">
-        <v>534</v>
+        <v>532</v>
       </c>
       <c r="D217" s="30"/>
       <c r="E217" s="30" t="s">
@@ -8976,7 +9096,7 @@
         <v>269</v>
       </c>
       <c r="C218" s="20" t="s">
-        <v>535</v>
+        <v>533</v>
       </c>
       <c r="D218" s="30"/>
       <c r="E218" s="30" t="s">
@@ -8995,13 +9115,13 @@
     </row>
     <row r="219" spans="1:9" ht="45">
       <c r="A219" s="22" t="s">
-        <v>538</v>
+        <v>536</v>
       </c>
       <c r="B219" s="31" t="s">
         <v>269</v>
       </c>
       <c r="C219" s="35" t="s">
-        <v>536</v>
+        <v>534</v>
       </c>
       <c r="D219" s="33"/>
       <c r="E219" s="30" t="s">
@@ -9020,13 +9140,13 @@
     </row>
     <row r="220" spans="1:9" ht="45">
       <c r="A220" s="22" t="s">
-        <v>539</v>
+        <v>537</v>
       </c>
       <c r="B220" s="31" t="s">
         <v>269</v>
       </c>
       <c r="C220" s="35" t="s">
-        <v>537</v>
+        <v>535</v>
       </c>
       <c r="D220" s="33"/>
       <c r="E220" s="30" t="s">
@@ -9051,7 +9171,7 @@
         <v>269</v>
       </c>
       <c r="C221" s="20" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="D221" s="30"/>
       <c r="E221" s="30" t="s">
@@ -9076,7 +9196,7 @@
         <v>270</v>
       </c>
       <c r="C222" s="32" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="D222" s="30"/>
       <c r="E222" s="30" t="s">
@@ -9101,7 +9221,7 @@
         <v>270</v>
       </c>
       <c r="C223" s="32" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="D223" s="30"/>
       <c r="E223" s="30" t="s">
@@ -9126,7 +9246,7 @@
         <v>270</v>
       </c>
       <c r="C224" s="32" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="D224" s="30"/>
       <c r="E224" s="30" t="s">
@@ -9151,7 +9271,7 @@
         <v>270</v>
       </c>
       <c r="C225" s="32" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="D225" s="30"/>
       <c r="E225" s="30" t="s">
@@ -9176,7 +9296,7 @@
         <v>270</v>
       </c>
       <c r="C226" s="32" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="D226" s="30"/>
       <c r="E226" s="30" t="s">
@@ -9201,7 +9321,7 @@
         <v>270</v>
       </c>
       <c r="C227" s="32" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="D227" s="30"/>
       <c r="E227" s="30" t="s">
@@ -9226,7 +9346,7 @@
         <v>270</v>
       </c>
       <c r="C228" s="32" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="D228" s="30"/>
       <c r="E228" s="30" t="s">
@@ -9251,7 +9371,7 @@
         <v>271</v>
       </c>
       <c r="C229" s="20" t="s">
-        <v>540</v>
+        <v>538</v>
       </c>
       <c r="D229" s="30"/>
       <c r="E229" s="30" t="s">
@@ -9276,7 +9396,7 @@
         <v>271</v>
       </c>
       <c r="C230" s="32" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="D230" s="30"/>
       <c r="E230" s="30" t="s">
@@ -9301,7 +9421,7 @@
         <v>271</v>
       </c>
       <c r="C231" s="32" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="D231" s="30"/>
       <c r="E231" s="30" t="s">
@@ -9326,7 +9446,7 @@
         <v>271</v>
       </c>
       <c r="C232" s="32" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="D232" s="30"/>
       <c r="E232" s="30" t="s">
@@ -9351,7 +9471,7 @@
         <v>271</v>
       </c>
       <c r="C233" s="32" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="D233" s="30"/>
       <c r="E233" s="30" t="s">
@@ -9376,7 +9496,7 @@
         <v>271</v>
       </c>
       <c r="C234" s="32" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="D234" s="30"/>
       <c r="E234" s="30" t="s">
@@ -9401,7 +9521,7 @@
         <v>271</v>
       </c>
       <c r="C235" s="32" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="D235" s="30"/>
       <c r="E235" s="30" t="s">
@@ -9426,7 +9546,7 @@
         <v>271</v>
       </c>
       <c r="C236" s="20" t="s">
-        <v>541</v>
+        <v>539</v>
       </c>
       <c r="D236" s="30"/>
       <c r="E236" s="30" t="s">
@@ -9451,7 +9571,7 @@
         <v>271</v>
       </c>
       <c r="C237" s="20" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
       <c r="D237" s="30"/>
       <c r="E237" s="30" t="s">
@@ -9470,13 +9590,13 @@
     </row>
     <row r="238" spans="1:9" ht="45">
       <c r="A238" s="22" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
       <c r="B238" s="24" t="s">
         <v>271</v>
       </c>
       <c r="C238" s="35" t="s">
-        <v>543</v>
+        <v>541</v>
       </c>
       <c r="D238" s="33"/>
       <c r="E238" s="30" t="s">
@@ -9495,13 +9615,13 @@
     </row>
     <row r="239" spans="1:9" ht="60">
       <c r="A239" s="22" t="s">
-        <v>546</v>
+        <v>544</v>
       </c>
       <c r="B239" s="24" t="s">
         <v>271</v>
       </c>
       <c r="C239" s="35" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
       <c r="D239" s="33"/>
       <c r="E239" s="30" t="s">
@@ -9526,7 +9646,7 @@
         <v>271</v>
       </c>
       <c r="C240" s="32" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="D240" s="30"/>
       <c r="E240" s="30" t="s">
@@ -9551,7 +9671,7 @@
         <v>272</v>
       </c>
       <c r="C241" s="32" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="D241" s="30"/>
       <c r="E241" s="30" t="s">
@@ -9576,10 +9696,10 @@
         <v>272</v>
       </c>
       <c r="C242" s="20" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="D242" s="30" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="E242" s="30" t="s">
         <v>22</v>
@@ -9594,7 +9714,7 @@
         <v>21</v>
       </c>
       <c r="I242" s="32" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
     </row>
     <row r="243" spans="1:9" ht="30">
@@ -9605,7 +9725,7 @@
         <v>272</v>
       </c>
       <c r="C243" s="32" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="D243" s="30"/>
       <c r="E243" s="30" t="s">
@@ -9624,16 +9744,16 @@
     </row>
     <row r="244" spans="1:9" ht="45">
       <c r="A244" s="22" t="s">
-        <v>553</v>
+        <v>551</v>
       </c>
       <c r="B244" s="31" t="s">
         <v>272</v>
       </c>
       <c r="C244" s="35" t="s">
-        <v>547</v>
+        <v>545</v>
       </c>
       <c r="D244" s="33" t="s">
-        <v>559</v>
+        <v>557</v>
       </c>
       <c r="E244" s="30" t="s">
         <v>22</v>
@@ -9651,16 +9771,16 @@
     </row>
     <row r="245" spans="1:9" ht="45">
       <c r="A245" s="22" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
       <c r="B245" s="31" t="s">
         <v>272</v>
       </c>
       <c r="C245" s="35" t="s">
-        <v>548</v>
+        <v>546</v>
       </c>
       <c r="D245" s="33" t="s">
-        <v>559</v>
+        <v>557</v>
       </c>
       <c r="E245" s="30" t="s">
         <v>22</v>
@@ -9672,24 +9792,24 @@
         <v>15</v>
       </c>
       <c r="H245" s="33" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="I245" s="35" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
     </row>
     <row r="246" spans="1:9" ht="45">
       <c r="A246" s="22" t="s">
-        <v>555</v>
+        <v>553</v>
       </c>
       <c r="B246" s="31" t="s">
         <v>272</v>
       </c>
       <c r="C246" s="35" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
       <c r="D246" s="33" t="s">
-        <v>561</v>
+        <v>559</v>
       </c>
       <c r="E246" s="30" t="s">
         <v>22</v>
@@ -9707,16 +9827,16 @@
     </row>
     <row r="247" spans="1:9" ht="45">
       <c r="A247" s="22" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
       <c r="B247" s="31" t="s">
         <v>272</v>
       </c>
       <c r="C247" s="35" t="s">
-        <v>551</v>
+        <v>549</v>
       </c>
       <c r="D247" s="33" t="s">
-        <v>561</v>
+        <v>559</v>
       </c>
       <c r="E247" s="30" t="s">
         <v>22</v>
@@ -9728,24 +9848,24 @@
         <v>15</v>
       </c>
       <c r="H247" s="33" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="I247" s="35" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
     </row>
     <row r="248" spans="1:9" ht="45">
       <c r="A248" s="22" t="s">
-        <v>557</v>
+        <v>555</v>
       </c>
       <c r="B248" s="31" t="s">
         <v>272</v>
       </c>
       <c r="C248" s="35" t="s">
-        <v>549</v>
+        <v>547</v>
       </c>
       <c r="D248" s="33" t="s">
-        <v>563</v>
+        <v>561</v>
       </c>
       <c r="E248" s="30" t="s">
         <v>22</v>
@@ -9763,16 +9883,16 @@
     </row>
     <row r="249" spans="1:9" ht="45">
       <c r="A249" s="22" t="s">
-        <v>558</v>
+        <v>556</v>
       </c>
       <c r="B249" s="31" t="s">
         <v>272</v>
       </c>
       <c r="C249" s="35" t="s">
-        <v>550</v>
+        <v>548</v>
       </c>
       <c r="D249" s="33" t="s">
-        <v>563</v>
+        <v>561</v>
       </c>
       <c r="E249" s="30" t="s">
         <v>22</v>
@@ -9784,10 +9904,10 @@
         <v>15</v>
       </c>
       <c r="H249" s="33" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="I249" s="35" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
     </row>
     <row r="250" spans="1:9" ht="180">
@@ -9798,7 +9918,7 @@
         <v>273</v>
       </c>
       <c r="C250" s="32" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="D250" s="30"/>
       <c r="E250" s="30" t="s">
@@ -9823,7 +9943,7 @@
         <v>273</v>
       </c>
       <c r="C251" s="32" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="D251" s="30"/>
       <c r="E251" s="30" t="s">
@@ -9848,7 +9968,7 @@
         <v>274</v>
       </c>
       <c r="C252" s="32" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="D252" s="30"/>
       <c r="E252" s="30" t="s">
@@ -9863,8 +9983,8 @@
       <c r="H252" s="30" t="s">
         <v>17</v>
       </c>
-      <c r="I252" s="32" t="s">
-        <v>441</v>
+      <c r="I252" s="20" t="s">
+        <v>439</v>
       </c>
     </row>
     <row r="253" spans="1:9" ht="105">
@@ -9875,7 +9995,7 @@
         <v>274</v>
       </c>
       <c r="C253" s="32" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="D253" s="30"/>
       <c r="E253" s="30" t="s">
@@ -9900,7 +10020,7 @@
         <v>275</v>
       </c>
       <c r="C254" s="32" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="D254" s="30"/>
       <c r="E254" s="30" t="s">
@@ -9925,7 +10045,7 @@
         <v>276</v>
       </c>
       <c r="C255" s="32" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="D255" s="30"/>
       <c r="E255" s="30" t="s">
@@ -9950,7 +10070,7 @@
         <v>277</v>
       </c>
       <c r="C256" s="32" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="D256" s="30"/>
       <c r="E256" s="30" t="s">
@@ -9967,15 +10087,15 @@
       </c>
       <c r="I256" s="32"/>
     </row>
-    <row r="257" spans="1:10" ht="30">
+    <row r="257" spans="1:10" ht="60">
       <c r="A257" s="22" t="s">
+        <v>565</v>
+      </c>
+      <c r="B257" s="24" t="s">
+        <v>566</v>
+      </c>
+      <c r="C257" s="20" t="s">
         <v>567</v>
-      </c>
-      <c r="B257" s="24" t="s">
-        <v>568</v>
-      </c>
-      <c r="C257" s="20" t="s">
-        <v>569</v>
       </c>
       <c r="D257" s="22"/>
       <c r="E257" s="22" t="s">
@@ -9988,23 +10108,25 @@
         <v>15</v>
       </c>
       <c r="H257" s="22" t="s">
-        <v>20</v>
-      </c>
-      <c r="I257" s="20"/>
+        <v>17</v>
+      </c>
+      <c r="I257" s="20" t="s">
+        <v>589</v>
+      </c>
       <c r="J257"/>
     </row>
     <row r="258" spans="1:10" ht="30">
       <c r="A258" s="22" t="s">
+        <v>568</v>
+      </c>
+      <c r="B258" s="24" t="s">
+        <v>566</v>
+      </c>
+      <c r="C258" s="20" t="s">
+        <v>569</v>
+      </c>
+      <c r="D258" s="22" t="s">
         <v>570</v>
-      </c>
-      <c r="B258" s="24" t="s">
-        <v>568</v>
-      </c>
-      <c r="C258" s="20" t="s">
-        <v>571</v>
-      </c>
-      <c r="D258" s="22" t="s">
-        <v>572</v>
       </c>
       <c r="E258" s="22" t="s">
         <v>19</v>
@@ -10023,16 +10145,16 @@
     </row>
     <row r="259" spans="1:10" ht="30">
       <c r="A259" s="22" t="s">
-        <v>573</v>
+        <v>571</v>
       </c>
       <c r="B259" s="24" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
       <c r="C259" s="20" t="s">
-        <v>574</v>
+        <v>572</v>
       </c>
       <c r="D259" s="22" t="s">
-        <v>572</v>
+        <v>570</v>
       </c>
       <c r="E259" s="22" t="s">
         <v>19</v>
@@ -10051,13 +10173,13 @@
     </row>
     <row r="260" spans="1:10" ht="45">
       <c r="A260" s="22" t="s">
-        <v>576</v>
+        <v>574</v>
       </c>
       <c r="B260" s="24" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
       <c r="C260" s="20" t="s">
-        <v>577</v>
+        <v>575</v>
       </c>
       <c r="D260" s="22"/>
       <c r="E260" s="22" t="s">
@@ -10077,13 +10199,13 @@
     </row>
     <row r="261" spans="1:10" ht="45">
       <c r="A261" s="22" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="B261" s="24" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
       <c r="C261" s="20" t="s">
-        <v>580</v>
+        <v>578</v>
       </c>
       <c r="D261" s="22"/>
       <c r="E261" s="22" t="s">
@@ -10101,12 +10223,101 @@
       <c r="I261" s="20"/>
       <c r="J261"/>
     </row>
-    <row r="262" spans="1:10">
-      <c r="A262" s="3"/>
-      <c r="B262" s="10"/>
+    <row r="262" spans="1:10" ht="60">
+      <c r="A262" s="22" t="s">
+        <v>582</v>
+      </c>
+      <c r="B262" s="24" t="s">
+        <v>566</v>
+      </c>
+      <c r="C262" s="20" t="s">
+        <v>583</v>
+      </c>
+      <c r="D262" s="22"/>
+      <c r="E262" s="22" t="s">
+        <v>19</v>
+      </c>
+      <c r="F262" s="22" t="s">
+        <v>3</v>
+      </c>
+      <c r="G262" s="22" t="s">
+        <v>15</v>
+      </c>
+      <c r="H262" s="22" t="s">
+        <v>17</v>
+      </c>
+      <c r="I262" s="20" t="s">
+        <v>590</v>
+      </c>
+      <c r="J262"/>
+    </row>
+    <row r="263" spans="1:10" ht="30">
+      <c r="A263" s="22" t="s">
+        <v>584</v>
+      </c>
+      <c r="B263" s="24" t="s">
+        <v>566</v>
+      </c>
+      <c r="C263" s="20" t="s">
+        <v>585</v>
+      </c>
+      <c r="D263" s="22" t="s">
+        <v>586</v>
+      </c>
+      <c r="E263" s="22" t="s">
+        <v>19</v>
+      </c>
+      <c r="F263" s="22" t="s">
+        <v>3</v>
+      </c>
+      <c r="G263" s="22" t="s">
+        <v>15</v>
+      </c>
+      <c r="H263" s="22" t="s">
+        <v>20</v>
+      </c>
+      <c r="I263" s="20"/>
+      <c r="J263"/>
+    </row>
+    <row r="264" spans="1:10" ht="30">
+      <c r="A264" s="22" t="s">
+        <v>587</v>
+      </c>
+      <c r="B264" s="24" t="s">
+        <v>566</v>
+      </c>
+      <c r="C264" s="20" t="s">
+        <v>588</v>
+      </c>
+      <c r="D264" s="22" t="s">
+        <v>586</v>
+      </c>
+      <c r="E264" s="22" t="s">
+        <v>19</v>
+      </c>
+      <c r="F264" s="22" t="s">
+        <v>3</v>
+      </c>
+      <c r="G264" s="22" t="s">
+        <v>15</v>
+      </c>
+      <c r="H264" s="22" t="s">
+        <v>20</v>
+      </c>
+      <c r="I264" s="20"/>
+      <c r="J264"/>
+    </row>
+    <row r="265" spans="1:10">
+      <c r="A265" s="3"/>
+      <c r="B265" s="10"/>
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="A4:G4"/>
+    <mergeCell ref="B8:I8"/>
+    <mergeCell ref="B7:I7"/>
+    <mergeCell ref="B6:I6"/>
+    <mergeCell ref="B5:I5"/>
     <mergeCell ref="B11:I11"/>
     <mergeCell ref="D12:I15"/>
     <mergeCell ref="B16:I16"/>
@@ -10114,201 +10325,226 @@
     <mergeCell ref="B9:I9"/>
     <mergeCell ref="B10:I10"/>
     <mergeCell ref="B17:I17"/>
-    <mergeCell ref="A4:G4"/>
-    <mergeCell ref="B8:I8"/>
-    <mergeCell ref="B7:I7"/>
-    <mergeCell ref="B6:I6"/>
-    <mergeCell ref="B5:I5"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="A20:I255">
-    <cfRule type="expression" dxfId="66" priority="117">
+    <cfRule type="expression" dxfId="55" priority="125">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Section Deleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="65" priority="118">
+    <cfRule type="expression" dxfId="54" priority="126">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Deleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="64" priority="125">
+    <cfRule type="expression" dxfId="53" priority="133">
       <formula>EXACT(INDIRECT("L"&amp;ROW()),"Deleted")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A20:I255">
-    <cfRule type="expression" dxfId="63" priority="71">
+    <cfRule type="expression" dxfId="52" priority="79">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"SectionDeleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="62" priority="72">
+    <cfRule type="expression" dxfId="51" priority="80">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Deleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="61" priority="73">
+    <cfRule type="expression" dxfId="50" priority="81">
       <formula>EXACT(INDIRECT("L"&amp;ROW()),"Deleted")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F20:F255">
-    <cfRule type="expression" dxfId="60" priority="77">
+    <cfRule type="expression" dxfId="49" priority="85">
       <formula>NOT(VLOOKUP(F20,$A$12:$C$15,2,FALSE)="In")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="59" priority="78">
+    <cfRule type="expression" dxfId="48" priority="86">
       <formula>(VLOOKUP(F20,$A$12:$C$15,2,FALSE)="In")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A260:I260">
-    <cfRule type="expression" dxfId="58" priority="22">
+    <cfRule type="expression" dxfId="47" priority="30">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Section Deleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="57" priority="23">
+    <cfRule type="expression" dxfId="46" priority="31">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Deleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="56" priority="24">
+    <cfRule type="expression" dxfId="45" priority="32">
       <formula>EXACT(INDIRECT("L"&amp;ROW()),"Deleted")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A260:I260">
-    <cfRule type="expression" dxfId="55" priority="17">
+    <cfRule type="expression" dxfId="44" priority="25">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"SectionDeleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="54" priority="18">
+    <cfRule type="expression" dxfId="43" priority="26">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Deleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="53" priority="19">
+    <cfRule type="expression" dxfId="42" priority="27">
       <formula>EXACT(INDIRECT("L"&amp;ROW()),"Deleted")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F260">
-    <cfRule type="expression" dxfId="52" priority="20">
+    <cfRule type="expression" dxfId="41" priority="28">
       <formula>NOT(VLOOKUP(F260,$A$12:$C$15,2,FALSE)="In")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="51" priority="21">
+    <cfRule type="expression" dxfId="40" priority="29">
       <formula>(VLOOKUP(F260,$A$12:$C$15,2,FALSE)="In")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A256:I256">
-    <cfRule type="expression" dxfId="50" priority="54">
+    <cfRule type="expression" dxfId="39" priority="62">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Section Deleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="49" priority="55">
+    <cfRule type="expression" dxfId="38" priority="63">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Deleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="48" priority="56">
+    <cfRule type="expression" dxfId="37" priority="64">
       <formula>EXACT(INDIRECT("L"&amp;ROW()),"Deleted")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A256:I256">
-    <cfRule type="expression" dxfId="47" priority="49">
+    <cfRule type="expression" dxfId="36" priority="57">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"SectionDeleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="46" priority="50">
+    <cfRule type="expression" dxfId="35" priority="58">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Deleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="45" priority="51">
+    <cfRule type="expression" dxfId="34" priority="59">
       <formula>EXACT(INDIRECT("L"&amp;ROW()),"Deleted")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F256">
-    <cfRule type="expression" dxfId="44" priority="52">
+    <cfRule type="expression" dxfId="33" priority="60">
       <formula>NOT(VLOOKUP(F256,$A$12:$C$15,2,FALSE)="In")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="43" priority="53">
+    <cfRule type="expression" dxfId="32" priority="61">
       <formula>(VLOOKUP(F256,$A$12:$C$15,2,FALSE)="In")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A257:I257">
-    <cfRule type="expression" dxfId="42" priority="38">
+    <cfRule type="expression" dxfId="31" priority="46">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Section Deleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="41" priority="39">
+    <cfRule type="expression" dxfId="30" priority="47">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Deleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="40" priority="40">
+    <cfRule type="expression" dxfId="29" priority="48">
       <formula>EXACT(INDIRECT("L"&amp;ROW()),"Deleted")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A257:I257">
-    <cfRule type="expression" dxfId="39" priority="33">
+    <cfRule type="expression" dxfId="28" priority="41">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"SectionDeleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="38" priority="34">
+    <cfRule type="expression" dxfId="27" priority="42">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Deleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="37" priority="35">
+    <cfRule type="expression" dxfId="26" priority="43">
       <formula>EXACT(INDIRECT("L"&amp;ROW()),"Deleted")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F257">
-    <cfRule type="expression" dxfId="36" priority="36">
+    <cfRule type="expression" dxfId="25" priority="44">
       <formula>NOT(VLOOKUP(F257,$A$12:$C$15,2,FALSE)="In")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="35" priority="37">
+    <cfRule type="expression" dxfId="24" priority="45">
       <formula>(VLOOKUP(F257,$A$12:$C$15,2,FALSE)="In")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A258:I259">
-    <cfRule type="expression" dxfId="34" priority="30">
+    <cfRule type="expression" dxfId="23" priority="38">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Section Deleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="33" priority="31">
+    <cfRule type="expression" dxfId="22" priority="39">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Deleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="32" priority="32">
+    <cfRule type="expression" dxfId="21" priority="40">
       <formula>EXACT(INDIRECT("L"&amp;ROW()),"Deleted")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A258:I259">
-    <cfRule type="expression" dxfId="31" priority="25">
+    <cfRule type="expression" dxfId="20" priority="33">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"SectionDeleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="30" priority="26">
+    <cfRule type="expression" dxfId="19" priority="34">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Deleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="29" priority="27">
+    <cfRule type="expression" dxfId="18" priority="35">
       <formula>EXACT(INDIRECT("L"&amp;ROW()),"Deleted")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F258:F259">
-    <cfRule type="expression" dxfId="28" priority="28">
+    <cfRule type="expression" dxfId="17" priority="36">
       <formula>NOT(VLOOKUP(F258,$A$12:$C$15,2,FALSE)="In")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="27" priority="29">
+    <cfRule type="expression" dxfId="16" priority="37">
       <formula>(VLOOKUP(F258,$A$12:$C$15,2,FALSE)="In")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A261:I261">
-    <cfRule type="expression" dxfId="26" priority="14">
+    <cfRule type="expression" dxfId="15" priority="22">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Section Deleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="25" priority="15">
+    <cfRule type="expression" dxfId="14" priority="23">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Deleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="24" priority="16">
+    <cfRule type="expression" dxfId="13" priority="24">
       <formula>EXACT(INDIRECT("L"&amp;ROW()),"Deleted")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A261:I261">
-    <cfRule type="expression" dxfId="23" priority="9">
+    <cfRule type="expression" dxfId="12" priority="17">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"SectionDeleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="22" priority="10">
+    <cfRule type="expression" dxfId="11" priority="18">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Deleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="21" priority="11">
+    <cfRule type="expression" dxfId="10" priority="19">
       <formula>EXACT(INDIRECT("L"&amp;ROW()),"Deleted")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F261">
-    <cfRule type="expression" dxfId="20" priority="12">
+    <cfRule type="expression" dxfId="9" priority="20">
       <formula>NOT(VLOOKUP(F261,$A$12:$C$15,2,FALSE)="In")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="19" priority="13">
+    <cfRule type="expression" dxfId="8" priority="21">
       <formula>(VLOOKUP(F261,$A$12:$C$15,2,FALSE)="In")</formula>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="A262:I264">
+    <cfRule type="expression" dxfId="7" priority="6">
+      <formula>EXACT(INDIRECT("P"&amp;ROW()),"Section Deleted")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="6" priority="7">
+      <formula>EXACT(INDIRECT("P"&amp;ROW()),"Deleted")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="5" priority="8">
+      <formula>EXACT(INDIRECT("L"&amp;ROW()),"Deleted")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A262:I264">
+    <cfRule type="expression" dxfId="4" priority="1">
+      <formula>EXACT(INDIRECT("P"&amp;ROW()),"SectionDeleted")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="2">
+      <formula>EXACT(INDIRECT("P"&amp;ROW()),"Deleted")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="2" priority="3">
+      <formula>EXACT(INDIRECT("L"&amp;ROW()),"Deleted")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F262:F264">
+    <cfRule type="expression" dxfId="1" priority="4">
+      <formula>NOT(VLOOKUP(F262,$A$12:$C$15,2,FALSE)="In")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="0" priority="5">
+      <formula>(VLOOKUP(F262,$A$12:$C$15,2,FALSE)="In")</formula>
+    </cfRule>
+  </conditionalFormatting>
   <dataValidations count="7">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F4 F20:F261">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F4 F20:F264">
       <formula1>$A$13:$A$15</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E4 E20:E261">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E4 E20:E264">
       <formula1>"Protocol,Product"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G4 G20:G261">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G4 G20:G264">
       <formula1>"Informative,Normative"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B13:B15">
@@ -10318,7 +10554,7 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H20:H256">
       <formula1>"Non-testable, Unverified, Adapter, Test Case"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H257:H261">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H257:H264">
       <formula1>"Message Deserialization, Non-testable, Unverified, Adapter, Test Case"</formula1>
     </dataValidation>
   </dataValidations>
@@ -10328,7 +10564,7 @@
     <oddFooter>&amp;F&amp;RPage &amp;P</oddFooter>
   </headerFooter>
   <ignoredErrors>
-    <ignoredError sqref="B1:B9 C3 B11:B16 B18:B21 B24:B30 B32:B118 B120:B121 B129:B162 B241:B243 B262 B250:B255" numberStoredAsText="1"/>
+    <ignoredError sqref="B1:B9 C3 B11:B16 B18:B21 B24:B30 B32:B118 B120:B121 B129:B162 B241:B243 B265 B250:B255" numberStoredAsText="1"/>
   </ignoredErrors>
   <tableParts count="2">
     <tablePart r:id="rId2"/>
@@ -10338,12 +10574,9 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -10396,15 +10629,24 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance">
-  <documentManagement/>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B6D33261-F3C6-4621-88F1-D76E5ABE1865}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{923F65C5-DEAB-400B-AA1F-124F40EE10AC}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -10425,15 +10667,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{923F65C5-DEAB-400B-AA1F-124F40EE10AC}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B6D33261-F3C6-4621-88F1-D76E5ABE1865}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/ExchangeWebServices/Docs/MS-OXWSMSG/MS-OXWSMSG_RequirementSpecification.xlsx
+++ b/ExchangeWebServices/Docs/MS-OXWSMSG/MS-OXWSMSG_RequirementSpecification.xlsx
@@ -1,8 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Source Depot\Repos\Interop-TestSuites-1\ExchangeWebServices\Docs\MS-OXWSMSG\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="-15" yWindow="60" windowWidth="15405" windowHeight="6900" tabRatio="570"/>
   </bookViews>
@@ -10,7 +15,7 @@
     <sheet name="Requirements" sheetId="2" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Requirements!$A$19:$G$264</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Requirements!$A$19:$G$265</definedName>
     <definedName name="ExtensionList">Requirements!#REF!</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">Requirements!$A:$A,Requirements!$19:$19</definedName>
     <definedName name="ScopeList">Requirements!#REF!</definedName>
@@ -28,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1796" uniqueCount="591">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1801" uniqueCount="594">
   <si>
     <t>Req ID</t>
   </si>
@@ -1178,9 +1183,6 @@
   </si>
   <si>
     <t>[In t:MessageType Complex Type] [ReplyTo element] This is a read/write element.</t>
-  </si>
-  <si>
-    <t>[In t:MessageType Complex Type] ReceivedBy element is t:SingleRecipientType type.</t>
   </si>
   <si>
     <t>[In t:MessageType Complex Type] ReceivedBy element Identifies the delegate in a delegate access scenario.</t>
@@ -2176,127 +2178,148 @@
     <t>[In Appendix C: Product Behavior] Implementation does introduce the VotingInformation element. (This element was introduced in Exchange 2013 SP1.)</t>
   </si>
   <si>
+    <t>MS-OXWSMSG_R182001</t>
+  </si>
+  <si>
+    <t>MS-OXWSMSG_R182002</t>
+  </si>
+  <si>
+    <t>MS-OXWSMSG_R182003</t>
+  </si>
+  <si>
+    <t>MS-OXWSMSG_R182004</t>
+  </si>
+  <si>
+    <t>MS-OXWSMSG_R182005</t>
+  </si>
+  <si>
+    <t>MS-OXWSMSG_R182006</t>
+  </si>
+  <si>
+    <t>MS-OXWSMSG_R73003:i</t>
+  </si>
+  <si>
+    <t>Verified by derived requirement: MS-OXWSMSG_R182004.</t>
+  </si>
+  <si>
+    <t>MS-OXWSMSG_R73005:i</t>
+  </si>
+  <si>
+    <t>Verified by derived requirement: MS-OXWSMSG_R182006.</t>
+  </si>
+  <si>
+    <t>MS-OXWSMSG_R73007:i</t>
+  </si>
+  <si>
+    <t>Verified by derived requirement: MS-OXWSMSG_R182002.</t>
+  </si>
+  <si>
+    <t>[In t:MessageType Complex Type] [ConversationTopic element] This element is read-only.</t>
+  </si>
+  <si>
+    <t>Verified by requirements: MS-OXWSCDATA_R1188, MS-OXWSCDATA_R21188, MS-OXWSCDATA_R21189.</t>
+  </si>
+  <si>
+    <t>MS-OXWSCDATA_R1188</t>
+  </si>
+  <si>
+    <t>2.2.4.38</t>
+  </si>
+  <si>
+    <t>[In t:ItemResponseShapeType Complex Type] [IncludeMimeContent is] True, specifies the MIME content of an item is returned in a response.</t>
+  </si>
+  <si>
+    <t>MS-OXWSCDATA_R1188:c</t>
+  </si>
+  <si>
+    <t>[In t:ItemResponseShapeType Complex Type] otherwise [IncludeMimeContent is] false, specifies [the MIME content of an item is not returned in a response].</t>
+  </si>
+  <si>
+    <t>Verified by requirement: MS-OXWSCDATA_R1190.</t>
+  </si>
+  <si>
+    <t>MS-OXWSCDATA_R1190</t>
+  </si>
+  <si>
+    <t>[In t:ItemResponseShapeType Complex Type] The element "BodyType" with type "t:BodyTypeResponseType(section 2.2.3.1)" specifies the requested body text format for the Body property that is returned in a response.</t>
+  </si>
+  <si>
+    <t>Verified by requirement: MS-OXWSCDATA_R1197.</t>
+  </si>
+  <si>
+    <t>MS-OXWSCDATA_R1197</t>
+  </si>
+  <si>
+    <t>[In t:ItemResponseShapeType Complex Type] The element "AdditionalProperties" with type "t:NonEmptyArrayOfPathsToElementType" specifies a set of requested additional properties to return in a response.</t>
+  </si>
+  <si>
+    <t>[In t:MessageType Complex Type] IsReadReceiptRequested element is xs:boolean ([XMLSCHEMA2] sec 3.2.2) type.</t>
+  </si>
+  <si>
+    <t>[In t:MessageType Complex Type] ConversationTopic element is xs:string ([XMLSCHEMA2] sec 3.2.1) type.</t>
+  </si>
+  <si>
+    <t>Verified by requirements: MS-OXWSCDATA_R1193, MS-OXWSCDATA_R21193, MS-OXWSCDATA_R21194.</t>
+  </si>
+  <si>
+    <t>MS-OXWSCDATA_R1193</t>
+  </si>
+  <si>
+    <t>[In t:ItemResponseShapeType Complex Type] The element "FilterHtmlContent" with type "xs:boolean" Specifies whether HTML content filtering is enabled.</t>
+  </si>
+  <si>
+    <t>MS-OXWSCDATA_R21193</t>
+  </si>
+  <si>
+    <t>[In t:ItemResponseShapeType Complex Type] [FilterHtmlContent is] True, specifies HTML content filtering is enabled.</t>
+  </si>
+  <si>
+    <t>MS-OXWSCDATA_R1193:c</t>
+  </si>
+  <si>
+    <t>MS-OXWSCDATA_R21194</t>
+  </si>
+  <si>
+    <t>[In t:ItemResponseShapeType Complex Type] otherwise [FilterHtmlContent is] false, specifies [HTML content filtering is not enabled].</t>
+  </si>
+  <si>
+    <t>Verified by derived requirements: MS-OXWSMSG_R21193, MS-OXWSMSG_R21194.</t>
+  </si>
+  <si>
+    <t>[In t:MessageType Complex Type] ReceivedBy element is t:SingleRecipientType type.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MS-OXWSCDATA_R21188</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MS-OXWSCDATA_R21189</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Verified by derived requirements: MS-OXWSCDATA_R21188, MS-OXWSCDATA_R21189.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[In t:ItemResponseShapeType Complex Type] The element "IncludeMimeContent" with type "xs:boolean" specifies whether the MIME content of an item is returned in a response.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MS-OXWSCDATA_R1428001</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>[In Appendix C: Product Behavior] Implementation does not support the VotingInformation element. (&lt;2&gt; Section 2.2.4.1:  Exchange 2007,Exchange 2010, and the initial release of Exchange 2013 do not support the VotingInformation element. This .)</t>
-  </si>
-  <si>
-    <t>MS-OXWSMSG_R182001</t>
-  </si>
-  <si>
-    <t>MS-OXWSMSG_R182002</t>
-  </si>
-  <si>
-    <t>MS-OXWSMSG_R182003</t>
-  </si>
-  <si>
-    <t>MS-OXWSMSG_R182004</t>
-  </si>
-  <si>
-    <t>MS-OXWSMSG_R182005</t>
-  </si>
-  <si>
-    <t>MS-OXWSMSG_R182006</t>
-  </si>
-  <si>
-    <t>MS-OXWSMSG_R73003:i</t>
-  </si>
-  <si>
-    <t>Verified by derived requirement: MS-OXWSMSG_R182004.</t>
-  </si>
-  <si>
-    <t>MS-OXWSMSG_R73005:i</t>
-  </si>
-  <si>
-    <t>Verified by derived requirement: MS-OXWSMSG_R182006.</t>
-  </si>
-  <si>
-    <t>MS-OXWSMSG_R73007:i</t>
-  </si>
-  <si>
-    <t>Verified by derived requirement: MS-OXWSMSG_R182002.</t>
-  </si>
-  <si>
-    <t>[In t:MessageType Complex Type] [ConversationTopic element] This element is read-only.</t>
-  </si>
-  <si>
-    <t>Verified by requirements: MS-OXWSCDATA_R1188, MS-OXWSCDATA_R21188, MS-OXWSCDATA_R21189.</t>
-  </si>
-  <si>
-    <t>MS-OXWSCDATA_R1188</t>
-  </si>
-  <si>
-    <t>2.2.4.38</t>
-  </si>
-  <si>
-    <t>[In t:ItemResponseShapeType Complex Type] The element "IncludeMimeContent" with type "xs:boolean" specifies whether the MIME content of an item is returned in a response.</t>
-  </si>
-  <si>
-    <t>MS-OXWSCDATA_R21188</t>
-  </si>
-  <si>
-    <t>[In t:ItemResponseShapeType Complex Type] [IncludeMimeContent is] True, specifies the MIME content of an item is returned in a response.</t>
-  </si>
-  <si>
-    <t>MS-OXWSCDATA_R1188:c</t>
-  </si>
-  <si>
-    <t>MS-OXWSCDATA_R21189</t>
-  </si>
-  <si>
-    <t>[In t:ItemResponseShapeType Complex Type] otherwise [IncludeMimeContent is] false, specifies [the MIME content of an item is not returned in a response].</t>
-  </si>
-  <si>
-    <t>Verified by requirement: MS-OXWSCDATA_R1190.</t>
-  </si>
-  <si>
-    <t>MS-OXWSCDATA_R1190</t>
-  </si>
-  <si>
-    <t>[In t:ItemResponseShapeType Complex Type] The element "BodyType" with type "t:BodyTypeResponseType(section 2.2.3.1)" specifies the requested body text format for the Body property that is returned in a response.</t>
-  </si>
-  <si>
-    <t>Verified by requirement: MS-OXWSCDATA_R1197.</t>
-  </si>
-  <si>
-    <t>MS-OXWSCDATA_R1197</t>
-  </si>
-  <si>
-    <t>[In t:ItemResponseShapeType Complex Type] The element "AdditionalProperties" with type "t:NonEmptyArrayOfPathsToElementType" specifies a set of requested additional properties to return in a response.</t>
-  </si>
-  <si>
-    <t>[In t:MessageType Complex Type] IsReadReceiptRequested element is xs:boolean ([XMLSCHEMA2] sec 3.2.2) type.</t>
-  </si>
-  <si>
-    <t>[In t:MessageType Complex Type] ConversationTopic element is xs:string ([XMLSCHEMA2] sec 3.2.1) type.</t>
-  </si>
-  <si>
-    <t>Verified by requirements: MS-OXWSCDATA_R1193, MS-OXWSCDATA_R21193, MS-OXWSCDATA_R21194.</t>
-  </si>
-  <si>
-    <t>MS-OXWSCDATA_R1193</t>
-  </si>
-  <si>
-    <t>[In t:ItemResponseShapeType Complex Type] The element "FilterHtmlContent" with type "xs:boolean" Specifies whether HTML content filtering is enabled.</t>
-  </si>
-  <si>
-    <t>MS-OXWSCDATA_R21193</t>
-  </si>
-  <si>
-    <t>[In t:ItemResponseShapeType Complex Type] [FilterHtmlContent is] True, specifies HTML content filtering is enabled.</t>
-  </si>
-  <si>
-    <t>MS-OXWSCDATA_R1193:c</t>
-  </si>
-  <si>
-    <t>MS-OXWSCDATA_R21194</t>
-  </si>
-  <si>
-    <t>[In t:ItemResponseShapeType Complex Type] otherwise [FilterHtmlContent is] false, specifies [HTML content filtering is not enabled].</t>
-  </si>
-  <si>
-    <t>Verified by derived requirements: MS-OXWSMSG_R21188, MS-OXWSMSG_R21189.</t>
-  </si>
-  <si>
-    <t>Verified by derived requirements: MS-OXWSMSG_R21193, MS-OXWSMSG_R21194.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[In Appendix C: Product Behavior]&lt;53&gt; Section 2.2.4.31:  Exchange 2010 and above return the MailboxType element in the GetItem operation.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -2304,14 +2327,14 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="2">
-    <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd"/>
-    <numFmt numFmtId="165" formatCode="0.0.0"/>
+    <numFmt numFmtId="176" formatCode="yyyy\-mm\-dd"/>
+    <numFmt numFmtId="177" formatCode="0.0.0"/>
   </numFmts>
-  <fonts count="8">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -2513,13 +2536,13 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="164" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="176" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -2552,7 +2575,7 @@
     <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="177" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2583,6 +2606,21 @@
     <xf numFmtId="2" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -2601,26 +2639,379 @@
     <xf numFmtId="0" fontId="3" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="83">
+  <dxfs count="89">
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color theme="0"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <name val="Calibri"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <name val="Calibri"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <name val="Calibri"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <alignment horizontal="left" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <name val="Calibri"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <name val="Calibri"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <name val="Calibri"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <name val="Calibri"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <name val="Calibri"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <name val="Calibri"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <alignment horizontal="left" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <name val="Calibri"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="left" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <name val="Calibri"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -2973,344 +3364,6 @@
         <strike/>
       </font>
     </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color theme="0"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <name val="Calibri"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <name val="Calibri"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="30" formatCode="@"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="left" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <name val="Calibri"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="30" formatCode="@"/>
-      <alignment horizontal="left" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <name val="Calibri"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="30" formatCode="@"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="left" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <name val="Calibri"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="30" formatCode="@"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="left" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <name val="Calibri"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="30" formatCode="@"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="left" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <name val="Calibri"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <name val="Calibri"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="30" formatCode="@"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <name val="Calibri"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="30" formatCode="@"/>
-      <alignment horizontal="left" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <name val="Calibri"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="left" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <name val="Calibri"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -3440,34 +3493,34 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Requirement" displayName="Requirement" ref="A19:I264" tableType="xml" totalsRowShown="0" headerRowDxfId="82" dataDxfId="81" headerRowCellStyle="Normal" dataCellStyle="Normal" connectionId="1">
-  <autoFilter ref="A19:I264"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Requirement" displayName="Requirement" ref="A19:I265" tableType="xml" totalsRowShown="0" headerRowDxfId="18" dataDxfId="17" connectionId="1">
+  <autoFilter ref="A19:I265"/>
   <tableColumns count="9">
-    <tableColumn id="1" uniqueName="ns1:REQ_ID" name="Req ID" dataDxfId="80" dataCellStyle="Normal">
+    <tableColumn id="1" uniqueName="ns1:REQ_ID" name="Req ID" dataDxfId="16">
       <xmlColumnPr mapId="12" xpath="/ns1:ReqTable/ns1:Requirement/ns1:REQ_ID" xmlDataType="string"/>
     </tableColumn>
-    <tableColumn id="2" uniqueName="ns1:Doc_Sect" name="Doc Sect" dataDxfId="79" dataCellStyle="Normal">
+    <tableColumn id="2" uniqueName="ns1:Doc_Sect" name="Doc Sect" dataDxfId="15">
       <xmlColumnPr mapId="12" xpath="/ns1:ReqTable/ns1:Requirement/ns1:Doc_Sect" xmlDataType="string"/>
     </tableColumn>
-    <tableColumn id="3" uniqueName="ns1:Description" name="Description" dataDxfId="78" dataCellStyle="Normal">
+    <tableColumn id="3" uniqueName="ns1:Description" name="Description" dataDxfId="14">
       <xmlColumnPr mapId="12" xpath="/ns1:ReqTable/ns1:Requirement/ns1:Description" xmlDataType="string"/>
     </tableColumn>
-    <tableColumn id="18" uniqueName="ns1:Derived" name="Derived" dataDxfId="77" dataCellStyle="Normal">
+    <tableColumn id="18" uniqueName="ns1:Derived" name="Derived" dataDxfId="13">
       <xmlColumnPr mapId="12" xpath="/ns1:ReqTable/ns1:Requirement/ns1:Derived" xmlDataType="string"/>
     </tableColumn>
-    <tableColumn id="6" uniqueName="ns1:Behavior" name="Behavior" dataDxfId="76" dataCellStyle="Normal">
+    <tableColumn id="6" uniqueName="ns1:Behavior" name="Behavior" dataDxfId="12">
       <xmlColumnPr mapId="12" xpath="/ns1:ReqTable/ns1:Requirement/ns1:Behavior" xmlDataType="string"/>
     </tableColumn>
-    <tableColumn id="7" uniqueName="ns1:Scope" name="Scope" dataDxfId="75" dataCellStyle="Normal">
+    <tableColumn id="7" uniqueName="ns1:Scope" name="Scope" dataDxfId="11">
       <xmlColumnPr mapId="12" xpath="/ns1:ReqTable/ns1:Requirement/ns1:Scope" xmlDataType="string"/>
     </tableColumn>
-    <tableColumn id="9" uniqueName="ns1:IsNormative" name="Informative_x000a_/Normative" dataDxfId="74" dataCellStyle="Normal">
+    <tableColumn id="9" uniqueName="ns1:IsNormative" name="Informative_x000a_/Normative" dataDxfId="10">
       <xmlColumnPr mapId="12" xpath="/ns1:ReqTable/ns1:Requirement/ns1:IsNormative" xmlDataType="string"/>
     </tableColumn>
-    <tableColumn id="10" uniqueName="ns1:Verification" name="Verification" dataDxfId="73" dataCellStyle="Normal">
+    <tableColumn id="10" uniqueName="ns1:Verification" name="Verification" dataDxfId="9">
       <xmlColumnPr mapId="12" xpath="/ns1:ReqTable/ns1:Requirement/ns1:Verification" xmlDataType="string"/>
     </tableColumn>
-    <tableColumn id="8" uniqueName="ns1:VerificationComment" name="Verification Comment" dataDxfId="72">
+    <tableColumn id="8" uniqueName="ns1:VerificationComment" name="Verification Comment" dataDxfId="8">
       <xmlColumnPr mapId="12" xpath="/ns1:ReqTable/ns1:Requirement/ns1:VerificationComment" xmlDataType="string"/>
     </tableColumn>
   </tableColumns>
@@ -3476,19 +3529,19 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Scope" displayName="Scope" ref="A12:C15" totalsRowShown="0" headerRowDxfId="71" dataDxfId="69" headerRowBorderDxfId="70" tableBorderDxfId="68" totalsRowBorderDxfId="67">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Scope" displayName="Scope" ref="A12:C15" totalsRowShown="0" headerRowDxfId="7" dataDxfId="5" headerRowBorderDxfId="6" tableBorderDxfId="4" totalsRowBorderDxfId="3">
   <autoFilter ref="A12:C15"/>
   <tableColumns count="3">
-    <tableColumn id="1" name="Scope" dataDxfId="66"/>
-    <tableColumn id="2" name="Test" dataDxfId="65"/>
-    <tableColumn id="3" name="Description" dataDxfId="64"/>
+    <tableColumn id="1" name="Scope" dataDxfId="2"/>
+    <tableColumn id="2" name="Test" dataDxfId="1"/>
+    <tableColumn id="3" name="Description" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -3530,7 +3583,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -3565,7 +3618,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -3775,29 +3828,29 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:L265"/>
+  <dimension ref="A1:L266"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B256" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K262" sqref="K262"/>
+    <sheetView tabSelected="1" topLeftCell="A258" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H265" sqref="H265"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="23" style="11" customWidth="1"/>
     <col min="2" max="2" width="13" style="3" customWidth="1"/>
     <col min="3" max="3" width="85" style="3" customWidth="1"/>
-    <col min="4" max="4" width="25.5703125" style="3" customWidth="1"/>
-    <col min="5" max="5" width="12.42578125" style="3" customWidth="1"/>
-    <col min="6" max="6" width="12.140625" style="3" customWidth="1"/>
-    <col min="7" max="7" width="13.42578125" style="3" customWidth="1"/>
+    <col min="4" max="4" width="25.625" style="3" customWidth="1"/>
+    <col min="5" max="5" width="12.375" style="3" customWidth="1"/>
+    <col min="6" max="6" width="12.125" style="3" customWidth="1"/>
+    <col min="7" max="7" width="13.375" style="3" customWidth="1"/>
     <col min="8" max="8" width="23" style="3" customWidth="1"/>
-    <col min="9" max="9" width="28.7109375" style="3" customWidth="1"/>
+    <col min="9" max="9" width="28.75" style="3" customWidth="1"/>
     <col min="10" max="16384" width="9" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>27</v>
@@ -3805,9 +3858,9 @@
       <c r="F1" s="4"/>
       <c r="J1" s="5"/>
     </row>
-    <row r="2" spans="1:10">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="B2" s="7"/>
       <c r="C2" s="7"/>
@@ -3816,7 +3869,7 @@
       <c r="F2" s="25"/>
       <c r="J2" s="5"/>
     </row>
-    <row r="3" spans="1:10">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B3" s="9" t="s">
         <v>25</v>
       </c>
@@ -3831,131 +3884,131 @@
       </c>
       <c r="J3" s="5"/>
     </row>
-    <row r="4" spans="1:10" ht="21">
-      <c r="A4" s="42" t="s">
+    <row r="4" spans="1:10" ht="21" x14ac:dyDescent="0.25">
+      <c r="A4" s="36" t="s">
         <v>24</v>
       </c>
-      <c r="B4" s="42"/>
-      <c r="C4" s="42"/>
-      <c r="D4" s="42"/>
-      <c r="E4" s="42"/>
-      <c r="F4" s="42"/>
-      <c r="G4" s="42"/>
+      <c r="B4" s="36"/>
+      <c r="C4" s="36"/>
+      <c r="D4" s="36"/>
+      <c r="E4" s="36"/>
+      <c r="F4" s="36"/>
+      <c r="G4" s="36"/>
       <c r="J4" s="5"/>
     </row>
-    <row r="5" spans="1:10">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="B5" s="45" t="s">
+      <c r="B5" s="39" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="46"/>
-      <c r="D5" s="46"/>
-      <c r="E5" s="46"/>
-      <c r="F5" s="46"/>
-      <c r="G5" s="46"/>
-      <c r="H5" s="46"/>
-      <c r="I5" s="46"/>
+      <c r="C5" s="40"/>
+      <c r="D5" s="40"/>
+      <c r="E5" s="40"/>
+      <c r="F5" s="40"/>
+      <c r="G5" s="40"/>
+      <c r="H5" s="40"/>
+      <c r="I5" s="40"/>
       <c r="J5" s="5"/>
     </row>
-    <row r="6" spans="1:10">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="B6" s="44" t="s">
+      <c r="B6" s="38" t="s">
         <v>34</v>
       </c>
-      <c r="C6" s="44"/>
-      <c r="D6" s="44"/>
-      <c r="E6" s="44"/>
-      <c r="F6" s="44"/>
-      <c r="G6" s="44"/>
-      <c r="H6" s="44"/>
-      <c r="I6" s="44"/>
+      <c r="C6" s="38"/>
+      <c r="D6" s="38"/>
+      <c r="E6" s="38"/>
+      <c r="F6" s="38"/>
+      <c r="G6" s="38"/>
+      <c r="H6" s="38"/>
+      <c r="I6" s="38"/>
       <c r="J6" s="5"/>
     </row>
-    <row r="7" spans="1:10">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" s="14" t="s">
         <v>38</v>
       </c>
-      <c r="B7" s="43" t="s">
+      <c r="B7" s="37" t="s">
         <v>28</v>
       </c>
-      <c r="C7" s="43"/>
-      <c r="D7" s="43"/>
-      <c r="E7" s="43"/>
-      <c r="F7" s="43"/>
-      <c r="G7" s="43"/>
-      <c r="H7" s="43"/>
-      <c r="I7" s="43"/>
+      <c r="C7" s="37"/>
+      <c r="D7" s="37"/>
+      <c r="E7" s="37"/>
+      <c r="F7" s="37"/>
+      <c r="G7" s="37"/>
+      <c r="H7" s="37"/>
+      <c r="I7" s="37"/>
       <c r="J7" s="5"/>
     </row>
-    <row r="8" spans="1:10">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="B8" s="43" t="s">
+      <c r="B8" s="37" t="s">
         <v>29</v>
       </c>
-      <c r="C8" s="43"/>
-      <c r="D8" s="43"/>
-      <c r="E8" s="43"/>
-      <c r="F8" s="43"/>
-      <c r="G8" s="43"/>
-      <c r="H8" s="43"/>
-      <c r="I8" s="43"/>
+      <c r="C8" s="37"/>
+      <c r="D8" s="37"/>
+      <c r="E8" s="37"/>
+      <c r="F8" s="37"/>
+      <c r="G8" s="37"/>
+      <c r="H8" s="37"/>
+      <c r="I8" s="37"/>
       <c r="J8" s="5"/>
     </row>
-    <row r="9" spans="1:10" ht="75.75" customHeight="1">
+    <row r="9" spans="1:10" ht="75.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="B9" s="40" t="s">
+      <c r="B9" s="45" t="s">
         <v>37</v>
       </c>
-      <c r="C9" s="41"/>
-      <c r="D9" s="41"/>
-      <c r="E9" s="41"/>
-      <c r="F9" s="41"/>
-      <c r="G9" s="41"/>
-      <c r="H9" s="41"/>
-      <c r="I9" s="41"/>
+      <c r="C9" s="46"/>
+      <c r="D9" s="46"/>
+      <c r="E9" s="46"/>
+      <c r="F9" s="46"/>
+      <c r="G9" s="46"/>
+      <c r="H9" s="46"/>
+      <c r="I9" s="46"/>
       <c r="J9" s="5"/>
     </row>
-    <row r="10" spans="1:10" ht="30.75" customHeight="1">
+    <row r="10" spans="1:10" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="B10" s="40" t="s">
-        <v>443</v>
-      </c>
-      <c r="C10" s="41"/>
-      <c r="D10" s="41"/>
-      <c r="E10" s="41"/>
-      <c r="F10" s="41"/>
-      <c r="G10" s="41"/>
-      <c r="H10" s="41"/>
-      <c r="I10" s="41"/>
+      <c r="B10" s="45" t="s">
+        <v>442</v>
+      </c>
+      <c r="C10" s="46"/>
+      <c r="D10" s="46"/>
+      <c r="E10" s="46"/>
+      <c r="F10" s="46"/>
+      <c r="G10" s="46"/>
+      <c r="H10" s="46"/>
+      <c r="I10" s="46"/>
       <c r="J10" s="5"/>
     </row>
-    <row r="11" spans="1:10">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="B11" s="36" t="s">
+      <c r="B11" s="41" t="s">
         <v>40</v>
       </c>
-      <c r="C11" s="36"/>
-      <c r="D11" s="36"/>
-      <c r="E11" s="36"/>
-      <c r="F11" s="36"/>
-      <c r="G11" s="36"/>
-      <c r="H11" s="36"/>
-      <c r="I11" s="36"/>
+      <c r="C11" s="41"/>
+      <c r="D11" s="41"/>
+      <c r="E11" s="41"/>
+      <c r="F11" s="41"/>
+      <c r="G11" s="41"/>
+      <c r="H11" s="41"/>
+      <c r="I11" s="41"/>
       <c r="J11" s="5"/>
     </row>
-    <row r="12" spans="1:10">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" s="26" t="s">
         <v>8</v>
       </c>
@@ -3965,15 +4018,15 @@
       <c r="C12" s="19" t="s">
         <v>1</v>
       </c>
-      <c r="D12" s="37"/>
-      <c r="E12" s="37"/>
-      <c r="F12" s="37"/>
-      <c r="G12" s="37"/>
-      <c r="H12" s="37"/>
-      <c r="I12" s="37"/>
+      <c r="D12" s="42"/>
+      <c r="E12" s="42"/>
+      <c r="F12" s="42"/>
+      <c r="G12" s="42"/>
+      <c r="H12" s="42"/>
+      <c r="I12" s="42"/>
       <c r="J12" s="5"/>
     </row>
-    <row r="13" spans="1:10">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" s="27" t="s">
         <v>6</v>
       </c>
@@ -3983,15 +4036,15 @@
       <c r="C13" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="D13" s="38"/>
-      <c r="E13" s="38"/>
-      <c r="F13" s="38"/>
-      <c r="G13" s="38"/>
-      <c r="H13" s="38"/>
-      <c r="I13" s="38"/>
+      <c r="D13" s="43"/>
+      <c r="E13" s="43"/>
+      <c r="F13" s="43"/>
+      <c r="G13" s="43"/>
+      <c r="H13" s="43"/>
+      <c r="I13" s="43"/>
       <c r="J13" s="5"/>
     </row>
-    <row r="14" spans="1:10">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" s="27" t="s">
         <v>7</v>
       </c>
@@ -4001,15 +4054,15 @@
       <c r="C14" s="16" t="s">
         <v>35</v>
       </c>
-      <c r="D14" s="38"/>
-      <c r="E14" s="38"/>
-      <c r="F14" s="38"/>
-      <c r="G14" s="38"/>
-      <c r="H14" s="38"/>
-      <c r="I14" s="38"/>
+      <c r="D14" s="43"/>
+      <c r="E14" s="43"/>
+      <c r="F14" s="43"/>
+      <c r="G14" s="43"/>
+      <c r="H14" s="43"/>
+      <c r="I14" s="43"/>
       <c r="J14" s="5"/>
     </row>
-    <row r="15" spans="1:10">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" s="28" t="s">
         <v>3</v>
       </c>
@@ -4019,64 +4072,64 @@
       <c r="C15" s="16" t="s">
         <v>30</v>
       </c>
-      <c r="D15" s="39"/>
-      <c r="E15" s="39"/>
-      <c r="F15" s="39"/>
-      <c r="G15" s="39"/>
-      <c r="H15" s="39"/>
-      <c r="I15" s="39"/>
+      <c r="D15" s="44"/>
+      <c r="E15" s="44"/>
+      <c r="F15" s="44"/>
+      <c r="G15" s="44"/>
+      <c r="H15" s="44"/>
+      <c r="I15" s="44"/>
       <c r="J15" s="5"/>
     </row>
-    <row r="16" spans="1:10">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="B16" s="36" t="s">
+      <c r="B16" s="41" t="s">
         <v>41</v>
       </c>
-      <c r="C16" s="36"/>
-      <c r="D16" s="36"/>
-      <c r="E16" s="36"/>
-      <c r="F16" s="36"/>
-      <c r="G16" s="36"/>
-      <c r="H16" s="36"/>
-      <c r="I16" s="36"/>
+      <c r="C16" s="41"/>
+      <c r="D16" s="41"/>
+      <c r="E16" s="41"/>
+      <c r="F16" s="41"/>
+      <c r="G16" s="41"/>
+      <c r="H16" s="41"/>
+      <c r="I16" s="41"/>
       <c r="J16" s="5"/>
     </row>
-    <row r="17" spans="1:12" ht="61.5" customHeight="1">
+    <row r="17" spans="1:12" ht="61.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="B17" s="40" t="s">
-        <v>444</v>
-      </c>
-      <c r="C17" s="41"/>
-      <c r="D17" s="41"/>
-      <c r="E17" s="41"/>
-      <c r="F17" s="41"/>
-      <c r="G17" s="41"/>
-      <c r="H17" s="41"/>
-      <c r="I17" s="41"/>
+      <c r="B17" s="45" t="s">
+        <v>443</v>
+      </c>
+      <c r="C17" s="46"/>
+      <c r="D17" s="46"/>
+      <c r="E17" s="46"/>
+      <c r="F17" s="46"/>
+      <c r="G17" s="46"/>
+      <c r="H17" s="46"/>
+      <c r="I17" s="46"/>
       <c r="J17" s="5"/>
     </row>
-    <row r="18" spans="1:12">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A18" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="B18" s="36" t="s">
+      <c r="B18" s="41" t="s">
         <v>36</v>
       </c>
-      <c r="C18" s="36"/>
-      <c r="D18" s="36"/>
-      <c r="E18" s="36"/>
-      <c r="F18" s="36"/>
-      <c r="G18" s="36"/>
-      <c r="H18" s="36"/>
-      <c r="I18" s="36"/>
+      <c r="C18" s="41"/>
+      <c r="D18" s="41"/>
+      <c r="E18" s="41"/>
+      <c r="F18" s="41"/>
+      <c r="G18" s="41"/>
+      <c r="H18" s="41"/>
+      <c r="I18" s="41"/>
       <c r="J18" s="5"/>
       <c r="L18" s="4"/>
     </row>
-    <row r="19" spans="1:12" ht="30">
+    <row r="19" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
         <v>0</v>
       </c>
@@ -4106,7 +4159,7 @@
       </c>
       <c r="J19" s="4"/>
     </row>
-    <row r="20" spans="1:12" s="23" customFormat="1" ht="60">
+    <row r="20" spans="1:12" s="23" customFormat="1" ht="45" x14ac:dyDescent="0.15">
       <c r="A20" s="22" t="s">
         <v>42</v>
       </c>
@@ -4114,7 +4167,7 @@
         <v>250</v>
       </c>
       <c r="C20" s="21" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="D20" s="22"/>
       <c r="E20" s="22" t="s">
@@ -4131,7 +4184,7 @@
       </c>
       <c r="I20" s="24"/>
     </row>
-    <row r="21" spans="1:12" s="23" customFormat="1" ht="30">
+    <row r="21" spans="1:12" s="23" customFormat="1" ht="30" x14ac:dyDescent="0.15">
       <c r="A21" s="22" t="s">
         <v>43</v>
       </c>
@@ -4139,7 +4192,7 @@
         <v>250</v>
       </c>
       <c r="C21" s="20" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="D21" s="22"/>
       <c r="E21" s="22" t="s">
@@ -4156,15 +4209,15 @@
       </c>
       <c r="I21" s="24"/>
     </row>
-    <row r="22" spans="1:12" s="23" customFormat="1">
+    <row r="22" spans="1:12" s="23" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A22" s="33" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="B22" s="34" t="s">
         <v>250</v>
       </c>
       <c r="C22" s="35" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="D22" s="33"/>
       <c r="E22" s="33" t="s">
@@ -4181,15 +4234,15 @@
       </c>
       <c r="I22" s="35"/>
     </row>
-    <row r="23" spans="1:12" s="23" customFormat="1">
+    <row r="23" spans="1:12" s="23" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A23" s="33" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="B23" s="34" t="s">
         <v>250</v>
       </c>
       <c r="C23" s="35" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="D23" s="33"/>
       <c r="E23" s="33" t="s">
@@ -4206,7 +4259,7 @@
       </c>
       <c r="I23" s="35"/>
     </row>
-    <row r="24" spans="1:12" s="23" customFormat="1" ht="30">
+    <row r="24" spans="1:12" s="23" customFormat="1" ht="30" x14ac:dyDescent="0.15">
       <c r="A24" s="22" t="s">
         <v>44</v>
       </c>
@@ -4231,7 +4284,7 @@
       </c>
       <c r="I24" s="24"/>
     </row>
-    <row r="25" spans="1:12" s="23" customFormat="1" ht="30">
+    <row r="25" spans="1:12" s="23" customFormat="1" ht="30" x14ac:dyDescent="0.15">
       <c r="A25" s="22" t="s">
         <v>45</v>
       </c>
@@ -4256,7 +4309,7 @@
       </c>
       <c r="I25" s="24"/>
     </row>
-    <row r="26" spans="1:12" s="23" customFormat="1" ht="30">
+    <row r="26" spans="1:12" s="23" customFormat="1" ht="30" x14ac:dyDescent="0.15">
       <c r="A26" s="22" t="s">
         <v>46</v>
       </c>
@@ -4281,7 +4334,7 @@
       </c>
       <c r="I26" s="24"/>
     </row>
-    <row r="27" spans="1:12" s="23" customFormat="1" ht="45">
+    <row r="27" spans="1:12" s="23" customFormat="1" ht="45" x14ac:dyDescent="0.15">
       <c r="A27" s="22" t="s">
         <v>47</v>
       </c>
@@ -4306,7 +4359,7 @@
       </c>
       <c r="I27" s="24"/>
     </row>
-    <row r="28" spans="1:12" s="23" customFormat="1">
+    <row r="28" spans="1:12" s="23" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A28" s="22" t="s">
         <v>48</v>
       </c>
@@ -4314,7 +4367,7 @@
         <v>252</v>
       </c>
       <c r="C28" s="20" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="D28" s="22"/>
       <c r="E28" s="22" t="s">
@@ -4331,7 +4384,7 @@
       </c>
       <c r="I28" s="24"/>
     </row>
-    <row r="29" spans="1:12" s="23" customFormat="1">
+    <row r="29" spans="1:12" s="23" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A29" s="22" t="s">
         <v>49</v>
       </c>
@@ -4356,7 +4409,7 @@
       </c>
       <c r="I29" s="24"/>
     </row>
-    <row r="30" spans="1:12" s="23" customFormat="1" ht="30">
+    <row r="30" spans="1:12" s="23" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A30" s="22" t="s">
         <v>50</v>
       </c>
@@ -4364,7 +4417,7 @@
         <v>252</v>
       </c>
       <c r="C30" s="20" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="D30" s="22"/>
       <c r="E30" s="22" t="s">
@@ -4381,15 +4434,15 @@
       </c>
       <c r="I30" s="24"/>
     </row>
-    <row r="31" spans="1:12" s="23" customFormat="1">
+    <row r="31" spans="1:12" s="23" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A31" s="22" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="B31" s="34" t="s">
         <v>252</v>
       </c>
       <c r="C31" s="35" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="D31" s="33"/>
       <c r="E31" s="33" t="s">
@@ -4406,7 +4459,7 @@
       </c>
       <c r="I31" s="35"/>
     </row>
-    <row r="32" spans="1:12" s="23" customFormat="1" ht="45">
+    <row r="32" spans="1:12" s="23" customFormat="1" ht="30" x14ac:dyDescent="0.15">
       <c r="A32" s="22" t="s">
         <v>51</v>
       </c>
@@ -4430,10 +4483,10 @@
         <v>17</v>
       </c>
       <c r="I32" s="24" t="s">
-        <v>437</v>
-      </c>
-    </row>
-    <row r="33" spans="1:9" s="23" customFormat="1" ht="30">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" s="23" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A33" s="22" t="s">
         <v>52</v>
       </c>
@@ -4458,7 +4511,7 @@
       </c>
       <c r="I33" s="24"/>
     </row>
-    <row r="34" spans="1:9" s="23" customFormat="1" ht="30">
+    <row r="34" spans="1:9" s="23" customFormat="1" ht="30" x14ac:dyDescent="0.15">
       <c r="A34" s="22" t="s">
         <v>53</v>
       </c>
@@ -4466,7 +4519,7 @@
         <v>253</v>
       </c>
       <c r="C34" s="20" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="D34" s="22"/>
       <c r="E34" s="22" t="s">
@@ -4483,7 +4536,7 @@
       </c>
       <c r="I34" s="24"/>
     </row>
-    <row r="35" spans="1:9" s="23" customFormat="1" ht="30">
+    <row r="35" spans="1:9" s="23" customFormat="1" ht="30" x14ac:dyDescent="0.15">
       <c r="A35" s="22" t="s">
         <v>54</v>
       </c>
@@ -4508,7 +4561,7 @@
       </c>
       <c r="I35" s="24"/>
     </row>
-    <row r="36" spans="1:9" s="23" customFormat="1" ht="45">
+    <row r="36" spans="1:9" s="23" customFormat="1" ht="45" x14ac:dyDescent="0.15">
       <c r="A36" s="22" t="s">
         <v>55</v>
       </c>
@@ -4533,7 +4586,7 @@
       </c>
       <c r="I36" s="24"/>
     </row>
-    <row r="37" spans="1:9" ht="30">
+    <row r="37" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A37" s="30" t="s">
         <v>56</v>
       </c>
@@ -4558,7 +4611,7 @@
       </c>
       <c r="I37" s="32"/>
     </row>
-    <row r="38" spans="1:9" ht="30">
+    <row r="38" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A38" s="30" t="s">
         <v>57</v>
       </c>
@@ -4583,7 +4636,7 @@
       </c>
       <c r="I38" s="32"/>
     </row>
-    <row r="39" spans="1:9" ht="30">
+    <row r="39" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A39" s="30" t="s">
         <v>58</v>
       </c>
@@ -4608,7 +4661,7 @@
       </c>
       <c r="I39" s="32"/>
     </row>
-    <row r="40" spans="1:9" ht="45">
+    <row r="40" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A40" s="30" t="s">
         <v>59</v>
       </c>
@@ -4633,7 +4686,7 @@
       </c>
       <c r="I40" s="32"/>
     </row>
-    <row r="41" spans="1:9" ht="30">
+    <row r="41" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A41" s="30" t="s">
         <v>60</v>
       </c>
@@ -4658,7 +4711,7 @@
       </c>
       <c r="I41" s="32"/>
     </row>
-    <row r="42" spans="1:9" ht="30">
+    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A42" s="30" t="s">
         <v>61</v>
       </c>
@@ -4683,7 +4736,7 @@
       </c>
       <c r="I42" s="32"/>
     </row>
-    <row r="43" spans="1:9" ht="30">
+    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A43" s="30" t="s">
         <v>62</v>
       </c>
@@ -4708,7 +4761,7 @@
       </c>
       <c r="I43" s="32"/>
     </row>
-    <row r="44" spans="1:9" ht="30">
+    <row r="44" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A44" s="30" t="s">
         <v>63</v>
       </c>
@@ -4733,7 +4786,7 @@
       </c>
       <c r="I44" s="32"/>
     </row>
-    <row r="45" spans="1:9" ht="30">
+    <row r="45" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A45" s="30" t="s">
         <v>64</v>
       </c>
@@ -4758,7 +4811,7 @@
       </c>
       <c r="I45" s="32"/>
     </row>
-    <row r="46" spans="1:9" ht="30">
+    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A46" s="30" t="s">
         <v>65</v>
       </c>
@@ -4766,7 +4819,7 @@
         <v>257</v>
       </c>
       <c r="C46" s="20" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="D46" s="30"/>
       <c r="E46" s="30" t="s">
@@ -4783,7 +4836,7 @@
       </c>
       <c r="I46" s="32"/>
     </row>
-    <row r="47" spans="1:9" ht="30">
+    <row r="47" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A47" s="30" t="s">
         <v>66</v>
       </c>
@@ -4791,7 +4844,7 @@
         <v>31</v>
       </c>
       <c r="C47" s="20" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="D47" s="30"/>
       <c r="E47" s="30" t="s">
@@ -4808,7 +4861,7 @@
       </c>
       <c r="I47" s="32"/>
     </row>
-    <row r="48" spans="1:9" ht="30">
+    <row r="48" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A48" s="30" t="s">
         <v>67</v>
       </c>
@@ -4816,7 +4869,7 @@
         <v>31</v>
       </c>
       <c r="C48" s="20" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="D48" s="30"/>
       <c r="E48" s="30" t="s">
@@ -4833,7 +4886,7 @@
       </c>
       <c r="I48" s="32"/>
     </row>
-    <row r="49" spans="1:9" ht="409.5">
+    <row r="49" spans="1:9" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A49" s="30" t="s">
         <v>68</v>
       </c>
@@ -4841,7 +4894,7 @@
         <v>31</v>
       </c>
       <c r="C49" s="20" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="D49" s="30"/>
       <c r="E49" s="30" t="s">
@@ -4858,7 +4911,7 @@
       </c>
       <c r="I49" s="32"/>
     </row>
-    <row r="50" spans="1:9" ht="75">
+    <row r="50" spans="1:9" ht="60" x14ac:dyDescent="0.25">
       <c r="A50" s="30" t="s">
         <v>69</v>
       </c>
@@ -4883,7 +4936,7 @@
       </c>
       <c r="I50" s="32"/>
     </row>
-    <row r="51" spans="1:9" ht="30">
+    <row r="51" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A51" s="30" t="s">
         <v>70</v>
       </c>
@@ -4891,7 +4944,7 @@
         <v>31</v>
       </c>
       <c r="C51" s="20" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="D51" s="30"/>
       <c r="E51" s="30" t="s">
@@ -4908,7 +4961,7 @@
       </c>
       <c r="I51" s="32"/>
     </row>
-    <row r="52" spans="1:9" ht="45">
+    <row r="52" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A52" s="30" t="s">
         <v>71</v>
       </c>
@@ -4919,7 +4972,7 @@
         <v>297</v>
       </c>
       <c r="D52" s="30" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="E52" s="30" t="s">
         <v>19</v>
@@ -4933,9 +4986,9 @@
       <c r="H52" s="22" t="s">
         <v>20</v>
       </c>
-      <c r="I52" s="32"/>
-    </row>
-    <row r="53" spans="1:9" ht="45">
+      <c r="I52" s="35"/>
+    </row>
+    <row r="53" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A53" s="30" t="s">
         <v>72</v>
       </c>
@@ -4946,7 +4999,7 @@
         <v>298</v>
       </c>
       <c r="D53" s="30" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="E53" s="30" t="s">
         <v>19</v>
@@ -4962,7 +5015,7 @@
       </c>
       <c r="I53" s="32"/>
     </row>
-    <row r="54" spans="1:9">
+    <row r="54" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A54" s="30" t="s">
         <v>73</v>
       </c>
@@ -4987,7 +5040,7 @@
       </c>
       <c r="I54" s="32"/>
     </row>
-    <row r="55" spans="1:9">
+    <row r="55" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A55" s="30" t="s">
         <v>74</v>
       </c>
@@ -5012,7 +5065,7 @@
       </c>
       <c r="I55" s="32"/>
     </row>
-    <row r="56" spans="1:9">
+    <row r="56" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A56" s="30" t="s">
         <v>75</v>
       </c>
@@ -5037,7 +5090,7 @@
       </c>
       <c r="I56" s="32"/>
     </row>
-    <row r="57" spans="1:9" ht="30">
+    <row r="57" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A57" s="30" t="s">
         <v>76</v>
       </c>
@@ -5045,7 +5098,7 @@
         <v>31</v>
       </c>
       <c r="C57" s="20" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="D57" s="30"/>
       <c r="E57" s="30" t="s">
@@ -5062,7 +5115,7 @@
       </c>
       <c r="I57" s="32"/>
     </row>
-    <row r="58" spans="1:9" ht="45">
+    <row r="58" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A58" s="30" t="s">
         <v>77</v>
       </c>
@@ -5073,7 +5126,7 @@
         <v>302</v>
       </c>
       <c r="D58" s="30" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="E58" s="30" t="s">
         <v>19</v>
@@ -5087,9 +5140,9 @@
       <c r="H58" s="22" t="s">
         <v>20</v>
       </c>
-      <c r="I58" s="32"/>
-    </row>
-    <row r="59" spans="1:9" ht="45">
+      <c r="I58" s="35"/>
+    </row>
+    <row r="59" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A59" s="30" t="s">
         <v>78</v>
       </c>
@@ -5100,7 +5153,7 @@
         <v>303</v>
       </c>
       <c r="D59" s="30" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="E59" s="30" t="s">
         <v>19</v>
@@ -5116,7 +5169,7 @@
       </c>
       <c r="I59" s="32"/>
     </row>
-    <row r="60" spans="1:9" ht="30">
+    <row r="60" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A60" s="30" t="s">
         <v>79</v>
       </c>
@@ -5124,7 +5177,7 @@
         <v>31</v>
       </c>
       <c r="C60" s="20" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="D60" s="30"/>
       <c r="E60" s="30" t="s">
@@ -5141,7 +5194,7 @@
       </c>
       <c r="I60" s="32"/>
     </row>
-    <row r="61" spans="1:9" ht="30">
+    <row r="61" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A61" s="30" t="s">
         <v>80</v>
       </c>
@@ -5166,7 +5219,7 @@
       </c>
       <c r="I61" s="32"/>
     </row>
-    <row r="62" spans="1:9">
+    <row r="62" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A62" s="30" t="s">
         <v>81</v>
       </c>
@@ -5191,7 +5244,7 @@
       </c>
       <c r="I62" s="32"/>
     </row>
-    <row r="63" spans="1:9">
+    <row r="63" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A63" s="30" t="s">
         <v>82</v>
       </c>
@@ -5216,7 +5269,7 @@
       </c>
       <c r="I63" s="32"/>
     </row>
-    <row r="64" spans="1:9" ht="30">
+    <row r="64" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A64" s="30" t="s">
         <v>83</v>
       </c>
@@ -5224,7 +5277,7 @@
         <v>31</v>
       </c>
       <c r="C64" s="20" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="D64" s="30"/>
       <c r="E64" s="30" t="s">
@@ -5241,7 +5294,7 @@
       </c>
       <c r="I64" s="32"/>
     </row>
-    <row r="65" spans="1:9">
+    <row r="65" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A65" s="30" t="s">
         <v>84</v>
       </c>
@@ -5266,7 +5319,7 @@
       </c>
       <c r="I65" s="32"/>
     </row>
-    <row r="66" spans="1:9">
+    <row r="66" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A66" s="30" t="s">
         <v>85</v>
       </c>
@@ -5291,7 +5344,7 @@
       </c>
       <c r="I66" s="32"/>
     </row>
-    <row r="67" spans="1:9">
+    <row r="67" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A67" s="30" t="s">
         <v>86</v>
       </c>
@@ -5316,7 +5369,7 @@
       </c>
       <c r="I67" s="32"/>
     </row>
-    <row r="68" spans="1:9" ht="30">
+    <row r="68" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A68" s="30" t="s">
         <v>87</v>
       </c>
@@ -5324,7 +5377,7 @@
         <v>31</v>
       </c>
       <c r="C68" s="20" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="D68" s="30"/>
       <c r="E68" s="30" t="s">
@@ -5341,7 +5394,7 @@
       </c>
       <c r="I68" s="32"/>
     </row>
-    <row r="69" spans="1:9">
+    <row r="69" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A69" s="30" t="s">
         <v>88</v>
       </c>
@@ -5366,7 +5419,7 @@
       </c>
       <c r="I69" s="32"/>
     </row>
-    <row r="70" spans="1:9">
+    <row r="70" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A70" s="30" t="s">
         <v>89</v>
       </c>
@@ -5391,7 +5444,7 @@
       </c>
       <c r="I70" s="32"/>
     </row>
-    <row r="71" spans="1:9" ht="30">
+    <row r="71" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A71" s="30" t="s">
         <v>90</v>
       </c>
@@ -5399,7 +5452,7 @@
         <v>31</v>
       </c>
       <c r="C71" s="20" t="s">
-        <v>579</v>
+        <v>574</v>
       </c>
       <c r="D71" s="30"/>
       <c r="E71" s="30" t="s">
@@ -5416,7 +5469,7 @@
       </c>
       <c r="I71" s="32"/>
     </row>
-    <row r="72" spans="1:9" ht="30">
+    <row r="72" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A72" s="30" t="s">
         <v>91</v>
       </c>
@@ -5441,7 +5494,7 @@
       </c>
       <c r="I72" s="32"/>
     </row>
-    <row r="73" spans="1:9" ht="30">
+    <row r="73" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A73" s="30" t="s">
         <v>92</v>
       </c>
@@ -5466,7 +5519,7 @@
       </c>
       <c r="I73" s="32"/>
     </row>
-    <row r="74" spans="1:9" ht="30">
+    <row r="74" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A74" s="30" t="s">
         <v>93</v>
       </c>
@@ -5491,7 +5544,7 @@
       </c>
       <c r="I74" s="32"/>
     </row>
-    <row r="75" spans="1:9" ht="30">
+    <row r="75" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A75" s="30" t="s">
         <v>94</v>
       </c>
@@ -5516,7 +5569,7 @@
       </c>
       <c r="I75" s="32"/>
     </row>
-    <row r="76" spans="1:9" ht="30">
+    <row r="76" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A76" s="30" t="s">
         <v>95</v>
       </c>
@@ -5527,7 +5580,7 @@
         <v>316</v>
       </c>
       <c r="D76" s="30" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="E76" s="30" t="s">
         <v>19</v>
@@ -5543,7 +5596,7 @@
       </c>
       <c r="I76" s="32"/>
     </row>
-    <row r="77" spans="1:9">
+    <row r="77" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A77" s="30" t="s">
         <v>96</v>
       </c>
@@ -5568,7 +5621,7 @@
       </c>
       <c r="I77" s="32"/>
     </row>
-    <row r="78" spans="1:9" ht="30">
+    <row r="78" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A78" s="30" t="s">
         <v>97</v>
       </c>
@@ -5593,7 +5646,7 @@
       </c>
       <c r="I78" s="32"/>
     </row>
-    <row r="79" spans="1:9" ht="30">
+    <row r="79" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A79" s="30" t="s">
         <v>98</v>
       </c>
@@ -5618,7 +5671,7 @@
       </c>
       <c r="I79" s="32"/>
     </row>
-    <row r="80" spans="1:9" ht="45">
+    <row r="80" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A80" s="30" t="s">
         <v>99</v>
       </c>
@@ -5643,7 +5696,7 @@
       </c>
       <c r="I80" s="32"/>
     </row>
-    <row r="81" spans="1:9" ht="45">
+    <row r="81" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A81" s="30" t="s">
         <v>100</v>
       </c>
@@ -5654,7 +5707,7 @@
         <v>321</v>
       </c>
       <c r="D81" s="30" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="E81" s="30" t="s">
         <v>19</v>
@@ -5670,7 +5723,7 @@
       </c>
       <c r="I81" s="32"/>
     </row>
-    <row r="82" spans="1:9" ht="30">
+    <row r="82" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A82" s="30" t="s">
         <v>101</v>
       </c>
@@ -5678,7 +5731,7 @@
         <v>31</v>
       </c>
       <c r="C82" s="20" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="D82" s="30"/>
       <c r="E82" s="30" t="s">
@@ -5695,7 +5748,7 @@
       </c>
       <c r="I82" s="32"/>
     </row>
-    <row r="83" spans="1:9" ht="30">
+    <row r="83" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A83" s="30" t="s">
         <v>102</v>
       </c>
@@ -5703,7 +5756,7 @@
         <v>31</v>
       </c>
       <c r="C83" s="20" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="D83" s="30"/>
       <c r="E83" s="30" t="s">
@@ -5720,7 +5773,7 @@
       </c>
       <c r="I83" s="32"/>
     </row>
-    <row r="84" spans="1:9">
+    <row r="84" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A84" s="30" t="s">
         <v>103</v>
       </c>
@@ -5745,7 +5798,7 @@
       </c>
       <c r="I84" s="32"/>
     </row>
-    <row r="85" spans="1:9">
+    <row r="85" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A85" s="30" t="s">
         <v>104</v>
       </c>
@@ -5753,7 +5806,7 @@
         <v>31</v>
       </c>
       <c r="C85" s="20" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="D85" s="30"/>
       <c r="E85" s="30" t="s">
@@ -5770,7 +5823,7 @@
       </c>
       <c r="I85" s="32"/>
     </row>
-    <row r="86" spans="1:9" ht="30">
+    <row r="86" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A86" s="30" t="s">
         <v>105</v>
       </c>
@@ -5778,7 +5831,7 @@
         <v>31</v>
       </c>
       <c r="C86" s="20" t="s">
-        <v>580</v>
+        <v>575</v>
       </c>
       <c r="D86" s="30"/>
       <c r="E86" s="30" t="s">
@@ -5795,7 +5848,7 @@
       </c>
       <c r="I86" s="32"/>
     </row>
-    <row r="87" spans="1:9" ht="30">
+    <row r="87" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A87" s="30" t="s">
         <v>106</v>
       </c>
@@ -5820,7 +5873,7 @@
       </c>
       <c r="I87" s="32"/>
     </row>
-    <row r="88" spans="1:9">
+    <row r="88" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A88" s="30" t="s">
         <v>107</v>
       </c>
@@ -5845,7 +5898,7 @@
       </c>
       <c r="I88" s="32"/>
     </row>
-    <row r="89" spans="1:9">
+    <row r="89" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A89" s="30" t="s">
         <v>108</v>
       </c>
@@ -5853,7 +5906,7 @@
         <v>31</v>
       </c>
       <c r="C89" s="20" t="s">
-        <v>563</v>
+        <v>561</v>
       </c>
       <c r="D89" s="30"/>
       <c r="E89" s="30" t="s">
@@ -5870,7 +5923,7 @@
       </c>
       <c r="I89" s="32"/>
     </row>
-    <row r="90" spans="1:9">
+    <row r="90" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A90" s="30" t="s">
         <v>109</v>
       </c>
@@ -5895,7 +5948,7 @@
       </c>
       <c r="I90" s="32"/>
     </row>
-    <row r="91" spans="1:9" ht="30">
+    <row r="91" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A91" s="30" t="s">
         <v>110</v>
       </c>
@@ -5920,7 +5973,7 @@
       </c>
       <c r="I91" s="32"/>
     </row>
-    <row r="92" spans="1:9">
+    <row r="92" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A92" s="30" t="s">
         <v>111</v>
       </c>
@@ -5945,7 +5998,7 @@
       </c>
       <c r="I92" s="32"/>
     </row>
-    <row r="93" spans="1:9">
+    <row r="93" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A93" s="30" t="s">
         <v>112</v>
       </c>
@@ -5970,7 +6023,7 @@
       </c>
       <c r="I93" s="32"/>
     </row>
-    <row r="94" spans="1:9">
+    <row r="94" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A94" s="30" t="s">
         <v>113</v>
       </c>
@@ -5995,7 +6048,7 @@
       </c>
       <c r="I94" s="32"/>
     </row>
-    <row r="95" spans="1:9" ht="30">
+    <row r="95" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A95" s="30" t="s">
         <v>114</v>
       </c>
@@ -6020,7 +6073,7 @@
       </c>
       <c r="I95" s="32"/>
     </row>
-    <row r="96" spans="1:9">
+    <row r="96" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A96" s="30" t="s">
         <v>115</v>
       </c>
@@ -6045,7 +6098,7 @@
       </c>
       <c r="I96" s="32"/>
     </row>
-    <row r="97" spans="1:9">
+    <row r="97" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A97" s="30" t="s">
         <v>116</v>
       </c>
@@ -6053,7 +6106,7 @@
         <v>31</v>
       </c>
       <c r="C97" s="20" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="D97" s="30"/>
       <c r="E97" s="30" t="s">
@@ -6070,7 +6123,7 @@
       </c>
       <c r="I97" s="32"/>
     </row>
-    <row r="98" spans="1:9">
+    <row r="98" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A98" s="30" t="s">
         <v>117</v>
       </c>
@@ -6095,7 +6148,7 @@
       </c>
       <c r="I98" s="32"/>
     </row>
-    <row r="99" spans="1:9" ht="30">
+    <row r="99" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A99" s="30" t="s">
         <v>118</v>
       </c>
@@ -6120,7 +6173,7 @@
       </c>
       <c r="I99" s="32"/>
     </row>
-    <row r="100" spans="1:9">
+    <row r="100" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A100" s="30" t="s">
         <v>119</v>
       </c>
@@ -6128,7 +6181,7 @@
         <v>31</v>
       </c>
       <c r="C100" s="20" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="D100" s="30"/>
       <c r="E100" s="30" t="s">
@@ -6145,7 +6198,7 @@
       </c>
       <c r="I100" s="32"/>
     </row>
-    <row r="101" spans="1:9" ht="30">
+    <row r="101" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A101" s="30" t="s">
         <v>120</v>
       </c>
@@ -6170,7 +6223,7 @@
       </c>
       <c r="I101" s="32"/>
     </row>
-    <row r="102" spans="1:9" ht="30">
+    <row r="102" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A102" s="30" t="s">
         <v>121</v>
       </c>
@@ -6181,7 +6234,7 @@
         <v>335</v>
       </c>
       <c r="D102" s="30" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="E102" s="30" t="s">
         <v>19</v>
@@ -6197,7 +6250,7 @@
       </c>
       <c r="I102" s="32"/>
     </row>
-    <row r="103" spans="1:9">
+    <row r="103" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A103" s="30" t="s">
         <v>122</v>
       </c>
@@ -6222,7 +6275,7 @@
       </c>
       <c r="I103" s="32"/>
     </row>
-    <row r="104" spans="1:9" ht="30">
+    <row r="104" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A104" s="30" t="s">
         <v>123</v>
       </c>
@@ -6230,7 +6283,7 @@
         <v>31</v>
       </c>
       <c r="C104" s="20" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="D104" s="30"/>
       <c r="E104" s="30" t="s">
@@ -6247,7 +6300,7 @@
       </c>
       <c r="I104" s="32"/>
     </row>
-    <row r="105" spans="1:9" ht="30">
+    <row r="105" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A105" s="30" t="s">
         <v>124</v>
       </c>
@@ -6272,7 +6325,7 @@
       </c>
       <c r="I105" s="32"/>
     </row>
-    <row r="106" spans="1:9" ht="30">
+    <row r="106" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A106" s="30" t="s">
         <v>125</v>
       </c>
@@ -6297,7 +6350,7 @@
       </c>
       <c r="I106" s="32"/>
     </row>
-    <row r="107" spans="1:9" ht="30">
+    <row r="107" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A107" s="30" t="s">
         <v>126</v>
       </c>
@@ -6322,7 +6375,7 @@
       </c>
       <c r="I107" s="32"/>
     </row>
-    <row r="108" spans="1:9" ht="30">
+    <row r="108" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A108" s="30" t="s">
         <v>127</v>
       </c>
@@ -6333,7 +6386,7 @@
         <v>340</v>
       </c>
       <c r="D108" s="30" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="E108" s="30" t="s">
         <v>19</v>
@@ -6349,7 +6402,7 @@
       </c>
       <c r="I108" s="32"/>
     </row>
-    <row r="109" spans="1:9">
+    <row r="109" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A109" s="30" t="s">
         <v>128</v>
       </c>
@@ -6374,7 +6427,7 @@
       </c>
       <c r="I109" s="32"/>
     </row>
-    <row r="110" spans="1:9" ht="30">
+    <row r="110" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A110" s="30" t="s">
         <v>129</v>
       </c>
@@ -6399,7 +6452,7 @@
       </c>
       <c r="I110" s="32"/>
     </row>
-    <row r="111" spans="1:9">
+    <row r="111" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A111" s="30" t="s">
         <v>130</v>
       </c>
@@ -6424,7 +6477,7 @@
       </c>
       <c r="I111" s="32"/>
     </row>
-    <row r="112" spans="1:9">
+    <row r="112" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A112" s="30" t="s">
         <v>131</v>
       </c>
@@ -6449,7 +6502,7 @@
       </c>
       <c r="I112" s="32"/>
     </row>
-    <row r="113" spans="1:9">
+    <row r="113" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A113" s="30" t="s">
         <v>132</v>
       </c>
@@ -6474,7 +6527,7 @@
       </c>
       <c r="I113" s="32"/>
     </row>
-    <row r="114" spans="1:9" ht="30">
+    <row r="114" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A114" s="30" t="s">
         <v>133</v>
       </c>
@@ -6482,7 +6535,7 @@
         <v>31</v>
       </c>
       <c r="C114" s="20" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="D114" s="30"/>
       <c r="E114" s="30" t="s">
@@ -6499,7 +6552,7 @@
       </c>
       <c r="I114" s="32"/>
     </row>
-    <row r="115" spans="1:9">
+    <row r="115" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A115" s="30" t="s">
         <v>134</v>
       </c>
@@ -6524,7 +6577,7 @@
       </c>
       <c r="I115" s="32"/>
     </row>
-    <row r="116" spans="1:9">
+    <row r="116" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A116" s="30" t="s">
         <v>135</v>
       </c>
@@ -6549,15 +6602,15 @@
       </c>
       <c r="I116" s="32"/>
     </row>
-    <row r="117" spans="1:9">
+    <row r="117" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A117" s="30" t="s">
         <v>136</v>
       </c>
       <c r="B117" s="31" t="s">
         <v>31</v>
       </c>
-      <c r="C117" s="32" t="s">
-        <v>348</v>
+      <c r="C117" s="20" t="s">
+        <v>585</v>
       </c>
       <c r="D117" s="30"/>
       <c r="E117" s="30" t="s">
@@ -6570,11 +6623,11 @@
         <v>15</v>
       </c>
       <c r="H117" s="22" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="I117" s="32"/>
     </row>
-    <row r="118" spans="1:9" ht="30">
+    <row r="118" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A118" s="30" t="s">
         <v>137</v>
       </c>
@@ -6582,7 +6635,7 @@
         <v>31</v>
       </c>
       <c r="C118" s="20" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="D118" s="30"/>
       <c r="E118" s="30" t="s">
@@ -6599,15 +6652,15 @@
       </c>
       <c r="I118" s="32"/>
     </row>
-    <row r="119" spans="1:9">
+    <row r="119" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A119" s="22" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="B119" s="24" t="s">
         <v>31</v>
       </c>
       <c r="C119" s="35" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="D119" s="33"/>
       <c r="E119" s="33" t="s">
@@ -6624,7 +6677,7 @@
       </c>
       <c r="I119" s="35"/>
     </row>
-    <row r="120" spans="1:9">
+    <row r="120" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A120" s="22" t="s">
         <v>138</v>
       </c>
@@ -6632,7 +6685,7 @@
         <v>31</v>
       </c>
       <c r="C120" s="32" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="D120" s="30"/>
       <c r="E120" s="30" t="s">
@@ -6645,11 +6698,11 @@
         <v>15</v>
       </c>
       <c r="H120" s="22" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="I120" s="32"/>
     </row>
-    <row r="121" spans="1:9" ht="30">
+    <row r="121" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A121" s="30" t="s">
         <v>139</v>
       </c>
@@ -6657,7 +6710,7 @@
         <v>31</v>
       </c>
       <c r="C121" s="20" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="D121" s="30"/>
       <c r="E121" s="30" t="s">
@@ -6674,15 +6727,15 @@
       </c>
       <c r="I121" s="32"/>
     </row>
-    <row r="122" spans="1:9" ht="30">
+    <row r="122" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A122" s="22" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="B122" s="31" t="s">
         <v>31</v>
       </c>
       <c r="C122" s="35" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="D122" s="33"/>
       <c r="E122" s="33" t="s">
@@ -6699,15 +6752,15 @@
       </c>
       <c r="I122" s="35"/>
     </row>
-    <row r="123" spans="1:9" ht="30">
+    <row r="123" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A123" s="22" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="B123" s="31" t="s">
         <v>31</v>
       </c>
       <c r="C123" s="35" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="D123" s="33"/>
       <c r="E123" s="33" t="s">
@@ -6724,15 +6777,15 @@
       </c>
       <c r="I123" s="35"/>
     </row>
-    <row r="124" spans="1:9" ht="45">
+    <row r="124" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A124" s="22" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="B124" s="31" t="s">
         <v>31</v>
       </c>
       <c r="C124" s="35" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="D124" s="33"/>
       <c r="E124" s="33" t="s">
@@ -6748,18 +6801,18 @@
         <v>17</v>
       </c>
       <c r="I124" s="35" t="s">
-        <v>562</v>
-      </c>
-    </row>
-    <row r="125" spans="1:9" ht="30">
+        <v>560</v>
+      </c>
+    </row>
+    <row r="125" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A125" s="22" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="B125" s="31" t="s">
         <v>31</v>
       </c>
       <c r="C125" s="35" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="D125" s="33"/>
       <c r="E125" s="33" t="s">
@@ -6776,15 +6829,15 @@
       </c>
       <c r="I125" s="35"/>
     </row>
-    <row r="126" spans="1:9" ht="45">
+    <row r="126" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A126" s="22" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="B126" s="31" t="s">
         <v>31</v>
       </c>
       <c r="C126" s="35" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="D126" s="33"/>
       <c r="E126" s="33" t="s">
@@ -6800,18 +6853,18 @@
         <v>17</v>
       </c>
       <c r="I126" s="35" t="s">
-        <v>558</v>
-      </c>
-    </row>
-    <row r="127" spans="1:9" ht="30">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="127" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A127" s="22" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="B127" s="31" t="s">
         <v>31</v>
       </c>
       <c r="C127" s="35" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="D127" s="33"/>
       <c r="E127" s="33" t="s">
@@ -6828,15 +6881,15 @@
       </c>
       <c r="I127" s="35"/>
     </row>
-    <row r="128" spans="1:9" ht="45">
+    <row r="128" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A128" s="22" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="B128" s="31" t="s">
         <v>31</v>
       </c>
       <c r="C128" s="35" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="D128" s="33"/>
       <c r="E128" s="33" t="s">
@@ -6852,10 +6905,10 @@
         <v>17</v>
       </c>
       <c r="I128" s="35" t="s">
-        <v>560</v>
-      </c>
-    </row>
-    <row r="129" spans="1:9" ht="30">
+        <v>558</v>
+      </c>
+    </row>
+    <row r="129" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A129" s="30" t="s">
         <v>140</v>
       </c>
@@ -6863,7 +6916,7 @@
         <v>258</v>
       </c>
       <c r="C129" s="32" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="D129" s="30"/>
       <c r="E129" s="30" t="s">
@@ -6880,7 +6933,7 @@
       </c>
       <c r="I129" s="32"/>
     </row>
-    <row r="130" spans="1:9" ht="30">
+    <row r="130" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A130" s="30" t="s">
         <v>141</v>
       </c>
@@ -6888,7 +6941,7 @@
         <v>258</v>
       </c>
       <c r="C130" s="32" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="D130" s="30"/>
       <c r="E130" s="30" t="s">
@@ -6905,7 +6958,7 @@
       </c>
       <c r="I130" s="32"/>
     </row>
-    <row r="131" spans="1:9" ht="30">
+    <row r="131" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A131" s="30" t="s">
         <v>142</v>
       </c>
@@ -6913,7 +6966,7 @@
         <v>258</v>
       </c>
       <c r="C131" s="32" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="D131" s="30"/>
       <c r="E131" s="30" t="s">
@@ -6930,7 +6983,7 @@
       </c>
       <c r="I131" s="32"/>
     </row>
-    <row r="132" spans="1:9" ht="30">
+    <row r="132" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A132" s="30" t="s">
         <v>143</v>
       </c>
@@ -6938,7 +6991,7 @@
         <v>259</v>
       </c>
       <c r="C132" s="32" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="D132" s="30"/>
       <c r="E132" s="30" t="s">
@@ -6955,7 +7008,7 @@
       </c>
       <c r="I132" s="32"/>
     </row>
-    <row r="133" spans="1:9" ht="240">
+    <row r="133" spans="1:9" ht="225" x14ac:dyDescent="0.25">
       <c r="A133" s="30" t="s">
         <v>144</v>
       </c>
@@ -6963,7 +7016,7 @@
         <v>259</v>
       </c>
       <c r="C133" s="32" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="D133" s="30"/>
       <c r="E133" s="30" t="s">
@@ -6980,7 +7033,7 @@
       </c>
       <c r="I133" s="32"/>
     </row>
-    <row r="134" spans="1:9" ht="45">
+    <row r="134" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A134" s="30" t="s">
         <v>145</v>
       </c>
@@ -6988,7 +7041,7 @@
         <v>259</v>
       </c>
       <c r="C134" s="32" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="D134" s="30"/>
       <c r="E134" s="30" t="s">
@@ -7005,7 +7058,7 @@
       </c>
       <c r="I134" s="32"/>
     </row>
-    <row r="135" spans="1:9" ht="60">
+    <row r="135" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A135" s="30" t="s">
         <v>146</v>
       </c>
@@ -7013,7 +7066,7 @@
         <v>259</v>
       </c>
       <c r="C135" s="20" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="D135" s="30"/>
       <c r="E135" s="30" t="s">
@@ -7030,7 +7083,7 @@
       </c>
       <c r="I135" s="32"/>
     </row>
-    <row r="136" spans="1:9" ht="45">
+    <row r="136" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A136" s="30" t="s">
         <v>147</v>
       </c>
@@ -7038,7 +7091,7 @@
         <v>259</v>
       </c>
       <c r="C136" s="32" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="D136" s="30"/>
       <c r="E136" s="30" t="s">
@@ -7055,7 +7108,7 @@
       </c>
       <c r="I136" s="32"/>
     </row>
-    <row r="137" spans="1:9" ht="30">
+    <row r="137" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A137" s="30" t="s">
         <v>148</v>
       </c>
@@ -7063,7 +7116,7 @@
         <v>259</v>
       </c>
       <c r="C137" s="32" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="D137" s="30"/>
       <c r="E137" s="30" t="s">
@@ -7080,7 +7133,7 @@
       </c>
       <c r="I137" s="32"/>
     </row>
-    <row r="138" spans="1:9" ht="30">
+    <row r="138" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A138" s="30" t="s">
         <v>149</v>
       </c>
@@ -7088,7 +7141,7 @@
         <v>259</v>
       </c>
       <c r="C138" s="20" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="D138" s="30"/>
       <c r="E138" s="30" t="s">
@@ -7105,7 +7158,7 @@
       </c>
       <c r="I138" s="32"/>
     </row>
-    <row r="139" spans="1:9" ht="30">
+    <row r="139" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A139" s="30" t="s">
         <v>150</v>
       </c>
@@ -7113,7 +7166,7 @@
         <v>259</v>
       </c>
       <c r="C139" s="20" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="D139" s="30"/>
       <c r="E139" s="30" t="s">
@@ -7130,7 +7183,7 @@
       </c>
       <c r="I139" s="32"/>
     </row>
-    <row r="140" spans="1:9" ht="30">
+    <row r="140" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A140" s="30" t="s">
         <v>151</v>
       </c>
@@ -7138,7 +7191,7 @@
         <v>259</v>
       </c>
       <c r="C140" s="20" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="D140" s="30"/>
       <c r="E140" s="30" t="s">
@@ -7155,7 +7208,7 @@
       </c>
       <c r="I140" s="32"/>
     </row>
-    <row r="141" spans="1:9" ht="30">
+    <row r="141" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A141" s="30" t="s">
         <v>152</v>
       </c>
@@ -7163,7 +7216,7 @@
         <v>259</v>
       </c>
       <c r="C141" s="20" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="D141" s="30"/>
       <c r="E141" s="30" t="s">
@@ -7180,7 +7233,7 @@
       </c>
       <c r="I141" s="32"/>
     </row>
-    <row r="142" spans="1:9" ht="45">
+    <row r="142" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A142" s="30" t="s">
         <v>153</v>
       </c>
@@ -7188,7 +7241,7 @@
         <v>259</v>
       </c>
       <c r="C142" s="20" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="D142" s="30"/>
       <c r="E142" s="30" t="s">
@@ -7205,7 +7258,7 @@
       </c>
       <c r="I142" s="32"/>
     </row>
-    <row r="143" spans="1:9" ht="30">
+    <row r="143" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A143" s="30" t="s">
         <v>154</v>
       </c>
@@ -7213,7 +7266,7 @@
         <v>259</v>
       </c>
       <c r="C143" s="20" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="D143" s="30"/>
       <c r="E143" s="30" t="s">
@@ -7230,7 +7283,7 @@
       </c>
       <c r="I143" s="32"/>
     </row>
-    <row r="144" spans="1:9" ht="30">
+    <row r="144" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A144" s="30" t="s">
         <v>155</v>
       </c>
@@ -7238,7 +7291,7 @@
         <v>260</v>
       </c>
       <c r="C144" s="32" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="D144" s="30"/>
       <c r="E144" s="30" t="s">
@@ -7255,7 +7308,7 @@
       </c>
       <c r="I144" s="32"/>
     </row>
-    <row r="145" spans="1:9">
+    <row r="145" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A145" s="30" t="s">
         <v>156</v>
       </c>
@@ -7263,7 +7316,7 @@
         <v>261</v>
       </c>
       <c r="C145" s="32" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="D145" s="30"/>
       <c r="E145" s="30" t="s">
@@ -7280,7 +7333,7 @@
       </c>
       <c r="I145" s="32"/>
     </row>
-    <row r="146" spans="1:9" ht="30">
+    <row r="146" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A146" s="30" t="s">
         <v>157</v>
       </c>
@@ -7288,7 +7341,7 @@
         <v>262</v>
       </c>
       <c r="C146" s="32" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="D146" s="30"/>
       <c r="E146" s="30" t="s">
@@ -7305,7 +7358,7 @@
       </c>
       <c r="I146" s="32"/>
     </row>
-    <row r="147" spans="1:9">
+    <row r="147" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A147" s="30" t="s">
         <v>158</v>
       </c>
@@ -7313,7 +7366,7 @@
         <v>263</v>
       </c>
       <c r="C147" s="32" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="D147" s="30"/>
       <c r="E147" s="30" t="s">
@@ -7330,7 +7383,7 @@
       </c>
       <c r="I147" s="32"/>
     </row>
-    <row r="148" spans="1:9" ht="30">
+    <row r="148" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A148" s="30" t="s">
         <v>159</v>
       </c>
@@ -7338,7 +7391,7 @@
         <v>263</v>
       </c>
       <c r="C148" s="32" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="D148" s="30"/>
       <c r="E148" s="30" t="s">
@@ -7355,7 +7408,7 @@
       </c>
       <c r="I148" s="32"/>
     </row>
-    <row r="149" spans="1:9" ht="45">
+    <row r="149" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A149" s="30" t="s">
         <v>160</v>
       </c>
@@ -7363,7 +7416,7 @@
         <v>263</v>
       </c>
       <c r="C149" s="32" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="D149" s="30"/>
       <c r="E149" s="30" t="s">
@@ -7380,7 +7433,7 @@
       </c>
       <c r="I149" s="32"/>
     </row>
-    <row r="150" spans="1:9" ht="30">
+    <row r="150" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A150" s="30" t="s">
         <v>161</v>
       </c>
@@ -7388,7 +7441,7 @@
         <v>264</v>
       </c>
       <c r="C150" s="20" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="D150" s="30"/>
       <c r="E150" s="30" t="s">
@@ -7405,7 +7458,7 @@
       </c>
       <c r="I150" s="32"/>
     </row>
-    <row r="151" spans="1:9" ht="30">
+    <row r="151" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A151" s="30" t="s">
         <v>162</v>
       </c>
@@ -7413,7 +7466,7 @@
         <v>264</v>
       </c>
       <c r="C151" s="32" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="D151" s="30"/>
       <c r="E151" s="30" t="s">
@@ -7430,7 +7483,7 @@
       </c>
       <c r="I151" s="32"/>
     </row>
-    <row r="152" spans="1:9" ht="30">
+    <row r="152" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A152" s="30" t="s">
         <v>163</v>
       </c>
@@ -7438,7 +7491,7 @@
         <v>265</v>
       </c>
       <c r="C152" s="32" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="D152" s="30"/>
       <c r="E152" s="30" t="s">
@@ -7455,7 +7508,7 @@
       </c>
       <c r="I152" s="32"/>
     </row>
-    <row r="153" spans="1:9" ht="30">
+    <row r="153" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A153" s="30" t="s">
         <v>164</v>
       </c>
@@ -7463,7 +7516,7 @@
         <v>265</v>
       </c>
       <c r="C153" s="32" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="D153" s="30"/>
       <c r="E153" s="30" t="s">
@@ -7480,7 +7533,7 @@
       </c>
       <c r="I153" s="32"/>
     </row>
-    <row r="154" spans="1:9" ht="45">
+    <row r="154" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A154" s="30" t="s">
         <v>165</v>
       </c>
@@ -7488,7 +7541,7 @@
         <v>265</v>
       </c>
       <c r="C154" s="32" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="D154" s="30"/>
       <c r="E154" s="30" t="s">
@@ -7505,7 +7558,7 @@
       </c>
       <c r="I154" s="32"/>
     </row>
-    <row r="155" spans="1:9" ht="45">
+    <row r="155" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A155" s="30" t="s">
         <v>166</v>
       </c>
@@ -7513,7 +7566,7 @@
         <v>266</v>
       </c>
       <c r="C155" s="32" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="D155" s="30"/>
       <c r="E155" s="30" t="s">
@@ -7530,7 +7583,7 @@
       </c>
       <c r="I155" s="32"/>
     </row>
-    <row r="156" spans="1:9" ht="30">
+    <row r="156" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A156" s="30" t="s">
         <v>167</v>
       </c>
@@ -7538,7 +7591,7 @@
         <v>266</v>
       </c>
       <c r="C156" s="20" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="D156" s="30"/>
       <c r="E156" s="30" t="s">
@@ -7555,7 +7608,7 @@
       </c>
       <c r="I156" s="32"/>
     </row>
-    <row r="157" spans="1:9" ht="30">
+    <row r="157" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A157" s="30" t="s">
         <v>168</v>
       </c>
@@ -7563,7 +7616,7 @@
         <v>266</v>
       </c>
       <c r="C157" s="20" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="D157" s="30"/>
       <c r="E157" s="30" t="s">
@@ -7580,7 +7633,7 @@
       </c>
       <c r="I157" s="32"/>
     </row>
-    <row r="158" spans="1:9" ht="30">
+    <row r="158" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A158" s="30" t="s">
         <v>169</v>
       </c>
@@ -7588,7 +7641,7 @@
         <v>266</v>
       </c>
       <c r="C158" s="20" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="D158" s="30"/>
       <c r="E158" s="30" t="s">
@@ -7605,7 +7658,7 @@
       </c>
       <c r="I158" s="32"/>
     </row>
-    <row r="159" spans="1:9" ht="30">
+    <row r="159" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A159" s="30" t="s">
         <v>170</v>
       </c>
@@ -7613,7 +7666,7 @@
         <v>266</v>
       </c>
       <c r="C159" s="20" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="D159" s="30"/>
       <c r="E159" s="30" t="s">
@@ -7630,7 +7683,7 @@
       </c>
       <c r="I159" s="32"/>
     </row>
-    <row r="160" spans="1:9" ht="30">
+    <row r="160" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A160" s="30" t="s">
         <v>171</v>
       </c>
@@ -7638,7 +7691,7 @@
         <v>266</v>
       </c>
       <c r="C160" s="20" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="D160" s="30"/>
       <c r="E160" s="30" t="s">
@@ -7655,7 +7708,7 @@
       </c>
       <c r="I160" s="32"/>
     </row>
-    <row r="161" spans="1:9" ht="30">
+    <row r="161" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A161" s="30" t="s">
         <v>172</v>
       </c>
@@ -7663,7 +7716,7 @@
         <v>266</v>
       </c>
       <c r="C161" s="20" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="D161" s="30"/>
       <c r="E161" s="30" t="s">
@@ -7680,7 +7733,7 @@
       </c>
       <c r="I161" s="32"/>
     </row>
-    <row r="162" spans="1:9" ht="30">
+    <row r="162" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A162" s="30" t="s">
         <v>173</v>
       </c>
@@ -7688,7 +7741,7 @@
         <v>266</v>
       </c>
       <c r="C162" s="20" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="D162" s="30"/>
       <c r="E162" s="30" t="s">
@@ -7705,7 +7758,7 @@
       </c>
       <c r="I162" s="32"/>
     </row>
-    <row r="163" spans="1:9">
+    <row r="163" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A163" s="30" t="s">
         <v>226</v>
       </c>
@@ -7713,7 +7766,7 @@
         <v>32</v>
       </c>
       <c r="C163" s="20" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="D163" s="30"/>
       <c r="E163" s="30" t="s">
@@ -7730,7 +7783,7 @@
       </c>
       <c r="I163" s="32"/>
     </row>
-    <row r="164" spans="1:9" ht="75">
+    <row r="164" spans="1:9" ht="75" x14ac:dyDescent="0.25">
       <c r="A164" s="30" t="s">
         <v>227</v>
       </c>
@@ -7738,7 +7791,7 @@
         <v>32</v>
       </c>
       <c r="C164" s="32" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="D164" s="30"/>
       <c r="E164" s="30" t="s">
@@ -7755,7 +7808,7 @@
       </c>
       <c r="I164" s="32"/>
     </row>
-    <row r="165" spans="1:9" ht="240">
+    <row r="165" spans="1:9" ht="225" x14ac:dyDescent="0.25">
       <c r="A165" s="30" t="s">
         <v>228</v>
       </c>
@@ -7763,7 +7816,7 @@
         <v>32</v>
       </c>
       <c r="C165" s="32" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="D165" s="30"/>
       <c r="E165" s="30" t="s">
@@ -7780,7 +7833,7 @@
       </c>
       <c r="I165" s="32"/>
     </row>
-    <row r="166" spans="1:9" ht="30">
+    <row r="166" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A166" s="30" t="s">
         <v>229</v>
       </c>
@@ -7788,7 +7841,7 @@
         <v>32</v>
       </c>
       <c r="C166" s="32" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="D166" s="30"/>
       <c r="E166" s="30" t="s">
@@ -7805,7 +7858,7 @@
       </c>
       <c r="I166" s="32"/>
     </row>
-    <row r="167" spans="1:9" ht="75">
+    <row r="167" spans="1:9" ht="60" x14ac:dyDescent="0.25">
       <c r="A167" s="30" t="s">
         <v>230</v>
       </c>
@@ -7813,7 +7866,7 @@
         <v>32</v>
       </c>
       <c r="C167" s="20" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="D167" s="30"/>
       <c r="E167" s="30" t="s">
@@ -7830,7 +7883,7 @@
       </c>
       <c r="I167" s="32"/>
     </row>
-    <row r="168" spans="1:9" ht="45">
+    <row r="168" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A168" s="30" t="s">
         <v>231</v>
       </c>
@@ -7838,7 +7891,7 @@
         <v>32</v>
       </c>
       <c r="C168" s="20" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="D168" s="30"/>
       <c r="E168" s="30" t="s">
@@ -7855,15 +7908,15 @@
       </c>
       <c r="I168" s="32"/>
     </row>
-    <row r="169" spans="1:9" ht="45">
+    <row r="169" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A169" s="22" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="B169" s="24" t="s">
         <v>32</v>
       </c>
       <c r="C169" s="35" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="D169" s="33"/>
       <c r="E169" s="33" t="s">
@@ -7880,15 +7933,15 @@
       </c>
       <c r="I169" s="35"/>
     </row>
-    <row r="170" spans="1:9" ht="45">
+    <row r="170" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A170" s="22" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="B170" s="24" t="s">
         <v>32</v>
       </c>
       <c r="C170" s="35" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="D170" s="33"/>
       <c r="E170" s="33" t="s">
@@ -7905,7 +7958,7 @@
       </c>
       <c r="I170" s="35"/>
     </row>
-    <row r="171" spans="1:9" ht="30">
+    <row r="171" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A171" s="30" t="s">
         <v>232</v>
       </c>
@@ -7913,7 +7966,7 @@
         <v>32</v>
       </c>
       <c r="C171" s="20" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="D171" s="30"/>
       <c r="E171" s="30" t="s">
@@ -7930,7 +7983,7 @@
       </c>
       <c r="I171" s="32"/>
     </row>
-    <row r="172" spans="1:9">
+    <row r="172" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A172" s="30" t="s">
         <v>174</v>
       </c>
@@ -7938,7 +7991,7 @@
         <v>33</v>
       </c>
       <c r="C172" s="20" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="D172" s="30"/>
       <c r="E172" s="30" t="s">
@@ -7955,7 +8008,7 @@
       </c>
       <c r="I172" s="32"/>
     </row>
-    <row r="173" spans="1:9" ht="90">
+    <row r="173" spans="1:9" ht="75" x14ac:dyDescent="0.25">
       <c r="A173" s="30" t="s">
         <v>175</v>
       </c>
@@ -7963,7 +8016,7 @@
         <v>33</v>
       </c>
       <c r="C173" s="32" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="D173" s="30"/>
       <c r="E173" s="30" t="s">
@@ -7980,7 +8033,7 @@
       </c>
       <c r="I173" s="32"/>
     </row>
-    <row r="174" spans="1:9" ht="270">
+    <row r="174" spans="1:9" ht="240" x14ac:dyDescent="0.25">
       <c r="A174" s="30" t="s">
         <v>176</v>
       </c>
@@ -7988,7 +8041,7 @@
         <v>33</v>
       </c>
       <c r="C174" s="32" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="D174" s="30"/>
       <c r="E174" s="30" t="s">
@@ -8005,7 +8058,7 @@
       </c>
       <c r="I174" s="32"/>
     </row>
-    <row r="175" spans="1:9" ht="30">
+    <row r="175" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A175" s="30" t="s">
         <v>177</v>
       </c>
@@ -8013,7 +8066,7 @@
         <v>33</v>
       </c>
       <c r="C175" s="32" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="D175" s="30"/>
       <c r="E175" s="30" t="s">
@@ -8030,7 +8083,7 @@
       </c>
       <c r="I175" s="32"/>
     </row>
-    <row r="176" spans="1:9" ht="75">
+    <row r="176" spans="1:9" ht="60" x14ac:dyDescent="0.25">
       <c r="A176" s="30" t="s">
         <v>178</v>
       </c>
@@ -8038,7 +8091,7 @@
         <v>33</v>
       </c>
       <c r="C176" s="20" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="D176" s="30"/>
       <c r="E176" s="30" t="s">
@@ -8055,7 +8108,7 @@
       </c>
       <c r="I176" s="32"/>
     </row>
-    <row r="177" spans="1:9" ht="45">
+    <row r="177" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A177" s="30" t="s">
         <v>179</v>
       </c>
@@ -8063,7 +8116,7 @@
         <v>33</v>
       </c>
       <c r="C177" s="20" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="D177" s="30"/>
       <c r="E177" s="30" t="s">
@@ -8080,15 +8133,15 @@
       </c>
       <c r="I177" s="32"/>
     </row>
-    <row r="178" spans="1:9" ht="45">
+    <row r="178" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A178" s="22" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="B178" s="24" t="s">
         <v>33</v>
       </c>
       <c r="C178" s="35" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="D178" s="33"/>
       <c r="E178" s="33" t="s">
@@ -8105,15 +8158,15 @@
       </c>
       <c r="I178" s="35"/>
     </row>
-    <row r="179" spans="1:9" ht="60">
+    <row r="179" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A179" s="22" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="B179" s="24" t="s">
         <v>33</v>
       </c>
       <c r="C179" s="35" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="D179" s="33"/>
       <c r="E179" s="33" t="s">
@@ -8130,7 +8183,7 @@
       </c>
       <c r="I179" s="35"/>
     </row>
-    <row r="180" spans="1:9" ht="30">
+    <row r="180" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A180" s="30" t="s">
         <v>180</v>
       </c>
@@ -8138,7 +8191,7 @@
         <v>33</v>
       </c>
       <c r="C180" s="20" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="D180" s="30"/>
       <c r="E180" s="30" t="s">
@@ -8155,7 +8208,7 @@
       </c>
       <c r="I180" s="32"/>
     </row>
-    <row r="181" spans="1:9">
+    <row r="181" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A181" s="30" t="s">
         <v>212</v>
       </c>
@@ -8163,7 +8216,7 @@
         <v>267</v>
       </c>
       <c r="C181" s="20" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="D181" s="30"/>
       <c r="E181" s="30" t="s">
@@ -8180,7 +8233,7 @@
       </c>
       <c r="I181" s="32"/>
     </row>
-    <row r="182" spans="1:9" ht="75">
+    <row r="182" spans="1:9" ht="75" x14ac:dyDescent="0.25">
       <c r="A182" s="30" t="s">
         <v>213</v>
       </c>
@@ -8188,7 +8241,7 @@
         <v>267</v>
       </c>
       <c r="C182" s="32" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="D182" s="30"/>
       <c r="E182" s="30" t="s">
@@ -8205,7 +8258,7 @@
       </c>
       <c r="I182" s="32"/>
     </row>
-    <row r="183" spans="1:9" ht="240">
+    <row r="183" spans="1:9" ht="225" x14ac:dyDescent="0.25">
       <c r="A183" s="30" t="s">
         <v>214</v>
       </c>
@@ -8213,7 +8266,7 @@
         <v>267</v>
       </c>
       <c r="C183" s="32" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="D183" s="30"/>
       <c r="E183" s="30" t="s">
@@ -8230,7 +8283,7 @@
       </c>
       <c r="I183" s="32"/>
     </row>
-    <row r="184" spans="1:9" ht="30">
+    <row r="184" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A184" s="30" t="s">
         <v>215</v>
       </c>
@@ -8238,7 +8291,7 @@
         <v>267</v>
       </c>
       <c r="C184" s="20" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="D184" s="30"/>
       <c r="E184" s="30" t="s">
@@ -8255,7 +8308,7 @@
       </c>
       <c r="I184" s="32"/>
     </row>
-    <row r="185" spans="1:9" ht="75">
+    <row r="185" spans="1:9" ht="60" x14ac:dyDescent="0.25">
       <c r="A185" s="30" t="s">
         <v>216</v>
       </c>
@@ -8263,7 +8316,7 @@
         <v>267</v>
       </c>
       <c r="C185" s="20" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="D185" s="30"/>
       <c r="E185" s="30" t="s">
@@ -8280,7 +8333,7 @@
       </c>
       <c r="I185" s="32"/>
     </row>
-    <row r="186" spans="1:9" ht="45">
+    <row r="186" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A186" s="30" t="s">
         <v>217</v>
       </c>
@@ -8288,7 +8341,7 @@
         <v>267</v>
       </c>
       <c r="C186" s="20" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="D186" s="30"/>
       <c r="E186" s="30" t="s">
@@ -8305,15 +8358,15 @@
       </c>
       <c r="I186" s="32"/>
     </row>
-    <row r="187" spans="1:9" ht="45">
+    <row r="187" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A187" s="22" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="B187" s="24" t="s">
         <v>267</v>
       </c>
       <c r="C187" s="35" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="D187" s="33"/>
       <c r="E187" s="30" t="s">
@@ -8330,15 +8383,15 @@
       </c>
       <c r="I187" s="35"/>
     </row>
-    <row r="188" spans="1:9" ht="60">
+    <row r="188" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A188" s="22" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="B188" s="24" t="s">
         <v>267</v>
       </c>
       <c r="C188" s="35" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="D188" s="33"/>
       <c r="E188" s="30" t="s">
@@ -8355,7 +8408,7 @@
       </c>
       <c r="I188" s="35"/>
     </row>
-    <row r="189" spans="1:9" ht="30">
+    <row r="189" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A189" s="30" t="s">
         <v>218</v>
       </c>
@@ -8363,7 +8416,7 @@
         <v>267</v>
       </c>
       <c r="C189" s="20" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="D189" s="30"/>
       <c r="E189" s="30" t="s">
@@ -8380,7 +8433,7 @@
       </c>
       <c r="I189" s="32"/>
     </row>
-    <row r="190" spans="1:9" ht="30">
+    <row r="190" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A190" s="30" t="s">
         <v>181</v>
       </c>
@@ -8388,7 +8441,7 @@
         <v>268</v>
       </c>
       <c r="C190" s="20" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="D190" s="30"/>
       <c r="E190" s="30" t="s">
@@ -8405,7 +8458,7 @@
       </c>
       <c r="I190" s="32"/>
     </row>
-    <row r="191" spans="1:9" ht="75">
+    <row r="191" spans="1:9" ht="75" x14ac:dyDescent="0.25">
       <c r="A191" s="30" t="s">
         <v>182</v>
       </c>
@@ -8413,7 +8466,7 @@
         <v>268</v>
       </c>
       <c r="C191" s="32" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="D191" s="30"/>
       <c r="E191" s="30" t="s">
@@ -8430,7 +8483,7 @@
       </c>
       <c r="I191" s="32"/>
     </row>
-    <row r="192" spans="1:9" ht="240">
+    <row r="192" spans="1:9" ht="240" x14ac:dyDescent="0.25">
       <c r="A192" s="30" t="s">
         <v>183</v>
       </c>
@@ -8438,7 +8491,7 @@
         <v>268</v>
       </c>
       <c r="C192" s="32" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="D192" s="30"/>
       <c r="E192" s="30" t="s">
@@ -8455,7 +8508,7 @@
       </c>
       <c r="I192" s="32"/>
     </row>
-    <row r="193" spans="1:9" ht="30">
+    <row r="193" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A193" s="30" t="s">
         <v>184</v>
       </c>
@@ -8463,7 +8516,7 @@
         <v>268</v>
       </c>
       <c r="C193" s="32" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="D193" s="30"/>
       <c r="E193" s="30" t="s">
@@ -8480,7 +8533,7 @@
       </c>
       <c r="I193" s="32"/>
     </row>
-    <row r="194" spans="1:9">
+    <row r="194" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A194" s="30" t="s">
         <v>185</v>
       </c>
@@ -8488,7 +8541,7 @@
         <v>268</v>
       </c>
       <c r="C194" s="32" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="D194" s="30"/>
       <c r="E194" s="30" t="s">
@@ -8505,7 +8558,7 @@
       </c>
       <c r="I194" s="32"/>
     </row>
-    <row r="195" spans="1:9" ht="45">
+    <row r="195" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A195" s="30" t="s">
         <v>186</v>
       </c>
@@ -8513,7 +8566,7 @@
         <v>268</v>
       </c>
       <c r="C195" s="32" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="D195" s="30"/>
       <c r="E195" s="30" t="s">
@@ -8530,7 +8583,7 @@
       </c>
       <c r="I195" s="32"/>
     </row>
-    <row r="196" spans="1:9">
+    <row r="196" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A196" s="30" t="s">
         <v>187</v>
       </c>
@@ -8538,7 +8591,7 @@
         <v>268</v>
       </c>
       <c r="C196" s="32" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="D196" s="30"/>
       <c r="E196" s="30" t="s">
@@ -8555,7 +8608,7 @@
       </c>
       <c r="I196" s="32"/>
     </row>
-    <row r="197" spans="1:9" ht="45">
+    <row r="197" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A197" s="30" t="s">
         <v>188</v>
       </c>
@@ -8563,7 +8616,7 @@
         <v>268</v>
       </c>
       <c r="C197" s="32" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="D197" s="30"/>
       <c r="E197" s="30" t="s">
@@ -8580,7 +8633,7 @@
       </c>
       <c r="I197" s="32"/>
     </row>
-    <row r="198" spans="1:9" ht="45">
+    <row r="198" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A198" s="30" t="s">
         <v>189</v>
       </c>
@@ -8588,7 +8641,7 @@
         <v>268</v>
       </c>
       <c r="C198" s="32" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="D198" s="30"/>
       <c r="E198" s="30" t="s">
@@ -8605,7 +8658,7 @@
       </c>
       <c r="I198" s="32"/>
     </row>
-    <row r="199" spans="1:9" ht="30">
+    <row r="199" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A199" s="30" t="s">
         <v>190</v>
       </c>
@@ -8613,7 +8666,7 @@
         <v>268</v>
       </c>
       <c r="C199" s="32" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="D199" s="30"/>
       <c r="E199" s="30" t="s">
@@ -8630,7 +8683,7 @@
       </c>
       <c r="I199" s="32"/>
     </row>
-    <row r="200" spans="1:9" ht="30">
+    <row r="200" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A200" s="30" t="s">
         <v>191</v>
       </c>
@@ -8638,7 +8691,7 @@
         <v>268</v>
       </c>
       <c r="C200" s="32" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="D200" s="30"/>
       <c r="E200" s="30" t="s">
@@ -8655,7 +8708,7 @@
       </c>
       <c r="I200" s="32"/>
     </row>
-    <row r="201" spans="1:9" ht="45">
+    <row r="201" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A201" s="30" t="s">
         <v>192</v>
       </c>
@@ -8663,7 +8716,7 @@
         <v>268</v>
       </c>
       <c r="C201" s="32" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="D201" s="30"/>
       <c r="E201" s="30" t="s">
@@ -8680,7 +8733,7 @@
       </c>
       <c r="I201" s="32"/>
     </row>
-    <row r="202" spans="1:9" ht="30">
+    <row r="202" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A202" s="30" t="s">
         <v>193</v>
       </c>
@@ -8688,7 +8741,7 @@
         <v>268</v>
       </c>
       <c r="C202" s="32" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="D202" s="30"/>
       <c r="E202" s="30" t="s">
@@ -8705,7 +8758,7 @@
       </c>
       <c r="I202" s="32"/>
     </row>
-    <row r="203" spans="1:9" ht="60">
+    <row r="203" spans="1:9" ht="60" x14ac:dyDescent="0.25">
       <c r="A203" s="30" t="s">
         <v>194</v>
       </c>
@@ -8713,7 +8766,7 @@
         <v>268</v>
       </c>
       <c r="C203" s="32" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="D203" s="30"/>
       <c r="E203" s="30" t="s">
@@ -8729,10 +8782,10 @@
         <v>17</v>
       </c>
       <c r="I203" s="20" t="s">
-        <v>564</v>
-      </c>
-    </row>
-    <row r="204" spans="1:9" ht="30">
+        <v>562</v>
+      </c>
+    </row>
+    <row r="204" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A204" s="30" t="s">
         <v>195</v>
       </c>
@@ -8740,7 +8793,7 @@
         <v>268</v>
       </c>
       <c r="C204" s="32" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="D204" s="30"/>
       <c r="E204" s="30" t="s">
@@ -8756,10 +8809,10 @@
         <v>17</v>
       </c>
       <c r="I204" s="20" t="s">
-        <v>573</v>
-      </c>
-    </row>
-    <row r="205" spans="1:9" ht="60">
+        <v>568</v>
+      </c>
+    </row>
+    <row r="205" spans="1:9" ht="60" x14ac:dyDescent="0.25">
       <c r="A205" s="30" t="s">
         <v>196</v>
       </c>
@@ -8767,7 +8820,7 @@
         <v>268</v>
       </c>
       <c r="C205" s="32" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="D205" s="30"/>
       <c r="E205" s="30" t="s">
@@ -8783,10 +8836,10 @@
         <v>17</v>
       </c>
       <c r="I205" s="20" t="s">
-        <v>581</v>
-      </c>
-    </row>
-    <row r="206" spans="1:9" ht="30">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="206" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A206" s="30" t="s">
         <v>197</v>
       </c>
@@ -8794,7 +8847,7 @@
         <v>268</v>
       </c>
       <c r="C206" s="32" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="D206" s="30"/>
       <c r="E206" s="30" t="s">
@@ -8810,10 +8863,10 @@
         <v>17</v>
       </c>
       <c r="I206" s="20" t="s">
-        <v>576</v>
-      </c>
-    </row>
-    <row r="207" spans="1:9" ht="30">
+        <v>571</v>
+      </c>
+    </row>
+    <row r="207" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A207" s="30" t="s">
         <v>198</v>
       </c>
@@ -8821,7 +8874,7 @@
         <v>268</v>
       </c>
       <c r="C207" s="32" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="D207" s="30"/>
       <c r="E207" s="30" t="s">
@@ -8838,7 +8891,7 @@
       </c>
       <c r="I207" s="32"/>
     </row>
-    <row r="208" spans="1:9" ht="75">
+    <row r="208" spans="1:9" ht="60" x14ac:dyDescent="0.25">
       <c r="A208" s="30" t="s">
         <v>199</v>
       </c>
@@ -8846,7 +8899,7 @@
         <v>268</v>
       </c>
       <c r="C208" s="20" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="D208" s="30"/>
       <c r="E208" s="30" t="s">
@@ -8863,7 +8916,7 @@
       </c>
       <c r="I208" s="32"/>
     </row>
-    <row r="209" spans="1:9" ht="45">
+    <row r="209" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A209" s="30" t="s">
         <v>200</v>
       </c>
@@ -8871,7 +8924,7 @@
         <v>268</v>
       </c>
       <c r="C209" s="20" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="D209" s="30"/>
       <c r="E209" s="30" t="s">
@@ -8888,15 +8941,15 @@
       </c>
       <c r="I209" s="32"/>
     </row>
-    <row r="210" spans="1:9" ht="45">
+    <row r="210" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A210" s="22" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="B210" s="24" t="s">
         <v>268</v>
       </c>
       <c r="C210" s="35" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="D210" s="33"/>
       <c r="E210" s="30" t="s">
@@ -8913,15 +8966,15 @@
       </c>
       <c r="I210" s="35"/>
     </row>
-    <row r="211" spans="1:9" ht="45">
+    <row r="211" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A211" s="22" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="B211" s="24" t="s">
         <v>268</v>
       </c>
       <c r="C211" s="35" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="D211" s="33"/>
       <c r="E211" s="30" t="s">
@@ -8938,7 +8991,7 @@
       </c>
       <c r="I211" s="35"/>
     </row>
-    <row r="212" spans="1:9" ht="30">
+    <row r="212" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A212" s="30" t="s">
         <v>201</v>
       </c>
@@ -8946,7 +8999,7 @@
         <v>268</v>
       </c>
       <c r="C212" s="20" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="D212" s="30"/>
       <c r="E212" s="30" t="s">
@@ -8963,7 +9016,7 @@
       </c>
       <c r="I212" s="32"/>
     </row>
-    <row r="213" spans="1:9" ht="30">
+    <row r="213" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A213" s="30" t="s">
         <v>219</v>
       </c>
@@ -8971,7 +9024,7 @@
         <v>269</v>
       </c>
       <c r="C213" s="20" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="D213" s="30"/>
       <c r="E213" s="30" t="s">
@@ -8988,7 +9041,7 @@
       </c>
       <c r="I213" s="32"/>
     </row>
-    <row r="214" spans="1:9" ht="75">
+    <row r="214" spans="1:9" ht="75" x14ac:dyDescent="0.25">
       <c r="A214" s="30" t="s">
         <v>220</v>
       </c>
@@ -8996,7 +9049,7 @@
         <v>269</v>
       </c>
       <c r="C214" s="32" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="D214" s="30"/>
       <c r="E214" s="30" t="s">
@@ -9013,7 +9066,7 @@
       </c>
       <c r="I214" s="32"/>
     </row>
-    <row r="215" spans="1:9" ht="240">
+    <row r="215" spans="1:9" ht="225" x14ac:dyDescent="0.25">
       <c r="A215" s="30" t="s">
         <v>221</v>
       </c>
@@ -9021,7 +9074,7 @@
         <v>269</v>
       </c>
       <c r="C215" s="32" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="D215" s="30"/>
       <c r="E215" s="30" t="s">
@@ -9038,7 +9091,7 @@
       </c>
       <c r="I215" s="32"/>
     </row>
-    <row r="216" spans="1:9" ht="30">
+    <row r="216" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A216" s="30" t="s">
         <v>222</v>
       </c>
@@ -9046,7 +9099,7 @@
         <v>269</v>
       </c>
       <c r="C216" s="32" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="D216" s="30"/>
       <c r="E216" s="30" t="s">
@@ -9063,7 +9116,7 @@
       </c>
       <c r="I216" s="32"/>
     </row>
-    <row r="217" spans="1:9" ht="75">
+    <row r="217" spans="1:9" ht="60" x14ac:dyDescent="0.25">
       <c r="A217" s="30" t="s">
         <v>223</v>
       </c>
@@ -9071,7 +9124,7 @@
         <v>269</v>
       </c>
       <c r="C217" s="20" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="D217" s="30"/>
       <c r="E217" s="30" t="s">
@@ -9088,7 +9141,7 @@
       </c>
       <c r="I217" s="32"/>
     </row>
-    <row r="218" spans="1:9" ht="45">
+    <row r="218" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A218" s="30" t="s">
         <v>224</v>
       </c>
@@ -9096,7 +9149,7 @@
         <v>269</v>
       </c>
       <c r="C218" s="20" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="D218" s="30"/>
       <c r="E218" s="30" t="s">
@@ -9113,15 +9166,15 @@
       </c>
       <c r="I218" s="32"/>
     </row>
-    <row r="219" spans="1:9" ht="45">
+    <row r="219" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A219" s="22" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="B219" s="31" t="s">
         <v>269</v>
       </c>
       <c r="C219" s="35" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="D219" s="33"/>
       <c r="E219" s="30" t="s">
@@ -9138,15 +9191,15 @@
       </c>
       <c r="I219" s="35"/>
     </row>
-    <row r="220" spans="1:9" ht="45">
+    <row r="220" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A220" s="22" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="B220" s="31" t="s">
         <v>269</v>
       </c>
       <c r="C220" s="35" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="D220" s="33"/>
       <c r="E220" s="30" t="s">
@@ -9163,7 +9216,7 @@
       </c>
       <c r="I220" s="35"/>
     </row>
-    <row r="221" spans="1:9" ht="30">
+    <row r="221" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A221" s="30" t="s">
         <v>225</v>
       </c>
@@ -9171,7 +9224,7 @@
         <v>269</v>
       </c>
       <c r="C221" s="20" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="D221" s="30"/>
       <c r="E221" s="30" t="s">
@@ -9188,7 +9241,7 @@
       </c>
       <c r="I221" s="32"/>
     </row>
-    <row r="222" spans="1:9" ht="30">
+    <row r="222" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A222" s="30" t="s">
         <v>233</v>
       </c>
@@ -9196,7 +9249,7 @@
         <v>270</v>
       </c>
       <c r="C222" s="32" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="D222" s="30"/>
       <c r="E222" s="30" t="s">
@@ -9213,7 +9266,7 @@
       </c>
       <c r="I222" s="32"/>
     </row>
-    <row r="223" spans="1:9" ht="75">
+    <row r="223" spans="1:9" ht="75" x14ac:dyDescent="0.25">
       <c r="A223" s="30" t="s">
         <v>234</v>
       </c>
@@ -9221,7 +9274,7 @@
         <v>270</v>
       </c>
       <c r="C223" s="32" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="D223" s="30"/>
       <c r="E223" s="30" t="s">
@@ -9238,7 +9291,7 @@
       </c>
       <c r="I223" s="32"/>
     </row>
-    <row r="224" spans="1:9" ht="240">
+    <row r="224" spans="1:9" ht="225" x14ac:dyDescent="0.25">
       <c r="A224" s="30" t="s">
         <v>235</v>
       </c>
@@ -9246,7 +9299,7 @@
         <v>270</v>
       </c>
       <c r="C224" s="32" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="D224" s="30"/>
       <c r="E224" s="30" t="s">
@@ -9263,7 +9316,7 @@
       </c>
       <c r="I224" s="32"/>
     </row>
-    <row r="225" spans="1:9" ht="30">
+    <row r="225" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A225" s="30" t="s">
         <v>236</v>
       </c>
@@ -9271,7 +9324,7 @@
         <v>270</v>
       </c>
       <c r="C225" s="32" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="D225" s="30"/>
       <c r="E225" s="30" t="s">
@@ -9288,7 +9341,7 @@
       </c>
       <c r="I225" s="32"/>
     </row>
-    <row r="226" spans="1:9" ht="45">
+    <row r="226" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A226" s="30" t="s">
         <v>237</v>
       </c>
@@ -9296,7 +9349,7 @@
         <v>270</v>
       </c>
       <c r="C226" s="32" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="D226" s="30"/>
       <c r="E226" s="30" t="s">
@@ -9313,7 +9366,7 @@
       </c>
       <c r="I226" s="32"/>
     </row>
-    <row r="227" spans="1:9" ht="45">
+    <row r="227" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A227" s="30" t="s">
         <v>238</v>
       </c>
@@ -9321,7 +9374,7 @@
         <v>270</v>
       </c>
       <c r="C227" s="32" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="D227" s="30"/>
       <c r="E227" s="30" t="s">
@@ -9338,7 +9391,7 @@
       </c>
       <c r="I227" s="32"/>
     </row>
-    <row r="228" spans="1:9" ht="30">
+    <row r="228" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A228" s="30" t="s">
         <v>239</v>
       </c>
@@ -9346,7 +9399,7 @@
         <v>270</v>
       </c>
       <c r="C228" s="32" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="D228" s="30"/>
       <c r="E228" s="30" t="s">
@@ -9363,7 +9416,7 @@
       </c>
       <c r="I228" s="32"/>
     </row>
-    <row r="229" spans="1:9" ht="30">
+    <row r="229" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A229" s="30" t="s">
         <v>202</v>
       </c>
@@ -9371,7 +9424,7 @@
         <v>271</v>
       </c>
       <c r="C229" s="20" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="D229" s="30"/>
       <c r="E229" s="30" t="s">
@@ -9388,7 +9441,7 @@
       </c>
       <c r="I229" s="32"/>
     </row>
-    <row r="230" spans="1:9" ht="75">
+    <row r="230" spans="1:9" ht="75" x14ac:dyDescent="0.25">
       <c r="A230" s="30" t="s">
         <v>203</v>
       </c>
@@ -9396,7 +9449,7 @@
         <v>271</v>
       </c>
       <c r="C230" s="32" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="D230" s="30"/>
       <c r="E230" s="30" t="s">
@@ -9413,7 +9466,7 @@
       </c>
       <c r="I230" s="32"/>
     </row>
-    <row r="231" spans="1:9" ht="270">
+    <row r="231" spans="1:9" ht="240" x14ac:dyDescent="0.25">
       <c r="A231" s="30" t="s">
         <v>204</v>
       </c>
@@ -9421,7 +9474,7 @@
         <v>271</v>
       </c>
       <c r="C231" s="32" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="D231" s="30"/>
       <c r="E231" s="30" t="s">
@@ -9438,7 +9491,7 @@
       </c>
       <c r="I231" s="32"/>
     </row>
-    <row r="232" spans="1:9" ht="30">
+    <row r="232" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A232" s="30" t="s">
         <v>205</v>
       </c>
@@ -9446,7 +9499,7 @@
         <v>271</v>
       </c>
       <c r="C232" s="32" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="D232" s="30"/>
       <c r="E232" s="30" t="s">
@@ -9463,7 +9516,7 @@
       </c>
       <c r="I232" s="32"/>
     </row>
-    <row r="233" spans="1:9" ht="30">
+    <row r="233" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A233" s="30" t="s">
         <v>206</v>
       </c>
@@ -9471,7 +9524,7 @@
         <v>271</v>
       </c>
       <c r="C233" s="32" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="D233" s="30"/>
       <c r="E233" s="30" t="s">
@@ -9488,7 +9541,7 @@
       </c>
       <c r="I233" s="32"/>
     </row>
-    <row r="234" spans="1:9" ht="30">
+    <row r="234" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A234" s="30" t="s">
         <v>207</v>
       </c>
@@ -9496,7 +9549,7 @@
         <v>271</v>
       </c>
       <c r="C234" s="32" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="D234" s="30"/>
       <c r="E234" s="30" t="s">
@@ -9513,7 +9566,7 @@
       </c>
       <c r="I234" s="32"/>
     </row>
-    <row r="235" spans="1:9" ht="30">
+    <row r="235" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A235" s="30" t="s">
         <v>208</v>
       </c>
@@ -9521,7 +9574,7 @@
         <v>271</v>
       </c>
       <c r="C235" s="32" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="D235" s="30"/>
       <c r="E235" s="30" t="s">
@@ -9538,7 +9591,7 @@
       </c>
       <c r="I235" s="32"/>
     </row>
-    <row r="236" spans="1:9" ht="75">
+    <row r="236" spans="1:9" ht="60" x14ac:dyDescent="0.25">
       <c r="A236" s="30" t="s">
         <v>209</v>
       </c>
@@ -9546,7 +9599,7 @@
         <v>271</v>
       </c>
       <c r="C236" s="20" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="D236" s="30"/>
       <c r="E236" s="30" t="s">
@@ -9563,7 +9616,7 @@
       </c>
       <c r="I236" s="32"/>
     </row>
-    <row r="237" spans="1:9" ht="60">
+    <row r="237" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A237" s="30" t="s">
         <v>210</v>
       </c>
@@ -9571,7 +9624,7 @@
         <v>271</v>
       </c>
       <c r="C237" s="20" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="D237" s="30"/>
       <c r="E237" s="30" t="s">
@@ -9588,15 +9641,15 @@
       </c>
       <c r="I237" s="32"/>
     </row>
-    <row r="238" spans="1:9" ht="45">
+    <row r="238" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A238" s="22" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="B238" s="24" t="s">
         <v>271</v>
       </c>
       <c r="C238" s="35" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="D238" s="33"/>
       <c r="E238" s="30" t="s">
@@ -9613,15 +9666,15 @@
       </c>
       <c r="I238" s="35"/>
     </row>
-    <row r="239" spans="1:9" ht="60">
+    <row r="239" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A239" s="22" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="B239" s="24" t="s">
         <v>271</v>
       </c>
       <c r="C239" s="35" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="D239" s="33"/>
       <c r="E239" s="30" t="s">
@@ -9638,7 +9691,7 @@
       </c>
       <c r="I239" s="35"/>
     </row>
-    <row r="240" spans="1:9" ht="30">
+    <row r="240" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A240" s="30" t="s">
         <v>211</v>
       </c>
@@ -9646,7 +9699,7 @@
         <v>271</v>
       </c>
       <c r="C240" s="32" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="D240" s="30"/>
       <c r="E240" s="30" t="s">
@@ -9663,7 +9716,7 @@
       </c>
       <c r="I240" s="32"/>
     </row>
-    <row r="241" spans="1:9" ht="45">
+    <row r="241" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A241" s="30" t="s">
         <v>240</v>
       </c>
@@ -9671,7 +9724,7 @@
         <v>272</v>
       </c>
       <c r="C241" s="32" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="D241" s="30"/>
       <c r="E241" s="30" t="s">
@@ -9688,7 +9741,7 @@
       </c>
       <c r="I241" s="32"/>
     </row>
-    <row r="242" spans="1:9" ht="45">
+    <row r="242" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A242" s="30" t="s">
         <v>241</v>
       </c>
@@ -9696,10 +9749,10 @@
         <v>272</v>
       </c>
       <c r="C242" s="20" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="D242" s="30" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="E242" s="30" t="s">
         <v>22</v>
@@ -9714,10 +9767,10 @@
         <v>21</v>
       </c>
       <c r="I242" s="32" t="s">
-        <v>438</v>
-      </c>
-    </row>
-    <row r="243" spans="1:9" ht="30">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="243" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A243" s="30" t="s">
         <v>242</v>
       </c>
@@ -9725,7 +9778,7 @@
         <v>272</v>
       </c>
       <c r="C243" s="32" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="D243" s="30"/>
       <c r="E243" s="30" t="s">
@@ -9742,18 +9795,18 @@
       </c>
       <c r="I243" s="32"/>
     </row>
-    <row r="244" spans="1:9" ht="45">
+    <row r="244" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A244" s="22" t="s">
-        <v>551</v>
+        <v>549</v>
       </c>
       <c r="B244" s="31" t="s">
         <v>272</v>
       </c>
       <c r="C244" s="35" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="D244" s="33" t="s">
-        <v>557</v>
+        <v>555</v>
       </c>
       <c r="E244" s="30" t="s">
         <v>22</v>
@@ -9769,18 +9822,18 @@
       </c>
       <c r="I244" s="35"/>
     </row>
-    <row r="245" spans="1:9" ht="45">
+    <row r="245" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A245" s="22" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
       <c r="B245" s="31" t="s">
         <v>272</v>
       </c>
       <c r="C245" s="35" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="D245" s="33" t="s">
-        <v>557</v>
+        <v>555</v>
       </c>
       <c r="E245" s="30" t="s">
         <v>22</v>
@@ -9792,24 +9845,22 @@
         <v>15</v>
       </c>
       <c r="H245" s="33" t="s">
-        <v>20</v>
-      </c>
-      <c r="I245" s="35" t="s">
-        <v>438</v>
-      </c>
-    </row>
-    <row r="246" spans="1:9" ht="45">
+        <v>18</v>
+      </c>
+      <c r="I245" s="35"/>
+    </row>
+    <row r="246" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A246" s="22" t="s">
-        <v>553</v>
+        <v>551</v>
       </c>
       <c r="B246" s="31" t="s">
         <v>272</v>
       </c>
       <c r="C246" s="35" t="s">
-        <v>550</v>
+        <v>592</v>
       </c>
       <c r="D246" s="33" t="s">
-        <v>559</v>
+        <v>557</v>
       </c>
       <c r="E246" s="30" t="s">
         <v>22</v>
@@ -9825,18 +9876,18 @@
       </c>
       <c r="I246" s="35"/>
     </row>
-    <row r="247" spans="1:9" ht="45">
+    <row r="247" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A247" s="22" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
       <c r="B247" s="31" t="s">
         <v>272</v>
       </c>
       <c r="C247" s="35" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="D247" s="33" t="s">
-        <v>559</v>
+        <v>557</v>
       </c>
       <c r="E247" s="30" t="s">
         <v>22</v>
@@ -9848,24 +9899,22 @@
         <v>15</v>
       </c>
       <c r="H247" s="33" t="s">
-        <v>20</v>
-      </c>
-      <c r="I247" s="35" t="s">
-        <v>438</v>
-      </c>
-    </row>
-    <row r="248" spans="1:9" ht="45">
+        <v>18</v>
+      </c>
+      <c r="I247" s="35"/>
+    </row>
+    <row r="248" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A248" s="22" t="s">
-        <v>555</v>
+        <v>553</v>
       </c>
       <c r="B248" s="31" t="s">
         <v>272</v>
       </c>
       <c r="C248" s="35" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="D248" s="33" t="s">
-        <v>561</v>
+        <v>559</v>
       </c>
       <c r="E248" s="30" t="s">
         <v>22</v>
@@ -9881,18 +9930,18 @@
       </c>
       <c r="I248" s="35"/>
     </row>
-    <row r="249" spans="1:9" ht="45">
+    <row r="249" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A249" s="22" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
       <c r="B249" s="31" t="s">
         <v>272</v>
       </c>
       <c r="C249" s="35" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="D249" s="33" t="s">
-        <v>561</v>
+        <v>559</v>
       </c>
       <c r="E249" s="30" t="s">
         <v>22</v>
@@ -9904,13 +9953,11 @@
         <v>15</v>
       </c>
       <c r="H249" s="33" t="s">
-        <v>20</v>
-      </c>
-      <c r="I249" s="35" t="s">
-        <v>438</v>
-      </c>
-    </row>
-    <row r="250" spans="1:9" ht="180">
+        <v>18</v>
+      </c>
+      <c r="I249" s="35"/>
+    </row>
+    <row r="250" spans="1:9" ht="180" x14ac:dyDescent="0.25">
       <c r="A250" s="30" t="s">
         <v>243</v>
       </c>
@@ -9918,7 +9965,7 @@
         <v>273</v>
       </c>
       <c r="C250" s="32" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="D250" s="30"/>
       <c r="E250" s="30" t="s">
@@ -9935,7 +9982,7 @@
       </c>
       <c r="I250" s="32"/>
     </row>
-    <row r="251" spans="1:9" ht="30">
+    <row r="251" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A251" s="30" t="s">
         <v>244</v>
       </c>
@@ -9943,7 +9990,7 @@
         <v>273</v>
       </c>
       <c r="C251" s="32" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="D251" s="30"/>
       <c r="E251" s="30" t="s">
@@ -9960,7 +10007,7 @@
       </c>
       <c r="I251" s="32"/>
     </row>
-    <row r="252" spans="1:9" ht="60">
+    <row r="252" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A252" s="30" t="s">
         <v>245</v>
       </c>
@@ -9968,7 +10015,7 @@
         <v>274</v>
       </c>
       <c r="C252" s="32" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="D252" s="30"/>
       <c r="E252" s="30" t="s">
@@ -9984,10 +10031,10 @@
         <v>17</v>
       </c>
       <c r="I252" s="20" t="s">
-        <v>439</v>
-      </c>
-    </row>
-    <row r="253" spans="1:9" ht="105">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="253" spans="1:9" ht="90" x14ac:dyDescent="0.25">
       <c r="A253" s="30" t="s">
         <v>246</v>
       </c>
@@ -9995,7 +10042,7 @@
         <v>274</v>
       </c>
       <c r="C253" s="32" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="D253" s="30"/>
       <c r="E253" s="30" t="s">
@@ -10012,7 +10059,7 @@
       </c>
       <c r="I253" s="32"/>
     </row>
-    <row r="254" spans="1:9" ht="180">
+    <row r="254" spans="1:9" ht="165" x14ac:dyDescent="0.25">
       <c r="A254" s="30" t="s">
         <v>247</v>
       </c>
@@ -10020,7 +10067,7 @@
         <v>275</v>
       </c>
       <c r="C254" s="32" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="D254" s="30"/>
       <c r="E254" s="30" t="s">
@@ -10037,7 +10084,7 @@
       </c>
       <c r="I254" s="32"/>
     </row>
-    <row r="255" spans="1:9" ht="409.5">
+    <row r="255" spans="1:9" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A255" s="30" t="s">
         <v>248</v>
       </c>
@@ -10045,7 +10092,7 @@
         <v>276</v>
       </c>
       <c r="C255" s="32" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="D255" s="30"/>
       <c r="E255" s="30" t="s">
@@ -10062,7 +10109,7 @@
       </c>
       <c r="I255" s="32"/>
     </row>
-    <row r="256" spans="1:9" ht="135">
+    <row r="256" spans="1:9" ht="120" x14ac:dyDescent="0.25">
       <c r="A256" s="30" t="s">
         <v>249</v>
       </c>
@@ -10070,7 +10117,7 @@
         <v>277</v>
       </c>
       <c r="C256" s="32" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="D256" s="30"/>
       <c r="E256" s="30" t="s">
@@ -10087,15 +10134,15 @@
       </c>
       <c r="I256" s="32"/>
     </row>
-    <row r="257" spans="1:10" ht="60">
+    <row r="257" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="A257" s="22" t="s">
-        <v>565</v>
+        <v>563</v>
       </c>
       <c r="B257" s="24" t="s">
-        <v>566</v>
+        <v>564</v>
       </c>
       <c r="C257" s="20" t="s">
-        <v>567</v>
+        <v>589</v>
       </c>
       <c r="D257" s="22"/>
       <c r="E257" s="22" t="s">
@@ -10111,22 +10158,22 @@
         <v>17</v>
       </c>
       <c r="I257" s="20" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="J257"/>
     </row>
-    <row r="258" spans="1:10" ht="30">
+    <row r="258" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A258" s="22" t="s">
-        <v>568</v>
+        <v>586</v>
       </c>
       <c r="B258" s="24" t="s">
+        <v>564</v>
+      </c>
+      <c r="C258" s="20" t="s">
+        <v>565</v>
+      </c>
+      <c r="D258" s="22" t="s">
         <v>566</v>
-      </c>
-      <c r="C258" s="20" t="s">
-        <v>569</v>
-      </c>
-      <c r="D258" s="22" t="s">
-        <v>570</v>
       </c>
       <c r="E258" s="22" t="s">
         <v>19</v>
@@ -10143,18 +10190,18 @@
       <c r="I258" s="20"/>
       <c r="J258"/>
     </row>
-    <row r="259" spans="1:10" ht="30">
+    <row r="259" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A259" s="22" t="s">
-        <v>571</v>
+        <v>587</v>
       </c>
       <c r="B259" s="24" t="s">
+        <v>564</v>
+      </c>
+      <c r="C259" s="20" t="s">
+        <v>567</v>
+      </c>
+      <c r="D259" s="22" t="s">
         <v>566</v>
-      </c>
-      <c r="C259" s="20" t="s">
-        <v>572</v>
-      </c>
-      <c r="D259" s="22" t="s">
-        <v>570</v>
       </c>
       <c r="E259" s="22" t="s">
         <v>19</v>
@@ -10171,15 +10218,15 @@
       <c r="I259" s="20"/>
       <c r="J259"/>
     </row>
-    <row r="260" spans="1:10" ht="45">
+    <row r="260" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="A260" s="22" t="s">
-        <v>574</v>
+        <v>569</v>
       </c>
       <c r="B260" s="24" t="s">
-        <v>566</v>
+        <v>564</v>
       </c>
       <c r="C260" s="20" t="s">
-        <v>575</v>
+        <v>570</v>
       </c>
       <c r="D260" s="22"/>
       <c r="E260" s="22" t="s">
@@ -10197,15 +10244,15 @@
       <c r="I260" s="20"/>
       <c r="J260"/>
     </row>
-    <row r="261" spans="1:10" ht="45">
+    <row r="261" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="A261" s="22" t="s">
-        <v>577</v>
+        <v>572</v>
       </c>
       <c r="B261" s="24" t="s">
-        <v>566</v>
+        <v>564</v>
       </c>
       <c r="C261" s="20" t="s">
-        <v>578</v>
+        <v>573</v>
       </c>
       <c r="D261" s="22"/>
       <c r="E261" s="22" t="s">
@@ -10223,46 +10270,46 @@
       <c r="I261" s="20"/>
       <c r="J261"/>
     </row>
-    <row r="262" spans="1:10" ht="60">
+    <row r="262" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A262" s="22" t="s">
+        <v>579</v>
+      </c>
+      <c r="B262" s="24" t="s">
+        <v>564</v>
+      </c>
+      <c r="C262" s="20" t="s">
+        <v>580</v>
+      </c>
+      <c r="D262" s="22" t="s">
+        <v>581</v>
+      </c>
+      <c r="E262" s="22" t="s">
+        <v>19</v>
+      </c>
+      <c r="F262" s="22" t="s">
+        <v>3</v>
+      </c>
+      <c r="G262" s="22" t="s">
+        <v>15</v>
+      </c>
+      <c r="H262" s="22" t="s">
+        <v>20</v>
+      </c>
+      <c r="I262" s="20"/>
+      <c r="J262"/>
+    </row>
+    <row r="263" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="A263" s="22" t="s">
         <v>582</v>
       </c>
-      <c r="B262" s="24" t="s">
-        <v>566</v>
-      </c>
-      <c r="C262" s="20" t="s">
+      <c r="B263" s="24" t="s">
+        <v>564</v>
+      </c>
+      <c r="C263" s="20" t="s">
         <v>583</v>
       </c>
-      <c r="D262" s="22"/>
-      <c r="E262" s="22" t="s">
-        <v>19</v>
-      </c>
-      <c r="F262" s="22" t="s">
-        <v>3</v>
-      </c>
-      <c r="G262" s="22" t="s">
-        <v>15</v>
-      </c>
-      <c r="H262" s="22" t="s">
-        <v>17</v>
-      </c>
-      <c r="I262" s="20" t="s">
-        <v>590</v>
-      </c>
-      <c r="J262"/>
-    </row>
-    <row r="263" spans="1:10" ht="30">
-      <c r="A263" s="22" t="s">
-        <v>584</v>
-      </c>
-      <c r="B263" s="24" t="s">
-        <v>566</v>
-      </c>
-      <c r="C263" s="20" t="s">
-        <v>585</v>
-      </c>
       <c r="D263" s="22" t="s">
-        <v>586</v>
+        <v>581</v>
       </c>
       <c r="E263" s="22" t="s">
         <v>19</v>
@@ -10279,19 +10326,17 @@
       <c r="I263" s="20"/>
       <c r="J263"/>
     </row>
-    <row r="264" spans="1:10" ht="30">
+    <row r="264" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="A264" s="22" t="s">
-        <v>587</v>
+        <v>577</v>
       </c>
       <c r="B264" s="24" t="s">
-        <v>566</v>
+        <v>564</v>
       </c>
       <c r="C264" s="20" t="s">
-        <v>588</v>
-      </c>
-      <c r="D264" s="22" t="s">
-        <v>586</v>
-      </c>
+        <v>578</v>
+      </c>
+      <c r="D264" s="22"/>
       <c r="E264" s="22" t="s">
         <v>19</v>
       </c>
@@ -10302,22 +10347,47 @@
         <v>15</v>
       </c>
       <c r="H264" s="22" t="s">
-        <v>20</v>
-      </c>
-      <c r="I264" s="20"/>
+        <v>17</v>
+      </c>
+      <c r="I264" s="20" t="s">
+        <v>584</v>
+      </c>
       <c r="J264"/>
     </row>
-    <row r="265" spans="1:10">
-      <c r="A265" s="3"/>
-      <c r="B265" s="10"/>
+    <row r="265" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+      <c r="A265" s="22" t="s">
+        <v>590</v>
+      </c>
+      <c r="B265" s="24" t="s">
+        <v>591</v>
+      </c>
+      <c r="C265" s="20" t="s">
+        <v>593</v>
+      </c>
+      <c r="D265" s="22"/>
+      <c r="E265" s="22" t="s">
+        <v>19</v>
+      </c>
+      <c r="F265" s="22" t="s">
+        <v>3</v>
+      </c>
+      <c r="G265" s="22" t="s">
+        <v>15</v>
+      </c>
+      <c r="H265" s="22" t="s">
+        <v>21</v>
+      </c>
+      <c r="I265" s="32" t="s">
+        <v>437</v>
+      </c>
+      <c r="J265"/>
+    </row>
+    <row r="266" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A266" s="3"/>
+      <c r="B266" s="10"/>
     </row>
   </sheetData>
   <mergeCells count="12">
-    <mergeCell ref="A4:G4"/>
-    <mergeCell ref="B8:I8"/>
-    <mergeCell ref="B7:I7"/>
-    <mergeCell ref="B6:I6"/>
-    <mergeCell ref="B5:I5"/>
     <mergeCell ref="B11:I11"/>
     <mergeCell ref="D12:I15"/>
     <mergeCell ref="B16:I16"/>
@@ -10325,226 +10395,283 @@
     <mergeCell ref="B9:I9"/>
     <mergeCell ref="B10:I10"/>
     <mergeCell ref="B17:I17"/>
+    <mergeCell ref="A4:G4"/>
+    <mergeCell ref="B8:I8"/>
+    <mergeCell ref="B7:I7"/>
+    <mergeCell ref="B6:I6"/>
+    <mergeCell ref="B5:I5"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
-  <conditionalFormatting sqref="A20:I255">
-    <cfRule type="expression" dxfId="55" priority="125">
+  <conditionalFormatting sqref="A20:I255 A262:I263">
+    <cfRule type="expression" dxfId="88" priority="139">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Section Deleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="54" priority="126">
+    <cfRule type="expression" dxfId="87" priority="140">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Deleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="53" priority="133">
+    <cfRule type="expression" dxfId="86" priority="147">
       <formula>EXACT(INDIRECT("L"&amp;ROW()),"Deleted")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A20:I255">
-    <cfRule type="expression" dxfId="52" priority="79">
+  <conditionalFormatting sqref="A20:I255 A262:I263">
+    <cfRule type="expression" dxfId="85" priority="93">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"SectionDeleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="51" priority="80">
+    <cfRule type="expression" dxfId="84" priority="94">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Deleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="50" priority="81">
+    <cfRule type="expression" dxfId="83" priority="95">
       <formula>EXACT(INDIRECT("L"&amp;ROW()),"Deleted")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F20:F255">
-    <cfRule type="expression" dxfId="49" priority="85">
+  <conditionalFormatting sqref="F20:F255 F262:F263">
+    <cfRule type="expression" dxfId="82" priority="99">
       <formula>NOT(VLOOKUP(F20,$A$12:$C$15,2,FALSE)="In")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="48" priority="86">
+    <cfRule type="expression" dxfId="81" priority="100">
       <formula>(VLOOKUP(F20,$A$12:$C$15,2,FALSE)="In")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A260:I260">
-    <cfRule type="expression" dxfId="47" priority="30">
+    <cfRule type="expression" dxfId="80" priority="44">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Section Deleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="46" priority="31">
+    <cfRule type="expression" dxfId="79" priority="45">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Deleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="45" priority="32">
+    <cfRule type="expression" dxfId="78" priority="46">
       <formula>EXACT(INDIRECT("L"&amp;ROW()),"Deleted")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A260:I260">
-    <cfRule type="expression" dxfId="44" priority="25">
+    <cfRule type="expression" dxfId="77" priority="39">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"SectionDeleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="43" priority="26">
+    <cfRule type="expression" dxfId="76" priority="40">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Deleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="42" priority="27">
+    <cfRule type="expression" dxfId="75" priority="41">
       <formula>EXACT(INDIRECT("L"&amp;ROW()),"Deleted")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F260">
-    <cfRule type="expression" dxfId="41" priority="28">
+    <cfRule type="expression" dxfId="74" priority="42">
       <formula>NOT(VLOOKUP(F260,$A$12:$C$15,2,FALSE)="In")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="40" priority="29">
+    <cfRule type="expression" dxfId="73" priority="43">
       <formula>(VLOOKUP(F260,$A$12:$C$15,2,FALSE)="In")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A256:I256">
-    <cfRule type="expression" dxfId="39" priority="62">
+    <cfRule type="expression" dxfId="72" priority="76">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Section Deleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="38" priority="63">
+    <cfRule type="expression" dxfId="71" priority="77">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Deleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="37" priority="64">
+    <cfRule type="expression" dxfId="70" priority="78">
       <formula>EXACT(INDIRECT("L"&amp;ROW()),"Deleted")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A256:I256">
-    <cfRule type="expression" dxfId="36" priority="57">
+    <cfRule type="expression" dxfId="69" priority="71">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"SectionDeleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="35" priority="58">
+    <cfRule type="expression" dxfId="68" priority="72">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Deleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="34" priority="59">
+    <cfRule type="expression" dxfId="67" priority="73">
       <formula>EXACT(INDIRECT("L"&amp;ROW()),"Deleted")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F256">
-    <cfRule type="expression" dxfId="33" priority="60">
+    <cfRule type="expression" dxfId="66" priority="74">
       <formula>NOT(VLOOKUP(F256,$A$12:$C$15,2,FALSE)="In")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="32" priority="61">
+    <cfRule type="expression" dxfId="65" priority="75">
       <formula>(VLOOKUP(F256,$A$12:$C$15,2,FALSE)="In")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A257:I257">
-    <cfRule type="expression" dxfId="31" priority="46">
+    <cfRule type="expression" dxfId="64" priority="60">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Section Deleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="30" priority="47">
+    <cfRule type="expression" dxfId="63" priority="61">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Deleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="29" priority="48">
+    <cfRule type="expression" dxfId="62" priority="62">
       <formula>EXACT(INDIRECT("L"&amp;ROW()),"Deleted")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A257:I257">
-    <cfRule type="expression" dxfId="28" priority="41">
+    <cfRule type="expression" dxfId="61" priority="55">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"SectionDeleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="27" priority="42">
+    <cfRule type="expression" dxfId="60" priority="56">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Deleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="26" priority="43">
+    <cfRule type="expression" dxfId="59" priority="57">
       <formula>EXACT(INDIRECT("L"&amp;ROW()),"Deleted")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F257">
-    <cfRule type="expression" dxfId="25" priority="44">
+    <cfRule type="expression" dxfId="58" priority="58">
       <formula>NOT(VLOOKUP(F257,$A$12:$C$15,2,FALSE)="In")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="24" priority="45">
+    <cfRule type="expression" dxfId="57" priority="59">
       <formula>(VLOOKUP(F257,$A$12:$C$15,2,FALSE)="In")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A258:I259">
-    <cfRule type="expression" dxfId="23" priority="38">
+    <cfRule type="expression" dxfId="56" priority="52">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Section Deleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="22" priority="39">
+    <cfRule type="expression" dxfId="55" priority="53">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Deleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="21" priority="40">
+    <cfRule type="expression" dxfId="54" priority="54">
       <formula>EXACT(INDIRECT("L"&amp;ROW()),"Deleted")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A258:I259">
-    <cfRule type="expression" dxfId="20" priority="33">
+    <cfRule type="expression" dxfId="53" priority="47">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"SectionDeleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="19" priority="34">
+    <cfRule type="expression" dxfId="52" priority="48">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Deleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="18" priority="35">
+    <cfRule type="expression" dxfId="51" priority="49">
       <formula>EXACT(INDIRECT("L"&amp;ROW()),"Deleted")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F258:F259">
-    <cfRule type="expression" dxfId="17" priority="36">
+    <cfRule type="expression" dxfId="50" priority="50">
       <formula>NOT(VLOOKUP(F258,$A$12:$C$15,2,FALSE)="In")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="16" priority="37">
+    <cfRule type="expression" dxfId="49" priority="51">
       <formula>(VLOOKUP(F258,$A$12:$C$15,2,FALSE)="In")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A261:I261">
-    <cfRule type="expression" dxfId="15" priority="22">
+    <cfRule type="expression" dxfId="48" priority="36">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Section Deleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="14" priority="23">
+    <cfRule type="expression" dxfId="47" priority="37">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Deleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="13" priority="24">
+    <cfRule type="expression" dxfId="46" priority="38">
       <formula>EXACT(INDIRECT("L"&amp;ROW()),"Deleted")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A261:I261">
-    <cfRule type="expression" dxfId="12" priority="17">
+    <cfRule type="expression" dxfId="45" priority="31">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"SectionDeleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="11" priority="18">
+    <cfRule type="expression" dxfId="44" priority="32">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Deleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="10" priority="19">
+    <cfRule type="expression" dxfId="43" priority="33">
       <formula>EXACT(INDIRECT("L"&amp;ROW()),"Deleted")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F261">
-    <cfRule type="expression" dxfId="9" priority="20">
+    <cfRule type="expression" dxfId="42" priority="34">
       <formula>NOT(VLOOKUP(F261,$A$12:$C$15,2,FALSE)="In")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="8" priority="21">
+    <cfRule type="expression" dxfId="41" priority="35">
       <formula>(VLOOKUP(F261,$A$12:$C$15,2,FALSE)="In")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A262:I264">
-    <cfRule type="expression" dxfId="7" priority="6">
+  <conditionalFormatting sqref="A264:I264">
+    <cfRule type="expression" dxfId="40" priority="20">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Section Deleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="6" priority="7">
+    <cfRule type="expression" dxfId="39" priority="21">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Deleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="5" priority="8">
+    <cfRule type="expression" dxfId="38" priority="22">
       <formula>EXACT(INDIRECT("L"&amp;ROW()),"Deleted")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A262:I264">
-    <cfRule type="expression" dxfId="4" priority="1">
+  <conditionalFormatting sqref="A264:I264">
+    <cfRule type="expression" dxfId="37" priority="15">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"SectionDeleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="3" priority="2">
+    <cfRule type="expression" dxfId="36" priority="16">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Deleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="2" priority="3">
+    <cfRule type="expression" dxfId="35" priority="17">
       <formula>EXACT(INDIRECT("L"&amp;ROW()),"Deleted")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F262:F264">
-    <cfRule type="expression" dxfId="1" priority="4">
-      <formula>NOT(VLOOKUP(F262,$A$12:$C$15,2,FALSE)="In")</formula>
+  <conditionalFormatting sqref="F264">
+    <cfRule type="expression" dxfId="34" priority="18">
+      <formula>NOT(VLOOKUP(F264,$A$12:$C$15,2,FALSE)="In")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="0" priority="5">
-      <formula>(VLOOKUP(F262,$A$12:$C$15,2,FALSE)="In")</formula>
+    <cfRule type="expression" dxfId="33" priority="19">
+      <formula>(VLOOKUP(F264,$A$12:$C$15,2,FALSE)="In")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A265:H265">
+    <cfRule type="expression" dxfId="32" priority="12">
+      <formula>EXACT(INDIRECT("P"&amp;ROW()),"Section Deleted")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="31" priority="13">
+      <formula>EXACT(INDIRECT("P"&amp;ROW()),"Deleted")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="30" priority="14">
+      <formula>EXACT(INDIRECT("L"&amp;ROW()),"Deleted")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A265:H265">
+    <cfRule type="expression" dxfId="29" priority="7">
+      <formula>EXACT(INDIRECT("P"&amp;ROW()),"SectionDeleted")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="28" priority="8">
+      <formula>EXACT(INDIRECT("P"&amp;ROW()),"Deleted")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="27" priority="9">
+      <formula>EXACT(INDIRECT("L"&amp;ROW()),"Deleted")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F265">
+    <cfRule type="expression" dxfId="26" priority="10">
+      <formula>NOT(VLOOKUP(F265,$A$12:$C$15,2,FALSE)="In")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="25" priority="11">
+      <formula>(VLOOKUP(F265,$A$12:$C$15,2,FALSE)="In")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I265">
+    <cfRule type="expression" dxfId="24" priority="4">
+      <formula>EXACT(INDIRECT("P"&amp;ROW()),"Section Deleted")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="23" priority="5">
+      <formula>EXACT(INDIRECT("P"&amp;ROW()),"Deleted")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="22" priority="6">
+      <formula>EXACT(INDIRECT("L"&amp;ROW()),"Deleted")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I265">
+    <cfRule type="expression" dxfId="21" priority="1">
+      <formula>EXACT(INDIRECT("P"&amp;ROW()),"SectionDeleted")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="20" priority="2">
+      <formula>EXACT(INDIRECT("P"&amp;ROW()),"Deleted")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="19" priority="3">
+      <formula>EXACT(INDIRECT("L"&amp;ROW()),"Deleted")</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="7">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F4 F20:F264">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F4 F20:F265">
       <formula1>$A$13:$A$15</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E4 E20:E264">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E4 E20:E265">
       <formula1>"Protocol,Product"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G4 G20:G264">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G4 G20:G265">
       <formula1>"Informative,Normative"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B13:B15">
@@ -10554,7 +10681,7 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H20:H256">
       <formula1>"Non-testable, Unverified, Adapter, Test Case"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H257:H264">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H257:H265">
       <formula1>"Message Deserialization, Non-testable, Unverified, Adapter, Test Case"</formula1>
     </dataValidation>
   </dataValidations>
@@ -10564,7 +10691,7 @@
     <oddFooter>&amp;F&amp;RPage &amp;P</oddFooter>
   </headerFooter>
   <ignoredErrors>
-    <ignoredError sqref="B1:B9 C3 B11:B16 B18:B21 B24:B30 B32:B118 B120:B121 B129:B162 B241:B243 B265 B250:B255" numberStoredAsText="1"/>
+    <ignoredError sqref="B1:B9 C3 B11:B16 B18:B21 B24:B30 B32:B118 B120:B121 B129:B162 B241:B243 B266 B250:B255" numberStoredAsText="1"/>
   </ignoredErrors>
   <tableParts count="2">
     <tablePart r:id="rId2"/>
@@ -10574,12 +10701,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100F2EA47BB262D974097182E2CA8AB13E1" ma:contentTypeVersion="2" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="74597e8d9e42e7e4fc8eda6d37675aa2">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="4aeb20c0e3442673af7ee10786458764">
     <xsd:element name="properties">
@@ -10628,6 +10749,12 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance">
+  <documentManagement/>
+</p:properties>
+</file>
+
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
@@ -10638,20 +10765,6 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{923F65C5-DEAB-400B-AA1F-124F40EE10AC}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{EDB2DE12-5EF6-4CF2-820D-5F9FE329E08E}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -10666,6 +10779,20 @@
 </ds:datastoreItem>
 </file>
 
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{923F65C5-DEAB-400B-AA1F-124F40EE10AC}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B6D33261-F3C6-4621-88F1-D76E5ABE1865}">
   <ds:schemaRefs>

--- a/ExchangeWebServices/Docs/MS-OXWSMSG/MS-OXWSMSG_RequirementSpecification.xlsx
+++ b/ExchangeWebServices/Docs/MS-OXWSMSG/MS-OXWSMSG_RequirementSpecification.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Source Depot\Repos\Interop-TestSuites-1\ExchangeWebServices\Docs\MS-OXWSMSG\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Work\Interop_TestSuites\ExchangeWebServices\Docs\MS-OXWSMSG\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1801" uniqueCount="594">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1800" uniqueCount="590">
   <si>
     <t>Req ID</t>
   </si>
@@ -1778,9 +1778,6 @@
     </r>
   </si>
   <si>
-    <t>[In Transport] This protocol uses SOAP 1.1.</t>
-  </si>
-  <si>
     <t>The endpoint URL that is returned by either the Autodiscover Publishing Lookup SOAP-Based Web Service Protocol,as specified by [MS-OXWSADISC], or the Autodiscover Publishing and Lookup Protocol, as specified by [MS-OXDSCLI], is required to form the HTTP request to the Web server that hosts this protocol.</t>
   </si>
   <si>
@@ -1815,9 +1812,6 @@
   </si>
   <si>
     <t>[In t:MessageType Complex Type] The MessageType complex type represents a server email message in a mailbox.</t>
-  </si>
-  <si>
-    <t>[In t:MessageType Complex Type] The MessageType complex type extends the ItemType complex type ([MS-OXWSCORE] section 2.2.4.24).</t>
   </si>
   <si>
     <t>[In t:MessageType Complex Type] The MessageType schema is &lt;xs:complexType name="MessageType"&gt;
@@ -1914,15 +1908,6 @@
     <t>[In t:MessageType Complex Type] ToRecipients element is t:ArrayOfRecipientsType ([MS-OXWSCDATA] section 2.2.4.11) type.</t>
   </si>
   <si>
-    <t>[In t:MessageType Complex Type] ToRecipients element Specifies a collection of recipients of an email.</t>
-  </si>
-  <si>
-    <t>[In t:MessageType Complex Type] BccRecipients element Specifies a collection of recipients that receive a blind carbon copy (Bcc) of an email.</t>
-  </si>
-  <si>
-    <t>[In t:MessageType Complex Type] CcRecipients element Specifies a collection of recipients that receive a carbon copy (Cc) of an email.</t>
-  </si>
-  <si>
     <t>[In t:MessageType Complex Type] ConversationIndex element is xs:base64Binary ([XMLSCHEMA2] sec 3.2.16) type.</t>
   </si>
   <si>
@@ -1941,9 +1926,6 @@
     <t>[In t:MessageType Complex Type] IsResponseRequested element Specifies a Boolean value that indicates whether a response to an email has been requested.</t>
   </si>
   <si>
-    <t xml:space="preserve">[In t:MessageType Complex Type] ReplyTo element Specifies a collection of addresses to send replies to. </t>
-  </si>
-  <si>
     <t>[In t:MessageType Complex Type] [ReceivedBy element] This element is read-only.</t>
   </si>
   <si>
@@ -1977,9 +1959,6 @@
     <t>MS-OXWSMSG_R73002</t>
   </si>
   <si>
-    <t>MS-OXWSMSG_R73003</t>
-  </si>
-  <si>
     <t>MS-OXWSMSG_R73004</t>
   </si>
   <si>
@@ -1992,21 +1971,6 @@
     <t>MS-OXWSMSG_R73007</t>
   </si>
   <si>
-    <t>[In t:MessageDispositionType Simple Type] The value "SaveOnly" means when used in the CreateItemType complex type ([MS-OXWSCORE] section 3.1.4.2.3.2), the email message item is saved in the folder that is specified by the TargetFolderIdType complex type ([MS-OXWSFOLD] section 2.2.4.16).</t>
-  </si>
-  <si>
-    <t>[In t:MessageDispositionType Simple Type] The value "SendOnly" means when used in the CreateItemType complex type, the email message item is sent.</t>
-  </si>
-  <si>
-    <t>[In t:MessageDispositionType Simple Type] The value "SendOnly" means when used in the CreateItemType complex type, the email message item [is sent] but no copy is saved.</t>
-  </si>
-  <si>
-    <t>[In t:MessageDispositionType Simple Type] The value "SendAndSaveCopy" means when used in the CreateItemType complex type, the email message item is sent.</t>
-  </si>
-  <si>
-    <t>[In t:MessageDispositionType Simple Type] The value "SendAndSaveCopy" means when used in the CreateItemType complex type, the email message item [is sent] and a copy is saved in the TargetFolderIdType complex type.</t>
-  </si>
-  <si>
     <t>[In ExchangeServicePortType Server Details] The EMail Message Types Items Web Service Protocol defines a single port type with seven operations.</t>
   </si>
   <si>
@@ -2034,12 +1998,6 @@
     <t>[In CopyItem] The CopyItem operation copies email messages on the server.</t>
   </si>
   <si>
-    <t xml:space="preserve">[In CopyItem] If the CreateItem WSDL operation request is successful, the server returns a CreateItemResponse element, as specified in [MS-OXWSCORE] section 3.1.4.2.2.2, with the ResponseClass attribute, as specified in [MS-OXWSCDATA] section 2.2.4.67, of the CreateItemResponseMessage element, as specified in [MS-OXWSCDATA] section 2.2.4.12, set to "Success". </t>
-  </si>
-  <si>
-    <t xml:space="preserve">[In CopyItem] [A successful CopyItem operation request returns a CopyItemResponse element] The ResponseCode element, as specified in [MS-OXWSCDATA] section 2.2.4.67, of the CreateItemResponseMessage element is set to "NoError". </t>
-  </si>
-  <si>
     <t xml:space="preserve">[In CopyItem] If the CreateItem WSDL operation is not successful, it returns a CreateItemResponse element with the ResponseClass attribute of the CreateItemResponseMessage element set to "Error". </t>
   </si>
   <si>
@@ -2055,12 +2013,6 @@
     <t>[In CreateItem] The CreateItem operation creates email messages.</t>
   </si>
   <si>
-    <t xml:space="preserve">[In CreateItem]If the CreateItem WSDL operation request is successful, the server returns a CreateItemResponse element, as specified in [MS-OXWSCORE] section 3.1.4.2.2.2, with the ResponseClass attribute, as specified in [MS-OXWSCDATA] section 2.2.4.67, of the CreateItemResponseMessage element, as specified in [MS-OXWSCDATA] section 2.2.4.12, set to "Success". </t>
-  </si>
-  <si>
-    <t xml:space="preserve">[In CreateItem] [A successful CreateItem operation request returns a CreateItemResponse element] The ResponseCode element, as specified in [MS-OXWSCDATA] section 2.2.4.67, of the CreateItemResponseMessage element is set to "NoError". </t>
-  </si>
-  <si>
     <t xml:space="preserve">[In CreateItem] If the CreateItem WSDL operation is not successful, it returns a CreateItemResponse element with the ResponseClass attribute of the CreateItemResponseMessage element set to "Error". </t>
   </si>
   <si>
@@ -2079,12 +2031,6 @@
     <t>[In DeleteItem] The DeleteItem operation deletes email messages from the server store.</t>
   </si>
   <si>
-    <t xml:space="preserve">[In DeleteItem] If the DeleteItem WSDL operation request is successful, the server returns a DeleteItemResponse element, as specified in [MS-OXWSCORE] section 3.1.4.3.2.2, with the ResponseClass attribute, as specified in [MS-OXWSCDATA] section 2.2.4.67, of the DeleteItemResponseMessage element, as specified in [MS-OXWSCDATA] section 2.2.4.12, set to "Success". </t>
-  </si>
-  <si>
-    <t xml:space="preserve">[In DeleteItem] [A successful DeleteItem operation request returns a DeleteItemResponse element] The ResponseCode element, as specified by [MS-OXWSCDATA] section 2.2.4.67, of the DeleteItemResponseMessage element is set to "NoError". </t>
-  </si>
-  <si>
     <t>[In DeleteItem] For more information, see DeleteItem as described in [MS-OXWSCORE] section 3.1.4.3.</t>
   </si>
   <si>
@@ -2103,12 +2049,6 @@
     <t>[In GetItem] The GetItem operation enables the user to get email messages and to access information about email messages.</t>
   </si>
   <si>
-    <t xml:space="preserve">[In GetItem] If the GetItem WSDL operation request is successful, the server returns a GetItemResponse element, as specified in [MS-OXWSCORE] section 3.1.4.4.2.2, with the ResponseClass attribute, as specified in [MS-OXWSCDATA] section 2.2.4.67, of the GetItemResponseMessage element, as specified in [MS-OXWSCDATA] section 2.2.4.12, set to "Success". </t>
-  </si>
-  <si>
-    <t xml:space="preserve">[In GetItem] [A successful GetItem operation request returns a GetItemResponse element] The ResponseCode element, as specified in [MS-OXWSCDATA] section 2.2.4.67, of the GetItemResponseMessage element is set to "NoError". </t>
-  </si>
-  <si>
     <t xml:space="preserve">[In GetItem] If the GetItem WSDL operation request is not successful, it returns a GetItemResponse element with the ResponseClass attribute of the GetItemResponseMessage element set to "Error". </t>
   </si>
   <si>
@@ -2124,12 +2064,6 @@
     <t>[In MoveItem] The MoveItem operation moves one or more email messages to a single destination folder.</t>
   </si>
   <si>
-    <t xml:space="preserve">[In MoveItem] If the MoveItem WSDL operation request is successful, the server returns a MoveItemResponse element, as specified in [MS-OXWSCORE] section 3.1.4.7.2.2, with the ResponseClass attribute, as specified in [MS-OXWSCDATA] section 2.2.4.67, of the MoveItemResponseMessage element, as specified in [MS-OXWSCDATA] section 2.2.4.12, set to "Success". </t>
-  </si>
-  <si>
-    <t xml:space="preserve">[In MoveItem] [A successful MoveItem operation request returns a MoveItemResponse element] The ResponseCode element, as specified in [MS-OXWSCDATA] section 2.2.4.67, of the MoveItemResponseMessage element is set to "NoError". </t>
-  </si>
-  <si>
     <t xml:space="preserve">[In MoveItem] If the MoveItem WSDL operation request is not successful, it returns a MoveItemResponse element with the ResponseClass attribute of the MoveItemResponseMessage element set to "Error". </t>
   </si>
   <si>
@@ -2145,12 +2079,6 @@
     <t xml:space="preserve">[In UpdateItem] The UpdateItem operation updates email message properties in the server store. </t>
   </si>
   <si>
-    <t xml:space="preserve">[In UpdateItem] If the UpdateItem WSDL operation request is successful, the server returns an UpdateItemResponse element, as specified in [MS-OXWSCORE] section 3.1.4.9.2.2, with the ResponseClass attribute, as specified in [MS-OXWSCDATA] section 2.2.4.67, of the UpdateItemResponseMessage element, as specified in [MS-OXWSCDATA] section 2.2.4.12, set to "Success". </t>
-  </si>
-  <si>
-    <t xml:space="preserve">[In UpdateItem] [A successful UpdateItem operation request returns an UpdateItemResponse element] The ResponseCode element, as specified in [MS-OXWSCDATA] section 2.2.4.67, of the UpdateItemResponseMessage element is set to "NoError". </t>
-  </si>
-  <si>
     <t xml:space="preserve">[In UpdateItem] If the UpdateItem WSDL operation request is not successful, it returns an UpdateItemResponse element with the ResponseClass attribute of the UpdateItemResponseMessage element set to "Error". </t>
   </si>
   <si>
@@ -2199,21 +2127,12 @@
     <t>MS-OXWSMSG_R73003:i</t>
   </si>
   <si>
-    <t>Verified by derived requirement: MS-OXWSMSG_R182004.</t>
-  </si>
-  <si>
     <t>MS-OXWSMSG_R73005:i</t>
   </si>
   <si>
-    <t>Verified by derived requirement: MS-OXWSMSG_R182006.</t>
-  </si>
-  <si>
     <t>MS-OXWSMSG_R73007:i</t>
   </si>
   <si>
-    <t>Verified by derived requirement: MS-OXWSMSG_R182002.</t>
-  </si>
-  <si>
     <t>[In t:MessageType Complex Type] [ConversationTopic element] This element is read-only.</t>
   </si>
   <si>
@@ -2281,9 +2200,6 @@
   </si>
   <si>
     <t>[In t:ItemResponseShapeType Complex Type] otherwise [FilterHtmlContent is] false, specifies [HTML content filtering is not enabled].</t>
-  </si>
-  <si>
-    <t>Verified by derived requirements: MS-OXWSMSG_R21193, MS-OXWSMSG_R21194.</t>
   </si>
   <si>
     <t>[In t:MessageType Complex Type] ReceivedBy element is t:SingleRecipientType type.</t>
@@ -2298,10 +2214,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Verified by derived requirements: MS-OXWSCDATA_R21188, MS-OXWSCDATA_R21189.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>[In t:ItemResponseShapeType Complex Type] The element "IncludeMimeContent" with type "xs:boolean" specifies whether the MIME content of an item is returned in a response.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -2319,13 +2231,113 @@
   </si>
   <si>
     <t>[In Appendix C: Product Behavior]&lt;53&gt; Section 2.2.4.31:  Exchange 2010 and above return the MailboxType element in the GetItem operation.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[In t:MessageType Complex Type] ToRecipients element Specifies a collection of recipients of an email.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[In t:MessageDispositionType Simple Type] The value "SaveOnly" means when used in the CreateItemType complex type ([MS-OXWSCORE] section 3.1.4.2.3.2), the email message item is saved in the folder that is specified by the TargetFolderIdType complex type ([MS-OXWSFOLD] section 2.2.4.16).</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[In t:MessageDispositionType Simple Type] The value "SendOnly" means when used in the CreateItemType complex type, the email message item [is sent] but no copy is saved.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[In t:MessageDispositionType Simple Type] The value "SendAndSaveCopy" means when used in the CreateItemType complex type, the email message item [is sent] and a copy is saved in the TargetFolderIdType complex type.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">[In CopyItem] If the CreateItem WSDL operation request is successful, the server returns a CreateItemResponse element, as specified in [MS-OXWSCORE] section 3.1.4.2.2.2, with the ResponseClass attribute, as specified in [MS-OXWSCDATA] section 2.2.4.67, of the CreateItemResponseMessage element, as specified in [MS-OXWSCDATA] section 2.2.4.12, set to "Success". </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">[In CopyItem] [A successful CopyItem operation request returns a CopyItemResponse element] The ResponseCode element, as specified in [MS-OXWSCDATA] section 2.2.4.67, of the CreateItemResponseMessage element is set to "NoError". </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">[In CreateItem]If the CreateItem WSDL operation request is successful, the server returns a CreateItemResponse element, as specified in [MS-OXWSCORE] section 3.1.4.2.2.2, with the ResponseClass attribute, as specified in [MS-OXWSCDATA] section 2.2.4.67, of the CreateItemResponseMessage element, as specified in [MS-OXWSCDATA] section 2.2.4.12, set to "Success". </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">[In CreateItem] [A successful CreateItem operation request returns a CreateItemResponse element] The ResponseCode element, as specified in [MS-OXWSCDATA] section 2.2.4.67, of the CreateItemResponseMessage element is set to "NoError". </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">[In DeleteItem] If the DeleteItem WSDL operation request is successful, the server returns a DeleteItemResponse element, as specified in [MS-OXWSCORE] section 3.1.4.3.2.2, with the ResponseClass attribute, as specified in [MS-OXWSCDATA] section 2.2.4.67, of the DeleteItemResponseMessage element, as specified in [MS-OXWSCDATA] section 2.2.4.12, set to "Success". </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">[In DeleteItem] [A successful DeleteItem operation request returns a DeleteItemResponse element] The ResponseCode element, as specified by [MS-OXWSCDATA] section 2.2.4.67, of the DeleteItemResponseMessage element is set to "NoError". </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">[In GetItem] If the GetItem WSDL operation request is successful, the server returns a GetItemResponse element, as specified in [MS-OXWSCORE] section 3.1.4.4.2.2, with the ResponseClass attribute, as specified in [MS-OXWSCDATA] section 2.2.4.67, of the GetItemResponseMessage element, as specified in [MS-OXWSCDATA] section 2.2.4.12, set to "Success". </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">[In GetItem] [A successful GetItem operation request returns a GetItemResponse element] The ResponseCode element, as specified in [MS-OXWSCDATA] section 2.2.4.67, of the GetItemResponseMessage element is set to "NoError". </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">[In MoveItem] [A successful MoveItem operation request returns a MoveItemResponse element] The ResponseCode element, as specified in [MS-OXWSCDATA] section 2.2.4.67, of the MoveItemResponseMessage element is set to "NoError". </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">[In UpdateItem] If the UpdateItem WSDL operation request is successful, the server returns an UpdateItemResponse element, as specified in [MS-OXWSCORE] section 3.1.4.9.2.2, with the ResponseClass attribute, as specified in [MS-OXWSCDATA] section 2.2.4.67, of the UpdateItemResponseMessage element, as specified in [MS-OXWSCDATA] section 2.2.4.12, set to "Success". </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">[In UpdateItem] [A successful UpdateItem operation request returns an UpdateItemResponse element] The ResponseCode element, as specified in [MS-OXWSCDATA] section 2.2.4.67, of the UpdateItemResponseMessage element is set to "NoError". </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MS-OXWSMSG_R73003</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Verified by derived requirements: MS-OXWSMSG_R2512, MS-OXWSMSG_R2912.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">[In MoveItem] If the MoveItem WSDL operation request is successful, the server returns a MoveItemResponse element, as specified in [MS-OXWSCORE] section 3.1.4.7.2.2, with the ResponseClass attribute, as specified in [MS-OXWSCDATA] section 2.2.4.67, of the MoveItemResponseMessage element, as specified in [MS-OXWSCDATA] section 2.2.4.12, set to "Success". </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[In t:MessageType Complex Type] CcRecipients element Specifies a collection of recipients that receive a carbon copy (Cc) of an email.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[In t:MessageType Complex Type] BccRecipients element Specifies a collection of recipients that receive a blind carbon copy (Bcc) of an email.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">[In t:MessageType Complex Type] ReplyTo element Specifies a collection of addresses to send replies to. </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[In t:MessageDispositionType Simple Type] The value "SendOnly" means when used in the CreateItemType complex type, the email message item is sent.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[In t:MessageDispositionType Simple Type] The value "SendAndSaveCopy" means when used in the CreateItemType complex type, the email message item is sent.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[In Transport] This protocol uses SOAP 1.1.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[In t:MessageType Complex Type] The MessageType complex type extends the ItemType complex type ([MS-OXWSCORE] section 2.2.4.24).</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="2">
     <numFmt numFmtId="176" formatCode="yyyy\-mm\-dd"/>
     <numFmt numFmtId="177" formatCode="0.0.0"/>
@@ -2606,21 +2618,6 @@
     <xf numFmtId="2" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -2639,11 +2636,528 @@
     <xf numFmtId="0" fontId="3" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="89">
+  <dxfs count="113">
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
     <dxf>
       <font>
         <b val="0"/>
@@ -2980,388 +3494,6 @@
         <vertAlign val="baseline"/>
         <name val="Calibri"/>
         <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
       </font>
     </dxf>
   </dxfs>
@@ -3493,34 +3625,34 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Requirement" displayName="Requirement" ref="A19:I265" tableType="xml" totalsRowShown="0" headerRowDxfId="18" dataDxfId="17" connectionId="1">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Requirement" displayName="Requirement" ref="A19:I265" tableType="xml" totalsRowShown="0" headerRowDxfId="112" dataDxfId="111" connectionId="1">
   <autoFilter ref="A19:I265"/>
   <tableColumns count="9">
-    <tableColumn id="1" uniqueName="ns1:REQ_ID" name="Req ID" dataDxfId="16">
+    <tableColumn id="1" uniqueName="ns1:REQ_ID" name="Req ID" dataDxfId="110">
       <xmlColumnPr mapId="12" xpath="/ns1:ReqTable/ns1:Requirement/ns1:REQ_ID" xmlDataType="string"/>
     </tableColumn>
-    <tableColumn id="2" uniqueName="ns1:Doc_Sect" name="Doc Sect" dataDxfId="15">
+    <tableColumn id="2" uniqueName="ns1:Doc_Sect" name="Doc Sect" dataDxfId="109">
       <xmlColumnPr mapId="12" xpath="/ns1:ReqTable/ns1:Requirement/ns1:Doc_Sect" xmlDataType="string"/>
     </tableColumn>
-    <tableColumn id="3" uniqueName="ns1:Description" name="Description" dataDxfId="14">
+    <tableColumn id="3" uniqueName="ns1:Description" name="Description" dataDxfId="108">
       <xmlColumnPr mapId="12" xpath="/ns1:ReqTable/ns1:Requirement/ns1:Description" xmlDataType="string"/>
     </tableColumn>
-    <tableColumn id="18" uniqueName="ns1:Derived" name="Derived" dataDxfId="13">
+    <tableColumn id="18" uniqueName="ns1:Derived" name="Derived" dataDxfId="107">
       <xmlColumnPr mapId="12" xpath="/ns1:ReqTable/ns1:Requirement/ns1:Derived" xmlDataType="string"/>
     </tableColumn>
-    <tableColumn id="6" uniqueName="ns1:Behavior" name="Behavior" dataDxfId="12">
+    <tableColumn id="6" uniqueName="ns1:Behavior" name="Behavior" dataDxfId="106">
       <xmlColumnPr mapId="12" xpath="/ns1:ReqTable/ns1:Requirement/ns1:Behavior" xmlDataType="string"/>
     </tableColumn>
-    <tableColumn id="7" uniqueName="ns1:Scope" name="Scope" dataDxfId="11">
+    <tableColumn id="7" uniqueName="ns1:Scope" name="Scope" dataDxfId="105">
       <xmlColumnPr mapId="12" xpath="/ns1:ReqTable/ns1:Requirement/ns1:Scope" xmlDataType="string"/>
     </tableColumn>
-    <tableColumn id="9" uniqueName="ns1:IsNormative" name="Informative_x000a_/Normative" dataDxfId="10">
+    <tableColumn id="9" uniqueName="ns1:IsNormative" name="Informative_x000a_/Normative" dataDxfId="104">
       <xmlColumnPr mapId="12" xpath="/ns1:ReqTable/ns1:Requirement/ns1:IsNormative" xmlDataType="string"/>
     </tableColumn>
-    <tableColumn id="10" uniqueName="ns1:Verification" name="Verification" dataDxfId="9">
+    <tableColumn id="10" uniqueName="ns1:Verification" name="Verification" dataDxfId="103">
       <xmlColumnPr mapId="12" xpath="/ns1:ReqTable/ns1:Requirement/ns1:Verification" xmlDataType="string"/>
     </tableColumn>
-    <tableColumn id="8" uniqueName="ns1:VerificationComment" name="Verification Comment" dataDxfId="8">
+    <tableColumn id="8" uniqueName="ns1:VerificationComment" name="Verification Comment" dataDxfId="102">
       <xmlColumnPr mapId="12" xpath="/ns1:ReqTable/ns1:Requirement/ns1:VerificationComment" xmlDataType="string"/>
     </tableColumn>
   </tableColumns>
@@ -3529,19 +3661,19 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Scope" displayName="Scope" ref="A12:C15" totalsRowShown="0" headerRowDxfId="7" dataDxfId="5" headerRowBorderDxfId="6" tableBorderDxfId="4" totalsRowBorderDxfId="3">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Scope" displayName="Scope" ref="A12:C15" totalsRowShown="0" headerRowDxfId="101" dataDxfId="99" headerRowBorderDxfId="100" tableBorderDxfId="98" totalsRowBorderDxfId="97">
   <autoFilter ref="A12:C15"/>
   <tableColumns count="3">
-    <tableColumn id="1" name="Scope" dataDxfId="2"/>
-    <tableColumn id="2" name="Test" dataDxfId="1"/>
-    <tableColumn id="3" name="Description" dataDxfId="0"/>
+    <tableColumn id="1" name="Scope" dataDxfId="96"/>
+    <tableColumn id="2" name="Test" dataDxfId="95"/>
+    <tableColumn id="3" name="Description" dataDxfId="94"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -3830,9 +3962,7 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:L266"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A258" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H265" sqref="H265"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -3885,127 +4015,127 @@
       <c r="J3" s="5"/>
     </row>
     <row r="4" spans="1:10" ht="21" x14ac:dyDescent="0.25">
-      <c r="A4" s="36" t="s">
+      <c r="A4" s="42" t="s">
         <v>24</v>
       </c>
-      <c r="B4" s="36"/>
-      <c r="C4" s="36"/>
-      <c r="D4" s="36"/>
-      <c r="E4" s="36"/>
-      <c r="F4" s="36"/>
-      <c r="G4" s="36"/>
+      <c r="B4" s="42"/>
+      <c r="C4" s="42"/>
+      <c r="D4" s="42"/>
+      <c r="E4" s="42"/>
+      <c r="F4" s="42"/>
+      <c r="G4" s="42"/>
       <c r="J4" s="5"/>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="B5" s="39" t="s">
+      <c r="B5" s="45" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="40"/>
-      <c r="D5" s="40"/>
-      <c r="E5" s="40"/>
-      <c r="F5" s="40"/>
-      <c r="G5" s="40"/>
-      <c r="H5" s="40"/>
-      <c r="I5" s="40"/>
+      <c r="C5" s="46"/>
+      <c r="D5" s="46"/>
+      <c r="E5" s="46"/>
+      <c r="F5" s="46"/>
+      <c r="G5" s="46"/>
+      <c r="H5" s="46"/>
+      <c r="I5" s="46"/>
       <c r="J5" s="5"/>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="B6" s="38" t="s">
+      <c r="B6" s="44" t="s">
         <v>34</v>
       </c>
-      <c r="C6" s="38"/>
-      <c r="D6" s="38"/>
-      <c r="E6" s="38"/>
-      <c r="F6" s="38"/>
-      <c r="G6" s="38"/>
-      <c r="H6" s="38"/>
-      <c r="I6" s="38"/>
+      <c r="C6" s="44"/>
+      <c r="D6" s="44"/>
+      <c r="E6" s="44"/>
+      <c r="F6" s="44"/>
+      <c r="G6" s="44"/>
+      <c r="H6" s="44"/>
+      <c r="I6" s="44"/>
       <c r="J6" s="5"/>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" s="14" t="s">
         <v>38</v>
       </c>
-      <c r="B7" s="37" t="s">
+      <c r="B7" s="43" t="s">
         <v>28</v>
       </c>
-      <c r="C7" s="37"/>
-      <c r="D7" s="37"/>
-      <c r="E7" s="37"/>
-      <c r="F7" s="37"/>
-      <c r="G7" s="37"/>
-      <c r="H7" s="37"/>
-      <c r="I7" s="37"/>
+      <c r="C7" s="43"/>
+      <c r="D7" s="43"/>
+      <c r="E7" s="43"/>
+      <c r="F7" s="43"/>
+      <c r="G7" s="43"/>
+      <c r="H7" s="43"/>
+      <c r="I7" s="43"/>
       <c r="J7" s="5"/>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="B8" s="37" t="s">
+      <c r="B8" s="43" t="s">
         <v>29</v>
       </c>
-      <c r="C8" s="37"/>
-      <c r="D8" s="37"/>
-      <c r="E8" s="37"/>
-      <c r="F8" s="37"/>
-      <c r="G8" s="37"/>
-      <c r="H8" s="37"/>
-      <c r="I8" s="37"/>
+      <c r="C8" s="43"/>
+      <c r="D8" s="43"/>
+      <c r="E8" s="43"/>
+      <c r="F8" s="43"/>
+      <c r="G8" s="43"/>
+      <c r="H8" s="43"/>
+      <c r="I8" s="43"/>
       <c r="J8" s="5"/>
     </row>
     <row r="9" spans="1:10" ht="75.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="B9" s="45" t="s">
+      <c r="B9" s="40" t="s">
         <v>37</v>
       </c>
-      <c r="C9" s="46"/>
-      <c r="D9" s="46"/>
-      <c r="E9" s="46"/>
-      <c r="F9" s="46"/>
-      <c r="G9" s="46"/>
-      <c r="H9" s="46"/>
-      <c r="I9" s="46"/>
+      <c r="C9" s="41"/>
+      <c r="D9" s="41"/>
+      <c r="E9" s="41"/>
+      <c r="F9" s="41"/>
+      <c r="G9" s="41"/>
+      <c r="H9" s="41"/>
+      <c r="I9" s="41"/>
       <c r="J9" s="5"/>
     </row>
     <row r="10" spans="1:10" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="B10" s="45" t="s">
+      <c r="B10" s="40" t="s">
         <v>442</v>
       </c>
-      <c r="C10" s="46"/>
-      <c r="D10" s="46"/>
-      <c r="E10" s="46"/>
-      <c r="F10" s="46"/>
-      <c r="G10" s="46"/>
-      <c r="H10" s="46"/>
-      <c r="I10" s="46"/>
+      <c r="C10" s="41"/>
+      <c r="D10" s="41"/>
+      <c r="E10" s="41"/>
+      <c r="F10" s="41"/>
+      <c r="G10" s="41"/>
+      <c r="H10" s="41"/>
+      <c r="I10" s="41"/>
       <c r="J10" s="5"/>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="B11" s="41" t="s">
+      <c r="B11" s="36" t="s">
         <v>40</v>
       </c>
-      <c r="C11" s="41"/>
-      <c r="D11" s="41"/>
-      <c r="E11" s="41"/>
-      <c r="F11" s="41"/>
-      <c r="G11" s="41"/>
-      <c r="H11" s="41"/>
-      <c r="I11" s="41"/>
+      <c r="C11" s="36"/>
+      <c r="D11" s="36"/>
+      <c r="E11" s="36"/>
+      <c r="F11" s="36"/>
+      <c r="G11" s="36"/>
+      <c r="H11" s="36"/>
+      <c r="I11" s="36"/>
       <c r="J11" s="5"/>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
@@ -4018,12 +4148,12 @@
       <c r="C12" s="19" t="s">
         <v>1</v>
       </c>
-      <c r="D12" s="42"/>
-      <c r="E12" s="42"/>
-      <c r="F12" s="42"/>
-      <c r="G12" s="42"/>
-      <c r="H12" s="42"/>
-      <c r="I12" s="42"/>
+      <c r="D12" s="37"/>
+      <c r="E12" s="37"/>
+      <c r="F12" s="37"/>
+      <c r="G12" s="37"/>
+      <c r="H12" s="37"/>
+      <c r="I12" s="37"/>
       <c r="J12" s="5"/>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
@@ -4036,12 +4166,12 @@
       <c r="C13" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="D13" s="43"/>
-      <c r="E13" s="43"/>
-      <c r="F13" s="43"/>
-      <c r="G13" s="43"/>
-      <c r="H13" s="43"/>
-      <c r="I13" s="43"/>
+      <c r="D13" s="38"/>
+      <c r="E13" s="38"/>
+      <c r="F13" s="38"/>
+      <c r="G13" s="38"/>
+      <c r="H13" s="38"/>
+      <c r="I13" s="38"/>
       <c r="J13" s="5"/>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
@@ -4054,12 +4184,12 @@
       <c r="C14" s="16" t="s">
         <v>35</v>
       </c>
-      <c r="D14" s="43"/>
-      <c r="E14" s="43"/>
-      <c r="F14" s="43"/>
-      <c r="G14" s="43"/>
-      <c r="H14" s="43"/>
-      <c r="I14" s="43"/>
+      <c r="D14" s="38"/>
+      <c r="E14" s="38"/>
+      <c r="F14" s="38"/>
+      <c r="G14" s="38"/>
+      <c r="H14" s="38"/>
+      <c r="I14" s="38"/>
       <c r="J14" s="5"/>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
@@ -4072,60 +4202,60 @@
       <c r="C15" s="16" t="s">
         <v>30</v>
       </c>
-      <c r="D15" s="44"/>
-      <c r="E15" s="44"/>
-      <c r="F15" s="44"/>
-      <c r="G15" s="44"/>
-      <c r="H15" s="44"/>
-      <c r="I15" s="44"/>
+      <c r="D15" s="39"/>
+      <c r="E15" s="39"/>
+      <c r="F15" s="39"/>
+      <c r="G15" s="39"/>
+      <c r="H15" s="39"/>
+      <c r="I15" s="39"/>
       <c r="J15" s="5"/>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="B16" s="41" t="s">
+      <c r="B16" s="36" t="s">
         <v>41</v>
       </c>
-      <c r="C16" s="41"/>
-      <c r="D16" s="41"/>
-      <c r="E16" s="41"/>
-      <c r="F16" s="41"/>
-      <c r="G16" s="41"/>
-      <c r="H16" s="41"/>
-      <c r="I16" s="41"/>
+      <c r="C16" s="36"/>
+      <c r="D16" s="36"/>
+      <c r="E16" s="36"/>
+      <c r="F16" s="36"/>
+      <c r="G16" s="36"/>
+      <c r="H16" s="36"/>
+      <c r="I16" s="36"/>
       <c r="J16" s="5"/>
     </row>
     <row r="17" spans="1:12" ht="61.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="B17" s="45" t="s">
+      <c r="B17" s="40" t="s">
         <v>443</v>
       </c>
-      <c r="C17" s="46"/>
-      <c r="D17" s="46"/>
-      <c r="E17" s="46"/>
-      <c r="F17" s="46"/>
-      <c r="G17" s="46"/>
-      <c r="H17" s="46"/>
-      <c r="I17" s="46"/>
+      <c r="C17" s="41"/>
+      <c r="D17" s="41"/>
+      <c r="E17" s="41"/>
+      <c r="F17" s="41"/>
+      <c r="G17" s="41"/>
+      <c r="H17" s="41"/>
+      <c r="I17" s="41"/>
       <c r="J17" s="5"/>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A18" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="B18" s="41" t="s">
+      <c r="B18" s="36" t="s">
         <v>36</v>
       </c>
-      <c r="C18" s="41"/>
-      <c r="D18" s="41"/>
-      <c r="E18" s="41"/>
-      <c r="F18" s="41"/>
-      <c r="G18" s="41"/>
-      <c r="H18" s="41"/>
-      <c r="I18" s="41"/>
+      <c r="C18" s="36"/>
+      <c r="D18" s="36"/>
+      <c r="E18" s="36"/>
+      <c r="F18" s="36"/>
+      <c r="G18" s="36"/>
+      <c r="H18" s="36"/>
+      <c r="I18" s="36"/>
       <c r="J18" s="5"/>
       <c r="L18" s="4"/>
     </row>
@@ -4167,7 +4297,7 @@
         <v>250</v>
       </c>
       <c r="C20" s="21" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="D20" s="22"/>
       <c r="E20" s="22" t="s">
@@ -4192,7 +4322,7 @@
         <v>250</v>
       </c>
       <c r="C21" s="20" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="D21" s="22"/>
       <c r="E21" s="22" t="s">
@@ -4211,13 +4341,13 @@
     </row>
     <row r="22" spans="1:12" s="23" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A22" s="33" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="B22" s="34" t="s">
         <v>250</v>
       </c>
       <c r="C22" s="35" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="D22" s="33"/>
       <c r="E22" s="33" t="s">
@@ -4236,13 +4366,13 @@
     </row>
     <row r="23" spans="1:12" s="23" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A23" s="33" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="B23" s="34" t="s">
         <v>250</v>
       </c>
       <c r="C23" s="35" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="D23" s="33"/>
       <c r="E23" s="33" t="s">
@@ -4367,7 +4497,7 @@
         <v>252</v>
       </c>
       <c r="C28" s="20" t="s">
-        <v>444</v>
+        <v>588</v>
       </c>
       <c r="D28" s="22"/>
       <c r="E28" s="22" t="s">
@@ -4417,7 +4547,7 @@
         <v>252</v>
       </c>
       <c r="C30" s="20" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="D30" s="22"/>
       <c r="E30" s="22" t="s">
@@ -4436,13 +4566,13 @@
     </row>
     <row r="31" spans="1:12" s="23" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A31" s="22" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="B31" s="34" t="s">
         <v>252</v>
       </c>
       <c r="C31" s="35" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="D31" s="33"/>
       <c r="E31" s="33" t="s">
@@ -4519,7 +4649,7 @@
         <v>253</v>
       </c>
       <c r="C34" s="20" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="D34" s="22"/>
       <c r="E34" s="22" t="s">
@@ -4819,7 +4949,7 @@
         <v>257</v>
       </c>
       <c r="C46" s="20" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="D46" s="30"/>
       <c r="E46" s="30" t="s">
@@ -4844,7 +4974,7 @@
         <v>31</v>
       </c>
       <c r="C47" s="20" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="D47" s="30"/>
       <c r="E47" s="30" t="s">
@@ -4869,7 +4999,7 @@
         <v>31</v>
       </c>
       <c r="C48" s="20" t="s">
-        <v>457</v>
+        <v>589</v>
       </c>
       <c r="D48" s="30"/>
       <c r="E48" s="30" t="s">
@@ -4894,7 +5024,7 @@
         <v>31</v>
       </c>
       <c r="C49" s="20" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="D49" s="30"/>
       <c r="E49" s="30" t="s">
@@ -4944,7 +5074,7 @@
         <v>31</v>
       </c>
       <c r="C51" s="20" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="D51" s="30"/>
       <c r="E51" s="30" t="s">
@@ -5098,7 +5228,7 @@
         <v>31</v>
       </c>
       <c r="C57" s="20" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="D57" s="30"/>
       <c r="E57" s="30" t="s">
@@ -5177,7 +5307,7 @@
         <v>31</v>
       </c>
       <c r="C60" s="20" t="s">
-        <v>461</v>
+        <v>565</v>
       </c>
       <c r="D60" s="30"/>
       <c r="E60" s="30" t="s">
@@ -5277,7 +5407,7 @@
         <v>31</v>
       </c>
       <c r="C64" s="20" t="s">
-        <v>463</v>
+        <v>583</v>
       </c>
       <c r="D64" s="30"/>
       <c r="E64" s="30" t="s">
@@ -5377,7 +5507,7 @@
         <v>31</v>
       </c>
       <c r="C68" s="20" t="s">
-        <v>462</v>
+        <v>584</v>
       </c>
       <c r="D68" s="30"/>
       <c r="E68" s="30" t="s">
@@ -5452,7 +5582,7 @@
         <v>31</v>
       </c>
       <c r="C71" s="20" t="s">
-        <v>574</v>
+        <v>547</v>
       </c>
       <c r="D71" s="30"/>
       <c r="E71" s="30" t="s">
@@ -5731,7 +5861,7 @@
         <v>31</v>
       </c>
       <c r="C82" s="20" t="s">
-        <v>464</v>
+        <v>459</v>
       </c>
       <c r="D82" s="30"/>
       <c r="E82" s="30" t="s">
@@ -5756,7 +5886,7 @@
         <v>31</v>
       </c>
       <c r="C83" s="20" t="s">
-        <v>465</v>
+        <v>460</v>
       </c>
       <c r="D83" s="30"/>
       <c r="E83" s="30" t="s">
@@ -5806,7 +5936,7 @@
         <v>31</v>
       </c>
       <c r="C85" s="20" t="s">
-        <v>466</v>
+        <v>461</v>
       </c>
       <c r="D85" s="30"/>
       <c r="E85" s="30" t="s">
@@ -5831,7 +5961,7 @@
         <v>31</v>
       </c>
       <c r="C86" s="20" t="s">
-        <v>575</v>
+        <v>548</v>
       </c>
       <c r="D86" s="30"/>
       <c r="E86" s="30" t="s">
@@ -5906,7 +6036,7 @@
         <v>31</v>
       </c>
       <c r="C89" s="20" t="s">
-        <v>561</v>
+        <v>534</v>
       </c>
       <c r="D89" s="30"/>
       <c r="E89" s="30" t="s">
@@ -6106,7 +6236,7 @@
         <v>31</v>
       </c>
       <c r="C97" s="20" t="s">
-        <v>467</v>
+        <v>462</v>
       </c>
       <c r="D97" s="30"/>
       <c r="E97" s="30" t="s">
@@ -6181,7 +6311,7 @@
         <v>31</v>
       </c>
       <c r="C100" s="20" t="s">
-        <v>468</v>
+        <v>463</v>
       </c>
       <c r="D100" s="30"/>
       <c r="E100" s="30" t="s">
@@ -6283,7 +6413,7 @@
         <v>31</v>
       </c>
       <c r="C104" s="20" t="s">
-        <v>469</v>
+        <v>464</v>
       </c>
       <c r="D104" s="30"/>
       <c r="E104" s="30" t="s">
@@ -6535,7 +6665,7 @@
         <v>31</v>
       </c>
       <c r="C114" s="20" t="s">
-        <v>470</v>
+        <v>585</v>
       </c>
       <c r="D114" s="30"/>
       <c r="E114" s="30" t="s">
@@ -6610,7 +6740,7 @@
         <v>31</v>
       </c>
       <c r="C117" s="20" t="s">
-        <v>585</v>
+        <v>557</v>
       </c>
       <c r="D117" s="30"/>
       <c r="E117" s="30" t="s">
@@ -6654,13 +6784,13 @@
     </row>
     <row r="119" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A119" s="22" t="s">
-        <v>472</v>
+        <v>466</v>
       </c>
       <c r="B119" s="24" t="s">
         <v>31</v>
       </c>
       <c r="C119" s="35" t="s">
-        <v>471</v>
+        <v>465</v>
       </c>
       <c r="D119" s="33"/>
       <c r="E119" s="33" t="s">
@@ -6729,13 +6859,13 @@
     </row>
     <row r="122" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A122" s="22" t="s">
-        <v>474</v>
+        <v>468</v>
       </c>
       <c r="B122" s="31" t="s">
         <v>31</v>
       </c>
       <c r="C122" s="35" t="s">
-        <v>473</v>
+        <v>467</v>
       </c>
       <c r="D122" s="33"/>
       <c r="E122" s="33" t="s">
@@ -6754,13 +6884,13 @@
     </row>
     <row r="123" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A123" s="22" t="s">
-        <v>481</v>
+        <v>475</v>
       </c>
       <c r="B123" s="31" t="s">
         <v>31</v>
       </c>
       <c r="C123" s="35" t="s">
-        <v>475</v>
+        <v>469</v>
       </c>
       <c r="D123" s="33"/>
       <c r="E123" s="33" t="s">
@@ -6779,13 +6909,13 @@
     </row>
     <row r="124" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A124" s="22" t="s">
-        <v>482</v>
+        <v>580</v>
       </c>
       <c r="B124" s="31" t="s">
         <v>31</v>
       </c>
       <c r="C124" s="35" t="s">
-        <v>476</v>
+        <v>470</v>
       </c>
       <c r="D124" s="33"/>
       <c r="E124" s="33" t="s">
@@ -6800,19 +6930,17 @@
       <c r="H124" s="33" t="s">
         <v>17</v>
       </c>
-      <c r="I124" s="35" t="s">
-        <v>560</v>
-      </c>
+      <c r="I124" s="35"/>
     </row>
     <row r="125" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A125" s="22" t="s">
-        <v>483</v>
+        <v>476</v>
       </c>
       <c r="B125" s="31" t="s">
         <v>31</v>
       </c>
       <c r="C125" s="35" t="s">
-        <v>477</v>
+        <v>471</v>
       </c>
       <c r="D125" s="33"/>
       <c r="E125" s="33" t="s">
@@ -6831,13 +6959,13 @@
     </row>
     <row r="126" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A126" s="22" t="s">
-        <v>484</v>
+        <v>477</v>
       </c>
       <c r="B126" s="31" t="s">
         <v>31</v>
       </c>
       <c r="C126" s="35" t="s">
-        <v>478</v>
+        <v>472</v>
       </c>
       <c r="D126" s="33"/>
       <c r="E126" s="33" t="s">
@@ -6852,19 +6980,17 @@
       <c r="H126" s="33" t="s">
         <v>17</v>
       </c>
-      <c r="I126" s="35" t="s">
-        <v>556</v>
-      </c>
+      <c r="I126" s="35"/>
     </row>
     <row r="127" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A127" s="22" t="s">
-        <v>485</v>
+        <v>478</v>
       </c>
       <c r="B127" s="31" t="s">
         <v>31</v>
       </c>
       <c r="C127" s="35" t="s">
-        <v>479</v>
+        <v>473</v>
       </c>
       <c r="D127" s="33"/>
       <c r="E127" s="33" t="s">
@@ -6881,15 +7007,15 @@
       </c>
       <c r="I127" s="35"/>
     </row>
-    <row r="128" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A128" s="22" t="s">
-        <v>486</v>
+        <v>479</v>
       </c>
       <c r="B128" s="31" t="s">
         <v>31</v>
       </c>
       <c r="C128" s="35" t="s">
-        <v>480</v>
+        <v>474</v>
       </c>
       <c r="D128" s="33"/>
       <c r="E128" s="33" t="s">
@@ -6904,9 +7030,7 @@
       <c r="H128" s="33" t="s">
         <v>17</v>
       </c>
-      <c r="I128" s="35" t="s">
-        <v>558</v>
-      </c>
+      <c r="I128" s="35"/>
     </row>
     <row r="129" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A129" s="30" t="s">
@@ -7066,7 +7190,7 @@
         <v>259</v>
       </c>
       <c r="C135" s="20" t="s">
-        <v>487</v>
+        <v>566</v>
       </c>
       <c r="D135" s="30"/>
       <c r="E135" s="30" t="s">
@@ -7141,7 +7265,7 @@
         <v>259</v>
       </c>
       <c r="C138" s="20" t="s">
-        <v>488</v>
+        <v>586</v>
       </c>
       <c r="D138" s="30"/>
       <c r="E138" s="30" t="s">
@@ -7166,7 +7290,7 @@
         <v>259</v>
       </c>
       <c r="C139" s="20" t="s">
-        <v>489</v>
+        <v>567</v>
       </c>
       <c r="D139" s="30"/>
       <c r="E139" s="30" t="s">
@@ -7216,7 +7340,7 @@
         <v>259</v>
       </c>
       <c r="C141" s="20" t="s">
-        <v>490</v>
+        <v>587</v>
       </c>
       <c r="D141" s="30"/>
       <c r="E141" s="30" t="s">
@@ -7241,7 +7365,7 @@
         <v>259</v>
       </c>
       <c r="C142" s="20" t="s">
-        <v>491</v>
+        <v>568</v>
       </c>
       <c r="D142" s="30"/>
       <c r="E142" s="30" t="s">
@@ -7441,7 +7565,7 @@
         <v>264</v>
       </c>
       <c r="C150" s="20" t="s">
-        <v>492</v>
+        <v>480</v>
       </c>
       <c r="D150" s="30"/>
       <c r="E150" s="30" t="s">
@@ -7591,7 +7715,7 @@
         <v>266</v>
       </c>
       <c r="C156" s="20" t="s">
-        <v>494</v>
+        <v>482</v>
       </c>
       <c r="D156" s="30"/>
       <c r="E156" s="30" t="s">
@@ -7616,7 +7740,7 @@
         <v>266</v>
       </c>
       <c r="C157" s="20" t="s">
-        <v>493</v>
+        <v>481</v>
       </c>
       <c r="D157" s="30"/>
       <c r="E157" s="30" t="s">
@@ -7641,7 +7765,7 @@
         <v>266</v>
       </c>
       <c r="C158" s="20" t="s">
-        <v>495</v>
+        <v>483</v>
       </c>
       <c r="D158" s="30"/>
       <c r="E158" s="30" t="s">
@@ -7666,7 +7790,7 @@
         <v>266</v>
       </c>
       <c r="C159" s="20" t="s">
-        <v>496</v>
+        <v>484</v>
       </c>
       <c r="D159" s="30"/>
       <c r="E159" s="30" t="s">
@@ -7691,7 +7815,7 @@
         <v>266</v>
       </c>
       <c r="C160" s="20" t="s">
-        <v>497</v>
+        <v>485</v>
       </c>
       <c r="D160" s="30"/>
       <c r="E160" s="30" t="s">
@@ -7716,7 +7840,7 @@
         <v>266</v>
       </c>
       <c r="C161" s="20" t="s">
-        <v>498</v>
+        <v>486</v>
       </c>
       <c r="D161" s="30"/>
       <c r="E161" s="30" t="s">
@@ -7741,7 +7865,7 @@
         <v>266</v>
       </c>
       <c r="C162" s="20" t="s">
-        <v>499</v>
+        <v>487</v>
       </c>
       <c r="D162" s="30"/>
       <c r="E162" s="30" t="s">
@@ -7766,7 +7890,7 @@
         <v>32</v>
       </c>
       <c r="C163" s="20" t="s">
-        <v>500</v>
+        <v>488</v>
       </c>
       <c r="D163" s="30"/>
       <c r="E163" s="30" t="s">
@@ -7866,7 +7990,7 @@
         <v>32</v>
       </c>
       <c r="C167" s="20" t="s">
-        <v>501</v>
+        <v>569</v>
       </c>
       <c r="D167" s="30"/>
       <c r="E167" s="30" t="s">
@@ -7891,7 +8015,7 @@
         <v>32</v>
       </c>
       <c r="C168" s="20" t="s">
-        <v>502</v>
+        <v>570</v>
       </c>
       <c r="D168" s="30"/>
       <c r="E168" s="30" t="s">
@@ -7910,13 +8034,13 @@
     </row>
     <row r="169" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A169" s="22" t="s">
-        <v>504</v>
+        <v>490</v>
       </c>
       <c r="B169" s="24" t="s">
         <v>32</v>
       </c>
       <c r="C169" s="35" t="s">
-        <v>503</v>
+        <v>489</v>
       </c>
       <c r="D169" s="33"/>
       <c r="E169" s="33" t="s">
@@ -7935,13 +8059,13 @@
     </row>
     <row r="170" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A170" s="22" t="s">
-        <v>505</v>
+        <v>491</v>
       </c>
       <c r="B170" s="24" t="s">
         <v>32</v>
       </c>
       <c r="C170" s="35" t="s">
-        <v>514</v>
+        <v>498</v>
       </c>
       <c r="D170" s="33"/>
       <c r="E170" s="33" t="s">
@@ -7966,7 +8090,7 @@
         <v>32</v>
       </c>
       <c r="C171" s="20" t="s">
-        <v>506</v>
+        <v>492</v>
       </c>
       <c r="D171" s="30"/>
       <c r="E171" s="30" t="s">
@@ -7991,7 +8115,7 @@
         <v>33</v>
       </c>
       <c r="C172" s="20" t="s">
-        <v>507</v>
+        <v>493</v>
       </c>
       <c r="D172" s="30"/>
       <c r="E172" s="30" t="s">
@@ -8091,7 +8215,7 @@
         <v>33</v>
       </c>
       <c r="C176" s="20" t="s">
-        <v>508</v>
+        <v>571</v>
       </c>
       <c r="D176" s="30"/>
       <c r="E176" s="30" t="s">
@@ -8116,7 +8240,7 @@
         <v>33</v>
       </c>
       <c r="C177" s="20" t="s">
-        <v>509</v>
+        <v>572</v>
       </c>
       <c r="D177" s="30"/>
       <c r="E177" s="30" t="s">
@@ -8135,13 +8259,13 @@
     </row>
     <row r="178" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A178" s="22" t="s">
-        <v>512</v>
+        <v>496</v>
       </c>
       <c r="B178" s="24" t="s">
         <v>33</v>
       </c>
       <c r="C178" s="35" t="s">
-        <v>510</v>
+        <v>494</v>
       </c>
       <c r="D178" s="33"/>
       <c r="E178" s="33" t="s">
@@ -8160,13 +8284,13 @@
     </row>
     <row r="179" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A179" s="22" t="s">
-        <v>513</v>
+        <v>497</v>
       </c>
       <c r="B179" s="24" t="s">
         <v>33</v>
       </c>
       <c r="C179" s="35" t="s">
-        <v>511</v>
+        <v>495</v>
       </c>
       <c r="D179" s="33"/>
       <c r="E179" s="33" t="s">
@@ -8216,7 +8340,7 @@
         <v>267</v>
       </c>
       <c r="C181" s="20" t="s">
-        <v>515</v>
+        <v>499</v>
       </c>
       <c r="D181" s="30"/>
       <c r="E181" s="30" t="s">
@@ -8316,7 +8440,7 @@
         <v>267</v>
       </c>
       <c r="C185" s="20" t="s">
-        <v>516</v>
+        <v>573</v>
       </c>
       <c r="D185" s="30"/>
       <c r="E185" s="30" t="s">
@@ -8341,7 +8465,7 @@
         <v>267</v>
       </c>
       <c r="C186" s="20" t="s">
-        <v>517</v>
+        <v>574</v>
       </c>
       <c r="D186" s="30"/>
       <c r="E186" s="30" t="s">
@@ -8360,13 +8484,13 @@
     </row>
     <row r="187" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A187" s="22" t="s">
-        <v>521</v>
+        <v>503</v>
       </c>
       <c r="B187" s="24" t="s">
         <v>267</v>
       </c>
       <c r="C187" s="35" t="s">
-        <v>519</v>
+        <v>501</v>
       </c>
       <c r="D187" s="33"/>
       <c r="E187" s="30" t="s">
@@ -8385,13 +8509,13 @@
     </row>
     <row r="188" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A188" s="22" t="s">
-        <v>522</v>
+        <v>504</v>
       </c>
       <c r="B188" s="24" t="s">
         <v>267</v>
       </c>
       <c r="C188" s="35" t="s">
-        <v>520</v>
+        <v>502</v>
       </c>
       <c r="D188" s="33"/>
       <c r="E188" s="30" t="s">
@@ -8416,7 +8540,7 @@
         <v>267</v>
       </c>
       <c r="C189" s="20" t="s">
-        <v>518</v>
+        <v>500</v>
       </c>
       <c r="D189" s="30"/>
       <c r="E189" s="30" t="s">
@@ -8441,7 +8565,7 @@
         <v>268</v>
       </c>
       <c r="C190" s="20" t="s">
-        <v>523</v>
+        <v>505</v>
       </c>
       <c r="D190" s="30"/>
       <c r="E190" s="30" t="s">
@@ -8782,7 +8906,7 @@
         <v>17</v>
       </c>
       <c r="I203" s="20" t="s">
-        <v>562</v>
+        <v>535</v>
       </c>
     </row>
     <row r="204" spans="1:9" ht="30" x14ac:dyDescent="0.25">
@@ -8809,7 +8933,7 @@
         <v>17</v>
       </c>
       <c r="I204" s="20" t="s">
-        <v>568</v>
+        <v>541</v>
       </c>
     </row>
     <row r="205" spans="1:9" ht="60" x14ac:dyDescent="0.25">
@@ -8836,7 +8960,7 @@
         <v>17</v>
       </c>
       <c r="I205" s="20" t="s">
-        <v>576</v>
+        <v>549</v>
       </c>
     </row>
     <row r="206" spans="1:9" ht="30" x14ac:dyDescent="0.25">
@@ -8863,7 +8987,7 @@
         <v>17</v>
       </c>
       <c r="I206" s="20" t="s">
-        <v>571</v>
+        <v>544</v>
       </c>
     </row>
     <row r="207" spans="1:9" ht="30" x14ac:dyDescent="0.25">
@@ -8899,7 +9023,7 @@
         <v>268</v>
       </c>
       <c r="C208" s="20" t="s">
-        <v>524</v>
+        <v>575</v>
       </c>
       <c r="D208" s="30"/>
       <c r="E208" s="30" t="s">
@@ -8924,7 +9048,7 @@
         <v>268</v>
       </c>
       <c r="C209" s="20" t="s">
-        <v>525</v>
+        <v>576</v>
       </c>
       <c r="D209" s="30"/>
       <c r="E209" s="30" t="s">
@@ -8943,13 +9067,13 @@
     </row>
     <row r="210" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A210" s="22" t="s">
-        <v>528</v>
+        <v>508</v>
       </c>
       <c r="B210" s="24" t="s">
         <v>268</v>
       </c>
       <c r="C210" s="35" t="s">
-        <v>526</v>
+        <v>506</v>
       </c>
       <c r="D210" s="33"/>
       <c r="E210" s="30" t="s">
@@ -8968,13 +9092,13 @@
     </row>
     <row r="211" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A211" s="22" t="s">
-        <v>529</v>
+        <v>509</v>
       </c>
       <c r="B211" s="24" t="s">
         <v>268</v>
       </c>
       <c r="C211" s="35" t="s">
-        <v>527</v>
+        <v>507</v>
       </c>
       <c r="D211" s="33"/>
       <c r="E211" s="30" t="s">
@@ -9024,7 +9148,7 @@
         <v>269</v>
       </c>
       <c r="C213" s="20" t="s">
-        <v>530</v>
+        <v>510</v>
       </c>
       <c r="D213" s="30"/>
       <c r="E213" s="30" t="s">
@@ -9124,7 +9248,7 @@
         <v>269</v>
       </c>
       <c r="C217" s="20" t="s">
-        <v>531</v>
+        <v>582</v>
       </c>
       <c r="D217" s="30"/>
       <c r="E217" s="30" t="s">
@@ -9149,7 +9273,7 @@
         <v>269</v>
       </c>
       <c r="C218" s="20" t="s">
-        <v>532</v>
+        <v>577</v>
       </c>
       <c r="D218" s="30"/>
       <c r="E218" s="30" t="s">
@@ -9168,13 +9292,13 @@
     </row>
     <row r="219" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A219" s="22" t="s">
-        <v>535</v>
+        <v>513</v>
       </c>
       <c r="B219" s="31" t="s">
         <v>269</v>
       </c>
       <c r="C219" s="35" t="s">
-        <v>533</v>
+        <v>511</v>
       </c>
       <c r="D219" s="33"/>
       <c r="E219" s="30" t="s">
@@ -9193,13 +9317,13 @@
     </row>
     <row r="220" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A220" s="22" t="s">
-        <v>536</v>
+        <v>514</v>
       </c>
       <c r="B220" s="31" t="s">
         <v>269</v>
       </c>
       <c r="C220" s="35" t="s">
-        <v>534</v>
+        <v>512</v>
       </c>
       <c r="D220" s="33"/>
       <c r="E220" s="30" t="s">
@@ -9424,7 +9548,7 @@
         <v>271</v>
       </c>
       <c r="C229" s="20" t="s">
-        <v>537</v>
+        <v>515</v>
       </c>
       <c r="D229" s="30"/>
       <c r="E229" s="30" t="s">
@@ -9599,7 +9723,7 @@
         <v>271</v>
       </c>
       <c r="C236" s="20" t="s">
-        <v>538</v>
+        <v>578</v>
       </c>
       <c r="D236" s="30"/>
       <c r="E236" s="30" t="s">
@@ -9624,7 +9748,7 @@
         <v>271</v>
       </c>
       <c r="C237" s="20" t="s">
-        <v>539</v>
+        <v>579</v>
       </c>
       <c r="D237" s="30"/>
       <c r="E237" s="30" t="s">
@@ -9643,13 +9767,13 @@
     </row>
     <row r="238" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A238" s="22" t="s">
-        <v>542</v>
+        <v>518</v>
       </c>
       <c r="B238" s="24" t="s">
         <v>271</v>
       </c>
       <c r="C238" s="35" t="s">
-        <v>540</v>
+        <v>516</v>
       </c>
       <c r="D238" s="33"/>
       <c r="E238" s="30" t="s">
@@ -9668,13 +9792,13 @@
     </row>
     <row r="239" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A239" s="22" t="s">
-        <v>543</v>
+        <v>519</v>
       </c>
       <c r="B239" s="24" t="s">
         <v>271</v>
       </c>
       <c r="C239" s="35" t="s">
-        <v>541</v>
+        <v>517</v>
       </c>
       <c r="D239" s="33"/>
       <c r="E239" s="30" t="s">
@@ -9716,7 +9840,7 @@
       </c>
       <c r="I240" s="32"/>
     </row>
-    <row r="241" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="A241" s="30" t="s">
         <v>240</v>
       </c>
@@ -9741,7 +9865,7 @@
       </c>
       <c r="I241" s="32"/>
     </row>
-    <row r="242" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="A242" s="30" t="s">
         <v>241</v>
       </c>
@@ -9770,7 +9894,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="243" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A243" s="30" t="s">
         <v>242</v>
       </c>
@@ -9795,18 +9919,18 @@
       </c>
       <c r="I243" s="32"/>
     </row>
-    <row r="244" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="A244" s="22" t="s">
-        <v>549</v>
+        <v>525</v>
       </c>
       <c r="B244" s="31" t="s">
         <v>272</v>
       </c>
       <c r="C244" s="35" t="s">
-        <v>544</v>
+        <v>520</v>
       </c>
       <c r="D244" s="33" t="s">
-        <v>555</v>
+        <v>531</v>
       </c>
       <c r="E244" s="30" t="s">
         <v>22</v>
@@ -9822,18 +9946,18 @@
       </c>
       <c r="I244" s="35"/>
     </row>
-    <row r="245" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="A245" s="22" t="s">
-        <v>550</v>
+        <v>526</v>
       </c>
       <c r="B245" s="31" t="s">
         <v>272</v>
       </c>
       <c r="C245" s="35" t="s">
-        <v>545</v>
+        <v>521</v>
       </c>
       <c r="D245" s="33" t="s">
-        <v>555</v>
+        <v>531</v>
       </c>
       <c r="E245" s="30" t="s">
         <v>22</v>
@@ -9847,20 +9971,22 @@
       <c r="H245" s="33" t="s">
         <v>18</v>
       </c>
-      <c r="I245" s="35"/>
-    </row>
-    <row r="246" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+      <c r="I245" s="32" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="246" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="A246" s="22" t="s">
-        <v>551</v>
+        <v>527</v>
       </c>
       <c r="B246" s="31" t="s">
         <v>272</v>
       </c>
       <c r="C246" s="35" t="s">
-        <v>592</v>
+        <v>563</v>
       </c>
       <c r="D246" s="33" t="s">
-        <v>557</v>
+        <v>532</v>
       </c>
       <c r="E246" s="30" t="s">
         <v>22</v>
@@ -9876,18 +10002,18 @@
       </c>
       <c r="I246" s="35"/>
     </row>
-    <row r="247" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="A247" s="22" t="s">
-        <v>552</v>
+        <v>528</v>
       </c>
       <c r="B247" s="31" t="s">
         <v>272</v>
       </c>
       <c r="C247" s="35" t="s">
-        <v>548</v>
+        <v>524</v>
       </c>
       <c r="D247" s="33" t="s">
-        <v>557</v>
+        <v>532</v>
       </c>
       <c r="E247" s="30" t="s">
         <v>22</v>
@@ -9901,20 +10027,22 @@
       <c r="H247" s="33" t="s">
         <v>18</v>
       </c>
-      <c r="I247" s="35"/>
-    </row>
-    <row r="248" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+      <c r="I247" s="32" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="248" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="A248" s="22" t="s">
-        <v>553</v>
+        <v>529</v>
       </c>
       <c r="B248" s="31" t="s">
         <v>272</v>
       </c>
       <c r="C248" s="35" t="s">
-        <v>546</v>
+        <v>522</v>
       </c>
       <c r="D248" s="33" t="s">
-        <v>559</v>
+        <v>533</v>
       </c>
       <c r="E248" s="30" t="s">
         <v>22</v>
@@ -9930,18 +10058,18 @@
       </c>
       <c r="I248" s="35"/>
     </row>
-    <row r="249" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="A249" s="22" t="s">
-        <v>554</v>
+        <v>530</v>
       </c>
       <c r="B249" s="31" t="s">
         <v>272</v>
       </c>
       <c r="C249" s="35" t="s">
-        <v>547</v>
+        <v>523</v>
       </c>
       <c r="D249" s="33" t="s">
-        <v>559</v>
+        <v>533</v>
       </c>
       <c r="E249" s="30" t="s">
         <v>22</v>
@@ -9955,9 +10083,11 @@
       <c r="H249" s="33" t="s">
         <v>18</v>
       </c>
-      <c r="I249" s="35"/>
-    </row>
-    <row r="250" spans="1:9" ht="180" x14ac:dyDescent="0.25">
+      <c r="I249" s="32" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="250" spans="1:10" ht="180" x14ac:dyDescent="0.25">
       <c r="A250" s="30" t="s">
         <v>243</v>
       </c>
@@ -9982,7 +10112,7 @@
       </c>
       <c r="I250" s="32"/>
     </row>
-    <row r="251" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="A251" s="30" t="s">
         <v>244</v>
       </c>
@@ -10005,9 +10135,11 @@
       <c r="H251" s="30" t="s">
         <v>17</v>
       </c>
-      <c r="I251" s="32"/>
-    </row>
-    <row r="252" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+      <c r="I251" s="20" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="252" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="A252" s="30" t="s">
         <v>245</v>
       </c>
@@ -10034,7 +10166,7 @@
         <v>438</v>
       </c>
     </row>
-    <row r="253" spans="1:9" ht="90" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:10" ht="90" x14ac:dyDescent="0.25">
       <c r="A253" s="30" t="s">
         <v>246</v>
       </c>
@@ -10059,90 +10191,97 @@
       </c>
       <c r="I253" s="32"/>
     </row>
-    <row r="254" spans="1:9" ht="165" x14ac:dyDescent="0.25">
-      <c r="A254" s="30" t="s">
-        <v>247</v>
-      </c>
-      <c r="B254" s="31" t="s">
-        <v>275</v>
-      </c>
-      <c r="C254" s="32" t="s">
-        <v>424</v>
-      </c>
-      <c r="D254" s="30"/>
-      <c r="E254" s="30" t="s">
-        <v>19</v>
-      </c>
-      <c r="F254" s="30" t="s">
-        <v>3</v>
-      </c>
-      <c r="G254" s="30" t="s">
-        <v>15</v>
-      </c>
-      <c r="H254" s="30" t="s">
-        <v>21</v>
-      </c>
-      <c r="I254" s="32"/>
-    </row>
-    <row r="255" spans="1:9" ht="409.5" x14ac:dyDescent="0.25">
-      <c r="A255" s="30" t="s">
-        <v>248</v>
-      </c>
-      <c r="B255" s="31" t="s">
-        <v>276</v>
-      </c>
-      <c r="C255" s="32" t="s">
-        <v>425</v>
-      </c>
-      <c r="D255" s="30"/>
-      <c r="E255" s="30" t="s">
-        <v>19</v>
-      </c>
-      <c r="F255" s="30" t="s">
-        <v>3</v>
-      </c>
-      <c r="G255" s="30" t="s">
-        <v>15</v>
-      </c>
-      <c r="H255" s="30" t="s">
-        <v>21</v>
-      </c>
-      <c r="I255" s="32"/>
-    </row>
-    <row r="256" spans="1:9" ht="120" x14ac:dyDescent="0.25">
-      <c r="A256" s="30" t="s">
-        <v>249</v>
-      </c>
-      <c r="B256" s="31" t="s">
-        <v>277</v>
-      </c>
-      <c r="C256" s="32" t="s">
-        <v>426</v>
-      </c>
-      <c r="D256" s="30"/>
-      <c r="E256" s="30" t="s">
-        <v>19</v>
-      </c>
-      <c r="F256" s="30" t="s">
-        <v>3</v>
-      </c>
-      <c r="G256" s="30" t="s">
-        <v>15</v>
-      </c>
-      <c r="H256" s="30" t="s">
-        <v>21</v>
-      </c>
-      <c r="I256" s="32"/>
+    <row r="254" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="A254" s="22" t="s">
+        <v>536</v>
+      </c>
+      <c r="B254" s="24" t="s">
+        <v>537</v>
+      </c>
+      <c r="C254" s="20" t="s">
+        <v>560</v>
+      </c>
+      <c r="D254" s="22"/>
+      <c r="E254" s="22" t="s">
+        <v>19</v>
+      </c>
+      <c r="F254" s="22" t="s">
+        <v>3</v>
+      </c>
+      <c r="G254" s="22" t="s">
+        <v>15</v>
+      </c>
+      <c r="H254" s="22" t="s">
+        <v>20</v>
+      </c>
+      <c r="I254" s="20"/>
+      <c r="J254"/>
+    </row>
+    <row r="255" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="A255" s="22" t="s">
+        <v>558</v>
+      </c>
+      <c r="B255" s="24" t="s">
+        <v>537</v>
+      </c>
+      <c r="C255" s="20" t="s">
+        <v>538</v>
+      </c>
+      <c r="D255" s="22" t="s">
+        <v>539</v>
+      </c>
+      <c r="E255" s="22" t="s">
+        <v>19</v>
+      </c>
+      <c r="F255" s="22" t="s">
+        <v>3</v>
+      </c>
+      <c r="G255" s="22" t="s">
+        <v>15</v>
+      </c>
+      <c r="H255" s="22" t="s">
+        <v>20</v>
+      </c>
+      <c r="I255" s="20"/>
+      <c r="J255"/>
+    </row>
+    <row r="256" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="A256" s="22" t="s">
+        <v>559</v>
+      </c>
+      <c r="B256" s="24" t="s">
+        <v>537</v>
+      </c>
+      <c r="C256" s="20" t="s">
+        <v>540</v>
+      </c>
+      <c r="D256" s="22" t="s">
+        <v>539</v>
+      </c>
+      <c r="E256" s="22" t="s">
+        <v>19</v>
+      </c>
+      <c r="F256" s="22" t="s">
+        <v>3</v>
+      </c>
+      <c r="G256" s="22" t="s">
+        <v>15</v>
+      </c>
+      <c r="H256" s="22" t="s">
+        <v>20</v>
+      </c>
+      <c r="I256" s="20"/>
+      <c r="J256"/>
     </row>
     <row r="257" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="A257" s="22" t="s">
-        <v>563</v>
+        <v>542</v>
       </c>
       <c r="B257" s="24" t="s">
-        <v>564</v>
+        <v>537</v>
       </c>
       <c r="C257" s="20" t="s">
-        <v>589</v>
+        <v>543</v>
       </c>
       <c r="D257" s="22"/>
       <c r="E257" s="22" t="s">
@@ -10155,26 +10294,22 @@
         <v>15</v>
       </c>
       <c r="H257" s="22" t="s">
-        <v>17</v>
-      </c>
-      <c r="I257" s="20" t="s">
-        <v>588</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="I257" s="20"/>
       <c r="J257"/>
     </row>
-    <row r="258" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="A258" s="22" t="s">
-        <v>586</v>
+        <v>545</v>
       </c>
       <c r="B258" s="24" t="s">
-        <v>564</v>
+        <v>537</v>
       </c>
       <c r="C258" s="20" t="s">
-        <v>565</v>
-      </c>
-      <c r="D258" s="22" t="s">
-        <v>566</v>
-      </c>
+        <v>546</v>
+      </c>
+      <c r="D258" s="22"/>
       <c r="E258" s="22" t="s">
         <v>19</v>
       </c>
@@ -10192,17 +10327,15 @@
     </row>
     <row r="259" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A259" s="22" t="s">
-        <v>587</v>
+        <v>550</v>
       </c>
       <c r="B259" s="24" t="s">
-        <v>564</v>
+        <v>537</v>
       </c>
       <c r="C259" s="20" t="s">
-        <v>567</v>
-      </c>
-      <c r="D259" s="22" t="s">
-        <v>566</v>
-      </c>
+        <v>551</v>
+      </c>
+      <c r="D259" s="22"/>
       <c r="E259" s="22" t="s">
         <v>19</v>
       </c>
@@ -10218,17 +10351,19 @@
       <c r="I259" s="20"/>
       <c r="J259"/>
     </row>
-    <row r="260" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A260" s="22" t="s">
-        <v>569</v>
+        <v>552</v>
       </c>
       <c r="B260" s="24" t="s">
-        <v>564</v>
+        <v>537</v>
       </c>
       <c r="C260" s="20" t="s">
-        <v>570</v>
-      </c>
-      <c r="D260" s="22"/>
+        <v>553</v>
+      </c>
+      <c r="D260" s="22" t="s">
+        <v>554</v>
+      </c>
       <c r="E260" s="22" t="s">
         <v>19</v>
       </c>
@@ -10244,17 +10379,19 @@
       <c r="I260" s="20"/>
       <c r="J260"/>
     </row>
-    <row r="261" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A261" s="22" t="s">
-        <v>572</v>
+        <v>555</v>
       </c>
       <c r="B261" s="24" t="s">
-        <v>564</v>
+        <v>537</v>
       </c>
       <c r="C261" s="20" t="s">
-        <v>573</v>
-      </c>
-      <c r="D261" s="22"/>
+        <v>556</v>
+      </c>
+      <c r="D261" s="22" t="s">
+        <v>554</v>
+      </c>
       <c r="E261" s="22" t="s">
         <v>19</v>
       </c>
@@ -10270,103 +10407,94 @@
       <c r="I261" s="20"/>
       <c r="J261"/>
     </row>
-    <row r="262" spans="1:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="A262" s="22" t="s">
-        <v>579</v>
-      </c>
-      <c r="B262" s="24" t="s">
-        <v>564</v>
-      </c>
-      <c r="C262" s="20" t="s">
-        <v>580</v>
-      </c>
-      <c r="D262" s="22" t="s">
-        <v>581</v>
-      </c>
-      <c r="E262" s="22" t="s">
-        <v>19</v>
-      </c>
-      <c r="F262" s="22" t="s">
-        <v>3</v>
-      </c>
-      <c r="G262" s="22" t="s">
-        <v>15</v>
-      </c>
-      <c r="H262" s="22" t="s">
-        <v>20</v>
-      </c>
-      <c r="I262" s="20"/>
-      <c r="J262"/>
-    </row>
-    <row r="263" spans="1:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="A263" s="22" t="s">
-        <v>582</v>
-      </c>
-      <c r="B263" s="24" t="s">
-        <v>564</v>
-      </c>
-      <c r="C263" s="20" t="s">
-        <v>583</v>
-      </c>
-      <c r="D263" s="22" t="s">
-        <v>581</v>
-      </c>
-      <c r="E263" s="22" t="s">
-        <v>19</v>
-      </c>
-      <c r="F263" s="22" t="s">
-        <v>3</v>
-      </c>
-      <c r="G263" s="22" t="s">
-        <v>15</v>
-      </c>
-      <c r="H263" s="22" t="s">
-        <v>20</v>
-      </c>
-      <c r="I263" s="20"/>
-      <c r="J263"/>
-    </row>
-    <row r="264" spans="1:10" ht="45" x14ac:dyDescent="0.25">
-      <c r="A264" s="22" t="s">
-        <v>577</v>
-      </c>
-      <c r="B264" s="24" t="s">
-        <v>564</v>
-      </c>
-      <c r="C264" s="20" t="s">
-        <v>578</v>
-      </c>
-      <c r="D264" s="22"/>
-      <c r="E264" s="22" t="s">
-        <v>19</v>
-      </c>
-      <c r="F264" s="22" t="s">
-        <v>3</v>
-      </c>
-      <c r="G264" s="22" t="s">
-        <v>15</v>
-      </c>
-      <c r="H264" s="22" t="s">
-        <v>17</v>
-      </c>
-      <c r="I264" s="20" t="s">
-        <v>584</v>
-      </c>
-      <c r="J264"/>
+    <row r="262" spans="1:10" ht="165" x14ac:dyDescent="0.25">
+      <c r="A262" s="30" t="s">
+        <v>247</v>
+      </c>
+      <c r="B262" s="31" t="s">
+        <v>275</v>
+      </c>
+      <c r="C262" s="32" t="s">
+        <v>424</v>
+      </c>
+      <c r="D262" s="30"/>
+      <c r="E262" s="30" t="s">
+        <v>19</v>
+      </c>
+      <c r="F262" s="30" t="s">
+        <v>3</v>
+      </c>
+      <c r="G262" s="30" t="s">
+        <v>15</v>
+      </c>
+      <c r="H262" s="30" t="s">
+        <v>21</v>
+      </c>
+      <c r="I262" s="32"/>
+    </row>
+    <row r="263" spans="1:10" ht="409.5" x14ac:dyDescent="0.25">
+      <c r="A263" s="30" t="s">
+        <v>248</v>
+      </c>
+      <c r="B263" s="31" t="s">
+        <v>276</v>
+      </c>
+      <c r="C263" s="32" t="s">
+        <v>425</v>
+      </c>
+      <c r="D263" s="30"/>
+      <c r="E263" s="30" t="s">
+        <v>19</v>
+      </c>
+      <c r="F263" s="30" t="s">
+        <v>3</v>
+      </c>
+      <c r="G263" s="30" t="s">
+        <v>15</v>
+      </c>
+      <c r="H263" s="30" t="s">
+        <v>21</v>
+      </c>
+      <c r="I263" s="32"/>
+    </row>
+    <row r="264" spans="1:10" ht="120" x14ac:dyDescent="0.25">
+      <c r="A264" s="30" t="s">
+        <v>249</v>
+      </c>
+      <c r="B264" s="31" t="s">
+        <v>277</v>
+      </c>
+      <c r="C264" s="32" t="s">
+        <v>426</v>
+      </c>
+      <c r="D264" s="30"/>
+      <c r="E264" s="30" t="s">
+        <v>19</v>
+      </c>
+      <c r="F264" s="30" t="s">
+        <v>3</v>
+      </c>
+      <c r="G264" s="30" t="s">
+        <v>15</v>
+      </c>
+      <c r="H264" s="30" t="s">
+        <v>21</v>
+      </c>
+      <c r="I264" s="32"/>
     </row>
     <row r="265" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="A265" s="22" t="s">
-        <v>590</v>
+        <v>561</v>
       </c>
       <c r="B265" s="24" t="s">
-        <v>591</v>
+        <v>562</v>
       </c>
       <c r="C265" s="20" t="s">
-        <v>593</v>
+        <v>564</v>
       </c>
       <c r="D265" s="22"/>
-      <c r="E265" s="22" t="s">
-        <v>19</v>
+      <c r="E265" s="30" t="s">
+        <v>22</v>
       </c>
       <c r="F265" s="22" t="s">
         <v>3</v>
@@ -10388,6 +10516,11 @@
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="A4:G4"/>
+    <mergeCell ref="B8:I8"/>
+    <mergeCell ref="B7:I7"/>
+    <mergeCell ref="B6:I6"/>
+    <mergeCell ref="B5:I5"/>
     <mergeCell ref="B11:I11"/>
     <mergeCell ref="D12:I15"/>
     <mergeCell ref="B16:I16"/>
@@ -10395,272 +10528,355 @@
     <mergeCell ref="B9:I9"/>
     <mergeCell ref="B10:I10"/>
     <mergeCell ref="B17:I17"/>
-    <mergeCell ref="A4:G4"/>
-    <mergeCell ref="B8:I8"/>
-    <mergeCell ref="B7:I7"/>
-    <mergeCell ref="B6:I6"/>
-    <mergeCell ref="B5:I5"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
-  <conditionalFormatting sqref="A20:I255 A262:I263">
-    <cfRule type="expression" dxfId="88" priority="139">
+  <conditionalFormatting sqref="A260:I263 A252:I253 A251:H251 A20:I250">
+    <cfRule type="expression" dxfId="93" priority="163">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Section Deleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="87" priority="140">
+    <cfRule type="expression" dxfId="92" priority="164">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Deleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="86" priority="147">
+    <cfRule type="expression" dxfId="91" priority="171">
       <formula>EXACT(INDIRECT("L"&amp;ROW()),"Deleted")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A20:I255 A262:I263">
-    <cfRule type="expression" dxfId="85" priority="93">
+  <conditionalFormatting sqref="A260:I263 A252:I253 A251:H251 A20:I250">
+    <cfRule type="expression" dxfId="90" priority="117">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"SectionDeleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="84" priority="94">
+    <cfRule type="expression" dxfId="89" priority="118">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Deleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="83" priority="95">
+    <cfRule type="expression" dxfId="88" priority="119">
       <formula>EXACT(INDIRECT("L"&amp;ROW()),"Deleted")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F20:F255 F262:F263">
-    <cfRule type="expression" dxfId="82" priority="99">
+  <conditionalFormatting sqref="F20:F253 F260:F263">
+    <cfRule type="expression" dxfId="87" priority="123">
       <formula>NOT(VLOOKUP(F20,$A$12:$C$15,2,FALSE)="In")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="81" priority="100">
+    <cfRule type="expression" dxfId="86" priority="124">
       <formula>(VLOOKUP(F20,$A$12:$C$15,2,FALSE)="In")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A260:I260">
-    <cfRule type="expression" dxfId="80" priority="44">
+  <conditionalFormatting sqref="A257:I257">
+    <cfRule type="expression" dxfId="85" priority="68">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Section Deleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="79" priority="45">
+    <cfRule type="expression" dxfId="84" priority="69">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Deleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="78" priority="46">
-      <formula>EXACT(INDIRECT("L"&amp;ROW()),"Deleted")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A260:I260">
-    <cfRule type="expression" dxfId="77" priority="39">
-      <formula>EXACT(INDIRECT("P"&amp;ROW()),"SectionDeleted")</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="76" priority="40">
-      <formula>EXACT(INDIRECT("P"&amp;ROW()),"Deleted")</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="75" priority="41">
-      <formula>EXACT(INDIRECT("L"&amp;ROW()),"Deleted")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F260">
-    <cfRule type="expression" dxfId="74" priority="42">
-      <formula>NOT(VLOOKUP(F260,$A$12:$C$15,2,FALSE)="In")</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="73" priority="43">
-      <formula>(VLOOKUP(F260,$A$12:$C$15,2,FALSE)="In")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A256:I256">
-    <cfRule type="expression" dxfId="72" priority="76">
-      <formula>EXACT(INDIRECT("P"&amp;ROW()),"Section Deleted")</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="71" priority="77">
-      <formula>EXACT(INDIRECT("P"&amp;ROW()),"Deleted")</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="70" priority="78">
-      <formula>EXACT(INDIRECT("L"&amp;ROW()),"Deleted")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A256:I256">
-    <cfRule type="expression" dxfId="69" priority="71">
-      <formula>EXACT(INDIRECT("P"&amp;ROW()),"SectionDeleted")</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="68" priority="72">
-      <formula>EXACT(INDIRECT("P"&amp;ROW()),"Deleted")</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="67" priority="73">
-      <formula>EXACT(INDIRECT("L"&amp;ROW()),"Deleted")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F256">
-    <cfRule type="expression" dxfId="66" priority="74">
-      <formula>NOT(VLOOKUP(F256,$A$12:$C$15,2,FALSE)="In")</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="65" priority="75">
-      <formula>(VLOOKUP(F256,$A$12:$C$15,2,FALSE)="In")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A257:I257">
-    <cfRule type="expression" dxfId="64" priority="60">
-      <formula>EXACT(INDIRECT("P"&amp;ROW()),"Section Deleted")</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="63" priority="61">
-      <formula>EXACT(INDIRECT("P"&amp;ROW()),"Deleted")</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="62" priority="62">
+    <cfRule type="expression" dxfId="83" priority="70">
       <formula>EXACT(INDIRECT("L"&amp;ROW()),"Deleted")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A257:I257">
-    <cfRule type="expression" dxfId="61" priority="55">
+    <cfRule type="expression" dxfId="82" priority="63">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"SectionDeleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="60" priority="56">
+    <cfRule type="expression" dxfId="81" priority="64">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Deleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="59" priority="57">
+    <cfRule type="expression" dxfId="80" priority="65">
       <formula>EXACT(INDIRECT("L"&amp;ROW()),"Deleted")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F257">
-    <cfRule type="expression" dxfId="58" priority="58">
+    <cfRule type="expression" dxfId="79" priority="66">
       <formula>NOT(VLOOKUP(F257,$A$12:$C$15,2,FALSE)="In")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="57" priority="59">
+    <cfRule type="expression" dxfId="78" priority="67">
       <formula>(VLOOKUP(F257,$A$12:$C$15,2,FALSE)="In")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A258:I259">
-    <cfRule type="expression" dxfId="56" priority="52">
+  <conditionalFormatting sqref="A264:I264">
+    <cfRule type="expression" dxfId="77" priority="100">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Section Deleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="55" priority="53">
+    <cfRule type="expression" dxfId="76" priority="101">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Deleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="54" priority="54">
-      <formula>EXACT(INDIRECT("L"&amp;ROW()),"Deleted")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A258:I259">
-    <cfRule type="expression" dxfId="53" priority="47">
-      <formula>EXACT(INDIRECT("P"&amp;ROW()),"SectionDeleted")</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="52" priority="48">
-      <formula>EXACT(INDIRECT("P"&amp;ROW()),"Deleted")</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="51" priority="49">
-      <formula>EXACT(INDIRECT("L"&amp;ROW()),"Deleted")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F258:F259">
-    <cfRule type="expression" dxfId="50" priority="50">
-      <formula>NOT(VLOOKUP(F258,$A$12:$C$15,2,FALSE)="In")</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="49" priority="51">
-      <formula>(VLOOKUP(F258,$A$12:$C$15,2,FALSE)="In")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A261:I261">
-    <cfRule type="expression" dxfId="48" priority="36">
-      <formula>EXACT(INDIRECT("P"&amp;ROW()),"Section Deleted")</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="47" priority="37">
-      <formula>EXACT(INDIRECT("P"&amp;ROW()),"Deleted")</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="46" priority="38">
-      <formula>EXACT(INDIRECT("L"&amp;ROW()),"Deleted")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A261:I261">
-    <cfRule type="expression" dxfId="45" priority="31">
-      <formula>EXACT(INDIRECT("P"&amp;ROW()),"SectionDeleted")</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="44" priority="32">
-      <formula>EXACT(INDIRECT("P"&amp;ROW()),"Deleted")</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="43" priority="33">
-      <formula>EXACT(INDIRECT("L"&amp;ROW()),"Deleted")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F261">
-    <cfRule type="expression" dxfId="42" priority="34">
-      <formula>NOT(VLOOKUP(F261,$A$12:$C$15,2,FALSE)="In")</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="41" priority="35">
-      <formula>(VLOOKUP(F261,$A$12:$C$15,2,FALSE)="In")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A264:I264">
-    <cfRule type="expression" dxfId="40" priority="20">
-      <formula>EXACT(INDIRECT("P"&amp;ROW()),"Section Deleted")</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="39" priority="21">
-      <formula>EXACT(INDIRECT("P"&amp;ROW()),"Deleted")</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="38" priority="22">
+    <cfRule type="expression" dxfId="75" priority="102">
       <formula>EXACT(INDIRECT("L"&amp;ROW()),"Deleted")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A264:I264">
-    <cfRule type="expression" dxfId="37" priority="15">
+    <cfRule type="expression" dxfId="74" priority="95">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"SectionDeleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="36" priority="16">
+    <cfRule type="expression" dxfId="73" priority="96">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Deleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="35" priority="17">
+    <cfRule type="expression" dxfId="72" priority="97">
       <formula>EXACT(INDIRECT("L"&amp;ROW()),"Deleted")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F264">
-    <cfRule type="expression" dxfId="34" priority="18">
+    <cfRule type="expression" dxfId="71" priority="98">
       <formula>NOT(VLOOKUP(F264,$A$12:$C$15,2,FALSE)="In")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="33" priority="19">
+    <cfRule type="expression" dxfId="70" priority="99">
       <formula>(VLOOKUP(F264,$A$12:$C$15,2,FALSE)="In")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A265:H265">
-    <cfRule type="expression" dxfId="32" priority="12">
+  <conditionalFormatting sqref="A254:G254 I254">
+    <cfRule type="expression" dxfId="69" priority="84">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Section Deleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="31" priority="13">
+    <cfRule type="expression" dxfId="68" priority="85">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Deleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="30" priority="14">
+    <cfRule type="expression" dxfId="67" priority="86">
       <formula>EXACT(INDIRECT("L"&amp;ROW()),"Deleted")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A265:H265">
-    <cfRule type="expression" dxfId="29" priority="7">
+  <conditionalFormatting sqref="A254:G254 I254">
+    <cfRule type="expression" dxfId="66" priority="79">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"SectionDeleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="28" priority="8">
+    <cfRule type="expression" dxfId="65" priority="80">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Deleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="27" priority="9">
+    <cfRule type="expression" dxfId="64" priority="81">
+      <formula>EXACT(INDIRECT("L"&amp;ROW()),"Deleted")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F254">
+    <cfRule type="expression" dxfId="63" priority="82">
+      <formula>NOT(VLOOKUP(F254,$A$12:$C$15,2,FALSE)="In")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="62" priority="83">
+      <formula>(VLOOKUP(F254,$A$12:$C$15,2,FALSE)="In")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A255:I256">
+    <cfRule type="expression" dxfId="61" priority="76">
+      <formula>EXACT(INDIRECT("P"&amp;ROW()),"Section Deleted")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="60" priority="77">
+      <formula>EXACT(INDIRECT("P"&amp;ROW()),"Deleted")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="59" priority="78">
+      <formula>EXACT(INDIRECT("L"&amp;ROW()),"Deleted")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A255:I256">
+    <cfRule type="expression" dxfId="58" priority="71">
+      <formula>EXACT(INDIRECT("P"&amp;ROW()),"SectionDeleted")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="57" priority="72">
+      <formula>EXACT(INDIRECT("P"&amp;ROW()),"Deleted")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="56" priority="73">
+      <formula>EXACT(INDIRECT("L"&amp;ROW()),"Deleted")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F255:F256">
+    <cfRule type="expression" dxfId="55" priority="74">
+      <formula>NOT(VLOOKUP(F255,$A$12:$C$15,2,FALSE)="In")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="54" priority="75">
+      <formula>(VLOOKUP(F255,$A$12:$C$15,2,FALSE)="In")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A258:I258">
+    <cfRule type="expression" dxfId="53" priority="60">
+      <formula>EXACT(INDIRECT("P"&amp;ROW()),"Section Deleted")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="52" priority="61">
+      <formula>EXACT(INDIRECT("P"&amp;ROW()),"Deleted")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="51" priority="62">
+      <formula>EXACT(INDIRECT("L"&amp;ROW()),"Deleted")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A258:I258">
+    <cfRule type="expression" dxfId="50" priority="55">
+      <formula>EXACT(INDIRECT("P"&amp;ROW()),"SectionDeleted")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="49" priority="56">
+      <formula>EXACT(INDIRECT("P"&amp;ROW()),"Deleted")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="48" priority="57">
+      <formula>EXACT(INDIRECT("L"&amp;ROW()),"Deleted")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F258">
+    <cfRule type="expression" dxfId="47" priority="58">
+      <formula>NOT(VLOOKUP(F258,$A$12:$C$15,2,FALSE)="In")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="46" priority="59">
+      <formula>(VLOOKUP(F258,$A$12:$C$15,2,FALSE)="In")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A259:G259 I259">
+    <cfRule type="expression" dxfId="45" priority="44">
+      <formula>EXACT(INDIRECT("P"&amp;ROW()),"Section Deleted")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="44" priority="45">
+      <formula>EXACT(INDIRECT("P"&amp;ROW()),"Deleted")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="43" priority="46">
+      <formula>EXACT(INDIRECT("L"&amp;ROW()),"Deleted")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A259:G259 I259">
+    <cfRule type="expression" dxfId="42" priority="39">
+      <formula>EXACT(INDIRECT("P"&amp;ROW()),"SectionDeleted")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="41" priority="40">
+      <formula>EXACT(INDIRECT("P"&amp;ROW()),"Deleted")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="40" priority="41">
+      <formula>EXACT(INDIRECT("L"&amp;ROW()),"Deleted")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F259">
+    <cfRule type="expression" dxfId="39" priority="42">
+      <formula>NOT(VLOOKUP(F259,$A$12:$C$15,2,FALSE)="In")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="38" priority="43">
+      <formula>(VLOOKUP(F259,$A$12:$C$15,2,FALSE)="In")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A265:D265 F265:H265">
+    <cfRule type="expression" dxfId="37" priority="36">
+      <formula>EXACT(INDIRECT("P"&amp;ROW()),"Section Deleted")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="36" priority="37">
+      <formula>EXACT(INDIRECT("P"&amp;ROW()),"Deleted")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="35" priority="38">
+      <formula>EXACT(INDIRECT("L"&amp;ROW()),"Deleted")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A265:D265 F265:H265">
+    <cfRule type="expression" dxfId="34" priority="31">
+      <formula>EXACT(INDIRECT("P"&amp;ROW()),"SectionDeleted")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="33" priority="32">
+      <formula>EXACT(INDIRECT("P"&amp;ROW()),"Deleted")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="32" priority="33">
       <formula>EXACT(INDIRECT("L"&amp;ROW()),"Deleted")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F265">
-    <cfRule type="expression" dxfId="26" priority="10">
+    <cfRule type="expression" dxfId="31" priority="34">
       <formula>NOT(VLOOKUP(F265,$A$12:$C$15,2,FALSE)="In")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="25" priority="11">
+    <cfRule type="expression" dxfId="30" priority="35">
       <formula>(VLOOKUP(F265,$A$12:$C$15,2,FALSE)="In")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I265">
-    <cfRule type="expression" dxfId="24" priority="4">
+    <cfRule type="expression" dxfId="29" priority="28">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Section Deleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="23" priority="5">
+    <cfRule type="expression" dxfId="28" priority="29">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Deleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="22" priority="6">
+    <cfRule type="expression" dxfId="27" priority="30">
       <formula>EXACT(INDIRECT("L"&amp;ROW()),"Deleted")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I265">
-    <cfRule type="expression" dxfId="21" priority="1">
+    <cfRule type="expression" dxfId="26" priority="25">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"SectionDeleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="20" priority="2">
+    <cfRule type="expression" dxfId="25" priority="26">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Deleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="19" priority="3">
+    <cfRule type="expression" dxfId="24" priority="27">
+      <formula>EXACT(INDIRECT("L"&amp;ROW()),"Deleted")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H254">
+    <cfRule type="expression" dxfId="23" priority="22">
+      <formula>EXACT(INDIRECT("P"&amp;ROW()),"Section Deleted")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="22" priority="23">
+      <formula>EXACT(INDIRECT("P"&amp;ROW()),"Deleted")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="21" priority="24">
+      <formula>EXACT(INDIRECT("L"&amp;ROW()),"Deleted")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H254">
+    <cfRule type="expression" dxfId="20" priority="19">
+      <formula>EXACT(INDIRECT("P"&amp;ROW()),"SectionDeleted")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="19" priority="20">
+      <formula>EXACT(INDIRECT("P"&amp;ROW()),"Deleted")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="18" priority="21">
+      <formula>EXACT(INDIRECT("L"&amp;ROW()),"Deleted")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H259">
+    <cfRule type="expression" dxfId="17" priority="16">
+      <formula>EXACT(INDIRECT("P"&amp;ROW()),"Section Deleted")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="16" priority="17">
+      <formula>EXACT(INDIRECT("P"&amp;ROW()),"Deleted")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="15" priority="18">
+      <formula>EXACT(INDIRECT("L"&amp;ROW()),"Deleted")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H259">
+    <cfRule type="expression" dxfId="14" priority="13">
+      <formula>EXACT(INDIRECT("P"&amp;ROW()),"SectionDeleted")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="13" priority="14">
+      <formula>EXACT(INDIRECT("P"&amp;ROW()),"Deleted")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="12" priority="15">
+      <formula>EXACT(INDIRECT("L"&amp;ROW()),"Deleted")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E265">
+    <cfRule type="expression" dxfId="11" priority="10">
+      <formula>EXACT(INDIRECT("P"&amp;ROW()),"Section Deleted")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="10" priority="11">
+      <formula>EXACT(INDIRECT("P"&amp;ROW()),"Deleted")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="9" priority="12">
+      <formula>EXACT(INDIRECT("L"&amp;ROW()),"Deleted")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E265">
+    <cfRule type="expression" dxfId="8" priority="7">
+      <formula>EXACT(INDIRECT("P"&amp;ROW()),"SectionDeleted")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="7" priority="8">
+      <formula>EXACT(INDIRECT("P"&amp;ROW()),"Deleted")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="6" priority="9">
+      <formula>EXACT(INDIRECT("L"&amp;ROW()),"Deleted")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I251">
+    <cfRule type="expression" dxfId="5" priority="4">
+      <formula>EXACT(INDIRECT("P"&amp;ROW()),"Section Deleted")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="4" priority="5">
+      <formula>EXACT(INDIRECT("P"&amp;ROW()),"Deleted")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="6">
+      <formula>EXACT(INDIRECT("L"&amp;ROW()),"Deleted")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I251">
+    <cfRule type="expression" dxfId="2" priority="1">
+      <formula>EXACT(INDIRECT("P"&amp;ROW()),"SectionDeleted")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="1" priority="2">
+      <formula>EXACT(INDIRECT("P"&amp;ROW()),"Deleted")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="0" priority="3">
       <formula>EXACT(INDIRECT("L"&amp;ROW()),"Deleted")</formula>
     </cfRule>
   </conditionalFormatting>
@@ -10678,10 +10894,10 @@
       <formula1>"In, Out"</formula1>
     </dataValidation>
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C3"/>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H20:H256">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H20:H253 H262:H264">
       <formula1>"Non-testable, Unverified, Adapter, Test Case"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H257:H265">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H265 H254:H261">
       <formula1>"Message Deserialization, Non-testable, Unverified, Adapter, Test Case"</formula1>
     </dataValidation>
   </dataValidations>
@@ -10691,7 +10907,7 @@
     <oddFooter>&amp;F&amp;RPage &amp;P</oddFooter>
   </headerFooter>
   <ignoredErrors>
-    <ignoredError sqref="B1:B9 C3 B11:B16 B18:B21 B24:B30 B32:B118 B120:B121 B129:B162 B241:B243 B266 B250:B255" numberStoredAsText="1"/>
+    <ignoredError sqref="B1:B9 C3 B11:B16 B18:B21 B24:B30 B32:B118 B120:B121 B129:B162 B241:B243 B266 B262:B263 B250:B253" numberStoredAsText="1"/>
   </ignoredErrors>
   <tableParts count="2">
     <tablePart r:id="rId2"/>
@@ -10701,6 +10917,12 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100F2EA47BB262D974097182E2CA8AB13E1" ma:contentTypeVersion="2" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="74597e8d9e42e7e4fc8eda6d37675aa2">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="4aeb20c0e3442673af7ee10786458764">
     <xsd:element name="properties">
@@ -10749,12 +10971,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance">
-  <documentManagement/>
-</p:properties>
-</file>
-
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
@@ -10765,6 +10981,20 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{923F65C5-DEAB-400B-AA1F-124F40EE10AC}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{EDB2DE12-5EF6-4CF2-820D-5F9FE329E08E}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -10779,20 +11009,6 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{923F65C5-DEAB-400B-AA1F-124F40EE10AC}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B6D33261-F3C6-4621-88F1-D76E5ABE1865}">
   <ds:schemaRefs>

--- a/ExchangeWebServices/Docs/MS-OXWSMSG/MS-OXWSMSG_RequirementSpecification.xlsx
+++ b/ExchangeWebServices/Docs/MS-OXWSMSG/MS-OXWSMSG_RequirementSpecification.xlsx
@@ -1,13 +1,8 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
-  <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Work\Interop_TestSuites\ExchangeWebServices\Docs\MS-OXWSMSG\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="16729"/>
+  <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="-15" yWindow="60" windowWidth="15405" windowHeight="6900" tabRatio="570"/>
   </bookViews>
@@ -33,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1800" uniqueCount="590">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1802" uniqueCount="595">
   <si>
     <t>Req ID</t>
   </si>
@@ -1697,85 +1692,7 @@
     </r>
   </si>
   <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>Test Case:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> Indicates that a requirement will be captured in Test Case code.
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>Adapter:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> Indicates that a requirement will be captured in Adapter code.
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>Non-testable:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">  Indicates that a requirement is not testable. It can not be verified by generating and observing data on the wire.
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>Unverified:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> Indicates that a requirement is verifiable, but choose not to test because of cost or other reason.</t>
-    </r>
+    <t>[In Transport] This protocol uses SOAP 1.1.</t>
   </si>
   <si>
     <t>The endpoint URL that is returned by either the Autodiscover Publishing Lookup SOAP-Based Web Service Protocol,as specified by [MS-OXWSADISC], or the Autodiscover Publishing and Lookup Protocol, as specified by [MS-OXDSCLI], is required to form the HTTP request to the Web server that hosts this protocol.</t>
@@ -1812,6 +1729,9 @@
   </si>
   <si>
     <t>[In t:MessageType Complex Type] The MessageType complex type represents a server email message in a mailbox.</t>
+  </si>
+  <si>
+    <t>[In t:MessageType Complex Type] The MessageType complex type extends the ItemType complex type ([MS-OXWSCORE] section 2.2.4.24).</t>
   </si>
   <si>
     <t>[In t:MessageType Complex Type] The MessageType schema is &lt;xs:complexType name="MessageType"&gt;
@@ -1908,6 +1828,15 @@
     <t>[In t:MessageType Complex Type] ToRecipients element is t:ArrayOfRecipientsType ([MS-OXWSCDATA] section 2.2.4.11) type.</t>
   </si>
   <si>
+    <t>[In t:MessageType Complex Type] ToRecipients element Specifies a collection of recipients of an email.</t>
+  </si>
+  <si>
+    <t>[In t:MessageType Complex Type] BccRecipients element Specifies a collection of recipients that receive a blind carbon copy (Bcc) of an email.</t>
+  </si>
+  <si>
+    <t>[In t:MessageType Complex Type] CcRecipients element Specifies a collection of recipients that receive a carbon copy (Cc) of an email.</t>
+  </si>
+  <si>
     <t>[In t:MessageType Complex Type] ConversationIndex element is xs:base64Binary ([XMLSCHEMA2] sec 3.2.16) type.</t>
   </si>
   <si>
@@ -1926,6 +1855,9 @@
     <t>[In t:MessageType Complex Type] IsResponseRequested element Specifies a Boolean value that indicates whether a response to an email has been requested.</t>
   </si>
   <si>
+    <t xml:space="preserve">[In t:MessageType Complex Type] ReplyTo element Specifies a collection of addresses to send replies to. </t>
+  </si>
+  <si>
     <t>[In t:MessageType Complex Type] [ReceivedBy element] This element is read-only.</t>
   </si>
   <si>
@@ -1959,6 +1891,9 @@
     <t>MS-OXWSMSG_R73002</t>
   </si>
   <si>
+    <t>MS-OXWSMSG_R73003</t>
+  </si>
+  <si>
     <t>MS-OXWSMSG_R73004</t>
   </si>
   <si>
@@ -1971,6 +1906,21 @@
     <t>MS-OXWSMSG_R73007</t>
   </si>
   <si>
+    <t>[In t:MessageDispositionType Simple Type] The value "SaveOnly" means when used in the CreateItemType complex type ([MS-OXWSCORE] section 3.1.4.2.3.2), the email message item is saved in the folder that is specified by the TargetFolderIdType complex type ([MS-OXWSFOLD] section 2.2.4.16).</t>
+  </si>
+  <si>
+    <t>[In t:MessageDispositionType Simple Type] The value "SendOnly" means when used in the CreateItemType complex type, the email message item is sent.</t>
+  </si>
+  <si>
+    <t>[In t:MessageDispositionType Simple Type] The value "SendOnly" means when used in the CreateItemType complex type, the email message item [is sent] but no copy is saved.</t>
+  </si>
+  <si>
+    <t>[In t:MessageDispositionType Simple Type] The value "SendAndSaveCopy" means when used in the CreateItemType complex type, the email message item is sent.</t>
+  </si>
+  <si>
+    <t>[In t:MessageDispositionType Simple Type] The value "SendAndSaveCopy" means when used in the CreateItemType complex type, the email message item [is sent] and a copy is saved in the TargetFolderIdType complex type.</t>
+  </si>
+  <si>
     <t>[In ExchangeServicePortType Server Details] The EMail Message Types Items Web Service Protocol defines a single port type with seven operations.</t>
   </si>
   <si>
@@ -1998,6 +1948,12 @@
     <t>[In CopyItem] The CopyItem operation copies email messages on the server.</t>
   </si>
   <si>
+    <t xml:space="preserve">[In CopyItem] If the CreateItem WSDL operation request is successful, the server returns a CreateItemResponse element, as specified in [MS-OXWSCORE] section 3.1.4.2.2.2, with the ResponseClass attribute, as specified in [MS-OXWSCDATA] section 2.2.4.67, of the CreateItemResponseMessage element, as specified in [MS-OXWSCDATA] section 2.2.4.12, set to "Success". </t>
+  </si>
+  <si>
+    <t xml:space="preserve">[In CopyItem] [A successful CopyItem operation request returns a CopyItemResponse element] The ResponseCode element, as specified in [MS-OXWSCDATA] section 2.2.4.67, of the CreateItemResponseMessage element is set to "NoError". </t>
+  </si>
+  <si>
     <t xml:space="preserve">[In CopyItem] If the CreateItem WSDL operation is not successful, it returns a CreateItemResponse element with the ResponseClass attribute of the CreateItemResponseMessage element set to "Error". </t>
   </si>
   <si>
@@ -2013,6 +1969,12 @@
     <t>[In CreateItem] The CreateItem operation creates email messages.</t>
   </si>
   <si>
+    <t xml:space="preserve">[In CreateItem]If the CreateItem WSDL operation request is successful, the server returns a CreateItemResponse element, as specified in [MS-OXWSCORE] section 3.1.4.2.2.2, with the ResponseClass attribute, as specified in [MS-OXWSCDATA] section 2.2.4.67, of the CreateItemResponseMessage element, as specified in [MS-OXWSCDATA] section 2.2.4.12, set to "Success". </t>
+  </si>
+  <si>
+    <t xml:space="preserve">[In CreateItem] [A successful CreateItem operation request returns a CreateItemResponse element] The ResponseCode element, as specified in [MS-OXWSCDATA] section 2.2.4.67, of the CreateItemResponseMessage element is set to "NoError". </t>
+  </si>
+  <si>
     <t xml:space="preserve">[In CreateItem] If the CreateItem WSDL operation is not successful, it returns a CreateItemResponse element with the ResponseClass attribute of the CreateItemResponseMessage element set to "Error". </t>
   </si>
   <si>
@@ -2031,6 +1993,12 @@
     <t>[In DeleteItem] The DeleteItem operation deletes email messages from the server store.</t>
   </si>
   <si>
+    <t xml:space="preserve">[In DeleteItem] If the DeleteItem WSDL operation request is successful, the server returns a DeleteItemResponse element, as specified in [MS-OXWSCORE] section 3.1.4.3.2.2, with the ResponseClass attribute, as specified in [MS-OXWSCDATA] section 2.2.4.67, of the DeleteItemResponseMessage element, as specified in [MS-OXWSCDATA] section 2.2.4.12, set to "Success". </t>
+  </si>
+  <si>
+    <t xml:space="preserve">[In DeleteItem] [A successful DeleteItem operation request returns a DeleteItemResponse element] The ResponseCode element, as specified by [MS-OXWSCDATA] section 2.2.4.67, of the DeleteItemResponseMessage element is set to "NoError". </t>
+  </si>
+  <si>
     <t>[In DeleteItem] For more information, see DeleteItem as described in [MS-OXWSCORE] section 3.1.4.3.</t>
   </si>
   <si>
@@ -2049,6 +2017,12 @@
     <t>[In GetItem] The GetItem operation enables the user to get email messages and to access information about email messages.</t>
   </si>
   <si>
+    <t xml:space="preserve">[In GetItem] If the GetItem WSDL operation request is successful, the server returns a GetItemResponse element, as specified in [MS-OXWSCORE] section 3.1.4.4.2.2, with the ResponseClass attribute, as specified in [MS-OXWSCDATA] section 2.2.4.67, of the GetItemResponseMessage element, as specified in [MS-OXWSCDATA] section 2.2.4.12, set to "Success". </t>
+  </si>
+  <si>
+    <t xml:space="preserve">[In GetItem] [A successful GetItem operation request returns a GetItemResponse element] The ResponseCode element, as specified in [MS-OXWSCDATA] section 2.2.4.67, of the GetItemResponseMessage element is set to "NoError". </t>
+  </si>
+  <si>
     <t xml:space="preserve">[In GetItem] If the GetItem WSDL operation request is not successful, it returns a GetItemResponse element with the ResponseClass attribute of the GetItemResponseMessage element set to "Error". </t>
   </si>
   <si>
@@ -2064,6 +2038,12 @@
     <t>[In MoveItem] The MoveItem operation moves one or more email messages to a single destination folder.</t>
   </si>
   <si>
+    <t xml:space="preserve">[In MoveItem] If the MoveItem WSDL operation request is successful, the server returns a MoveItemResponse element, as specified in [MS-OXWSCORE] section 3.1.4.7.2.2, with the ResponseClass attribute, as specified in [MS-OXWSCDATA] section 2.2.4.67, of the MoveItemResponseMessage element, as specified in [MS-OXWSCDATA] section 2.2.4.12, set to "Success". </t>
+  </si>
+  <si>
+    <t xml:space="preserve">[In MoveItem] [A successful MoveItem operation request returns a MoveItemResponse element] The ResponseCode element, as specified in [MS-OXWSCDATA] section 2.2.4.67, of the MoveItemResponseMessage element is set to "NoError". </t>
+  </si>
+  <si>
     <t xml:space="preserve">[In MoveItem] If the MoveItem WSDL operation request is not successful, it returns a MoveItemResponse element with the ResponseClass attribute of the MoveItemResponseMessage element set to "Error". </t>
   </si>
   <si>
@@ -2079,6 +2059,12 @@
     <t xml:space="preserve">[In UpdateItem] The UpdateItem operation updates email message properties in the server store. </t>
   </si>
   <si>
+    <t xml:space="preserve">[In UpdateItem] If the UpdateItem WSDL operation request is successful, the server returns an UpdateItemResponse element, as specified in [MS-OXWSCORE] section 3.1.4.9.2.2, with the ResponseClass attribute, as specified in [MS-OXWSCDATA] section 2.2.4.67, of the UpdateItemResponseMessage element, as specified in [MS-OXWSCDATA] section 2.2.4.12, set to "Success". </t>
+  </si>
+  <si>
+    <t xml:space="preserve">[In UpdateItem] [A successful UpdateItem operation request returns an UpdateItemResponse element] The ResponseCode element, as specified in [MS-OXWSCDATA] section 2.2.4.67, of the UpdateItemResponseMessage element is set to "NoError". </t>
+  </si>
+  <si>
     <t xml:space="preserve">[In UpdateItem] If the UpdateItem WSDL operation request is not successful, it returns an UpdateItemResponse element with the ResponseClass attribute of the UpdateItemResponseMessage element set to "Error". </t>
   </si>
   <si>
@@ -2200,6 +2186,9 @@
   </si>
   <si>
     <t>[In t:ItemResponseShapeType Complex Type] otherwise [FilterHtmlContent is] false, specifies [HTML content filtering is not enabled].</t>
+  </si>
+  <si>
+    <t>Verified by derived requirements: MS-OXWSMSG_R21193, MS-OXWSMSG_R21194.</t>
   </si>
   <si>
     <t>[In t:MessageType Complex Type] ReceivedBy element is t:SingleRecipientType type.</t>
@@ -2214,6 +2203,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>Verified by derived requirements: MS-OXWSCDATA_R21188, MS-OXWSCDATA_R21189.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>[In t:ItemResponseShapeType Complex Type] The element "IncludeMimeContent" with type "xs:boolean" specifies whether the MIME content of an item is returned in a response.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -2234,104 +2227,110 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>[In t:MessageType Complex Type] ToRecipients element Specifies a collection of recipients of an email.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[In t:MessageDispositionType Simple Type] The value "SaveOnly" means when used in the CreateItemType complex type ([MS-OXWSCORE] section 3.1.4.2.3.2), the email message item is saved in the folder that is specified by the TargetFolderIdType complex type ([MS-OXWSFOLD] section 2.2.4.16).</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[In t:MessageDispositionType Simple Type] The value "SendOnly" means when used in the CreateItemType complex type, the email message item [is sent] but no copy is saved.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[In t:MessageDispositionType Simple Type] The value "SendAndSaveCopy" means when used in the CreateItemType complex type, the email message item [is sent] and a copy is saved in the TargetFolderIdType complex type.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">[In CopyItem] If the CreateItem WSDL operation request is successful, the server returns a CreateItemResponse element, as specified in [MS-OXWSCORE] section 3.1.4.2.2.2, with the ResponseClass attribute, as specified in [MS-OXWSCDATA] section 2.2.4.67, of the CreateItemResponseMessage element, as specified in [MS-OXWSCDATA] section 2.2.4.12, set to "Success". </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">[In CopyItem] [A successful CopyItem operation request returns a CopyItemResponse element] The ResponseCode element, as specified in [MS-OXWSCDATA] section 2.2.4.67, of the CreateItemResponseMessage element is set to "NoError". </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">[In CreateItem]If the CreateItem WSDL operation request is successful, the server returns a CreateItemResponse element, as specified in [MS-OXWSCORE] section 3.1.4.2.2.2, with the ResponseClass attribute, as specified in [MS-OXWSCDATA] section 2.2.4.67, of the CreateItemResponseMessage element, as specified in [MS-OXWSCDATA] section 2.2.4.12, set to "Success". </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">[In CreateItem] [A successful CreateItem operation request returns a CreateItemResponse element] The ResponseCode element, as specified in [MS-OXWSCDATA] section 2.2.4.67, of the CreateItemResponseMessage element is set to "NoError". </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">[In DeleteItem] If the DeleteItem WSDL operation request is successful, the server returns a DeleteItemResponse element, as specified in [MS-OXWSCORE] section 3.1.4.3.2.2, with the ResponseClass attribute, as specified in [MS-OXWSCDATA] section 2.2.4.67, of the DeleteItemResponseMessage element, as specified in [MS-OXWSCDATA] section 2.2.4.12, set to "Success". </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">[In DeleteItem] [A successful DeleteItem operation request returns a DeleteItemResponse element] The ResponseCode element, as specified by [MS-OXWSCDATA] section 2.2.4.67, of the DeleteItemResponseMessage element is set to "NoError". </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">[In GetItem] If the GetItem WSDL operation request is successful, the server returns a GetItemResponse element, as specified in [MS-OXWSCORE] section 3.1.4.4.2.2, with the ResponseClass attribute, as specified in [MS-OXWSCDATA] section 2.2.4.67, of the GetItemResponseMessage element, as specified in [MS-OXWSCDATA] section 2.2.4.12, set to "Success". </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">[In GetItem] [A successful GetItem operation request returns a GetItemResponse element] The ResponseCode element, as specified in [MS-OXWSCDATA] section 2.2.4.67, of the GetItemResponseMessage element is set to "NoError". </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">[In MoveItem] [A successful MoveItem operation request returns a MoveItemResponse element] The ResponseCode element, as specified in [MS-OXWSCDATA] section 2.2.4.67, of the MoveItemResponseMessage element is set to "NoError". </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">[In UpdateItem] If the UpdateItem WSDL operation request is successful, the server returns an UpdateItemResponse element, as specified in [MS-OXWSCORE] section 3.1.4.9.2.2, with the ResponseClass attribute, as specified in [MS-OXWSCDATA] section 2.2.4.67, of the UpdateItemResponseMessage element, as specified in [MS-OXWSCDATA] section 2.2.4.12, set to "Success". </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">[In UpdateItem] [A successful UpdateItem operation request returns an UpdateItemResponse element] The ResponseCode element, as specified in [MS-OXWSCDATA] section 2.2.4.67, of the UpdateItemResponseMessage element is set to "NoError". </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>MS-OXWSMSG_R73003</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Verified by derived requirements: MS-OXWSMSG_R2512, MS-OXWSMSG_R2912.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">[In MoveItem] If the MoveItem WSDL operation request is successful, the server returns a MoveItemResponse element, as specified in [MS-OXWSCORE] section 3.1.4.7.2.2, with the ResponseClass attribute, as specified in [MS-OXWSCDATA] section 2.2.4.67, of the MoveItemResponseMessage element, as specified in [MS-OXWSCDATA] section 2.2.4.12, set to "Success". </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[In t:MessageType Complex Type] CcRecipients element Specifies a collection of recipients that receive a carbon copy (Cc) of an email.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[In t:MessageType Complex Type] BccRecipients element Specifies a collection of recipients that receive a blind carbon copy (Bcc) of an email.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">[In t:MessageType Complex Type] ReplyTo element Specifies a collection of addresses to send replies to. </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[In t:MessageDispositionType Simple Type] The value "SendOnly" means when used in the CreateItemType complex type, the email message item is sent.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[In t:MessageDispositionType Simple Type] The value "SendAndSaveCopy" means when used in the CreateItemType complex type, the email message item is sent.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[In Transport] This protocol uses SOAP 1.1.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[In t:MessageType Complex Type] The MessageType complex type extends the ItemType complex type ([MS-OXWSCORE] section 2.2.4.24).</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <r>
+      <t xml:space="preserve">Test Case: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>Indicates that a requirement will be captured in Test Case code.</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+Adapter: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>Indicates that a requirement will be captured in Adapter code.</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+Non-testable: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> Indicates that a requirement is not testable. It can not be verified by generating and observing data on the wire.</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+Unverified: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">Indicates that a requirement is verifiable, but choose not to test because of cost or other reason.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>Message Deserialization</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>: Indicates that a requirement is verified when deserializing the response message.</t>
+    </r>
+  </si>
+  <si>
+    <t>Verified by requirement: MS-OXWSMSG_R182002.</t>
+  </si>
+  <si>
+    <t>Verified by requirement: MS-OXWSMSG_R182004.</t>
+  </si>
+  <si>
+    <t>Verified by requirement: MS-OXWSMSG_R182006.</t>
+  </si>
+  <si>
+    <t>Verified by derived requirements: MS-OXWSMSG_R2512, MS-OXWSMSG_R2912</t>
   </si>
 </sst>
 </file>
@@ -2339,14 +2338,14 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="2">
-    <numFmt numFmtId="176" formatCode="yyyy\-mm\-dd"/>
-    <numFmt numFmtId="177" formatCode="0.0.0"/>
+    <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd"/>
+    <numFmt numFmtId="165" formatCode="0.0.0"/>
   </numFmts>
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="8">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -2539,7 +2538,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="47">
+  <cellXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -2548,13 +2547,13 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="176" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="164" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -2587,7 +2586,7 @@
     <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="177" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2618,6 +2617,21 @@
     <xf numFmtId="2" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -2636,144 +2650,353 @@
     <xf numFmtId="0" fontId="3" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="113">
+  <dxfs count="89">
     <dxf>
       <font>
-        <strike/>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color theme="0"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <name val="Calibri"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <scheme val="none"/>
       </font>
     </dxf>
     <dxf>
       <font>
-        <strike/>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="none"/>
       </font>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
-        <strike/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <name val="Calibri"/>
+        <scheme val="none"/>
       </font>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
-        <strike/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <name val="Calibri"/>
+        <scheme val="none"/>
       </font>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <alignment horizontal="left" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
-        <strike/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <name val="Calibri"/>
+        <scheme val="none"/>
       </font>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
-        <strike/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <name val="Calibri"/>
+        <scheme val="none"/>
       </font>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
-        <strike/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <name val="Calibri"/>
+        <scheme val="none"/>
       </font>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
-        <strike/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <name val="Calibri"/>
+        <scheme val="none"/>
       </font>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
-        <strike/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <name val="Calibri"/>
+        <scheme val="none"/>
       </font>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
-        <strike/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <name val="Calibri"/>
+        <scheme val="none"/>
       </font>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <alignment horizontal="left" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
-        <strike/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <name val="Calibri"/>
+        <scheme val="none"/>
       </font>
+      <alignment horizontal="left" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <name val="Calibri"/>
+        <scheme val="none"/>
       </font>
     </dxf>
     <dxf>
@@ -3158,344 +3381,6 @@
         <strike/>
       </font>
     </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color theme="0"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <name val="Calibri"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <name val="Calibri"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="30" formatCode="@"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="left" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <name val="Calibri"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="30" formatCode="@"/>
-      <alignment horizontal="left" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <name val="Calibri"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="30" formatCode="@"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="left" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <name val="Calibri"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="30" formatCode="@"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="left" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <name val="Calibri"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="30" formatCode="@"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="left" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <name val="Calibri"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <name val="Calibri"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="30" formatCode="@"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <name val="Calibri"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="30" formatCode="@"/>
-      <alignment horizontal="left" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <name val="Calibri"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="left" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <name val="Calibri"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -3625,34 +3510,34 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Requirement" displayName="Requirement" ref="A19:I265" tableType="xml" totalsRowShown="0" headerRowDxfId="112" dataDxfId="111" connectionId="1">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Requirement" displayName="Requirement" ref="A19:I265" tableType="xml" totalsRowShown="0" headerRowDxfId="18" dataDxfId="17" connectionId="1">
   <autoFilter ref="A19:I265"/>
   <tableColumns count="9">
-    <tableColumn id="1" uniqueName="ns1:REQ_ID" name="Req ID" dataDxfId="110">
+    <tableColumn id="1" uniqueName="ns1:REQ_ID" name="Req ID" dataDxfId="16">
       <xmlColumnPr mapId="12" xpath="/ns1:ReqTable/ns1:Requirement/ns1:REQ_ID" xmlDataType="string"/>
     </tableColumn>
-    <tableColumn id="2" uniqueName="ns1:Doc_Sect" name="Doc Sect" dataDxfId="109">
+    <tableColumn id="2" uniqueName="ns1:Doc_Sect" name="Doc Sect" dataDxfId="15">
       <xmlColumnPr mapId="12" xpath="/ns1:ReqTable/ns1:Requirement/ns1:Doc_Sect" xmlDataType="string"/>
     </tableColumn>
-    <tableColumn id="3" uniqueName="ns1:Description" name="Description" dataDxfId="108">
+    <tableColumn id="3" uniqueName="ns1:Description" name="Description" dataDxfId="14">
       <xmlColumnPr mapId="12" xpath="/ns1:ReqTable/ns1:Requirement/ns1:Description" xmlDataType="string"/>
     </tableColumn>
-    <tableColumn id="18" uniqueName="ns1:Derived" name="Derived" dataDxfId="107">
+    <tableColumn id="18" uniqueName="ns1:Derived" name="Derived" dataDxfId="13">
       <xmlColumnPr mapId="12" xpath="/ns1:ReqTable/ns1:Requirement/ns1:Derived" xmlDataType="string"/>
     </tableColumn>
-    <tableColumn id="6" uniqueName="ns1:Behavior" name="Behavior" dataDxfId="106">
+    <tableColumn id="6" uniqueName="ns1:Behavior" name="Behavior" dataDxfId="12">
       <xmlColumnPr mapId="12" xpath="/ns1:ReqTable/ns1:Requirement/ns1:Behavior" xmlDataType="string"/>
     </tableColumn>
-    <tableColumn id="7" uniqueName="ns1:Scope" name="Scope" dataDxfId="105">
+    <tableColumn id="7" uniqueName="ns1:Scope" name="Scope" dataDxfId="11">
       <xmlColumnPr mapId="12" xpath="/ns1:ReqTable/ns1:Requirement/ns1:Scope" xmlDataType="string"/>
     </tableColumn>
-    <tableColumn id="9" uniqueName="ns1:IsNormative" name="Informative_x000a_/Normative" dataDxfId="104">
+    <tableColumn id="9" uniqueName="ns1:IsNormative" name="Informative_x000a_/Normative" dataDxfId="10">
       <xmlColumnPr mapId="12" xpath="/ns1:ReqTable/ns1:Requirement/ns1:IsNormative" xmlDataType="string"/>
     </tableColumn>
-    <tableColumn id="10" uniqueName="ns1:Verification" name="Verification" dataDxfId="103">
+    <tableColumn id="10" uniqueName="ns1:Verification" name="Verification" dataDxfId="9">
       <xmlColumnPr mapId="12" xpath="/ns1:ReqTable/ns1:Requirement/ns1:Verification" xmlDataType="string"/>
     </tableColumn>
-    <tableColumn id="8" uniqueName="ns1:VerificationComment" name="Verification Comment" dataDxfId="102">
+    <tableColumn id="8" uniqueName="ns1:VerificationComment" name="Verification Comment" dataDxfId="8">
       <xmlColumnPr mapId="12" xpath="/ns1:ReqTable/ns1:Requirement/ns1:VerificationComment" xmlDataType="string"/>
     </tableColumn>
   </tableColumns>
@@ -3661,19 +3546,19 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Scope" displayName="Scope" ref="A12:C15" totalsRowShown="0" headerRowDxfId="101" dataDxfId="99" headerRowBorderDxfId="100" tableBorderDxfId="98" totalsRowBorderDxfId="97">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Scope" displayName="Scope" ref="A12:C15" totalsRowShown="0" headerRowDxfId="7" dataDxfId="5" headerRowBorderDxfId="6" tableBorderDxfId="4" totalsRowBorderDxfId="3">
   <autoFilter ref="A12:C15"/>
   <tableColumns count="3">
-    <tableColumn id="1" name="Scope" dataDxfId="96"/>
-    <tableColumn id="2" name="Test" dataDxfId="95"/>
-    <tableColumn id="3" name="Description" dataDxfId="94"/>
+    <tableColumn id="1" name="Scope" dataDxfId="2"/>
+    <tableColumn id="2" name="Test" dataDxfId="1"/>
+    <tableColumn id="3" name="Description" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -3748,6 +3633,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -3783,6 +3685,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -3964,21 +3883,21 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="23" style="11" customWidth="1"/>
+    <col min="1" max="1" width="12.42578125" style="11" customWidth="1"/>
     <col min="2" max="2" width="13" style="3" customWidth="1"/>
     <col min="3" max="3" width="85" style="3" customWidth="1"/>
-    <col min="4" max="4" width="25.625" style="3" customWidth="1"/>
-    <col min="5" max="5" width="12.375" style="3" customWidth="1"/>
-    <col min="6" max="6" width="12.125" style="3" customWidth="1"/>
-    <col min="7" max="7" width="13.375" style="3" customWidth="1"/>
+    <col min="4" max="4" width="28.5703125" style="3" customWidth="1"/>
+    <col min="5" max="5" width="12.42578125" style="3" customWidth="1"/>
+    <col min="6" max="6" width="12.140625" style="3" customWidth="1"/>
+    <col min="7" max="7" width="13.42578125" style="3" customWidth="1"/>
     <col min="8" max="8" width="23" style="3" customWidth="1"/>
-    <col min="9" max="9" width="28.75" style="3" customWidth="1"/>
+    <col min="9" max="9" width="28.7109375" style="3" customWidth="1"/>
     <col min="10" max="16384" width="9" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10">
       <c r="A1" s="1" t="s">
         <v>439</v>
       </c>
@@ -3988,7 +3907,7 @@
       <c r="F1" s="4"/>
       <c r="J1" s="5"/>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10">
       <c r="A2" s="6" t="s">
         <v>440</v>
       </c>
@@ -3999,7 +3918,7 @@
       <c r="F2" s="25"/>
       <c r="J2" s="5"/>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10">
       <c r="B3" s="9" t="s">
         <v>25</v>
       </c>
@@ -4014,131 +3933,131 @@
       </c>
       <c r="J3" s="5"/>
     </row>
-    <row r="4" spans="1:10" ht="21" x14ac:dyDescent="0.25">
-      <c r="A4" s="42" t="s">
+    <row r="4" spans="1:10" ht="21">
+      <c r="A4" s="36" t="s">
         <v>24</v>
       </c>
-      <c r="B4" s="42"/>
-      <c r="C4" s="42"/>
-      <c r="D4" s="42"/>
-      <c r="E4" s="42"/>
-      <c r="F4" s="42"/>
-      <c r="G4" s="42"/>
+      <c r="B4" s="36"/>
+      <c r="C4" s="36"/>
+      <c r="D4" s="36"/>
+      <c r="E4" s="36"/>
+      <c r="F4" s="36"/>
+      <c r="G4" s="36"/>
       <c r="J4" s="5"/>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10">
       <c r="A5" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="B5" s="45" t="s">
+      <c r="B5" s="39" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="46"/>
-      <c r="D5" s="46"/>
-      <c r="E5" s="46"/>
-      <c r="F5" s="46"/>
-      <c r="G5" s="46"/>
-      <c r="H5" s="46"/>
-      <c r="I5" s="46"/>
+      <c r="C5" s="40"/>
+      <c r="D5" s="40"/>
+      <c r="E5" s="40"/>
+      <c r="F5" s="40"/>
+      <c r="G5" s="40"/>
+      <c r="H5" s="40"/>
+      <c r="I5" s="40"/>
       <c r="J5" s="5"/>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10">
       <c r="A6" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="B6" s="44" t="s">
+      <c r="B6" s="38" t="s">
         <v>34</v>
       </c>
-      <c r="C6" s="44"/>
-      <c r="D6" s="44"/>
-      <c r="E6" s="44"/>
-      <c r="F6" s="44"/>
-      <c r="G6" s="44"/>
-      <c r="H6" s="44"/>
-      <c r="I6" s="44"/>
+      <c r="C6" s="38"/>
+      <c r="D6" s="38"/>
+      <c r="E6" s="38"/>
+      <c r="F6" s="38"/>
+      <c r="G6" s="38"/>
+      <c r="H6" s="38"/>
+      <c r="I6" s="38"/>
       <c r="J6" s="5"/>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10">
       <c r="A7" s="14" t="s">
         <v>38</v>
       </c>
-      <c r="B7" s="43" t="s">
+      <c r="B7" s="37" t="s">
         <v>28</v>
       </c>
-      <c r="C7" s="43"/>
-      <c r="D7" s="43"/>
-      <c r="E7" s="43"/>
-      <c r="F7" s="43"/>
-      <c r="G7" s="43"/>
-      <c r="H7" s="43"/>
-      <c r="I7" s="43"/>
+      <c r="C7" s="37"/>
+      <c r="D7" s="37"/>
+      <c r="E7" s="37"/>
+      <c r="F7" s="37"/>
+      <c r="G7" s="37"/>
+      <c r="H7" s="37"/>
+      <c r="I7" s="37"/>
       <c r="J7" s="5"/>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10">
       <c r="A8" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="B8" s="43" t="s">
+      <c r="B8" s="37" t="s">
         <v>29</v>
       </c>
-      <c r="C8" s="43"/>
-      <c r="D8" s="43"/>
-      <c r="E8" s="43"/>
-      <c r="F8" s="43"/>
-      <c r="G8" s="43"/>
-      <c r="H8" s="43"/>
-      <c r="I8" s="43"/>
+      <c r="C8" s="37"/>
+      <c r="D8" s="37"/>
+      <c r="E8" s="37"/>
+      <c r="F8" s="37"/>
+      <c r="G8" s="37"/>
+      <c r="H8" s="37"/>
+      <c r="I8" s="37"/>
       <c r="J8" s="5"/>
     </row>
-    <row r="9" spans="1:10" ht="75.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" ht="75.75" customHeight="1">
       <c r="A9" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="B9" s="40" t="s">
+      <c r="B9" s="45" t="s">
         <v>37</v>
       </c>
-      <c r="C9" s="41"/>
-      <c r="D9" s="41"/>
-      <c r="E9" s="41"/>
-      <c r="F9" s="41"/>
-      <c r="G9" s="41"/>
-      <c r="H9" s="41"/>
-      <c r="I9" s="41"/>
+      <c r="C9" s="46"/>
+      <c r="D9" s="46"/>
+      <c r="E9" s="46"/>
+      <c r="F9" s="46"/>
+      <c r="G9" s="46"/>
+      <c r="H9" s="46"/>
+      <c r="I9" s="46"/>
       <c r="J9" s="5"/>
     </row>
-    <row r="10" spans="1:10" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" ht="30.75" customHeight="1">
       <c r="A10" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="B10" s="40" t="s">
+      <c r="B10" s="45" t="s">
         <v>442</v>
       </c>
-      <c r="C10" s="41"/>
-      <c r="D10" s="41"/>
-      <c r="E10" s="41"/>
-      <c r="F10" s="41"/>
-      <c r="G10" s="41"/>
-      <c r="H10" s="41"/>
-      <c r="I10" s="41"/>
+      <c r="C10" s="46"/>
+      <c r="D10" s="46"/>
+      <c r="E10" s="46"/>
+      <c r="F10" s="46"/>
+      <c r="G10" s="46"/>
+      <c r="H10" s="46"/>
+      <c r="I10" s="46"/>
       <c r="J10" s="5"/>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10">
       <c r="A11" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="B11" s="36" t="s">
+      <c r="B11" s="41" t="s">
         <v>40</v>
       </c>
-      <c r="C11" s="36"/>
-      <c r="D11" s="36"/>
-      <c r="E11" s="36"/>
-      <c r="F11" s="36"/>
-      <c r="G11" s="36"/>
-      <c r="H11" s="36"/>
-      <c r="I11" s="36"/>
+      <c r="C11" s="41"/>
+      <c r="D11" s="41"/>
+      <c r="E11" s="41"/>
+      <c r="F11" s="41"/>
+      <c r="G11" s="41"/>
+      <c r="H11" s="41"/>
+      <c r="I11" s="41"/>
       <c r="J11" s="5"/>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:10">
       <c r="A12" s="26" t="s">
         <v>8</v>
       </c>
@@ -4148,15 +4067,15 @@
       <c r="C12" s="19" t="s">
         <v>1</v>
       </c>
-      <c r="D12" s="37"/>
-      <c r="E12" s="37"/>
-      <c r="F12" s="37"/>
-      <c r="G12" s="37"/>
-      <c r="H12" s="37"/>
-      <c r="I12" s="37"/>
+      <c r="D12" s="42"/>
+      <c r="E12" s="42"/>
+      <c r="F12" s="42"/>
+      <c r="G12" s="42"/>
+      <c r="H12" s="42"/>
+      <c r="I12" s="42"/>
       <c r="J12" s="5"/>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10">
       <c r="A13" s="27" t="s">
         <v>6</v>
       </c>
@@ -4166,15 +4085,15 @@
       <c r="C13" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="D13" s="38"/>
-      <c r="E13" s="38"/>
-      <c r="F13" s="38"/>
-      <c r="G13" s="38"/>
-      <c r="H13" s="38"/>
-      <c r="I13" s="38"/>
+      <c r="D13" s="43"/>
+      <c r="E13" s="43"/>
+      <c r="F13" s="43"/>
+      <c r="G13" s="43"/>
+      <c r="H13" s="43"/>
+      <c r="I13" s="43"/>
       <c r="J13" s="5"/>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:10">
       <c r="A14" s="27" t="s">
         <v>7</v>
       </c>
@@ -4184,15 +4103,15 @@
       <c r="C14" s="16" t="s">
         <v>35</v>
       </c>
-      <c r="D14" s="38"/>
-      <c r="E14" s="38"/>
-      <c r="F14" s="38"/>
-      <c r="G14" s="38"/>
-      <c r="H14" s="38"/>
-      <c r="I14" s="38"/>
+      <c r="D14" s="43"/>
+      <c r="E14" s="43"/>
+      <c r="F14" s="43"/>
+      <c r="G14" s="43"/>
+      <c r="H14" s="43"/>
+      <c r="I14" s="43"/>
       <c r="J14" s="5"/>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:10">
       <c r="A15" s="28" t="s">
         <v>3</v>
       </c>
@@ -4202,64 +4121,64 @@
       <c r="C15" s="16" t="s">
         <v>30</v>
       </c>
-      <c r="D15" s="39"/>
-      <c r="E15" s="39"/>
-      <c r="F15" s="39"/>
-      <c r="G15" s="39"/>
-      <c r="H15" s="39"/>
-      <c r="I15" s="39"/>
+      <c r="D15" s="44"/>
+      <c r="E15" s="44"/>
+      <c r="F15" s="44"/>
+      <c r="G15" s="44"/>
+      <c r="H15" s="44"/>
+      <c r="I15" s="44"/>
       <c r="J15" s="5"/>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:10" ht="30">
       <c r="A16" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="B16" s="36" t="s">
+      <c r="B16" s="41" t="s">
         <v>41</v>
       </c>
-      <c r="C16" s="36"/>
-      <c r="D16" s="36"/>
-      <c r="E16" s="36"/>
-      <c r="F16" s="36"/>
-      <c r="G16" s="36"/>
-      <c r="H16" s="36"/>
-      <c r="I16" s="36"/>
+      <c r="C16" s="41"/>
+      <c r="D16" s="41"/>
+      <c r="E16" s="41"/>
+      <c r="F16" s="41"/>
+      <c r="G16" s="41"/>
+      <c r="H16" s="41"/>
+      <c r="I16" s="41"/>
       <c r="J16" s="5"/>
     </row>
-    <row r="17" spans="1:12" ht="61.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:12" ht="61.5" customHeight="1">
       <c r="A17" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="B17" s="40" t="s">
-        <v>443</v>
-      </c>
-      <c r="C17" s="41"/>
-      <c r="D17" s="41"/>
-      <c r="E17" s="41"/>
-      <c r="F17" s="41"/>
-      <c r="G17" s="41"/>
-      <c r="H17" s="41"/>
-      <c r="I17" s="41"/>
+      <c r="B17" s="47" t="s">
+        <v>590</v>
+      </c>
+      <c r="C17" s="48"/>
+      <c r="D17" s="48"/>
+      <c r="E17" s="48"/>
+      <c r="F17" s="48"/>
+      <c r="G17" s="48"/>
+      <c r="H17" s="48"/>
+      <c r="I17" s="48"/>
       <c r="J17" s="5"/>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:12" ht="30">
       <c r="A18" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="B18" s="36" t="s">
+      <c r="B18" s="41" t="s">
         <v>36</v>
       </c>
-      <c r="C18" s="36"/>
-      <c r="D18" s="36"/>
-      <c r="E18" s="36"/>
-      <c r="F18" s="36"/>
-      <c r="G18" s="36"/>
-      <c r="H18" s="36"/>
-      <c r="I18" s="36"/>
+      <c r="C18" s="41"/>
+      <c r="D18" s="41"/>
+      <c r="E18" s="41"/>
+      <c r="F18" s="41"/>
+      <c r="G18" s="41"/>
+      <c r="H18" s="41"/>
+      <c r="I18" s="41"/>
       <c r="J18" s="5"/>
       <c r="L18" s="4"/>
     </row>
-    <row r="19" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:12" ht="30">
       <c r="A19" s="3" t="s">
         <v>0</v>
       </c>
@@ -4289,7 +4208,7 @@
       </c>
       <c r="J19" s="4"/>
     </row>
-    <row r="20" spans="1:12" s="23" customFormat="1" ht="45" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:12" s="23" customFormat="1" ht="60">
       <c r="A20" s="22" t="s">
         <v>42</v>
       </c>
@@ -4314,7 +4233,7 @@
       </c>
       <c r="I20" s="24"/>
     </row>
-    <row r="21" spans="1:12" s="23" customFormat="1" ht="30" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:12" s="23" customFormat="1" ht="30">
       <c r="A21" s="22" t="s">
         <v>43</v>
       </c>
@@ -4339,7 +4258,7 @@
       </c>
       <c r="I21" s="24"/>
     </row>
-    <row r="22" spans="1:12" s="23" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:12" s="23" customFormat="1">
       <c r="A22" s="33" t="s">
         <v>446</v>
       </c>
@@ -4364,7 +4283,7 @@
       </c>
       <c r="I22" s="35"/>
     </row>
-    <row r="23" spans="1:12" s="23" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:12" s="23" customFormat="1">
       <c r="A23" s="33" t="s">
         <v>449</v>
       </c>
@@ -4389,7 +4308,7 @@
       </c>
       <c r="I23" s="35"/>
     </row>
-    <row r="24" spans="1:12" s="23" customFormat="1" ht="30" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:12" s="23" customFormat="1" ht="30">
       <c r="A24" s="22" t="s">
         <v>44</v>
       </c>
@@ -4414,7 +4333,7 @@
       </c>
       <c r="I24" s="24"/>
     </row>
-    <row r="25" spans="1:12" s="23" customFormat="1" ht="30" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:12" s="23" customFormat="1" ht="30">
       <c r="A25" s="22" t="s">
         <v>45</v>
       </c>
@@ -4439,7 +4358,7 @@
       </c>
       <c r="I25" s="24"/>
     </row>
-    <row r="26" spans="1:12" s="23" customFormat="1" ht="30" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:12" s="23" customFormat="1" ht="30">
       <c r="A26" s="22" t="s">
         <v>46</v>
       </c>
@@ -4464,7 +4383,7 @@
       </c>
       <c r="I26" s="24"/>
     </row>
-    <row r="27" spans="1:12" s="23" customFormat="1" ht="45" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:12" s="23" customFormat="1" ht="45">
       <c r="A27" s="22" t="s">
         <v>47</v>
       </c>
@@ -4489,7 +4408,7 @@
       </c>
       <c r="I27" s="24"/>
     </row>
-    <row r="28" spans="1:12" s="23" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:12" s="23" customFormat="1">
       <c r="A28" s="22" t="s">
         <v>48</v>
       </c>
@@ -4497,7 +4416,7 @@
         <v>252</v>
       </c>
       <c r="C28" s="20" t="s">
-        <v>588</v>
+        <v>443</v>
       </c>
       <c r="D28" s="22"/>
       <c r="E28" s="22" t="s">
@@ -4514,7 +4433,7 @@
       </c>
       <c r="I28" s="24"/>
     </row>
-    <row r="29" spans="1:12" s="23" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:12" s="23" customFormat="1">
       <c r="A29" s="22" t="s">
         <v>49</v>
       </c>
@@ -4539,7 +4458,7 @@
       </c>
       <c r="I29" s="24"/>
     </row>
-    <row r="30" spans="1:12" s="23" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:12" s="23" customFormat="1" ht="30">
       <c r="A30" s="22" t="s">
         <v>50</v>
       </c>
@@ -4564,7 +4483,7 @@
       </c>
       <c r="I30" s="24"/>
     </row>
-    <row r="31" spans="1:12" s="23" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:12" s="23" customFormat="1">
       <c r="A31" s="22" t="s">
         <v>452</v>
       </c>
@@ -4589,7 +4508,7 @@
       </c>
       <c r="I31" s="35"/>
     </row>
-    <row r="32" spans="1:12" s="23" customFormat="1" ht="30" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:12" s="23" customFormat="1" ht="45">
       <c r="A32" s="22" t="s">
         <v>51</v>
       </c>
@@ -4616,7 +4535,7 @@
         <v>436</v>
       </c>
     </row>
-    <row r="33" spans="1:9" s="23" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:9" s="23" customFormat="1" ht="30">
       <c r="A33" s="22" t="s">
         <v>52</v>
       </c>
@@ -4641,7 +4560,7 @@
       </c>
       <c r="I33" s="24"/>
     </row>
-    <row r="34" spans="1:9" s="23" customFormat="1" ht="30" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:9" s="23" customFormat="1" ht="30">
       <c r="A34" s="22" t="s">
         <v>53</v>
       </c>
@@ -4666,7 +4585,7 @@
       </c>
       <c r="I34" s="24"/>
     </row>
-    <row r="35" spans="1:9" s="23" customFormat="1" ht="30" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:9" s="23" customFormat="1" ht="30">
       <c r="A35" s="22" t="s">
         <v>54</v>
       </c>
@@ -4691,7 +4610,7 @@
       </c>
       <c r="I35" s="24"/>
     </row>
-    <row r="36" spans="1:9" s="23" customFormat="1" ht="45" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:9" s="23" customFormat="1" ht="45">
       <c r="A36" s="22" t="s">
         <v>55</v>
       </c>
@@ -4716,7 +4635,7 @@
       </c>
       <c r="I36" s="24"/>
     </row>
-    <row r="37" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:9" ht="30">
       <c r="A37" s="30" t="s">
         <v>56</v>
       </c>
@@ -4741,7 +4660,7 @@
       </c>
       <c r="I37" s="32"/>
     </row>
-    <row r="38" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:9" ht="30">
       <c r="A38" s="30" t="s">
         <v>57</v>
       </c>
@@ -4766,7 +4685,7 @@
       </c>
       <c r="I38" s="32"/>
     </row>
-    <row r="39" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:9" ht="30">
       <c r="A39" s="30" t="s">
         <v>58</v>
       </c>
@@ -4791,7 +4710,7 @@
       </c>
       <c r="I39" s="32"/>
     </row>
-    <row r="40" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:9" ht="45">
       <c r="A40" s="30" t="s">
         <v>59</v>
       </c>
@@ -4816,7 +4735,7 @@
       </c>
       <c r="I40" s="32"/>
     </row>
-    <row r="41" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:9" ht="30">
       <c r="A41" s="30" t="s">
         <v>60</v>
       </c>
@@ -4841,7 +4760,7 @@
       </c>
       <c r="I41" s="32"/>
     </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:9" ht="30">
       <c r="A42" s="30" t="s">
         <v>61</v>
       </c>
@@ -4866,7 +4785,7 @@
       </c>
       <c r="I42" s="32"/>
     </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:9" ht="30">
       <c r="A43" s="30" t="s">
         <v>62</v>
       </c>
@@ -4891,7 +4810,7 @@
       </c>
       <c r="I43" s="32"/>
     </row>
-    <row r="44" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:9" ht="30">
       <c r="A44" s="30" t="s">
         <v>63</v>
       </c>
@@ -4916,7 +4835,7 @@
       </c>
       <c r="I44" s="32"/>
     </row>
-    <row r="45" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:9" ht="30">
       <c r="A45" s="30" t="s">
         <v>64</v>
       </c>
@@ -4941,7 +4860,7 @@
       </c>
       <c r="I45" s="32"/>
     </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:9" ht="30">
       <c r="A46" s="30" t="s">
         <v>65</v>
       </c>
@@ -4966,7 +4885,7 @@
       </c>
       <c r="I46" s="32"/>
     </row>
-    <row r="47" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:9" ht="30">
       <c r="A47" s="30" t="s">
         <v>66</v>
       </c>
@@ -4991,7 +4910,7 @@
       </c>
       <c r="I47" s="32"/>
     </row>
-    <row r="48" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:9" ht="30">
       <c r="A48" s="30" t="s">
         <v>67</v>
       </c>
@@ -4999,7 +4918,7 @@
         <v>31</v>
       </c>
       <c r="C48" s="20" t="s">
-        <v>589</v>
+        <v>456</v>
       </c>
       <c r="D48" s="30"/>
       <c r="E48" s="30" t="s">
@@ -5016,7 +4935,7 @@
       </c>
       <c r="I48" s="32"/>
     </row>
-    <row r="49" spans="1:9" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:9" ht="409.5">
       <c r="A49" s="30" t="s">
         <v>68</v>
       </c>
@@ -5024,7 +4943,7 @@
         <v>31</v>
       </c>
       <c r="C49" s="20" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="D49" s="30"/>
       <c r="E49" s="30" t="s">
@@ -5041,7 +4960,7 @@
       </c>
       <c r="I49" s="32"/>
     </row>
-    <row r="50" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:9" ht="75">
       <c r="A50" s="30" t="s">
         <v>69</v>
       </c>
@@ -5066,7 +4985,7 @@
       </c>
       <c r="I50" s="32"/>
     </row>
-    <row r="51" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:9" ht="30">
       <c r="A51" s="30" t="s">
         <v>70</v>
       </c>
@@ -5074,7 +4993,7 @@
         <v>31</v>
       </c>
       <c r="C51" s="20" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="D51" s="30"/>
       <c r="E51" s="30" t="s">
@@ -5091,7 +5010,7 @@
       </c>
       <c r="I51" s="32"/>
     </row>
-    <row r="52" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:9" ht="45">
       <c r="A52" s="30" t="s">
         <v>71</v>
       </c>
@@ -5118,7 +5037,7 @@
       </c>
       <c r="I52" s="35"/>
     </row>
-    <row r="53" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:9" ht="45">
       <c r="A53" s="30" t="s">
         <v>72</v>
       </c>
@@ -5145,7 +5064,7 @@
       </c>
       <c r="I53" s="32"/>
     </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:9">
       <c r="A54" s="30" t="s">
         <v>73</v>
       </c>
@@ -5170,7 +5089,7 @@
       </c>
       <c r="I54" s="32"/>
     </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:9">
       <c r="A55" s="30" t="s">
         <v>74</v>
       </c>
@@ -5195,7 +5114,7 @@
       </c>
       <c r="I55" s="32"/>
     </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:9">
       <c r="A56" s="30" t="s">
         <v>75</v>
       </c>
@@ -5220,7 +5139,7 @@
       </c>
       <c r="I56" s="32"/>
     </row>
-    <row r="57" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:9" ht="30">
       <c r="A57" s="30" t="s">
         <v>76</v>
       </c>
@@ -5228,7 +5147,7 @@
         <v>31</v>
       </c>
       <c r="C57" s="20" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="D57" s="30"/>
       <c r="E57" s="30" t="s">
@@ -5245,7 +5164,7 @@
       </c>
       <c r="I57" s="32"/>
     </row>
-    <row r="58" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:9" ht="45">
       <c r="A58" s="30" t="s">
         <v>77</v>
       </c>
@@ -5272,7 +5191,7 @@
       </c>
       <c r="I58" s="35"/>
     </row>
-    <row r="59" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:9" ht="45">
       <c r="A59" s="30" t="s">
         <v>78</v>
       </c>
@@ -5299,7 +5218,7 @@
       </c>
       <c r="I59" s="32"/>
     </row>
-    <row r="60" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:9" ht="30">
       <c r="A60" s="30" t="s">
         <v>79</v>
       </c>
@@ -5307,7 +5226,7 @@
         <v>31</v>
       </c>
       <c r="C60" s="20" t="s">
-        <v>565</v>
+        <v>460</v>
       </c>
       <c r="D60" s="30"/>
       <c r="E60" s="30" t="s">
@@ -5324,7 +5243,7 @@
       </c>
       <c r="I60" s="32"/>
     </row>
-    <row r="61" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:9" ht="30">
       <c r="A61" s="30" t="s">
         <v>80</v>
       </c>
@@ -5349,7 +5268,7 @@
       </c>
       <c r="I61" s="32"/>
     </row>
-    <row r="62" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:9">
       <c r="A62" s="30" t="s">
         <v>81</v>
       </c>
@@ -5374,7 +5293,7 @@
       </c>
       <c r="I62" s="32"/>
     </row>
-    <row r="63" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:9">
       <c r="A63" s="30" t="s">
         <v>82</v>
       </c>
@@ -5399,7 +5318,7 @@
       </c>
       <c r="I63" s="32"/>
     </row>
-    <row r="64" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:9" ht="30">
       <c r="A64" s="30" t="s">
         <v>83</v>
       </c>
@@ -5407,7 +5326,7 @@
         <v>31</v>
       </c>
       <c r="C64" s="20" t="s">
-        <v>583</v>
+        <v>462</v>
       </c>
       <c r="D64" s="30"/>
       <c r="E64" s="30" t="s">
@@ -5424,7 +5343,7 @@
       </c>
       <c r="I64" s="32"/>
     </row>
-    <row r="65" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:9">
       <c r="A65" s="30" t="s">
         <v>84</v>
       </c>
@@ -5449,7 +5368,7 @@
       </c>
       <c r="I65" s="32"/>
     </row>
-    <row r="66" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:9">
       <c r="A66" s="30" t="s">
         <v>85</v>
       </c>
@@ -5474,7 +5393,7 @@
       </c>
       <c r="I66" s="32"/>
     </row>
-    <row r="67" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:9">
       <c r="A67" s="30" t="s">
         <v>86</v>
       </c>
@@ -5499,7 +5418,7 @@
       </c>
       <c r="I67" s="32"/>
     </row>
-    <row r="68" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:9" ht="30">
       <c r="A68" s="30" t="s">
         <v>87</v>
       </c>
@@ -5507,7 +5426,7 @@
         <v>31</v>
       </c>
       <c r="C68" s="20" t="s">
-        <v>584</v>
+        <v>461</v>
       </c>
       <c r="D68" s="30"/>
       <c r="E68" s="30" t="s">
@@ -5524,7 +5443,7 @@
       </c>
       <c r="I68" s="32"/>
     </row>
-    <row r="69" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:9">
       <c r="A69" s="30" t="s">
         <v>88</v>
       </c>
@@ -5549,7 +5468,7 @@
       </c>
       <c r="I69" s="32"/>
     </row>
-    <row r="70" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:9">
       <c r="A70" s="30" t="s">
         <v>89</v>
       </c>
@@ -5574,7 +5493,7 @@
       </c>
       <c r="I70" s="32"/>
     </row>
-    <row r="71" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:9" ht="30">
       <c r="A71" s="30" t="s">
         <v>90</v>
       </c>
@@ -5582,7 +5501,7 @@
         <v>31</v>
       </c>
       <c r="C71" s="20" t="s">
-        <v>547</v>
+        <v>570</v>
       </c>
       <c r="D71" s="30"/>
       <c r="E71" s="30" t="s">
@@ -5599,7 +5518,7 @@
       </c>
       <c r="I71" s="32"/>
     </row>
-    <row r="72" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:9" ht="30">
       <c r="A72" s="30" t="s">
         <v>91</v>
       </c>
@@ -5624,7 +5543,7 @@
       </c>
       <c r="I72" s="32"/>
     </row>
-    <row r="73" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:9" ht="30">
       <c r="A73" s="30" t="s">
         <v>92</v>
       </c>
@@ -5649,7 +5568,7 @@
       </c>
       <c r="I73" s="32"/>
     </row>
-    <row r="74" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:9" ht="30">
       <c r="A74" s="30" t="s">
         <v>93</v>
       </c>
@@ -5674,7 +5593,7 @@
       </c>
       <c r="I74" s="32"/>
     </row>
-    <row r="75" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:9" ht="30">
       <c r="A75" s="30" t="s">
         <v>94</v>
       </c>
@@ -5699,7 +5618,7 @@
       </c>
       <c r="I75" s="32"/>
     </row>
-    <row r="76" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:9" ht="30">
       <c r="A76" s="30" t="s">
         <v>95</v>
       </c>
@@ -5726,7 +5645,7 @@
       </c>
       <c r="I76" s="32"/>
     </row>
-    <row r="77" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:9">
       <c r="A77" s="30" t="s">
         <v>96</v>
       </c>
@@ -5751,7 +5670,7 @@
       </c>
       <c r="I77" s="32"/>
     </row>
-    <row r="78" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:9" ht="30">
       <c r="A78" s="30" t="s">
         <v>97</v>
       </c>
@@ -5776,7 +5695,7 @@
       </c>
       <c r="I78" s="32"/>
     </row>
-    <row r="79" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:9" ht="30">
       <c r="A79" s="30" t="s">
         <v>98</v>
       </c>
@@ -5801,7 +5720,7 @@
       </c>
       <c r="I79" s="32"/>
     </row>
-    <row r="80" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:9" ht="45">
       <c r="A80" s="30" t="s">
         <v>99</v>
       </c>
@@ -5826,7 +5745,7 @@
       </c>
       <c r="I80" s="32"/>
     </row>
-    <row r="81" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:9" ht="45">
       <c r="A81" s="30" t="s">
         <v>100</v>
       </c>
@@ -5853,7 +5772,7 @@
       </c>
       <c r="I81" s="32"/>
     </row>
-    <row r="82" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:9" ht="30">
       <c r="A82" s="30" t="s">
         <v>101</v>
       </c>
@@ -5861,7 +5780,7 @@
         <v>31</v>
       </c>
       <c r="C82" s="20" t="s">
-        <v>459</v>
+        <v>463</v>
       </c>
       <c r="D82" s="30"/>
       <c r="E82" s="30" t="s">
@@ -5878,7 +5797,7 @@
       </c>
       <c r="I82" s="32"/>
     </row>
-    <row r="83" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:9" ht="30">
       <c r="A83" s="30" t="s">
         <v>102</v>
       </c>
@@ -5886,7 +5805,7 @@
         <v>31</v>
       </c>
       <c r="C83" s="20" t="s">
-        <v>460</v>
+        <v>464</v>
       </c>
       <c r="D83" s="30"/>
       <c r="E83" s="30" t="s">
@@ -5903,7 +5822,7 @@
       </c>
       <c r="I83" s="32"/>
     </row>
-    <row r="84" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:9">
       <c r="A84" s="30" t="s">
         <v>103</v>
       </c>
@@ -5928,7 +5847,7 @@
       </c>
       <c r="I84" s="32"/>
     </row>
-    <row r="85" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:9">
       <c r="A85" s="30" t="s">
         <v>104</v>
       </c>
@@ -5936,7 +5855,7 @@
         <v>31</v>
       </c>
       <c r="C85" s="20" t="s">
-        <v>461</v>
+        <v>465</v>
       </c>
       <c r="D85" s="30"/>
       <c r="E85" s="30" t="s">
@@ -5953,7 +5872,7 @@
       </c>
       <c r="I85" s="32"/>
     </row>
-    <row r="86" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:9" ht="30">
       <c r="A86" s="30" t="s">
         <v>105</v>
       </c>
@@ -5961,7 +5880,7 @@
         <v>31</v>
       </c>
       <c r="C86" s="20" t="s">
-        <v>548</v>
+        <v>571</v>
       </c>
       <c r="D86" s="30"/>
       <c r="E86" s="30" t="s">
@@ -5978,7 +5897,7 @@
       </c>
       <c r="I86" s="32"/>
     </row>
-    <row r="87" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:9" ht="30">
       <c r="A87" s="30" t="s">
         <v>106</v>
       </c>
@@ -6003,7 +5922,7 @@
       </c>
       <c r="I87" s="32"/>
     </row>
-    <row r="88" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:9">
       <c r="A88" s="30" t="s">
         <v>107</v>
       </c>
@@ -6028,7 +5947,7 @@
       </c>
       <c r="I88" s="32"/>
     </row>
-    <row r="89" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:9">
       <c r="A89" s="30" t="s">
         <v>108</v>
       </c>
@@ -6036,7 +5955,7 @@
         <v>31</v>
       </c>
       <c r="C89" s="20" t="s">
-        <v>534</v>
+        <v>557</v>
       </c>
       <c r="D89" s="30"/>
       <c r="E89" s="30" t="s">
@@ -6053,7 +5972,7 @@
       </c>
       <c r="I89" s="32"/>
     </row>
-    <row r="90" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:9">
       <c r="A90" s="30" t="s">
         <v>109</v>
       </c>
@@ -6078,7 +5997,7 @@
       </c>
       <c r="I90" s="32"/>
     </row>
-    <row r="91" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:9" ht="30">
       <c r="A91" s="30" t="s">
         <v>110</v>
       </c>
@@ -6103,7 +6022,7 @@
       </c>
       <c r="I91" s="32"/>
     </row>
-    <row r="92" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:9">
       <c r="A92" s="30" t="s">
         <v>111</v>
       </c>
@@ -6128,7 +6047,7 @@
       </c>
       <c r="I92" s="32"/>
     </row>
-    <row r="93" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:9">
       <c r="A93" s="30" t="s">
         <v>112</v>
       </c>
@@ -6153,7 +6072,7 @@
       </c>
       <c r="I93" s="32"/>
     </row>
-    <row r="94" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:9">
       <c r="A94" s="30" t="s">
         <v>113</v>
       </c>
@@ -6178,7 +6097,7 @@
       </c>
       <c r="I94" s="32"/>
     </row>
-    <row r="95" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:9" ht="30">
       <c r="A95" s="30" t="s">
         <v>114</v>
       </c>
@@ -6203,7 +6122,7 @@
       </c>
       <c r="I95" s="32"/>
     </row>
-    <row r="96" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:9">
       <c r="A96" s="30" t="s">
         <v>115</v>
       </c>
@@ -6228,7 +6147,7 @@
       </c>
       <c r="I96" s="32"/>
     </row>
-    <row r="97" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:9">
       <c r="A97" s="30" t="s">
         <v>116</v>
       </c>
@@ -6236,7 +6155,7 @@
         <v>31</v>
       </c>
       <c r="C97" s="20" t="s">
-        <v>462</v>
+        <v>466</v>
       </c>
       <c r="D97" s="30"/>
       <c r="E97" s="30" t="s">
@@ -6253,7 +6172,7 @@
       </c>
       <c r="I97" s="32"/>
     </row>
-    <row r="98" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:9">
       <c r="A98" s="30" t="s">
         <v>117</v>
       </c>
@@ -6278,7 +6197,7 @@
       </c>
       <c r="I98" s="32"/>
     </row>
-    <row r="99" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:9" ht="30">
       <c r="A99" s="30" t="s">
         <v>118</v>
       </c>
@@ -6303,7 +6222,7 @@
       </c>
       <c r="I99" s="32"/>
     </row>
-    <row r="100" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:9">
       <c r="A100" s="30" t="s">
         <v>119</v>
       </c>
@@ -6311,7 +6230,7 @@
         <v>31</v>
       </c>
       <c r="C100" s="20" t="s">
-        <v>463</v>
+        <v>467</v>
       </c>
       <c r="D100" s="30"/>
       <c r="E100" s="30" t="s">
@@ -6328,7 +6247,7 @@
       </c>
       <c r="I100" s="32"/>
     </row>
-    <row r="101" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:9" ht="30">
       <c r="A101" s="30" t="s">
         <v>120</v>
       </c>
@@ -6353,7 +6272,7 @@
       </c>
       <c r="I101" s="32"/>
     </row>
-    <row r="102" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:9" ht="30">
       <c r="A102" s="30" t="s">
         <v>121</v>
       </c>
@@ -6380,7 +6299,7 @@
       </c>
       <c r="I102" s="32"/>
     </row>
-    <row r="103" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:9">
       <c r="A103" s="30" t="s">
         <v>122</v>
       </c>
@@ -6405,7 +6324,7 @@
       </c>
       <c r="I103" s="32"/>
     </row>
-    <row r="104" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:9" ht="30">
       <c r="A104" s="30" t="s">
         <v>123</v>
       </c>
@@ -6413,7 +6332,7 @@
         <v>31</v>
       </c>
       <c r="C104" s="20" t="s">
-        <v>464</v>
+        <v>468</v>
       </c>
       <c r="D104" s="30"/>
       <c r="E104" s="30" t="s">
@@ -6430,7 +6349,7 @@
       </c>
       <c r="I104" s="32"/>
     </row>
-    <row r="105" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:9" ht="30">
       <c r="A105" s="30" t="s">
         <v>124</v>
       </c>
@@ -6455,7 +6374,7 @@
       </c>
       <c r="I105" s="32"/>
     </row>
-    <row r="106" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:9" ht="30">
       <c r="A106" s="30" t="s">
         <v>125</v>
       </c>
@@ -6480,7 +6399,7 @@
       </c>
       <c r="I106" s="32"/>
     </row>
-    <row r="107" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:9" ht="30">
       <c r="A107" s="30" t="s">
         <v>126</v>
       </c>
@@ -6505,7 +6424,7 @@
       </c>
       <c r="I107" s="32"/>
     </row>
-    <row r="108" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:9" ht="30">
       <c r="A108" s="30" t="s">
         <v>127</v>
       </c>
@@ -6532,7 +6451,7 @@
       </c>
       <c r="I108" s="32"/>
     </row>
-    <row r="109" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:9">
       <c r="A109" s="30" t="s">
         <v>128</v>
       </c>
@@ -6557,7 +6476,7 @@
       </c>
       <c r="I109" s="32"/>
     </row>
-    <row r="110" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:9" ht="30">
       <c r="A110" s="30" t="s">
         <v>129</v>
       </c>
@@ -6582,7 +6501,7 @@
       </c>
       <c r="I110" s="32"/>
     </row>
-    <row r="111" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:9">
       <c r="A111" s="30" t="s">
         <v>130</v>
       </c>
@@ -6607,7 +6526,7 @@
       </c>
       <c r="I111" s="32"/>
     </row>
-    <row r="112" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:9">
       <c r="A112" s="30" t="s">
         <v>131</v>
       </c>
@@ -6632,7 +6551,7 @@
       </c>
       <c r="I112" s="32"/>
     </row>
-    <row r="113" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:9">
       <c r="A113" s="30" t="s">
         <v>132</v>
       </c>
@@ -6657,7 +6576,7 @@
       </c>
       <c r="I113" s="32"/>
     </row>
-    <row r="114" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:9" ht="30">
       <c r="A114" s="30" t="s">
         <v>133</v>
       </c>
@@ -6665,7 +6584,7 @@
         <v>31</v>
       </c>
       <c r="C114" s="20" t="s">
-        <v>585</v>
+        <v>469</v>
       </c>
       <c r="D114" s="30"/>
       <c r="E114" s="30" t="s">
@@ -6682,7 +6601,7 @@
       </c>
       <c r="I114" s="32"/>
     </row>
-    <row r="115" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:9">
       <c r="A115" s="30" t="s">
         <v>134</v>
       </c>
@@ -6707,7 +6626,7 @@
       </c>
       <c r="I115" s="32"/>
     </row>
-    <row r="116" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:9">
       <c r="A116" s="30" t="s">
         <v>135</v>
       </c>
@@ -6732,7 +6651,7 @@
       </c>
       <c r="I116" s="32"/>
     </row>
-    <row r="117" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:9">
       <c r="A117" s="30" t="s">
         <v>136</v>
       </c>
@@ -6740,7 +6659,7 @@
         <v>31</v>
       </c>
       <c r="C117" s="20" t="s">
-        <v>557</v>
+        <v>581</v>
       </c>
       <c r="D117" s="30"/>
       <c r="E117" s="30" t="s">
@@ -6757,7 +6676,7 @@
       </c>
       <c r="I117" s="32"/>
     </row>
-    <row r="118" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:9" ht="30">
       <c r="A118" s="30" t="s">
         <v>137</v>
       </c>
@@ -6782,15 +6701,15 @@
       </c>
       <c r="I118" s="32"/>
     </row>
-    <row r="119" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:9">
       <c r="A119" s="22" t="s">
-        <v>466</v>
+        <v>471</v>
       </c>
       <c r="B119" s="24" t="s">
         <v>31</v>
       </c>
       <c r="C119" s="35" t="s">
-        <v>465</v>
+        <v>470</v>
       </c>
       <c r="D119" s="33"/>
       <c r="E119" s="33" t="s">
@@ -6807,7 +6726,7 @@
       </c>
       <c r="I119" s="35"/>
     </row>
-    <row r="120" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:9">
       <c r="A120" s="22" t="s">
         <v>138</v>
       </c>
@@ -6832,7 +6751,7 @@
       </c>
       <c r="I120" s="32"/>
     </row>
-    <row r="121" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:9" ht="30">
       <c r="A121" s="30" t="s">
         <v>139</v>
       </c>
@@ -6857,15 +6776,15 @@
       </c>
       <c r="I121" s="32"/>
     </row>
-    <row r="122" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:9" ht="30">
       <c r="A122" s="22" t="s">
-        <v>468</v>
+        <v>473</v>
       </c>
       <c r="B122" s="31" t="s">
         <v>31</v>
       </c>
       <c r="C122" s="35" t="s">
-        <v>467</v>
+        <v>472</v>
       </c>
       <c r="D122" s="33"/>
       <c r="E122" s="33" t="s">
@@ -6882,15 +6801,15 @@
       </c>
       <c r="I122" s="35"/>
     </row>
-    <row r="123" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:9" ht="30">
       <c r="A123" s="22" t="s">
-        <v>475</v>
+        <v>480</v>
       </c>
       <c r="B123" s="31" t="s">
         <v>31</v>
       </c>
       <c r="C123" s="35" t="s">
-        <v>469</v>
+        <v>474</v>
       </c>
       <c r="D123" s="33"/>
       <c r="E123" s="33" t="s">
@@ -6907,15 +6826,15 @@
       </c>
       <c r="I123" s="35"/>
     </row>
-    <row r="124" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:9" ht="30">
       <c r="A124" s="22" t="s">
-        <v>580</v>
+        <v>481</v>
       </c>
       <c r="B124" s="31" t="s">
         <v>31</v>
       </c>
       <c r="C124" s="35" t="s">
-        <v>470</v>
+        <v>475</v>
       </c>
       <c r="D124" s="33"/>
       <c r="E124" s="33" t="s">
@@ -6930,17 +6849,19 @@
       <c r="H124" s="33" t="s">
         <v>17</v>
       </c>
-      <c r="I124" s="35"/>
-    </row>
-    <row r="125" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="I124" s="20" t="s">
+        <v>591</v>
+      </c>
+    </row>
+    <row r="125" spans="1:9" ht="30">
       <c r="A125" s="22" t="s">
-        <v>476</v>
+        <v>482</v>
       </c>
       <c r="B125" s="31" t="s">
         <v>31</v>
       </c>
       <c r="C125" s="35" t="s">
-        <v>471</v>
+        <v>476</v>
       </c>
       <c r="D125" s="33"/>
       <c r="E125" s="33" t="s">
@@ -6957,15 +6878,15 @@
       </c>
       <c r="I125" s="35"/>
     </row>
-    <row r="126" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:9" ht="30">
       <c r="A126" s="22" t="s">
-        <v>477</v>
+        <v>483</v>
       </c>
       <c r="B126" s="31" t="s">
         <v>31</v>
       </c>
       <c r="C126" s="35" t="s">
-        <v>472</v>
+        <v>477</v>
       </c>
       <c r="D126" s="33"/>
       <c r="E126" s="33" t="s">
@@ -6980,17 +6901,19 @@
       <c r="H126" s="33" t="s">
         <v>17</v>
       </c>
-      <c r="I126" s="35"/>
-    </row>
-    <row r="127" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="I126" s="20" t="s">
+        <v>592</v>
+      </c>
+    </row>
+    <row r="127" spans="1:9" ht="30">
       <c r="A127" s="22" t="s">
-        <v>478</v>
+        <v>484</v>
       </c>
       <c r="B127" s="31" t="s">
         <v>31</v>
       </c>
       <c r="C127" s="35" t="s">
-        <v>473</v>
+        <v>478</v>
       </c>
       <c r="D127" s="33"/>
       <c r="E127" s="33" t="s">
@@ -7007,15 +6930,15 @@
       </c>
       <c r="I127" s="35"/>
     </row>
-    <row r="128" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:9" ht="30">
       <c r="A128" s="22" t="s">
-        <v>479</v>
+        <v>485</v>
       </c>
       <c r="B128" s="31" t="s">
         <v>31</v>
       </c>
       <c r="C128" s="35" t="s">
-        <v>474</v>
+        <v>479</v>
       </c>
       <c r="D128" s="33"/>
       <c r="E128" s="33" t="s">
@@ -7030,9 +6953,11 @@
       <c r="H128" s="33" t="s">
         <v>17</v>
       </c>
-      <c r="I128" s="35"/>
-    </row>
-    <row r="129" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="I128" s="20" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="129" spans="1:9" ht="30">
       <c r="A129" s="30" t="s">
         <v>140</v>
       </c>
@@ -7057,7 +6982,7 @@
       </c>
       <c r="I129" s="32"/>
     </row>
-    <row r="130" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:9" ht="30">
       <c r="A130" s="30" t="s">
         <v>141</v>
       </c>
@@ -7082,7 +7007,7 @@
       </c>
       <c r="I130" s="32"/>
     </row>
-    <row r="131" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:9" ht="30">
       <c r="A131" s="30" t="s">
         <v>142</v>
       </c>
@@ -7107,7 +7032,7 @@
       </c>
       <c r="I131" s="32"/>
     </row>
-    <row r="132" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:9" ht="30">
       <c r="A132" s="30" t="s">
         <v>143</v>
       </c>
@@ -7132,7 +7057,7 @@
       </c>
       <c r="I132" s="32"/>
     </row>
-    <row r="133" spans="1:9" ht="225" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:9" ht="240">
       <c r="A133" s="30" t="s">
         <v>144</v>
       </c>
@@ -7157,7 +7082,7 @@
       </c>
       <c r="I133" s="32"/>
     </row>
-    <row r="134" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:9" ht="45">
       <c r="A134" s="30" t="s">
         <v>145</v>
       </c>
@@ -7182,7 +7107,7 @@
       </c>
       <c r="I134" s="32"/>
     </row>
-    <row r="135" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:9" ht="60">
       <c r="A135" s="30" t="s">
         <v>146</v>
       </c>
@@ -7190,7 +7115,7 @@
         <v>259</v>
       </c>
       <c r="C135" s="20" t="s">
-        <v>566</v>
+        <v>486</v>
       </c>
       <c r="D135" s="30"/>
       <c r="E135" s="30" t="s">
@@ -7207,7 +7132,7 @@
       </c>
       <c r="I135" s="32"/>
     </row>
-    <row r="136" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:9" ht="45">
       <c r="A136" s="30" t="s">
         <v>147</v>
       </c>
@@ -7232,7 +7157,7 @@
       </c>
       <c r="I136" s="32"/>
     </row>
-    <row r="137" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:9" ht="30">
       <c r="A137" s="30" t="s">
         <v>148</v>
       </c>
@@ -7257,7 +7182,7 @@
       </c>
       <c r="I137" s="32"/>
     </row>
-    <row r="138" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:9" ht="30">
       <c r="A138" s="30" t="s">
         <v>149</v>
       </c>
@@ -7265,7 +7190,7 @@
         <v>259</v>
       </c>
       <c r="C138" s="20" t="s">
-        <v>586</v>
+        <v>487</v>
       </c>
       <c r="D138" s="30"/>
       <c r="E138" s="30" t="s">
@@ -7282,7 +7207,7 @@
       </c>
       <c r="I138" s="32"/>
     </row>
-    <row r="139" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:9" ht="30">
       <c r="A139" s="30" t="s">
         <v>150</v>
       </c>
@@ -7290,7 +7215,7 @@
         <v>259</v>
       </c>
       <c r="C139" s="20" t="s">
-        <v>567</v>
+        <v>488</v>
       </c>
       <c r="D139" s="30"/>
       <c r="E139" s="30" t="s">
@@ -7307,7 +7232,7 @@
       </c>
       <c r="I139" s="32"/>
     </row>
-    <row r="140" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:9" ht="30">
       <c r="A140" s="30" t="s">
         <v>151</v>
       </c>
@@ -7332,7 +7257,7 @@
       </c>
       <c r="I140" s="32"/>
     </row>
-    <row r="141" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:9" ht="30">
       <c r="A141" s="30" t="s">
         <v>152</v>
       </c>
@@ -7340,7 +7265,7 @@
         <v>259</v>
       </c>
       <c r="C141" s="20" t="s">
-        <v>587</v>
+        <v>489</v>
       </c>
       <c r="D141" s="30"/>
       <c r="E141" s="30" t="s">
@@ -7357,7 +7282,7 @@
       </c>
       <c r="I141" s="32"/>
     </row>
-    <row r="142" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:9" ht="45">
       <c r="A142" s="30" t="s">
         <v>153</v>
       </c>
@@ -7365,7 +7290,7 @@
         <v>259</v>
       </c>
       <c r="C142" s="20" t="s">
-        <v>568</v>
+        <v>490</v>
       </c>
       <c r="D142" s="30"/>
       <c r="E142" s="30" t="s">
@@ -7382,7 +7307,7 @@
       </c>
       <c r="I142" s="32"/>
     </row>
-    <row r="143" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:9" ht="30">
       <c r="A143" s="30" t="s">
         <v>154</v>
       </c>
@@ -7407,7 +7332,7 @@
       </c>
       <c r="I143" s="32"/>
     </row>
-    <row r="144" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:9" ht="30">
       <c r="A144" s="30" t="s">
         <v>155</v>
       </c>
@@ -7432,7 +7357,7 @@
       </c>
       <c r="I144" s="32"/>
     </row>
-    <row r="145" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:9">
       <c r="A145" s="30" t="s">
         <v>156</v>
       </c>
@@ -7457,7 +7382,7 @@
       </c>
       <c r="I145" s="32"/>
     </row>
-    <row r="146" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:9" ht="30">
       <c r="A146" s="30" t="s">
         <v>157</v>
       </c>
@@ -7482,7 +7407,7 @@
       </c>
       <c r="I146" s="32"/>
     </row>
-    <row r="147" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:9">
       <c r="A147" s="30" t="s">
         <v>158</v>
       </c>
@@ -7507,7 +7432,7 @@
       </c>
       <c r="I147" s="32"/>
     </row>
-    <row r="148" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:9" ht="30">
       <c r="A148" s="30" t="s">
         <v>159</v>
       </c>
@@ -7532,7 +7457,7 @@
       </c>
       <c r="I148" s="32"/>
     </row>
-    <row r="149" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:9" ht="45">
       <c r="A149" s="30" t="s">
         <v>160</v>
       </c>
@@ -7557,7 +7482,7 @@
       </c>
       <c r="I149" s="32"/>
     </row>
-    <row r="150" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:9" ht="30">
       <c r="A150" s="30" t="s">
         <v>161</v>
       </c>
@@ -7565,7 +7490,7 @@
         <v>264</v>
       </c>
       <c r="C150" s="20" t="s">
-        <v>480</v>
+        <v>491</v>
       </c>
       <c r="D150" s="30"/>
       <c r="E150" s="30" t="s">
@@ -7582,7 +7507,7 @@
       </c>
       <c r="I150" s="32"/>
     </row>
-    <row r="151" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:9" ht="30">
       <c r="A151" s="30" t="s">
         <v>162</v>
       </c>
@@ -7607,7 +7532,7 @@
       </c>
       <c r="I151" s="32"/>
     </row>
-    <row r="152" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:9" ht="30">
       <c r="A152" s="30" t="s">
         <v>163</v>
       </c>
@@ -7632,7 +7557,7 @@
       </c>
       <c r="I152" s="32"/>
     </row>
-    <row r="153" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:9" ht="30">
       <c r="A153" s="30" t="s">
         <v>164</v>
       </c>
@@ -7657,7 +7582,7 @@
       </c>
       <c r="I153" s="32"/>
     </row>
-    <row r="154" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:9" ht="45">
       <c r="A154" s="30" t="s">
         <v>165</v>
       </c>
@@ -7682,7 +7607,7 @@
       </c>
       <c r="I154" s="32"/>
     </row>
-    <row r="155" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:9" ht="45">
       <c r="A155" s="30" t="s">
         <v>166</v>
       </c>
@@ -7707,7 +7632,7 @@
       </c>
       <c r="I155" s="32"/>
     </row>
-    <row r="156" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:9" ht="30">
       <c r="A156" s="30" t="s">
         <v>167</v>
       </c>
@@ -7715,7 +7640,7 @@
         <v>266</v>
       </c>
       <c r="C156" s="20" t="s">
-        <v>482</v>
+        <v>493</v>
       </c>
       <c r="D156" s="30"/>
       <c r="E156" s="30" t="s">
@@ -7732,7 +7657,7 @@
       </c>
       <c r="I156" s="32"/>
     </row>
-    <row r="157" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:9" ht="30">
       <c r="A157" s="30" t="s">
         <v>168</v>
       </c>
@@ -7740,7 +7665,7 @@
         <v>266</v>
       </c>
       <c r="C157" s="20" t="s">
-        <v>481</v>
+        <v>492</v>
       </c>
       <c r="D157" s="30"/>
       <c r="E157" s="30" t="s">
@@ -7757,7 +7682,7 @@
       </c>
       <c r="I157" s="32"/>
     </row>
-    <row r="158" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:9" ht="30">
       <c r="A158" s="30" t="s">
         <v>169</v>
       </c>
@@ -7765,7 +7690,7 @@
         <v>266</v>
       </c>
       <c r="C158" s="20" t="s">
-        <v>483</v>
+        <v>494</v>
       </c>
       <c r="D158" s="30"/>
       <c r="E158" s="30" t="s">
@@ -7782,7 +7707,7 @@
       </c>
       <c r="I158" s="32"/>
     </row>
-    <row r="159" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:9" ht="30">
       <c r="A159" s="30" t="s">
         <v>170</v>
       </c>
@@ -7790,7 +7715,7 @@
         <v>266</v>
       </c>
       <c r="C159" s="20" t="s">
-        <v>484</v>
+        <v>495</v>
       </c>
       <c r="D159" s="30"/>
       <c r="E159" s="30" t="s">
@@ -7807,7 +7732,7 @@
       </c>
       <c r="I159" s="32"/>
     </row>
-    <row r="160" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:9" ht="30">
       <c r="A160" s="30" t="s">
         <v>171</v>
       </c>
@@ -7815,7 +7740,7 @@
         <v>266</v>
       </c>
       <c r="C160" s="20" t="s">
-        <v>485</v>
+        <v>496</v>
       </c>
       <c r="D160" s="30"/>
       <c r="E160" s="30" t="s">
@@ -7832,7 +7757,7 @@
       </c>
       <c r="I160" s="32"/>
     </row>
-    <row r="161" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:9" ht="30">
       <c r="A161" s="30" t="s">
         <v>172</v>
       </c>
@@ -7840,7 +7765,7 @@
         <v>266</v>
       </c>
       <c r="C161" s="20" t="s">
-        <v>486</v>
+        <v>497</v>
       </c>
       <c r="D161" s="30"/>
       <c r="E161" s="30" t="s">
@@ -7857,7 +7782,7 @@
       </c>
       <c r="I161" s="32"/>
     </row>
-    <row r="162" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:9" ht="30">
       <c r="A162" s="30" t="s">
         <v>173</v>
       </c>
@@ -7865,7 +7790,7 @@
         <v>266</v>
       </c>
       <c r="C162" s="20" t="s">
-        <v>487</v>
+        <v>498</v>
       </c>
       <c r="D162" s="30"/>
       <c r="E162" s="30" t="s">
@@ -7882,7 +7807,7 @@
       </c>
       <c r="I162" s="32"/>
     </row>
-    <row r="163" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:9">
       <c r="A163" s="30" t="s">
         <v>226</v>
       </c>
@@ -7890,7 +7815,7 @@
         <v>32</v>
       </c>
       <c r="C163" s="20" t="s">
-        <v>488</v>
+        <v>499</v>
       </c>
       <c r="D163" s="30"/>
       <c r="E163" s="30" t="s">
@@ -7907,7 +7832,7 @@
       </c>
       <c r="I163" s="32"/>
     </row>
-    <row r="164" spans="1:9" ht="75" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:9" ht="75">
       <c r="A164" s="30" t="s">
         <v>227</v>
       </c>
@@ -7932,7 +7857,7 @@
       </c>
       <c r="I164" s="32"/>
     </row>
-    <row r="165" spans="1:9" ht="225" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:9" ht="240">
       <c r="A165" s="30" t="s">
         <v>228</v>
       </c>
@@ -7957,7 +7882,7 @@
       </c>
       <c r="I165" s="32"/>
     </row>
-    <row r="166" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:9" ht="30">
       <c r="A166" s="30" t="s">
         <v>229</v>
       </c>
@@ -7980,9 +7905,9 @@
       <c r="H166" s="30" t="s">
         <v>20</v>
       </c>
-      <c r="I166" s="32"/>
-    </row>
-    <row r="167" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+      <c r="I166"/>
+    </row>
+    <row r="167" spans="1:9" ht="75">
       <c r="A167" s="30" t="s">
         <v>230</v>
       </c>
@@ -7990,7 +7915,7 @@
         <v>32</v>
       </c>
       <c r="C167" s="20" t="s">
-        <v>569</v>
+        <v>500</v>
       </c>
       <c r="D167" s="30"/>
       <c r="E167" s="30" t="s">
@@ -8007,7 +7932,7 @@
       </c>
       <c r="I167" s="32"/>
     </row>
-    <row r="168" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:9" ht="45">
       <c r="A168" s="30" t="s">
         <v>231</v>
       </c>
@@ -8015,7 +7940,7 @@
         <v>32</v>
       </c>
       <c r="C168" s="20" t="s">
-        <v>570</v>
+        <v>501</v>
       </c>
       <c r="D168" s="30"/>
       <c r="E168" s="30" t="s">
@@ -8032,15 +7957,15 @@
       </c>
       <c r="I168" s="32"/>
     </row>
-    <row r="169" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:9" ht="45">
       <c r="A169" s="22" t="s">
-        <v>490</v>
+        <v>503</v>
       </c>
       <c r="B169" s="24" t="s">
         <v>32</v>
       </c>
       <c r="C169" s="35" t="s">
-        <v>489</v>
+        <v>502</v>
       </c>
       <c r="D169" s="33"/>
       <c r="E169" s="33" t="s">
@@ -8057,15 +7982,15 @@
       </c>
       <c r="I169" s="35"/>
     </row>
-    <row r="170" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:9" ht="45">
       <c r="A170" s="22" t="s">
-        <v>491</v>
+        <v>504</v>
       </c>
       <c r="B170" s="24" t="s">
         <v>32</v>
       </c>
       <c r="C170" s="35" t="s">
-        <v>498</v>
+        <v>513</v>
       </c>
       <c r="D170" s="33"/>
       <c r="E170" s="33" t="s">
@@ -8082,7 +8007,7 @@
       </c>
       <c r="I170" s="35"/>
     </row>
-    <row r="171" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:9" ht="30">
       <c r="A171" s="30" t="s">
         <v>232</v>
       </c>
@@ -8090,7 +8015,7 @@
         <v>32</v>
       </c>
       <c r="C171" s="20" t="s">
-        <v>492</v>
+        <v>505</v>
       </c>
       <c r="D171" s="30"/>
       <c r="E171" s="30" t="s">
@@ -8107,7 +8032,7 @@
       </c>
       <c r="I171" s="32"/>
     </row>
-    <row r="172" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:9">
       <c r="A172" s="30" t="s">
         <v>174</v>
       </c>
@@ -8115,7 +8040,7 @@
         <v>33</v>
       </c>
       <c r="C172" s="20" t="s">
-        <v>493</v>
+        <v>506</v>
       </c>
       <c r="D172" s="30"/>
       <c r="E172" s="30" t="s">
@@ -8132,7 +8057,7 @@
       </c>
       <c r="I172" s="32"/>
     </row>
-    <row r="173" spans="1:9" ht="75" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:9" ht="90">
       <c r="A173" s="30" t="s">
         <v>175</v>
       </c>
@@ -8157,7 +8082,7 @@
       </c>
       <c r="I173" s="32"/>
     </row>
-    <row r="174" spans="1:9" ht="240" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:9" ht="270">
       <c r="A174" s="30" t="s">
         <v>176</v>
       </c>
@@ -8182,7 +8107,7 @@
       </c>
       <c r="I174" s="32"/>
     </row>
-    <row r="175" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:9" ht="30">
       <c r="A175" s="30" t="s">
         <v>177</v>
       </c>
@@ -8207,7 +8132,7 @@
       </c>
       <c r="I175" s="32"/>
     </row>
-    <row r="176" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:9" ht="75">
       <c r="A176" s="30" t="s">
         <v>178</v>
       </c>
@@ -8215,7 +8140,7 @@
         <v>33</v>
       </c>
       <c r="C176" s="20" t="s">
-        <v>571</v>
+        <v>507</v>
       </c>
       <c r="D176" s="30"/>
       <c r="E176" s="30" t="s">
@@ -8232,7 +8157,7 @@
       </c>
       <c r="I176" s="32"/>
     </row>
-    <row r="177" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:9" ht="45">
       <c r="A177" s="30" t="s">
         <v>179</v>
       </c>
@@ -8240,7 +8165,7 @@
         <v>33</v>
       </c>
       <c r="C177" s="20" t="s">
-        <v>572</v>
+        <v>508</v>
       </c>
       <c r="D177" s="30"/>
       <c r="E177" s="30" t="s">
@@ -8257,15 +8182,15 @@
       </c>
       <c r="I177" s="32"/>
     </row>
-    <row r="178" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:9" ht="45">
       <c r="A178" s="22" t="s">
-        <v>496</v>
+        <v>511</v>
       </c>
       <c r="B178" s="24" t="s">
         <v>33</v>
       </c>
       <c r="C178" s="35" t="s">
-        <v>494</v>
+        <v>509</v>
       </c>
       <c r="D178" s="33"/>
       <c r="E178" s="33" t="s">
@@ -8282,15 +8207,15 @@
       </c>
       <c r="I178" s="35"/>
     </row>
-    <row r="179" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:9" ht="60">
       <c r="A179" s="22" t="s">
-        <v>497</v>
+        <v>512</v>
       </c>
       <c r="B179" s="24" t="s">
         <v>33</v>
       </c>
       <c r="C179" s="35" t="s">
-        <v>495</v>
+        <v>510</v>
       </c>
       <c r="D179" s="33"/>
       <c r="E179" s="33" t="s">
@@ -8307,7 +8232,7 @@
       </c>
       <c r="I179" s="35"/>
     </row>
-    <row r="180" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:9" ht="30">
       <c r="A180" s="30" t="s">
         <v>180</v>
       </c>
@@ -8332,7 +8257,7 @@
       </c>
       <c r="I180" s="32"/>
     </row>
-    <row r="181" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:9">
       <c r="A181" s="30" t="s">
         <v>212</v>
       </c>
@@ -8340,7 +8265,7 @@
         <v>267</v>
       </c>
       <c r="C181" s="20" t="s">
-        <v>499</v>
+        <v>514</v>
       </c>
       <c r="D181" s="30"/>
       <c r="E181" s="30" t="s">
@@ -8357,7 +8282,7 @@
       </c>
       <c r="I181" s="32"/>
     </row>
-    <row r="182" spans="1:9" ht="75" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:9" ht="75">
       <c r="A182" s="30" t="s">
         <v>213</v>
       </c>
@@ -8382,7 +8307,7 @@
       </c>
       <c r="I182" s="32"/>
     </row>
-    <row r="183" spans="1:9" ht="225" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:9" ht="240">
       <c r="A183" s="30" t="s">
         <v>214</v>
       </c>
@@ -8407,7 +8332,7 @@
       </c>
       <c r="I183" s="32"/>
     </row>
-    <row r="184" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:9" ht="30">
       <c r="A184" s="30" t="s">
         <v>215</v>
       </c>
@@ -8432,7 +8357,7 @@
       </c>
       <c r="I184" s="32"/>
     </row>
-    <row r="185" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:9" ht="75">
       <c r="A185" s="30" t="s">
         <v>216</v>
       </c>
@@ -8440,7 +8365,7 @@
         <v>267</v>
       </c>
       <c r="C185" s="20" t="s">
-        <v>573</v>
+        <v>515</v>
       </c>
       <c r="D185" s="30"/>
       <c r="E185" s="30" t="s">
@@ -8457,7 +8382,7 @@
       </c>
       <c r="I185" s="32"/>
     </row>
-    <row r="186" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:9" ht="45">
       <c r="A186" s="30" t="s">
         <v>217</v>
       </c>
@@ -8465,7 +8390,7 @@
         <v>267</v>
       </c>
       <c r="C186" s="20" t="s">
-        <v>574</v>
+        <v>516</v>
       </c>
       <c r="D186" s="30"/>
       <c r="E186" s="30" t="s">
@@ -8482,15 +8407,15 @@
       </c>
       <c r="I186" s="32"/>
     </row>
-    <row r="187" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:9" ht="45">
       <c r="A187" s="22" t="s">
-        <v>503</v>
+        <v>520</v>
       </c>
       <c r="B187" s="24" t="s">
         <v>267</v>
       </c>
       <c r="C187" s="35" t="s">
-        <v>501</v>
+        <v>518</v>
       </c>
       <c r="D187" s="33"/>
       <c r="E187" s="30" t="s">
@@ -8507,15 +8432,15 @@
       </c>
       <c r="I187" s="35"/>
     </row>
-    <row r="188" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:9" ht="60">
       <c r="A188" s="22" t="s">
-        <v>504</v>
+        <v>521</v>
       </c>
       <c r="B188" s="24" t="s">
         <v>267</v>
       </c>
       <c r="C188" s="35" t="s">
-        <v>502</v>
+        <v>519</v>
       </c>
       <c r="D188" s="33"/>
       <c r="E188" s="30" t="s">
@@ -8532,7 +8457,7 @@
       </c>
       <c r="I188" s="35"/>
     </row>
-    <row r="189" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:9" ht="30">
       <c r="A189" s="30" t="s">
         <v>218</v>
       </c>
@@ -8540,7 +8465,7 @@
         <v>267</v>
       </c>
       <c r="C189" s="20" t="s">
-        <v>500</v>
+        <v>517</v>
       </c>
       <c r="D189" s="30"/>
       <c r="E189" s="30" t="s">
@@ -8557,7 +8482,7 @@
       </c>
       <c r="I189" s="32"/>
     </row>
-    <row r="190" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:9" ht="30">
       <c r="A190" s="30" t="s">
         <v>181</v>
       </c>
@@ -8565,7 +8490,7 @@
         <v>268</v>
       </c>
       <c r="C190" s="20" t="s">
-        <v>505</v>
+        <v>522</v>
       </c>
       <c r="D190" s="30"/>
       <c r="E190" s="30" t="s">
@@ -8582,7 +8507,7 @@
       </c>
       <c r="I190" s="32"/>
     </row>
-    <row r="191" spans="1:9" ht="75" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:9" ht="75">
       <c r="A191" s="30" t="s">
         <v>182</v>
       </c>
@@ -8607,7 +8532,7 @@
       </c>
       <c r="I191" s="32"/>
     </row>
-    <row r="192" spans="1:9" ht="240" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:9" ht="240">
       <c r="A192" s="30" t="s">
         <v>183</v>
       </c>
@@ -8632,7 +8557,7 @@
       </c>
       <c r="I192" s="32"/>
     </row>
-    <row r="193" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:9" ht="30">
       <c r="A193" s="30" t="s">
         <v>184</v>
       </c>
@@ -8657,7 +8582,7 @@
       </c>
       <c r="I193" s="32"/>
     </row>
-    <row r="194" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:9">
       <c r="A194" s="30" t="s">
         <v>185</v>
       </c>
@@ -8682,7 +8607,7 @@
       </c>
       <c r="I194" s="32"/>
     </row>
-    <row r="195" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:9" ht="45">
       <c r="A195" s="30" t="s">
         <v>186</v>
       </c>
@@ -8707,7 +8632,7 @@
       </c>
       <c r="I195" s="32"/>
     </row>
-    <row r="196" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:9">
       <c r="A196" s="30" t="s">
         <v>187</v>
       </c>
@@ -8732,7 +8657,7 @@
       </c>
       <c r="I196" s="32"/>
     </row>
-    <row r="197" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:9" ht="45">
       <c r="A197" s="30" t="s">
         <v>188</v>
       </c>
@@ -8757,7 +8682,7 @@
       </c>
       <c r="I197" s="32"/>
     </row>
-    <row r="198" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:9" ht="45">
       <c r="A198" s="30" t="s">
         <v>189</v>
       </c>
@@ -8782,7 +8707,7 @@
       </c>
       <c r="I198" s="32"/>
     </row>
-    <row r="199" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:9" ht="30">
       <c r="A199" s="30" t="s">
         <v>190</v>
       </c>
@@ -8807,7 +8732,7 @@
       </c>
       <c r="I199" s="32"/>
     </row>
-    <row r="200" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:9" ht="30">
       <c r="A200" s="30" t="s">
         <v>191</v>
       </c>
@@ -8832,7 +8757,7 @@
       </c>
       <c r="I200" s="32"/>
     </row>
-    <row r="201" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:9" ht="45">
       <c r="A201" s="30" t="s">
         <v>192</v>
       </c>
@@ -8857,7 +8782,7 @@
       </c>
       <c r="I201" s="32"/>
     </row>
-    <row r="202" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:9" ht="30">
       <c r="A202" s="30" t="s">
         <v>193</v>
       </c>
@@ -8882,7 +8807,7 @@
       </c>
       <c r="I202" s="32"/>
     </row>
-    <row r="203" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:9" ht="60">
       <c r="A203" s="30" t="s">
         <v>194</v>
       </c>
@@ -8906,10 +8831,10 @@
         <v>17</v>
       </c>
       <c r="I203" s="20" t="s">
-        <v>535</v>
-      </c>
-    </row>
-    <row r="204" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+        <v>558</v>
+      </c>
+    </row>
+    <row r="204" spans="1:9" ht="30">
       <c r="A204" s="30" t="s">
         <v>195</v>
       </c>
@@ -8933,10 +8858,10 @@
         <v>17</v>
       </c>
       <c r="I204" s="20" t="s">
-        <v>541</v>
-      </c>
-    </row>
-    <row r="205" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="205" spans="1:9" ht="60">
       <c r="A205" s="30" t="s">
         <v>196</v>
       </c>
@@ -8960,10 +8885,10 @@
         <v>17</v>
       </c>
       <c r="I205" s="20" t="s">
-        <v>549</v>
-      </c>
-    </row>
-    <row r="206" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+        <v>572</v>
+      </c>
+    </row>
+    <row r="206" spans="1:9" ht="30">
       <c r="A206" s="30" t="s">
         <v>197</v>
       </c>
@@ -8987,10 +8912,10 @@
         <v>17</v>
       </c>
       <c r="I206" s="20" t="s">
-        <v>544</v>
-      </c>
-    </row>
-    <row r="207" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="207" spans="1:9" ht="30">
       <c r="A207" s="30" t="s">
         <v>198</v>
       </c>
@@ -9015,7 +8940,7 @@
       </c>
       <c r="I207" s="32"/>
     </row>
-    <row r="208" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:9" ht="75">
       <c r="A208" s="30" t="s">
         <v>199</v>
       </c>
@@ -9023,7 +8948,7 @@
         <v>268</v>
       </c>
       <c r="C208" s="20" t="s">
-        <v>575</v>
+        <v>523</v>
       </c>
       <c r="D208" s="30"/>
       <c r="E208" s="30" t="s">
@@ -9040,7 +8965,7 @@
       </c>
       <c r="I208" s="32"/>
     </row>
-    <row r="209" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:9" ht="45">
       <c r="A209" s="30" t="s">
         <v>200</v>
       </c>
@@ -9048,7 +8973,7 @@
         <v>268</v>
       </c>
       <c r="C209" s="20" t="s">
-        <v>576</v>
+        <v>524</v>
       </c>
       <c r="D209" s="30"/>
       <c r="E209" s="30" t="s">
@@ -9065,15 +8990,15 @@
       </c>
       <c r="I209" s="32"/>
     </row>
-    <row r="210" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:9" ht="45">
       <c r="A210" s="22" t="s">
-        <v>508</v>
+        <v>527</v>
       </c>
       <c r="B210" s="24" t="s">
         <v>268</v>
       </c>
       <c r="C210" s="35" t="s">
-        <v>506</v>
+        <v>525</v>
       </c>
       <c r="D210" s="33"/>
       <c r="E210" s="30" t="s">
@@ -9090,15 +9015,15 @@
       </c>
       <c r="I210" s="35"/>
     </row>
-    <row r="211" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:9" ht="45">
       <c r="A211" s="22" t="s">
-        <v>509</v>
+        <v>528</v>
       </c>
       <c r="B211" s="24" t="s">
         <v>268</v>
       </c>
       <c r="C211" s="35" t="s">
-        <v>507</v>
+        <v>526</v>
       </c>
       <c r="D211" s="33"/>
       <c r="E211" s="30" t="s">
@@ -9115,7 +9040,7 @@
       </c>
       <c r="I211" s="35"/>
     </row>
-    <row r="212" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:9" ht="30">
       <c r="A212" s="30" t="s">
         <v>201</v>
       </c>
@@ -9140,7 +9065,7 @@
       </c>
       <c r="I212" s="32"/>
     </row>
-    <row r="213" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:9" ht="30">
       <c r="A213" s="30" t="s">
         <v>219</v>
       </c>
@@ -9148,7 +9073,7 @@
         <v>269</v>
       </c>
       <c r="C213" s="20" t="s">
-        <v>510</v>
+        <v>529</v>
       </c>
       <c r="D213" s="30"/>
       <c r="E213" s="30" t="s">
@@ -9165,7 +9090,7 @@
       </c>
       <c r="I213" s="32"/>
     </row>
-    <row r="214" spans="1:9" ht="75" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:9" ht="75">
       <c r="A214" s="30" t="s">
         <v>220</v>
       </c>
@@ -9190,7 +9115,7 @@
       </c>
       <c r="I214" s="32"/>
     </row>
-    <row r="215" spans="1:9" ht="225" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:9" ht="240">
       <c r="A215" s="30" t="s">
         <v>221</v>
       </c>
@@ -9215,7 +9140,7 @@
       </c>
       <c r="I215" s="32"/>
     </row>
-    <row r="216" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:9" ht="30">
       <c r="A216" s="30" t="s">
         <v>222</v>
       </c>
@@ -9240,7 +9165,7 @@
       </c>
       <c r="I216" s="32"/>
     </row>
-    <row r="217" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:9" ht="75">
       <c r="A217" s="30" t="s">
         <v>223</v>
       </c>
@@ -9248,7 +9173,7 @@
         <v>269</v>
       </c>
       <c r="C217" s="20" t="s">
-        <v>582</v>
+        <v>530</v>
       </c>
       <c r="D217" s="30"/>
       <c r="E217" s="30" t="s">
@@ -9265,7 +9190,7 @@
       </c>
       <c r="I217" s="32"/>
     </row>
-    <row r="218" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:9" ht="45">
       <c r="A218" s="30" t="s">
         <v>224</v>
       </c>
@@ -9273,7 +9198,7 @@
         <v>269</v>
       </c>
       <c r="C218" s="20" t="s">
-        <v>577</v>
+        <v>531</v>
       </c>
       <c r="D218" s="30"/>
       <c r="E218" s="30" t="s">
@@ -9290,15 +9215,15 @@
       </c>
       <c r="I218" s="32"/>
     </row>
-    <row r="219" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:9" ht="45">
       <c r="A219" s="22" t="s">
-        <v>513</v>
+        <v>534</v>
       </c>
       <c r="B219" s="31" t="s">
         <v>269</v>
       </c>
       <c r="C219" s="35" t="s">
-        <v>511</v>
+        <v>532</v>
       </c>
       <c r="D219" s="33"/>
       <c r="E219" s="30" t="s">
@@ -9315,15 +9240,15 @@
       </c>
       <c r="I219" s="35"/>
     </row>
-    <row r="220" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:9" ht="45">
       <c r="A220" s="22" t="s">
-        <v>514</v>
+        <v>535</v>
       </c>
       <c r="B220" s="31" t="s">
         <v>269</v>
       </c>
       <c r="C220" s="35" t="s">
-        <v>512</v>
+        <v>533</v>
       </c>
       <c r="D220" s="33"/>
       <c r="E220" s="30" t="s">
@@ -9340,7 +9265,7 @@
       </c>
       <c r="I220" s="35"/>
     </row>
-    <row r="221" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:9" ht="30">
       <c r="A221" s="30" t="s">
         <v>225</v>
       </c>
@@ -9365,7 +9290,7 @@
       </c>
       <c r="I221" s="32"/>
     </row>
-    <row r="222" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:9" ht="30">
       <c r="A222" s="30" t="s">
         <v>233</v>
       </c>
@@ -9390,7 +9315,7 @@
       </c>
       <c r="I222" s="32"/>
     </row>
-    <row r="223" spans="1:9" ht="75" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:9" ht="75">
       <c r="A223" s="30" t="s">
         <v>234</v>
       </c>
@@ -9415,7 +9340,7 @@
       </c>
       <c r="I223" s="32"/>
     </row>
-    <row r="224" spans="1:9" ht="225" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:9" ht="240">
       <c r="A224" s="30" t="s">
         <v>235</v>
       </c>
@@ -9440,7 +9365,7 @@
       </c>
       <c r="I224" s="32"/>
     </row>
-    <row r="225" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:9" ht="30">
       <c r="A225" s="30" t="s">
         <v>236</v>
       </c>
@@ -9465,7 +9390,7 @@
       </c>
       <c r="I225" s="32"/>
     </row>
-    <row r="226" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:9" ht="45">
       <c r="A226" s="30" t="s">
         <v>237</v>
       </c>
@@ -9490,7 +9415,7 @@
       </c>
       <c r="I226" s="32"/>
     </row>
-    <row r="227" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:9" ht="45">
       <c r="A227" s="30" t="s">
         <v>238</v>
       </c>
@@ -9515,7 +9440,7 @@
       </c>
       <c r="I227" s="32"/>
     </row>
-    <row r="228" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:9" ht="30">
       <c r="A228" s="30" t="s">
         <v>239</v>
       </c>
@@ -9540,7 +9465,7 @@
       </c>
       <c r="I228" s="32"/>
     </row>
-    <row r="229" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:9" ht="30">
       <c r="A229" s="30" t="s">
         <v>202</v>
       </c>
@@ -9548,7 +9473,7 @@
         <v>271</v>
       </c>
       <c r="C229" s="20" t="s">
-        <v>515</v>
+        <v>536</v>
       </c>
       <c r="D229" s="30"/>
       <c r="E229" s="30" t="s">
@@ -9565,7 +9490,7 @@
       </c>
       <c r="I229" s="32"/>
     </row>
-    <row r="230" spans="1:9" ht="75" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:9" ht="75">
       <c r="A230" s="30" t="s">
         <v>203</v>
       </c>
@@ -9590,7 +9515,7 @@
       </c>
       <c r="I230" s="32"/>
     </row>
-    <row r="231" spans="1:9" ht="240" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:9" ht="270">
       <c r="A231" s="30" t="s">
         <v>204</v>
       </c>
@@ -9615,7 +9540,7 @@
       </c>
       <c r="I231" s="32"/>
     </row>
-    <row r="232" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:9" ht="30">
       <c r="A232" s="30" t="s">
         <v>205</v>
       </c>
@@ -9640,7 +9565,7 @@
       </c>
       <c r="I232" s="32"/>
     </row>
-    <row r="233" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:9" ht="30">
       <c r="A233" s="30" t="s">
         <v>206</v>
       </c>
@@ -9665,7 +9590,7 @@
       </c>
       <c r="I233" s="32"/>
     </row>
-    <row r="234" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:9" ht="30">
       <c r="A234" s="30" t="s">
         <v>207</v>
       </c>
@@ -9690,7 +9615,7 @@
       </c>
       <c r="I234" s="32"/>
     </row>
-    <row r="235" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:9" ht="30">
       <c r="A235" s="30" t="s">
         <v>208</v>
       </c>
@@ -9715,7 +9640,7 @@
       </c>
       <c r="I235" s="32"/>
     </row>
-    <row r="236" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:9" ht="75">
       <c r="A236" s="30" t="s">
         <v>209</v>
       </c>
@@ -9723,7 +9648,7 @@
         <v>271</v>
       </c>
       <c r="C236" s="20" t="s">
-        <v>578</v>
+        <v>537</v>
       </c>
       <c r="D236" s="30"/>
       <c r="E236" s="30" t="s">
@@ -9740,7 +9665,7 @@
       </c>
       <c r="I236" s="32"/>
     </row>
-    <row r="237" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:9" ht="60">
       <c r="A237" s="30" t="s">
         <v>210</v>
       </c>
@@ -9748,7 +9673,7 @@
         <v>271</v>
       </c>
       <c r="C237" s="20" t="s">
-        <v>579</v>
+        <v>538</v>
       </c>
       <c r="D237" s="30"/>
       <c r="E237" s="30" t="s">
@@ -9765,15 +9690,15 @@
       </c>
       <c r="I237" s="32"/>
     </row>
-    <row r="238" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:9" ht="45">
       <c r="A238" s="22" t="s">
-        <v>518</v>
+        <v>541</v>
       </c>
       <c r="B238" s="24" t="s">
         <v>271</v>
       </c>
       <c r="C238" s="35" t="s">
-        <v>516</v>
+        <v>539</v>
       </c>
       <c r="D238" s="33"/>
       <c r="E238" s="30" t="s">
@@ -9790,15 +9715,15 @@
       </c>
       <c r="I238" s="35"/>
     </row>
-    <row r="239" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:9" ht="60">
       <c r="A239" s="22" t="s">
-        <v>519</v>
+        <v>542</v>
       </c>
       <c r="B239" s="24" t="s">
         <v>271</v>
       </c>
       <c r="C239" s="35" t="s">
-        <v>517</v>
+        <v>540</v>
       </c>
       <c r="D239" s="33"/>
       <c r="E239" s="30" t="s">
@@ -9815,7 +9740,7 @@
       </c>
       <c r="I239" s="35"/>
     </row>
-    <row r="240" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:9" ht="30">
       <c r="A240" s="30" t="s">
         <v>211</v>
       </c>
@@ -9840,7 +9765,7 @@
       </c>
       <c r="I240" s="32"/>
     </row>
-    <row r="241" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:10" ht="45">
       <c r="A241" s="30" t="s">
         <v>240</v>
       </c>
@@ -9865,7 +9790,7 @@
       </c>
       <c r="I241" s="32"/>
     </row>
-    <row r="242" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:10" ht="45">
       <c r="A242" s="30" t="s">
         <v>241</v>
       </c>
@@ -9894,7 +9819,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="243" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:10" ht="30">
       <c r="A243" s="30" t="s">
         <v>242</v>
       </c>
@@ -9919,18 +9844,18 @@
       </c>
       <c r="I243" s="32"/>
     </row>
-    <row r="244" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:10" ht="45">
       <c r="A244" s="22" t="s">
-        <v>525</v>
+        <v>548</v>
       </c>
       <c r="B244" s="31" t="s">
         <v>272</v>
       </c>
       <c r="C244" s="35" t="s">
-        <v>520</v>
+        <v>543</v>
       </c>
       <c r="D244" s="33" t="s">
-        <v>531</v>
+        <v>554</v>
       </c>
       <c r="E244" s="30" t="s">
         <v>22</v>
@@ -9946,18 +9871,18 @@
       </c>
       <c r="I244" s="35"/>
     </row>
-    <row r="245" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:10" ht="45">
       <c r="A245" s="22" t="s">
-        <v>526</v>
+        <v>549</v>
       </c>
       <c r="B245" s="31" t="s">
         <v>272</v>
       </c>
       <c r="C245" s="35" t="s">
-        <v>521</v>
+        <v>544</v>
       </c>
       <c r="D245" s="33" t="s">
-        <v>531</v>
+        <v>554</v>
       </c>
       <c r="E245" s="30" t="s">
         <v>22</v>
@@ -9971,22 +9896,20 @@
       <c r="H245" s="33" t="s">
         <v>18</v>
       </c>
-      <c r="I245" s="32" t="s">
-        <v>437</v>
-      </c>
-    </row>
-    <row r="246" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+      <c r="I245" s="35"/>
+    </row>
+    <row r="246" spans="1:10" ht="45">
       <c r="A246" s="22" t="s">
-        <v>527</v>
+        <v>550</v>
       </c>
       <c r="B246" s="31" t="s">
         <v>272</v>
       </c>
       <c r="C246" s="35" t="s">
-        <v>563</v>
+        <v>588</v>
       </c>
       <c r="D246" s="33" t="s">
-        <v>532</v>
+        <v>555</v>
       </c>
       <c r="E246" s="30" t="s">
         <v>22</v>
@@ -10002,18 +9925,18 @@
       </c>
       <c r="I246" s="35"/>
     </row>
-    <row r="247" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:10" ht="30">
       <c r="A247" s="22" t="s">
-        <v>528</v>
+        <v>551</v>
       </c>
       <c r="B247" s="31" t="s">
         <v>272</v>
       </c>
       <c r="C247" s="35" t="s">
-        <v>524</v>
+        <v>547</v>
       </c>
       <c r="D247" s="33" t="s">
-        <v>532</v>
+        <v>555</v>
       </c>
       <c r="E247" s="30" t="s">
         <v>22</v>
@@ -10027,22 +9950,20 @@
       <c r="H247" s="33" t="s">
         <v>18</v>
       </c>
-      <c r="I247" s="32" t="s">
-        <v>437</v>
-      </c>
-    </row>
-    <row r="248" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+      <c r="I247" s="35"/>
+    </row>
+    <row r="248" spans="1:10" ht="45">
       <c r="A248" s="22" t="s">
-        <v>529</v>
+        <v>552</v>
       </c>
       <c r="B248" s="31" t="s">
         <v>272</v>
       </c>
       <c r="C248" s="35" t="s">
-        <v>522</v>
+        <v>545</v>
       </c>
       <c r="D248" s="33" t="s">
-        <v>533</v>
+        <v>556</v>
       </c>
       <c r="E248" s="30" t="s">
         <v>22</v>
@@ -10058,18 +9979,18 @@
       </c>
       <c r="I248" s="35"/>
     </row>
-    <row r="249" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:10" ht="30">
       <c r="A249" s="22" t="s">
-        <v>530</v>
+        <v>553</v>
       </c>
       <c r="B249" s="31" t="s">
         <v>272</v>
       </c>
       <c r="C249" s="35" t="s">
-        <v>523</v>
+        <v>546</v>
       </c>
       <c r="D249" s="33" t="s">
-        <v>533</v>
+        <v>556</v>
       </c>
       <c r="E249" s="30" t="s">
         <v>22</v>
@@ -10083,11 +10004,9 @@
       <c r="H249" s="33" t="s">
         <v>18</v>
       </c>
-      <c r="I249" s="32" t="s">
-        <v>437</v>
-      </c>
-    </row>
-    <row r="250" spans="1:10" ht="180" x14ac:dyDescent="0.25">
+      <c r="I249" s="35"/>
+    </row>
+    <row r="250" spans="1:10" ht="180">
       <c r="A250" s="30" t="s">
         <v>243</v>
       </c>
@@ -10112,7 +10031,7 @@
       </c>
       <c r="I250" s="32"/>
     </row>
-    <row r="251" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:10" ht="60">
       <c r="A251" s="30" t="s">
         <v>244</v>
       </c>
@@ -10136,10 +10055,10 @@
         <v>17</v>
       </c>
       <c r="I251" s="20" t="s">
-        <v>581</v>
-      </c>
-    </row>
-    <row r="252" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+        <v>594</v>
+      </c>
+    </row>
+    <row r="252" spans="1:10" ht="60">
       <c r="A252" s="30" t="s">
         <v>245</v>
       </c>
@@ -10166,7 +10085,7 @@
         <v>438</v>
       </c>
     </row>
-    <row r="253" spans="1:10" ht="90" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:10" ht="105">
       <c r="A253" s="30" t="s">
         <v>246</v>
       </c>
@@ -10191,73 +10110,67 @@
       </c>
       <c r="I253" s="32"/>
     </row>
-    <row r="254" spans="1:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="A254" s="22" t="s">
-        <v>536</v>
-      </c>
-      <c r="B254" s="24" t="s">
-        <v>537</v>
-      </c>
-      <c r="C254" s="20" t="s">
-        <v>560</v>
-      </c>
-      <c r="D254" s="22"/>
-      <c r="E254" s="22" t="s">
-        <v>19</v>
-      </c>
-      <c r="F254" s="22" t="s">
-        <v>3</v>
-      </c>
-      <c r="G254" s="22" t="s">
-        <v>15</v>
-      </c>
-      <c r="H254" s="22" t="s">
-        <v>20</v>
-      </c>
-      <c r="I254" s="20"/>
-      <c r="J254"/>
-    </row>
-    <row r="255" spans="1:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="A255" s="22" t="s">
-        <v>558</v>
-      </c>
-      <c r="B255" s="24" t="s">
-        <v>537</v>
-      </c>
-      <c r="C255" s="20" t="s">
-        <v>538</v>
-      </c>
-      <c r="D255" s="22" t="s">
-        <v>539</v>
-      </c>
-      <c r="E255" s="22" t="s">
-        <v>19</v>
-      </c>
-      <c r="F255" s="22" t="s">
-        <v>3</v>
-      </c>
-      <c r="G255" s="22" t="s">
-        <v>15</v>
-      </c>
-      <c r="H255" s="22" t="s">
-        <v>20</v>
-      </c>
-      <c r="I255" s="20"/>
-      <c r="J255"/>
-    </row>
-    <row r="256" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:10" ht="180">
+      <c r="A254" s="30" t="s">
+        <v>247</v>
+      </c>
+      <c r="B254" s="31" t="s">
+        <v>275</v>
+      </c>
+      <c r="C254" s="32" t="s">
+        <v>424</v>
+      </c>
+      <c r="D254" s="30"/>
+      <c r="E254" s="30" t="s">
+        <v>19</v>
+      </c>
+      <c r="F254" s="30" t="s">
+        <v>3</v>
+      </c>
+      <c r="G254" s="30" t="s">
+        <v>15</v>
+      </c>
+      <c r="H254" s="30" t="s">
+        <v>21</v>
+      </c>
+      <c r="I254" s="32"/>
+    </row>
+    <row r="255" spans="1:10" ht="409.5">
+      <c r="A255" s="30" t="s">
+        <v>248</v>
+      </c>
+      <c r="B255" s="31" t="s">
+        <v>276</v>
+      </c>
+      <c r="C255" s="32" t="s">
+        <v>425</v>
+      </c>
+      <c r="D255" s="30"/>
+      <c r="E255" s="30" t="s">
+        <v>19</v>
+      </c>
+      <c r="F255" s="30" t="s">
+        <v>3</v>
+      </c>
+      <c r="G255" s="30" t="s">
+        <v>15</v>
+      </c>
+      <c r="H255" s="30" t="s">
+        <v>21</v>
+      </c>
+      <c r="I255" s="32"/>
+    </row>
+    <row r="256" spans="1:10" ht="60">
       <c r="A256" s="22" t="s">
         <v>559</v>
       </c>
       <c r="B256" s="24" t="s">
-        <v>537</v>
+        <v>560</v>
       </c>
       <c r="C256" s="20" t="s">
-        <v>540</v>
-      </c>
-      <c r="D256" s="22" t="s">
-        <v>539</v>
-      </c>
+        <v>585</v>
+      </c>
+      <c r="D256" s="22"/>
       <c r="E256" s="22" t="s">
         <v>19</v>
       </c>
@@ -10270,20 +10183,24 @@
       <c r="H256" s="22" t="s">
         <v>20</v>
       </c>
-      <c r="I256" s="20"/>
+      <c r="I256" s="20" t="s">
+        <v>584</v>
+      </c>
       <c r="J256"/>
     </row>
-    <row r="257" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:10" ht="30">
       <c r="A257" s="22" t="s">
-        <v>542</v>
+        <v>582</v>
       </c>
       <c r="B257" s="24" t="s">
-        <v>537</v>
+        <v>560</v>
       </c>
       <c r="C257" s="20" t="s">
-        <v>543</v>
-      </c>
-      <c r="D257" s="22"/>
+        <v>561</v>
+      </c>
+      <c r="D257" s="22" t="s">
+        <v>562</v>
+      </c>
       <c r="E257" s="22" t="s">
         <v>19</v>
       </c>
@@ -10299,17 +10216,19 @@
       <c r="I257" s="20"/>
       <c r="J257"/>
     </row>
-    <row r="258" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:10" ht="30">
       <c r="A258" s="22" t="s">
-        <v>545</v>
+        <v>583</v>
       </c>
       <c r="B258" s="24" t="s">
-        <v>537</v>
+        <v>560</v>
       </c>
       <c r="C258" s="20" t="s">
-        <v>546</v>
-      </c>
-      <c r="D258" s="22"/>
+        <v>563</v>
+      </c>
+      <c r="D258" s="22" t="s">
+        <v>562</v>
+      </c>
       <c r="E258" s="22" t="s">
         <v>19</v>
       </c>
@@ -10325,15 +10244,15 @@
       <c r="I258" s="20"/>
       <c r="J258"/>
     </row>
-    <row r="259" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:10" ht="45">
       <c r="A259" s="22" t="s">
-        <v>550</v>
+        <v>565</v>
       </c>
       <c r="B259" s="24" t="s">
-        <v>537</v>
+        <v>560</v>
       </c>
       <c r="C259" s="20" t="s">
-        <v>551</v>
+        <v>566</v>
       </c>
       <c r="D259" s="22"/>
       <c r="E259" s="22" t="s">
@@ -10351,19 +10270,17 @@
       <c r="I259" s="20"/>
       <c r="J259"/>
     </row>
-    <row r="260" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:10" ht="45">
       <c r="A260" s="22" t="s">
-        <v>552</v>
+        <v>568</v>
       </c>
       <c r="B260" s="24" t="s">
-        <v>537</v>
+        <v>560</v>
       </c>
       <c r="C260" s="20" t="s">
-        <v>553</v>
-      </c>
-      <c r="D260" s="22" t="s">
-        <v>554</v>
-      </c>
+        <v>569</v>
+      </c>
+      <c r="D260" s="22"/>
       <c r="E260" s="22" t="s">
         <v>19</v>
       </c>
@@ -10379,18 +10296,18 @@
       <c r="I260" s="20"/>
       <c r="J260"/>
     </row>
-    <row r="261" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:10" ht="30">
       <c r="A261" s="22" t="s">
-        <v>555</v>
+        <v>575</v>
       </c>
       <c r="B261" s="24" t="s">
-        <v>537</v>
+        <v>560</v>
       </c>
       <c r="C261" s="20" t="s">
-        <v>556</v>
+        <v>576</v>
       </c>
       <c r="D261" s="22" t="s">
-        <v>554</v>
+        <v>577</v>
       </c>
       <c r="E261" s="22" t="s">
         <v>19</v>
@@ -10407,57 +10324,63 @@
       <c r="I261" s="20"/>
       <c r="J261"/>
     </row>
-    <row r="262" spans="1:10" ht="165" x14ac:dyDescent="0.25">
-      <c r="A262" s="30" t="s">
-        <v>247</v>
-      </c>
-      <c r="B262" s="31" t="s">
-        <v>275</v>
-      </c>
-      <c r="C262" s="32" t="s">
-        <v>424</v>
-      </c>
-      <c r="D262" s="30"/>
-      <c r="E262" s="30" t="s">
-        <v>19</v>
-      </c>
-      <c r="F262" s="30" t="s">
-        <v>3</v>
-      </c>
-      <c r="G262" s="30" t="s">
-        <v>15</v>
-      </c>
-      <c r="H262" s="30" t="s">
-        <v>21</v>
-      </c>
-      <c r="I262" s="32"/>
-    </row>
-    <row r="263" spans="1:10" ht="409.5" x14ac:dyDescent="0.25">
-      <c r="A263" s="30" t="s">
-        <v>248</v>
-      </c>
-      <c r="B263" s="31" t="s">
-        <v>276</v>
-      </c>
-      <c r="C263" s="32" t="s">
-        <v>425</v>
-      </c>
-      <c r="D263" s="30"/>
-      <c r="E263" s="30" t="s">
-        <v>19</v>
-      </c>
-      <c r="F263" s="30" t="s">
-        <v>3</v>
-      </c>
-      <c r="G263" s="30" t="s">
-        <v>15</v>
-      </c>
-      <c r="H263" s="30" t="s">
-        <v>21</v>
-      </c>
-      <c r="I263" s="32"/>
-    </row>
-    <row r="264" spans="1:10" ht="120" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:10" ht="30">
+      <c r="A262" s="22" t="s">
+        <v>578</v>
+      </c>
+      <c r="B262" s="24" t="s">
+        <v>560</v>
+      </c>
+      <c r="C262" s="20" t="s">
+        <v>579</v>
+      </c>
+      <c r="D262" s="22" t="s">
+        <v>577</v>
+      </c>
+      <c r="E262" s="22" t="s">
+        <v>19</v>
+      </c>
+      <c r="F262" s="22" t="s">
+        <v>3</v>
+      </c>
+      <c r="G262" s="22" t="s">
+        <v>15</v>
+      </c>
+      <c r="H262" s="22" t="s">
+        <v>20</v>
+      </c>
+      <c r="I262" s="20"/>
+      <c r="J262"/>
+    </row>
+    <row r="263" spans="1:10" ht="60">
+      <c r="A263" s="22" t="s">
+        <v>573</v>
+      </c>
+      <c r="B263" s="24" t="s">
+        <v>560</v>
+      </c>
+      <c r="C263" s="20" t="s">
+        <v>574</v>
+      </c>
+      <c r="D263" s="22"/>
+      <c r="E263" s="22" t="s">
+        <v>19</v>
+      </c>
+      <c r="F263" s="22" t="s">
+        <v>3</v>
+      </c>
+      <c r="G263" s="22" t="s">
+        <v>15</v>
+      </c>
+      <c r="H263" s="22" t="s">
+        <v>20</v>
+      </c>
+      <c r="I263" s="20" t="s">
+        <v>580</v>
+      </c>
+      <c r="J263"/>
+    </row>
+    <row r="264" spans="1:10" ht="135">
       <c r="A264" s="30" t="s">
         <v>249</v>
       </c>
@@ -10482,19 +10405,19 @@
       </c>
       <c r="I264" s="32"/>
     </row>
-    <row r="265" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:10" ht="45">
       <c r="A265" s="22" t="s">
-        <v>561</v>
+        <v>586</v>
       </c>
       <c r="B265" s="24" t="s">
-        <v>562</v>
+        <v>587</v>
       </c>
       <c r="C265" s="20" t="s">
-        <v>564</v>
+        <v>589</v>
       </c>
       <c r="D265" s="22"/>
-      <c r="E265" s="30" t="s">
-        <v>22</v>
+      <c r="E265" s="22" t="s">
+        <v>19</v>
       </c>
       <c r="F265" s="22" t="s">
         <v>3</v>
@@ -10510,17 +10433,12 @@
       </c>
       <c r="J265"/>
     </row>
-    <row r="266" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:10">
       <c r="A266" s="3"/>
       <c r="B266" s="10"/>
     </row>
   </sheetData>
   <mergeCells count="12">
-    <mergeCell ref="A4:G4"/>
-    <mergeCell ref="B8:I8"/>
-    <mergeCell ref="B7:I7"/>
-    <mergeCell ref="B6:I6"/>
-    <mergeCell ref="B5:I5"/>
     <mergeCell ref="B11:I11"/>
     <mergeCell ref="D12:I15"/>
     <mergeCell ref="B16:I16"/>
@@ -10528,376 +10446,293 @@
     <mergeCell ref="B9:I9"/>
     <mergeCell ref="B10:I10"/>
     <mergeCell ref="B17:I17"/>
+    <mergeCell ref="A4:G4"/>
+    <mergeCell ref="B8:I8"/>
+    <mergeCell ref="B7:I7"/>
+    <mergeCell ref="B6:I6"/>
+    <mergeCell ref="B5:I5"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
-  <conditionalFormatting sqref="A260:I263 A252:I253 A251:H251 A20:I250">
-    <cfRule type="expression" dxfId="93" priority="163">
+  <conditionalFormatting sqref="A20:I165 A261:I262 A167:I255 A166:H166">
+    <cfRule type="expression" dxfId="88" priority="139">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Section Deleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="92" priority="164">
+    <cfRule type="expression" dxfId="87" priority="140">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Deleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="91" priority="171">
+    <cfRule type="expression" dxfId="86" priority="147">
       <formula>EXACT(INDIRECT("L"&amp;ROW()),"Deleted")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A260:I263 A252:I253 A251:H251 A20:I250">
-    <cfRule type="expression" dxfId="90" priority="117">
+  <conditionalFormatting sqref="A20:I165 A261:I262 A167:I255 A166:H166">
+    <cfRule type="expression" dxfId="85" priority="93">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"SectionDeleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="89" priority="118">
+    <cfRule type="expression" dxfId="84" priority="94">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Deleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="88" priority="119">
+    <cfRule type="expression" dxfId="83" priority="95">
       <formula>EXACT(INDIRECT("L"&amp;ROW()),"Deleted")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F20:F253 F260:F263">
-    <cfRule type="expression" dxfId="87" priority="123">
+  <conditionalFormatting sqref="F20:F255 F261:F262">
+    <cfRule type="expression" dxfId="82" priority="99">
       <formula>NOT(VLOOKUP(F20,$A$12:$C$15,2,FALSE)="In")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="86" priority="124">
+    <cfRule type="expression" dxfId="81" priority="100">
       <formula>(VLOOKUP(F20,$A$12:$C$15,2,FALSE)="In")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A257:I257">
-    <cfRule type="expression" dxfId="85" priority="68">
+  <conditionalFormatting sqref="A259:I259">
+    <cfRule type="expression" dxfId="80" priority="44">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Section Deleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="84" priority="69">
+    <cfRule type="expression" dxfId="79" priority="45">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Deleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="83" priority="70">
+    <cfRule type="expression" dxfId="78" priority="46">
       <formula>EXACT(INDIRECT("L"&amp;ROW()),"Deleted")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A257:I257">
-    <cfRule type="expression" dxfId="82" priority="63">
+  <conditionalFormatting sqref="A259:I259">
+    <cfRule type="expression" dxfId="77" priority="39">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"SectionDeleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="81" priority="64">
+    <cfRule type="expression" dxfId="76" priority="40">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Deleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="80" priority="65">
+    <cfRule type="expression" dxfId="75" priority="41">
       <formula>EXACT(INDIRECT("L"&amp;ROW()),"Deleted")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F257">
-    <cfRule type="expression" dxfId="79" priority="66">
-      <formula>NOT(VLOOKUP(F257,$A$12:$C$15,2,FALSE)="In")</formula>
+  <conditionalFormatting sqref="F259">
+    <cfRule type="expression" dxfId="74" priority="42">
+      <formula>NOT(VLOOKUP(F259,$A$12:$C$15,2,FALSE)="In")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="78" priority="67">
-      <formula>(VLOOKUP(F257,$A$12:$C$15,2,FALSE)="In")</formula>
+    <cfRule type="expression" dxfId="73" priority="43">
+      <formula>(VLOOKUP(F259,$A$12:$C$15,2,FALSE)="In")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A264:I264">
-    <cfRule type="expression" dxfId="77" priority="100">
+    <cfRule type="expression" dxfId="72" priority="76">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Section Deleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="76" priority="101">
+    <cfRule type="expression" dxfId="71" priority="77">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Deleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="75" priority="102">
+    <cfRule type="expression" dxfId="70" priority="78">
       <formula>EXACT(INDIRECT("L"&amp;ROW()),"Deleted")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A264:I264">
-    <cfRule type="expression" dxfId="74" priority="95">
+    <cfRule type="expression" dxfId="69" priority="71">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"SectionDeleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="73" priority="96">
+    <cfRule type="expression" dxfId="68" priority="72">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Deleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="72" priority="97">
+    <cfRule type="expression" dxfId="67" priority="73">
       <formula>EXACT(INDIRECT("L"&amp;ROW()),"Deleted")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F264">
-    <cfRule type="expression" dxfId="71" priority="98">
+    <cfRule type="expression" dxfId="66" priority="74">
       <formula>NOT(VLOOKUP(F264,$A$12:$C$15,2,FALSE)="In")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="70" priority="99">
+    <cfRule type="expression" dxfId="65" priority="75">
       <formula>(VLOOKUP(F264,$A$12:$C$15,2,FALSE)="In")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A254:G254 I254">
-    <cfRule type="expression" dxfId="69" priority="84">
+  <conditionalFormatting sqref="A256:I256">
+    <cfRule type="expression" dxfId="64" priority="60">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Section Deleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="68" priority="85">
+    <cfRule type="expression" dxfId="63" priority="61">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Deleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="67" priority="86">
+    <cfRule type="expression" dxfId="62" priority="62">
       <formula>EXACT(INDIRECT("L"&amp;ROW()),"Deleted")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A254:G254 I254">
-    <cfRule type="expression" dxfId="66" priority="79">
+  <conditionalFormatting sqref="A256:I256">
+    <cfRule type="expression" dxfId="61" priority="55">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"SectionDeleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="65" priority="80">
+    <cfRule type="expression" dxfId="60" priority="56">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Deleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="64" priority="81">
+    <cfRule type="expression" dxfId="59" priority="57">
       <formula>EXACT(INDIRECT("L"&amp;ROW()),"Deleted")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F254">
-    <cfRule type="expression" dxfId="63" priority="82">
-      <formula>NOT(VLOOKUP(F254,$A$12:$C$15,2,FALSE)="In")</formula>
+  <conditionalFormatting sqref="F256">
+    <cfRule type="expression" dxfId="58" priority="58">
+      <formula>NOT(VLOOKUP(F256,$A$12:$C$15,2,FALSE)="In")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="62" priority="83">
-      <formula>(VLOOKUP(F254,$A$12:$C$15,2,FALSE)="In")</formula>
+    <cfRule type="expression" dxfId="57" priority="59">
+      <formula>(VLOOKUP(F256,$A$12:$C$15,2,FALSE)="In")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A255:I256">
-    <cfRule type="expression" dxfId="61" priority="76">
+  <conditionalFormatting sqref="A257:I258">
+    <cfRule type="expression" dxfId="56" priority="52">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Section Deleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="60" priority="77">
+    <cfRule type="expression" dxfId="55" priority="53">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Deleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="59" priority="78">
+    <cfRule type="expression" dxfId="54" priority="54">
       <formula>EXACT(INDIRECT("L"&amp;ROW()),"Deleted")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A255:I256">
-    <cfRule type="expression" dxfId="58" priority="71">
+  <conditionalFormatting sqref="A257:I258">
+    <cfRule type="expression" dxfId="53" priority="47">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"SectionDeleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="57" priority="72">
+    <cfRule type="expression" dxfId="52" priority="48">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Deleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="56" priority="73">
+    <cfRule type="expression" dxfId="51" priority="49">
       <formula>EXACT(INDIRECT("L"&amp;ROW()),"Deleted")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F255:F256">
-    <cfRule type="expression" dxfId="55" priority="74">
-      <formula>NOT(VLOOKUP(F255,$A$12:$C$15,2,FALSE)="In")</formula>
+  <conditionalFormatting sqref="F257:F258">
+    <cfRule type="expression" dxfId="50" priority="50">
+      <formula>NOT(VLOOKUP(F257,$A$12:$C$15,2,FALSE)="In")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="54" priority="75">
-      <formula>(VLOOKUP(F255,$A$12:$C$15,2,FALSE)="In")</formula>
+    <cfRule type="expression" dxfId="49" priority="51">
+      <formula>(VLOOKUP(F257,$A$12:$C$15,2,FALSE)="In")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A258:I258">
-    <cfRule type="expression" dxfId="53" priority="60">
+  <conditionalFormatting sqref="A260:I260">
+    <cfRule type="expression" dxfId="48" priority="36">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Section Deleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="52" priority="61">
+    <cfRule type="expression" dxfId="47" priority="37">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Deleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="51" priority="62">
+    <cfRule type="expression" dxfId="46" priority="38">
       <formula>EXACT(INDIRECT("L"&amp;ROW()),"Deleted")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A258:I258">
-    <cfRule type="expression" dxfId="50" priority="55">
+  <conditionalFormatting sqref="A260:I260">
+    <cfRule type="expression" dxfId="45" priority="31">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"SectionDeleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="49" priority="56">
+    <cfRule type="expression" dxfId="44" priority="32">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Deleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="48" priority="57">
+    <cfRule type="expression" dxfId="43" priority="33">
       <formula>EXACT(INDIRECT("L"&amp;ROW()),"Deleted")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F258">
-    <cfRule type="expression" dxfId="47" priority="58">
-      <formula>NOT(VLOOKUP(F258,$A$12:$C$15,2,FALSE)="In")</formula>
+  <conditionalFormatting sqref="F260">
+    <cfRule type="expression" dxfId="42" priority="34">
+      <formula>NOT(VLOOKUP(F260,$A$12:$C$15,2,FALSE)="In")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="46" priority="59">
-      <formula>(VLOOKUP(F258,$A$12:$C$15,2,FALSE)="In")</formula>
+    <cfRule type="expression" dxfId="41" priority="35">
+      <formula>(VLOOKUP(F260,$A$12:$C$15,2,FALSE)="In")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A259:G259 I259">
-    <cfRule type="expression" dxfId="45" priority="44">
+  <conditionalFormatting sqref="A263:I263">
+    <cfRule type="expression" dxfId="40" priority="20">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Section Deleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="44" priority="45">
+    <cfRule type="expression" dxfId="39" priority="21">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Deleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="43" priority="46">
+    <cfRule type="expression" dxfId="38" priority="22">
       <formula>EXACT(INDIRECT("L"&amp;ROW()),"Deleted")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A259:G259 I259">
-    <cfRule type="expression" dxfId="42" priority="39">
+  <conditionalFormatting sqref="A263:I263">
+    <cfRule type="expression" dxfId="37" priority="15">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"SectionDeleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="41" priority="40">
+    <cfRule type="expression" dxfId="36" priority="16">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Deleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="40" priority="41">
+    <cfRule type="expression" dxfId="35" priority="17">
       <formula>EXACT(INDIRECT("L"&amp;ROW()),"Deleted")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F259">
-    <cfRule type="expression" dxfId="39" priority="42">
-      <formula>NOT(VLOOKUP(F259,$A$12:$C$15,2,FALSE)="In")</formula>
+  <conditionalFormatting sqref="F263">
+    <cfRule type="expression" dxfId="34" priority="18">
+      <formula>NOT(VLOOKUP(F263,$A$12:$C$15,2,FALSE)="In")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="38" priority="43">
-      <formula>(VLOOKUP(F259,$A$12:$C$15,2,FALSE)="In")</formula>
+    <cfRule type="expression" dxfId="33" priority="19">
+      <formula>(VLOOKUP(F263,$A$12:$C$15,2,FALSE)="In")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A265:D265 F265:H265">
-    <cfRule type="expression" dxfId="37" priority="36">
+  <conditionalFormatting sqref="A265:H265">
+    <cfRule type="expression" dxfId="32" priority="12">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Section Deleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="36" priority="37">
+    <cfRule type="expression" dxfId="31" priority="13">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Deleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="35" priority="38">
+    <cfRule type="expression" dxfId="30" priority="14">
       <formula>EXACT(INDIRECT("L"&amp;ROW()),"Deleted")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A265:D265 F265:H265">
-    <cfRule type="expression" dxfId="34" priority="31">
+  <conditionalFormatting sqref="A265:H265">
+    <cfRule type="expression" dxfId="29" priority="7">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"SectionDeleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="33" priority="32">
+    <cfRule type="expression" dxfId="28" priority="8">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Deleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="32" priority="33">
+    <cfRule type="expression" dxfId="27" priority="9">
       <formula>EXACT(INDIRECT("L"&amp;ROW()),"Deleted")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F265">
-    <cfRule type="expression" dxfId="31" priority="34">
+    <cfRule type="expression" dxfId="26" priority="10">
       <formula>NOT(VLOOKUP(F265,$A$12:$C$15,2,FALSE)="In")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="30" priority="35">
+    <cfRule type="expression" dxfId="25" priority="11">
       <formula>(VLOOKUP(F265,$A$12:$C$15,2,FALSE)="In")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I265">
-    <cfRule type="expression" dxfId="29" priority="28">
+    <cfRule type="expression" dxfId="24" priority="4">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Section Deleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="28" priority="29">
+    <cfRule type="expression" dxfId="23" priority="5">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Deleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="27" priority="30">
+    <cfRule type="expression" dxfId="22" priority="6">
       <formula>EXACT(INDIRECT("L"&amp;ROW()),"Deleted")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I265">
-    <cfRule type="expression" dxfId="26" priority="25">
+    <cfRule type="expression" dxfId="21" priority="1">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"SectionDeleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="25" priority="26">
+    <cfRule type="expression" dxfId="20" priority="2">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Deleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="24" priority="27">
-      <formula>EXACT(INDIRECT("L"&amp;ROW()),"Deleted")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H254">
-    <cfRule type="expression" dxfId="23" priority="22">
-      <formula>EXACT(INDIRECT("P"&amp;ROW()),"Section Deleted")</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="22" priority="23">
-      <formula>EXACT(INDIRECT("P"&amp;ROW()),"Deleted")</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="21" priority="24">
-      <formula>EXACT(INDIRECT("L"&amp;ROW()),"Deleted")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H254">
-    <cfRule type="expression" dxfId="20" priority="19">
-      <formula>EXACT(INDIRECT("P"&amp;ROW()),"SectionDeleted")</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="19" priority="20">
-      <formula>EXACT(INDIRECT("P"&amp;ROW()),"Deleted")</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="18" priority="21">
-      <formula>EXACT(INDIRECT("L"&amp;ROW()),"Deleted")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H259">
-    <cfRule type="expression" dxfId="17" priority="16">
-      <formula>EXACT(INDIRECT("P"&amp;ROW()),"Section Deleted")</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="16" priority="17">
-      <formula>EXACT(INDIRECT("P"&amp;ROW()),"Deleted")</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="15" priority="18">
-      <formula>EXACT(INDIRECT("L"&amp;ROW()),"Deleted")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H259">
-    <cfRule type="expression" dxfId="14" priority="13">
-      <formula>EXACT(INDIRECT("P"&amp;ROW()),"SectionDeleted")</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="13" priority="14">
-      <formula>EXACT(INDIRECT("P"&amp;ROW()),"Deleted")</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="12" priority="15">
-      <formula>EXACT(INDIRECT("L"&amp;ROW()),"Deleted")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E265">
-    <cfRule type="expression" dxfId="11" priority="10">
-      <formula>EXACT(INDIRECT("P"&amp;ROW()),"Section Deleted")</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="10" priority="11">
-      <formula>EXACT(INDIRECT("P"&amp;ROW()),"Deleted")</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="9" priority="12">
-      <formula>EXACT(INDIRECT("L"&amp;ROW()),"Deleted")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E265">
-    <cfRule type="expression" dxfId="8" priority="7">
-      <formula>EXACT(INDIRECT("P"&amp;ROW()),"SectionDeleted")</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="7" priority="8">
-      <formula>EXACT(INDIRECT("P"&amp;ROW()),"Deleted")</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="6" priority="9">
-      <formula>EXACT(INDIRECT("L"&amp;ROW()),"Deleted")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I251">
-    <cfRule type="expression" dxfId="5" priority="4">
-      <formula>EXACT(INDIRECT("P"&amp;ROW()),"Section Deleted")</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="4" priority="5">
-      <formula>EXACT(INDIRECT("P"&amp;ROW()),"Deleted")</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="3" priority="6">
-      <formula>EXACT(INDIRECT("L"&amp;ROW()),"Deleted")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I251">
-    <cfRule type="expression" dxfId="2" priority="1">
-      <formula>EXACT(INDIRECT("P"&amp;ROW()),"SectionDeleted")</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="1" priority="2">
-      <formula>EXACT(INDIRECT("P"&amp;ROW()),"Deleted")</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="0" priority="3">
+    <cfRule type="expression" dxfId="19" priority="3">
       <formula>EXACT(INDIRECT("L"&amp;ROW()),"Deleted")</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="7">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F4 F20:F265">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F4 F20:F264 F265">
       <formula1>$A$13:$A$15</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E4 E20:E265">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E4 E20:E264 E265">
       <formula1>"Protocol,Product"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G4 G20:G265">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G4 G20:G264 G265">
       <formula1>"Informative,Normative"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B13:B15">
       <formula1>"In, Out"</formula1>
     </dataValidation>
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C3"/>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H20:H253 H262:H264">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H20:H255 H264">
       <formula1>"Non-testable, Unverified, Adapter, Test Case"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H265 H254:H261">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H265 H256:H263">
       <formula1>"Message Deserialization, Non-testable, Unverified, Adapter, Test Case"</formula1>
     </dataValidation>
   </dataValidations>
@@ -10907,112 +10742,11 @@
     <oddFooter>&amp;F&amp;RPage &amp;P</oddFooter>
   </headerFooter>
   <ignoredErrors>
-    <ignoredError sqref="B1:B9 C3 B11:B16 B18:B21 B24:B30 B32:B118 B120:B121 B129:B162 B241:B243 B266 B262:B263 B250:B253" numberStoredAsText="1"/>
+    <ignoredError sqref="B1:B9 C3 B11:B16 B18:B249 B265:B266 B250:B264" numberStoredAsText="1"/>
   </ignoredErrors>
   <tableParts count="2">
     <tablePart r:id="rId2"/>
     <tablePart r:id="rId3"/>
   </tableParts>
 </worksheet>
-</file>
-
-<file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100F2EA47BB262D974097182E2CA8AB13E1" ma:contentTypeVersion="2" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="74597e8d9e42e7e4fc8eda6d37675aa2">
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="4aeb20c0e3442673af7ee10786458764">
-    <xsd:element name="properties">
-      <xsd:complexType>
-        <xsd:sequence>
-          <xsd:element name="documentManagement">
-            <xsd:complexType>
-              <xsd:all/>
-            </xsd:complexType>
-          </xsd:element>
-        </xsd:sequence>
-      </xsd:complexType>
-    </xsd:element>
-  </xsd:schema>
-  <xsd:schema xmlns="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:dc="http://purl.org/dc/elements/1.1/" xmlns:dcterms="http://purl.org/dc/terms/" xmlns:odoc="http://schemas.microsoft.com/office/internal/2005/internalDocumentation" targetNamespace="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" elementFormDefault="qualified" attributeFormDefault="unqualified" blockDefault="#all">
-    <xsd:import namespace="http://purl.org/dc/elements/1.1/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dc.xsd"/>
-    <xsd:import namespace="http://purl.org/dc/terms/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dcterms.xsd"/>
-    <xsd:element name="coreProperties" type="CT_coreProperties"/>
-    <xsd:complexType name="CT_coreProperties">
-      <xsd:all>
-        <xsd:element ref="dc:creator" minOccurs="0" maxOccurs="1"/>
-        <xsd:element ref="dcterms:created" minOccurs="0" maxOccurs="1"/>
-        <xsd:element ref="dc:identifier" minOccurs="0" maxOccurs="1"/>
-        <xsd:element name="contentType" minOccurs="0" maxOccurs="1" type="xsd:string" ma:index="0" ma:displayName="Content Type" ma:readOnly="true"/>
-        <xsd:element ref="dc:title" minOccurs="0" maxOccurs="1" ma:index="4" ma:displayName="Title"/>
-        <xsd:element ref="dc:subject" minOccurs="0" maxOccurs="1"/>
-        <xsd:element ref="dc:description" minOccurs="0" maxOccurs="1"/>
-        <xsd:element name="keywords" minOccurs="0" maxOccurs="1" type="xsd:string"/>
-        <xsd:element ref="dc:language" minOccurs="0" maxOccurs="1"/>
-        <xsd:element name="category" minOccurs="0" maxOccurs="1" type="xsd:string"/>
-        <xsd:element name="version" minOccurs="0" maxOccurs="1" type="xsd:string"/>
-        <xsd:element name="revision" minOccurs="0" maxOccurs="1" type="xsd:string">
-          <xsd:annotation>
-            <xsd:documentation>
-                        This value indicates the number of saves or revisions. The application is responsible for updating this value after each revision.
-                    </xsd:documentation>
-          </xsd:annotation>
-        </xsd:element>
-        <xsd:element name="lastModifiedBy" minOccurs="0" maxOccurs="1" type="xsd:string"/>
-        <xsd:element ref="dcterms:modified" minOccurs="0" maxOccurs="1"/>
-        <xsd:element name="lastPrinted" minOccurs="0" maxOccurs="1" type="xsd:dateTime"/>
-        <xsd:element name="contentStatus" minOccurs="0" maxOccurs="1" type="xsd:string"/>
-      </xsd:all>
-    </xsd:complexType>
-  </xsd:schema>
-</ct:contentTypeSchema>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{923F65C5-DEAB-400B-AA1F-124F40EE10AC}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{EDB2DE12-5EF6-4CF2-820D-5F9FE329E08E}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/internal/2005/internalDocumentation"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B6D33261-F3C6-4621-88F1-D76E5ABE1865}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/ExchangeWebServices/Docs/MS-OXWSMSG/MS-OXWSMSG_RequirementSpecification.xlsx
+++ b/ExchangeWebServices/Docs/MS-OXWSMSG/MS-OXWSMSG_RequirementSpecification.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="16729"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="-15" yWindow="60" windowWidth="15405" windowHeight="6900" tabRatio="570"/>
@@ -3633,23 +3633,6 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -3685,23 +3668,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">

--- a/ExchangeWebServices/Docs/MS-OXWSMSG/MS-OXWSMSG_RequirementSpecification.xlsx
+++ b/ExchangeWebServices/Docs/MS-OXWSMSG/MS-OXWSMSG_RequirementSpecification.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="16729"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="-15" yWindow="60" windowWidth="15405" windowHeight="6900" tabRatio="570"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1802" uniqueCount="595">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1800" uniqueCount="593">
   <si>
     <t>Req ID</t>
   </si>
@@ -2188,9 +2188,6 @@
     <t>[In t:ItemResponseShapeType Complex Type] otherwise [FilterHtmlContent is] false, specifies [HTML content filtering is not enabled].</t>
   </si>
   <si>
-    <t>Verified by derived requirements: MS-OXWSMSG_R21193, MS-OXWSMSG_R21194.</t>
-  </si>
-  <si>
     <t>[In t:MessageType Complex Type] ReceivedBy element is t:SingleRecipientType type.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -2203,15 +2200,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Verified by derived requirements: MS-OXWSCDATA_R21188, MS-OXWSCDATA_R21189.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>[In t:ItemResponseShapeType Complex Type] The element "IncludeMimeContent" with type "xs:boolean" specifies whether the MIME content of an item is returned in a response.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>MS-OXWSCDATA_R1428001</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -2331,6 +2320,9 @@
   </si>
   <si>
     <t>Verified by derived requirements: MS-OXWSMSG_R2512, MS-OXWSMSG_R2912</t>
+  </si>
+  <si>
+    <t>MS-OXWSCDATA_R1428001</t>
   </si>
 </sst>
 </file>
@@ -2617,21 +2609,6 @@
     <xf numFmtId="2" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -2655,6 +2632,21 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -3633,6 +3625,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -3668,6 +3677,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -3900,127 +3926,127 @@
       <c r="J3" s="5"/>
     </row>
     <row r="4" spans="1:10" ht="21">
-      <c r="A4" s="36" t="s">
+      <c r="A4" s="44" t="s">
         <v>24</v>
       </c>
-      <c r="B4" s="36"/>
-      <c r="C4" s="36"/>
-      <c r="D4" s="36"/>
-      <c r="E4" s="36"/>
-      <c r="F4" s="36"/>
-      <c r="G4" s="36"/>
+      <c r="B4" s="44"/>
+      <c r="C4" s="44"/>
+      <c r="D4" s="44"/>
+      <c r="E4" s="44"/>
+      <c r="F4" s="44"/>
+      <c r="G4" s="44"/>
       <c r="J4" s="5"/>
     </row>
     <row r="5" spans="1:10">
       <c r="A5" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="B5" s="39" t="s">
+      <c r="B5" s="47" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="40"/>
-      <c r="D5" s="40"/>
-      <c r="E5" s="40"/>
-      <c r="F5" s="40"/>
-      <c r="G5" s="40"/>
-      <c r="H5" s="40"/>
-      <c r="I5" s="40"/>
+      <c r="C5" s="48"/>
+      <c r="D5" s="48"/>
+      <c r="E5" s="48"/>
+      <c r="F5" s="48"/>
+      <c r="G5" s="48"/>
+      <c r="H5" s="48"/>
+      <c r="I5" s="48"/>
       <c r="J5" s="5"/>
     </row>
     <row r="6" spans="1:10">
       <c r="A6" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="B6" s="38" t="s">
+      <c r="B6" s="46" t="s">
         <v>34</v>
       </c>
-      <c r="C6" s="38"/>
-      <c r="D6" s="38"/>
-      <c r="E6" s="38"/>
-      <c r="F6" s="38"/>
-      <c r="G6" s="38"/>
-      <c r="H6" s="38"/>
-      <c r="I6" s="38"/>
+      <c r="C6" s="46"/>
+      <c r="D6" s="46"/>
+      <c r="E6" s="46"/>
+      <c r="F6" s="46"/>
+      <c r="G6" s="46"/>
+      <c r="H6" s="46"/>
+      <c r="I6" s="46"/>
       <c r="J6" s="5"/>
     </row>
     <row r="7" spans="1:10">
       <c r="A7" s="14" t="s">
         <v>38</v>
       </c>
-      <c r="B7" s="37" t="s">
+      <c r="B7" s="45" t="s">
         <v>28</v>
       </c>
-      <c r="C7" s="37"/>
-      <c r="D7" s="37"/>
-      <c r="E7" s="37"/>
-      <c r="F7" s="37"/>
-      <c r="G7" s="37"/>
-      <c r="H7" s="37"/>
-      <c r="I7" s="37"/>
+      <c r="C7" s="45"/>
+      <c r="D7" s="45"/>
+      <c r="E7" s="45"/>
+      <c r="F7" s="45"/>
+      <c r="G7" s="45"/>
+      <c r="H7" s="45"/>
+      <c r="I7" s="45"/>
       <c r="J7" s="5"/>
     </row>
     <row r="8" spans="1:10">
       <c r="A8" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="B8" s="37" t="s">
+      <c r="B8" s="45" t="s">
         <v>29</v>
       </c>
-      <c r="C8" s="37"/>
-      <c r="D8" s="37"/>
-      <c r="E8" s="37"/>
-      <c r="F8" s="37"/>
-      <c r="G8" s="37"/>
-      <c r="H8" s="37"/>
-      <c r="I8" s="37"/>
+      <c r="C8" s="45"/>
+      <c r="D8" s="45"/>
+      <c r="E8" s="45"/>
+      <c r="F8" s="45"/>
+      <c r="G8" s="45"/>
+      <c r="H8" s="45"/>
+      <c r="I8" s="45"/>
       <c r="J8" s="5"/>
     </row>
     <row r="9" spans="1:10" ht="75.75" customHeight="1">
       <c r="A9" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="B9" s="45" t="s">
+      <c r="B9" s="40" t="s">
         <v>37</v>
       </c>
-      <c r="C9" s="46"/>
-      <c r="D9" s="46"/>
-      <c r="E9" s="46"/>
-      <c r="F9" s="46"/>
-      <c r="G9" s="46"/>
-      <c r="H9" s="46"/>
-      <c r="I9" s="46"/>
+      <c r="C9" s="41"/>
+      <c r="D9" s="41"/>
+      <c r="E9" s="41"/>
+      <c r="F9" s="41"/>
+      <c r="G9" s="41"/>
+      <c r="H9" s="41"/>
+      <c r="I9" s="41"/>
       <c r="J9" s="5"/>
     </row>
     <row r="10" spans="1:10" ht="30.75" customHeight="1">
       <c r="A10" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="B10" s="45" t="s">
+      <c r="B10" s="40" t="s">
         <v>442</v>
       </c>
-      <c r="C10" s="46"/>
-      <c r="D10" s="46"/>
-      <c r="E10" s="46"/>
-      <c r="F10" s="46"/>
-      <c r="G10" s="46"/>
-      <c r="H10" s="46"/>
-      <c r="I10" s="46"/>
+      <c r="C10" s="41"/>
+      <c r="D10" s="41"/>
+      <c r="E10" s="41"/>
+      <c r="F10" s="41"/>
+      <c r="G10" s="41"/>
+      <c r="H10" s="41"/>
+      <c r="I10" s="41"/>
       <c r="J10" s="5"/>
     </row>
     <row r="11" spans="1:10">
       <c r="A11" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="B11" s="41" t="s">
+      <c r="B11" s="36" t="s">
         <v>40</v>
       </c>
-      <c r="C11" s="41"/>
-      <c r="D11" s="41"/>
-      <c r="E11" s="41"/>
-      <c r="F11" s="41"/>
-      <c r="G11" s="41"/>
-      <c r="H11" s="41"/>
-      <c r="I11" s="41"/>
+      <c r="C11" s="36"/>
+      <c r="D11" s="36"/>
+      <c r="E11" s="36"/>
+      <c r="F11" s="36"/>
+      <c r="G11" s="36"/>
+      <c r="H11" s="36"/>
+      <c r="I11" s="36"/>
       <c r="J11" s="5"/>
     </row>
     <row r="12" spans="1:10">
@@ -4033,12 +4059,12 @@
       <c r="C12" s="19" t="s">
         <v>1</v>
       </c>
-      <c r="D12" s="42"/>
-      <c r="E12" s="42"/>
-      <c r="F12" s="42"/>
-      <c r="G12" s="42"/>
-      <c r="H12" s="42"/>
-      <c r="I12" s="42"/>
+      <c r="D12" s="37"/>
+      <c r="E12" s="37"/>
+      <c r="F12" s="37"/>
+      <c r="G12" s="37"/>
+      <c r="H12" s="37"/>
+      <c r="I12" s="37"/>
       <c r="J12" s="5"/>
     </row>
     <row r="13" spans="1:10">
@@ -4051,12 +4077,12 @@
       <c r="C13" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="D13" s="43"/>
-      <c r="E13" s="43"/>
-      <c r="F13" s="43"/>
-      <c r="G13" s="43"/>
-      <c r="H13" s="43"/>
-      <c r="I13" s="43"/>
+      <c r="D13" s="38"/>
+      <c r="E13" s="38"/>
+      <c r="F13" s="38"/>
+      <c r="G13" s="38"/>
+      <c r="H13" s="38"/>
+      <c r="I13" s="38"/>
       <c r="J13" s="5"/>
     </row>
     <row r="14" spans="1:10">
@@ -4069,12 +4095,12 @@
       <c r="C14" s="16" t="s">
         <v>35</v>
       </c>
-      <c r="D14" s="43"/>
-      <c r="E14" s="43"/>
-      <c r="F14" s="43"/>
-      <c r="G14" s="43"/>
-      <c r="H14" s="43"/>
-      <c r="I14" s="43"/>
+      <c r="D14" s="38"/>
+      <c r="E14" s="38"/>
+      <c r="F14" s="38"/>
+      <c r="G14" s="38"/>
+      <c r="H14" s="38"/>
+      <c r="I14" s="38"/>
       <c r="J14" s="5"/>
     </row>
     <row r="15" spans="1:10">
@@ -4087,60 +4113,60 @@
       <c r="C15" s="16" t="s">
         <v>30</v>
       </c>
-      <c r="D15" s="44"/>
-      <c r="E15" s="44"/>
-      <c r="F15" s="44"/>
-      <c r="G15" s="44"/>
-      <c r="H15" s="44"/>
-      <c r="I15" s="44"/>
+      <c r="D15" s="39"/>
+      <c r="E15" s="39"/>
+      <c r="F15" s="39"/>
+      <c r="G15" s="39"/>
+      <c r="H15" s="39"/>
+      <c r="I15" s="39"/>
       <c r="J15" s="5"/>
     </row>
     <row r="16" spans="1:10" ht="30">
       <c r="A16" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="B16" s="41" t="s">
+      <c r="B16" s="36" t="s">
         <v>41</v>
       </c>
-      <c r="C16" s="41"/>
-      <c r="D16" s="41"/>
-      <c r="E16" s="41"/>
-      <c r="F16" s="41"/>
-      <c r="G16" s="41"/>
-      <c r="H16" s="41"/>
-      <c r="I16" s="41"/>
+      <c r="C16" s="36"/>
+      <c r="D16" s="36"/>
+      <c r="E16" s="36"/>
+      <c r="F16" s="36"/>
+      <c r="G16" s="36"/>
+      <c r="H16" s="36"/>
+      <c r="I16" s="36"/>
       <c r="J16" s="5"/>
     </row>
     <row r="17" spans="1:12" ht="61.5" customHeight="1">
       <c r="A17" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="B17" s="47" t="s">
-        <v>590</v>
-      </c>
-      <c r="C17" s="48"/>
-      <c r="D17" s="48"/>
-      <c r="E17" s="48"/>
-      <c r="F17" s="48"/>
-      <c r="G17" s="48"/>
-      <c r="H17" s="48"/>
-      <c r="I17" s="48"/>
+      <c r="B17" s="42" t="s">
+        <v>587</v>
+      </c>
+      <c r="C17" s="43"/>
+      <c r="D17" s="43"/>
+      <c r="E17" s="43"/>
+      <c r="F17" s="43"/>
+      <c r="G17" s="43"/>
+      <c r="H17" s="43"/>
+      <c r="I17" s="43"/>
       <c r="J17" s="5"/>
     </row>
     <row r="18" spans="1:12" ht="30">
       <c r="A18" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="B18" s="41" t="s">
+      <c r="B18" s="36" t="s">
         <v>36</v>
       </c>
-      <c r="C18" s="41"/>
-      <c r="D18" s="41"/>
-      <c r="E18" s="41"/>
-      <c r="F18" s="41"/>
-      <c r="G18" s="41"/>
-      <c r="H18" s="41"/>
-      <c r="I18" s="41"/>
+      <c r="C18" s="36"/>
+      <c r="D18" s="36"/>
+      <c r="E18" s="36"/>
+      <c r="F18" s="36"/>
+      <c r="G18" s="36"/>
+      <c r="H18" s="36"/>
+      <c r="I18" s="36"/>
       <c r="J18" s="5"/>
       <c r="L18" s="4"/>
     </row>
@@ -6625,7 +6651,7 @@
         <v>31</v>
       </c>
       <c r="C117" s="20" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="D117" s="30"/>
       <c r="E117" s="30" t="s">
@@ -6816,7 +6842,7 @@
         <v>17</v>
       </c>
       <c r="I124" s="20" t="s">
-        <v>591</v>
+        <v>588</v>
       </c>
     </row>
     <row r="125" spans="1:9" ht="30">
@@ -6868,7 +6894,7 @@
         <v>17</v>
       </c>
       <c r="I126" s="20" t="s">
-        <v>592</v>
+        <v>589</v>
       </c>
     </row>
     <row r="127" spans="1:9" ht="30">
@@ -6920,7 +6946,7 @@
         <v>17</v>
       </c>
       <c r="I128" s="20" t="s">
-        <v>593</v>
+        <v>590</v>
       </c>
     </row>
     <row r="129" spans="1:9" ht="30">
@@ -9872,7 +9898,7 @@
         <v>272</v>
       </c>
       <c r="C246" s="35" t="s">
-        <v>588</v>
+        <v>585</v>
       </c>
       <c r="D246" s="33" t="s">
         <v>555</v>
@@ -10021,7 +10047,7 @@
         <v>17</v>
       </c>
       <c r="I251" s="20" t="s">
-        <v>594</v>
+        <v>591</v>
       </c>
     </row>
     <row r="252" spans="1:10" ht="60">
@@ -10126,7 +10152,7 @@
       </c>
       <c r="I255" s="32"/>
     </row>
-    <row r="256" spans="1:10" ht="60">
+    <row r="256" spans="1:10" ht="30">
       <c r="A256" s="22" t="s">
         <v>559</v>
       </c>
@@ -10134,7 +10160,7 @@
         <v>560</v>
       </c>
       <c r="C256" s="20" t="s">
-        <v>585</v>
+        <v>583</v>
       </c>
       <c r="D256" s="22"/>
       <c r="E256" s="22" t="s">
@@ -10149,14 +10175,12 @@
       <c r="H256" s="22" t="s">
         <v>20</v>
       </c>
-      <c r="I256" s="20" t="s">
-        <v>584</v>
-      </c>
+      <c r="I256" s="20"/>
       <c r="J256"/>
     </row>
     <row r="257" spans="1:10" ht="30">
       <c r="A257" s="22" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="B257" s="24" t="s">
         <v>560</v>
@@ -10184,7 +10208,7 @@
     </row>
     <row r="258" spans="1:10" ht="30">
       <c r="A258" s="22" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="B258" s="24" t="s">
         <v>560</v>
@@ -10318,7 +10342,7 @@
       <c r="I262" s="20"/>
       <c r="J262"/>
     </row>
-    <row r="263" spans="1:10" ht="60">
+    <row r="263" spans="1:10" ht="30">
       <c r="A263" s="22" t="s">
         <v>573</v>
       </c>
@@ -10341,9 +10365,7 @@
       <c r="H263" s="22" t="s">
         <v>20</v>
       </c>
-      <c r="I263" s="20" t="s">
-        <v>580</v>
-      </c>
+      <c r="I263" s="20"/>
       <c r="J263"/>
     </row>
     <row r="264" spans="1:10" ht="135">
@@ -10373,17 +10395,17 @@
     </row>
     <row r="265" spans="1:10" ht="45">
       <c r="A265" s="22" t="s">
+        <v>592</v>
+      </c>
+      <c r="B265" s="24" t="s">
+        <v>584</v>
+      </c>
+      <c r="C265" s="20" t="s">
         <v>586</v>
-      </c>
-      <c r="B265" s="24" t="s">
-        <v>587</v>
-      </c>
-      <c r="C265" s="20" t="s">
-        <v>589</v>
       </c>
       <c r="D265" s="22"/>
       <c r="E265" s="22" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="F265" s="22" t="s">
         <v>3</v>
@@ -10405,6 +10427,11 @@
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="A4:G4"/>
+    <mergeCell ref="B8:I8"/>
+    <mergeCell ref="B7:I7"/>
+    <mergeCell ref="B6:I6"/>
+    <mergeCell ref="B5:I5"/>
     <mergeCell ref="B11:I11"/>
     <mergeCell ref="D12:I15"/>
     <mergeCell ref="B16:I16"/>
@@ -10412,11 +10439,6 @@
     <mergeCell ref="B9:I9"/>
     <mergeCell ref="B10:I10"/>
     <mergeCell ref="B17:I17"/>
-    <mergeCell ref="A4:G4"/>
-    <mergeCell ref="B8:I8"/>
-    <mergeCell ref="B7:I7"/>
-    <mergeCell ref="B6:I6"/>
-    <mergeCell ref="B5:I5"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="A20:I165 A261:I262 A167:I255 A166:H166">

--- a/ExchangeWebServices/Docs/MS-OXWSMSG/MS-OXWSMSG_RequirementSpecification.xlsx
+++ b/ExchangeWebServices/Docs/MS-OXWSMSG/MS-OXWSMSG_RequirementSpecification.xlsx
@@ -1,18 +1,18 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22228"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{7D4D2ABB-830D-4846-B8B0-F1EE24DCDD64}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C4FC4E17-26C6-488D-99C8-838D22864EF3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" tabRatio="570" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="21480" yWindow="-120" windowWidth="19440" windowHeight="15000" tabRatio="570" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Requirements" sheetId="2" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Requirements!$A$19:$G$346</definedName>
-    <definedName name="Appendix_A_Target_14" localSheetId="0">Requirements!$A$195</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Requirements!$A$19:$G$349</definedName>
+    <definedName name="Appendix_A_Target_14" localSheetId="0">Requirements!$A$198</definedName>
     <definedName name="ExtensionList">Requirements!#REF!</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">Requirements!$A:$A,Requirements!$19:$19</definedName>
     <definedName name="ScopeList">Requirements!#REF!</definedName>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2362" uniqueCount="771">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2383" uniqueCount="777">
   <si>
     <t>Req ID</t>
   </si>
@@ -2892,6 +2892,24 @@
 	    &lt;xs:element name="VotingResponse" type="xs:string" minOccurs="0"/&gt;
 	  &lt;/xs:sequence&gt;
 	&lt;/xs:complexType&gt;</t>
+  </si>
+  <si>
+    <t>MS-OXWSMSG_R73008</t>
+  </si>
+  <si>
+    <t>[In t:MessageType Complex Type] [ApprovalRequestData] This element is read-only.</t>
+  </si>
+  <si>
+    <t>[In t:MessageType Complex Type] [VotingInformation]This element is read-only.</t>
+  </si>
+  <si>
+    <t>[In t:MessageType Complex Type] [ReminderMessageData]This element is read-only.</t>
+  </si>
+  <si>
+    <t>MS-OXWSMSG_R73009</t>
+  </si>
+  <si>
+    <t>MS-OXWSMSG_R73010</t>
   </si>
 </sst>
 </file>
@@ -3192,6 +3210,25 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -3216,369 +3253,12 @@
     <xf numFmtId="0" fontId="3" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="89">
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color theme="0"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <name val="Calibri"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <name val="Calibri"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="30" formatCode="@"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="left" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <name val="Calibri"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="30" formatCode="@"/>
-      <alignment horizontal="left" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <name val="Calibri"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="30" formatCode="@"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="left" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <name val="Calibri"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="30" formatCode="@"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="left" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <name val="Calibri"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="30" formatCode="@"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="left" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <name val="Calibri"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <name val="Calibri"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="30" formatCode="@"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <name val="Calibri"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="30" formatCode="@"/>
-      <alignment horizontal="left" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <name val="Calibri"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="left" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <name val="Calibri"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
     <dxf>
       <font>
         <strike/>
@@ -3961,6 +3641,344 @@
         <strike/>
       </font>
     </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color theme="0"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <name val="Calibri"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <name val="Calibri"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <name val="Calibri"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <alignment horizontal="left" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <name val="Calibri"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <name val="Calibri"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <name val="Calibri"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <name val="Calibri"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <name val="Calibri"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <name val="Calibri"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <alignment horizontal="left" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <name val="Calibri"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="left" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <name val="Calibri"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -4090,8 +4108,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Requirement" displayName="Requirement" ref="A19:I346" tableType="xml" totalsRowShown="0" headerRowDxfId="18" dataDxfId="17" connectionId="1">
-  <autoFilter ref="A19:I346" xr:uid="{00000000-0009-0000-0100-000001000000}">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Requirement" displayName="Requirement" ref="A19:I349" tableType="xml" totalsRowShown="0" headerRowDxfId="88" dataDxfId="87" connectionId="1">
+  <autoFilter ref="A19:I349" xr:uid="{00000000-0009-0000-0100-000001000000}">
     <filterColumn colId="5">
       <filters>
         <filter val="Both"/>
@@ -4099,34 +4117,34 @@
     </filterColumn>
   </autoFilter>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A52:I64">
-    <sortCondition descending="1" ref="F19:F346"/>
+    <sortCondition descending="1" ref="F19:F349"/>
   </sortState>
   <tableColumns count="9">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" uniqueName="ns1:REQ_ID" name="Req ID" dataDxfId="16">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" uniqueName="ns1:REQ_ID" name="Req ID" dataDxfId="86">
       <xmlColumnPr mapId="12" xpath="/ns1:ReqTable/ns1:Requirement/ns1:REQ_ID" xmlDataType="string"/>
     </tableColumn>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" uniqueName="ns1:Doc_Sect" name="Doc Sect" dataDxfId="15">
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" uniqueName="ns1:Doc_Sect" name="Doc Sect" dataDxfId="85">
       <xmlColumnPr mapId="12" xpath="/ns1:ReqTable/ns1:Requirement/ns1:Doc_Sect" xmlDataType="string"/>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" uniqueName="ns1:Description" name="Description" dataDxfId="14">
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" uniqueName="ns1:Description" name="Description" dataDxfId="84">
       <xmlColumnPr mapId="12" xpath="/ns1:ReqTable/ns1:Requirement/ns1:Description" xmlDataType="string"/>
     </tableColumn>
-    <tableColumn id="18" xr3:uid="{00000000-0010-0000-0000-000012000000}" uniqueName="ns1:Derived" name="Derived" dataDxfId="13">
+    <tableColumn id="18" xr3:uid="{00000000-0010-0000-0000-000012000000}" uniqueName="ns1:Derived" name="Derived" dataDxfId="83">
       <xmlColumnPr mapId="12" xpath="/ns1:ReqTable/ns1:Requirement/ns1:Derived" xmlDataType="string"/>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" uniqueName="ns1:Behavior" name="Behavior" dataDxfId="12">
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" uniqueName="ns1:Behavior" name="Behavior" dataDxfId="82">
       <xmlColumnPr mapId="12" xpath="/ns1:ReqTable/ns1:Requirement/ns1:Behavior" xmlDataType="string"/>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" uniqueName="ns1:Scope" name="Scope" dataDxfId="11">
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" uniqueName="ns1:Scope" name="Scope" dataDxfId="81">
       <xmlColumnPr mapId="12" xpath="/ns1:ReqTable/ns1:Requirement/ns1:Scope" xmlDataType="string"/>
     </tableColumn>
-    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" uniqueName="ns1:IsNormative" name="Informative_x000a_/Normative" dataDxfId="10">
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" uniqueName="ns1:IsNormative" name="Informative_x000a_/Normative" dataDxfId="80">
       <xmlColumnPr mapId="12" xpath="/ns1:ReqTable/ns1:Requirement/ns1:IsNormative" xmlDataType="string"/>
     </tableColumn>
-    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" uniqueName="ns1:Verification" name="Verification" dataDxfId="9">
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" uniqueName="ns1:Verification" name="Verification" dataDxfId="79">
       <xmlColumnPr mapId="12" xpath="/ns1:ReqTable/ns1:Requirement/ns1:Verification" xmlDataType="string"/>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" uniqueName="ns1:VerificationComment" name="Verification Comment" dataDxfId="8">
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" uniqueName="ns1:VerificationComment" name="Verification Comment" dataDxfId="78">
       <xmlColumnPr mapId="12" xpath="/ns1:ReqTable/ns1:Requirement/ns1:VerificationComment" xmlDataType="string"/>
     </tableColumn>
   </tableColumns>
@@ -4135,12 +4153,12 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Scope" displayName="Scope" ref="A12:C15" totalsRowShown="0" headerRowDxfId="7" dataDxfId="6" headerRowBorderDxfId="4" tableBorderDxfId="5" totalsRowBorderDxfId="3">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Scope" displayName="Scope" ref="A12:C15" totalsRowShown="0" headerRowDxfId="77" dataDxfId="75" headerRowBorderDxfId="76" tableBorderDxfId="74" totalsRowBorderDxfId="73">
   <autoFilter ref="A12:C15" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="Scope" dataDxfId="2"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="Test" dataDxfId="1"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0100-000003000000}" name="Description" dataDxfId="0"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="Scope" dataDxfId="72"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="Test" dataDxfId="71"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0100-000003000000}" name="Description" dataDxfId="70"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -4468,9 +4486,11 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:L347"/>
+  <dimension ref="A1:L350"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A149" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D153" sqref="D153"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
@@ -4512,138 +4532,138 @@
         <v>25</v>
       </c>
       <c r="C3" s="28">
-        <v>14</v>
+        <v>14.1</v>
       </c>
       <c r="E3" s="9" t="s">
         <v>26</v>
       </c>
       <c r="F3" s="11">
-        <v>43374</v>
+        <v>43788</v>
       </c>
       <c r="J3" s="5"/>
     </row>
     <row r="4" spans="1:10" ht="21">
-      <c r="A4" s="45" t="s">
+      <c r="A4" s="41" t="s">
         <v>24</v>
       </c>
-      <c r="B4" s="45"/>
-      <c r="C4" s="45"/>
-      <c r="D4" s="45"/>
-      <c r="E4" s="45"/>
-      <c r="F4" s="45"/>
-      <c r="G4" s="45"/>
+      <c r="B4" s="41"/>
+      <c r="C4" s="41"/>
+      <c r="D4" s="41"/>
+      <c r="E4" s="41"/>
+      <c r="F4" s="41"/>
+      <c r="G4" s="41"/>
       <c r="J4" s="5"/>
     </row>
     <row r="5" spans="1:10">
       <c r="A5" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="B5" s="48" t="s">
+      <c r="B5" s="44" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="49"/>
-      <c r="D5" s="49"/>
-      <c r="E5" s="49"/>
-      <c r="F5" s="49"/>
-      <c r="G5" s="49"/>
-      <c r="H5" s="49"/>
-      <c r="I5" s="49"/>
+      <c r="C5" s="45"/>
+      <c r="D5" s="45"/>
+      <c r="E5" s="45"/>
+      <c r="F5" s="45"/>
+      <c r="G5" s="45"/>
+      <c r="H5" s="45"/>
+      <c r="I5" s="45"/>
       <c r="J5" s="5"/>
     </row>
     <row r="6" spans="1:10">
       <c r="A6" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="B6" s="47" t="s">
+      <c r="B6" s="43" t="s">
         <v>33</v>
       </c>
-      <c r="C6" s="47"/>
-      <c r="D6" s="47"/>
-      <c r="E6" s="47"/>
-      <c r="F6" s="47"/>
-      <c r="G6" s="47"/>
-      <c r="H6" s="47"/>
-      <c r="I6" s="47"/>
+      <c r="C6" s="43"/>
+      <c r="D6" s="43"/>
+      <c r="E6" s="43"/>
+      <c r="F6" s="43"/>
+      <c r="G6" s="43"/>
+      <c r="H6" s="43"/>
+      <c r="I6" s="43"/>
       <c r="J6" s="5"/>
     </row>
     <row r="7" spans="1:10">
       <c r="A7" s="13" t="s">
         <v>37</v>
       </c>
-      <c r="B7" s="46" t="s">
+      <c r="B7" s="42" t="s">
         <v>28</v>
       </c>
-      <c r="C7" s="46"/>
-      <c r="D7" s="46"/>
-      <c r="E7" s="46"/>
-      <c r="F7" s="46"/>
-      <c r="G7" s="46"/>
-      <c r="H7" s="46"/>
-      <c r="I7" s="46"/>
+      <c r="C7" s="42"/>
+      <c r="D7" s="42"/>
+      <c r="E7" s="42"/>
+      <c r="F7" s="42"/>
+      <c r="G7" s="42"/>
+      <c r="H7" s="42"/>
+      <c r="I7" s="42"/>
       <c r="J7" s="5"/>
     </row>
     <row r="8" spans="1:10">
       <c r="A8" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="B8" s="46" t="s">
+      <c r="B8" s="42" t="s">
         <v>29</v>
       </c>
-      <c r="C8" s="46"/>
-      <c r="D8" s="46"/>
-      <c r="E8" s="46"/>
-      <c r="F8" s="46"/>
-      <c r="G8" s="46"/>
-      <c r="H8" s="46"/>
-      <c r="I8" s="46"/>
+      <c r="C8" s="42"/>
+      <c r="D8" s="42"/>
+      <c r="E8" s="42"/>
+      <c r="F8" s="42"/>
+      <c r="G8" s="42"/>
+      <c r="H8" s="42"/>
+      <c r="I8" s="42"/>
       <c r="J8" s="5"/>
     </row>
     <row r="9" spans="1:10" ht="75.75" customHeight="1">
       <c r="A9" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="B9" s="41" t="s">
+      <c r="B9" s="50" t="s">
         <v>36</v>
       </c>
-      <c r="C9" s="42"/>
-      <c r="D9" s="42"/>
-      <c r="E9" s="42"/>
-      <c r="F9" s="42"/>
-      <c r="G9" s="42"/>
-      <c r="H9" s="42"/>
-      <c r="I9" s="42"/>
+      <c r="C9" s="51"/>
+      <c r="D9" s="51"/>
+      <c r="E9" s="51"/>
+      <c r="F9" s="51"/>
+      <c r="G9" s="51"/>
+      <c r="H9" s="51"/>
+      <c r="I9" s="51"/>
       <c r="J9" s="5"/>
     </row>
     <row r="10" spans="1:10" ht="30.75" customHeight="1">
       <c r="A10" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="B10" s="41" t="s">
+      <c r="B10" s="50" t="s">
         <v>432</v>
       </c>
-      <c r="C10" s="42"/>
-      <c r="D10" s="42"/>
-      <c r="E10" s="42"/>
-      <c r="F10" s="42"/>
-      <c r="G10" s="42"/>
-      <c r="H10" s="42"/>
-      <c r="I10" s="42"/>
+      <c r="C10" s="51"/>
+      <c r="D10" s="51"/>
+      <c r="E10" s="51"/>
+      <c r="F10" s="51"/>
+      <c r="G10" s="51"/>
+      <c r="H10" s="51"/>
+      <c r="I10" s="51"/>
       <c r="J10" s="5"/>
     </row>
     <row r="11" spans="1:10">
       <c r="A11" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="B11" s="37" t="s">
+      <c r="B11" s="46" t="s">
         <v>39</v>
       </c>
-      <c r="C11" s="37"/>
-      <c r="D11" s="37"/>
-      <c r="E11" s="37"/>
-      <c r="F11" s="37"/>
-      <c r="G11" s="37"/>
-      <c r="H11" s="37"/>
-      <c r="I11" s="37"/>
+      <c r="C11" s="46"/>
+      <c r="D11" s="46"/>
+      <c r="E11" s="46"/>
+      <c r="F11" s="46"/>
+      <c r="G11" s="46"/>
+      <c r="H11" s="46"/>
+      <c r="I11" s="46"/>
       <c r="J11" s="5"/>
     </row>
     <row r="12" spans="1:10">
@@ -4656,12 +4676,12 @@
       <c r="C12" s="18" t="s">
         <v>1</v>
       </c>
-      <c r="D12" s="38"/>
-      <c r="E12" s="38"/>
-      <c r="F12" s="38"/>
-      <c r="G12" s="38"/>
-      <c r="H12" s="38"/>
-      <c r="I12" s="38"/>
+      <c r="D12" s="47"/>
+      <c r="E12" s="47"/>
+      <c r="F12" s="47"/>
+      <c r="G12" s="47"/>
+      <c r="H12" s="47"/>
+      <c r="I12" s="47"/>
       <c r="J12" s="5"/>
     </row>
     <row r="13" spans="1:10">
@@ -4674,12 +4694,12 @@
       <c r="C13" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="D13" s="39"/>
-      <c r="E13" s="39"/>
-      <c r="F13" s="39"/>
-      <c r="G13" s="39"/>
-      <c r="H13" s="39"/>
-      <c r="I13" s="39"/>
+      <c r="D13" s="48"/>
+      <c r="E13" s="48"/>
+      <c r="F13" s="48"/>
+      <c r="G13" s="48"/>
+      <c r="H13" s="48"/>
+      <c r="I13" s="48"/>
       <c r="J13" s="5"/>
     </row>
     <row r="14" spans="1:10">
@@ -4692,12 +4712,12 @@
       <c r="C14" s="15" t="s">
         <v>34</v>
       </c>
-      <c r="D14" s="39"/>
-      <c r="E14" s="39"/>
-      <c r="F14" s="39"/>
-      <c r="G14" s="39"/>
-      <c r="H14" s="39"/>
-      <c r="I14" s="39"/>
+      <c r="D14" s="48"/>
+      <c r="E14" s="48"/>
+      <c r="F14" s="48"/>
+      <c r="G14" s="48"/>
+      <c r="H14" s="48"/>
+      <c r="I14" s="48"/>
       <c r="J14" s="5"/>
     </row>
     <row r="15" spans="1:10" ht="30">
@@ -4710,60 +4730,60 @@
       <c r="C15" s="15" t="s">
         <v>30</v>
       </c>
-      <c r="D15" s="40"/>
-      <c r="E15" s="40"/>
-      <c r="F15" s="40"/>
-      <c r="G15" s="40"/>
-      <c r="H15" s="40"/>
-      <c r="I15" s="40"/>
+      <c r="D15" s="49"/>
+      <c r="E15" s="49"/>
+      <c r="F15" s="49"/>
+      <c r="G15" s="49"/>
+      <c r="H15" s="49"/>
+      <c r="I15" s="49"/>
       <c r="J15" s="5"/>
     </row>
     <row r="16" spans="1:10">
       <c r="A16" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="B16" s="37" t="s">
+      <c r="B16" s="46" t="s">
         <v>40</v>
       </c>
-      <c r="C16" s="37"/>
-      <c r="D16" s="37"/>
-      <c r="E16" s="37"/>
-      <c r="F16" s="37"/>
-      <c r="G16" s="37"/>
-      <c r="H16" s="37"/>
-      <c r="I16" s="37"/>
+      <c r="C16" s="46"/>
+      <c r="D16" s="46"/>
+      <c r="E16" s="46"/>
+      <c r="F16" s="46"/>
+      <c r="G16" s="46"/>
+      <c r="H16" s="46"/>
+      <c r="I16" s="46"/>
       <c r="J16" s="5"/>
     </row>
     <row r="17" spans="1:12" ht="61.5" customHeight="1">
       <c r="A17" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="B17" s="43" t="s">
+      <c r="B17" s="52" t="s">
         <v>563</v>
       </c>
-      <c r="C17" s="44"/>
-      <c r="D17" s="44"/>
-      <c r="E17" s="44"/>
-      <c r="F17" s="44"/>
-      <c r="G17" s="44"/>
-      <c r="H17" s="44"/>
-      <c r="I17" s="44"/>
+      <c r="C17" s="53"/>
+      <c r="D17" s="53"/>
+      <c r="E17" s="53"/>
+      <c r="F17" s="53"/>
+      <c r="G17" s="53"/>
+      <c r="H17" s="53"/>
+      <c r="I17" s="53"/>
       <c r="J17" s="5"/>
     </row>
     <row r="18" spans="1:12">
       <c r="A18" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="B18" s="37" t="s">
+      <c r="B18" s="46" t="s">
         <v>35</v>
       </c>
-      <c r="C18" s="37"/>
-      <c r="D18" s="37"/>
-      <c r="E18" s="37"/>
-      <c r="F18" s="37"/>
-      <c r="G18" s="37"/>
-      <c r="H18" s="37"/>
-      <c r="I18" s="37"/>
+      <c r="C18" s="46"/>
+      <c r="D18" s="46"/>
+      <c r="E18" s="46"/>
+      <c r="F18" s="46"/>
+      <c r="G18" s="46"/>
+      <c r="H18" s="46"/>
+      <c r="I18" s="46"/>
       <c r="J18" s="5"/>
       <c r="L18" s="4"/>
     </row>
@@ -5599,7 +5619,7 @@
       </c>
       <c r="I51" s="34"/>
     </row>
-    <row r="52" spans="1:9" s="50" customFormat="1" ht="45">
+    <row r="52" spans="1:9" s="37" customFormat="1" ht="45">
       <c r="A52" s="32" t="s">
         <v>569</v>
       </c>
@@ -5626,7 +5646,7 @@
         <v>757</v>
       </c>
     </row>
-    <row r="53" spans="1:9" s="50" customFormat="1" ht="195.75" customHeight="1">
+    <row r="53" spans="1:9" s="37" customFormat="1" ht="195.75" customHeight="1">
       <c r="A53" s="21" t="s">
         <v>570</v>
       </c>
@@ -5651,7 +5671,7 @@
       </c>
       <c r="I53" s="34"/>
     </row>
-    <row r="54" spans="1:9" s="50" customFormat="1" ht="78" customHeight="1">
+    <row r="54" spans="1:9" s="37" customFormat="1" ht="78" customHeight="1">
       <c r="A54" s="21" t="s">
         <v>571</v>
       </c>
@@ -5676,7 +5696,7 @@
       </c>
       <c r="I54" s="19"/>
     </row>
-    <row r="55" spans="1:9" s="50" customFormat="1" ht="34.5" customHeight="1">
+    <row r="55" spans="1:9" s="37" customFormat="1" ht="34.5" customHeight="1">
       <c r="A55" s="21" t="s">
         <v>572</v>
       </c>
@@ -5701,7 +5721,7 @@
       </c>
       <c r="I55" s="34"/>
     </row>
-    <row r="56" spans="1:9" s="50" customFormat="1" ht="48" customHeight="1">
+    <row r="56" spans="1:9" s="37" customFormat="1" ht="48" customHeight="1">
       <c r="A56" s="21" t="s">
         <v>573</v>
       </c>
@@ -5726,7 +5746,7 @@
       </c>
       <c r="I56" s="19"/>
     </row>
-    <row r="57" spans="1:9" s="50" customFormat="1" ht="51" customHeight="1">
+    <row r="57" spans="1:9" s="37" customFormat="1" ht="51" customHeight="1">
       <c r="A57" s="21" t="s">
         <v>574</v>
       </c>
@@ -5753,7 +5773,7 @@
       </c>
       <c r="I57" s="19"/>
     </row>
-    <row r="58" spans="1:9" s="50" customFormat="1" ht="45">
+    <row r="58" spans="1:9" s="37" customFormat="1" ht="45">
       <c r="A58" s="21" t="s">
         <v>575</v>
       </c>
@@ -5780,7 +5800,7 @@
       </c>
       <c r="I58" s="19"/>
     </row>
-    <row r="59" spans="1:9" s="50" customFormat="1" ht="30">
+    <row r="59" spans="1:9" s="37" customFormat="1" ht="30">
       <c r="A59" s="21" t="s">
         <v>576</v>
       </c>
@@ -5805,7 +5825,7 @@
       </c>
       <c r="I59" s="34"/>
     </row>
-    <row r="60" spans="1:9" s="50" customFormat="1" ht="30">
+    <row r="60" spans="1:9" s="37" customFormat="1" ht="30">
       <c r="A60" s="21" t="s">
         <v>577</v>
       </c>
@@ -5830,7 +5850,7 @@
       </c>
       <c r="I60" s="19"/>
     </row>
-    <row r="61" spans="1:9" s="50" customFormat="1" ht="30">
+    <row r="61" spans="1:9" s="37" customFormat="1" ht="30">
       <c r="A61" s="21" t="s">
         <v>598</v>
       </c>
@@ -5855,7 +5875,7 @@
       </c>
       <c r="I61" s="34"/>
     </row>
-    <row r="62" spans="1:9" s="50" customFormat="1" ht="45">
+    <row r="62" spans="1:9" s="37" customFormat="1" ht="45">
       <c r="A62" s="21" t="s">
         <v>599</v>
       </c>
@@ -5880,7 +5900,7 @@
       </c>
       <c r="I62" s="19"/>
     </row>
-    <row r="63" spans="1:9" s="50" customFormat="1" ht="30">
+    <row r="63" spans="1:9" s="37" customFormat="1" ht="30">
       <c r="A63" s="21" t="s">
         <v>600</v>
       </c>
@@ -5905,7 +5925,7 @@
       </c>
       <c r="I63" s="34"/>
     </row>
-    <row r="64" spans="1:9" s="50" customFormat="1" ht="45">
+    <row r="64" spans="1:9" s="37" customFormat="1" ht="45">
       <c r="A64" s="21" t="s">
         <v>601</v>
       </c>
@@ -5930,7 +5950,7 @@
       </c>
       <c r="I64" s="19"/>
     </row>
-    <row r="65" spans="1:9" s="50" customFormat="1" ht="45">
+    <row r="65" spans="1:9" s="37" customFormat="1" ht="45">
       <c r="A65" s="21" t="s">
         <v>608</v>
       </c>
@@ -5957,7 +5977,7 @@
         <v>759</v>
       </c>
     </row>
-    <row r="66" spans="1:9" s="50" customFormat="1" ht="120">
+    <row r="66" spans="1:9" s="37" customFormat="1" ht="120">
       <c r="A66" s="21" t="s">
         <v>609</v>
       </c>
@@ -5982,7 +6002,7 @@
       </c>
       <c r="I66" s="34"/>
     </row>
-    <row r="67" spans="1:9" s="50" customFormat="1" ht="45">
+    <row r="67" spans="1:9" s="37" customFormat="1" ht="45">
       <c r="A67" s="21" t="s">
         <v>610</v>
       </c>
@@ -6007,7 +6027,7 @@
       </c>
       <c r="I67" s="34"/>
     </row>
-    <row r="68" spans="1:9" s="50" customFormat="1" ht="30">
+    <row r="68" spans="1:9" s="37" customFormat="1" ht="30">
       <c r="A68" s="21" t="s">
         <v>611</v>
       </c>
@@ -6032,7 +6052,7 @@
       </c>
       <c r="I68" s="34"/>
     </row>
-    <row r="69" spans="1:9" s="50" customFormat="1" ht="30">
+    <row r="69" spans="1:9" s="37" customFormat="1" ht="30">
       <c r="A69" s="21" t="s">
         <v>612</v>
       </c>
@@ -6057,7 +6077,7 @@
       </c>
       <c r="I69" s="19"/>
     </row>
-    <row r="70" spans="1:9" s="50" customFormat="1" ht="30">
+    <row r="70" spans="1:9" s="37" customFormat="1" ht="30">
       <c r="A70" s="29" t="s">
         <v>64</v>
       </c>
@@ -6082,7 +6102,7 @@
       </c>
       <c r="I70" s="31"/>
     </row>
-    <row r="71" spans="1:9" s="50" customFormat="1" ht="30">
+    <row r="71" spans="1:9" s="37" customFormat="1" ht="30">
       <c r="A71" s="29" t="s">
         <v>65</v>
       </c>
@@ -6107,7 +6127,7 @@
       </c>
       <c r="I71" s="31"/>
     </row>
-    <row r="72" spans="1:9" s="50" customFormat="1" ht="409.5">
+    <row r="72" spans="1:9" s="37" customFormat="1" ht="409.5">
       <c r="A72" s="29" t="s">
         <v>66</v>
       </c>
@@ -6132,7 +6152,7 @@
       </c>
       <c r="I72" s="31"/>
     </row>
-    <row r="73" spans="1:9" s="50" customFormat="1" ht="90">
+    <row r="73" spans="1:9" s="37" customFormat="1" ht="90">
       <c r="A73" s="29" t="s">
         <v>67</v>
       </c>
@@ -6157,7 +6177,7 @@
       </c>
       <c r="I73" s="31"/>
     </row>
-    <row r="74" spans="1:9" s="50" customFormat="1" ht="30">
+    <row r="74" spans="1:9" s="37" customFormat="1" ht="30">
       <c r="A74" s="29" t="s">
         <v>68</v>
       </c>
@@ -6182,7 +6202,7 @@
       </c>
       <c r="I74" s="31"/>
     </row>
-    <row r="75" spans="1:9" s="50" customFormat="1" ht="60">
+    <row r="75" spans="1:9" s="37" customFormat="1" ht="60">
       <c r="A75" s="29" t="s">
         <v>69</v>
       </c>
@@ -6209,7 +6229,7 @@
       </c>
       <c r="I75" s="19"/>
     </row>
-    <row r="76" spans="1:9" s="50" customFormat="1" ht="60">
+    <row r="76" spans="1:9" s="37" customFormat="1" ht="60">
       <c r="A76" s="29" t="s">
         <v>70</v>
       </c>
@@ -6236,7 +6256,7 @@
       </c>
       <c r="I76" s="31"/>
     </row>
-    <row r="77" spans="1:9" s="50" customFormat="1" ht="30">
+    <row r="77" spans="1:9" s="37" customFormat="1" ht="30">
       <c r="A77" s="29" t="s">
         <v>71</v>
       </c>
@@ -6261,7 +6281,7 @@
       </c>
       <c r="I77" s="31"/>
     </row>
-    <row r="78" spans="1:9" s="50" customFormat="1">
+    <row r="78" spans="1:9" s="37" customFormat="1">
       <c r="A78" s="29" t="s">
         <v>72</v>
       </c>
@@ -6286,7 +6306,7 @@
       </c>
       <c r="I78" s="31"/>
     </row>
-    <row r="79" spans="1:9" s="50" customFormat="1" ht="30">
+    <row r="79" spans="1:9" s="37" customFormat="1" ht="30">
       <c r="A79" s="29" t="s">
         <v>73</v>
       </c>
@@ -6311,7 +6331,7 @@
       </c>
       <c r="I79" s="31"/>
     </row>
-    <row r="80" spans="1:9" s="50" customFormat="1" ht="30">
+    <row r="80" spans="1:9" s="37" customFormat="1" ht="30">
       <c r="A80" s="29" t="s">
         <v>74</v>
       </c>
@@ -6336,7 +6356,7 @@
       </c>
       <c r="I80" s="31"/>
     </row>
-    <row r="81" spans="1:9" s="50" customFormat="1" ht="60">
+    <row r="81" spans="1:9" s="37" customFormat="1" ht="60">
       <c r="A81" s="29" t="s">
         <v>75</v>
       </c>
@@ -6363,7 +6383,7 @@
       </c>
       <c r="I81" s="34"/>
     </row>
-    <row r="82" spans="1:9" s="50" customFormat="1" ht="60">
+    <row r="82" spans="1:9" s="37" customFormat="1" ht="60">
       <c r="A82" s="29" t="s">
         <v>76</v>
       </c>
@@ -6390,7 +6410,7 @@
       </c>
       <c r="I82" s="31"/>
     </row>
-    <row r="83" spans="1:9" s="50" customFormat="1" ht="30">
+    <row r="83" spans="1:9" s="37" customFormat="1" ht="30">
       <c r="A83" s="29" t="s">
         <v>77</v>
       </c>
@@ -6415,7 +6435,7 @@
       </c>
       <c r="I83" s="31"/>
     </row>
-    <row r="84" spans="1:9" s="50" customFormat="1" ht="30">
+    <row r="84" spans="1:9" s="37" customFormat="1" ht="30">
       <c r="A84" s="29" t="s">
         <v>78</v>
       </c>
@@ -6440,7 +6460,7 @@
       </c>
       <c r="I84" s="31"/>
     </row>
-    <row r="85" spans="1:9" s="50" customFormat="1" ht="30">
+    <row r="85" spans="1:9" s="37" customFormat="1" ht="30">
       <c r="A85" s="29" t="s">
         <v>79</v>
       </c>
@@ -6465,7 +6485,7 @@
       </c>
       <c r="I85" s="31"/>
     </row>
-    <row r="86" spans="1:9" s="50" customFormat="1" ht="30">
+    <row r="86" spans="1:9" s="37" customFormat="1" ht="30">
       <c r="A86" s="29" t="s">
         <v>80</v>
       </c>
@@ -6490,7 +6510,7 @@
       </c>
       <c r="I86" s="31"/>
     </row>
-    <row r="87" spans="1:9" s="50" customFormat="1" ht="30">
+    <row r="87" spans="1:9" s="37" customFormat="1" ht="30">
       <c r="A87" s="29" t="s">
         <v>81</v>
       </c>
@@ -6515,7 +6535,7 @@
       </c>
       <c r="I87" s="31"/>
     </row>
-    <row r="88" spans="1:9" s="50" customFormat="1" ht="30">
+    <row r="88" spans="1:9" s="37" customFormat="1" ht="30">
       <c r="A88" s="29" t="s">
         <v>82</v>
       </c>
@@ -6540,7 +6560,7 @@
       </c>
       <c r="I88" s="31"/>
     </row>
-    <row r="89" spans="1:9" s="50" customFormat="1" ht="30">
+    <row r="89" spans="1:9" s="37" customFormat="1" ht="30">
       <c r="A89" s="29" t="s">
         <v>83</v>
       </c>
@@ -6565,7 +6585,7 @@
       </c>
       <c r="I89" s="31"/>
     </row>
-    <row r="90" spans="1:9" s="50" customFormat="1" ht="30">
+    <row r="90" spans="1:9" s="37" customFormat="1" ht="30">
       <c r="A90" s="29" t="s">
         <v>84</v>
       </c>
@@ -6590,7 +6610,7 @@
       </c>
       <c r="I90" s="31"/>
     </row>
-    <row r="91" spans="1:9" s="50" customFormat="1" ht="30">
+    <row r="91" spans="1:9" s="37" customFormat="1" ht="30">
       <c r="A91" s="29" t="s">
         <v>85</v>
       </c>
@@ -6615,7 +6635,7 @@
       </c>
       <c r="I91" s="31"/>
     </row>
-    <row r="92" spans="1:9" s="50" customFormat="1" ht="30">
+    <row r="92" spans="1:9" s="37" customFormat="1" ht="30">
       <c r="A92" s="29" t="s">
         <v>86</v>
       </c>
@@ -6640,7 +6660,7 @@
       </c>
       <c r="I92" s="31"/>
     </row>
-    <row r="93" spans="1:9" s="50" customFormat="1" ht="30">
+    <row r="93" spans="1:9" s="37" customFormat="1" ht="30">
       <c r="A93" s="29" t="s">
         <v>87</v>
       </c>
@@ -6665,7 +6685,7 @@
       </c>
       <c r="I93" s="31"/>
     </row>
-    <row r="94" spans="1:9" s="50" customFormat="1" ht="30">
+    <row r="94" spans="1:9" s="37" customFormat="1" ht="30">
       <c r="A94" s="29" t="s">
         <v>88</v>
       </c>
@@ -6690,7 +6710,7 @@
       </c>
       <c r="I94" s="31"/>
     </row>
-    <row r="95" spans="1:9" s="50" customFormat="1" ht="45">
+    <row r="95" spans="1:9" s="37" customFormat="1" ht="45">
       <c r="A95" s="29" t="s">
         <v>89</v>
       </c>
@@ -6715,7 +6735,7 @@
       </c>
       <c r="I95" s="31"/>
     </row>
-    <row r="96" spans="1:9" s="50" customFormat="1" ht="30">
+    <row r="96" spans="1:9" s="37" customFormat="1" ht="30">
       <c r="A96" s="29" t="s">
         <v>90</v>
       </c>
@@ -6740,7 +6760,7 @@
       </c>
       <c r="I96" s="31"/>
     </row>
-    <row r="97" spans="1:9" s="50" customFormat="1" ht="30">
+    <row r="97" spans="1:9" s="37" customFormat="1" ht="30">
       <c r="A97" s="29" t="s">
         <v>91</v>
       </c>
@@ -6765,7 +6785,7 @@
       </c>
       <c r="I97" s="31"/>
     </row>
-    <row r="98" spans="1:9" s="50" customFormat="1" ht="45">
+    <row r="98" spans="1:9" s="37" customFormat="1" ht="45">
       <c r="A98" s="29" t="s">
         <v>92</v>
       </c>
@@ -6790,7 +6810,7 @@
       </c>
       <c r="I98" s="31"/>
     </row>
-    <row r="99" spans="1:9" s="50" customFormat="1" ht="45">
+    <row r="99" spans="1:9" s="37" customFormat="1" ht="45">
       <c r="A99" s="29" t="s">
         <v>93</v>
       </c>
@@ -6817,7 +6837,7 @@
       </c>
       <c r="I99" s="31"/>
     </row>
-    <row r="100" spans="1:9" s="50" customFormat="1" ht="30">
+    <row r="100" spans="1:9" s="37" customFormat="1" ht="30">
       <c r="A100" s="29" t="s">
         <v>94</v>
       </c>
@@ -6842,7 +6862,7 @@
       </c>
       <c r="I100" s="31"/>
     </row>
-    <row r="101" spans="1:9" s="50" customFormat="1" ht="45">
+    <row r="101" spans="1:9" s="37" customFormat="1" ht="45">
       <c r="A101" s="29" t="s">
         <v>95</v>
       </c>
@@ -6867,7 +6887,7 @@
       </c>
       <c r="I101" s="31"/>
     </row>
-    <row r="102" spans="1:9" s="50" customFormat="1" ht="30">
+    <row r="102" spans="1:9" s="37" customFormat="1" ht="30">
       <c r="A102" s="29" t="s">
         <v>96</v>
       </c>
@@ -6944,7 +6964,7 @@
       </c>
       <c r="I104" s="31"/>
     </row>
-    <row r="105" spans="1:9" s="50" customFormat="1" ht="30">
+    <row r="105" spans="1:9" s="37" customFormat="1" ht="30">
       <c r="A105" s="29" t="s">
         <v>99</v>
       </c>
@@ -6969,7 +6989,7 @@
       </c>
       <c r="I105" s="31"/>
     </row>
-    <row r="106" spans="1:9" s="50" customFormat="1" ht="30">
+    <row r="106" spans="1:9" s="37" customFormat="1" ht="30">
       <c r="A106" s="29" t="s">
         <v>100</v>
       </c>
@@ -6994,7 +7014,7 @@
       </c>
       <c r="I106" s="31"/>
     </row>
-    <row r="107" spans="1:9" s="50" customFormat="1" ht="30">
+    <row r="107" spans="1:9" s="37" customFormat="1" ht="30">
       <c r="A107" s="29" t="s">
         <v>101</v>
       </c>
@@ -7019,7 +7039,7 @@
       </c>
       <c r="I107" s="31"/>
     </row>
-    <row r="108" spans="1:9" s="50" customFormat="1" ht="30">
+    <row r="108" spans="1:9" s="37" customFormat="1" ht="30">
       <c r="A108" s="29" t="s">
         <v>102</v>
       </c>
@@ -7044,7 +7064,7 @@
       </c>
       <c r="I108" s="31"/>
     </row>
-    <row r="109" spans="1:9" s="50" customFormat="1" ht="30">
+    <row r="109" spans="1:9" s="37" customFormat="1" ht="30">
       <c r="A109" s="29" t="s">
         <v>103</v>
       </c>
@@ -7069,7 +7089,7 @@
       </c>
       <c r="I109" s="31"/>
     </row>
-    <row r="110" spans="1:9" s="50" customFormat="1" ht="30">
+    <row r="110" spans="1:9" s="37" customFormat="1" ht="30">
       <c r="A110" s="29" t="s">
         <v>104</v>
       </c>
@@ -7094,7 +7114,7 @@
       </c>
       <c r="I110" s="31"/>
     </row>
-    <row r="111" spans="1:9" s="50" customFormat="1" ht="30">
+    <row r="111" spans="1:9" s="37" customFormat="1" ht="30">
       <c r="A111" s="29" t="s">
         <v>105</v>
       </c>
@@ -7119,7 +7139,7 @@
       </c>
       <c r="I111" s="31"/>
     </row>
-    <row r="112" spans="1:9" s="50" customFormat="1" ht="30">
+    <row r="112" spans="1:9" s="37" customFormat="1" ht="30">
       <c r="A112" s="29" t="s">
         <v>106</v>
       </c>
@@ -7144,7 +7164,7 @@
       </c>
       <c r="I112" s="31"/>
     </row>
-    <row r="113" spans="1:9" s="50" customFormat="1" ht="30">
+    <row r="113" spans="1:9" s="37" customFormat="1" ht="30">
       <c r="A113" s="29" t="s">
         <v>107</v>
       </c>
@@ -7169,7 +7189,7 @@
       </c>
       <c r="I113" s="31"/>
     </row>
-    <row r="114" spans="1:9" s="50" customFormat="1" ht="30">
+    <row r="114" spans="1:9" s="37" customFormat="1" ht="30">
       <c r="A114" s="29" t="s">
         <v>108</v>
       </c>
@@ -7194,7 +7214,7 @@
       </c>
       <c r="I114" s="31"/>
     </row>
-    <row r="115" spans="1:9" s="50" customFormat="1">
+    <row r="115" spans="1:9" s="37" customFormat="1">
       <c r="A115" s="29" t="s">
         <v>109</v>
       </c>
@@ -7219,7 +7239,7 @@
       </c>
       <c r="I115" s="31"/>
     </row>
-    <row r="116" spans="1:9" s="50" customFormat="1" ht="30">
+    <row r="116" spans="1:9" s="37" customFormat="1" ht="30">
       <c r="A116" s="29" t="s">
         <v>110</v>
       </c>
@@ -7244,7 +7264,7 @@
       </c>
       <c r="I116" s="31"/>
     </row>
-    <row r="117" spans="1:9" s="50" customFormat="1" ht="30">
+    <row r="117" spans="1:9" s="37" customFormat="1" ht="30">
       <c r="A117" s="29" t="s">
         <v>111</v>
       </c>
@@ -7269,7 +7289,7 @@
       </c>
       <c r="I117" s="31"/>
     </row>
-    <row r="118" spans="1:9" s="50" customFormat="1" ht="30">
+    <row r="118" spans="1:9" s="37" customFormat="1" ht="30">
       <c r="A118" s="29" t="s">
         <v>112</v>
       </c>
@@ -7294,7 +7314,7 @@
       </c>
       <c r="I118" s="31"/>
     </row>
-    <row r="119" spans="1:9" s="50" customFormat="1" ht="30">
+    <row r="119" spans="1:9" s="37" customFormat="1" ht="30">
       <c r="A119" s="29" t="s">
         <v>113</v>
       </c>
@@ -7319,7 +7339,7 @@
       </c>
       <c r="I119" s="31"/>
     </row>
-    <row r="120" spans="1:9" s="50" customFormat="1" ht="30">
+    <row r="120" spans="1:9" s="37" customFormat="1" ht="30">
       <c r="A120" s="29" t="s">
         <v>114</v>
       </c>
@@ -7471,7 +7491,7 @@
       </c>
       <c r="I125" s="31"/>
     </row>
-    <row r="126" spans="1:9" s="50" customFormat="1" ht="30">
+    <row r="126" spans="1:9" s="37" customFormat="1" ht="30">
       <c r="A126" s="29" t="s">
         <v>120</v>
       </c>
@@ -7496,7 +7516,7 @@
       </c>
       <c r="I126" s="31"/>
     </row>
-    <row r="127" spans="1:9" s="50" customFormat="1" ht="45">
+    <row r="127" spans="1:9" s="37" customFormat="1" ht="45">
       <c r="A127" s="29" t="s">
         <v>121</v>
       </c>
@@ -7521,7 +7541,7 @@
       </c>
       <c r="I127" s="31"/>
     </row>
-    <row r="128" spans="1:9" s="50" customFormat="1" ht="30">
+    <row r="128" spans="1:9" s="37" customFormat="1" ht="30">
       <c r="A128" s="29" t="s">
         <v>122</v>
       </c>
@@ -7546,7 +7566,7 @@
       </c>
       <c r="I128" s="31"/>
     </row>
-    <row r="129" spans="1:9" s="50" customFormat="1" ht="30">
+    <row r="129" spans="1:9" s="37" customFormat="1" ht="30">
       <c r="A129" s="29" t="s">
         <v>123</v>
       </c>
@@ -7571,7 +7591,7 @@
       </c>
       <c r="I129" s="31"/>
     </row>
-    <row r="130" spans="1:9" s="50" customFormat="1" ht="30">
+    <row r="130" spans="1:9" s="37" customFormat="1" ht="30">
       <c r="A130" s="29" t="s">
         <v>124</v>
       </c>
@@ -7596,7 +7616,7 @@
       </c>
       <c r="I130" s="31"/>
     </row>
-    <row r="131" spans="1:9" s="50" customFormat="1" ht="30">
+    <row r="131" spans="1:9" s="37" customFormat="1" ht="30">
       <c r="A131" s="29" t="s">
         <v>125</v>
       </c>
@@ -7623,7 +7643,7 @@
       </c>
       <c r="I131" s="31"/>
     </row>
-    <row r="132" spans="1:9" s="50" customFormat="1">
+    <row r="132" spans="1:9" s="37" customFormat="1">
       <c r="A132" s="29" t="s">
         <v>126</v>
       </c>
@@ -7648,7 +7668,7 @@
       </c>
       <c r="I132" s="31"/>
     </row>
-    <row r="133" spans="1:9" s="50" customFormat="1" ht="30">
+    <row r="133" spans="1:9" s="37" customFormat="1" ht="30">
       <c r="A133" s="29" t="s">
         <v>127</v>
       </c>
@@ -7673,7 +7693,7 @@
       </c>
       <c r="I133" s="31"/>
     </row>
-    <row r="134" spans="1:9" s="50" customFormat="1" ht="30">
+    <row r="134" spans="1:9" s="37" customFormat="1" ht="30">
       <c r="A134" s="29" t="s">
         <v>128</v>
       </c>
@@ -7698,7 +7718,7 @@
       </c>
       <c r="I134" s="31"/>
     </row>
-    <row r="135" spans="1:9" s="50" customFormat="1" ht="30">
+    <row r="135" spans="1:9" s="37" customFormat="1" ht="30">
       <c r="A135" s="29" t="s">
         <v>129</v>
       </c>
@@ -7723,7 +7743,7 @@
       </c>
       <c r="I135" s="31"/>
     </row>
-    <row r="136" spans="1:9" s="50" customFormat="1" ht="30">
+    <row r="136" spans="1:9" s="37" customFormat="1" ht="30">
       <c r="A136" s="29" t="s">
         <v>130</v>
       </c>
@@ -7748,7 +7768,7 @@
       </c>
       <c r="I136" s="31"/>
     </row>
-    <row r="137" spans="1:9" s="50" customFormat="1" ht="30">
+    <row r="137" spans="1:9" s="37" customFormat="1" ht="30">
       <c r="A137" s="29" t="s">
         <v>131</v>
       </c>
@@ -7773,7 +7793,7 @@
       </c>
       <c r="I137" s="31"/>
     </row>
-    <row r="138" spans="1:9" s="50" customFormat="1" ht="30">
+    <row r="138" spans="1:9" s="37" customFormat="1" ht="30">
       <c r="A138" s="29" t="s">
         <v>132</v>
       </c>
@@ -7798,7 +7818,7 @@
       </c>
       <c r="I138" s="31"/>
     </row>
-    <row r="139" spans="1:9" s="50" customFormat="1" ht="30">
+    <row r="139" spans="1:9" s="37" customFormat="1" ht="30">
       <c r="A139" s="29" t="s">
         <v>133</v>
       </c>
@@ -7823,7 +7843,7 @@
       </c>
       <c r="I139" s="31"/>
     </row>
-    <row r="140" spans="1:9" s="50" customFormat="1" ht="30">
+    <row r="140" spans="1:9" s="37" customFormat="1" ht="30">
       <c r="A140" s="29" t="s">
         <v>134</v>
       </c>
@@ -7848,7 +7868,7 @@
       </c>
       <c r="I140" s="31"/>
     </row>
-    <row r="141" spans="1:9" s="50" customFormat="1" ht="30">
+    <row r="141" spans="1:9" s="37" customFormat="1" ht="30">
       <c r="A141" s="29" t="s">
         <v>135</v>
       </c>
@@ -7873,7 +7893,7 @@
       </c>
       <c r="I141" s="31"/>
     </row>
-    <row r="142" spans="1:9" s="50" customFormat="1" ht="30">
+    <row r="142" spans="1:9" s="37" customFormat="1" ht="30">
       <c r="A142" s="21" t="s">
         <v>460</v>
       </c>
@@ -7898,7 +7918,7 @@
       </c>
       <c r="I142" s="34"/>
     </row>
-    <row r="143" spans="1:9" s="50" customFormat="1" ht="30">
+    <row r="143" spans="1:9" s="37" customFormat="1" ht="30">
       <c r="A143" s="21" t="s">
         <v>136</v>
       </c>
@@ -7923,7 +7943,7 @@
       </c>
       <c r="I143" s="31"/>
     </row>
-    <row r="144" spans="1:9" s="50" customFormat="1" ht="30">
+    <row r="144" spans="1:9" s="37" customFormat="1" ht="30">
       <c r="A144" s="29" t="s">
         <v>137</v>
       </c>
@@ -7948,14 +7968,14 @@
       </c>
       <c r="I144" s="31"/>
     </row>
-    <row r="145" spans="1:9" s="50" customFormat="1" ht="30">
+    <row r="145" spans="1:9" s="37" customFormat="1" ht="30">
       <c r="A145" s="21" t="s">
         <v>462</v>
       </c>
       <c r="B145" s="30" t="s">
         <v>568</v>
       </c>
-      <c r="C145" s="34" t="s">
+      <c r="C145" s="19" t="s">
         <v>461</v>
       </c>
       <c r="D145" s="32"/>
@@ -7973,7 +7993,7 @@
       </c>
       <c r="I145" s="34"/>
     </row>
-    <row r="146" spans="1:9" s="50" customFormat="1" ht="30">
+    <row r="146" spans="1:9" s="37" customFormat="1" ht="30">
       <c r="A146" s="21" t="s">
         <v>463</v>
       </c>
@@ -7998,7 +8018,7 @@
       </c>
       <c r="I146" s="34"/>
     </row>
-    <row r="147" spans="1:9" s="50" customFormat="1" ht="30">
+    <row r="147" spans="1:9" s="37" customFormat="1" ht="30">
       <c r="A147" s="21" t="s">
         <v>464</v>
       </c>
@@ -8025,15 +8045,15 @@
         <v>769</v>
       </c>
     </row>
-    <row r="148" spans="1:9" s="50" customFormat="1" ht="30">
+    <row r="148" spans="1:9" s="37" customFormat="1" ht="30">
       <c r="A148" s="21" t="s">
-        <v>465</v>
-      </c>
-      <c r="B148" s="30" t="s">
+        <v>771</v>
+      </c>
+      <c r="B148" s="23" t="s">
         <v>568</v>
       </c>
       <c r="C148" s="19" t="s">
-        <v>620</v>
+        <v>772</v>
       </c>
       <c r="D148" s="32"/>
       <c r="E148" s="32" t="s">
@@ -8046,19 +8066,19 @@
         <v>15</v>
       </c>
       <c r="H148" s="32" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="I148" s="34"/>
     </row>
-    <row r="149" spans="1:9" s="50" customFormat="1" ht="45">
+    <row r="149" spans="1:9" s="37" customFormat="1" ht="30">
       <c r="A149" s="21" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="B149" s="30" t="s">
         <v>568</v>
       </c>
       <c r="C149" s="19" t="s">
-        <v>623</v>
+        <v>620</v>
       </c>
       <c r="D149" s="32"/>
       <c r="E149" s="32" t="s">
@@ -8071,21 +8091,19 @@
         <v>15</v>
       </c>
       <c r="H149" s="32" t="s">
-        <v>17</v>
-      </c>
-      <c r="I149" s="19" t="s">
-        <v>564</v>
-      </c>
-    </row>
-    <row r="150" spans="1:9" s="50" customFormat="1" ht="30">
+        <v>21</v>
+      </c>
+      <c r="I149" s="34"/>
+    </row>
+    <row r="150" spans="1:9" s="37" customFormat="1" ht="45">
       <c r="A150" s="21" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="B150" s="30" t="s">
         <v>568</v>
       </c>
       <c r="C150" s="19" t="s">
-        <v>621</v>
+        <v>623</v>
       </c>
       <c r="D150" s="32"/>
       <c r="E150" s="32" t="s">
@@ -8098,19 +8116,21 @@
         <v>15</v>
       </c>
       <c r="H150" s="32" t="s">
-        <v>21</v>
-      </c>
-      <c r="I150" s="34"/>
-    </row>
-    <row r="151" spans="1:9" s="50" customFormat="1" ht="30">
+        <v>17</v>
+      </c>
+      <c r="I150" s="19" t="s">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="151" spans="1:9" s="37" customFormat="1" ht="30">
       <c r="A151" s="21" t="s">
-        <v>468</v>
+        <v>775</v>
       </c>
       <c r="B151" s="23" t="s">
         <v>568</v>
       </c>
       <c r="C151" s="19" t="s">
-        <v>624</v>
+        <v>773</v>
       </c>
       <c r="D151" s="32"/>
       <c r="E151" s="32" t="s">
@@ -8123,21 +8143,19 @@
         <v>15</v>
       </c>
       <c r="H151" s="32" t="s">
-        <v>17</v>
-      </c>
-      <c r="I151" s="19" t="s">
-        <v>565</v>
-      </c>
-    </row>
-    <row r="152" spans="1:9" s="50" customFormat="1" ht="30">
+        <v>20</v>
+      </c>
+      <c r="I151" s="34"/>
+    </row>
+    <row r="152" spans="1:9" s="37" customFormat="1" ht="30">
       <c r="A152" s="21" t="s">
-        <v>625</v>
-      </c>
-      <c r="B152" s="23" t="s">
-        <v>627</v>
+        <v>467</v>
+      </c>
+      <c r="B152" s="30" t="s">
+        <v>568</v>
       </c>
       <c r="C152" s="19" t="s">
-        <v>633</v>
+        <v>621</v>
       </c>
       <c r="D152" s="32"/>
       <c r="E152" s="32" t="s">
@@ -8150,21 +8168,19 @@
         <v>15</v>
       </c>
       <c r="H152" s="32" t="s">
-        <v>17</v>
-      </c>
-      <c r="I152" s="19" t="s">
-        <v>762</v>
-      </c>
-    </row>
-    <row r="153" spans="1:9" s="50" customFormat="1" ht="180">
+        <v>21</v>
+      </c>
+      <c r="I152" s="34"/>
+    </row>
+    <row r="153" spans="1:9" s="37" customFormat="1" ht="30">
       <c r="A153" s="21" t="s">
-        <v>626</v>
-      </c>
-      <c r="B153" s="33" t="s">
-        <v>627</v>
+        <v>468</v>
+      </c>
+      <c r="B153" s="23" t="s">
+        <v>568</v>
       </c>
       <c r="C153" s="19" t="s">
-        <v>634</v>
+        <v>624</v>
       </c>
       <c r="D153" s="32"/>
       <c r="E153" s="32" t="s">
@@ -8177,19 +8193,21 @@
         <v>15</v>
       </c>
       <c r="H153" s="32" t="s">
-        <v>21</v>
-      </c>
-      <c r="I153" s="34"/>
-    </row>
-    <row r="154" spans="1:9" s="50" customFormat="1" ht="60">
+        <v>17</v>
+      </c>
+      <c r="I153" s="19" t="s">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="154" spans="1:9" s="37" customFormat="1" ht="30">
       <c r="A154" s="21" t="s">
-        <v>628</v>
-      </c>
-      <c r="B154" s="33" t="s">
-        <v>627</v>
+        <v>776</v>
+      </c>
+      <c r="B154" s="23" t="s">
+        <v>568</v>
       </c>
       <c r="C154" s="19" t="s">
-        <v>635</v>
+        <v>774</v>
       </c>
       <c r="D154" s="32"/>
       <c r="E154" s="32" t="s">
@@ -8199,22 +8217,22 @@
         <v>3</v>
       </c>
       <c r="G154" s="32" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H154" s="32" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I154" s="34"/>
     </row>
-    <row r="155" spans="1:9" s="50" customFormat="1" ht="30">
+    <row r="155" spans="1:9" s="37" customFormat="1" ht="30">
       <c r="A155" s="21" t="s">
-        <v>629</v>
-      </c>
-      <c r="B155" s="33" t="s">
+        <v>625</v>
+      </c>
+      <c r="B155" s="23" t="s">
         <v>627</v>
       </c>
       <c r="C155" s="19" t="s">
-        <v>636</v>
+        <v>633</v>
       </c>
       <c r="D155" s="32"/>
       <c r="E155" s="32" t="s">
@@ -8227,19 +8245,21 @@
         <v>15</v>
       </c>
       <c r="H155" s="32" t="s">
-        <v>21</v>
-      </c>
-      <c r="I155" s="34"/>
-    </row>
-    <row r="156" spans="1:9" s="50" customFormat="1" ht="30">
+        <v>17</v>
+      </c>
+      <c r="I155" s="19" t="s">
+        <v>762</v>
+      </c>
+    </row>
+    <row r="156" spans="1:9" s="37" customFormat="1" ht="180">
       <c r="A156" s="21" t="s">
-        <v>630</v>
+        <v>626</v>
       </c>
       <c r="B156" s="33" t="s">
         <v>627</v>
       </c>
       <c r="C156" s="19" t="s">
-        <v>637</v>
+        <v>634</v>
       </c>
       <c r="D156" s="32"/>
       <c r="E156" s="32" t="s">
@@ -8252,19 +8272,19 @@
         <v>15</v>
       </c>
       <c r="H156" s="32" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="I156" s="34"/>
     </row>
-    <row r="157" spans="1:9" s="50" customFormat="1" ht="30">
+    <row r="157" spans="1:9" s="37" customFormat="1" ht="60">
       <c r="A157" s="21" t="s">
-        <v>631</v>
+        <v>628</v>
       </c>
       <c r="B157" s="33" t="s">
         <v>627</v>
       </c>
       <c r="C157" s="19" t="s">
-        <v>638</v>
+        <v>635</v>
       </c>
       <c r="D157" s="32"/>
       <c r="E157" s="32" t="s">
@@ -8274,22 +8294,22 @@
         <v>3</v>
       </c>
       <c r="G157" s="32" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H157" s="32" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="I157" s="34"/>
     </row>
-    <row r="158" spans="1:9" s="50" customFormat="1" ht="30">
+    <row r="158" spans="1:9" s="37" customFormat="1" ht="30">
       <c r="A158" s="21" t="s">
-        <v>632</v>
-      </c>
-      <c r="B158" s="23" t="s">
+        <v>629</v>
+      </c>
+      <c r="B158" s="33" t="s">
         <v>627</v>
       </c>
       <c r="C158" s="19" t="s">
-        <v>639</v>
+        <v>636</v>
       </c>
       <c r="D158" s="32"/>
       <c r="E158" s="32" t="s">
@@ -8302,19 +8322,19 @@
         <v>15</v>
       </c>
       <c r="H158" s="32" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="I158" s="34"/>
     </row>
-    <row r="159" spans="1:9" s="50" customFormat="1" ht="30">
+    <row r="159" spans="1:9" s="37" customFormat="1" ht="30">
       <c r="A159" s="21" t="s">
-        <v>640</v>
+        <v>630</v>
       </c>
       <c r="B159" s="33" t="s">
         <v>627</v>
       </c>
       <c r="C159" s="19" t="s">
-        <v>646</v>
+        <v>637</v>
       </c>
       <c r="D159" s="32"/>
       <c r="E159" s="32" t="s">
@@ -8327,19 +8347,19 @@
         <v>15</v>
       </c>
       <c r="H159" s="32" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="I159" s="34"/>
     </row>
-    <row r="160" spans="1:9" s="50" customFormat="1" ht="30">
+    <row r="160" spans="1:9" s="37" customFormat="1" ht="30">
       <c r="A160" s="21" t="s">
-        <v>641</v>
+        <v>631</v>
       </c>
       <c r="B160" s="33" t="s">
         <v>627</v>
       </c>
       <c r="C160" s="19" t="s">
-        <v>647</v>
+        <v>638</v>
       </c>
       <c r="D160" s="32"/>
       <c r="E160" s="32" t="s">
@@ -8352,19 +8372,19 @@
         <v>15</v>
       </c>
       <c r="H160" s="32" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="I160" s="34"/>
     </row>
-    <row r="161" spans="1:9" s="50" customFormat="1" ht="30">
+    <row r="161" spans="1:9" s="37" customFormat="1" ht="30">
       <c r="A161" s="21" t="s">
-        <v>642</v>
-      </c>
-      <c r="B161" s="33" t="s">
+        <v>632</v>
+      </c>
+      <c r="B161" s="23" t="s">
         <v>627</v>
       </c>
       <c r="C161" s="19" t="s">
-        <v>648</v>
+        <v>639</v>
       </c>
       <c r="D161" s="32"/>
       <c r="E161" s="32" t="s">
@@ -8377,19 +8397,19 @@
         <v>15</v>
       </c>
       <c r="H161" s="32" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="I161" s="34"/>
     </row>
-    <row r="162" spans="1:9" s="50" customFormat="1" ht="30">
+    <row r="162" spans="1:9" s="37" customFormat="1" ht="30">
       <c r="A162" s="21" t="s">
-        <v>643</v>
+        <v>640</v>
       </c>
       <c r="B162" s="33" t="s">
         <v>627</v>
       </c>
       <c r="C162" s="19" t="s">
-        <v>649</v>
+        <v>646</v>
       </c>
       <c r="D162" s="32"/>
       <c r="E162" s="32" t="s">
@@ -8402,19 +8422,19 @@
         <v>15</v>
       </c>
       <c r="H162" s="32" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="I162" s="34"/>
     </row>
-    <row r="163" spans="1:9" s="50" customFormat="1" ht="45">
+    <row r="163" spans="1:9" s="37" customFormat="1" ht="30">
       <c r="A163" s="21" t="s">
-        <v>644</v>
+        <v>641</v>
       </c>
       <c r="B163" s="33" t="s">
         <v>627</v>
       </c>
       <c r="C163" s="19" t="s">
-        <v>650</v>
+        <v>647</v>
       </c>
       <c r="D163" s="32"/>
       <c r="E163" s="32" t="s">
@@ -8427,19 +8447,19 @@
         <v>15</v>
       </c>
       <c r="H163" s="32" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="I163" s="34"/>
     </row>
-    <row r="164" spans="1:9" s="50" customFormat="1" ht="45">
+    <row r="164" spans="1:9" s="37" customFormat="1" ht="30">
       <c r="A164" s="21" t="s">
-        <v>645</v>
-      </c>
-      <c r="B164" s="23" t="s">
+        <v>642</v>
+      </c>
+      <c r="B164" s="33" t="s">
         <v>627</v>
       </c>
       <c r="C164" s="19" t="s">
-        <v>651</v>
+        <v>648</v>
       </c>
       <c r="D164" s="32"/>
       <c r="E164" s="32" t="s">
@@ -8452,19 +8472,19 @@
         <v>15</v>
       </c>
       <c r="H164" s="32" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="I164" s="34"/>
     </row>
-    <row r="165" spans="1:9" s="50" customFormat="1" ht="30">
+    <row r="165" spans="1:9" s="37" customFormat="1" ht="30">
       <c r="A165" s="21" t="s">
-        <v>652</v>
-      </c>
-      <c r="B165" s="23" t="s">
-        <v>661</v>
+        <v>643</v>
+      </c>
+      <c r="B165" s="33" t="s">
+        <v>627</v>
       </c>
       <c r="C165" s="19" t="s">
-        <v>662</v>
+        <v>649</v>
       </c>
       <c r="D165" s="32"/>
       <c r="E165" s="32" t="s">
@@ -8477,21 +8497,19 @@
         <v>15</v>
       </c>
       <c r="H165" s="32" t="s">
-        <v>17</v>
-      </c>
-      <c r="I165" s="19" t="s">
-        <v>764</v>
-      </c>
-    </row>
-    <row r="166" spans="1:9" s="50" customFormat="1" ht="120">
+        <v>18</v>
+      </c>
+      <c r="I165" s="34"/>
+    </row>
+    <row r="166" spans="1:9" s="37" customFormat="1" ht="45">
       <c r="A166" s="21" t="s">
-        <v>653</v>
+        <v>644</v>
       </c>
       <c r="B166" s="33" t="s">
-        <v>661</v>
+        <v>627</v>
       </c>
       <c r="C166" s="19" t="s">
-        <v>770</v>
+        <v>650</v>
       </c>
       <c r="D166" s="32"/>
       <c r="E166" s="32" t="s">
@@ -8508,15 +8526,15 @@
       </c>
       <c r="I166" s="34"/>
     </row>
-    <row r="167" spans="1:9" s="50" customFormat="1" ht="45">
+    <row r="167" spans="1:9" s="37" customFormat="1" ht="45">
       <c r="A167" s="21" t="s">
-        <v>654</v>
-      </c>
-      <c r="B167" s="33" t="s">
-        <v>661</v>
+        <v>645</v>
+      </c>
+      <c r="B167" s="23" t="s">
+        <v>627</v>
       </c>
       <c r="C167" s="19" t="s">
-        <v>663</v>
+        <v>651</v>
       </c>
       <c r="D167" s="32"/>
       <c r="E167" s="32" t="s">
@@ -8526,22 +8544,22 @@
         <v>3</v>
       </c>
       <c r="G167" s="32" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H167" s="32" t="s">
         <v>18</v>
       </c>
       <c r="I167" s="34"/>
     </row>
-    <row r="168" spans="1:9" s="50" customFormat="1" ht="30">
+    <row r="168" spans="1:9" s="37" customFormat="1" ht="30">
       <c r="A168" s="21" t="s">
-        <v>655</v>
-      </c>
-      <c r="B168" s="33" t="s">
+        <v>652</v>
+      </c>
+      <c r="B168" s="23" t="s">
         <v>661</v>
       </c>
       <c r="C168" s="19" t="s">
-        <v>664</v>
+        <v>662</v>
       </c>
       <c r="D168" s="32"/>
       <c r="E168" s="32" t="s">
@@ -8554,19 +8572,21 @@
         <v>15</v>
       </c>
       <c r="H168" s="32" t="s">
-        <v>21</v>
-      </c>
-      <c r="I168" s="34"/>
-    </row>
-    <row r="169" spans="1:9" s="50" customFormat="1" ht="30">
+        <v>17</v>
+      </c>
+      <c r="I168" s="19" t="s">
+        <v>764</v>
+      </c>
+    </row>
+    <row r="169" spans="1:9" s="37" customFormat="1" ht="120">
       <c r="A169" s="21" t="s">
-        <v>656</v>
+        <v>653</v>
       </c>
       <c r="B169" s="33" t="s">
         <v>661</v>
       </c>
       <c r="C169" s="19" t="s">
-        <v>665</v>
+        <v>770</v>
       </c>
       <c r="D169" s="32"/>
       <c r="E169" s="32" t="s">
@@ -8579,19 +8599,19 @@
         <v>15</v>
       </c>
       <c r="H169" s="32" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="I169" s="34"/>
     </row>
-    <row r="170" spans="1:9" s="50" customFormat="1" ht="30">
+    <row r="170" spans="1:9" s="37" customFormat="1" ht="45">
       <c r="A170" s="21" t="s">
-        <v>657</v>
+        <v>654</v>
       </c>
       <c r="B170" s="33" t="s">
         <v>661</v>
       </c>
       <c r="C170" s="19" t="s">
-        <v>666</v>
+        <v>663</v>
       </c>
       <c r="D170" s="32"/>
       <c r="E170" s="32" t="s">
@@ -8601,22 +8621,22 @@
         <v>3</v>
       </c>
       <c r="G170" s="32" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H170" s="32" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="I170" s="34"/>
     </row>
-    <row r="171" spans="1:9" s="50" customFormat="1" ht="30">
+    <row r="171" spans="1:9" s="37" customFormat="1" ht="30">
       <c r="A171" s="21" t="s">
-        <v>658</v>
+        <v>655</v>
       </c>
       <c r="B171" s="33" t="s">
         <v>661</v>
       </c>
       <c r="C171" s="19" t="s">
-        <v>667</v>
+        <v>664</v>
       </c>
       <c r="D171" s="32"/>
       <c r="E171" s="32" t="s">
@@ -8629,19 +8649,19 @@
         <v>15</v>
       </c>
       <c r="H171" s="32" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="I171" s="34"/>
     </row>
-    <row r="172" spans="1:9" s="50" customFormat="1" ht="30">
+    <row r="172" spans="1:9" s="37" customFormat="1" ht="30">
       <c r="A172" s="21" t="s">
-        <v>659</v>
-      </c>
-      <c r="B172" s="23" t="s">
-        <v>668</v>
+        <v>656</v>
+      </c>
+      <c r="B172" s="33" t="s">
+        <v>661</v>
       </c>
       <c r="C172" s="19" t="s">
-        <v>674</v>
+        <v>665</v>
       </c>
       <c r="D172" s="32"/>
       <c r="E172" s="32" t="s">
@@ -8654,21 +8674,19 @@
         <v>15</v>
       </c>
       <c r="H172" s="32" t="s">
-        <v>17</v>
-      </c>
-      <c r="I172" s="19" t="s">
-        <v>766</v>
-      </c>
-    </row>
-    <row r="173" spans="1:9" s="50" customFormat="1" ht="120">
+        <v>18</v>
+      </c>
+      <c r="I172" s="34"/>
+    </row>
+    <row r="173" spans="1:9" s="37" customFormat="1" ht="30">
       <c r="A173" s="21" t="s">
-        <v>660</v>
-      </c>
-      <c r="B173" s="23" t="s">
-        <v>668</v>
+        <v>657</v>
+      </c>
+      <c r="B173" s="33" t="s">
+        <v>661</v>
       </c>
       <c r="C173" s="19" t="s">
-        <v>675</v>
+        <v>666</v>
       </c>
       <c r="D173" s="32"/>
       <c r="E173" s="32" t="s">
@@ -8685,15 +8703,15 @@
       </c>
       <c r="I173" s="34"/>
     </row>
-    <row r="174" spans="1:9" s="50" customFormat="1" ht="45">
+    <row r="174" spans="1:9" s="37" customFormat="1" ht="30">
       <c r="A174" s="21" t="s">
-        <v>669</v>
+        <v>658</v>
       </c>
       <c r="B174" s="33" t="s">
-        <v>668</v>
+        <v>661</v>
       </c>
       <c r="C174" s="19" t="s">
-        <v>676</v>
+        <v>667</v>
       </c>
       <c r="D174" s="32"/>
       <c r="E174" s="32" t="s">
@@ -8703,22 +8721,22 @@
         <v>3</v>
       </c>
       <c r="G174" s="32" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H174" s="32" t="s">
         <v>18</v>
       </c>
       <c r="I174" s="34"/>
     </row>
-    <row r="175" spans="1:9" s="50" customFormat="1" ht="30">
+    <row r="175" spans="1:9" s="37" customFormat="1" ht="30">
       <c r="A175" s="21" t="s">
-        <v>670</v>
-      </c>
-      <c r="B175" s="33" t="s">
+        <v>659</v>
+      </c>
+      <c r="B175" s="23" t="s">
         <v>668</v>
       </c>
       <c r="C175" s="19" t="s">
-        <v>677</v>
+        <v>674</v>
       </c>
       <c r="D175" s="32"/>
       <c r="E175" s="32" t="s">
@@ -8731,19 +8749,21 @@
         <v>15</v>
       </c>
       <c r="H175" s="32" t="s">
-        <v>21</v>
-      </c>
-      <c r="I175" s="34"/>
-    </row>
-    <row r="176" spans="1:9" s="50" customFormat="1" ht="30">
+        <v>17</v>
+      </c>
+      <c r="I175" s="19" t="s">
+        <v>766</v>
+      </c>
+    </row>
+    <row r="176" spans="1:9" s="37" customFormat="1" ht="120">
       <c r="A176" s="21" t="s">
-        <v>671</v>
-      </c>
-      <c r="B176" s="33" t="s">
+        <v>660</v>
+      </c>
+      <c r="B176" s="23" t="s">
         <v>668</v>
       </c>
       <c r="C176" s="19" t="s">
-        <v>678</v>
+        <v>675</v>
       </c>
       <c r="D176" s="32"/>
       <c r="E176" s="32" t="s">
@@ -8756,19 +8776,19 @@
         <v>15</v>
       </c>
       <c r="H176" s="32" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="I176" s="34"/>
     </row>
-    <row r="177" spans="1:9" s="50" customFormat="1" ht="30">
+    <row r="177" spans="1:9" s="37" customFormat="1" ht="45">
       <c r="A177" s="21" t="s">
-        <v>672</v>
+        <v>669</v>
       </c>
       <c r="B177" s="33" t="s">
         <v>668</v>
       </c>
       <c r="C177" s="19" t="s">
-        <v>679</v>
+        <v>676</v>
       </c>
       <c r="D177" s="32"/>
       <c r="E177" s="32" t="s">
@@ -8778,22 +8798,22 @@
         <v>3</v>
       </c>
       <c r="G177" s="32" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H177" s="32" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="I177" s="34"/>
     </row>
-    <row r="178" spans="1:9" s="50" customFormat="1" ht="30">
+    <row r="178" spans="1:9" s="37" customFormat="1" ht="30">
       <c r="A178" s="21" t="s">
-        <v>673</v>
+        <v>670</v>
       </c>
       <c r="B178" s="33" t="s">
         <v>668</v>
       </c>
       <c r="C178" s="19" t="s">
-        <v>680</v>
+        <v>677</v>
       </c>
       <c r="D178" s="32"/>
       <c r="E178" s="32" t="s">
@@ -8806,119 +8826,119 @@
         <v>15</v>
       </c>
       <c r="H178" s="32" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="I178" s="34"/>
     </row>
-    <row r="179" spans="1:9" ht="45" hidden="1">
-      <c r="A179" s="29" t="s">
+    <row r="179" spans="1:9" s="37" customFormat="1" ht="30">
+      <c r="A179" s="21" t="s">
+        <v>671</v>
+      </c>
+      <c r="B179" s="33" t="s">
+        <v>668</v>
+      </c>
+      <c r="C179" s="19" t="s">
+        <v>678</v>
+      </c>
+      <c r="D179" s="32"/>
+      <c r="E179" s="32" t="s">
+        <v>19</v>
+      </c>
+      <c r="F179" s="32" t="s">
+        <v>3</v>
+      </c>
+      <c r="G179" s="32" t="s">
+        <v>15</v>
+      </c>
+      <c r="H179" s="32" t="s">
+        <v>18</v>
+      </c>
+      <c r="I179" s="34"/>
+    </row>
+    <row r="180" spans="1:9" s="37" customFormat="1" ht="30">
+      <c r="A180" s="21" t="s">
+        <v>672</v>
+      </c>
+      <c r="B180" s="33" t="s">
+        <v>668</v>
+      </c>
+      <c r="C180" s="19" t="s">
+        <v>679</v>
+      </c>
+      <c r="D180" s="32"/>
+      <c r="E180" s="32" t="s">
+        <v>19</v>
+      </c>
+      <c r="F180" s="32" t="s">
+        <v>3</v>
+      </c>
+      <c r="G180" s="32" t="s">
+        <v>15</v>
+      </c>
+      <c r="H180" s="32" t="s">
+        <v>21</v>
+      </c>
+      <c r="I180" s="34"/>
+    </row>
+    <row r="181" spans="1:9" s="37" customFormat="1" ht="30">
+      <c r="A181" s="21" t="s">
+        <v>673</v>
+      </c>
+      <c r="B181" s="33" t="s">
+        <v>668</v>
+      </c>
+      <c r="C181" s="19" t="s">
+        <v>680</v>
+      </c>
+      <c r="D181" s="32"/>
+      <c r="E181" s="32" t="s">
+        <v>19</v>
+      </c>
+      <c r="F181" s="32" t="s">
+        <v>3</v>
+      </c>
+      <c r="G181" s="32" t="s">
+        <v>15</v>
+      </c>
+      <c r="H181" s="32" t="s">
+        <v>18</v>
+      </c>
+      <c r="I181" s="34"/>
+    </row>
+    <row r="182" spans="1:9" ht="45" hidden="1">
+      <c r="A182" s="29" t="s">
         <v>138</v>
       </c>
-      <c r="B179" s="30" t="s">
+      <c r="B182" s="30" t="s">
         <v>256</v>
       </c>
-      <c r="C179" s="19" t="s">
+      <c r="C182" s="19" t="s">
         <v>681</v>
       </c>
-      <c r="D179" s="29"/>
-      <c r="E179" s="29" t="s">
-        <v>19</v>
-      </c>
-      <c r="F179" s="29" t="s">
+      <c r="D182" s="29"/>
+      <c r="E182" s="29" t="s">
+        <v>19</v>
+      </c>
+      <c r="F182" s="29" t="s">
         <v>7</v>
       </c>
-      <c r="G179" s="29" t="s">
+      <c r="G182" s="29" t="s">
         <v>16</v>
       </c>
-      <c r="H179" s="29" t="s">
-        <v>18</v>
-      </c>
-      <c r="I179" s="31"/>
-    </row>
-    <row r="180" spans="1:9" ht="30" hidden="1">
-      <c r="A180" s="29" t="s">
+      <c r="H182" s="29" t="s">
+        <v>18</v>
+      </c>
+      <c r="I182" s="31"/>
+    </row>
+    <row r="183" spans="1:9" ht="30" hidden="1">
+      <c r="A183" s="29" t="s">
         <v>139</v>
       </c>
-      <c r="B180" s="30" t="s">
+      <c r="B183" s="30" t="s">
         <v>256</v>
       </c>
-      <c r="C180" s="31" t="s">
+      <c r="C183" s="31" t="s">
         <v>344</v>
-      </c>
-      <c r="D180" s="29"/>
-      <c r="E180" s="29" t="s">
-        <v>19</v>
-      </c>
-      <c r="F180" s="29" t="s">
-        <v>7</v>
-      </c>
-      <c r="G180" s="29" t="s">
-        <v>16</v>
-      </c>
-      <c r="H180" s="29" t="s">
-        <v>18</v>
-      </c>
-      <c r="I180" s="31"/>
-    </row>
-    <row r="181" spans="1:9" ht="30" hidden="1">
-      <c r="A181" s="21" t="s">
-        <v>140</v>
-      </c>
-      <c r="B181" s="30" t="s">
-        <v>256</v>
-      </c>
-      <c r="C181" s="19" t="s">
-        <v>682</v>
-      </c>
-      <c r="D181" s="29"/>
-      <c r="E181" s="29" t="s">
-        <v>19</v>
-      </c>
-      <c r="F181" s="29" t="s">
-        <v>7</v>
-      </c>
-      <c r="G181" s="29" t="s">
-        <v>16</v>
-      </c>
-      <c r="H181" s="29" t="s">
-        <v>18</v>
-      </c>
-      <c r="I181" s="31"/>
-    </row>
-    <row r="182" spans="1:9" ht="30" hidden="1">
-      <c r="A182" s="21" t="s">
-        <v>683</v>
-      </c>
-      <c r="B182" s="23" t="s">
-        <v>256</v>
-      </c>
-      <c r="C182" s="19" t="s">
-        <v>684</v>
-      </c>
-      <c r="D182" s="32"/>
-      <c r="E182" s="32" t="s">
-        <v>19</v>
-      </c>
-      <c r="F182" s="32" t="s">
-        <v>7</v>
-      </c>
-      <c r="G182" s="32" t="s">
-        <v>16</v>
-      </c>
-      <c r="H182" s="32" t="s">
-        <v>18</v>
-      </c>
-      <c r="I182" s="34"/>
-    </row>
-    <row r="183" spans="1:9" ht="45" hidden="1">
-      <c r="A183" s="29" t="s">
-        <v>141</v>
-      </c>
-      <c r="B183" s="30" t="s">
-        <v>257</v>
-      </c>
-      <c r="C183" s="31" t="s">
-        <v>345</v>
       </c>
       <c r="D183" s="29"/>
       <c r="E183" s="29" t="s">
@@ -8935,15 +8955,15 @@
       </c>
       <c r="I183" s="31"/>
     </row>
-    <row r="184" spans="1:9" ht="240" hidden="1">
-      <c r="A184" s="29" t="s">
-        <v>142</v>
+    <row r="184" spans="1:9" ht="30" hidden="1">
+      <c r="A184" s="21" t="s">
+        <v>140</v>
       </c>
       <c r="B184" s="30" t="s">
-        <v>257</v>
-      </c>
-      <c r="C184" s="31" t="s">
-        <v>346</v>
+        <v>256</v>
+      </c>
+      <c r="C184" s="19" t="s">
+        <v>682</v>
       </c>
       <c r="D184" s="29"/>
       <c r="E184" s="29" t="s">
@@ -8953,122 +8973,122 @@
         <v>7</v>
       </c>
       <c r="G184" s="29" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H184" s="29" t="s">
         <v>18</v>
       </c>
       <c r="I184" s="31"/>
     </row>
-    <row r="185" spans="1:9" ht="45" hidden="1">
-      <c r="A185" s="29" t="s">
-        <v>143</v>
-      </c>
-      <c r="B185" s="30" t="s">
-        <v>257</v>
-      </c>
-      <c r="C185" s="31" t="s">
-        <v>347</v>
-      </c>
-      <c r="D185" s="29"/>
-      <c r="E185" s="29" t="s">
-        <v>19</v>
-      </c>
-      <c r="F185" s="29" t="s">
+    <row r="185" spans="1:9" ht="30" hidden="1">
+      <c r="A185" s="21" t="s">
+        <v>683</v>
+      </c>
+      <c r="B185" s="23" t="s">
+        <v>256</v>
+      </c>
+      <c r="C185" s="19" t="s">
+        <v>684</v>
+      </c>
+      <c r="D185" s="32"/>
+      <c r="E185" s="32" t="s">
+        <v>19</v>
+      </c>
+      <c r="F185" s="32" t="s">
         <v>7</v>
       </c>
-      <c r="G185" s="29" t="s">
+      <c r="G185" s="32" t="s">
         <v>16</v>
       </c>
-      <c r="H185" s="29" t="s">
-        <v>18</v>
-      </c>
-      <c r="I185" s="31"/>
-    </row>
-    <row r="186" spans="1:9" s="50" customFormat="1" ht="60">
+      <c r="H185" s="32" t="s">
+        <v>18</v>
+      </c>
+      <c r="I185" s="34"/>
+    </row>
+    <row r="186" spans="1:9" ht="45" hidden="1">
       <c r="A186" s="29" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="B186" s="30" t="s">
         <v>257</v>
       </c>
-      <c r="C186" s="19" t="s">
-        <v>469</v>
+      <c r="C186" s="31" t="s">
+        <v>345</v>
       </c>
       <c r="D186" s="29"/>
       <c r="E186" s="29" t="s">
         <v>19</v>
       </c>
       <c r="F186" s="29" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="G186" s="29" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H186" s="29" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="I186" s="31"/>
     </row>
-    <row r="187" spans="1:9" s="50" customFormat="1" ht="45">
+    <row r="187" spans="1:9" ht="240" hidden="1">
       <c r="A187" s="29" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="B187" s="30" t="s">
         <v>257</v>
       </c>
       <c r="C187" s="31" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="D187" s="29"/>
       <c r="E187" s="29" t="s">
         <v>19</v>
       </c>
       <c r="F187" s="29" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="G187" s="29" t="s">
         <v>15</v>
       </c>
       <c r="H187" s="29" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="I187" s="31"/>
     </row>
-    <row r="188" spans="1:9" s="50" customFormat="1" ht="30">
+    <row r="188" spans="1:9" ht="45" hidden="1">
       <c r="A188" s="29" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="B188" s="30" t="s">
         <v>257</v>
       </c>
       <c r="C188" s="31" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="D188" s="29"/>
       <c r="E188" s="29" t="s">
         <v>19</v>
       </c>
       <c r="F188" s="29" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="G188" s="29" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H188" s="29" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="I188" s="31"/>
     </row>
-    <row r="189" spans="1:9" s="50" customFormat="1" ht="45">
+    <row r="189" spans="1:9" s="37" customFormat="1" ht="60">
       <c r="A189" s="29" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="B189" s="30" t="s">
         <v>257</v>
       </c>
       <c r="C189" s="19" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="D189" s="29"/>
       <c r="E189" s="29" t="s">
@@ -9085,15 +9105,15 @@
       </c>
       <c r="I189" s="31"/>
     </row>
-    <row r="190" spans="1:9" s="50" customFormat="1" ht="45">
+    <row r="190" spans="1:9" s="37" customFormat="1" ht="45">
       <c r="A190" s="29" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="B190" s="30" t="s">
         <v>257</v>
       </c>
-      <c r="C190" s="19" t="s">
-        <v>471</v>
+      <c r="C190" s="31" t="s">
+        <v>348</v>
       </c>
       <c r="D190" s="29"/>
       <c r="E190" s="29" t="s">
@@ -9110,15 +9130,15 @@
       </c>
       <c r="I190" s="31"/>
     </row>
-    <row r="191" spans="1:9" s="50" customFormat="1" ht="30">
+    <row r="191" spans="1:9" s="37" customFormat="1" ht="30">
       <c r="A191" s="29" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="B191" s="30" t="s">
         <v>257</v>
       </c>
-      <c r="C191" s="19" t="s">
-        <v>350</v>
+      <c r="C191" s="31" t="s">
+        <v>349</v>
       </c>
       <c r="D191" s="29"/>
       <c r="E191" s="29" t="s">
@@ -9135,15 +9155,15 @@
       </c>
       <c r="I191" s="31"/>
     </row>
-    <row r="192" spans="1:9" s="50" customFormat="1" ht="45">
+    <row r="192" spans="1:9" s="37" customFormat="1" ht="45">
       <c r="A192" s="29" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="B192" s="30" t="s">
         <v>257</v>
       </c>
       <c r="C192" s="19" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
       <c r="D192" s="29"/>
       <c r="E192" s="29" t="s">
@@ -9160,15 +9180,15 @@
       </c>
       <c r="I192" s="31"/>
     </row>
-    <row r="193" spans="1:9" s="50" customFormat="1" ht="45">
-      <c r="A193" s="21" t="s">
-        <v>151</v>
+    <row r="193" spans="1:9" s="37" customFormat="1" ht="45">
+      <c r="A193" s="29" t="s">
+        <v>148</v>
       </c>
       <c r="B193" s="30" t="s">
         <v>257</v>
       </c>
       <c r="C193" s="19" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
       <c r="D193" s="29"/>
       <c r="E193" s="29" t="s">
@@ -9185,15 +9205,15 @@
       </c>
       <c r="I193" s="31"/>
     </row>
-    <row r="194" spans="1:9" s="50" customFormat="1" ht="30">
-      <c r="A194" s="21" t="s">
-        <v>152</v>
+    <row r="194" spans="1:9" s="37" customFormat="1" ht="30">
+      <c r="A194" s="29" t="s">
+        <v>149</v>
       </c>
       <c r="B194" s="30" t="s">
         <v>257</v>
       </c>
       <c r="C194" s="19" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="D194" s="29"/>
       <c r="E194" s="29" t="s">
@@ -9210,92 +9230,90 @@
       </c>
       <c r="I194" s="31"/>
     </row>
-    <row r="195" spans="1:9" s="50" customFormat="1" ht="30">
-      <c r="A195" s="51" t="s">
+    <row r="195" spans="1:9" s="37" customFormat="1" ht="45">
+      <c r="A195" s="29" t="s">
+        <v>150</v>
+      </c>
+      <c r="B195" s="30" t="s">
+        <v>257</v>
+      </c>
+      <c r="C195" s="19" t="s">
+        <v>472</v>
+      </c>
+      <c r="D195" s="29"/>
+      <c r="E195" s="29" t="s">
+        <v>19</v>
+      </c>
+      <c r="F195" s="29" t="s">
+        <v>3</v>
+      </c>
+      <c r="G195" s="29" t="s">
+        <v>15</v>
+      </c>
+      <c r="H195" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="I195" s="31"/>
+    </row>
+    <row r="196" spans="1:9" s="37" customFormat="1" ht="45">
+      <c r="A196" s="21" t="s">
+        <v>151</v>
+      </c>
+      <c r="B196" s="30" t="s">
+        <v>257</v>
+      </c>
+      <c r="C196" s="19" t="s">
+        <v>473</v>
+      </c>
+      <c r="D196" s="29"/>
+      <c r="E196" s="29" t="s">
+        <v>19</v>
+      </c>
+      <c r="F196" s="29" t="s">
+        <v>3</v>
+      </c>
+      <c r="G196" s="29" t="s">
+        <v>15</v>
+      </c>
+      <c r="H196" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="I196" s="31"/>
+    </row>
+    <row r="197" spans="1:9" s="37" customFormat="1" ht="30">
+      <c r="A197" s="21" t="s">
+        <v>152</v>
+      </c>
+      <c r="B197" s="30" t="s">
+        <v>257</v>
+      </c>
+      <c r="C197" s="19" t="s">
+        <v>351</v>
+      </c>
+      <c r="D197" s="29"/>
+      <c r="E197" s="29" t="s">
+        <v>19</v>
+      </c>
+      <c r="F197" s="29" t="s">
+        <v>3</v>
+      </c>
+      <c r="G197" s="29" t="s">
+        <v>15</v>
+      </c>
+      <c r="H197" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="I197" s="31"/>
+    </row>
+    <row r="198" spans="1:9" s="37" customFormat="1" ht="30">
+      <c r="A198" s="38" t="s">
         <v>685</v>
-      </c>
-      <c r="B195" s="23" t="s">
-        <v>686</v>
-      </c>
-      <c r="C195" s="19" t="s">
-        <v>687</v>
-      </c>
-      <c r="D195" s="32"/>
-      <c r="E195" s="32" t="s">
-        <v>19</v>
-      </c>
-      <c r="F195" s="32" t="s">
-        <v>3</v>
-      </c>
-      <c r="G195" s="32" t="s">
-        <v>15</v>
-      </c>
-      <c r="H195" s="32" t="s">
-        <v>17</v>
-      </c>
-      <c r="I195" s="19" t="s">
-        <v>768</v>
-      </c>
-    </row>
-    <row r="196" spans="1:9" s="50" customFormat="1" ht="120">
-      <c r="A196" s="21" t="s">
-        <v>689</v>
-      </c>
-      <c r="B196" s="23" t="s">
-        <v>686</v>
-      </c>
-      <c r="C196" s="19" t="s">
-        <v>688</v>
-      </c>
-      <c r="D196" s="32"/>
-      <c r="E196" s="32" t="s">
-        <v>19</v>
-      </c>
-      <c r="F196" s="32" t="s">
-        <v>3</v>
-      </c>
-      <c r="G196" s="32" t="s">
-        <v>15</v>
-      </c>
-      <c r="H196" s="32" t="s">
-        <v>21</v>
-      </c>
-      <c r="I196" s="34"/>
-    </row>
-    <row r="197" spans="1:9" s="50" customFormat="1" ht="30">
-      <c r="A197" s="21" t="s">
-        <v>690</v>
-      </c>
-      <c r="B197" s="23" t="s">
-        <v>686</v>
-      </c>
-      <c r="C197" s="19" t="s">
-        <v>692</v>
-      </c>
-      <c r="D197" s="32"/>
-      <c r="E197" s="32" t="s">
-        <v>19</v>
-      </c>
-      <c r="F197" s="32" t="s">
-        <v>3</v>
-      </c>
-      <c r="G197" s="32" t="s">
-        <v>16</v>
-      </c>
-      <c r="H197" s="32" t="s">
-        <v>18</v>
-      </c>
-      <c r="I197" s="34"/>
-    </row>
-    <row r="198" spans="1:9" s="50" customFormat="1" ht="30">
-      <c r="A198" s="21" t="s">
-        <v>691</v>
       </c>
       <c r="B198" s="23" t="s">
         <v>686</v>
       </c>
       <c r="C198" s="19" t="s">
-        <v>695</v>
+        <v>687</v>
       </c>
       <c r="D198" s="32"/>
       <c r="E198" s="32" t="s">
@@ -9308,151 +9326,153 @@
         <v>15</v>
       </c>
       <c r="H198" s="32" t="s">
-        <v>18</v>
-      </c>
-      <c r="I198" s="19"/>
-    </row>
-    <row r="199" spans="1:9" s="50" customFormat="1" ht="30">
+        <v>17</v>
+      </c>
+      <c r="I198" s="19" t="s">
+        <v>768</v>
+      </c>
+    </row>
+    <row r="199" spans="1:9" s="37" customFormat="1" ht="120">
       <c r="A199" s="21" t="s">
-        <v>693</v>
+        <v>689</v>
       </c>
       <c r="B199" s="23" t="s">
         <v>686</v>
       </c>
       <c r="C199" s="19" t="s">
-        <v>696</v>
-      </c>
-      <c r="D199" s="21"/>
-      <c r="E199" s="21" t="s">
-        <v>19</v>
-      </c>
-      <c r="F199" s="21" t="s">
-        <v>3</v>
-      </c>
-      <c r="G199" s="21" t="s">
-        <v>15</v>
-      </c>
-      <c r="H199" s="21" t="s">
-        <v>18</v>
-      </c>
-      <c r="I199" s="19"/>
-    </row>
-    <row r="200" spans="1:9" s="50" customFormat="1" ht="30">
+        <v>688</v>
+      </c>
+      <c r="D199" s="32"/>
+      <c r="E199" s="32" t="s">
+        <v>19</v>
+      </c>
+      <c r="F199" s="32" t="s">
+        <v>3</v>
+      </c>
+      <c r="G199" s="32" t="s">
+        <v>15</v>
+      </c>
+      <c r="H199" s="32" t="s">
+        <v>21</v>
+      </c>
+      <c r="I199" s="34"/>
+    </row>
+    <row r="200" spans="1:9" s="37" customFormat="1" ht="30">
       <c r="A200" s="21" t="s">
-        <v>694</v>
+        <v>690</v>
       </c>
       <c r="B200" s="23" t="s">
         <v>686</v>
       </c>
       <c r="C200" s="19" t="s">
+        <v>692</v>
+      </c>
+      <c r="D200" s="32"/>
+      <c r="E200" s="32" t="s">
+        <v>19</v>
+      </c>
+      <c r="F200" s="32" t="s">
+        <v>3</v>
+      </c>
+      <c r="G200" s="32" t="s">
+        <v>16</v>
+      </c>
+      <c r="H200" s="32" t="s">
+        <v>18</v>
+      </c>
+      <c r="I200" s="34"/>
+    </row>
+    <row r="201" spans="1:9" s="37" customFormat="1" ht="30">
+      <c r="A201" s="21" t="s">
+        <v>691</v>
+      </c>
+      <c r="B201" s="23" t="s">
+        <v>686</v>
+      </c>
+      <c r="C201" s="19" t="s">
+        <v>695</v>
+      </c>
+      <c r="D201" s="32"/>
+      <c r="E201" s="32" t="s">
+        <v>19</v>
+      </c>
+      <c r="F201" s="32" t="s">
+        <v>3</v>
+      </c>
+      <c r="G201" s="32" t="s">
+        <v>15</v>
+      </c>
+      <c r="H201" s="32" t="s">
+        <v>18</v>
+      </c>
+      <c r="I201" s="19"/>
+    </row>
+    <row r="202" spans="1:9" s="37" customFormat="1" ht="30">
+      <c r="A202" s="21" t="s">
+        <v>693</v>
+      </c>
+      <c r="B202" s="23" t="s">
+        <v>686</v>
+      </c>
+      <c r="C202" s="19" t="s">
+        <v>696</v>
+      </c>
+      <c r="D202" s="21"/>
+      <c r="E202" s="21" t="s">
+        <v>19</v>
+      </c>
+      <c r="F202" s="21" t="s">
+        <v>3</v>
+      </c>
+      <c r="G202" s="21" t="s">
+        <v>15</v>
+      </c>
+      <c r="H202" s="21" t="s">
+        <v>18</v>
+      </c>
+      <c r="I202" s="19"/>
+    </row>
+    <row r="203" spans="1:9" s="37" customFormat="1" ht="30">
+      <c r="A203" s="21" t="s">
+        <v>694</v>
+      </c>
+      <c r="B203" s="23" t="s">
+        <v>686</v>
+      </c>
+      <c r="C203" s="19" t="s">
         <v>697</v>
       </c>
-      <c r="D200" s="21"/>
-      <c r="E200" s="21" t="s">
-        <v>19</v>
-      </c>
-      <c r="F200" s="21" t="s">
-        <v>3</v>
-      </c>
-      <c r="G200" s="21" t="s">
-        <v>15</v>
-      </c>
-      <c r="H200" s="21" t="s">
-        <v>18</v>
-      </c>
-      <c r="I200" s="19"/>
-    </row>
-    <row r="201" spans="1:9" s="50" customFormat="1" ht="30">
-      <c r="A201" s="29" t="s">
+      <c r="D203" s="21"/>
+      <c r="E203" s="21" t="s">
+        <v>19</v>
+      </c>
+      <c r="F203" s="21" t="s">
+        <v>3</v>
+      </c>
+      <c r="G203" s="21" t="s">
+        <v>15</v>
+      </c>
+      <c r="H203" s="21" t="s">
+        <v>18</v>
+      </c>
+      <c r="I203" s="19"/>
+    </row>
+    <row r="204" spans="1:9" s="37" customFormat="1" ht="30">
+      <c r="A204" s="29" t="s">
         <v>153</v>
       </c>
-      <c r="B201" s="30" t="s">
+      <c r="B204" s="30" t="s">
         <v>258</v>
       </c>
-      <c r="C201" s="31" t="s">
+      <c r="C204" s="31" t="s">
         <v>352</v>
-      </c>
-      <c r="D201" s="29"/>
-      <c r="E201" s="29" t="s">
-        <v>19</v>
-      </c>
-      <c r="F201" s="29" t="s">
-        <v>3</v>
-      </c>
-      <c r="G201" s="29" t="s">
-        <v>16</v>
-      </c>
-      <c r="H201" s="29" t="s">
-        <v>18</v>
-      </c>
-      <c r="I201" s="31"/>
-    </row>
-    <row r="202" spans="1:9" s="50" customFormat="1" ht="30">
-      <c r="A202" s="29" t="s">
-        <v>154</v>
-      </c>
-      <c r="B202" s="30" t="s">
-        <v>259</v>
-      </c>
-      <c r="C202" s="31" t="s">
-        <v>353</v>
-      </c>
-      <c r="D202" s="29"/>
-      <c r="E202" s="29" t="s">
-        <v>19</v>
-      </c>
-      <c r="F202" s="29" t="s">
-        <v>3</v>
-      </c>
-      <c r="G202" s="29" t="s">
-        <v>16</v>
-      </c>
-      <c r="H202" s="29" t="s">
-        <v>18</v>
-      </c>
-      <c r="I202" s="31"/>
-    </row>
-    <row r="203" spans="1:9" s="50" customFormat="1" ht="30">
-      <c r="A203" s="29" t="s">
-        <v>155</v>
-      </c>
-      <c r="B203" s="30" t="s">
-        <v>260</v>
-      </c>
-      <c r="C203" s="31" t="s">
-        <v>354</v>
-      </c>
-      <c r="D203" s="29"/>
-      <c r="E203" s="29" t="s">
-        <v>19</v>
-      </c>
-      <c r="F203" s="29" t="s">
-        <v>3</v>
-      </c>
-      <c r="G203" s="29" t="s">
-        <v>16</v>
-      </c>
-      <c r="H203" s="29" t="s">
-        <v>18</v>
-      </c>
-      <c r="I203" s="31"/>
-    </row>
-    <row r="204" spans="1:9" hidden="1">
-      <c r="A204" s="29" t="s">
-        <v>156</v>
-      </c>
-      <c r="B204" s="30" t="s">
-        <v>261</v>
-      </c>
-      <c r="C204" s="31" t="s">
-        <v>355</v>
       </c>
       <c r="D204" s="29"/>
       <c r="E204" s="29" t="s">
         <v>19</v>
       </c>
       <c r="F204" s="29" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="G204" s="29" t="s">
         <v>16</v>
@@ -9462,22 +9482,22 @@
       </c>
       <c r="I204" s="31"/>
     </row>
-    <row r="205" spans="1:9" ht="30" hidden="1">
+    <row r="205" spans="1:9" s="37" customFormat="1" ht="30">
       <c r="A205" s="29" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="B205" s="30" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="C205" s="31" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
       <c r="D205" s="29"/>
       <c r="E205" s="29" t="s">
         <v>19</v>
       </c>
       <c r="F205" s="29" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="G205" s="29" t="s">
         <v>16</v>
@@ -9487,15 +9507,15 @@
       </c>
       <c r="I205" s="31"/>
     </row>
-    <row r="206" spans="1:9" ht="45">
+    <row r="206" spans="1:9" s="37" customFormat="1" ht="30">
       <c r="A206" s="29" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="B206" s="30" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="C206" s="31" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
       <c r="D206" s="29"/>
       <c r="E206" s="29" t="s">
@@ -9512,22 +9532,22 @@
       </c>
       <c r="I206" s="31"/>
     </row>
-    <row r="207" spans="1:9" ht="30">
+    <row r="207" spans="1:9" hidden="1">
       <c r="A207" s="29" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="B207" s="30" t="s">
-        <v>262</v>
-      </c>
-      <c r="C207" s="19" t="s">
-        <v>474</v>
+        <v>261</v>
+      </c>
+      <c r="C207" s="31" t="s">
+        <v>355</v>
       </c>
       <c r="D207" s="29"/>
       <c r="E207" s="29" t="s">
         <v>19</v>
       </c>
       <c r="F207" s="29" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="G207" s="29" t="s">
         <v>16</v>
@@ -9537,22 +9557,22 @@
       </c>
       <c r="I207" s="31"/>
     </row>
-    <row r="208" spans="1:9" ht="45">
+    <row r="208" spans="1:9" ht="30" hidden="1">
       <c r="A208" s="29" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="B208" s="30" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="C208" s="31" t="s">
-        <v>431</v>
+        <v>356</v>
       </c>
       <c r="D208" s="29"/>
       <c r="E208" s="29" t="s">
         <v>19</v>
       </c>
       <c r="F208" s="29" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="G208" s="29" t="s">
         <v>16</v>
@@ -9564,13 +9584,13 @@
     </row>
     <row r="209" spans="1:9" ht="45">
       <c r="A209" s="29" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="B209" s="30" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="C209" s="31" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="D209" s="29"/>
       <c r="E209" s="29" t="s">
@@ -9589,13 +9609,13 @@
     </row>
     <row r="210" spans="1:9" ht="30">
       <c r="A210" s="29" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="B210" s="30" t="s">
-        <v>263</v>
-      </c>
-      <c r="C210" s="31" t="s">
-        <v>359</v>
+        <v>262</v>
+      </c>
+      <c r="C210" s="19" t="s">
+        <v>474</v>
       </c>
       <c r="D210" s="29"/>
       <c r="E210" s="29" t="s">
@@ -9614,13 +9634,13 @@
     </row>
     <row r="211" spans="1:9" ht="45">
       <c r="A211" s="29" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="B211" s="30" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="C211" s="31" t="s">
-        <v>360</v>
+        <v>431</v>
       </c>
       <c r="D211" s="29"/>
       <c r="E211" s="29" t="s">
@@ -9637,15 +9657,15 @@
       </c>
       <c r="I211" s="31"/>
     </row>
-    <row r="212" spans="1:9" ht="60">
+    <row r="212" spans="1:9" ht="45">
       <c r="A212" s="29" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="B212" s="30" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C212" s="31" t="s">
-        <v>361</v>
+        <v>358</v>
       </c>
       <c r="D212" s="29"/>
       <c r="E212" s="29" t="s">
@@ -9664,13 +9684,13 @@
     </row>
     <row r="213" spans="1:9" ht="30">
       <c r="A213" s="29" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="B213" s="30" t="s">
-        <v>264</v>
-      </c>
-      <c r="C213" s="19" t="s">
-        <v>476</v>
+        <v>263</v>
+      </c>
+      <c r="C213" s="31" t="s">
+        <v>359</v>
       </c>
       <c r="D213" s="29"/>
       <c r="E213" s="29" t="s">
@@ -9687,15 +9707,15 @@
       </c>
       <c r="I213" s="31"/>
     </row>
-    <row r="214" spans="1:9" ht="30">
+    <row r="214" spans="1:9" ht="45">
       <c r="A214" s="29" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="B214" s="30" t="s">
-        <v>264</v>
-      </c>
-      <c r="C214" s="19" t="s">
-        <v>475</v>
+        <v>263</v>
+      </c>
+      <c r="C214" s="31" t="s">
+        <v>360</v>
       </c>
       <c r="D214" s="29"/>
       <c r="E214" s="29" t="s">
@@ -9712,15 +9732,15 @@
       </c>
       <c r="I214" s="31"/>
     </row>
-    <row r="215" spans="1:9" ht="30">
+    <row r="215" spans="1:9" ht="60">
       <c r="A215" s="29" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="B215" s="30" t="s">
         <v>264</v>
       </c>
-      <c r="C215" s="19" t="s">
-        <v>477</v>
+      <c r="C215" s="31" t="s">
+        <v>361</v>
       </c>
       <c r="D215" s="29"/>
       <c r="E215" s="29" t="s">
@@ -9739,13 +9759,13 @@
     </row>
     <row r="216" spans="1:9" ht="30">
       <c r="A216" s="29" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="B216" s="30" t="s">
         <v>264</v>
       </c>
       <c r="C216" s="19" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="D216" s="29"/>
       <c r="E216" s="29" t="s">
@@ -9764,13 +9784,13 @@
     </row>
     <row r="217" spans="1:9" ht="30">
       <c r="A217" s="29" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="B217" s="30" t="s">
         <v>264</v>
       </c>
       <c r="C217" s="19" t="s">
-        <v>479</v>
+        <v>475</v>
       </c>
       <c r="D217" s="29"/>
       <c r="E217" s="29" t="s">
@@ -9789,13 +9809,13 @@
     </row>
     <row r="218" spans="1:9" ht="30">
       <c r="A218" s="29" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="B218" s="30" t="s">
         <v>264</v>
       </c>
       <c r="C218" s="19" t="s">
-        <v>480</v>
+        <v>477</v>
       </c>
       <c r="D218" s="29"/>
       <c r="E218" s="29" t="s">
@@ -9814,13 +9834,13 @@
     </row>
     <row r="219" spans="1:9" ht="30">
       <c r="A219" s="29" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="B219" s="30" t="s">
         <v>264</v>
       </c>
       <c r="C219" s="19" t="s">
-        <v>481</v>
+        <v>478</v>
       </c>
       <c r="D219" s="29"/>
       <c r="E219" s="29" t="s">
@@ -9837,15 +9857,15 @@
       </c>
       <c r="I219" s="31"/>
     </row>
-    <row r="220" spans="1:9">
+    <row r="220" spans="1:9" ht="30">
       <c r="A220" s="29" t="s">
-        <v>224</v>
-      </c>
-      <c r="B220" s="23" t="s">
-        <v>31</v>
+        <v>169</v>
+      </c>
+      <c r="B220" s="30" t="s">
+        <v>264</v>
       </c>
       <c r="C220" s="19" t="s">
-        <v>482</v>
+        <v>479</v>
       </c>
       <c r="D220" s="29"/>
       <c r="E220" s="29" t="s">
@@ -9862,15 +9882,15 @@
       </c>
       <c r="I220" s="31"/>
     </row>
-    <row r="221" spans="1:9" ht="75">
+    <row r="221" spans="1:9" ht="30">
       <c r="A221" s="29" t="s">
-        <v>225</v>
-      </c>
-      <c r="B221" s="23" t="s">
-        <v>31</v>
-      </c>
-      <c r="C221" s="31" t="s">
-        <v>398</v>
+        <v>170</v>
+      </c>
+      <c r="B221" s="30" t="s">
+        <v>264</v>
+      </c>
+      <c r="C221" s="19" t="s">
+        <v>480</v>
       </c>
       <c r="D221" s="29"/>
       <c r="E221" s="29" t="s">
@@ -9880,22 +9900,22 @@
         <v>3</v>
       </c>
       <c r="G221" s="29" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H221" s="29" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="I221" s="31"/>
     </row>
-    <row r="222" spans="1:9" ht="300">
+    <row r="222" spans="1:9" ht="30">
       <c r="A222" s="29" t="s">
-        <v>226</v>
-      </c>
-      <c r="B222" s="23" t="s">
-        <v>31</v>
-      </c>
-      <c r="C222" s="31" t="s">
-        <v>399</v>
+        <v>171</v>
+      </c>
+      <c r="B222" s="30" t="s">
+        <v>264</v>
+      </c>
+      <c r="C222" s="19" t="s">
+        <v>481</v>
       </c>
       <c r="D222" s="29"/>
       <c r="E222" s="29" t="s">
@@ -9905,22 +9925,22 @@
         <v>3</v>
       </c>
       <c r="G222" s="29" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H222" s="29" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="I222" s="31"/>
     </row>
-    <row r="223" spans="1:9" ht="45">
+    <row r="223" spans="1:9">
       <c r="A223" s="29" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="B223" s="23" t="s">
         <v>31</v>
       </c>
-      <c r="C223" s="31" t="s">
-        <v>400</v>
+      <c r="C223" s="19" t="s">
+        <v>482</v>
       </c>
       <c r="D223" s="29"/>
       <c r="E223" s="29" t="s">
@@ -9930,22 +9950,22 @@
         <v>3</v>
       </c>
       <c r="G223" s="29" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H223" s="29" t="s">
-        <v>20</v>
-      </c>
-      <c r="I223"/>
+        <v>18</v>
+      </c>
+      <c r="I223" s="31"/>
     </row>
     <row r="224" spans="1:9" ht="75">
       <c r="A224" s="29" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="B224" s="23" t="s">
         <v>31</v>
       </c>
-      <c r="C224" s="19" t="s">
-        <v>483</v>
+      <c r="C224" s="31" t="s">
+        <v>398</v>
       </c>
       <c r="D224" s="29"/>
       <c r="E224" s="29" t="s">
@@ -9958,19 +9978,19 @@
         <v>15</v>
       </c>
       <c r="H224" s="29" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="I224" s="31"/>
     </row>
-    <row r="225" spans="1:9" ht="60">
+    <row r="225" spans="1:9" ht="300">
       <c r="A225" s="29" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="B225" s="23" t="s">
         <v>31</v>
       </c>
-      <c r="C225" s="19" t="s">
-        <v>484</v>
+      <c r="C225" s="31" t="s">
+        <v>399</v>
       </c>
       <c r="D225" s="29"/>
       <c r="E225" s="29" t="s">
@@ -9983,69 +10003,69 @@
         <v>15</v>
       </c>
       <c r="H225" s="29" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="I225" s="31"/>
     </row>
     <row r="226" spans="1:9" ht="45">
-      <c r="A226" s="21" t="s">
-        <v>486</v>
+      <c r="A226" s="29" t="s">
+        <v>227</v>
       </c>
       <c r="B226" s="23" t="s">
         <v>31</v>
       </c>
-      <c r="C226" s="34" t="s">
-        <v>485</v>
-      </c>
-      <c r="D226" s="32"/>
-      <c r="E226" s="32" t="s">
-        <v>19</v>
-      </c>
-      <c r="F226" s="32" t="s">
-        <v>3</v>
-      </c>
-      <c r="G226" s="32" t="s">
-        <v>15</v>
-      </c>
-      <c r="H226" s="32" t="s">
+      <c r="C226" s="31" t="s">
+        <v>400</v>
+      </c>
+      <c r="D226" s="29"/>
+      <c r="E226" s="29" t="s">
+        <v>19</v>
+      </c>
+      <c r="F226" s="29" t="s">
+        <v>3</v>
+      </c>
+      <c r="G226" s="29" t="s">
+        <v>15</v>
+      </c>
+      <c r="H226" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="I226" s="34"/>
-    </row>
-    <row r="227" spans="1:9" ht="60">
-      <c r="A227" s="21" t="s">
-        <v>487</v>
+      <c r="I226"/>
+    </row>
+    <row r="227" spans="1:9" ht="75">
+      <c r="A227" s="29" t="s">
+        <v>228</v>
       </c>
       <c r="B227" s="23" t="s">
         <v>31</v>
       </c>
-      <c r="C227" s="34" t="s">
-        <v>496</v>
-      </c>
-      <c r="D227" s="32"/>
-      <c r="E227" s="32" t="s">
-        <v>19</v>
-      </c>
-      <c r="F227" s="32" t="s">
-        <v>3</v>
-      </c>
-      <c r="G227" s="32" t="s">
-        <v>15</v>
-      </c>
-      <c r="H227" s="32" t="s">
+      <c r="C227" s="19" t="s">
+        <v>483</v>
+      </c>
+      <c r="D227" s="29"/>
+      <c r="E227" s="29" t="s">
+        <v>19</v>
+      </c>
+      <c r="F227" s="29" t="s">
+        <v>3</v>
+      </c>
+      <c r="G227" s="29" t="s">
+        <v>15</v>
+      </c>
+      <c r="H227" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="I227" s="34"/>
-    </row>
-    <row r="228" spans="1:9" ht="30">
+      <c r="I227" s="31"/>
+    </row>
+    <row r="228" spans="1:9" ht="60">
       <c r="A228" s="29" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B228" s="23" t="s">
         <v>31</v>
       </c>
       <c r="C228" s="19" t="s">
-        <v>488</v>
+        <v>484</v>
       </c>
       <c r="D228" s="29"/>
       <c r="E228" s="29" t="s">
@@ -10055,72 +10075,72 @@
         <v>3</v>
       </c>
       <c r="G228" s="29" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H228" s="29" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I228" s="31"/>
     </row>
-    <row r="229" spans="1:9">
-      <c r="A229" s="29" t="s">
-        <v>172</v>
+    <row r="229" spans="1:9" ht="45">
+      <c r="A229" s="21" t="s">
+        <v>486</v>
       </c>
       <c r="B229" s="23" t="s">
-        <v>32</v>
-      </c>
-      <c r="C229" s="19" t="s">
-        <v>489</v>
-      </c>
-      <c r="D229" s="29"/>
-      <c r="E229" s="29" t="s">
-        <v>19</v>
-      </c>
-      <c r="F229" s="29" t="s">
-        <v>3</v>
-      </c>
-      <c r="G229" s="29" t="s">
-        <v>16</v>
-      </c>
-      <c r="H229" s="29" t="s">
-        <v>18</v>
-      </c>
-      <c r="I229" s="31"/>
-    </row>
-    <row r="230" spans="1:9" ht="90">
-      <c r="A230" s="29" t="s">
-        <v>173</v>
+        <v>31</v>
+      </c>
+      <c r="C229" s="34" t="s">
+        <v>485</v>
+      </c>
+      <c r="D229" s="32"/>
+      <c r="E229" s="32" t="s">
+        <v>19</v>
+      </c>
+      <c r="F229" s="32" t="s">
+        <v>3</v>
+      </c>
+      <c r="G229" s="32" t="s">
+        <v>15</v>
+      </c>
+      <c r="H229" s="32" t="s">
+        <v>20</v>
+      </c>
+      <c r="I229" s="34"/>
+    </row>
+    <row r="230" spans="1:9" ht="60">
+      <c r="A230" s="21" t="s">
+        <v>487</v>
       </c>
       <c r="B230" s="23" t="s">
-        <v>32</v>
-      </c>
-      <c r="C230" s="31" t="s">
-        <v>362</v>
-      </c>
-      <c r="D230" s="29"/>
-      <c r="E230" s="29" t="s">
-        <v>19</v>
-      </c>
-      <c r="F230" s="29" t="s">
-        <v>3</v>
-      </c>
-      <c r="G230" s="29" t="s">
-        <v>15</v>
-      </c>
-      <c r="H230" s="29" t="s">
-        <v>21</v>
-      </c>
-      <c r="I230" s="31"/>
-    </row>
-    <row r="231" spans="1:9" ht="330">
+        <v>31</v>
+      </c>
+      <c r="C230" s="34" t="s">
+        <v>496</v>
+      </c>
+      <c r="D230" s="32"/>
+      <c r="E230" s="32" t="s">
+        <v>19</v>
+      </c>
+      <c r="F230" s="32" t="s">
+        <v>3</v>
+      </c>
+      <c r="G230" s="32" t="s">
+        <v>15</v>
+      </c>
+      <c r="H230" s="32" t="s">
+        <v>20</v>
+      </c>
+      <c r="I230" s="34"/>
+    </row>
+    <row r="231" spans="1:9" ht="30">
       <c r="A231" s="29" t="s">
-        <v>174</v>
+        <v>230</v>
       </c>
       <c r="B231" s="23" t="s">
-        <v>32</v>
-      </c>
-      <c r="C231" s="31" t="s">
-        <v>363</v>
+        <v>31</v>
+      </c>
+      <c r="C231" s="19" t="s">
+        <v>488</v>
       </c>
       <c r="D231" s="29"/>
       <c r="E231" s="29" t="s">
@@ -10130,22 +10150,22 @@
         <v>3</v>
       </c>
       <c r="G231" s="29" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H231" s="29" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="I231" s="31"/>
     </row>
-    <row r="232" spans="1:9" ht="45">
+    <row r="232" spans="1:9">
       <c r="A232" s="29" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="B232" s="23" t="s">
         <v>32</v>
       </c>
-      <c r="C232" s="31" t="s">
-        <v>364</v>
+      <c r="C232" s="19" t="s">
+        <v>489</v>
       </c>
       <c r="D232" s="29"/>
       <c r="E232" s="29" t="s">
@@ -10155,22 +10175,22 @@
         <v>3</v>
       </c>
       <c r="G232" s="29" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H232" s="29" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="I232" s="31"/>
     </row>
-    <row r="233" spans="1:9" ht="75">
+    <row r="233" spans="1:9" ht="90">
       <c r="A233" s="29" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="B233" s="23" t="s">
         <v>32</v>
       </c>
-      <c r="C233" s="19" t="s">
-        <v>490</v>
+      <c r="C233" s="31" t="s">
+        <v>362</v>
       </c>
       <c r="D233" s="29"/>
       <c r="E233" s="29" t="s">
@@ -10183,19 +10203,19 @@
         <v>15</v>
       </c>
       <c r="H233" s="29" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="I233" s="31"/>
     </row>
-    <row r="234" spans="1:9" ht="60">
+    <row r="234" spans="1:9" ht="330">
       <c r="A234" s="29" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="B234" s="23" t="s">
         <v>32</v>
       </c>
-      <c r="C234" s="19" t="s">
-        <v>491</v>
+      <c r="C234" s="31" t="s">
+        <v>363</v>
       </c>
       <c r="D234" s="29"/>
       <c r="E234" s="29" t="s">
@@ -10208,69 +10228,69 @@
         <v>15</v>
       </c>
       <c r="H234" s="29" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="I234" s="31"/>
     </row>
     <row r="235" spans="1:9" ht="45">
-      <c r="A235" s="21" t="s">
-        <v>494</v>
+      <c r="A235" s="29" t="s">
+        <v>175</v>
       </c>
       <c r="B235" s="23" t="s">
         <v>32</v>
       </c>
-      <c r="C235" s="34" t="s">
-        <v>492</v>
-      </c>
-      <c r="D235" s="32"/>
-      <c r="E235" s="32" t="s">
-        <v>19</v>
-      </c>
-      <c r="F235" s="32" t="s">
-        <v>3</v>
-      </c>
-      <c r="G235" s="32" t="s">
-        <v>15</v>
-      </c>
-      <c r="H235" s="32" t="s">
+      <c r="C235" s="31" t="s">
+        <v>364</v>
+      </c>
+      <c r="D235" s="29"/>
+      <c r="E235" s="29" t="s">
+        <v>19</v>
+      </c>
+      <c r="F235" s="29" t="s">
+        <v>3</v>
+      </c>
+      <c r="G235" s="29" t="s">
+        <v>15</v>
+      </c>
+      <c r="H235" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="I235" s="34"/>
-    </row>
-    <row r="236" spans="1:9" ht="60">
-      <c r="A236" s="21" t="s">
-        <v>495</v>
+      <c r="I235" s="31"/>
+    </row>
+    <row r="236" spans="1:9" ht="75">
+      <c r="A236" s="29" t="s">
+        <v>176</v>
       </c>
       <c r="B236" s="23" t="s">
         <v>32</v>
       </c>
-      <c r="C236" s="34" t="s">
-        <v>493</v>
-      </c>
-      <c r="D236" s="32"/>
-      <c r="E236" s="32" t="s">
-        <v>19</v>
-      </c>
-      <c r="F236" s="32" t="s">
-        <v>3</v>
-      </c>
-      <c r="G236" s="32" t="s">
-        <v>15</v>
-      </c>
-      <c r="H236" s="32" t="s">
+      <c r="C236" s="19" t="s">
+        <v>490</v>
+      </c>
+      <c r="D236" s="29"/>
+      <c r="E236" s="29" t="s">
+        <v>19</v>
+      </c>
+      <c r="F236" s="29" t="s">
+        <v>3</v>
+      </c>
+      <c r="G236" s="29" t="s">
+        <v>15</v>
+      </c>
+      <c r="H236" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="I236" s="34"/>
-    </row>
-    <row r="237" spans="1:9" ht="30">
+      <c r="I236" s="31"/>
+    </row>
+    <row r="237" spans="1:9" ht="60">
       <c r="A237" s="29" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B237" s="23" t="s">
         <v>32</v>
       </c>
       <c r="C237" s="19" t="s">
-        <v>365</v>
+        <v>491</v>
       </c>
       <c r="D237" s="29"/>
       <c r="E237" s="29" t="s">
@@ -10280,72 +10300,72 @@
         <v>3</v>
       </c>
       <c r="G237" s="29" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H237" s="29" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I237" s="31"/>
     </row>
-    <row r="238" spans="1:9" ht="30">
-      <c r="A238" s="29" t="s">
-        <v>210</v>
+    <row r="238" spans="1:9" ht="45">
+      <c r="A238" s="21" t="s">
+        <v>494</v>
       </c>
       <c r="B238" s="23" t="s">
-        <v>265</v>
-      </c>
-      <c r="C238" s="19" t="s">
-        <v>497</v>
-      </c>
-      <c r="D238" s="29"/>
-      <c r="E238" s="29" t="s">
-        <v>19</v>
-      </c>
-      <c r="F238" s="29" t="s">
-        <v>3</v>
-      </c>
-      <c r="G238" s="29" t="s">
-        <v>16</v>
-      </c>
-      <c r="H238" s="29" t="s">
-        <v>18</v>
-      </c>
-      <c r="I238" s="31"/>
-    </row>
-    <row r="239" spans="1:9" ht="75">
-      <c r="A239" s="29" t="s">
-        <v>211</v>
+        <v>32</v>
+      </c>
+      <c r="C238" s="34" t="s">
+        <v>492</v>
+      </c>
+      <c r="D238" s="32"/>
+      <c r="E238" s="32" t="s">
+        <v>19</v>
+      </c>
+      <c r="F238" s="32" t="s">
+        <v>3</v>
+      </c>
+      <c r="G238" s="32" t="s">
+        <v>15</v>
+      </c>
+      <c r="H238" s="32" t="s">
+        <v>20</v>
+      </c>
+      <c r="I238" s="34"/>
+    </row>
+    <row r="239" spans="1:9" ht="60">
+      <c r="A239" s="21" t="s">
+        <v>495</v>
       </c>
       <c r="B239" s="23" t="s">
-        <v>265</v>
-      </c>
-      <c r="C239" s="31" t="s">
-        <v>391</v>
-      </c>
-      <c r="D239" s="29"/>
-      <c r="E239" s="29" t="s">
-        <v>19</v>
-      </c>
-      <c r="F239" s="29" t="s">
-        <v>3</v>
-      </c>
-      <c r="G239" s="29" t="s">
-        <v>15</v>
-      </c>
-      <c r="H239" s="29" t="s">
-        <v>21</v>
-      </c>
-      <c r="I239" s="31"/>
-    </row>
-    <row r="240" spans="1:9" ht="300">
+        <v>32</v>
+      </c>
+      <c r="C239" s="34" t="s">
+        <v>493</v>
+      </c>
+      <c r="D239" s="32"/>
+      <c r="E239" s="32" t="s">
+        <v>19</v>
+      </c>
+      <c r="F239" s="32" t="s">
+        <v>3</v>
+      </c>
+      <c r="G239" s="32" t="s">
+        <v>15</v>
+      </c>
+      <c r="H239" s="32" t="s">
+        <v>20</v>
+      </c>
+      <c r="I239" s="34"/>
+    </row>
+    <row r="240" spans="1:9" ht="30">
       <c r="A240" s="29" t="s">
-        <v>212</v>
+        <v>178</v>
       </c>
       <c r="B240" s="23" t="s">
-        <v>265</v>
-      </c>
-      <c r="C240" s="31" t="s">
-        <v>392</v>
+        <v>32</v>
+      </c>
+      <c r="C240" s="19" t="s">
+        <v>365</v>
       </c>
       <c r="D240" s="29"/>
       <c r="E240" s="29" t="s">
@@ -10355,22 +10375,22 @@
         <v>3</v>
       </c>
       <c r="G240" s="29" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H240" s="29" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="I240" s="31"/>
     </row>
-    <row r="241" spans="1:9" ht="45">
+    <row r="241" spans="1:9" ht="30">
       <c r="A241" s="29" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="B241" s="23" t="s">
         <v>265</v>
       </c>
       <c r="C241" s="19" t="s">
-        <v>393</v>
+        <v>497</v>
       </c>
       <c r="D241" s="29"/>
       <c r="E241" s="29" t="s">
@@ -10380,22 +10400,22 @@
         <v>3</v>
       </c>
       <c r="G241" s="29" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H241" s="29" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="I241" s="31"/>
     </row>
     <row r="242" spans="1:9" ht="75">
       <c r="A242" s="29" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="B242" s="23" t="s">
         <v>265</v>
       </c>
-      <c r="C242" s="19" t="s">
-        <v>498</v>
+      <c r="C242" s="31" t="s">
+        <v>391</v>
       </c>
       <c r="D242" s="29"/>
       <c r="E242" s="29" t="s">
@@ -10408,19 +10428,19 @@
         <v>15</v>
       </c>
       <c r="H242" s="29" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="I242" s="31"/>
     </row>
-    <row r="243" spans="1:9" ht="60">
+    <row r="243" spans="1:9" ht="300">
       <c r="A243" s="29" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="B243" s="23" t="s">
         <v>265</v>
       </c>
-      <c r="C243" s="19" t="s">
-        <v>499</v>
+      <c r="C243" s="31" t="s">
+        <v>392</v>
       </c>
       <c r="D243" s="29"/>
       <c r="E243" s="29" t="s">
@@ -10433,69 +10453,69 @@
         <v>15</v>
       </c>
       <c r="H243" s="29" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="I243" s="31"/>
     </row>
     <row r="244" spans="1:9" ht="45">
-      <c r="A244" s="21" t="s">
-        <v>503</v>
+      <c r="A244" s="29" t="s">
+        <v>213</v>
       </c>
       <c r="B244" s="23" t="s">
         <v>265</v>
       </c>
-      <c r="C244" s="34" t="s">
-        <v>501</v>
-      </c>
-      <c r="D244" s="32"/>
+      <c r="C244" s="19" t="s">
+        <v>393</v>
+      </c>
+      <c r="D244" s="29"/>
       <c r="E244" s="29" t="s">
         <v>19</v>
       </c>
       <c r="F244" s="29" t="s">
         <v>3</v>
       </c>
-      <c r="G244" s="32" t="s">
-        <v>15</v>
-      </c>
-      <c r="H244" s="32" t="s">
+      <c r="G244" s="29" t="s">
+        <v>15</v>
+      </c>
+      <c r="H244" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="I244" s="34"/>
-    </row>
-    <row r="245" spans="1:9" ht="60">
-      <c r="A245" s="21" t="s">
-        <v>504</v>
+      <c r="I244" s="31"/>
+    </row>
+    <row r="245" spans="1:9" ht="75">
+      <c r="A245" s="29" t="s">
+        <v>214</v>
       </c>
       <c r="B245" s="23" t="s">
         <v>265</v>
       </c>
-      <c r="C245" s="34" t="s">
-        <v>502</v>
-      </c>
-      <c r="D245" s="32"/>
+      <c r="C245" s="19" t="s">
+        <v>498</v>
+      </c>
+      <c r="D245" s="29"/>
       <c r="E245" s="29" t="s">
         <v>19</v>
       </c>
       <c r="F245" s="29" t="s">
         <v>3</v>
       </c>
-      <c r="G245" s="32" t="s">
-        <v>15</v>
-      </c>
-      <c r="H245" s="32" t="s">
+      <c r="G245" s="29" t="s">
+        <v>15</v>
+      </c>
+      <c r="H245" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="I245" s="34"/>
-    </row>
-    <row r="246" spans="1:9" ht="30">
+      <c r="I245" s="31"/>
+    </row>
+    <row r="246" spans="1:9" ht="60">
       <c r="A246" s="29" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="B246" s="23" t="s">
         <v>265</v>
       </c>
       <c r="C246" s="19" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="D246" s="29"/>
       <c r="E246" s="29" t="s">
@@ -10505,72 +10525,72 @@
         <v>3</v>
       </c>
       <c r="G246" s="29" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H246" s="29" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I246" s="31"/>
     </row>
-    <row r="247" spans="1:9" ht="30">
-      <c r="A247" s="29" t="s">
-        <v>179</v>
+    <row r="247" spans="1:9" ht="45">
+      <c r="A247" s="21" t="s">
+        <v>503</v>
       </c>
       <c r="B247" s="23" t="s">
-        <v>266</v>
-      </c>
-      <c r="C247" s="19" t="s">
-        <v>505</v>
-      </c>
-      <c r="D247" s="29"/>
+        <v>265</v>
+      </c>
+      <c r="C247" s="34" t="s">
+        <v>501</v>
+      </c>
+      <c r="D247" s="32"/>
       <c r="E247" s="29" t="s">
         <v>19</v>
       </c>
       <c r="F247" s="29" t="s">
         <v>3</v>
       </c>
-      <c r="G247" s="29" t="s">
-        <v>16</v>
-      </c>
-      <c r="H247" s="29" t="s">
-        <v>18</v>
-      </c>
-      <c r="I247" s="31"/>
-    </row>
-    <row r="248" spans="1:9" ht="75">
-      <c r="A248" s="29" t="s">
-        <v>180</v>
+      <c r="G247" s="32" t="s">
+        <v>15</v>
+      </c>
+      <c r="H247" s="32" t="s">
+        <v>20</v>
+      </c>
+      <c r="I247" s="34"/>
+    </row>
+    <row r="248" spans="1:9" ht="60">
+      <c r="A248" s="21" t="s">
+        <v>504</v>
       </c>
       <c r="B248" s="23" t="s">
-        <v>266</v>
-      </c>
-      <c r="C248" s="31" t="s">
-        <v>366</v>
-      </c>
-      <c r="D248" s="29"/>
+        <v>265</v>
+      </c>
+      <c r="C248" s="34" t="s">
+        <v>502</v>
+      </c>
+      <c r="D248" s="32"/>
       <c r="E248" s="29" t="s">
         <v>19</v>
       </c>
       <c r="F248" s="29" t="s">
         <v>3</v>
       </c>
-      <c r="G248" s="29" t="s">
-        <v>15</v>
-      </c>
-      <c r="H248" s="29" t="s">
-        <v>21</v>
-      </c>
-      <c r="I248" s="31"/>
-    </row>
-    <row r="249" spans="1:9" ht="330">
+      <c r="G248" s="32" t="s">
+        <v>15</v>
+      </c>
+      <c r="H248" s="32" t="s">
+        <v>20</v>
+      </c>
+      <c r="I248" s="34"/>
+    </row>
+    <row r="249" spans="1:9" ht="30">
       <c r="A249" s="29" t="s">
-        <v>181</v>
+        <v>216</v>
       </c>
       <c r="B249" s="23" t="s">
-        <v>266</v>
-      </c>
-      <c r="C249" s="31" t="s">
-        <v>367</v>
+        <v>265</v>
+      </c>
+      <c r="C249" s="19" t="s">
+        <v>500</v>
       </c>
       <c r="D249" s="29"/>
       <c r="E249" s="29" t="s">
@@ -10580,97 +10600,97 @@
         <v>3</v>
       </c>
       <c r="G249" s="29" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H249" s="29" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="I249" s="31"/>
     </row>
-    <row r="250" spans="1:9" ht="30" hidden="1">
+    <row r="250" spans="1:9" ht="30">
       <c r="A250" s="29" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="B250" s="23" t="s">
         <v>266</v>
       </c>
-      <c r="C250" s="31" t="s">
-        <v>368</v>
+      <c r="C250" s="19" t="s">
+        <v>505</v>
       </c>
       <c r="D250" s="29"/>
       <c r="E250" s="29" t="s">
         <v>19</v>
       </c>
       <c r="F250" s="29" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="G250" s="29" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H250" s="29" t="s">
         <v>18</v>
       </c>
       <c r="I250" s="31"/>
     </row>
-    <row r="251" spans="1:9" hidden="1">
+    <row r="251" spans="1:9" ht="75">
       <c r="A251" s="29" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="B251" s="23" t="s">
         <v>266</v>
       </c>
       <c r="C251" s="31" t="s">
-        <v>369</v>
+        <v>366</v>
       </c>
       <c r="D251" s="29"/>
       <c r="E251" s="29" t="s">
         <v>19</v>
       </c>
       <c r="F251" s="29" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="G251" s="29" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H251" s="29" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="I251" s="31"/>
     </row>
-    <row r="252" spans="1:9" ht="45" hidden="1">
+    <row r="252" spans="1:9" ht="330">
       <c r="A252" s="29" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="B252" s="23" t="s">
         <v>266</v>
       </c>
       <c r="C252" s="31" t="s">
-        <v>370</v>
+        <v>367</v>
       </c>
       <c r="D252" s="29"/>
       <c r="E252" s="29" t="s">
         <v>19</v>
       </c>
       <c r="F252" s="29" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="G252" s="29" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H252" s="29" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="I252" s="31"/>
     </row>
-    <row r="253" spans="1:9" hidden="1">
+    <row r="253" spans="1:9" ht="30" hidden="1">
       <c r="A253" s="29" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="B253" s="23" t="s">
         <v>266</v>
       </c>
       <c r="C253" s="31" t="s">
-        <v>371</v>
+        <v>368</v>
       </c>
       <c r="D253" s="29"/>
       <c r="E253" s="29" t="s">
@@ -10687,15 +10707,15 @@
       </c>
       <c r="I253" s="31"/>
     </row>
-    <row r="254" spans="1:9" ht="45" hidden="1">
+    <row r="254" spans="1:9" hidden="1">
       <c r="A254" s="29" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="B254" s="23" t="s">
         <v>266</v>
       </c>
       <c r="C254" s="31" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="D254" s="29"/>
       <c r="E254" s="29" t="s">
@@ -10705,7 +10725,7 @@
         <v>7</v>
       </c>
       <c r="G254" s="29" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H254" s="29" t="s">
         <v>18</v>
@@ -10714,13 +10734,13 @@
     </row>
     <row r="255" spans="1:9" ht="45" hidden="1">
       <c r="A255" s="29" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="B255" s="23" t="s">
         <v>266</v>
       </c>
       <c r="C255" s="31" t="s">
-        <v>373</v>
+        <v>370</v>
       </c>
       <c r="D255" s="29"/>
       <c r="E255" s="29" t="s">
@@ -10737,15 +10757,15 @@
       </c>
       <c r="I255" s="31"/>
     </row>
-    <row r="256" spans="1:9" ht="30" hidden="1">
+    <row r="256" spans="1:9" hidden="1">
       <c r="A256" s="29" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="B256" s="23" t="s">
         <v>266</v>
       </c>
       <c r="C256" s="31" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
       <c r="D256" s="29"/>
       <c r="E256" s="29" t="s">
@@ -10762,65 +10782,65 @@
       </c>
       <c r="I256" s="31"/>
     </row>
-    <row r="257" spans="1:9" ht="30">
+    <row r="257" spans="1:9" ht="45" hidden="1">
       <c r="A257" s="29" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="B257" s="23" t="s">
         <v>266</v>
       </c>
       <c r="C257" s="31" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="D257" s="29"/>
       <c r="E257" s="29" t="s">
         <v>19</v>
       </c>
       <c r="F257" s="29" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="G257" s="29" t="s">
         <v>15</v>
       </c>
       <c r="H257" s="29" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="I257" s="31"/>
     </row>
-    <row r="258" spans="1:9" ht="45">
+    <row r="258" spans="1:9" ht="45" hidden="1">
       <c r="A258" s="29" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="B258" s="23" t="s">
         <v>266</v>
       </c>
       <c r="C258" s="31" t="s">
-        <v>376</v>
+        <v>373</v>
       </c>
       <c r="D258" s="29"/>
       <c r="E258" s="29" t="s">
         <v>19</v>
       </c>
       <c r="F258" s="29" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="G258" s="29" t="s">
-        <v>15</v>
-      </c>
-      <c r="H258" s="21" t="s">
-        <v>20</v>
+        <v>16</v>
+      </c>
+      <c r="H258" s="29" t="s">
+        <v>18</v>
       </c>
       <c r="I258" s="31"/>
     </row>
     <row r="259" spans="1:9" ht="30" hidden="1">
       <c r="A259" s="29" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="B259" s="23" t="s">
         <v>266</v>
       </c>
       <c r="C259" s="31" t="s">
-        <v>377</v>
+        <v>374</v>
       </c>
       <c r="D259" s="29"/>
       <c r="E259" s="29" t="s">
@@ -10837,15 +10857,15 @@
       </c>
       <c r="I259" s="31"/>
     </row>
-    <row r="260" spans="1:9" ht="60">
+    <row r="260" spans="1:9" ht="30">
       <c r="A260" s="29" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="B260" s="23" t="s">
         <v>266</v>
       </c>
       <c r="C260" s="31" t="s">
-        <v>378</v>
+        <v>375</v>
       </c>
       <c r="D260" s="29"/>
       <c r="E260" s="29" t="s">
@@ -10857,22 +10877,20 @@
       <c r="G260" s="29" t="s">
         <v>15</v>
       </c>
-      <c r="H260" s="21" t="s">
-        <v>17</v>
-      </c>
-      <c r="I260" s="19" t="s">
-        <v>538</v>
-      </c>
-    </row>
-    <row r="261" spans="1:9" ht="30">
+      <c r="H260" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="I260" s="31"/>
+    </row>
+    <row r="261" spans="1:9" ht="45">
       <c r="A261" s="29" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="B261" s="23" t="s">
         <v>266</v>
       </c>
       <c r="C261" s="31" t="s">
-        <v>379</v>
+        <v>376</v>
       </c>
       <c r="D261" s="29"/>
       <c r="E261" s="29" t="s">
@@ -10885,48 +10903,44 @@
         <v>15</v>
       </c>
       <c r="H261" s="21" t="s">
-        <v>17</v>
-      </c>
-      <c r="I261" s="19" t="s">
-        <v>543</v>
-      </c>
-    </row>
-    <row r="262" spans="1:9" ht="60">
+        <v>20</v>
+      </c>
+      <c r="I261" s="31"/>
+    </row>
+    <row r="262" spans="1:9" ht="30" hidden="1">
       <c r="A262" s="29" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="B262" s="23" t="s">
         <v>266</v>
       </c>
       <c r="C262" s="31" t="s">
-        <v>380</v>
+        <v>377</v>
       </c>
       <c r="D262" s="29"/>
       <c r="E262" s="29" t="s">
         <v>19</v>
       </c>
       <c r="F262" s="29" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="G262" s="29" t="s">
         <v>15</v>
       </c>
-      <c r="H262" s="21" t="s">
-        <v>17</v>
-      </c>
-      <c r="I262" s="19" t="s">
-        <v>551</v>
-      </c>
-    </row>
-    <row r="263" spans="1:9" ht="30">
+      <c r="H262" s="29" t="s">
+        <v>18</v>
+      </c>
+      <c r="I262" s="31"/>
+    </row>
+    <row r="263" spans="1:9" ht="60">
       <c r="A263" s="29" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="B263" s="23" t="s">
         <v>266</v>
       </c>
       <c r="C263" s="31" t="s">
-        <v>381</v>
+        <v>378</v>
       </c>
       <c r="D263" s="29"/>
       <c r="E263" s="29" t="s">
@@ -10942,18 +10956,18 @@
         <v>17</v>
       </c>
       <c r="I263" s="19" t="s">
-        <v>546</v>
-      </c>
-    </row>
-    <row r="264" spans="1:9" ht="45">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="264" spans="1:9" ht="30">
       <c r="A264" s="29" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="B264" s="23" t="s">
         <v>266</v>
       </c>
       <c r="C264" s="31" t="s">
-        <v>382</v>
+        <v>379</v>
       </c>
       <c r="D264" s="29"/>
       <c r="E264" s="29" t="s">
@@ -10965,20 +10979,22 @@
       <c r="G264" s="29" t="s">
         <v>15</v>
       </c>
-      <c r="H264" s="29" t="s">
-        <v>20</v>
-      </c>
-      <c r="I264" s="31"/>
-    </row>
-    <row r="265" spans="1:9" ht="75">
+      <c r="H264" s="21" t="s">
+        <v>17</v>
+      </c>
+      <c r="I264" s="19" t="s">
+        <v>543</v>
+      </c>
+    </row>
+    <row r="265" spans="1:9" ht="60">
       <c r="A265" s="29" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="B265" s="23" t="s">
         <v>266</v>
       </c>
-      <c r="C265" s="19" t="s">
-        <v>506</v>
+      <c r="C265" s="31" t="s">
+        <v>380</v>
       </c>
       <c r="D265" s="29"/>
       <c r="E265" s="29" t="s">
@@ -10990,20 +11006,22 @@
       <c r="G265" s="29" t="s">
         <v>15</v>
       </c>
-      <c r="H265" s="29" t="s">
-        <v>20</v>
-      </c>
-      <c r="I265" s="31"/>
-    </row>
-    <row r="266" spans="1:9" ht="60">
+      <c r="H265" s="21" t="s">
+        <v>17</v>
+      </c>
+      <c r="I265" s="19" t="s">
+        <v>551</v>
+      </c>
+    </row>
+    <row r="266" spans="1:9" ht="30">
       <c r="A266" s="29" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="B266" s="23" t="s">
         <v>266</v>
       </c>
-      <c r="C266" s="19" t="s">
-        <v>507</v>
+      <c r="C266" s="31" t="s">
+        <v>381</v>
       </c>
       <c r="D266" s="29"/>
       <c r="E266" s="29" t="s">
@@ -11015,70 +11033,72 @@
       <c r="G266" s="29" t="s">
         <v>15</v>
       </c>
-      <c r="H266" s="29" t="s">
-        <v>20</v>
-      </c>
-      <c r="I266" s="31"/>
+      <c r="H266" s="21" t="s">
+        <v>17</v>
+      </c>
+      <c r="I266" s="19" t="s">
+        <v>546</v>
+      </c>
     </row>
     <row r="267" spans="1:9" ht="45">
-      <c r="A267" s="21" t="s">
-        <v>510</v>
+      <c r="A267" s="29" t="s">
+        <v>196</v>
       </c>
       <c r="B267" s="23" t="s">
         <v>266</v>
       </c>
-      <c r="C267" s="34" t="s">
-        <v>508</v>
-      </c>
-      <c r="D267" s="32"/>
+      <c r="C267" s="31" t="s">
+        <v>382</v>
+      </c>
+      <c r="D267" s="29"/>
       <c r="E267" s="29" t="s">
         <v>19</v>
       </c>
       <c r="F267" s="29" t="s">
         <v>3</v>
       </c>
-      <c r="G267" s="32" t="s">
-        <v>15</v>
-      </c>
-      <c r="H267" s="32" t="s">
+      <c r="G267" s="29" t="s">
+        <v>15</v>
+      </c>
+      <c r="H267" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="I267" s="34"/>
-    </row>
-    <row r="268" spans="1:9" ht="60">
-      <c r="A268" s="21" t="s">
-        <v>511</v>
+      <c r="I267" s="31"/>
+    </row>
+    <row r="268" spans="1:9" ht="75">
+      <c r="A268" s="29" t="s">
+        <v>197</v>
       </c>
       <c r="B268" s="23" t="s">
         <v>266</v>
       </c>
-      <c r="C268" s="34" t="s">
-        <v>509</v>
-      </c>
-      <c r="D268" s="32"/>
+      <c r="C268" s="19" t="s">
+        <v>506</v>
+      </c>
+      <c r="D268" s="29"/>
       <c r="E268" s="29" t="s">
         <v>19</v>
       </c>
       <c r="F268" s="29" t="s">
         <v>3</v>
       </c>
-      <c r="G268" s="32" t="s">
-        <v>15</v>
-      </c>
-      <c r="H268" s="32" t="s">
+      <c r="G268" s="29" t="s">
+        <v>15</v>
+      </c>
+      <c r="H268" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="I268" s="34"/>
-    </row>
-    <row r="269" spans="1:9" ht="30">
+      <c r="I268" s="31"/>
+    </row>
+    <row r="269" spans="1:9" ht="60">
       <c r="A269" s="29" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B269" s="23" t="s">
         <v>266</v>
       </c>
       <c r="C269" s="19" t="s">
-        <v>383</v>
+        <v>507</v>
       </c>
       <c r="D269" s="29"/>
       <c r="E269" s="29" t="s">
@@ -11088,72 +11108,72 @@
         <v>3</v>
       </c>
       <c r="G269" s="29" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H269" s="29" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I269" s="31"/>
     </row>
-    <row r="270" spans="1:9" ht="30">
-      <c r="A270" s="29" t="s">
-        <v>217</v>
-      </c>
-      <c r="B270" s="30" t="s">
-        <v>267</v>
-      </c>
-      <c r="C270" s="19" t="s">
-        <v>512</v>
-      </c>
-      <c r="D270" s="29"/>
+    <row r="270" spans="1:9" ht="45">
+      <c r="A270" s="21" t="s">
+        <v>510</v>
+      </c>
+      <c r="B270" s="23" t="s">
+        <v>266</v>
+      </c>
+      <c r="C270" s="34" t="s">
+        <v>508</v>
+      </c>
+      <c r="D270" s="32"/>
       <c r="E270" s="29" t="s">
         <v>19</v>
       </c>
       <c r="F270" s="29" t="s">
         <v>3</v>
       </c>
-      <c r="G270" s="29" t="s">
-        <v>16</v>
-      </c>
-      <c r="H270" s="29" t="s">
-        <v>18</v>
-      </c>
-      <c r="I270" s="31"/>
-    </row>
-    <row r="271" spans="1:9" ht="75">
-      <c r="A271" s="29" t="s">
-        <v>218</v>
-      </c>
-      <c r="B271" s="30" t="s">
-        <v>267</v>
-      </c>
-      <c r="C271" s="31" t="s">
-        <v>394</v>
-      </c>
-      <c r="D271" s="29"/>
+      <c r="G270" s="32" t="s">
+        <v>15</v>
+      </c>
+      <c r="H270" s="32" t="s">
+        <v>20</v>
+      </c>
+      <c r="I270" s="34"/>
+    </row>
+    <row r="271" spans="1:9" ht="60">
+      <c r="A271" s="21" t="s">
+        <v>511</v>
+      </c>
+      <c r="B271" s="23" t="s">
+        <v>266</v>
+      </c>
+      <c r="C271" s="34" t="s">
+        <v>509</v>
+      </c>
+      <c r="D271" s="32"/>
       <c r="E271" s="29" t="s">
         <v>19</v>
       </c>
       <c r="F271" s="29" t="s">
         <v>3</v>
       </c>
-      <c r="G271" s="29" t="s">
-        <v>15</v>
-      </c>
-      <c r="H271" s="29" t="s">
-        <v>21</v>
-      </c>
-      <c r="I271" s="31"/>
-    </row>
-    <row r="272" spans="1:9" ht="300">
+      <c r="G271" s="32" t="s">
+        <v>15</v>
+      </c>
+      <c r="H271" s="32" t="s">
+        <v>20</v>
+      </c>
+      <c r="I271" s="34"/>
+    </row>
+    <row r="272" spans="1:9" ht="30">
       <c r="A272" s="29" t="s">
-        <v>219</v>
-      </c>
-      <c r="B272" s="30" t="s">
-        <v>267</v>
-      </c>
-      <c r="C272" s="31" t="s">
-        <v>395</v>
+        <v>199</v>
+      </c>
+      <c r="B272" s="23" t="s">
+        <v>266</v>
+      </c>
+      <c r="C272" s="19" t="s">
+        <v>383</v>
       </c>
       <c r="D272" s="29"/>
       <c r="E272" s="29" t="s">
@@ -11163,22 +11183,22 @@
         <v>3</v>
       </c>
       <c r="G272" s="29" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H272" s="29" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="I272" s="31"/>
     </row>
-    <row r="273" spans="1:9" ht="45">
+    <row r="273" spans="1:9" ht="30">
       <c r="A273" s="29" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="B273" s="30" t="s">
         <v>267</v>
       </c>
-      <c r="C273" s="31" t="s">
-        <v>396</v>
+      <c r="C273" s="19" t="s">
+        <v>512</v>
       </c>
       <c r="D273" s="29"/>
       <c r="E273" s="29" t="s">
@@ -11188,22 +11208,22 @@
         <v>3</v>
       </c>
       <c r="G273" s="29" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H273" s="29" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="I273" s="31"/>
     </row>
     <row r="274" spans="1:9" ht="75">
       <c r="A274" s="29" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="B274" s="30" t="s">
         <v>267</v>
       </c>
-      <c r="C274" s="19" t="s">
-        <v>513</v>
+      <c r="C274" s="31" t="s">
+        <v>394</v>
       </c>
       <c r="D274" s="29"/>
       <c r="E274" s="29" t="s">
@@ -11216,19 +11236,19 @@
         <v>15</v>
       </c>
       <c r="H274" s="29" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="I274" s="31"/>
     </row>
-    <row r="275" spans="1:9" ht="60">
+    <row r="275" spans="1:9" ht="300">
       <c r="A275" s="29" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="B275" s="30" t="s">
         <v>267</v>
       </c>
-      <c r="C275" s="19" t="s">
-        <v>514</v>
+      <c r="C275" s="31" t="s">
+        <v>395</v>
       </c>
       <c r="D275" s="29"/>
       <c r="E275" s="29" t="s">
@@ -11241,69 +11261,69 @@
         <v>15</v>
       </c>
       <c r="H275" s="29" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="I275" s="31"/>
     </row>
     <row r="276" spans="1:9" ht="45">
-      <c r="A276" s="21" t="s">
-        <v>517</v>
+      <c r="A276" s="29" t="s">
+        <v>220</v>
       </c>
       <c r="B276" s="30" t="s">
         <v>267</v>
       </c>
-      <c r="C276" s="34" t="s">
-        <v>515</v>
-      </c>
-      <c r="D276" s="32"/>
+      <c r="C276" s="31" t="s">
+        <v>396</v>
+      </c>
+      <c r="D276" s="29"/>
       <c r="E276" s="29" t="s">
         <v>19</v>
       </c>
       <c r="F276" s="29" t="s">
         <v>3</v>
       </c>
-      <c r="G276" s="32" t="s">
-        <v>15</v>
-      </c>
-      <c r="H276" s="32" t="s">
+      <c r="G276" s="29" t="s">
+        <v>15</v>
+      </c>
+      <c r="H276" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="I276" s="34"/>
-    </row>
-    <row r="277" spans="1:9" ht="60">
-      <c r="A277" s="21" t="s">
-        <v>518</v>
+      <c r="I276" s="31"/>
+    </row>
+    <row r="277" spans="1:9" ht="75">
+      <c r="A277" s="29" t="s">
+        <v>221</v>
       </c>
       <c r="B277" s="30" t="s">
         <v>267</v>
       </c>
-      <c r="C277" s="34" t="s">
-        <v>516</v>
-      </c>
-      <c r="D277" s="32"/>
+      <c r="C277" s="19" t="s">
+        <v>513</v>
+      </c>
+      <c r="D277" s="29"/>
       <c r="E277" s="29" t="s">
         <v>19</v>
       </c>
       <c r="F277" s="29" t="s">
         <v>3</v>
       </c>
-      <c r="G277" s="32" t="s">
-        <v>15</v>
-      </c>
-      <c r="H277" s="32" t="s">
+      <c r="G277" s="29" t="s">
+        <v>15</v>
+      </c>
+      <c r="H277" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="I277" s="34"/>
-    </row>
-    <row r="278" spans="1:9" ht="30">
+      <c r="I277" s="31"/>
+    </row>
+    <row r="278" spans="1:9" ht="60">
       <c r="A278" s="29" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="B278" s="30" t="s">
         <v>267</v>
       </c>
       <c r="C278" s="19" t="s">
-        <v>397</v>
+        <v>514</v>
       </c>
       <c r="D278" s="29"/>
       <c r="E278" s="29" t="s">
@@ -11313,72 +11333,72 @@
         <v>3</v>
       </c>
       <c r="G278" s="29" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H278" s="29" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I278" s="31"/>
     </row>
-    <row r="279" spans="1:9" ht="30">
-      <c r="A279" s="29" t="s">
-        <v>231</v>
-      </c>
-      <c r="B279" s="23" t="s">
-        <v>268</v>
-      </c>
-      <c r="C279" s="31" t="s">
-        <v>401</v>
-      </c>
-      <c r="D279" s="29"/>
+    <row r="279" spans="1:9" ht="45">
+      <c r="A279" s="21" t="s">
+        <v>517</v>
+      </c>
+      <c r="B279" s="30" t="s">
+        <v>267</v>
+      </c>
+      <c r="C279" s="34" t="s">
+        <v>515</v>
+      </c>
+      <c r="D279" s="32"/>
       <c r="E279" s="29" t="s">
         <v>19</v>
       </c>
       <c r="F279" s="29" t="s">
         <v>3</v>
       </c>
-      <c r="G279" s="29" t="s">
-        <v>16</v>
-      </c>
-      <c r="H279" s="29" t="s">
-        <v>18</v>
-      </c>
-      <c r="I279" s="31"/>
-    </row>
-    <row r="280" spans="1:9" ht="75">
-      <c r="A280" s="29" t="s">
-        <v>232</v>
-      </c>
-      <c r="B280" s="23" t="s">
-        <v>268</v>
-      </c>
-      <c r="C280" s="31" t="s">
-        <v>402</v>
-      </c>
-      <c r="D280" s="29"/>
+      <c r="G279" s="32" t="s">
+        <v>15</v>
+      </c>
+      <c r="H279" s="32" t="s">
+        <v>20</v>
+      </c>
+      <c r="I279" s="34"/>
+    </row>
+    <row r="280" spans="1:9" ht="60">
+      <c r="A280" s="21" t="s">
+        <v>518</v>
+      </c>
+      <c r="B280" s="30" t="s">
+        <v>267</v>
+      </c>
+      <c r="C280" s="34" t="s">
+        <v>516</v>
+      </c>
+      <c r="D280" s="32"/>
       <c r="E280" s="29" t="s">
         <v>19</v>
       </c>
       <c r="F280" s="29" t="s">
         <v>3</v>
       </c>
-      <c r="G280" s="29" t="s">
-        <v>15</v>
-      </c>
-      <c r="H280" s="29" t="s">
-        <v>21</v>
-      </c>
-      <c r="I280" s="31"/>
-    </row>
-    <row r="281" spans="1:9" ht="300">
+      <c r="G280" s="32" t="s">
+        <v>15</v>
+      </c>
+      <c r="H280" s="32" t="s">
+        <v>20</v>
+      </c>
+      <c r="I280" s="34"/>
+    </row>
+    <row r="281" spans="1:9" ht="30">
       <c r="A281" s="29" t="s">
-        <v>233</v>
-      </c>
-      <c r="B281" s="23" t="s">
-        <v>268</v>
-      </c>
-      <c r="C281" s="31" t="s">
-        <v>403</v>
+        <v>223</v>
+      </c>
+      <c r="B281" s="30" t="s">
+        <v>267</v>
+      </c>
+      <c r="C281" s="19" t="s">
+        <v>397</v>
       </c>
       <c r="D281" s="29"/>
       <c r="E281" s="29" t="s">
@@ -11388,22 +11408,22 @@
         <v>3</v>
       </c>
       <c r="G281" s="29" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H281" s="29" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="I281" s="31"/>
     </row>
-    <row r="282" spans="1:9" ht="45">
+    <row r="282" spans="1:9" ht="30">
       <c r="A282" s="29" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="B282" s="23" t="s">
         <v>268</v>
       </c>
       <c r="C282" s="31" t="s">
-        <v>404</v>
+        <v>401</v>
       </c>
       <c r="D282" s="29"/>
       <c r="E282" s="29" t="s">
@@ -11413,22 +11433,22 @@
         <v>3</v>
       </c>
       <c r="G282" s="29" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H282" s="29" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="I282" s="31"/>
     </row>
-    <row r="283" spans="1:9" ht="45">
+    <row r="283" spans="1:9" ht="75">
       <c r="A283" s="29" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="B283" s="23" t="s">
         <v>268</v>
       </c>
       <c r="C283" s="31" t="s">
-        <v>405</v>
+        <v>402</v>
       </c>
       <c r="D283" s="29"/>
       <c r="E283" s="29" t="s">
@@ -11441,19 +11461,19 @@
         <v>15</v>
       </c>
       <c r="H283" s="29" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="I283" s="31"/>
     </row>
-    <row r="284" spans="1:9" ht="45">
+    <row r="284" spans="1:9" ht="300">
       <c r="A284" s="29" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="B284" s="23" t="s">
         <v>268</v>
       </c>
       <c r="C284" s="31" t="s">
-        <v>406</v>
+        <v>403</v>
       </c>
       <c r="D284" s="29"/>
       <c r="E284" s="29" t="s">
@@ -11466,19 +11486,19 @@
         <v>15</v>
       </c>
       <c r="H284" s="29" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="I284" s="31"/>
     </row>
-    <row r="285" spans="1:9" ht="30">
+    <row r="285" spans="1:9" ht="45">
       <c r="A285" s="29" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="B285" s="23" t="s">
         <v>268</v>
       </c>
       <c r="C285" s="31" t="s">
-        <v>407</v>
+        <v>404</v>
       </c>
       <c r="D285" s="29"/>
       <c r="E285" s="29" t="s">
@@ -11488,22 +11508,22 @@
         <v>3</v>
       </c>
       <c r="G285" s="29" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H285" s="29" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I285" s="31"/>
     </row>
-    <row r="286" spans="1:9" ht="30">
+    <row r="286" spans="1:9" ht="45">
       <c r="A286" s="29" t="s">
-        <v>200</v>
+        <v>235</v>
       </c>
       <c r="B286" s="23" t="s">
-        <v>269</v>
-      </c>
-      <c r="C286" s="19" t="s">
-        <v>519</v>
+        <v>268</v>
+      </c>
+      <c r="C286" s="31" t="s">
+        <v>405</v>
       </c>
       <c r="D286" s="29"/>
       <c r="E286" s="29" t="s">
@@ -11513,22 +11533,22 @@
         <v>3</v>
       </c>
       <c r="G286" s="29" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H286" s="29" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I286" s="31"/>
     </row>
-    <row r="287" spans="1:9" ht="75">
+    <row r="287" spans="1:9" ht="45">
       <c r="A287" s="29" t="s">
-        <v>201</v>
+        <v>236</v>
       </c>
       <c r="B287" s="23" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="C287" s="31" t="s">
-        <v>384</v>
+        <v>406</v>
       </c>
       <c r="D287" s="29"/>
       <c r="E287" s="29" t="s">
@@ -11541,19 +11561,19 @@
         <v>15</v>
       </c>
       <c r="H287" s="29" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="I287" s="31"/>
     </row>
-    <row r="288" spans="1:9" ht="330">
+    <row r="288" spans="1:9" ht="30">
       <c r="A288" s="29" t="s">
-        <v>202</v>
+        <v>237</v>
       </c>
       <c r="B288" s="23" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="C288" s="31" t="s">
-        <v>385</v>
+        <v>407</v>
       </c>
       <c r="D288" s="29"/>
       <c r="E288" s="29" t="s">
@@ -11563,22 +11583,22 @@
         <v>3</v>
       </c>
       <c r="G288" s="29" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H288" s="29" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="I288" s="31"/>
     </row>
-    <row r="289" spans="1:10" ht="30">
+    <row r="289" spans="1:9" ht="30">
       <c r="A289" s="29" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="B289" s="23" t="s">
         <v>269</v>
       </c>
-      <c r="C289" s="31" t="s">
-        <v>386</v>
+      <c r="C289" s="19" t="s">
+        <v>519</v>
       </c>
       <c r="D289" s="29"/>
       <c r="E289" s="29" t="s">
@@ -11595,65 +11615,65 @@
       </c>
       <c r="I289" s="31"/>
     </row>
-    <row r="290" spans="1:10" ht="30" hidden="1">
+    <row r="290" spans="1:9" ht="75">
       <c r="A290" s="29" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="B290" s="23" t="s">
         <v>269</v>
       </c>
       <c r="C290" s="31" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
       <c r="D290" s="29"/>
       <c r="E290" s="29" t="s">
         <v>19</v>
       </c>
       <c r="F290" s="29" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="G290" s="29" t="s">
         <v>15</v>
       </c>
       <c r="H290" s="29" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="I290" s="31"/>
     </row>
-    <row r="291" spans="1:10" ht="30" hidden="1">
+    <row r="291" spans="1:9" ht="330">
       <c r="A291" s="29" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="B291" s="23" t="s">
         <v>269</v>
       </c>
       <c r="C291" s="31" t="s">
-        <v>388</v>
+        <v>385</v>
       </c>
       <c r="D291" s="29"/>
       <c r="E291" s="29" t="s">
         <v>19</v>
       </c>
       <c r="F291" s="29" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="G291" s="29" t="s">
         <v>15</v>
       </c>
       <c r="H291" s="29" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="I291" s="31"/>
     </row>
-    <row r="292" spans="1:10" ht="45">
+    <row r="292" spans="1:9" ht="30">
       <c r="A292" s="29" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="B292" s="23" t="s">
         <v>269</v>
       </c>
       <c r="C292" s="31" t="s">
-        <v>389</v>
+        <v>386</v>
       </c>
       <c r="D292" s="29"/>
       <c r="E292" s="29" t="s">
@@ -11663,122 +11683,122 @@
         <v>3</v>
       </c>
       <c r="G292" s="29" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H292" s="29" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="I292" s="31"/>
     </row>
-    <row r="293" spans="1:10" ht="75">
+    <row r="293" spans="1:9" ht="30" hidden="1">
       <c r="A293" s="29" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="B293" s="23" t="s">
         <v>269</v>
       </c>
-      <c r="C293" s="19" t="s">
-        <v>520</v>
+      <c r="C293" s="31" t="s">
+        <v>387</v>
       </c>
       <c r="D293" s="29"/>
       <c r="E293" s="29" t="s">
         <v>19</v>
       </c>
       <c r="F293" s="29" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="G293" s="29" t="s">
         <v>15</v>
       </c>
       <c r="H293" s="29" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="I293" s="31"/>
     </row>
-    <row r="294" spans="1:10" ht="60">
+    <row r="294" spans="1:9" ht="30" hidden="1">
       <c r="A294" s="29" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="B294" s="23" t="s">
         <v>269</v>
       </c>
-      <c r="C294" s="19" t="s">
-        <v>521</v>
+      <c r="C294" s="31" t="s">
+        <v>388</v>
       </c>
       <c r="D294" s="29"/>
       <c r="E294" s="29" t="s">
         <v>19</v>
       </c>
       <c r="F294" s="29" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="G294" s="29" t="s">
         <v>15</v>
       </c>
       <c r="H294" s="29" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="I294" s="31"/>
     </row>
-    <row r="295" spans="1:10" ht="45">
-      <c r="A295" s="21" t="s">
-        <v>524</v>
+    <row r="295" spans="1:9" ht="45">
+      <c r="A295" s="29" t="s">
+        <v>206</v>
       </c>
       <c r="B295" s="23" t="s">
         <v>269</v>
       </c>
-      <c r="C295" s="34" t="s">
-        <v>522</v>
-      </c>
-      <c r="D295" s="32"/>
+      <c r="C295" s="31" t="s">
+        <v>389</v>
+      </c>
+      <c r="D295" s="29"/>
       <c r="E295" s="29" t="s">
         <v>19</v>
       </c>
       <c r="F295" s="29" t="s">
         <v>3</v>
       </c>
-      <c r="G295" s="32" t="s">
-        <v>15</v>
-      </c>
-      <c r="H295" s="32" t="s">
+      <c r="G295" s="29" t="s">
+        <v>15</v>
+      </c>
+      <c r="H295" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="I295" s="34"/>
-    </row>
-    <row r="296" spans="1:10" ht="60">
-      <c r="A296" s="21" t="s">
-        <v>525</v>
+      <c r="I295" s="31"/>
+    </row>
+    <row r="296" spans="1:9" ht="75">
+      <c r="A296" s="29" t="s">
+        <v>207</v>
       </c>
       <c r="B296" s="23" t="s">
         <v>269</v>
       </c>
-      <c r="C296" s="34" t="s">
-        <v>523</v>
-      </c>
-      <c r="D296" s="32"/>
+      <c r="C296" s="19" t="s">
+        <v>520</v>
+      </c>
+      <c r="D296" s="29"/>
       <c r="E296" s="29" t="s">
         <v>19</v>
       </c>
       <c r="F296" s="29" t="s">
         <v>3</v>
       </c>
-      <c r="G296" s="32" t="s">
-        <v>15</v>
-      </c>
-      <c r="H296" s="32" t="s">
+      <c r="G296" s="29" t="s">
+        <v>15</v>
+      </c>
+      <c r="H296" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="I296" s="34"/>
-    </row>
-    <row r="297" spans="1:10" ht="30">
+      <c r="I296" s="31"/>
+    </row>
+    <row r="297" spans="1:9" ht="60">
       <c r="A297" s="29" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B297" s="23" t="s">
         <v>269</v>
       </c>
-      <c r="C297" s="31" t="s">
-        <v>390</v>
+      <c r="C297" s="19" t="s">
+        <v>521</v>
       </c>
       <c r="D297" s="29"/>
       <c r="E297" s="29" t="s">
@@ -11788,80 +11808,76 @@
         <v>3</v>
       </c>
       <c r="G297" s="29" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H297" s="29" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I297" s="31"/>
     </row>
-    <row r="298" spans="1:10" s="50" customFormat="1" ht="60">
-      <c r="A298" s="29" t="s">
-        <v>238</v>
-      </c>
-      <c r="B298" s="30" t="s">
-        <v>270</v>
-      </c>
-      <c r="C298" s="31" t="s">
-        <v>408</v>
-      </c>
-      <c r="D298" s="29"/>
+    <row r="298" spans="1:9" ht="45">
+      <c r="A298" s="21" t="s">
+        <v>524</v>
+      </c>
+      <c r="B298" s="23" t="s">
+        <v>269</v>
+      </c>
+      <c r="C298" s="34" t="s">
+        <v>522</v>
+      </c>
+      <c r="D298" s="32"/>
       <c r="E298" s="29" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="F298" s="29" t="s">
         <v>3</v>
       </c>
-      <c r="G298" s="29" t="s">
-        <v>16</v>
-      </c>
-      <c r="H298" s="29" t="s">
-        <v>18</v>
-      </c>
-      <c r="I298" s="31"/>
-    </row>
-    <row r="299" spans="1:10" s="50" customFormat="1" ht="45">
-      <c r="A299" s="29" t="s">
-        <v>239</v>
-      </c>
-      <c r="B299" s="30" t="s">
-        <v>270</v>
-      </c>
-      <c r="C299" s="19" t="s">
-        <v>409</v>
-      </c>
-      <c r="D299" s="29" t="s">
-        <v>425</v>
-      </c>
+      <c r="G298" s="32" t="s">
+        <v>15</v>
+      </c>
+      <c r="H298" s="32" t="s">
+        <v>20</v>
+      </c>
+      <c r="I298" s="34"/>
+    </row>
+    <row r="299" spans="1:9" ht="60">
+      <c r="A299" s="21" t="s">
+        <v>525</v>
+      </c>
+      <c r="B299" s="23" t="s">
+        <v>269</v>
+      </c>
+      <c r="C299" s="34" t="s">
+        <v>523</v>
+      </c>
+      <c r="D299" s="32"/>
       <c r="E299" s="29" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="F299" s="29" t="s">
         <v>3</v>
       </c>
-      <c r="G299" s="29" t="s">
-        <v>15</v>
-      </c>
-      <c r="H299" s="29" t="s">
-        <v>21</v>
-      </c>
-      <c r="I299" s="31" t="s">
-        <v>427</v>
-      </c>
-    </row>
-    <row r="300" spans="1:10" s="50" customFormat="1" ht="30">
+      <c r="G299" s="32" t="s">
+        <v>15</v>
+      </c>
+      <c r="H299" s="32" t="s">
+        <v>20</v>
+      </c>
+      <c r="I299" s="34"/>
+    </row>
+    <row r="300" spans="1:9" ht="30">
       <c r="A300" s="29" t="s">
-        <v>240</v>
-      </c>
-      <c r="B300" s="30" t="s">
-        <v>270</v>
+        <v>209</v>
+      </c>
+      <c r="B300" s="23" t="s">
+        <v>269</v>
       </c>
       <c r="C300" s="31" t="s">
-        <v>410</v>
+        <v>390</v>
       </c>
       <c r="D300" s="29"/>
       <c r="E300" s="29" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="F300" s="29" t="s">
         <v>3</v>
@@ -11874,144 +11890,145 @@
       </c>
       <c r="I300" s="31"/>
     </row>
-    <row r="301" spans="1:10" s="50" customFormat="1" ht="60">
-      <c r="A301" s="21" t="s">
-        <v>528</v>
+    <row r="301" spans="1:9" s="37" customFormat="1" ht="60">
+      <c r="A301" s="29" t="s">
+        <v>238</v>
       </c>
       <c r="B301" s="30" t="s">
         <v>270</v>
       </c>
-      <c r="C301" s="19" t="s">
-        <v>698</v>
-      </c>
-      <c r="D301" s="32"/>
+      <c r="C301" s="31" t="s">
+        <v>408</v>
+      </c>
+      <c r="D301" s="29"/>
       <c r="E301" s="29" t="s">
         <v>22</v>
       </c>
       <c r="F301" s="29" t="s">
         <v>3</v>
       </c>
-      <c r="G301" s="32" t="s">
-        <v>15</v>
-      </c>
-      <c r="H301" s="32" t="s">
-        <v>18</v>
-      </c>
-      <c r="I301" s="19"/>
-    </row>
-    <row r="302" spans="1:10" s="50" customFormat="1" ht="45">
-      <c r="A302" s="21" t="s">
-        <v>529</v>
-      </c>
-      <c r="B302" s="35">
-        <v>8</v>
+      <c r="G301" s="29" t="s">
+        <v>16</v>
+      </c>
+      <c r="H301" s="29" t="s">
+        <v>18</v>
+      </c>
+      <c r="I301" s="31"/>
+    </row>
+    <row r="302" spans="1:9" s="37" customFormat="1" ht="45">
+      <c r="A302" s="29" t="s">
+        <v>239</v>
+      </c>
+      <c r="B302" s="30" t="s">
+        <v>270</v>
       </c>
       <c r="C302" s="19" t="s">
-        <v>699</v>
-      </c>
-      <c r="D302" s="32"/>
+        <v>409</v>
+      </c>
+      <c r="D302" s="29" t="s">
+        <v>425</v>
+      </c>
       <c r="E302" s="29" t="s">
         <v>22</v>
       </c>
       <c r="F302" s="29" t="s">
         <v>3</v>
       </c>
-      <c r="G302" s="32" t="s">
-        <v>15</v>
-      </c>
-      <c r="H302" s="32" t="s">
-        <v>18</v>
-      </c>
-      <c r="I302" s="19"/>
-      <c r="J302" s="52"/>
-    </row>
-    <row r="303" spans="1:10" s="50" customFormat="1" ht="60">
-      <c r="A303" s="21" t="s">
+      <c r="G302" s="29" t="s">
+        <v>15</v>
+      </c>
+      <c r="H302" s="29" t="s">
+        <v>21</v>
+      </c>
+      <c r="I302" s="31" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="303" spans="1:9" s="37" customFormat="1" ht="30">
+      <c r="A303" s="29" t="s">
+        <v>240</v>
+      </c>
+      <c r="B303" s="30" t="s">
+        <v>270</v>
+      </c>
+      <c r="C303" s="31" t="s">
+        <v>410</v>
+      </c>
+      <c r="D303" s="29"/>
+      <c r="E303" s="29" t="s">
+        <v>22</v>
+      </c>
+      <c r="F303" s="29" t="s">
+        <v>3</v>
+      </c>
+      <c r="G303" s="29" t="s">
+        <v>16</v>
+      </c>
+      <c r="H303" s="29" t="s">
+        <v>18</v>
+      </c>
+      <c r="I303" s="31"/>
+    </row>
+    <row r="304" spans="1:9" s="37" customFormat="1" ht="60">
+      <c r="A304" s="21" t="s">
+        <v>528</v>
+      </c>
+      <c r="B304" s="30" t="s">
+        <v>270</v>
+      </c>
+      <c r="C304" s="19" t="s">
+        <v>698</v>
+      </c>
+      <c r="D304" s="32"/>
+      <c r="E304" s="29" t="s">
+        <v>22</v>
+      </c>
+      <c r="F304" s="29" t="s">
+        <v>3</v>
+      </c>
+      <c r="G304" s="32" t="s">
+        <v>15</v>
+      </c>
+      <c r="H304" s="32" t="s">
+        <v>18</v>
+      </c>
+      <c r="I304" s="19"/>
+    </row>
+    <row r="305" spans="1:10" s="37" customFormat="1" ht="45">
+      <c r="A305" s="21" t="s">
+        <v>529</v>
+      </c>
+      <c r="B305" s="35">
+        <v>8</v>
+      </c>
+      <c r="C305" s="19" t="s">
+        <v>699</v>
+      </c>
+      <c r="D305" s="32"/>
+      <c r="E305" s="29" t="s">
+        <v>22</v>
+      </c>
+      <c r="F305" s="29" t="s">
+        <v>3</v>
+      </c>
+      <c r="G305" s="32" t="s">
+        <v>15</v>
+      </c>
+      <c r="H305" s="32" t="s">
+        <v>18</v>
+      </c>
+      <c r="I305" s="19"/>
+      <c r="J305" s="39"/>
+    </row>
+    <row r="306" spans="1:10" s="37" customFormat="1" ht="60">
+      <c r="A306" s="21" t="s">
         <v>702</v>
-      </c>
-      <c r="B303" s="36">
-        <v>8</v>
-      </c>
-      <c r="C303" s="19" t="s">
-        <v>719</v>
-      </c>
-      <c r="D303" s="32"/>
-      <c r="E303" s="32" t="s">
-        <v>22</v>
-      </c>
-      <c r="F303" s="32" t="s">
-        <v>3</v>
-      </c>
-      <c r="G303" s="32" t="s">
-        <v>15</v>
-      </c>
-      <c r="H303" s="32" t="s">
-        <v>18</v>
-      </c>
-      <c r="I303" s="19"/>
-      <c r="J303" s="52"/>
-    </row>
-    <row r="304" spans="1:10" s="50" customFormat="1" ht="45">
-      <c r="A304" s="21" t="s">
-        <v>703</v>
-      </c>
-      <c r="B304" s="36">
-        <v>8</v>
-      </c>
-      <c r="C304" s="19" t="s">
-        <v>714</v>
-      </c>
-      <c r="D304" s="32"/>
-      <c r="E304" s="32" t="s">
-        <v>22</v>
-      </c>
-      <c r="F304" s="32" t="s">
-        <v>3</v>
-      </c>
-      <c r="G304" s="32" t="s">
-        <v>15</v>
-      </c>
-      <c r="H304" s="32" t="s">
-        <v>18</v>
-      </c>
-      <c r="I304" s="19"/>
-      <c r="J304" s="52"/>
-    </row>
-    <row r="305" spans="1:10" s="50" customFormat="1" ht="60">
-      <c r="A305" s="21" t="s">
-        <v>704</v>
-      </c>
-      <c r="B305" s="36">
-        <v>8</v>
-      </c>
-      <c r="C305" s="19" t="s">
-        <v>715</v>
-      </c>
-      <c r="D305" s="32"/>
-      <c r="E305" s="32" t="s">
-        <v>22</v>
-      </c>
-      <c r="F305" s="32" t="s">
-        <v>3</v>
-      </c>
-      <c r="G305" s="32" t="s">
-        <v>15</v>
-      </c>
-      <c r="H305" s="32" t="s">
-        <v>18</v>
-      </c>
-      <c r="I305" s="19"/>
-      <c r="J305" s="52"/>
-    </row>
-    <row r="306" spans="1:10" s="50" customFormat="1" ht="45">
-      <c r="A306" s="21" t="s">
-        <v>705</v>
       </c>
       <c r="B306" s="36">
         <v>8</v>
       </c>
       <c r="C306" s="19" t="s">
-        <v>716</v>
+        <v>719</v>
       </c>
       <c r="D306" s="32"/>
       <c r="E306" s="32" t="s">
@@ -12027,17 +12044,17 @@
         <v>18</v>
       </c>
       <c r="I306" s="19"/>
-      <c r="J306" s="52"/>
-    </row>
-    <row r="307" spans="1:10" s="50" customFormat="1" ht="60">
+      <c r="J306" s="39"/>
+    </row>
+    <row r="307" spans="1:10" s="37" customFormat="1" ht="45">
       <c r="A307" s="21" t="s">
-        <v>706</v>
+        <v>703</v>
       </c>
       <c r="B307" s="36">
         <v>8</v>
       </c>
       <c r="C307" s="19" t="s">
-        <v>717</v>
+        <v>714</v>
       </c>
       <c r="D307" s="32"/>
       <c r="E307" s="32" t="s">
@@ -12053,17 +12070,17 @@
         <v>18</v>
       </c>
       <c r="I307" s="19"/>
-      <c r="J307" s="52"/>
-    </row>
-    <row r="308" spans="1:10" s="50" customFormat="1" ht="45">
+      <c r="J307" s="39"/>
+    </row>
+    <row r="308" spans="1:10" s="37" customFormat="1" ht="60">
       <c r="A308" s="21" t="s">
-        <v>707</v>
+        <v>704</v>
       </c>
       <c r="B308" s="36">
         <v>8</v>
       </c>
       <c r="C308" s="19" t="s">
-        <v>718</v>
+        <v>715</v>
       </c>
       <c r="D308" s="32"/>
       <c r="E308" s="32" t="s">
@@ -12079,17 +12096,17 @@
         <v>18</v>
       </c>
       <c r="I308" s="19"/>
-      <c r="J308" s="52"/>
-    </row>
-    <row r="309" spans="1:10" s="50" customFormat="1" ht="60">
+      <c r="J308" s="39"/>
+    </row>
+    <row r="309" spans="1:10" s="37" customFormat="1" ht="45">
       <c r="A309" s="21" t="s">
-        <v>708</v>
+        <v>705</v>
       </c>
       <c r="B309" s="36">
         <v>8</v>
       </c>
       <c r="C309" s="19" t="s">
-        <v>720</v>
+        <v>716</v>
       </c>
       <c r="D309" s="32"/>
       <c r="E309" s="32" t="s">
@@ -12105,17 +12122,17 @@
         <v>18</v>
       </c>
       <c r="I309" s="19"/>
-      <c r="J309" s="52"/>
-    </row>
-    <row r="310" spans="1:10" s="50" customFormat="1" ht="45">
+      <c r="J309" s="39"/>
+    </row>
+    <row r="310" spans="1:10" s="37" customFormat="1" ht="60">
       <c r="A310" s="21" t="s">
-        <v>709</v>
+        <v>706</v>
       </c>
       <c r="B310" s="36">
         <v>8</v>
       </c>
       <c r="C310" s="19" t="s">
-        <v>721</v>
+        <v>717</v>
       </c>
       <c r="D310" s="32"/>
       <c r="E310" s="32" t="s">
@@ -12131,21 +12148,19 @@
         <v>18</v>
       </c>
       <c r="I310" s="19"/>
-      <c r="J310" s="52"/>
-    </row>
-    <row r="311" spans="1:10" s="50" customFormat="1" ht="60">
+      <c r="J310" s="39"/>
+    </row>
+    <row r="311" spans="1:10" s="37" customFormat="1" ht="45">
       <c r="A311" s="21" t="s">
-        <v>710</v>
+        <v>707</v>
       </c>
       <c r="B311" s="36">
         <v>8</v>
       </c>
       <c r="C311" s="19" t="s">
-        <v>722</v>
-      </c>
-      <c r="D311" s="21" t="s">
-        <v>758</v>
-      </c>
+        <v>718</v>
+      </c>
+      <c r="D311" s="32"/>
       <c r="E311" s="32" t="s">
         <v>22</v>
       </c>
@@ -12159,21 +12174,19 @@
         <v>18</v>
       </c>
       <c r="I311" s="19"/>
-      <c r="J311" s="52"/>
-    </row>
-    <row r="312" spans="1:10" s="50" customFormat="1" ht="45">
+      <c r="J311" s="39"/>
+    </row>
+    <row r="312" spans="1:10" s="37" customFormat="1" ht="60">
       <c r="A312" s="21" t="s">
-        <v>711</v>
+        <v>708</v>
       </c>
       <c r="B312" s="36">
         <v>8</v>
       </c>
       <c r="C312" s="19" t="s">
-        <v>723</v>
-      </c>
-      <c r="D312" s="21" t="s">
-        <v>758</v>
-      </c>
+        <v>720</v>
+      </c>
+      <c r="D312" s="32"/>
       <c r="E312" s="32" t="s">
         <v>22</v>
       </c>
@@ -12187,21 +12200,19 @@
         <v>18</v>
       </c>
       <c r="I312" s="19"/>
-      <c r="J312" s="52"/>
-    </row>
-    <row r="313" spans="1:10" s="50" customFormat="1" ht="60">
+      <c r="J312" s="39"/>
+    </row>
+    <row r="313" spans="1:10" s="37" customFormat="1" ht="45">
       <c r="A313" s="21" t="s">
-        <v>712</v>
+        <v>709</v>
       </c>
       <c r="B313" s="36">
         <v>8</v>
       </c>
       <c r="C313" s="19" t="s">
-        <v>724</v>
-      </c>
-      <c r="D313" s="21" t="s">
-        <v>760</v>
-      </c>
+        <v>721</v>
+      </c>
+      <c r="D313" s="32"/>
       <c r="E313" s="32" t="s">
         <v>22</v>
       </c>
@@ -12215,20 +12226,20 @@
         <v>18</v>
       </c>
       <c r="I313" s="19"/>
-      <c r="J313" s="52"/>
-    </row>
-    <row r="314" spans="1:10" s="50" customFormat="1" ht="45">
+      <c r="J313" s="39"/>
+    </row>
+    <row r="314" spans="1:10" s="37" customFormat="1" ht="60">
       <c r="A314" s="21" t="s">
-        <v>713</v>
+        <v>710</v>
       </c>
       <c r="B314" s="36">
         <v>8</v>
       </c>
       <c r="C314" s="19" t="s">
-        <v>714</v>
+        <v>722</v>
       </c>
       <c r="D314" s="21" t="s">
-        <v>760</v>
+        <v>758</v>
       </c>
       <c r="E314" s="32" t="s">
         <v>22</v>
@@ -12243,20 +12254,20 @@
         <v>18</v>
       </c>
       <c r="I314" s="19"/>
-      <c r="J314" s="52"/>
-    </row>
-    <row r="315" spans="1:10" s="50" customFormat="1" ht="60">
+      <c r="J314" s="39"/>
+    </row>
+    <row r="315" spans="1:10" s="37" customFormat="1" ht="45">
       <c r="A315" s="21" t="s">
-        <v>725</v>
-      </c>
-      <c r="B315" s="35">
+        <v>711</v>
+      </c>
+      <c r="B315" s="36">
         <v>8</v>
       </c>
       <c r="C315" s="19" t="s">
-        <v>727</v>
+        <v>723</v>
       </c>
       <c r="D315" s="21" t="s">
-        <v>534</v>
+        <v>758</v>
       </c>
       <c r="E315" s="32" t="s">
         <v>22</v>
@@ -12271,20 +12282,20 @@
         <v>18</v>
       </c>
       <c r="I315" s="19"/>
-      <c r="J315" s="52"/>
-    </row>
-    <row r="316" spans="1:10" s="50" customFormat="1" ht="45">
+      <c r="J315" s="39"/>
+    </row>
+    <row r="316" spans="1:10" s="37" customFormat="1" ht="60">
       <c r="A316" s="21" t="s">
-        <v>726</v>
-      </c>
-      <c r="B316" s="35">
+        <v>712</v>
+      </c>
+      <c r="B316" s="36">
         <v>8</v>
       </c>
       <c r="C316" s="19" t="s">
-        <v>728</v>
+        <v>724</v>
       </c>
       <c r="D316" s="21" t="s">
-        <v>534</v>
+        <v>760</v>
       </c>
       <c r="E316" s="32" t="s">
         <v>22</v>
@@ -12299,104 +12310,104 @@
         <v>18</v>
       </c>
       <c r="I316" s="19"/>
-      <c r="J316" s="52"/>
-    </row>
-    <row r="317" spans="1:10" s="50" customFormat="1" ht="60">
+      <c r="J316" s="39"/>
+    </row>
+    <row r="317" spans="1:10" s="37" customFormat="1" ht="45">
       <c r="A317" s="21" t="s">
+        <v>713</v>
+      </c>
+      <c r="B317" s="36">
+        <v>8</v>
+      </c>
+      <c r="C317" s="19" t="s">
+        <v>714</v>
+      </c>
+      <c r="D317" s="21" t="s">
+        <v>760</v>
+      </c>
+      <c r="E317" s="32" t="s">
+        <v>22</v>
+      </c>
+      <c r="F317" s="32" t="s">
+        <v>3</v>
+      </c>
+      <c r="G317" s="32" t="s">
+        <v>15</v>
+      </c>
+      <c r="H317" s="32" t="s">
+        <v>18</v>
+      </c>
+      <c r="I317" s="19"/>
+      <c r="J317" s="39"/>
+    </row>
+    <row r="318" spans="1:10" s="37" customFormat="1" ht="60">
+      <c r="A318" s="21" t="s">
+        <v>725</v>
+      </c>
+      <c r="B318" s="35">
+        <v>8</v>
+      </c>
+      <c r="C318" s="19" t="s">
+        <v>727</v>
+      </c>
+      <c r="D318" s="21" t="s">
+        <v>534</v>
+      </c>
+      <c r="E318" s="32" t="s">
+        <v>22</v>
+      </c>
+      <c r="F318" s="32" t="s">
+        <v>3</v>
+      </c>
+      <c r="G318" s="32" t="s">
+        <v>15</v>
+      </c>
+      <c r="H318" s="32" t="s">
+        <v>18</v>
+      </c>
+      <c r="I318" s="19"/>
+      <c r="J318" s="39"/>
+    </row>
+    <row r="319" spans="1:10" s="37" customFormat="1" ht="45">
+      <c r="A319" s="21" t="s">
+        <v>726</v>
+      </c>
+      <c r="B319" s="35">
+        <v>8</v>
+      </c>
+      <c r="C319" s="19" t="s">
+        <v>728</v>
+      </c>
+      <c r="D319" s="21" t="s">
+        <v>534</v>
+      </c>
+      <c r="E319" s="32" t="s">
+        <v>22</v>
+      </c>
+      <c r="F319" s="32" t="s">
+        <v>3</v>
+      </c>
+      <c r="G319" s="32" t="s">
+        <v>15</v>
+      </c>
+      <c r="H319" s="32" t="s">
+        <v>18</v>
+      </c>
+      <c r="I319" s="19"/>
+      <c r="J319" s="39"/>
+    </row>
+    <row r="320" spans="1:10" s="37" customFormat="1" ht="60">
+      <c r="A320" s="21" t="s">
         <v>530</v>
-      </c>
-      <c r="B317" s="30" t="s">
-        <v>270</v>
-      </c>
-      <c r="C317" s="19" t="s">
-        <v>701</v>
-      </c>
-      <c r="D317" s="32" t="s">
-        <v>535</v>
-      </c>
-      <c r="E317" s="29" t="s">
-        <v>22</v>
-      </c>
-      <c r="F317" s="29" t="s">
-        <v>3</v>
-      </c>
-      <c r="G317" s="32" t="s">
-        <v>15</v>
-      </c>
-      <c r="H317" s="32" t="s">
-        <v>18</v>
-      </c>
-      <c r="I317" s="19"/>
-      <c r="J317" s="52"/>
-    </row>
-    <row r="318" spans="1:10" s="50" customFormat="1" ht="45">
-      <c r="A318" s="21" t="s">
-        <v>531</v>
-      </c>
-      <c r="B318" s="30" t="s">
-        <v>270</v>
-      </c>
-      <c r="C318" s="19" t="s">
-        <v>527</v>
-      </c>
-      <c r="D318" s="32" t="s">
-        <v>535</v>
-      </c>
-      <c r="E318" s="29" t="s">
-        <v>22</v>
-      </c>
-      <c r="F318" s="29" t="s">
-        <v>3</v>
-      </c>
-      <c r="G318" s="32" t="s">
-        <v>15</v>
-      </c>
-      <c r="H318" s="32" t="s">
-        <v>18</v>
-      </c>
-      <c r="I318" s="19"/>
-      <c r="J318" s="52"/>
-    </row>
-    <row r="319" spans="1:10" s="50" customFormat="1" ht="60">
-      <c r="A319" s="21" t="s">
-        <v>532</v>
-      </c>
-      <c r="B319" s="30" t="s">
-        <v>270</v>
-      </c>
-      <c r="C319" s="19" t="s">
-        <v>700</v>
-      </c>
-      <c r="D319" s="32" t="s">
-        <v>536</v>
-      </c>
-      <c r="E319" s="29" t="s">
-        <v>22</v>
-      </c>
-      <c r="F319" s="29" t="s">
-        <v>3</v>
-      </c>
-      <c r="G319" s="32" t="s">
-        <v>15</v>
-      </c>
-      <c r="H319" s="32" t="s">
-        <v>18</v>
-      </c>
-      <c r="I319" s="19"/>
-      <c r="J319" s="52"/>
-    </row>
-    <row r="320" spans="1:10" s="50" customFormat="1" ht="45">
-      <c r="A320" s="21" t="s">
-        <v>533</v>
       </c>
       <c r="B320" s="30" t="s">
         <v>270</v>
       </c>
       <c r="C320" s="19" t="s">
-        <v>526</v>
-      </c>
-      <c r="D320" s="21" t="s">
-        <v>536</v>
+        <v>701</v>
+      </c>
+      <c r="D320" s="32" t="s">
+        <v>535</v>
       </c>
       <c r="E320" s="29" t="s">
         <v>22</v>
@@ -12411,104 +12422,104 @@
         <v>18</v>
       </c>
       <c r="I320" s="19"/>
-      <c r="J320" s="52"/>
-    </row>
-    <row r="321" spans="1:10" s="50" customFormat="1" ht="60">
+      <c r="J320" s="39"/>
+    </row>
+    <row r="321" spans="1:10" s="37" customFormat="1" ht="45">
       <c r="A321" s="21" t="s">
+        <v>531</v>
+      </c>
+      <c r="B321" s="30" t="s">
+        <v>270</v>
+      </c>
+      <c r="C321" s="19" t="s">
+        <v>527</v>
+      </c>
+      <c r="D321" s="32" t="s">
+        <v>535</v>
+      </c>
+      <c r="E321" s="29" t="s">
+        <v>22</v>
+      </c>
+      <c r="F321" s="29" t="s">
+        <v>3</v>
+      </c>
+      <c r="G321" s="32" t="s">
+        <v>15</v>
+      </c>
+      <c r="H321" s="32" t="s">
+        <v>18</v>
+      </c>
+      <c r="I321" s="19"/>
+      <c r="J321" s="39"/>
+    </row>
+    <row r="322" spans="1:10" s="37" customFormat="1" ht="60">
+      <c r="A322" s="21" t="s">
+        <v>532</v>
+      </c>
+      <c r="B322" s="30" t="s">
+        <v>270</v>
+      </c>
+      <c r="C322" s="19" t="s">
+        <v>700</v>
+      </c>
+      <c r="D322" s="32" t="s">
+        <v>536</v>
+      </c>
+      <c r="E322" s="29" t="s">
+        <v>22</v>
+      </c>
+      <c r="F322" s="29" t="s">
+        <v>3</v>
+      </c>
+      <c r="G322" s="32" t="s">
+        <v>15</v>
+      </c>
+      <c r="H322" s="32" t="s">
+        <v>18</v>
+      </c>
+      <c r="I322" s="19"/>
+      <c r="J322" s="39"/>
+    </row>
+    <row r="323" spans="1:10" s="37" customFormat="1" ht="45">
+      <c r="A323" s="21" t="s">
+        <v>533</v>
+      </c>
+      <c r="B323" s="30" t="s">
+        <v>270</v>
+      </c>
+      <c r="C323" s="19" t="s">
+        <v>526</v>
+      </c>
+      <c r="D323" s="21" t="s">
+        <v>536</v>
+      </c>
+      <c r="E323" s="29" t="s">
+        <v>22</v>
+      </c>
+      <c r="F323" s="29" t="s">
+        <v>3</v>
+      </c>
+      <c r="G323" s="32" t="s">
+        <v>15</v>
+      </c>
+      <c r="H323" s="32" t="s">
+        <v>18</v>
+      </c>
+      <c r="I323" s="19"/>
+      <c r="J323" s="39"/>
+    </row>
+    <row r="324" spans="1:10" s="37" customFormat="1" ht="60">
+      <c r="A324" s="21" t="s">
         <v>729</v>
-      </c>
-      <c r="B321" s="35">
-        <v>8</v>
-      </c>
-      <c r="C321" s="19" t="s">
-        <v>736</v>
-      </c>
-      <c r="D321" s="21" t="s">
-        <v>761</v>
-      </c>
-      <c r="E321" s="32" t="s">
-        <v>22</v>
-      </c>
-      <c r="F321" s="32" t="s">
-        <v>3</v>
-      </c>
-      <c r="G321" s="32" t="s">
-        <v>15</v>
-      </c>
-      <c r="H321" s="32" t="s">
-        <v>18</v>
-      </c>
-      <c r="I321" s="19"/>
-      <c r="J321" s="52"/>
-    </row>
-    <row r="322" spans="1:10" s="50" customFormat="1" ht="45">
-      <c r="A322" s="21" t="s">
-        <v>730</v>
-      </c>
-      <c r="B322" s="35">
-        <v>8</v>
-      </c>
-      <c r="C322" s="19" t="s">
-        <v>737</v>
-      </c>
-      <c r="D322" s="21" t="s">
-        <v>761</v>
-      </c>
-      <c r="E322" s="32" t="s">
-        <v>22</v>
-      </c>
-      <c r="F322" s="32" t="s">
-        <v>3</v>
-      </c>
-      <c r="G322" s="32" t="s">
-        <v>15</v>
-      </c>
-      <c r="H322" s="32" t="s">
-        <v>18</v>
-      </c>
-      <c r="I322" s="19"/>
-      <c r="J322" s="52"/>
-    </row>
-    <row r="323" spans="1:10" s="50" customFormat="1" ht="60">
-      <c r="A323" s="21" t="s">
-        <v>731</v>
-      </c>
-      <c r="B323" s="35">
-        <v>8</v>
-      </c>
-      <c r="C323" s="19" t="s">
-        <v>738</v>
-      </c>
-      <c r="D323" s="21" t="s">
-        <v>763</v>
-      </c>
-      <c r="E323" s="32" t="s">
-        <v>22</v>
-      </c>
-      <c r="F323" s="32" t="s">
-        <v>3</v>
-      </c>
-      <c r="G323" s="32" t="s">
-        <v>15</v>
-      </c>
-      <c r="H323" s="32" t="s">
-        <v>18</v>
-      </c>
-      <c r="I323" s="19"/>
-      <c r="J323" s="52"/>
-    </row>
-    <row r="324" spans="1:10" s="50" customFormat="1" ht="45">
-      <c r="A324" s="21" t="s">
-        <v>732</v>
       </c>
       <c r="B324" s="35">
         <v>8</v>
       </c>
       <c r="C324" s="19" t="s">
-        <v>739</v>
+        <v>736</v>
       </c>
       <c r="D324" s="21" t="s">
-        <v>763</v>
+        <v>761</v>
       </c>
       <c r="E324" s="32" t="s">
         <v>22</v>
@@ -12517,26 +12528,26 @@
         <v>3</v>
       </c>
       <c r="G324" s="32" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H324" s="32" t="s">
         <v>18</v>
       </c>
-      <c r="I324" s="34"/>
-      <c r="J324" s="52"/>
-    </row>
-    <row r="325" spans="1:10" s="50" customFormat="1" ht="60">
+      <c r="I324" s="19"/>
+      <c r="J324" s="39"/>
+    </row>
+    <row r="325" spans="1:10" s="37" customFormat="1" ht="45">
       <c r="A325" s="21" t="s">
-        <v>733</v>
+        <v>730</v>
       </c>
       <c r="B325" s="35">
         <v>8</v>
       </c>
       <c r="C325" s="19" t="s">
-        <v>740</v>
+        <v>737</v>
       </c>
       <c r="D325" s="21" t="s">
-        <v>765</v>
+        <v>761</v>
       </c>
       <c r="E325" s="32" t="s">
         <v>22</v>
@@ -12545,26 +12556,26 @@
         <v>3</v>
       </c>
       <c r="G325" s="32" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H325" s="32" t="s">
         <v>18</v>
       </c>
-      <c r="I325" s="34"/>
-      <c r="J325" s="52"/>
-    </row>
-    <row r="326" spans="1:10" s="50" customFormat="1" ht="45">
+      <c r="I325" s="19"/>
+      <c r="J325" s="39"/>
+    </row>
+    <row r="326" spans="1:10" s="37" customFormat="1" ht="60">
       <c r="A326" s="21" t="s">
-        <v>734</v>
+        <v>731</v>
       </c>
       <c r="B326" s="35">
         <v>8</v>
       </c>
       <c r="C326" s="19" t="s">
-        <v>741</v>
+        <v>738</v>
       </c>
       <c r="D326" s="21" t="s">
-        <v>765</v>
+        <v>763</v>
       </c>
       <c r="E326" s="32" t="s">
         <v>22</v>
@@ -12573,25 +12584,27 @@
         <v>3</v>
       </c>
       <c r="G326" s="32" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H326" s="32" t="s">
         <v>18</v>
       </c>
-      <c r="I326" s="34"/>
-      <c r="J326" s="52"/>
-    </row>
-    <row r="327" spans="1:10" s="50" customFormat="1" ht="60">
+      <c r="I326" s="19"/>
+      <c r="J326" s="39"/>
+    </row>
+    <row r="327" spans="1:10" s="37" customFormat="1" ht="45">
       <c r="A327" s="21" t="s">
-        <v>735</v>
+        <v>732</v>
       </c>
       <c r="B327" s="35">
         <v>8</v>
       </c>
       <c r="C327" s="19" t="s">
-        <v>742</v>
-      </c>
-      <c r="D327" s="32"/>
+        <v>739</v>
+      </c>
+      <c r="D327" s="21" t="s">
+        <v>763</v>
+      </c>
       <c r="E327" s="32" t="s">
         <v>22</v>
       </c>
@@ -12605,19 +12618,21 @@
         <v>18</v>
       </c>
       <c r="I327" s="34"/>
-      <c r="J327" s="52"/>
-    </row>
-    <row r="328" spans="1:10" s="50" customFormat="1" ht="45">
+      <c r="J327" s="39"/>
+    </row>
+    <row r="328" spans="1:10" s="37" customFormat="1" ht="60">
       <c r="A328" s="21" t="s">
-        <v>743</v>
+        <v>733</v>
       </c>
       <c r="B328" s="35">
         <v>8</v>
       </c>
       <c r="C328" s="19" t="s">
-        <v>744</v>
-      </c>
-      <c r="D328" s="32"/>
+        <v>740</v>
+      </c>
+      <c r="D328" s="21" t="s">
+        <v>765</v>
+      </c>
       <c r="E328" s="32" t="s">
         <v>22</v>
       </c>
@@ -12631,20 +12646,20 @@
         <v>18</v>
       </c>
       <c r="I328" s="34"/>
-      <c r="J328" s="52"/>
-    </row>
-    <row r="329" spans="1:10" s="50" customFormat="1" ht="60">
+      <c r="J328" s="39"/>
+    </row>
+    <row r="329" spans="1:10" s="37" customFormat="1" ht="45">
       <c r="A329" s="21" t="s">
-        <v>745</v>
+        <v>734</v>
       </c>
       <c r="B329" s="35">
         <v>8</v>
       </c>
       <c r="C329" s="19" t="s">
-        <v>747</v>
+        <v>741</v>
       </c>
       <c r="D329" s="21" t="s">
-        <v>767</v>
+        <v>765</v>
       </c>
       <c r="E329" s="32" t="s">
         <v>22</v>
@@ -12659,21 +12674,19 @@
         <v>18</v>
       </c>
       <c r="I329" s="34"/>
-      <c r="J329" s="52"/>
-    </row>
-    <row r="330" spans="1:10" s="50" customFormat="1" ht="45">
+      <c r="J329" s="39"/>
+    </row>
+    <row r="330" spans="1:10" s="37" customFormat="1" ht="60">
       <c r="A330" s="21" t="s">
-        <v>746</v>
+        <v>735</v>
       </c>
       <c r="B330" s="35">
         <v>8</v>
       </c>
-      <c r="C330" s="34" t="s">
-        <v>744</v>
-      </c>
-      <c r="D330" s="21" t="s">
-        <v>767</v>
-      </c>
+      <c r="C330" s="19" t="s">
+        <v>742</v>
+      </c>
+      <c r="D330" s="32"/>
       <c r="E330" s="32" t="s">
         <v>22</v>
       </c>
@@ -12687,99 +12700,99 @@
         <v>18</v>
       </c>
       <c r="I330" s="34"/>
-      <c r="J330" s="52"/>
-    </row>
-    <row r="331" spans="1:10" s="50" customFormat="1" ht="210">
+      <c r="J330" s="39"/>
+    </row>
+    <row r="331" spans="1:10" s="37" customFormat="1" ht="45">
       <c r="A331" s="21" t="s">
+        <v>743</v>
+      </c>
+      <c r="B331" s="35">
+        <v>8</v>
+      </c>
+      <c r="C331" s="19" t="s">
+        <v>744</v>
+      </c>
+      <c r="D331" s="32"/>
+      <c r="E331" s="32" t="s">
+        <v>22</v>
+      </c>
+      <c r="F331" s="32" t="s">
+        <v>3</v>
+      </c>
+      <c r="G331" s="32" t="s">
+        <v>16</v>
+      </c>
+      <c r="H331" s="32" t="s">
+        <v>18</v>
+      </c>
+      <c r="I331" s="34"/>
+      <c r="J331" s="39"/>
+    </row>
+    <row r="332" spans="1:10" s="37" customFormat="1" ht="60">
+      <c r="A332" s="21" t="s">
+        <v>745</v>
+      </c>
+      <c r="B332" s="35">
+        <v>8</v>
+      </c>
+      <c r="C332" s="19" t="s">
+        <v>747</v>
+      </c>
+      <c r="D332" s="21" t="s">
+        <v>767</v>
+      </c>
+      <c r="E332" s="32" t="s">
+        <v>22</v>
+      </c>
+      <c r="F332" s="32" t="s">
+        <v>3</v>
+      </c>
+      <c r="G332" s="32" t="s">
+        <v>16</v>
+      </c>
+      <c r="H332" s="32" t="s">
+        <v>18</v>
+      </c>
+      <c r="I332" s="34"/>
+      <c r="J332" s="39"/>
+    </row>
+    <row r="333" spans="1:10" s="37" customFormat="1" ht="45">
+      <c r="A333" s="21" t="s">
+        <v>746</v>
+      </c>
+      <c r="B333" s="35">
+        <v>8</v>
+      </c>
+      <c r="C333" s="34" t="s">
+        <v>744</v>
+      </c>
+      <c r="D333" s="21" t="s">
+        <v>767</v>
+      </c>
+      <c r="E333" s="32" t="s">
+        <v>22</v>
+      </c>
+      <c r="F333" s="32" t="s">
+        <v>3</v>
+      </c>
+      <c r="G333" s="32" t="s">
+        <v>16</v>
+      </c>
+      <c r="H333" s="32" t="s">
+        <v>18</v>
+      </c>
+      <c r="I333" s="34"/>
+      <c r="J333" s="39"/>
+    </row>
+    <row r="334" spans="1:10" s="37" customFormat="1" ht="210">
+      <c r="A334" s="21" t="s">
         <v>241</v>
       </c>
-      <c r="B331" s="23" t="s">
+      <c r="B334" s="23" t="s">
         <v>748</v>
       </c>
-      <c r="C331" s="19" t="s">
+      <c r="C334" s="19" t="s">
         <v>749</v>
-      </c>
-      <c r="D331" s="29"/>
-      <c r="E331" s="29" t="s">
-        <v>19</v>
-      </c>
-      <c r="F331" s="29" t="s">
-        <v>3</v>
-      </c>
-      <c r="G331" s="29" t="s">
-        <v>15</v>
-      </c>
-      <c r="H331" s="29" t="s">
-        <v>21</v>
-      </c>
-      <c r="I331" s="31"/>
-      <c r="J331" s="52"/>
-    </row>
-    <row r="332" spans="1:10" s="50" customFormat="1" ht="47.25" customHeight="1">
-      <c r="A332" s="29" t="s">
-        <v>242</v>
-      </c>
-      <c r="B332" s="23" t="s">
-        <v>748</v>
-      </c>
-      <c r="C332" s="31" t="s">
-        <v>411</v>
-      </c>
-      <c r="D332" s="29"/>
-      <c r="E332" s="29" t="s">
-        <v>19</v>
-      </c>
-      <c r="F332" s="29" t="s">
-        <v>3</v>
-      </c>
-      <c r="G332" s="29" t="s">
-        <v>15</v>
-      </c>
-      <c r="H332" s="29" t="s">
-        <v>17</v>
-      </c>
-      <c r="I332" s="19" t="s">
-        <v>566</v>
-      </c>
-      <c r="J332" s="52"/>
-    </row>
-    <row r="333" spans="1:10" s="50" customFormat="1" ht="60">
-      <c r="A333" s="29" t="s">
-        <v>243</v>
-      </c>
-      <c r="B333" s="23" t="s">
-        <v>750</v>
-      </c>
-      <c r="C333" s="19" t="s">
-        <v>412</v>
-      </c>
-      <c r="D333" s="29"/>
-      <c r="E333" s="29" t="s">
-        <v>19</v>
-      </c>
-      <c r="F333" s="29" t="s">
-        <v>3</v>
-      </c>
-      <c r="G333" s="29" t="s">
-        <v>15</v>
-      </c>
-      <c r="H333" s="29" t="s">
-        <v>17</v>
-      </c>
-      <c r="I333" s="19" t="s">
-        <v>428</v>
-      </c>
-      <c r="J333" s="52"/>
-    </row>
-    <row r="334" spans="1:10" s="50" customFormat="1" ht="105">
-      <c r="A334" s="29" t="s">
-        <v>244</v>
-      </c>
-      <c r="B334" s="23" t="s">
-        <v>750</v>
-      </c>
-      <c r="C334" s="19" t="s">
-        <v>413</v>
       </c>
       <c r="D334" s="29"/>
       <c r="E334" s="29" t="s">
@@ -12795,16 +12808,17 @@
         <v>21</v>
       </c>
       <c r="I334" s="31"/>
-    </row>
-    <row r="335" spans="1:10" s="50" customFormat="1" ht="180">
+      <c r="J334" s="39"/>
+    </row>
+    <row r="335" spans="1:10" s="37" customFormat="1" ht="47.25" customHeight="1">
       <c r="A335" s="29" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="B335" s="23" t="s">
-        <v>751</v>
-      </c>
-      <c r="C335" s="19" t="s">
-        <v>414</v>
+        <v>748</v>
+      </c>
+      <c r="C335" s="31" t="s">
+        <v>411</v>
       </c>
       <c r="D335" s="29"/>
       <c r="E335" s="29" t="s">
@@ -12817,20 +12831,22 @@
         <v>15</v>
       </c>
       <c r="H335" s="29" t="s">
-        <v>21</v>
-      </c>
-      <c r="I335" s="31"/>
-      <c r="J335" s="52"/>
-    </row>
-    <row r="336" spans="1:10" s="50" customFormat="1" ht="409.5">
-      <c r="A336" s="21" t="s">
-        <v>246</v>
+        <v>17</v>
+      </c>
+      <c r="I335" s="19" t="s">
+        <v>566</v>
+      </c>
+      <c r="J335" s="39"/>
+    </row>
+    <row r="336" spans="1:10" s="37" customFormat="1" ht="60">
+      <c r="A336" s="29" t="s">
+        <v>243</v>
       </c>
       <c r="B336" s="23" t="s">
-        <v>752</v>
+        <v>750</v>
       </c>
       <c r="C336" s="19" t="s">
-        <v>415</v>
+        <v>412</v>
       </c>
       <c r="D336" s="29"/>
       <c r="E336" s="29" t="s">
@@ -12843,98 +12859,98 @@
         <v>15</v>
       </c>
       <c r="H336" s="29" t="s">
+        <v>17</v>
+      </c>
+      <c r="I336" s="19" t="s">
+        <v>428</v>
+      </c>
+      <c r="J336" s="39"/>
+    </row>
+    <row r="337" spans="1:10" s="37" customFormat="1" ht="105">
+      <c r="A337" s="29" t="s">
+        <v>244</v>
+      </c>
+      <c r="B337" s="23" t="s">
+        <v>750</v>
+      </c>
+      <c r="C337" s="19" t="s">
+        <v>413</v>
+      </c>
+      <c r="D337" s="29"/>
+      <c r="E337" s="29" t="s">
+        <v>19</v>
+      </c>
+      <c r="F337" s="29" t="s">
+        <v>3</v>
+      </c>
+      <c r="G337" s="29" t="s">
+        <v>15</v>
+      </c>
+      <c r="H337" s="29" t="s">
         <v>21</v>
       </c>
-      <c r="I336" s="31"/>
-    </row>
-    <row r="337" spans="1:9" s="50" customFormat="1" ht="45">
-      <c r="A337" s="21" t="s">
+      <c r="I337" s="31"/>
+    </row>
+    <row r="338" spans="1:10" s="37" customFormat="1" ht="180">
+      <c r="A338" s="29" t="s">
+        <v>245</v>
+      </c>
+      <c r="B338" s="23" t="s">
+        <v>751</v>
+      </c>
+      <c r="C338" s="19" t="s">
+        <v>414</v>
+      </c>
+      <c r="D338" s="29"/>
+      <c r="E338" s="29" t="s">
+        <v>19</v>
+      </c>
+      <c r="F338" s="29" t="s">
+        <v>3</v>
+      </c>
+      <c r="G338" s="29" t="s">
+        <v>15</v>
+      </c>
+      <c r="H338" s="29" t="s">
+        <v>21</v>
+      </c>
+      <c r="I338" s="31"/>
+      <c r="J338" s="39"/>
+    </row>
+    <row r="339" spans="1:10" s="37" customFormat="1" ht="409.5">
+      <c r="A339" s="21" t="s">
+        <v>246</v>
+      </c>
+      <c r="B339" s="23" t="s">
+        <v>752</v>
+      </c>
+      <c r="C339" s="19" t="s">
+        <v>415</v>
+      </c>
+      <c r="D339" s="29"/>
+      <c r="E339" s="29" t="s">
+        <v>19</v>
+      </c>
+      <c r="F339" s="29" t="s">
+        <v>3</v>
+      </c>
+      <c r="G339" s="29" t="s">
+        <v>15</v>
+      </c>
+      <c r="H339" s="29" t="s">
+        <v>21</v>
+      </c>
+      <c r="I339" s="31"/>
+    </row>
+    <row r="340" spans="1:10" s="37" customFormat="1" ht="45">
+      <c r="A340" s="21" t="s">
         <v>539</v>
-      </c>
-      <c r="B337" s="23" t="s">
-        <v>754</v>
-      </c>
-      <c r="C337" s="19" t="s">
-        <v>753</v>
-      </c>
-      <c r="D337" s="21"/>
-      <c r="E337" s="21" t="s">
-        <v>19</v>
-      </c>
-      <c r="F337" s="21" t="s">
-        <v>3</v>
-      </c>
-      <c r="G337" s="21" t="s">
-        <v>15</v>
-      </c>
-      <c r="H337" s="21" t="s">
-        <v>20</v>
-      </c>
-      <c r="I337" s="19"/>
-    </row>
-    <row r="338" spans="1:9" s="50" customFormat="1" ht="30">
-      <c r="A338" s="21" t="s">
-        <v>560</v>
-      </c>
-      <c r="B338" s="23" t="s">
-        <v>754</v>
-      </c>
-      <c r="C338" s="19" t="s">
-        <v>540</v>
-      </c>
-      <c r="D338" s="21" t="s">
-        <v>541</v>
-      </c>
-      <c r="E338" s="21" t="s">
-        <v>19</v>
-      </c>
-      <c r="F338" s="21" t="s">
-        <v>3</v>
-      </c>
-      <c r="G338" s="21" t="s">
-        <v>15</v>
-      </c>
-      <c r="H338" s="21" t="s">
-        <v>20</v>
-      </c>
-      <c r="I338" s="19"/>
-    </row>
-    <row r="339" spans="1:9" s="50" customFormat="1" ht="45">
-      <c r="A339" s="21" t="s">
-        <v>561</v>
-      </c>
-      <c r="B339" s="23" t="s">
-        <v>754</v>
-      </c>
-      <c r="C339" s="19" t="s">
-        <v>542</v>
-      </c>
-      <c r="D339" s="21" t="s">
-        <v>541</v>
-      </c>
-      <c r="E339" s="21" t="s">
-        <v>19</v>
-      </c>
-      <c r="F339" s="21" t="s">
-        <v>3</v>
-      </c>
-      <c r="G339" s="21" t="s">
-        <v>15</v>
-      </c>
-      <c r="H339" s="21" t="s">
-        <v>20</v>
-      </c>
-      <c r="I339" s="19"/>
-    </row>
-    <row r="340" spans="1:9" s="50" customFormat="1" ht="45">
-      <c r="A340" s="21" t="s">
-        <v>544</v>
       </c>
       <c r="B340" s="23" t="s">
         <v>754</v>
       </c>
       <c r="C340" s="19" t="s">
-        <v>545</v>
+        <v>753</v>
       </c>
       <c r="D340" s="21"/>
       <c r="E340" s="21" t="s">
@@ -12951,17 +12967,19 @@
       </c>
       <c r="I340" s="19"/>
     </row>
-    <row r="341" spans="1:9" s="50" customFormat="1" ht="45">
+    <row r="341" spans="1:10" s="37" customFormat="1" ht="30">
       <c r="A341" s="21" t="s">
-        <v>547</v>
+        <v>560</v>
       </c>
       <c r="B341" s="23" t="s">
         <v>754</v>
       </c>
       <c r="C341" s="19" t="s">
-        <v>548</v>
-      </c>
-      <c r="D341" s="21"/>
+        <v>540</v>
+      </c>
+      <c r="D341" s="21" t="s">
+        <v>541</v>
+      </c>
       <c r="E341" s="21" t="s">
         <v>19</v>
       </c>
@@ -12976,18 +12994,18 @@
       </c>
       <c r="I341" s="19"/>
     </row>
-    <row r="342" spans="1:9" s="50" customFormat="1" ht="30">
+    <row r="342" spans="1:10" s="37" customFormat="1" ht="45">
       <c r="A342" s="21" t="s">
-        <v>554</v>
+        <v>561</v>
       </c>
       <c r="B342" s="23" t="s">
         <v>754</v>
       </c>
       <c r="C342" s="19" t="s">
-        <v>555</v>
+        <v>542</v>
       </c>
       <c r="D342" s="21" t="s">
-        <v>556</v>
+        <v>541</v>
       </c>
       <c r="E342" s="21" t="s">
         <v>19</v>
@@ -13003,19 +13021,17 @@
       </c>
       <c r="I342" s="19"/>
     </row>
-    <row r="343" spans="1:9" s="50" customFormat="1" ht="30">
+    <row r="343" spans="1:10" s="37" customFormat="1" ht="45">
       <c r="A343" s="21" t="s">
-        <v>557</v>
+        <v>544</v>
       </c>
       <c r="B343" s="23" t="s">
         <v>754</v>
       </c>
       <c r="C343" s="19" t="s">
-        <v>558</v>
-      </c>
-      <c r="D343" s="21" t="s">
-        <v>556</v>
-      </c>
+        <v>545</v>
+      </c>
+      <c r="D343" s="21"/>
       <c r="E343" s="21" t="s">
         <v>19</v>
       </c>
@@ -13030,15 +13046,15 @@
       </c>
       <c r="I343" s="19"/>
     </row>
-    <row r="344" spans="1:9" s="50" customFormat="1" ht="45">
+    <row r="344" spans="1:10" s="37" customFormat="1" ht="45">
       <c r="A344" s="21" t="s">
-        <v>552</v>
+        <v>547</v>
       </c>
       <c r="B344" s="23" t="s">
         <v>754</v>
       </c>
       <c r="C344" s="19" t="s">
-        <v>553</v>
+        <v>548</v>
       </c>
       <c r="D344" s="21"/>
       <c r="E344" s="21" t="s">
@@ -13055,68 +13071,142 @@
       </c>
       <c r="I344" s="19"/>
     </row>
-    <row r="345" spans="1:9" s="50" customFormat="1" ht="135">
+    <row r="345" spans="1:10" s="37" customFormat="1" ht="30">
       <c r="A345" s="21" t="s">
+        <v>554</v>
+      </c>
+      <c r="B345" s="23" t="s">
+        <v>754</v>
+      </c>
+      <c r="C345" s="19" t="s">
+        <v>555</v>
+      </c>
+      <c r="D345" s="21" t="s">
+        <v>556</v>
+      </c>
+      <c r="E345" s="21" t="s">
+        <v>19</v>
+      </c>
+      <c r="F345" s="21" t="s">
+        <v>3</v>
+      </c>
+      <c r="G345" s="21" t="s">
+        <v>15</v>
+      </c>
+      <c r="H345" s="21" t="s">
+        <v>20</v>
+      </c>
+      <c r="I345" s="19"/>
+    </row>
+    <row r="346" spans="1:10" s="37" customFormat="1" ht="30">
+      <c r="A346" s="21" t="s">
+        <v>557</v>
+      </c>
+      <c r="B346" s="23" t="s">
+        <v>754</v>
+      </c>
+      <c r="C346" s="19" t="s">
+        <v>558</v>
+      </c>
+      <c r="D346" s="21" t="s">
+        <v>556</v>
+      </c>
+      <c r="E346" s="21" t="s">
+        <v>19</v>
+      </c>
+      <c r="F346" s="21" t="s">
+        <v>3</v>
+      </c>
+      <c r="G346" s="21" t="s">
+        <v>15</v>
+      </c>
+      <c r="H346" s="21" t="s">
+        <v>20</v>
+      </c>
+      <c r="I346" s="19"/>
+    </row>
+    <row r="347" spans="1:10" s="37" customFormat="1" ht="45">
+      <c r="A347" s="21" t="s">
+        <v>552</v>
+      </c>
+      <c r="B347" s="23" t="s">
+        <v>754</v>
+      </c>
+      <c r="C347" s="19" t="s">
+        <v>553</v>
+      </c>
+      <c r="D347" s="21"/>
+      <c r="E347" s="21" t="s">
+        <v>19</v>
+      </c>
+      <c r="F347" s="21" t="s">
+        <v>3</v>
+      </c>
+      <c r="G347" s="21" t="s">
+        <v>15</v>
+      </c>
+      <c r="H347" s="21" t="s">
+        <v>20</v>
+      </c>
+      <c r="I347" s="19"/>
+    </row>
+    <row r="348" spans="1:10" s="37" customFormat="1" ht="135">
+      <c r="A348" s="21" t="s">
         <v>247</v>
       </c>
-      <c r="B345" s="23" t="s">
+      <c r="B348" s="23" t="s">
         <v>755</v>
       </c>
-      <c r="C345" s="19" t="s">
+      <c r="C348" s="19" t="s">
         <v>416</v>
       </c>
-      <c r="D345" s="29"/>
-      <c r="E345" s="29" t="s">
-        <v>19</v>
-      </c>
-      <c r="F345" s="29" t="s">
-        <v>3</v>
-      </c>
-      <c r="G345" s="29" t="s">
-        <v>15</v>
-      </c>
-      <c r="H345" s="29" t="s">
+      <c r="D348" s="29"/>
+      <c r="E348" s="29" t="s">
+        <v>19</v>
+      </c>
+      <c r="F348" s="29" t="s">
+        <v>3</v>
+      </c>
+      <c r="G348" s="29" t="s">
+        <v>15</v>
+      </c>
+      <c r="H348" s="29" t="s">
         <v>21</v>
       </c>
-      <c r="I345" s="31"/>
-    </row>
-    <row r="346" spans="1:9" s="50" customFormat="1" ht="45">
-      <c r="A346" s="21" t="s">
+      <c r="I348" s="31"/>
+    </row>
+    <row r="349" spans="1:10" s="37" customFormat="1" ht="45">
+      <c r="A349" s="21" t="s">
         <v>567</v>
       </c>
-      <c r="B346" s="23" t="s">
+      <c r="B349" s="23" t="s">
         <v>562</v>
       </c>
-      <c r="C346" s="19" t="s">
+      <c r="C349" s="19" t="s">
         <v>756</v>
       </c>
-      <c r="D346" s="21"/>
-      <c r="E346" s="21" t="s">
+      <c r="D349" s="21"/>
+      <c r="E349" s="21" t="s">
         <v>22</v>
       </c>
-      <c r="F346" s="21" t="s">
-        <v>3</v>
-      </c>
-      <c r="G346" s="21" t="s">
-        <v>15</v>
-      </c>
-      <c r="H346" s="21" t="s">
+      <c r="F349" s="21" t="s">
+        <v>3</v>
+      </c>
+      <c r="G349" s="21" t="s">
+        <v>15</v>
+      </c>
+      <c r="H349" s="21" t="s">
         <v>21</v>
       </c>
-      <c r="I346" s="31" t="s">
+      <c r="I349" s="31" t="s">
         <v>427</v>
       </c>
     </row>
-    <row r="347" spans="1:9" s="50" customFormat="1">
-      <c r="B347" s="53"/>
+    <row r="350" spans="1:10" s="37" customFormat="1">
+      <c r="B350" s="40"/>
     </row>
   </sheetData>
   <mergeCells count="12">
-    <mergeCell ref="A4:G4"/>
-    <mergeCell ref="B8:I8"/>
-    <mergeCell ref="B7:I7"/>
-    <mergeCell ref="B6:I6"/>
-    <mergeCell ref="B5:I5"/>
     <mergeCell ref="B11:I11"/>
     <mergeCell ref="D12:I15"/>
     <mergeCell ref="B16:I16"/>
@@ -13124,288 +13214,293 @@
     <mergeCell ref="B9:I9"/>
     <mergeCell ref="B10:I10"/>
     <mergeCell ref="B17:I17"/>
+    <mergeCell ref="A4:G4"/>
+    <mergeCell ref="B8:I8"/>
+    <mergeCell ref="B7:I7"/>
+    <mergeCell ref="B6:I6"/>
+    <mergeCell ref="B5:I5"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
-  <conditionalFormatting sqref="A342:I343 A223:H223 B195:I195 A196:I222 A20:I194 A224:I336">
-    <cfRule type="expression" dxfId="88" priority="139">
+  <conditionalFormatting sqref="A345:I346 A226:H226 B198:I198 A199:I225 A20:I197 A227:I339">
+    <cfRule type="expression" dxfId="69" priority="139">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Section Deleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="87" priority="140">
+    <cfRule type="expression" dxfId="68" priority="140">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Deleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="86" priority="147">
+    <cfRule type="expression" dxfId="67" priority="147">
       <formula>EXACT(INDIRECT("L"&amp;ROW()),"Deleted")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A342:I343 A223:H223 B195:I195 A196:I222 A20:I194 A224:I336">
-    <cfRule type="expression" dxfId="85" priority="93">
+  <conditionalFormatting sqref="A345:I346 A226:H226 B198:I198 A199:I225 A20:I197 A227:I339">
+    <cfRule type="expression" dxfId="66" priority="93">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"SectionDeleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="84" priority="94">
+    <cfRule type="expression" dxfId="65" priority="94">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Deleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="83" priority="95">
+    <cfRule type="expression" dxfId="64" priority="95">
       <formula>EXACT(INDIRECT("L"&amp;ROW()),"Deleted")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F342:F343 F20:F336">
-    <cfRule type="expression" dxfId="82" priority="99">
+  <conditionalFormatting sqref="F345:F346 F20:F339">
+    <cfRule type="expression" dxfId="63" priority="99">
       <formula>NOT(VLOOKUP(F20,$A$12:$C$15,2,FALSE)="In")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="81" priority="100">
+    <cfRule type="expression" dxfId="62" priority="100">
       <formula>(VLOOKUP(F20,$A$12:$C$15,2,FALSE)="In")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A340:I340">
-    <cfRule type="expression" dxfId="80" priority="44">
+  <conditionalFormatting sqref="A343:I343">
+    <cfRule type="expression" dxfId="61" priority="44">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Section Deleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="79" priority="45">
+    <cfRule type="expression" dxfId="60" priority="45">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Deleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="78" priority="46">
+    <cfRule type="expression" dxfId="59" priority="46">
+      <formula>EXACT(INDIRECT("L"&amp;ROW()),"Deleted")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A343:I343">
+    <cfRule type="expression" dxfId="58" priority="39">
+      <formula>EXACT(INDIRECT("P"&amp;ROW()),"SectionDeleted")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="57" priority="40">
+      <formula>EXACT(INDIRECT("P"&amp;ROW()),"Deleted")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="56" priority="41">
+      <formula>EXACT(INDIRECT("L"&amp;ROW()),"Deleted")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F343">
+    <cfRule type="expression" dxfId="55" priority="42">
+      <formula>NOT(VLOOKUP(F343,$A$12:$C$15,2,FALSE)="In")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="54" priority="43">
+      <formula>(VLOOKUP(F343,$A$12:$C$15,2,FALSE)="In")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A348:I348">
+    <cfRule type="expression" dxfId="53" priority="76">
+      <formula>EXACT(INDIRECT("P"&amp;ROW()),"Section Deleted")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="52" priority="77">
+      <formula>EXACT(INDIRECT("P"&amp;ROW()),"Deleted")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="51" priority="78">
+      <formula>EXACT(INDIRECT("L"&amp;ROW()),"Deleted")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A348:I348">
+    <cfRule type="expression" dxfId="50" priority="71">
+      <formula>EXACT(INDIRECT("P"&amp;ROW()),"SectionDeleted")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="49" priority="72">
+      <formula>EXACT(INDIRECT("P"&amp;ROW()),"Deleted")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="48" priority="73">
+      <formula>EXACT(INDIRECT("L"&amp;ROW()),"Deleted")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F348">
+    <cfRule type="expression" dxfId="47" priority="74">
+      <formula>NOT(VLOOKUP(F348,$A$12:$C$15,2,FALSE)="In")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="46" priority="75">
+      <formula>(VLOOKUP(F348,$A$12:$C$15,2,FALSE)="In")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A340:I340">
+    <cfRule type="expression" dxfId="45" priority="60">
+      <formula>EXACT(INDIRECT("P"&amp;ROW()),"Section Deleted")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="44" priority="61">
+      <formula>EXACT(INDIRECT("P"&amp;ROW()),"Deleted")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="43" priority="62">
       <formula>EXACT(INDIRECT("L"&amp;ROW()),"Deleted")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A340:I340">
-    <cfRule type="expression" dxfId="77" priority="39">
+    <cfRule type="expression" dxfId="42" priority="55">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"SectionDeleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="76" priority="40">
+    <cfRule type="expression" dxfId="41" priority="56">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Deleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="75" priority="41">
+    <cfRule type="expression" dxfId="40" priority="57">
       <formula>EXACT(INDIRECT("L"&amp;ROW()),"Deleted")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F340">
-    <cfRule type="expression" dxfId="74" priority="42">
+    <cfRule type="expression" dxfId="39" priority="58">
       <formula>NOT(VLOOKUP(F340,$A$12:$C$15,2,FALSE)="In")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="73" priority="43">
+    <cfRule type="expression" dxfId="38" priority="59">
       <formula>(VLOOKUP(F340,$A$12:$C$15,2,FALSE)="In")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A345:I345">
-    <cfRule type="expression" dxfId="72" priority="76">
+  <conditionalFormatting sqref="A341:I342">
+    <cfRule type="expression" dxfId="37" priority="52">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Section Deleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="71" priority="77">
+    <cfRule type="expression" dxfId="36" priority="53">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Deleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="70" priority="78">
+    <cfRule type="expression" dxfId="35" priority="54">
       <formula>EXACT(INDIRECT("L"&amp;ROW()),"Deleted")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A345:I345">
-    <cfRule type="expression" dxfId="69" priority="71">
+  <conditionalFormatting sqref="A341:I342">
+    <cfRule type="expression" dxfId="34" priority="47">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"SectionDeleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="68" priority="72">
+    <cfRule type="expression" dxfId="33" priority="48">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Deleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="67" priority="73">
+    <cfRule type="expression" dxfId="32" priority="49">
       <formula>EXACT(INDIRECT("L"&amp;ROW()),"Deleted")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F345">
-    <cfRule type="expression" dxfId="66" priority="74">
-      <formula>NOT(VLOOKUP(F345,$A$12:$C$15,2,FALSE)="In")</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="65" priority="75">
-      <formula>(VLOOKUP(F345,$A$12:$C$15,2,FALSE)="In")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A337:I337">
-    <cfRule type="expression" dxfId="64" priority="60">
-      <formula>EXACT(INDIRECT("P"&amp;ROW()),"Section Deleted")</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="63" priority="61">
-      <formula>EXACT(INDIRECT("P"&amp;ROW()),"Deleted")</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="62" priority="62">
-      <formula>EXACT(INDIRECT("L"&amp;ROW()),"Deleted")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A337:I337">
-    <cfRule type="expression" dxfId="61" priority="55">
-      <formula>EXACT(INDIRECT("P"&amp;ROW()),"SectionDeleted")</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="60" priority="56">
-      <formula>EXACT(INDIRECT("P"&amp;ROW()),"Deleted")</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="59" priority="57">
-      <formula>EXACT(INDIRECT("L"&amp;ROW()),"Deleted")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F337">
-    <cfRule type="expression" dxfId="58" priority="58">
-      <formula>NOT(VLOOKUP(F337,$A$12:$C$15,2,FALSE)="In")</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="57" priority="59">
-      <formula>(VLOOKUP(F337,$A$12:$C$15,2,FALSE)="In")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A338:I339">
-    <cfRule type="expression" dxfId="56" priority="52">
-      <formula>EXACT(INDIRECT("P"&amp;ROW()),"Section Deleted")</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="55" priority="53">
-      <formula>EXACT(INDIRECT("P"&amp;ROW()),"Deleted")</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="54" priority="54">
-      <formula>EXACT(INDIRECT("L"&amp;ROW()),"Deleted")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A338:I339">
-    <cfRule type="expression" dxfId="53" priority="47">
-      <formula>EXACT(INDIRECT("P"&amp;ROW()),"SectionDeleted")</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="52" priority="48">
-      <formula>EXACT(INDIRECT("P"&amp;ROW()),"Deleted")</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="51" priority="49">
-      <formula>EXACT(INDIRECT("L"&amp;ROW()),"Deleted")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F338:F339">
-    <cfRule type="expression" dxfId="50" priority="50">
-      <formula>NOT(VLOOKUP(F338,$A$12:$C$15,2,FALSE)="In")</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="49" priority="51">
-      <formula>(VLOOKUP(F338,$A$12:$C$15,2,FALSE)="In")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A341:I341">
-    <cfRule type="expression" dxfId="48" priority="36">
-      <formula>EXACT(INDIRECT("P"&amp;ROW()),"Section Deleted")</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="47" priority="37">
-      <formula>EXACT(INDIRECT("P"&amp;ROW()),"Deleted")</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="46" priority="38">
-      <formula>EXACT(INDIRECT("L"&amp;ROW()),"Deleted")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A341:I341">
-    <cfRule type="expression" dxfId="45" priority="31">
-      <formula>EXACT(INDIRECT("P"&amp;ROW()),"SectionDeleted")</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="44" priority="32">
-      <formula>EXACT(INDIRECT("P"&amp;ROW()),"Deleted")</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="43" priority="33">
-      <formula>EXACT(INDIRECT("L"&amp;ROW()),"Deleted")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F341">
-    <cfRule type="expression" dxfId="42" priority="34">
+  <conditionalFormatting sqref="F341:F342">
+    <cfRule type="expression" dxfId="31" priority="50">
       <formula>NOT(VLOOKUP(F341,$A$12:$C$15,2,FALSE)="In")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="41" priority="35">
+    <cfRule type="expression" dxfId="30" priority="51">
       <formula>(VLOOKUP(F341,$A$12:$C$15,2,FALSE)="In")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A344:I344">
-    <cfRule type="expression" dxfId="40" priority="20">
+    <cfRule type="expression" dxfId="29" priority="36">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Section Deleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="39" priority="21">
+    <cfRule type="expression" dxfId="28" priority="37">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Deleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="38" priority="22">
+    <cfRule type="expression" dxfId="27" priority="38">
       <formula>EXACT(INDIRECT("L"&amp;ROW()),"Deleted")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A344:I344">
-    <cfRule type="expression" dxfId="37" priority="15">
+    <cfRule type="expression" dxfId="26" priority="31">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"SectionDeleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="36" priority="16">
+    <cfRule type="expression" dxfId="25" priority="32">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Deleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="35" priority="17">
+    <cfRule type="expression" dxfId="24" priority="33">
       <formula>EXACT(INDIRECT("L"&amp;ROW()),"Deleted")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F344">
-    <cfRule type="expression" dxfId="34" priority="18">
+    <cfRule type="expression" dxfId="23" priority="34">
       <formula>NOT(VLOOKUP(F344,$A$12:$C$15,2,FALSE)="In")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="33" priority="19">
+    <cfRule type="expression" dxfId="22" priority="35">
       <formula>(VLOOKUP(F344,$A$12:$C$15,2,FALSE)="In")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A346:H346">
-    <cfRule type="expression" dxfId="32" priority="12">
+  <conditionalFormatting sqref="A347:I347">
+    <cfRule type="expression" dxfId="21" priority="20">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Section Deleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="31" priority="13">
+    <cfRule type="expression" dxfId="20" priority="21">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Deleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="30" priority="14">
+    <cfRule type="expression" dxfId="19" priority="22">
       <formula>EXACT(INDIRECT("L"&amp;ROW()),"Deleted")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A346:H346">
-    <cfRule type="expression" dxfId="29" priority="7">
+  <conditionalFormatting sqref="A347:I347">
+    <cfRule type="expression" dxfId="18" priority="15">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"SectionDeleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="28" priority="8">
+    <cfRule type="expression" dxfId="17" priority="16">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Deleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="27" priority="9">
+    <cfRule type="expression" dxfId="16" priority="17">
       <formula>EXACT(INDIRECT("L"&amp;ROW()),"Deleted")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F346">
-    <cfRule type="expression" dxfId="26" priority="10">
-      <formula>NOT(VLOOKUP(F346,$A$12:$C$15,2,FALSE)="In")</formula>
+  <conditionalFormatting sqref="F347">
+    <cfRule type="expression" dxfId="15" priority="18">
+      <formula>NOT(VLOOKUP(F347,$A$12:$C$15,2,FALSE)="In")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="25" priority="11">
-      <formula>(VLOOKUP(F346,$A$12:$C$15,2,FALSE)="In")</formula>
+    <cfRule type="expression" dxfId="14" priority="19">
+      <formula>(VLOOKUP(F347,$A$12:$C$15,2,FALSE)="In")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I346">
-    <cfRule type="expression" dxfId="24" priority="4">
+  <conditionalFormatting sqref="A349:H349">
+    <cfRule type="expression" dxfId="13" priority="12">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Section Deleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="23" priority="5">
+    <cfRule type="expression" dxfId="12" priority="13">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Deleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="22" priority="6">
+    <cfRule type="expression" dxfId="11" priority="14">
       <formula>EXACT(INDIRECT("L"&amp;ROW()),"Deleted")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I346">
-    <cfRule type="expression" dxfId="21" priority="1">
+  <conditionalFormatting sqref="A349:H349">
+    <cfRule type="expression" dxfId="10" priority="7">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"SectionDeleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="20" priority="2">
+    <cfRule type="expression" dxfId="9" priority="8">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Deleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="19" priority="3">
+    <cfRule type="expression" dxfId="8" priority="9">
+      <formula>EXACT(INDIRECT("L"&amp;ROW()),"Deleted")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F349">
+    <cfRule type="expression" dxfId="7" priority="10">
+      <formula>NOT(VLOOKUP(F349,$A$12:$C$15,2,FALSE)="In")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="6" priority="11">
+      <formula>(VLOOKUP(F349,$A$12:$C$15,2,FALSE)="In")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I349">
+    <cfRule type="expression" dxfId="5" priority="4">
+      <formula>EXACT(INDIRECT("P"&amp;ROW()),"Section Deleted")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="4" priority="5">
+      <formula>EXACT(INDIRECT("P"&amp;ROW()),"Deleted")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="6">
+      <formula>EXACT(INDIRECT("L"&amp;ROW()),"Deleted")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I349">
+    <cfRule type="expression" dxfId="2" priority="1">
+      <formula>EXACT(INDIRECT("P"&amp;ROW()),"SectionDeleted")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="1" priority="2">
+      <formula>EXACT(INDIRECT("P"&amp;ROW()),"Deleted")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="0" priority="3">
       <formula>EXACT(INDIRECT("L"&amp;ROW()),"Deleted")</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="7">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F4 F20:F346" xr:uid="{00000000-0002-0000-0000-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F4 F20:F349" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>$A$13:$A$15</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E4 E20:E346" xr:uid="{00000000-0002-0000-0000-000001000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E4 E20:E349" xr:uid="{00000000-0002-0000-0000-000001000000}">
       <formula1>"Protocol,Product"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G4 G20:G346" xr:uid="{00000000-0002-0000-0000-000002000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G4 G20:G349" xr:uid="{00000000-0002-0000-0000-000002000000}">
       <formula1>"Informative,Normative"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B13:B15" xr:uid="{00000000-0002-0000-0000-000003000000}">
       <formula1>"In, Out"</formula1>
     </dataValidation>
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C3" xr:uid="{00000000-0002-0000-0000-000004000000}"/>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H345 H20:H336" xr:uid="{00000000-0002-0000-0000-000005000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H348 H20:H339" xr:uid="{00000000-0002-0000-0000-000005000000}">
       <formula1>"Non-testable, Unverified, Adapter, Test Case"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H346 H337:H344" xr:uid="{00000000-0002-0000-0000-000006000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H349 H340:H347" xr:uid="{00000000-0002-0000-0000-000006000000}">
       <formula1>"Message Deserialization, Non-testable, Unverified, Adapter, Test Case"</formula1>
     </dataValidation>
   </dataValidations>
@@ -13415,7 +13510,7 @@
     <oddFooter>&amp;F&amp;RPage &amp;P</oddFooter>
   </headerFooter>
   <ignoredErrors>
-    <ignoredError sqref="B1:B9 B11:B16 B18:B45 B179:B181 B183:B194 B201:B301 B317:B320 B346:B347" numberStoredAsText="1"/>
+    <ignoredError sqref="B1:B9 B11:B16 B18:B45 B182:B184 B186:B197 B204:B304 B320:B323 B349:B350" numberStoredAsText="1"/>
   </ignoredErrors>
   <tableParts count="2">
     <tablePart r:id="rId2"/>

--- a/ExchangeWebServices/Docs/MS-OXWSMSG/MS-OXWSMSG_RequirementSpecification.xlsx
+++ b/ExchangeWebServices/Docs/MS-OXWSMSG/MS-OXWSMSG_RequirementSpecification.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22228"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C4FC4E17-26C6-488D-99C8-838D22864EF3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{EABAA239-24BB-46BA-8BFD-ED43F6928875}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="21480" yWindow="-120" windowWidth="19440" windowHeight="15000" tabRatio="570" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2383" uniqueCount="777">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2383" uniqueCount="778">
   <si>
     <t>Req ID</t>
   </si>
@@ -2910,6 +2910,9 @@
   </si>
   <si>
     <t>MS-OXWSMSG_R73010</t>
+  </si>
+  <si>
+    <t>MS-OXWSMSG_R444</t>
   </si>
 </sst>
 </file>
@@ -3214,21 +3217,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -3253,12 +3241,365 @@
     <xf numFmtId="0" fontId="3" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="89">
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color theme="0"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <name val="Calibri"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <name val="Calibri"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <name val="Calibri"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <alignment horizontal="left" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <name val="Calibri"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <name val="Calibri"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <name val="Calibri"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <name val="Calibri"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <name val="Calibri"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <name val="Calibri"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <alignment horizontal="left" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <name val="Calibri"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="left" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <name val="Calibri"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
     <dxf>
       <font>
         <strike/>
@@ -3641,344 +3982,6 @@
         <strike/>
       </font>
     </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color theme="0"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <name val="Calibri"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <name val="Calibri"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="30" formatCode="@"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="left" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <name val="Calibri"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="30" formatCode="@"/>
-      <alignment horizontal="left" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <name val="Calibri"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="30" formatCode="@"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="left" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <name val="Calibri"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="30" formatCode="@"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="left" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <name val="Calibri"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="30" formatCode="@"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="left" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <name val="Calibri"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <name val="Calibri"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="30" formatCode="@"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <name val="Calibri"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="30" formatCode="@"/>
-      <alignment horizontal="left" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <name val="Calibri"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="left" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <name val="Calibri"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -4108,43 +4111,37 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Requirement" displayName="Requirement" ref="A19:I349" tableType="xml" totalsRowShown="0" headerRowDxfId="88" dataDxfId="87" connectionId="1">
-  <autoFilter ref="A19:I349" xr:uid="{00000000-0009-0000-0100-000001000000}">
-    <filterColumn colId="5">
-      <filters>
-        <filter val="Both"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Requirement" displayName="Requirement" ref="A19:I349" tableType="xml" totalsRowShown="0" headerRowDxfId="18" dataDxfId="17" connectionId="1">
+  <autoFilter ref="A19:I349" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A52:I64">
     <sortCondition descending="1" ref="F19:F349"/>
   </sortState>
   <tableColumns count="9">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" uniqueName="ns1:REQ_ID" name="Req ID" dataDxfId="86">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" uniqueName="ns1:REQ_ID" name="Req ID" dataDxfId="16">
       <xmlColumnPr mapId="12" xpath="/ns1:ReqTable/ns1:Requirement/ns1:REQ_ID" xmlDataType="string"/>
     </tableColumn>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" uniqueName="ns1:Doc_Sect" name="Doc Sect" dataDxfId="85">
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" uniqueName="ns1:Doc_Sect" name="Doc Sect" dataDxfId="15">
       <xmlColumnPr mapId="12" xpath="/ns1:ReqTable/ns1:Requirement/ns1:Doc_Sect" xmlDataType="string"/>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" uniqueName="ns1:Description" name="Description" dataDxfId="84">
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" uniqueName="ns1:Description" name="Description" dataDxfId="14">
       <xmlColumnPr mapId="12" xpath="/ns1:ReqTable/ns1:Requirement/ns1:Description" xmlDataType="string"/>
     </tableColumn>
-    <tableColumn id="18" xr3:uid="{00000000-0010-0000-0000-000012000000}" uniqueName="ns1:Derived" name="Derived" dataDxfId="83">
+    <tableColumn id="18" xr3:uid="{00000000-0010-0000-0000-000012000000}" uniqueName="ns1:Derived" name="Derived" dataDxfId="13">
       <xmlColumnPr mapId="12" xpath="/ns1:ReqTable/ns1:Requirement/ns1:Derived" xmlDataType="string"/>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" uniqueName="ns1:Behavior" name="Behavior" dataDxfId="82">
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" uniqueName="ns1:Behavior" name="Behavior" dataDxfId="12">
       <xmlColumnPr mapId="12" xpath="/ns1:ReqTable/ns1:Requirement/ns1:Behavior" xmlDataType="string"/>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" uniqueName="ns1:Scope" name="Scope" dataDxfId="81">
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" uniqueName="ns1:Scope" name="Scope" dataDxfId="11">
       <xmlColumnPr mapId="12" xpath="/ns1:ReqTable/ns1:Requirement/ns1:Scope" xmlDataType="string"/>
     </tableColumn>
-    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" uniqueName="ns1:IsNormative" name="Informative_x000a_/Normative" dataDxfId="80">
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" uniqueName="ns1:IsNormative" name="Informative_x000a_/Normative" dataDxfId="10">
       <xmlColumnPr mapId="12" xpath="/ns1:ReqTable/ns1:Requirement/ns1:IsNormative" xmlDataType="string"/>
     </tableColumn>
-    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" uniqueName="ns1:Verification" name="Verification" dataDxfId="79">
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" uniqueName="ns1:Verification" name="Verification" dataDxfId="9">
       <xmlColumnPr mapId="12" xpath="/ns1:ReqTable/ns1:Requirement/ns1:Verification" xmlDataType="string"/>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" uniqueName="ns1:VerificationComment" name="Verification Comment" dataDxfId="78">
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" uniqueName="ns1:VerificationComment" name="Verification Comment" dataDxfId="8">
       <xmlColumnPr mapId="12" xpath="/ns1:ReqTable/ns1:Requirement/ns1:VerificationComment" xmlDataType="string"/>
     </tableColumn>
   </tableColumns>
@@ -4153,12 +4150,12 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Scope" displayName="Scope" ref="A12:C15" totalsRowShown="0" headerRowDxfId="77" dataDxfId="75" headerRowBorderDxfId="76" tableBorderDxfId="74" totalsRowBorderDxfId="73">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Scope" displayName="Scope" ref="A12:C15" totalsRowShown="0" headerRowDxfId="7" dataDxfId="5" headerRowBorderDxfId="6" tableBorderDxfId="4" totalsRowBorderDxfId="3">
   <autoFilter ref="A12:C15" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="Scope" dataDxfId="72"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="Test" dataDxfId="71"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0100-000003000000}" name="Description" dataDxfId="70"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="Scope" dataDxfId="2"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="Test" dataDxfId="1"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0100-000003000000}" name="Description" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -4488,9 +4485,7 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:L350"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A149" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D153" sqref="D153"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
@@ -4543,127 +4538,127 @@
       <c r="J3" s="5"/>
     </row>
     <row r="4" spans="1:10" ht="21">
-      <c r="A4" s="41" t="s">
+      <c r="A4" s="49" t="s">
         <v>24</v>
       </c>
-      <c r="B4" s="41"/>
-      <c r="C4" s="41"/>
-      <c r="D4" s="41"/>
-      <c r="E4" s="41"/>
-      <c r="F4" s="41"/>
-      <c r="G4" s="41"/>
+      <c r="B4" s="49"/>
+      <c r="C4" s="49"/>
+      <c r="D4" s="49"/>
+      <c r="E4" s="49"/>
+      <c r="F4" s="49"/>
+      <c r="G4" s="49"/>
       <c r="J4" s="5"/>
     </row>
     <row r="5" spans="1:10">
       <c r="A5" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="B5" s="44" t="s">
+      <c r="B5" s="52" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="45"/>
-      <c r="D5" s="45"/>
-      <c r="E5" s="45"/>
-      <c r="F5" s="45"/>
-      <c r="G5" s="45"/>
-      <c r="H5" s="45"/>
-      <c r="I5" s="45"/>
+      <c r="C5" s="53"/>
+      <c r="D5" s="53"/>
+      <c r="E5" s="53"/>
+      <c r="F5" s="53"/>
+      <c r="G5" s="53"/>
+      <c r="H5" s="53"/>
+      <c r="I5" s="53"/>
       <c r="J5" s="5"/>
     </row>
     <row r="6" spans="1:10">
       <c r="A6" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="B6" s="43" t="s">
+      <c r="B6" s="51" t="s">
         <v>33</v>
       </c>
-      <c r="C6" s="43"/>
-      <c r="D6" s="43"/>
-      <c r="E6" s="43"/>
-      <c r="F6" s="43"/>
-      <c r="G6" s="43"/>
-      <c r="H6" s="43"/>
-      <c r="I6" s="43"/>
+      <c r="C6" s="51"/>
+      <c r="D6" s="51"/>
+      <c r="E6" s="51"/>
+      <c r="F6" s="51"/>
+      <c r="G6" s="51"/>
+      <c r="H6" s="51"/>
+      <c r="I6" s="51"/>
       <c r="J6" s="5"/>
     </row>
     <row r="7" spans="1:10">
       <c r="A7" s="13" t="s">
         <v>37</v>
       </c>
-      <c r="B7" s="42" t="s">
+      <c r="B7" s="50" t="s">
         <v>28</v>
       </c>
-      <c r="C7" s="42"/>
-      <c r="D7" s="42"/>
-      <c r="E7" s="42"/>
-      <c r="F7" s="42"/>
-      <c r="G7" s="42"/>
-      <c r="H7" s="42"/>
-      <c r="I7" s="42"/>
+      <c r="C7" s="50"/>
+      <c r="D7" s="50"/>
+      <c r="E7" s="50"/>
+      <c r="F7" s="50"/>
+      <c r="G7" s="50"/>
+      <c r="H7" s="50"/>
+      <c r="I7" s="50"/>
       <c r="J7" s="5"/>
     </row>
     <row r="8" spans="1:10">
       <c r="A8" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="B8" s="42" t="s">
+      <c r="B8" s="50" t="s">
         <v>29</v>
       </c>
-      <c r="C8" s="42"/>
-      <c r="D8" s="42"/>
-      <c r="E8" s="42"/>
-      <c r="F8" s="42"/>
-      <c r="G8" s="42"/>
-      <c r="H8" s="42"/>
-      <c r="I8" s="42"/>
+      <c r="C8" s="50"/>
+      <c r="D8" s="50"/>
+      <c r="E8" s="50"/>
+      <c r="F8" s="50"/>
+      <c r="G8" s="50"/>
+      <c r="H8" s="50"/>
+      <c r="I8" s="50"/>
       <c r="J8" s="5"/>
     </row>
     <row r="9" spans="1:10" ht="75.75" customHeight="1">
       <c r="A9" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="B9" s="50" t="s">
+      <c r="B9" s="45" t="s">
         <v>36</v>
       </c>
-      <c r="C9" s="51"/>
-      <c r="D9" s="51"/>
-      <c r="E9" s="51"/>
-      <c r="F9" s="51"/>
-      <c r="G9" s="51"/>
-      <c r="H9" s="51"/>
-      <c r="I9" s="51"/>
+      <c r="C9" s="46"/>
+      <c r="D9" s="46"/>
+      <c r="E9" s="46"/>
+      <c r="F9" s="46"/>
+      <c r="G9" s="46"/>
+      <c r="H9" s="46"/>
+      <c r="I9" s="46"/>
       <c r="J9" s="5"/>
     </row>
     <row r="10" spans="1:10" ht="30.75" customHeight="1">
       <c r="A10" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="B10" s="50" t="s">
+      <c r="B10" s="45" t="s">
         <v>432</v>
       </c>
-      <c r="C10" s="51"/>
-      <c r="D10" s="51"/>
-      <c r="E10" s="51"/>
-      <c r="F10" s="51"/>
-      <c r="G10" s="51"/>
-      <c r="H10" s="51"/>
-      <c r="I10" s="51"/>
+      <c r="C10" s="46"/>
+      <c r="D10" s="46"/>
+      <c r="E10" s="46"/>
+      <c r="F10" s="46"/>
+      <c r="G10" s="46"/>
+      <c r="H10" s="46"/>
+      <c r="I10" s="46"/>
       <c r="J10" s="5"/>
     </row>
     <row r="11" spans="1:10">
       <c r="A11" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="B11" s="46" t="s">
+      <c r="B11" s="41" t="s">
         <v>39</v>
       </c>
-      <c r="C11" s="46"/>
-      <c r="D11" s="46"/>
-      <c r="E11" s="46"/>
-      <c r="F11" s="46"/>
-      <c r="G11" s="46"/>
-      <c r="H11" s="46"/>
-      <c r="I11" s="46"/>
+      <c r="C11" s="41"/>
+      <c r="D11" s="41"/>
+      <c r="E11" s="41"/>
+      <c r="F11" s="41"/>
+      <c r="G11" s="41"/>
+      <c r="H11" s="41"/>
+      <c r="I11" s="41"/>
       <c r="J11" s="5"/>
     </row>
     <row r="12" spans="1:10">
@@ -4676,12 +4671,12 @@
       <c r="C12" s="18" t="s">
         <v>1</v>
       </c>
-      <c r="D12" s="47"/>
-      <c r="E12" s="47"/>
-      <c r="F12" s="47"/>
-      <c r="G12" s="47"/>
-      <c r="H12" s="47"/>
-      <c r="I12" s="47"/>
+      <c r="D12" s="42"/>
+      <c r="E12" s="42"/>
+      <c r="F12" s="42"/>
+      <c r="G12" s="42"/>
+      <c r="H12" s="42"/>
+      <c r="I12" s="42"/>
       <c r="J12" s="5"/>
     </row>
     <row r="13" spans="1:10">
@@ -4694,12 +4689,12 @@
       <c r="C13" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="D13" s="48"/>
-      <c r="E13" s="48"/>
-      <c r="F13" s="48"/>
-      <c r="G13" s="48"/>
-      <c r="H13" s="48"/>
-      <c r="I13" s="48"/>
+      <c r="D13" s="43"/>
+      <c r="E13" s="43"/>
+      <c r="F13" s="43"/>
+      <c r="G13" s="43"/>
+      <c r="H13" s="43"/>
+      <c r="I13" s="43"/>
       <c r="J13" s="5"/>
     </row>
     <row r="14" spans="1:10">
@@ -4712,12 +4707,12 @@
       <c r="C14" s="15" t="s">
         <v>34</v>
       </c>
-      <c r="D14" s="48"/>
-      <c r="E14" s="48"/>
-      <c r="F14" s="48"/>
-      <c r="G14" s="48"/>
-      <c r="H14" s="48"/>
-      <c r="I14" s="48"/>
+      <c r="D14" s="43"/>
+      <c r="E14" s="43"/>
+      <c r="F14" s="43"/>
+      <c r="G14" s="43"/>
+      <c r="H14" s="43"/>
+      <c r="I14" s="43"/>
       <c r="J14" s="5"/>
     </row>
     <row r="15" spans="1:10" ht="30">
@@ -4730,60 +4725,60 @@
       <c r="C15" s="15" t="s">
         <v>30</v>
       </c>
-      <c r="D15" s="49"/>
-      <c r="E15" s="49"/>
-      <c r="F15" s="49"/>
-      <c r="G15" s="49"/>
-      <c r="H15" s="49"/>
-      <c r="I15" s="49"/>
+      <c r="D15" s="44"/>
+      <c r="E15" s="44"/>
+      <c r="F15" s="44"/>
+      <c r="G15" s="44"/>
+      <c r="H15" s="44"/>
+      <c r="I15" s="44"/>
       <c r="J15" s="5"/>
     </row>
     <row r="16" spans="1:10">
       <c r="A16" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="B16" s="46" t="s">
+      <c r="B16" s="41" t="s">
         <v>40</v>
       </c>
-      <c r="C16" s="46"/>
-      <c r="D16" s="46"/>
-      <c r="E16" s="46"/>
-      <c r="F16" s="46"/>
-      <c r="G16" s="46"/>
-      <c r="H16" s="46"/>
-      <c r="I16" s="46"/>
+      <c r="C16" s="41"/>
+      <c r="D16" s="41"/>
+      <c r="E16" s="41"/>
+      <c r="F16" s="41"/>
+      <c r="G16" s="41"/>
+      <c r="H16" s="41"/>
+      <c r="I16" s="41"/>
       <c r="J16" s="5"/>
     </row>
     <row r="17" spans="1:12" ht="61.5" customHeight="1">
       <c r="A17" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="B17" s="52" t="s">
+      <c r="B17" s="47" t="s">
         <v>563</v>
       </c>
-      <c r="C17" s="53"/>
-      <c r="D17" s="53"/>
-      <c r="E17" s="53"/>
-      <c r="F17" s="53"/>
-      <c r="G17" s="53"/>
-      <c r="H17" s="53"/>
-      <c r="I17" s="53"/>
+      <c r="C17" s="48"/>
+      <c r="D17" s="48"/>
+      <c r="E17" s="48"/>
+      <c r="F17" s="48"/>
+      <c r="G17" s="48"/>
+      <c r="H17" s="48"/>
+      <c r="I17" s="48"/>
       <c r="J17" s="5"/>
     </row>
     <row r="18" spans="1:12">
       <c r="A18" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="B18" s="46" t="s">
+      <c r="B18" s="41" t="s">
         <v>35</v>
       </c>
-      <c r="C18" s="46"/>
-      <c r="D18" s="46"/>
-      <c r="E18" s="46"/>
-      <c r="F18" s="46"/>
-      <c r="G18" s="46"/>
-      <c r="H18" s="46"/>
-      <c r="I18" s="46"/>
+      <c r="C18" s="41"/>
+      <c r="D18" s="41"/>
+      <c r="E18" s="41"/>
+      <c r="F18" s="41"/>
+      <c r="G18" s="41"/>
+      <c r="H18" s="41"/>
+      <c r="I18" s="41"/>
       <c r="J18" s="5"/>
       <c r="L18" s="4"/>
     </row>
@@ -5521,7 +5516,7 @@
     </row>
     <row r="48" spans="1:9" ht="30">
       <c r="A48" s="21" t="s">
-        <v>205</v>
+        <v>777</v>
       </c>
       <c r="B48" s="23" t="s">
         <v>255</v>
@@ -6912,7 +6907,7 @@
       </c>
       <c r="I102" s="31"/>
     </row>
-    <row r="103" spans="1:9" ht="45" hidden="1">
+    <row r="103" spans="1:9" ht="45">
       <c r="A103" s="29" t="s">
         <v>97</v>
       </c>
@@ -6937,7 +6932,7 @@
       </c>
       <c r="I103" s="31"/>
     </row>
-    <row r="104" spans="1:9" ht="45" hidden="1">
+    <row r="104" spans="1:9" ht="45">
       <c r="A104" s="29" t="s">
         <v>98</v>
       </c>
@@ -7364,7 +7359,7 @@
       </c>
       <c r="I120" s="31"/>
     </row>
-    <row r="121" spans="1:9" hidden="1">
+    <row r="121" spans="1:9">
       <c r="A121" s="29" t="s">
         <v>115</v>
       </c>
@@ -7389,7 +7384,7 @@
       </c>
       <c r="I121" s="31"/>
     </row>
-    <row r="122" spans="1:9" ht="30" hidden="1">
+    <row r="122" spans="1:9" ht="30">
       <c r="A122" s="29" t="s">
         <v>116</v>
       </c>
@@ -7414,7 +7409,7 @@
       </c>
       <c r="I122" s="31"/>
     </row>
-    <row r="123" spans="1:9" ht="30" hidden="1">
+    <row r="123" spans="1:9" ht="30">
       <c r="A123" s="29" t="s">
         <v>117</v>
       </c>
@@ -7439,7 +7434,7 @@
       </c>
       <c r="I123" s="31"/>
     </row>
-    <row r="124" spans="1:9" ht="30" hidden="1">
+    <row r="124" spans="1:9" ht="30">
       <c r="A124" s="29" t="s">
         <v>118</v>
       </c>
@@ -7464,7 +7459,7 @@
       </c>
       <c r="I124" s="31"/>
     </row>
-    <row r="125" spans="1:9" ht="30" hidden="1">
+    <row r="125" spans="1:9" ht="30">
       <c r="A125" s="29" t="s">
         <v>119</v>
       </c>
@@ -8905,7 +8900,7 @@
       </c>
       <c r="I181" s="34"/>
     </row>
-    <row r="182" spans="1:9" ht="45" hidden="1">
+    <row r="182" spans="1:9" ht="45">
       <c r="A182" s="29" t="s">
         <v>138</v>
       </c>
@@ -8930,7 +8925,7 @@
       </c>
       <c r="I182" s="31"/>
     </row>
-    <row r="183" spans="1:9" ht="30" hidden="1">
+    <row r="183" spans="1:9" ht="30">
       <c r="A183" s="29" t="s">
         <v>139</v>
       </c>
@@ -8955,7 +8950,7 @@
       </c>
       <c r="I183" s="31"/>
     </row>
-    <row r="184" spans="1:9" ht="30" hidden="1">
+    <row r="184" spans="1:9" ht="30">
       <c r="A184" s="21" t="s">
         <v>140</v>
       </c>
@@ -8980,7 +8975,7 @@
       </c>
       <c r="I184" s="31"/>
     </row>
-    <row r="185" spans="1:9" ht="30" hidden="1">
+    <row r="185" spans="1:9" ht="30">
       <c r="A185" s="21" t="s">
         <v>683</v>
       </c>
@@ -9005,7 +9000,7 @@
       </c>
       <c r="I185" s="34"/>
     </row>
-    <row r="186" spans="1:9" ht="45" hidden="1">
+    <row r="186" spans="1:9" ht="45">
       <c r="A186" s="29" t="s">
         <v>141</v>
       </c>
@@ -9030,7 +9025,7 @@
       </c>
       <c r="I186" s="31"/>
     </row>
-    <row r="187" spans="1:9" ht="240" hidden="1">
+    <row r="187" spans="1:9" ht="240">
       <c r="A187" s="29" t="s">
         <v>142</v>
       </c>
@@ -9055,7 +9050,7 @@
       </c>
       <c r="I187" s="31"/>
     </row>
-    <row r="188" spans="1:9" ht="45" hidden="1">
+    <row r="188" spans="1:9" ht="45">
       <c r="A188" s="29" t="s">
         <v>143</v>
       </c>
@@ -9532,7 +9527,7 @@
       </c>
       <c r="I206" s="31"/>
     </row>
-    <row r="207" spans="1:9" hidden="1">
+    <row r="207" spans="1:9">
       <c r="A207" s="29" t="s">
         <v>156</v>
       </c>
@@ -9557,7 +9552,7 @@
       </c>
       <c r="I207" s="31"/>
     </row>
-    <row r="208" spans="1:9" ht="30" hidden="1">
+    <row r="208" spans="1:9" ht="30">
       <c r="A208" s="29" t="s">
         <v>157</v>
       </c>
@@ -10682,7 +10677,7 @@
       </c>
       <c r="I252" s="31"/>
     </row>
-    <row r="253" spans="1:9" ht="30" hidden="1">
+    <row r="253" spans="1:9" ht="30">
       <c r="A253" s="29" t="s">
         <v>182</v>
       </c>
@@ -10707,7 +10702,7 @@
       </c>
       <c r="I253" s="31"/>
     </row>
-    <row r="254" spans="1:9" hidden="1">
+    <row r="254" spans="1:9">
       <c r="A254" s="29" t="s">
         <v>183</v>
       </c>
@@ -10732,7 +10727,7 @@
       </c>
       <c r="I254" s="31"/>
     </row>
-    <row r="255" spans="1:9" ht="45" hidden="1">
+    <row r="255" spans="1:9" ht="45">
       <c r="A255" s="29" t="s">
         <v>184</v>
       </c>
@@ -10757,7 +10752,7 @@
       </c>
       <c r="I255" s="31"/>
     </row>
-    <row r="256" spans="1:9" hidden="1">
+    <row r="256" spans="1:9">
       <c r="A256" s="29" t="s">
         <v>185</v>
       </c>
@@ -10782,7 +10777,7 @@
       </c>
       <c r="I256" s="31"/>
     </row>
-    <row r="257" spans="1:9" ht="45" hidden="1">
+    <row r="257" spans="1:9" ht="45">
       <c r="A257" s="29" t="s">
         <v>186</v>
       </c>
@@ -10807,7 +10802,7 @@
       </c>
       <c r="I257" s="31"/>
     </row>
-    <row r="258" spans="1:9" ht="45" hidden="1">
+    <row r="258" spans="1:9" ht="45">
       <c r="A258" s="29" t="s">
         <v>187</v>
       </c>
@@ -10832,7 +10827,7 @@
       </c>
       <c r="I258" s="31"/>
     </row>
-    <row r="259" spans="1:9" ht="30" hidden="1">
+    <row r="259" spans="1:9" ht="30">
       <c r="A259" s="29" t="s">
         <v>188</v>
       </c>
@@ -10907,7 +10902,7 @@
       </c>
       <c r="I261" s="31"/>
     </row>
-    <row r="262" spans="1:9" ht="30" hidden="1">
+    <row r="262" spans="1:9" ht="30">
       <c r="A262" s="29" t="s">
         <v>191</v>
       </c>
@@ -11690,7 +11685,7 @@
       </c>
       <c r="I292" s="31"/>
     </row>
-    <row r="293" spans="1:9" ht="30" hidden="1">
+    <row r="293" spans="1:9" ht="30">
       <c r="A293" s="29" t="s">
         <v>204</v>
       </c>
@@ -11715,7 +11710,7 @@
       </c>
       <c r="I293" s="31"/>
     </row>
-    <row r="294" spans="1:9" ht="30" hidden="1">
+    <row r="294" spans="1:9" ht="30">
       <c r="A294" s="29" t="s">
         <v>205</v>
       </c>
@@ -13207,6 +13202,11 @@
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="A4:G4"/>
+    <mergeCell ref="B8:I8"/>
+    <mergeCell ref="B7:I7"/>
+    <mergeCell ref="B6:I6"/>
+    <mergeCell ref="B5:I5"/>
     <mergeCell ref="B11:I11"/>
     <mergeCell ref="D12:I15"/>
     <mergeCell ref="B16:I16"/>
@@ -13214,272 +13214,267 @@
     <mergeCell ref="B9:I9"/>
     <mergeCell ref="B10:I10"/>
     <mergeCell ref="B17:I17"/>
-    <mergeCell ref="A4:G4"/>
-    <mergeCell ref="B8:I8"/>
-    <mergeCell ref="B7:I7"/>
-    <mergeCell ref="B6:I6"/>
-    <mergeCell ref="B5:I5"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="A345:I346 A226:H226 B198:I198 A199:I225 A20:I197 A227:I339">
-    <cfRule type="expression" dxfId="69" priority="139">
+    <cfRule type="expression" dxfId="88" priority="139">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Section Deleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="68" priority="140">
+    <cfRule type="expression" dxfId="87" priority="140">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Deleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="67" priority="147">
+    <cfRule type="expression" dxfId="86" priority="147">
       <formula>EXACT(INDIRECT("L"&amp;ROW()),"Deleted")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A345:I346 A226:H226 B198:I198 A199:I225 A20:I197 A227:I339">
-    <cfRule type="expression" dxfId="66" priority="93">
+    <cfRule type="expression" dxfId="85" priority="93">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"SectionDeleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="65" priority="94">
+    <cfRule type="expression" dxfId="84" priority="94">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Deleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="64" priority="95">
+    <cfRule type="expression" dxfId="83" priority="95">
       <formula>EXACT(INDIRECT("L"&amp;ROW()),"Deleted")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F345:F346 F20:F339">
-    <cfRule type="expression" dxfId="63" priority="99">
+    <cfRule type="expression" dxfId="82" priority="99">
       <formula>NOT(VLOOKUP(F20,$A$12:$C$15,2,FALSE)="In")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="62" priority="100">
+    <cfRule type="expression" dxfId="81" priority="100">
       <formula>(VLOOKUP(F20,$A$12:$C$15,2,FALSE)="In")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A343:I343">
-    <cfRule type="expression" dxfId="61" priority="44">
+    <cfRule type="expression" dxfId="80" priority="44">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Section Deleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="60" priority="45">
+    <cfRule type="expression" dxfId="79" priority="45">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Deleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="59" priority="46">
+    <cfRule type="expression" dxfId="78" priority="46">
       <formula>EXACT(INDIRECT("L"&amp;ROW()),"Deleted")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A343:I343">
-    <cfRule type="expression" dxfId="58" priority="39">
+    <cfRule type="expression" dxfId="77" priority="39">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"SectionDeleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="57" priority="40">
+    <cfRule type="expression" dxfId="76" priority="40">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Deleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="56" priority="41">
+    <cfRule type="expression" dxfId="75" priority="41">
       <formula>EXACT(INDIRECT("L"&amp;ROW()),"Deleted")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F343">
-    <cfRule type="expression" dxfId="55" priority="42">
+    <cfRule type="expression" dxfId="74" priority="42">
       <formula>NOT(VLOOKUP(F343,$A$12:$C$15,2,FALSE)="In")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="54" priority="43">
+    <cfRule type="expression" dxfId="73" priority="43">
       <formula>(VLOOKUP(F343,$A$12:$C$15,2,FALSE)="In")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A348:I348">
-    <cfRule type="expression" dxfId="53" priority="76">
+    <cfRule type="expression" dxfId="72" priority="76">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Section Deleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="52" priority="77">
+    <cfRule type="expression" dxfId="71" priority="77">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Deleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="51" priority="78">
+    <cfRule type="expression" dxfId="70" priority="78">
       <formula>EXACT(INDIRECT("L"&amp;ROW()),"Deleted")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A348:I348">
-    <cfRule type="expression" dxfId="50" priority="71">
+    <cfRule type="expression" dxfId="69" priority="71">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"SectionDeleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="49" priority="72">
+    <cfRule type="expression" dxfId="68" priority="72">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Deleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="48" priority="73">
+    <cfRule type="expression" dxfId="67" priority="73">
       <formula>EXACT(INDIRECT("L"&amp;ROW()),"Deleted")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F348">
-    <cfRule type="expression" dxfId="47" priority="74">
+    <cfRule type="expression" dxfId="66" priority="74">
       <formula>NOT(VLOOKUP(F348,$A$12:$C$15,2,FALSE)="In")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="46" priority="75">
+    <cfRule type="expression" dxfId="65" priority="75">
       <formula>(VLOOKUP(F348,$A$12:$C$15,2,FALSE)="In")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A340:I340">
-    <cfRule type="expression" dxfId="45" priority="60">
+    <cfRule type="expression" dxfId="64" priority="60">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Section Deleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="44" priority="61">
+    <cfRule type="expression" dxfId="63" priority="61">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Deleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="43" priority="62">
+    <cfRule type="expression" dxfId="62" priority="62">
       <formula>EXACT(INDIRECT("L"&amp;ROW()),"Deleted")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A340:I340">
-    <cfRule type="expression" dxfId="42" priority="55">
+    <cfRule type="expression" dxfId="61" priority="55">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"SectionDeleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="41" priority="56">
+    <cfRule type="expression" dxfId="60" priority="56">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Deleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="40" priority="57">
+    <cfRule type="expression" dxfId="59" priority="57">
       <formula>EXACT(INDIRECT("L"&amp;ROW()),"Deleted")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F340">
-    <cfRule type="expression" dxfId="39" priority="58">
+    <cfRule type="expression" dxfId="58" priority="58">
       <formula>NOT(VLOOKUP(F340,$A$12:$C$15,2,FALSE)="In")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="38" priority="59">
+    <cfRule type="expression" dxfId="57" priority="59">
       <formula>(VLOOKUP(F340,$A$12:$C$15,2,FALSE)="In")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A341:I342">
-    <cfRule type="expression" dxfId="37" priority="52">
+    <cfRule type="expression" dxfId="56" priority="52">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Section Deleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="36" priority="53">
+    <cfRule type="expression" dxfId="55" priority="53">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Deleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="35" priority="54">
+    <cfRule type="expression" dxfId="54" priority="54">
       <formula>EXACT(INDIRECT("L"&amp;ROW()),"Deleted")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A341:I342">
-    <cfRule type="expression" dxfId="34" priority="47">
+    <cfRule type="expression" dxfId="53" priority="47">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"SectionDeleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="33" priority="48">
+    <cfRule type="expression" dxfId="52" priority="48">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Deleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="32" priority="49">
+    <cfRule type="expression" dxfId="51" priority="49">
       <formula>EXACT(INDIRECT("L"&amp;ROW()),"Deleted")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F341:F342">
-    <cfRule type="expression" dxfId="31" priority="50">
+    <cfRule type="expression" dxfId="50" priority="50">
       <formula>NOT(VLOOKUP(F341,$A$12:$C$15,2,FALSE)="In")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="30" priority="51">
+    <cfRule type="expression" dxfId="49" priority="51">
       <formula>(VLOOKUP(F341,$A$12:$C$15,2,FALSE)="In")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A344:I344">
-    <cfRule type="expression" dxfId="29" priority="36">
+    <cfRule type="expression" dxfId="48" priority="36">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Section Deleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="28" priority="37">
+    <cfRule type="expression" dxfId="47" priority="37">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Deleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="27" priority="38">
+    <cfRule type="expression" dxfId="46" priority="38">
       <formula>EXACT(INDIRECT("L"&amp;ROW()),"Deleted")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A344:I344">
-    <cfRule type="expression" dxfId="26" priority="31">
+    <cfRule type="expression" dxfId="45" priority="31">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"SectionDeleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="25" priority="32">
+    <cfRule type="expression" dxfId="44" priority="32">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Deleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="24" priority="33">
+    <cfRule type="expression" dxfId="43" priority="33">
       <formula>EXACT(INDIRECT("L"&amp;ROW()),"Deleted")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F344">
-    <cfRule type="expression" dxfId="23" priority="34">
+    <cfRule type="expression" dxfId="42" priority="34">
       <formula>NOT(VLOOKUP(F344,$A$12:$C$15,2,FALSE)="In")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="22" priority="35">
+    <cfRule type="expression" dxfId="41" priority="35">
       <formula>(VLOOKUP(F344,$A$12:$C$15,2,FALSE)="In")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A347:I347">
-    <cfRule type="expression" dxfId="21" priority="20">
+    <cfRule type="expression" dxfId="40" priority="20">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Section Deleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="20" priority="21">
+    <cfRule type="expression" dxfId="39" priority="21">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Deleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="19" priority="22">
+    <cfRule type="expression" dxfId="38" priority="22">
       <formula>EXACT(INDIRECT("L"&amp;ROW()),"Deleted")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A347:I347">
-    <cfRule type="expression" dxfId="18" priority="15">
+    <cfRule type="expression" dxfId="37" priority="15">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"SectionDeleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="17" priority="16">
+    <cfRule type="expression" dxfId="36" priority="16">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Deleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="16" priority="17">
+    <cfRule type="expression" dxfId="35" priority="17">
       <formula>EXACT(INDIRECT("L"&amp;ROW()),"Deleted")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F347">
-    <cfRule type="expression" dxfId="15" priority="18">
+    <cfRule type="expression" dxfId="34" priority="18">
       <formula>NOT(VLOOKUP(F347,$A$12:$C$15,2,FALSE)="In")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="14" priority="19">
+    <cfRule type="expression" dxfId="33" priority="19">
       <formula>(VLOOKUP(F347,$A$12:$C$15,2,FALSE)="In")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A349:H349">
-    <cfRule type="expression" dxfId="13" priority="12">
+    <cfRule type="expression" dxfId="32" priority="12">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Section Deleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="12" priority="13">
+    <cfRule type="expression" dxfId="31" priority="13">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Deleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="11" priority="14">
+    <cfRule type="expression" dxfId="30" priority="14">
       <formula>EXACT(INDIRECT("L"&amp;ROW()),"Deleted")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A349:H349">
-    <cfRule type="expression" dxfId="10" priority="7">
+    <cfRule type="expression" dxfId="29" priority="7">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"SectionDeleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="9" priority="8">
+    <cfRule type="expression" dxfId="28" priority="8">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Deleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="8" priority="9">
+    <cfRule type="expression" dxfId="27" priority="9">
       <formula>EXACT(INDIRECT("L"&amp;ROW()),"Deleted")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F349">
-    <cfRule type="expression" dxfId="7" priority="10">
+    <cfRule type="expression" dxfId="26" priority="10">
       <formula>NOT(VLOOKUP(F349,$A$12:$C$15,2,FALSE)="In")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="6" priority="11">
+    <cfRule type="expression" dxfId="25" priority="11">
       <formula>(VLOOKUP(F349,$A$12:$C$15,2,FALSE)="In")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I349">
-    <cfRule type="expression" dxfId="5" priority="4">
+    <cfRule type="expression" dxfId="24" priority="4">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Section Deleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="4" priority="5">
+    <cfRule type="expression" dxfId="23" priority="5">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Deleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="3" priority="6">
+    <cfRule type="expression" dxfId="22" priority="6">
       <formula>EXACT(INDIRECT("L"&amp;ROW()),"Deleted")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I349">
-    <cfRule type="expression" dxfId="2" priority="1">
+    <cfRule type="expression" dxfId="21" priority="1">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"SectionDeleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1" priority="2">
+    <cfRule type="expression" dxfId="20" priority="2">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Deleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="0" priority="3">
+    <cfRule type="expression" dxfId="19" priority="3">
       <formula>EXACT(INDIRECT("L"&amp;ROW()),"Deleted")</formula>
     </cfRule>
   </conditionalFormatting>

--- a/ExchangeWebServices/Docs/MS-OXWSMSG/MS-OXWSMSG_RequirementSpecification.xlsx
+++ b/ExchangeWebServices/Docs/MS-OXWSMSG/MS-OXWSMSG_RequirementSpecification.xlsx
@@ -3,15 +3,15 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22228"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{EABAA239-24BB-46BA-8BFD-ED43F6928875}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18946DFB-332D-4E0E-A58B-AF2963E04660}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="21480" yWindow="-120" windowWidth="19440" windowHeight="15000" tabRatio="570" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="21840" windowHeight="13140" tabRatio="570" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Requirements" sheetId="2" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Requirements!$A$19:$G$349</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Requirements!$A$19:$G$337</definedName>
     <definedName name="Appendix_A_Target_14" localSheetId="0">Requirements!$A$198</definedName>
     <definedName name="ExtensionList">Requirements!#REF!</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">Requirements!$A:$A,Requirements!$19:$19</definedName>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2383" uniqueCount="778">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2310" uniqueCount="756">
   <si>
     <t>Req ID</t>
   </si>
@@ -2021,12 +2021,6 @@
   </si>
   <si>
     <t>[In Appendix C: Product Behavior] Implementation does introduce the VotingInformation element. (This element was introduced in Exchange 2013 SP1.)</t>
-  </si>
-  <si>
-    <t>MS-OXWSMSG_R182001</t>
-  </si>
-  <si>
-    <t>MS-OXWSMSG_R182002</t>
   </si>
   <si>
     <t>MS-OXWSMSG_R182003</t>
@@ -2658,9 +2652,6 @@
     <t>[In t:SendPromptType Simple Type]The value "VotingOption" means the user is prompted to confirm their choice before sending a response.</t>
   </si>
   <si>
-    <t>[In Appendix C: Product Behavior] Implementation does not support the ApprovalRequestDataType complex type. (&lt;1&gt; Section 2.2.4: Exchange 2007, Exchange 2010, and the initial release of Exchange 2013 do not support the ApprovalRequestDataType complex type. )</t>
-  </si>
-  <si>
     <t>[In Appendix C: Product Behavior] Implementation does introduce the ApprovalRequestDataType complex type. (This type was introduced in Microsoft Exchange Server 2013 Service Pack 1 (SP1).)</t>
   </si>
   <si>
@@ -2670,30 +2661,6 @@
     <t>[In Appendix C: Product Behavior] Implementation does not support the VotingInformation element. (&lt;9&gt; Section 2.2.4.3:  Exchange 2007,Exchange 2010, and the initial release of Exchange 2013 do not support the VotingInformation element. )</t>
   </si>
   <si>
-    <t>MS-OXWSMSG_R352</t>
-  </si>
-  <si>
-    <t>MS-OXWSMSG_R353</t>
-  </si>
-  <si>
-    <t>MS-OXWSMSG_R354</t>
-  </si>
-  <si>
-    <t>MS-OXWSMSG_R355</t>
-  </si>
-  <si>
-    <t>MS-OXWSMSG_R356</t>
-  </si>
-  <si>
-    <t>MS-OXWSMSG_R357</t>
-  </si>
-  <si>
-    <t>MS-OXWSMSG_R358</t>
-  </si>
-  <si>
-    <t>MS-OXWSMSG_R359</t>
-  </si>
-  <si>
     <t>MS-OXWSMSG_R360</t>
   </si>
   <si>
@@ -2709,33 +2676,6 @@
     <t>[In Appendix C: Product Behavior] Implementation does introduce the ArrayOfVotingOptionDataType complex type. (This type was introduced in Microsoft Exchange Server 2013 Service Pack 1 (SP1).)</t>
   </si>
   <si>
-    <t>[In Appendix C: Product Behavior] Implementation does not support the ReminderMessageDataType complex type. (&lt;3&gt; Section 2.2.4: Exchange 2007, Exchange 2010, and the initial release of Exchange 2013 do not support the ReminderMessageDataType complex type. )</t>
-  </si>
-  <si>
-    <t>[In Appendix C: Product Behavior] Implementation does introduce the ReminderMessageDataType complex type. (This type was introduced in Microsoft Exchange Server 2013 Service Pack 1 (SP1).)</t>
-  </si>
-  <si>
-    <t>[In Appendix C: Product Behavior] Implementation does not support the VotingInformationType complex type. (&lt;4&gt; Section 2.2.4: Exchange 2007, Exchange 2010, and the initial release of Exchange 2013 do not support the VotingInformationType complex type. )</t>
-  </si>
-  <si>
-    <t>[In Appendix C: Product Behavior] Implementation does introduce the VotingInformationType complex type. (This type was introduced in Microsoft Exchange Server 2013 Service Pack 1 (SP1).)</t>
-  </si>
-  <si>
-    <t>[In Appendix C: Product Behavior] Implementation does not support the ArrayOfVotingOptionDataType complex type. (&lt;2&gt; Section 2.2.4: Exchange 2007, Exchange 2010, and the initial release of Exchange 2013 do not support the ArrayOfVotingOptionDataType complex type. )</t>
-  </si>
-  <si>
-    <t>[In Appendix C: Product Behavior] Implementation does not support the VotingOptionDataType complex type. (&lt;5&gt; Section 2.2.4: Exchange 2007, Exchange 2010, and the initial release of Exchange 2013 do not support the VotingOptionDataType complex type. )</t>
-  </si>
-  <si>
-    <t>[In Appendix C: Product Behavior] Implementation does introduce the VotingOptionDataType complex type. (This type was introduced in Microsoft Exchange Server 2013 Service Pack 1 (SP1).)</t>
-  </si>
-  <si>
-    <t>[In Appendix C: Product Behavior] Implementation does not support the ovalRequestDataTypAppre complex type. (&lt;6&gt; Section 2.2.4.1: Exchange 2007, Exchange 2010, and the initial release of Exchange 2013 do not support the ovalRequestDataTypAppre complex type. )</t>
-  </si>
-  <si>
-    <t>[In Appendix C: Product Behavior] Implementation does introduce the ovalRequestDataTypAppre complex type. (This type was introduced in Microsoft Exchange Server 2013 Service Pack 1 (SP1).)</t>
-  </si>
-  <si>
     <t>[In Appendix C: Product Behavior] Implementation does not support the ArrayOfVotingOptionDataType complex type. (&lt;7&gt; Section 2.2.4.2: Exchange 2007, Exchange 2010, and the initial release of Exchange 2013 do not support the ArrayOfVotingOptionDataType  complex type. )</t>
   </si>
   <si>
@@ -2769,9 +2709,6 @@
     <t>MS-OXWSMSG_R371</t>
   </si>
   <si>
-    <t>MS-OXWSMSG_R372</t>
-  </si>
-  <si>
     <t>[In Appendix C: Product Behavior] Implementation does not support the ReminderMessageDataType complex type. (&lt;11&gt; Section 2.2.4.4:  Exchange 2007,Exchange 2010, and the initial release of Exchange 2013 do not support the ReminderMessageDataType complex type. )</t>
   </si>
   <si>
@@ -2788,12 +2725,6 @@
   </si>
   <si>
     <t>[In Appendix C: Product Behavior] Implementation does introduce the VotingOptionDataType complex type. (This type was introduced in Exchange 2013 SP1.)</t>
-  </si>
-  <si>
-    <t>[In Appendix C: Product Behavior] Implementation does not support the SendPromptType simple type. (&lt;14&gt; Section 2.2.5:  Exchange 2007,Exchange 2010, and the initial release of Exchange 2013 do not support the SendPromptType simple type. )</t>
-  </si>
-  <si>
-    <t>MS-OXWSMSG_R373</t>
   </si>
   <si>
     <t>[In Appendix C: Product Behavior] Implementation does introduce the SendPromptType complex type. (This type was introduced in Exchange 2013 SP1.)</t>
@@ -2913,6 +2844,9 @@
   </si>
   <si>
     <t>MS-OXWSMSG_R444</t>
+  </si>
+  <si>
+    <t>[In Appendix C: Product Behavior] Implementation does not support the ApprovalRequestDataType complex type. (&lt;6&gt; Section 2.2.4.1: Exchange 2007, Exchange 2010, and the initial release of Exchange 2013 do not support the ovalRequestDataTypAppre complex type. )</t>
   </si>
 </sst>
 </file>
@@ -3217,6 +3151,21 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -3240,21 +3189,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -4111,10 +4045,10 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Requirement" displayName="Requirement" ref="A19:I349" tableType="xml" totalsRowShown="0" headerRowDxfId="18" dataDxfId="17" connectionId="1">
-  <autoFilter ref="A19:I349" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Requirement" displayName="Requirement" ref="A19:I337" tableType="xml" totalsRowShown="0" headerRowDxfId="18" dataDxfId="17" connectionId="1">
+  <autoFilter ref="A19:I337" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A52:I64">
-    <sortCondition descending="1" ref="F19:F349"/>
+    <sortCondition descending="1" ref="F19:F337"/>
   </sortState>
   <tableColumns count="9">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" uniqueName="ns1:REQ_ID" name="Req ID" dataDxfId="16">
@@ -4483,7 +4417,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:L350"/>
+  <dimension ref="A1:L338"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
@@ -4538,127 +4472,127 @@
       <c r="J3" s="5"/>
     </row>
     <row r="4" spans="1:10" ht="21">
-      <c r="A4" s="49" t="s">
+      <c r="A4" s="41" t="s">
         <v>24</v>
       </c>
-      <c r="B4" s="49"/>
-      <c r="C4" s="49"/>
-      <c r="D4" s="49"/>
-      <c r="E4" s="49"/>
-      <c r="F4" s="49"/>
-      <c r="G4" s="49"/>
+      <c r="B4" s="41"/>
+      <c r="C4" s="41"/>
+      <c r="D4" s="41"/>
+      <c r="E4" s="41"/>
+      <c r="F4" s="41"/>
+      <c r="G4" s="41"/>
       <c r="J4" s="5"/>
     </row>
     <row r="5" spans="1:10">
       <c r="A5" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="B5" s="52" t="s">
+      <c r="B5" s="44" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="53"/>
-      <c r="D5" s="53"/>
-      <c r="E5" s="53"/>
-      <c r="F5" s="53"/>
-      <c r="G5" s="53"/>
-      <c r="H5" s="53"/>
-      <c r="I5" s="53"/>
+      <c r="C5" s="45"/>
+      <c r="D5" s="45"/>
+      <c r="E5" s="45"/>
+      <c r="F5" s="45"/>
+      <c r="G5" s="45"/>
+      <c r="H5" s="45"/>
+      <c r="I5" s="45"/>
       <c r="J5" s="5"/>
     </row>
     <row r="6" spans="1:10">
       <c r="A6" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="B6" s="51" t="s">
+      <c r="B6" s="43" t="s">
         <v>33</v>
       </c>
-      <c r="C6" s="51"/>
-      <c r="D6" s="51"/>
-      <c r="E6" s="51"/>
-      <c r="F6" s="51"/>
-      <c r="G6" s="51"/>
-      <c r="H6" s="51"/>
-      <c r="I6" s="51"/>
+      <c r="C6" s="43"/>
+      <c r="D6" s="43"/>
+      <c r="E6" s="43"/>
+      <c r="F6" s="43"/>
+      <c r="G6" s="43"/>
+      <c r="H6" s="43"/>
+      <c r="I6" s="43"/>
       <c r="J6" s="5"/>
     </row>
     <row r="7" spans="1:10">
       <c r="A7" s="13" t="s">
         <v>37</v>
       </c>
-      <c r="B7" s="50" t="s">
+      <c r="B7" s="42" t="s">
         <v>28</v>
       </c>
-      <c r="C7" s="50"/>
-      <c r="D7" s="50"/>
-      <c r="E7" s="50"/>
-      <c r="F7" s="50"/>
-      <c r="G7" s="50"/>
-      <c r="H7" s="50"/>
-      <c r="I7" s="50"/>
+      <c r="C7" s="42"/>
+      <c r="D7" s="42"/>
+      <c r="E7" s="42"/>
+      <c r="F7" s="42"/>
+      <c r="G7" s="42"/>
+      <c r="H7" s="42"/>
+      <c r="I7" s="42"/>
       <c r="J7" s="5"/>
     </row>
     <row r="8" spans="1:10">
       <c r="A8" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="B8" s="50" t="s">
+      <c r="B8" s="42" t="s">
         <v>29</v>
       </c>
-      <c r="C8" s="50"/>
-      <c r="D8" s="50"/>
-      <c r="E8" s="50"/>
-      <c r="F8" s="50"/>
-      <c r="G8" s="50"/>
-      <c r="H8" s="50"/>
-      <c r="I8" s="50"/>
+      <c r="C8" s="42"/>
+      <c r="D8" s="42"/>
+      <c r="E8" s="42"/>
+      <c r="F8" s="42"/>
+      <c r="G8" s="42"/>
+      <c r="H8" s="42"/>
+      <c r="I8" s="42"/>
       <c r="J8" s="5"/>
     </row>
     <row r="9" spans="1:10" ht="75.75" customHeight="1">
       <c r="A9" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="B9" s="45" t="s">
+      <c r="B9" s="50" t="s">
         <v>36</v>
       </c>
-      <c r="C9" s="46"/>
-      <c r="D9" s="46"/>
-      <c r="E9" s="46"/>
-      <c r="F9" s="46"/>
-      <c r="G9" s="46"/>
-      <c r="H9" s="46"/>
-      <c r="I9" s="46"/>
+      <c r="C9" s="51"/>
+      <c r="D9" s="51"/>
+      <c r="E9" s="51"/>
+      <c r="F9" s="51"/>
+      <c r="G9" s="51"/>
+      <c r="H9" s="51"/>
+      <c r="I9" s="51"/>
       <c r="J9" s="5"/>
     </row>
     <row r="10" spans="1:10" ht="30.75" customHeight="1">
       <c r="A10" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="B10" s="45" t="s">
+      <c r="B10" s="50" t="s">
         <v>432</v>
       </c>
-      <c r="C10" s="46"/>
-      <c r="D10" s="46"/>
-      <c r="E10" s="46"/>
-      <c r="F10" s="46"/>
-      <c r="G10" s="46"/>
-      <c r="H10" s="46"/>
-      <c r="I10" s="46"/>
+      <c r="C10" s="51"/>
+      <c r="D10" s="51"/>
+      <c r="E10" s="51"/>
+      <c r="F10" s="51"/>
+      <c r="G10" s="51"/>
+      <c r="H10" s="51"/>
+      <c r="I10" s="51"/>
       <c r="J10" s="5"/>
     </row>
     <row r="11" spans="1:10">
       <c r="A11" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="B11" s="41" t="s">
+      <c r="B11" s="46" t="s">
         <v>39</v>
       </c>
-      <c r="C11" s="41"/>
-      <c r="D11" s="41"/>
-      <c r="E11" s="41"/>
-      <c r="F11" s="41"/>
-      <c r="G11" s="41"/>
-      <c r="H11" s="41"/>
-      <c r="I11" s="41"/>
+      <c r="C11" s="46"/>
+      <c r="D11" s="46"/>
+      <c r="E11" s="46"/>
+      <c r="F11" s="46"/>
+      <c r="G11" s="46"/>
+      <c r="H11" s="46"/>
+      <c r="I11" s="46"/>
       <c r="J11" s="5"/>
     </row>
     <row r="12" spans="1:10">
@@ -4671,12 +4605,12 @@
       <c r="C12" s="18" t="s">
         <v>1</v>
       </c>
-      <c r="D12" s="42"/>
-      <c r="E12" s="42"/>
-      <c r="F12" s="42"/>
-      <c r="G12" s="42"/>
-      <c r="H12" s="42"/>
-      <c r="I12" s="42"/>
+      <c r="D12" s="47"/>
+      <c r="E12" s="47"/>
+      <c r="F12" s="47"/>
+      <c r="G12" s="47"/>
+      <c r="H12" s="47"/>
+      <c r="I12" s="47"/>
       <c r="J12" s="5"/>
     </row>
     <row r="13" spans="1:10">
@@ -4689,12 +4623,12 @@
       <c r="C13" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="D13" s="43"/>
-      <c r="E13" s="43"/>
-      <c r="F13" s="43"/>
-      <c r="G13" s="43"/>
-      <c r="H13" s="43"/>
-      <c r="I13" s="43"/>
+      <c r="D13" s="48"/>
+      <c r="E13" s="48"/>
+      <c r="F13" s="48"/>
+      <c r="G13" s="48"/>
+      <c r="H13" s="48"/>
+      <c r="I13" s="48"/>
       <c r="J13" s="5"/>
     </row>
     <row r="14" spans="1:10">
@@ -4707,12 +4641,12 @@
       <c r="C14" s="15" t="s">
         <v>34</v>
       </c>
-      <c r="D14" s="43"/>
-      <c r="E14" s="43"/>
-      <c r="F14" s="43"/>
-      <c r="G14" s="43"/>
-      <c r="H14" s="43"/>
-      <c r="I14" s="43"/>
+      <c r="D14" s="48"/>
+      <c r="E14" s="48"/>
+      <c r="F14" s="48"/>
+      <c r="G14" s="48"/>
+      <c r="H14" s="48"/>
+      <c r="I14" s="48"/>
       <c r="J14" s="5"/>
     </row>
     <row r="15" spans="1:10" ht="30">
@@ -4725,60 +4659,60 @@
       <c r="C15" s="15" t="s">
         <v>30</v>
       </c>
-      <c r="D15" s="44"/>
-      <c r="E15" s="44"/>
-      <c r="F15" s="44"/>
-      <c r="G15" s="44"/>
-      <c r="H15" s="44"/>
-      <c r="I15" s="44"/>
+      <c r="D15" s="49"/>
+      <c r="E15" s="49"/>
+      <c r="F15" s="49"/>
+      <c r="G15" s="49"/>
+      <c r="H15" s="49"/>
+      <c r="I15" s="49"/>
       <c r="J15" s="5"/>
     </row>
     <row r="16" spans="1:10">
       <c r="A16" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="B16" s="41" t="s">
+      <c r="B16" s="46" t="s">
         <v>40</v>
       </c>
-      <c r="C16" s="41"/>
-      <c r="D16" s="41"/>
-      <c r="E16" s="41"/>
-      <c r="F16" s="41"/>
-      <c r="G16" s="41"/>
-      <c r="H16" s="41"/>
-      <c r="I16" s="41"/>
+      <c r="C16" s="46"/>
+      <c r="D16" s="46"/>
+      <c r="E16" s="46"/>
+      <c r="F16" s="46"/>
+      <c r="G16" s="46"/>
+      <c r="H16" s="46"/>
+      <c r="I16" s="46"/>
       <c r="J16" s="5"/>
     </row>
     <row r="17" spans="1:12" ht="61.5" customHeight="1">
       <c r="A17" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="B17" s="47" t="s">
-        <v>563</v>
-      </c>
-      <c r="C17" s="48"/>
-      <c r="D17" s="48"/>
-      <c r="E17" s="48"/>
-      <c r="F17" s="48"/>
-      <c r="G17" s="48"/>
-      <c r="H17" s="48"/>
-      <c r="I17" s="48"/>
+      <c r="B17" s="52" t="s">
+        <v>561</v>
+      </c>
+      <c r="C17" s="53"/>
+      <c r="D17" s="53"/>
+      <c r="E17" s="53"/>
+      <c r="F17" s="53"/>
+      <c r="G17" s="53"/>
+      <c r="H17" s="53"/>
+      <c r="I17" s="53"/>
       <c r="J17" s="5"/>
     </row>
     <row r="18" spans="1:12">
       <c r="A18" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="B18" s="41" t="s">
+      <c r="B18" s="46" t="s">
         <v>35</v>
       </c>
-      <c r="C18" s="41"/>
-      <c r="D18" s="41"/>
-      <c r="E18" s="41"/>
-      <c r="F18" s="41"/>
-      <c r="G18" s="41"/>
-      <c r="H18" s="41"/>
-      <c r="I18" s="41"/>
+      <c r="C18" s="46"/>
+      <c r="D18" s="46"/>
+      <c r="E18" s="46"/>
+      <c r="F18" s="46"/>
+      <c r="G18" s="46"/>
+      <c r="H18" s="46"/>
+      <c r="I18" s="46"/>
       <c r="J18" s="5"/>
       <c r="L18" s="4"/>
     </row>
@@ -5466,13 +5400,13 @@
     </row>
     <row r="46" spans="1:9" ht="30">
       <c r="A46" s="21" t="s">
-        <v>583</v>
+        <v>581</v>
       </c>
       <c r="B46" s="23" t="s">
         <v>255</v>
       </c>
       <c r="C46" s="19" t="s">
-        <v>585</v>
+        <v>583</v>
       </c>
       <c r="D46" s="32"/>
       <c r="E46" s="32" t="s">
@@ -5491,13 +5425,13 @@
     </row>
     <row r="47" spans="1:9" ht="30">
       <c r="A47" s="21" t="s">
-        <v>584</v>
+        <v>582</v>
       </c>
       <c r="B47" s="23" t="s">
         <v>255</v>
       </c>
       <c r="C47" s="19" t="s">
-        <v>586</v>
+        <v>584</v>
       </c>
       <c r="D47" s="32"/>
       <c r="E47" s="32" t="s">
@@ -5516,13 +5450,13 @@
     </row>
     <row r="48" spans="1:9" ht="30">
       <c r="A48" s="21" t="s">
-        <v>777</v>
+        <v>754</v>
       </c>
       <c r="B48" s="23" t="s">
         <v>255</v>
       </c>
       <c r="C48" s="19" t="s">
-        <v>587</v>
+        <v>585</v>
       </c>
       <c r="D48" s="29"/>
       <c r="E48" s="29" t="s">
@@ -5541,13 +5475,13 @@
     </row>
     <row r="49" spans="1:9" ht="30">
       <c r="A49" s="21" t="s">
-        <v>588</v>
+        <v>586</v>
       </c>
       <c r="B49" s="33" t="s">
         <v>255</v>
       </c>
       <c r="C49" s="19" t="s">
-        <v>591</v>
+        <v>589</v>
       </c>
       <c r="D49" s="32"/>
       <c r="E49" s="32" t="s">
@@ -5566,13 +5500,13 @@
     </row>
     <row r="50" spans="1:9" ht="30">
       <c r="A50" s="21" t="s">
-        <v>589</v>
+        <v>587</v>
       </c>
       <c r="B50" s="33" t="s">
         <v>255</v>
       </c>
       <c r="C50" s="19" t="s">
-        <v>592</v>
+        <v>590</v>
       </c>
       <c r="D50" s="32"/>
       <c r="E50" s="32" t="s">
@@ -5591,13 +5525,13 @@
     </row>
     <row r="51" spans="1:9" ht="30">
       <c r="A51" s="21" t="s">
-        <v>590</v>
+        <v>588</v>
       </c>
       <c r="B51" s="33" t="s">
         <v>255</v>
       </c>
       <c r="C51" s="19" t="s">
-        <v>593</v>
+        <v>591</v>
       </c>
       <c r="D51" s="32"/>
       <c r="E51" s="32" t="s">
@@ -5616,13 +5550,13 @@
     </row>
     <row r="52" spans="1:9" s="37" customFormat="1" ht="45">
       <c r="A52" s="32" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
       <c r="B52" s="23" t="s">
-        <v>578</v>
+        <v>576</v>
       </c>
       <c r="C52" s="19" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="D52" s="32"/>
       <c r="E52" s="32" t="s">
@@ -5638,18 +5572,18 @@
         <v>17</v>
       </c>
       <c r="I52" s="19" t="s">
-        <v>757</v>
+        <v>734</v>
       </c>
     </row>
     <row r="53" spans="1:9" s="37" customFormat="1" ht="195.75" customHeight="1">
       <c r="A53" s="21" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
       <c r="B53" s="33" t="s">
+        <v>576</v>
+      </c>
+      <c r="C53" s="19" t="s">
         <v>578</v>
-      </c>
-      <c r="C53" s="19" t="s">
-        <v>580</v>
       </c>
       <c r="D53" s="32"/>
       <c r="E53" s="32" t="s">
@@ -5668,13 +5602,13 @@
     </row>
     <row r="54" spans="1:9" s="37" customFormat="1" ht="78" customHeight="1">
       <c r="A54" s="21" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
       <c r="B54" s="33" t="s">
-        <v>578</v>
+        <v>576</v>
       </c>
       <c r="C54" s="19" t="s">
-        <v>581</v>
+        <v>579</v>
       </c>
       <c r="D54" s="32"/>
       <c r="E54" s="32" t="s">
@@ -5693,13 +5627,13 @@
     </row>
     <row r="55" spans="1:9" s="37" customFormat="1" ht="34.5" customHeight="1">
       <c r="A55" s="21" t="s">
-        <v>572</v>
+        <v>570</v>
       </c>
       <c r="B55" s="33" t="s">
-        <v>578</v>
+        <v>576</v>
       </c>
       <c r="C55" s="19" t="s">
-        <v>582</v>
+        <v>580</v>
       </c>
       <c r="D55" s="32"/>
       <c r="E55" s="32" t="s">
@@ -5718,13 +5652,13 @@
     </row>
     <row r="56" spans="1:9" s="37" customFormat="1" ht="48" customHeight="1">
       <c r="A56" s="21" t="s">
-        <v>573</v>
+        <v>571</v>
       </c>
       <c r="B56" s="33" t="s">
-        <v>578</v>
+        <v>576</v>
       </c>
       <c r="C56" s="19" t="s">
-        <v>604</v>
+        <v>602</v>
       </c>
       <c r="D56" s="32"/>
       <c r="E56" s="32" t="s">
@@ -5743,16 +5677,16 @@
     </row>
     <row r="57" spans="1:9" s="37" customFormat="1" ht="51" customHeight="1">
       <c r="A57" s="21" t="s">
-        <v>574</v>
+        <v>572</v>
       </c>
       <c r="B57" s="33" t="s">
-        <v>578</v>
+        <v>576</v>
       </c>
       <c r="C57" s="19" t="s">
-        <v>595</v>
+        <v>593</v>
       </c>
       <c r="D57" s="21" t="s">
-        <v>594</v>
+        <v>592</v>
       </c>
       <c r="E57" s="32" t="s">
         <v>19</v>
@@ -5770,16 +5704,16 @@
     </row>
     <row r="58" spans="1:9" s="37" customFormat="1" ht="45">
       <c r="A58" s="21" t="s">
-        <v>575</v>
+        <v>573</v>
       </c>
       <c r="B58" s="33" t="s">
-        <v>578</v>
+        <v>576</v>
       </c>
       <c r="C58" s="19" t="s">
-        <v>596</v>
+        <v>594</v>
       </c>
       <c r="D58" s="32" t="s">
-        <v>594</v>
+        <v>592</v>
       </c>
       <c r="E58" s="32" t="s">
         <v>19</v>
@@ -5797,13 +5731,13 @@
     </row>
     <row r="59" spans="1:9" s="37" customFormat="1" ht="30">
       <c r="A59" s="21" t="s">
+        <v>574</v>
+      </c>
+      <c r="B59" s="33" t="s">
         <v>576</v>
       </c>
-      <c r="B59" s="33" t="s">
-        <v>578</v>
-      </c>
       <c r="C59" s="19" t="s">
-        <v>597</v>
+        <v>595</v>
       </c>
       <c r="D59" s="32"/>
       <c r="E59" s="32" t="s">
@@ -5822,13 +5756,13 @@
     </row>
     <row r="60" spans="1:9" s="37" customFormat="1" ht="30">
       <c r="A60" s="21" t="s">
-        <v>577</v>
+        <v>575</v>
       </c>
       <c r="B60" s="23" t="s">
-        <v>578</v>
+        <v>576</v>
       </c>
       <c r="C60" s="19" t="s">
-        <v>603</v>
+        <v>601</v>
       </c>
       <c r="D60" s="32"/>
       <c r="E60" s="32" t="s">
@@ -5847,13 +5781,13 @@
     </row>
     <row r="61" spans="1:9" s="37" customFormat="1" ht="30">
       <c r="A61" s="21" t="s">
-        <v>598</v>
+        <v>596</v>
       </c>
       <c r="B61" s="33" t="s">
-        <v>578</v>
+        <v>576</v>
       </c>
       <c r="C61" s="19" t="s">
-        <v>602</v>
+        <v>600</v>
       </c>
       <c r="D61" s="32"/>
       <c r="E61" s="32" t="s">
@@ -5872,13 +5806,13 @@
     </row>
     <row r="62" spans="1:9" s="37" customFormat="1" ht="45">
       <c r="A62" s="21" t="s">
-        <v>599</v>
+        <v>597</v>
       </c>
       <c r="B62" s="33" t="s">
-        <v>578</v>
+        <v>576</v>
       </c>
       <c r="C62" s="19" t="s">
-        <v>605</v>
+        <v>603</v>
       </c>
       <c r="D62" s="32"/>
       <c r="E62" s="32" t="s">
@@ -5897,13 +5831,13 @@
     </row>
     <row r="63" spans="1:9" s="37" customFormat="1" ht="30">
       <c r="A63" s="21" t="s">
-        <v>600</v>
+        <v>598</v>
       </c>
       <c r="B63" s="33" t="s">
-        <v>578</v>
+        <v>576</v>
       </c>
       <c r="C63" s="19" t="s">
-        <v>606</v>
+        <v>604</v>
       </c>
       <c r="D63" s="32"/>
       <c r="E63" s="32" t="s">
@@ -5922,13 +5856,13 @@
     </row>
     <row r="64" spans="1:9" s="37" customFormat="1" ht="45">
       <c r="A64" s="21" t="s">
-        <v>601</v>
+        <v>599</v>
       </c>
       <c r="B64" s="23" t="s">
-        <v>578</v>
+        <v>576</v>
       </c>
       <c r="C64" s="19" t="s">
-        <v>607</v>
+        <v>605</v>
       </c>
       <c r="D64" s="32"/>
       <c r="E64" s="32" t="s">
@@ -5947,13 +5881,13 @@
     </row>
     <row r="65" spans="1:9" s="37" customFormat="1" ht="45">
       <c r="A65" s="21" t="s">
-        <v>608</v>
+        <v>606</v>
       </c>
       <c r="B65" s="23" t="s">
-        <v>613</v>
+        <v>611</v>
       </c>
       <c r="C65" s="19" t="s">
-        <v>614</v>
+        <v>612</v>
       </c>
       <c r="D65" s="32"/>
       <c r="E65" s="32" t="s">
@@ -5969,18 +5903,18 @@
         <v>17</v>
       </c>
       <c r="I65" s="19" t="s">
-        <v>759</v>
+        <v>736</v>
       </c>
     </row>
     <row r="66" spans="1:9" s="37" customFormat="1" ht="120">
       <c r="A66" s="21" t="s">
-        <v>609</v>
+        <v>607</v>
       </c>
       <c r="B66" s="33" t="s">
+        <v>611</v>
+      </c>
+      <c r="C66" s="19" t="s">
         <v>613</v>
-      </c>
-      <c r="C66" s="19" t="s">
-        <v>615</v>
       </c>
       <c r="D66" s="32"/>
       <c r="E66" s="32" t="s">
@@ -5999,13 +5933,13 @@
     </row>
     <row r="67" spans="1:9" s="37" customFormat="1" ht="45">
       <c r="A67" s="21" t="s">
-        <v>610</v>
+        <v>608</v>
       </c>
       <c r="B67" s="33" t="s">
-        <v>613</v>
+        <v>611</v>
       </c>
       <c r="C67" s="19" t="s">
-        <v>616</v>
+        <v>614</v>
       </c>
       <c r="D67" s="32"/>
       <c r="E67" s="32" t="s">
@@ -6024,13 +5958,13 @@
     </row>
     <row r="68" spans="1:9" s="37" customFormat="1" ht="30">
       <c r="A68" s="21" t="s">
+        <v>609</v>
+      </c>
+      <c r="B68" s="33" t="s">
         <v>611</v>
       </c>
-      <c r="B68" s="33" t="s">
-        <v>613</v>
-      </c>
       <c r="C68" s="19" t="s">
-        <v>617</v>
+        <v>615</v>
       </c>
       <c r="D68" s="32"/>
       <c r="E68" s="32" t="s">
@@ -6049,13 +5983,13 @@
     </row>
     <row r="69" spans="1:9" s="37" customFormat="1" ht="30">
       <c r="A69" s="21" t="s">
-        <v>612</v>
+        <v>610</v>
       </c>
       <c r="B69" s="33" t="s">
-        <v>613</v>
+        <v>611</v>
       </c>
       <c r="C69" s="19" t="s">
-        <v>618</v>
+        <v>616</v>
       </c>
       <c r="D69" s="32"/>
       <c r="E69" s="32" t="s">
@@ -6077,7 +6011,7 @@
         <v>64</v>
       </c>
       <c r="B70" s="23" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
       <c r="C70" s="19" t="s">
         <v>444</v>
@@ -6102,7 +6036,7 @@
         <v>65</v>
       </c>
       <c r="B71" s="30" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
       <c r="C71" s="19" t="s">
         <v>445</v>
@@ -6127,7 +6061,7 @@
         <v>66</v>
       </c>
       <c r="B72" s="30" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
       <c r="C72" s="19" t="s">
         <v>446</v>
@@ -6152,7 +6086,7 @@
         <v>67</v>
       </c>
       <c r="B73" s="30" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
       <c r="C73" s="19" t="s">
         <v>289</v>
@@ -6177,7 +6111,7 @@
         <v>68</v>
       </c>
       <c r="B74" s="30" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
       <c r="C74" s="19" t="s">
         <v>447</v>
@@ -6202,7 +6136,7 @@
         <v>69</v>
       </c>
       <c r="B75" s="30" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
       <c r="C75" s="19" t="s">
         <v>290</v>
@@ -6229,7 +6163,7 @@
         <v>70</v>
       </c>
       <c r="B76" s="30" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
       <c r="C76" s="31" t="s">
         <v>291</v>
@@ -6256,7 +6190,7 @@
         <v>71</v>
       </c>
       <c r="B77" s="30" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
       <c r="C77" s="31" t="s">
         <v>292</v>
@@ -6281,7 +6215,7 @@
         <v>72</v>
       </c>
       <c r="B78" s="30" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
       <c r="C78" s="31" t="s">
         <v>293</v>
@@ -6306,7 +6240,7 @@
         <v>73</v>
       </c>
       <c r="B79" s="30" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
       <c r="C79" s="31" t="s">
         <v>294</v>
@@ -6331,7 +6265,7 @@
         <v>74</v>
       </c>
       <c r="B80" s="30" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
       <c r="C80" s="19" t="s">
         <v>448</v>
@@ -6356,7 +6290,7 @@
         <v>75</v>
       </c>
       <c r="B81" s="30" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
       <c r="C81" s="31" t="s">
         <v>295</v>
@@ -6383,7 +6317,7 @@
         <v>76</v>
       </c>
       <c r="B82" s="30" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
       <c r="C82" s="19" t="s">
         <v>296</v>
@@ -6410,7 +6344,7 @@
         <v>77</v>
       </c>
       <c r="B83" s="30" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
       <c r="C83" s="19" t="s">
         <v>449</v>
@@ -6435,7 +6369,7 @@
         <v>78</v>
       </c>
       <c r="B84" s="30" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
       <c r="C84" s="31" t="s">
         <v>297</v>
@@ -6460,7 +6394,7 @@
         <v>79</v>
       </c>
       <c r="B85" s="30" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
       <c r="C85" s="31" t="s">
         <v>298</v>
@@ -6485,7 +6419,7 @@
         <v>80</v>
       </c>
       <c r="B86" s="30" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
       <c r="C86" s="31" t="s">
         <v>299</v>
@@ -6510,7 +6444,7 @@
         <v>81</v>
       </c>
       <c r="B87" s="30" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
       <c r="C87" s="19" t="s">
         <v>451</v>
@@ -6535,7 +6469,7 @@
         <v>82</v>
       </c>
       <c r="B88" s="30" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
       <c r="C88" s="31" t="s">
         <v>300</v>
@@ -6560,7 +6494,7 @@
         <v>83</v>
       </c>
       <c r="B89" s="30" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
       <c r="C89" s="31" t="s">
         <v>301</v>
@@ -6585,7 +6519,7 @@
         <v>84</v>
       </c>
       <c r="B90" s="30" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
       <c r="C90" s="31" t="s">
         <v>302</v>
@@ -6610,7 +6544,7 @@
         <v>85</v>
       </c>
       <c r="B91" s="30" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
       <c r="C91" s="19" t="s">
         <v>450</v>
@@ -6635,7 +6569,7 @@
         <v>86</v>
       </c>
       <c r="B92" s="30" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
       <c r="C92" s="31" t="s">
         <v>303</v>
@@ -6660,7 +6594,7 @@
         <v>87</v>
       </c>
       <c r="B93" s="30" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
       <c r="C93" s="31" t="s">
         <v>304</v>
@@ -6685,10 +6619,10 @@
         <v>88</v>
       </c>
       <c r="B94" s="30" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
       <c r="C94" s="19" t="s">
-        <v>549</v>
+        <v>547</v>
       </c>
       <c r="D94" s="29"/>
       <c r="E94" s="29" t="s">
@@ -6710,7 +6644,7 @@
         <v>89</v>
       </c>
       <c r="B95" s="30" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
       <c r="C95" s="31" t="s">
         <v>305</v>
@@ -6735,7 +6669,7 @@
         <v>90</v>
       </c>
       <c r="B96" s="30" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
       <c r="C96" s="31" t="s">
         <v>306</v>
@@ -6760,7 +6694,7 @@
         <v>91</v>
       </c>
       <c r="B97" s="30" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
       <c r="C97" s="31" t="s">
         <v>307</v>
@@ -6785,7 +6719,7 @@
         <v>92</v>
       </c>
       <c r="B98" s="30" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
       <c r="C98" s="31" t="s">
         <v>308</v>
@@ -6810,7 +6744,7 @@
         <v>93</v>
       </c>
       <c r="B99" s="30" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
       <c r="C99" s="31" t="s">
         <v>309</v>
@@ -6837,7 +6771,7 @@
         <v>94</v>
       </c>
       <c r="B100" s="30" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
       <c r="C100" s="31" t="s">
         <v>310</v>
@@ -6862,7 +6796,7 @@
         <v>95</v>
       </c>
       <c r="B101" s="30" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
       <c r="C101" s="31" t="s">
         <v>311</v>
@@ -6887,7 +6821,7 @@
         <v>96</v>
       </c>
       <c r="B102" s="30" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
       <c r="C102" s="31" t="s">
         <v>312</v>
@@ -6912,7 +6846,7 @@
         <v>97</v>
       </c>
       <c r="B103" s="30" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
       <c r="C103" s="31" t="s">
         <v>313</v>
@@ -6937,7 +6871,7 @@
         <v>98</v>
       </c>
       <c r="B104" s="30" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
       <c r="C104" s="31" t="s">
         <v>314</v>
@@ -6964,7 +6898,7 @@
         <v>99</v>
       </c>
       <c r="B105" s="30" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
       <c r="C105" s="19" t="s">
         <v>452</v>
@@ -6989,7 +6923,7 @@
         <v>100</v>
       </c>
       <c r="B106" s="30" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
       <c r="C106" s="19" t="s">
         <v>453</v>
@@ -7014,7 +6948,7 @@
         <v>101</v>
       </c>
       <c r="B107" s="30" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
       <c r="C107" s="31" t="s">
         <v>315</v>
@@ -7039,7 +6973,7 @@
         <v>102</v>
       </c>
       <c r="B108" s="30" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
       <c r="C108" s="19" t="s">
         <v>454</v>
@@ -7064,10 +6998,10 @@
         <v>103</v>
       </c>
       <c r="B109" s="30" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
       <c r="C109" s="19" t="s">
-        <v>550</v>
+        <v>548</v>
       </c>
       <c r="D109" s="29"/>
       <c r="E109" s="29" t="s">
@@ -7089,7 +7023,7 @@
         <v>104</v>
       </c>
       <c r="B110" s="30" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
       <c r="C110" s="31" t="s">
         <v>316</v>
@@ -7114,7 +7048,7 @@
         <v>105</v>
       </c>
       <c r="B111" s="30" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
       <c r="C111" s="31" t="s">
         <v>317</v>
@@ -7139,10 +7073,10 @@
         <v>106</v>
       </c>
       <c r="B112" s="30" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
       <c r="C112" s="19" t="s">
-        <v>537</v>
+        <v>535</v>
       </c>
       <c r="D112" s="29"/>
       <c r="E112" s="29" t="s">
@@ -7164,7 +7098,7 @@
         <v>107</v>
       </c>
       <c r="B113" s="30" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
       <c r="C113" s="31" t="s">
         <v>318</v>
@@ -7189,7 +7123,7 @@
         <v>108</v>
       </c>
       <c r="B114" s="30" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
       <c r="C114" s="31" t="s">
         <v>319</v>
@@ -7214,7 +7148,7 @@
         <v>109</v>
       </c>
       <c r="B115" s="30" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
       <c r="C115" s="31" t="s">
         <v>320</v>
@@ -7239,7 +7173,7 @@
         <v>110</v>
       </c>
       <c r="B116" s="30" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
       <c r="C116" s="31" t="s">
         <v>321</v>
@@ -7264,7 +7198,7 @@
         <v>111</v>
       </c>
       <c r="B117" s="30" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
       <c r="C117" s="31" t="s">
         <v>322</v>
@@ -7289,7 +7223,7 @@
         <v>112</v>
       </c>
       <c r="B118" s="30" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
       <c r="C118" s="31" t="s">
         <v>323</v>
@@ -7314,7 +7248,7 @@
         <v>113</v>
       </c>
       <c r="B119" s="30" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
       <c r="C119" s="31" t="s">
         <v>324</v>
@@ -7339,7 +7273,7 @@
         <v>114</v>
       </c>
       <c r="B120" s="30" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
       <c r="C120" s="19" t="s">
         <v>455</v>
@@ -7364,7 +7298,7 @@
         <v>115</v>
       </c>
       <c r="B121" s="30" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
       <c r="C121" s="31" t="s">
         <v>325</v>
@@ -7389,7 +7323,7 @@
         <v>116</v>
       </c>
       <c r="B122" s="30" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
       <c r="C122" s="31" t="s">
         <v>326</v>
@@ -7414,7 +7348,7 @@
         <v>117</v>
       </c>
       <c r="B123" s="30" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
       <c r="C123" s="19" t="s">
         <v>456</v>
@@ -7439,7 +7373,7 @@
         <v>118</v>
       </c>
       <c r="B124" s="30" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
       <c r="C124" s="31" t="s">
         <v>327</v>
@@ -7464,7 +7398,7 @@
         <v>119</v>
       </c>
       <c r="B125" s="30" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
       <c r="C125" s="31" t="s">
         <v>328</v>
@@ -7491,7 +7425,7 @@
         <v>120</v>
       </c>
       <c r="B126" s="30" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
       <c r="C126" s="31" t="s">
         <v>329</v>
@@ -7516,7 +7450,7 @@
         <v>121</v>
       </c>
       <c r="B127" s="30" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
       <c r="C127" s="19" t="s">
         <v>457</v>
@@ -7541,7 +7475,7 @@
         <v>122</v>
       </c>
       <c r="B128" s="30" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
       <c r="C128" s="31" t="s">
         <v>330</v>
@@ -7566,7 +7500,7 @@
         <v>123</v>
       </c>
       <c r="B129" s="30" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
       <c r="C129" s="31" t="s">
         <v>331</v>
@@ -7591,7 +7525,7 @@
         <v>124</v>
       </c>
       <c r="B130" s="30" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
       <c r="C130" s="31" t="s">
         <v>332</v>
@@ -7616,7 +7550,7 @@
         <v>125</v>
       </c>
       <c r="B131" s="30" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
       <c r="C131" s="31" t="s">
         <v>333</v>
@@ -7643,7 +7577,7 @@
         <v>126</v>
       </c>
       <c r="B132" s="30" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
       <c r="C132" s="31" t="s">
         <v>334</v>
@@ -7668,7 +7602,7 @@
         <v>127</v>
       </c>
       <c r="B133" s="30" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
       <c r="C133" s="31" t="s">
         <v>335</v>
@@ -7693,7 +7627,7 @@
         <v>128</v>
       </c>
       <c r="B134" s="30" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
       <c r="C134" s="31" t="s">
         <v>336</v>
@@ -7718,7 +7652,7 @@
         <v>129</v>
       </c>
       <c r="B135" s="30" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
       <c r="C135" s="31" t="s">
         <v>337</v>
@@ -7743,7 +7677,7 @@
         <v>130</v>
       </c>
       <c r="B136" s="30" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
       <c r="C136" s="31" t="s">
         <v>338</v>
@@ -7768,7 +7702,7 @@
         <v>131</v>
       </c>
       <c r="B137" s="30" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
       <c r="C137" s="19" t="s">
         <v>458</v>
@@ -7793,7 +7727,7 @@
         <v>132</v>
       </c>
       <c r="B138" s="30" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
       <c r="C138" s="31" t="s">
         <v>339</v>
@@ -7818,7 +7752,7 @@
         <v>133</v>
       </c>
       <c r="B139" s="30" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
       <c r="C139" s="31" t="s">
         <v>340</v>
@@ -7843,10 +7777,10 @@
         <v>134</v>
       </c>
       <c r="B140" s="30" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
       <c r="C140" s="19" t="s">
-        <v>559</v>
+        <v>557</v>
       </c>
       <c r="D140" s="29"/>
       <c r="E140" s="29" t="s">
@@ -7868,7 +7802,7 @@
         <v>135</v>
       </c>
       <c r="B141" s="30" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
       <c r="C141" s="19" t="s">
         <v>341</v>
@@ -7893,7 +7827,7 @@
         <v>460</v>
       </c>
       <c r="B142" s="23" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
       <c r="C142" s="34" t="s">
         <v>459</v>
@@ -7918,7 +7852,7 @@
         <v>136</v>
       </c>
       <c r="B143" s="30" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
       <c r="C143" s="31" t="s">
         <v>342</v>
@@ -7943,7 +7877,7 @@
         <v>137</v>
       </c>
       <c r="B144" s="30" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
       <c r="C144" s="19" t="s">
         <v>343</v>
@@ -7968,7 +7902,7 @@
         <v>462</v>
       </c>
       <c r="B145" s="30" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
       <c r="C145" s="19" t="s">
         <v>461</v>
@@ -7993,10 +7927,10 @@
         <v>463</v>
       </c>
       <c r="B146" s="30" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
       <c r="C146" s="19" t="s">
-        <v>619</v>
+        <v>617</v>
       </c>
       <c r="D146" s="32"/>
       <c r="E146" s="32" t="s">
@@ -8018,10 +7952,10 @@
         <v>464</v>
       </c>
       <c r="B147" s="30" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
       <c r="C147" s="19" t="s">
-        <v>622</v>
+        <v>620</v>
       </c>
       <c r="D147" s="32"/>
       <c r="E147" s="32" t="s">
@@ -8037,18 +7971,18 @@
         <v>17</v>
       </c>
       <c r="I147" s="19" t="s">
-        <v>769</v>
+        <v>746</v>
       </c>
     </row>
     <row r="148" spans="1:9" s="37" customFormat="1" ht="30">
       <c r="A148" s="21" t="s">
-        <v>771</v>
+        <v>748</v>
       </c>
       <c r="B148" s="23" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
       <c r="C148" s="19" t="s">
-        <v>772</v>
+        <v>749</v>
       </c>
       <c r="D148" s="32"/>
       <c r="E148" s="32" t="s">
@@ -8070,10 +8004,10 @@
         <v>465</v>
       </c>
       <c r="B149" s="30" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
       <c r="C149" s="19" t="s">
-        <v>620</v>
+        <v>618</v>
       </c>
       <c r="D149" s="32"/>
       <c r="E149" s="32" t="s">
@@ -8095,10 +8029,10 @@
         <v>466</v>
       </c>
       <c r="B150" s="30" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
       <c r="C150" s="19" t="s">
-        <v>623</v>
+        <v>621</v>
       </c>
       <c r="D150" s="32"/>
       <c r="E150" s="32" t="s">
@@ -8114,18 +8048,18 @@
         <v>17</v>
       </c>
       <c r="I150" s="19" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
     </row>
     <row r="151" spans="1:9" s="37" customFormat="1" ht="30">
       <c r="A151" s="21" t="s">
-        <v>775</v>
+        <v>752</v>
       </c>
       <c r="B151" s="23" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
       <c r="C151" s="19" t="s">
-        <v>773</v>
+        <v>750</v>
       </c>
       <c r="D151" s="32"/>
       <c r="E151" s="32" t="s">
@@ -8147,10 +8081,10 @@
         <v>467</v>
       </c>
       <c r="B152" s="30" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
       <c r="C152" s="19" t="s">
-        <v>621</v>
+        <v>619</v>
       </c>
       <c r="D152" s="32"/>
       <c r="E152" s="32" t="s">
@@ -8172,10 +8106,10 @@
         <v>468</v>
       </c>
       <c r="B153" s="23" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
       <c r="C153" s="19" t="s">
-        <v>624</v>
+        <v>622</v>
       </c>
       <c r="D153" s="32"/>
       <c r="E153" s="32" t="s">
@@ -8191,18 +8125,18 @@
         <v>17</v>
       </c>
       <c r="I153" s="19" t="s">
-        <v>565</v>
+        <v>563</v>
       </c>
     </row>
     <row r="154" spans="1:9" s="37" customFormat="1" ht="30">
       <c r="A154" s="21" t="s">
-        <v>776</v>
+        <v>753</v>
       </c>
       <c r="B154" s="23" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
       <c r="C154" s="19" t="s">
-        <v>774</v>
+        <v>751</v>
       </c>
       <c r="D154" s="32"/>
       <c r="E154" s="32" t="s">
@@ -8221,13 +8155,13 @@
     </row>
     <row r="155" spans="1:9" s="37" customFormat="1" ht="30">
       <c r="A155" s="21" t="s">
+        <v>623</v>
+      </c>
+      <c r="B155" s="23" t="s">
         <v>625</v>
       </c>
-      <c r="B155" s="23" t="s">
-        <v>627</v>
-      </c>
       <c r="C155" s="19" t="s">
-        <v>633</v>
+        <v>631</v>
       </c>
       <c r="D155" s="32"/>
       <c r="E155" s="32" t="s">
@@ -8243,18 +8177,18 @@
         <v>17</v>
       </c>
       <c r="I155" s="19" t="s">
-        <v>762</v>
+        <v>739</v>
       </c>
     </row>
     <row r="156" spans="1:9" s="37" customFormat="1" ht="180">
       <c r="A156" s="21" t="s">
-        <v>626</v>
+        <v>624</v>
       </c>
       <c r="B156" s="33" t="s">
-        <v>627</v>
+        <v>625</v>
       </c>
       <c r="C156" s="19" t="s">
-        <v>634</v>
+        <v>632</v>
       </c>
       <c r="D156" s="32"/>
       <c r="E156" s="32" t="s">
@@ -8273,13 +8207,13 @@
     </row>
     <row r="157" spans="1:9" s="37" customFormat="1" ht="60">
       <c r="A157" s="21" t="s">
-        <v>628</v>
+        <v>626</v>
       </c>
       <c r="B157" s="33" t="s">
-        <v>627</v>
+        <v>625</v>
       </c>
       <c r="C157" s="19" t="s">
-        <v>635</v>
+        <v>633</v>
       </c>
       <c r="D157" s="32"/>
       <c r="E157" s="32" t="s">
@@ -8298,13 +8232,13 @@
     </row>
     <row r="158" spans="1:9" s="37" customFormat="1" ht="30">
       <c r="A158" s="21" t="s">
-        <v>629</v>
+        <v>627</v>
       </c>
       <c r="B158" s="33" t="s">
-        <v>627</v>
+        <v>625</v>
       </c>
       <c r="C158" s="19" t="s">
-        <v>636</v>
+        <v>634</v>
       </c>
       <c r="D158" s="32"/>
       <c r="E158" s="32" t="s">
@@ -8323,13 +8257,13 @@
     </row>
     <row r="159" spans="1:9" s="37" customFormat="1" ht="30">
       <c r="A159" s="21" t="s">
-        <v>630</v>
+        <v>628</v>
       </c>
       <c r="B159" s="33" t="s">
-        <v>627</v>
+        <v>625</v>
       </c>
       <c r="C159" s="19" t="s">
-        <v>637</v>
+        <v>635</v>
       </c>
       <c r="D159" s="32"/>
       <c r="E159" s="32" t="s">
@@ -8348,13 +8282,13 @@
     </row>
     <row r="160" spans="1:9" s="37" customFormat="1" ht="30">
       <c r="A160" s="21" t="s">
-        <v>631</v>
+        <v>629</v>
       </c>
       <c r="B160" s="33" t="s">
-        <v>627</v>
+        <v>625</v>
       </c>
       <c r="C160" s="19" t="s">
-        <v>638</v>
+        <v>636</v>
       </c>
       <c r="D160" s="32"/>
       <c r="E160" s="32" t="s">
@@ -8373,13 +8307,13 @@
     </row>
     <row r="161" spans="1:9" s="37" customFormat="1" ht="30">
       <c r="A161" s="21" t="s">
-        <v>632</v>
+        <v>630</v>
       </c>
       <c r="B161" s="23" t="s">
-        <v>627</v>
+        <v>625</v>
       </c>
       <c r="C161" s="19" t="s">
-        <v>639</v>
+        <v>637</v>
       </c>
       <c r="D161" s="32"/>
       <c r="E161" s="32" t="s">
@@ -8398,13 +8332,13 @@
     </row>
     <row r="162" spans="1:9" s="37" customFormat="1" ht="30">
       <c r="A162" s="21" t="s">
-        <v>640</v>
+        <v>638</v>
       </c>
       <c r="B162" s="33" t="s">
-        <v>627</v>
+        <v>625</v>
       </c>
       <c r="C162" s="19" t="s">
-        <v>646</v>
+        <v>644</v>
       </c>
       <c r="D162" s="32"/>
       <c r="E162" s="32" t="s">
@@ -8423,13 +8357,13 @@
     </row>
     <row r="163" spans="1:9" s="37" customFormat="1" ht="30">
       <c r="A163" s="21" t="s">
-        <v>641</v>
+        <v>639</v>
       </c>
       <c r="B163" s="33" t="s">
-        <v>627</v>
+        <v>625</v>
       </c>
       <c r="C163" s="19" t="s">
-        <v>647</v>
+        <v>645</v>
       </c>
       <c r="D163" s="32"/>
       <c r="E163" s="32" t="s">
@@ -8448,13 +8382,13 @@
     </row>
     <row r="164" spans="1:9" s="37" customFormat="1" ht="30">
       <c r="A164" s="21" t="s">
-        <v>642</v>
+        <v>640</v>
       </c>
       <c r="B164" s="33" t="s">
-        <v>627</v>
+        <v>625</v>
       </c>
       <c r="C164" s="19" t="s">
-        <v>648</v>
+        <v>646</v>
       </c>
       <c r="D164" s="32"/>
       <c r="E164" s="32" t="s">
@@ -8473,13 +8407,13 @@
     </row>
     <row r="165" spans="1:9" s="37" customFormat="1" ht="30">
       <c r="A165" s="21" t="s">
-        <v>643</v>
+        <v>641</v>
       </c>
       <c r="B165" s="33" t="s">
-        <v>627</v>
+        <v>625</v>
       </c>
       <c r="C165" s="19" t="s">
-        <v>649</v>
+        <v>647</v>
       </c>
       <c r="D165" s="32"/>
       <c r="E165" s="32" t="s">
@@ -8498,13 +8432,13 @@
     </row>
     <row r="166" spans="1:9" s="37" customFormat="1" ht="45">
       <c r="A166" s="21" t="s">
-        <v>644</v>
+        <v>642</v>
       </c>
       <c r="B166" s="33" t="s">
-        <v>627</v>
+        <v>625</v>
       </c>
       <c r="C166" s="19" t="s">
-        <v>650</v>
+        <v>648</v>
       </c>
       <c r="D166" s="32"/>
       <c r="E166" s="32" t="s">
@@ -8523,13 +8457,13 @@
     </row>
     <row r="167" spans="1:9" s="37" customFormat="1" ht="45">
       <c r="A167" s="21" t="s">
-        <v>645</v>
+        <v>643</v>
       </c>
       <c r="B167" s="23" t="s">
-        <v>627</v>
+        <v>625</v>
       </c>
       <c r="C167" s="19" t="s">
-        <v>651</v>
+        <v>649</v>
       </c>
       <c r="D167" s="32"/>
       <c r="E167" s="32" t="s">
@@ -8548,13 +8482,13 @@
     </row>
     <row r="168" spans="1:9" s="37" customFormat="1" ht="30">
       <c r="A168" s="21" t="s">
-        <v>652</v>
+        <v>650</v>
       </c>
       <c r="B168" s="23" t="s">
-        <v>661</v>
+        <v>659</v>
       </c>
       <c r="C168" s="19" t="s">
-        <v>662</v>
+        <v>660</v>
       </c>
       <c r="D168" s="32"/>
       <c r="E168" s="32" t="s">
@@ -8570,18 +8504,18 @@
         <v>17</v>
       </c>
       <c r="I168" s="19" t="s">
-        <v>764</v>
+        <v>741</v>
       </c>
     </row>
     <row r="169" spans="1:9" s="37" customFormat="1" ht="120">
       <c r="A169" s="21" t="s">
-        <v>653</v>
+        <v>651</v>
       </c>
       <c r="B169" s="33" t="s">
-        <v>661</v>
+        <v>659</v>
       </c>
       <c r="C169" s="19" t="s">
-        <v>770</v>
+        <v>747</v>
       </c>
       <c r="D169" s="32"/>
       <c r="E169" s="32" t="s">
@@ -8600,13 +8534,13 @@
     </row>
     <row r="170" spans="1:9" s="37" customFormat="1" ht="45">
       <c r="A170" s="21" t="s">
-        <v>654</v>
+        <v>652</v>
       </c>
       <c r="B170" s="33" t="s">
+        <v>659</v>
+      </c>
+      <c r="C170" s="19" t="s">
         <v>661</v>
-      </c>
-      <c r="C170" s="19" t="s">
-        <v>663</v>
       </c>
       <c r="D170" s="32"/>
       <c r="E170" s="32" t="s">
@@ -8625,13 +8559,13 @@
     </row>
     <row r="171" spans="1:9" s="37" customFormat="1" ht="30">
       <c r="A171" s="21" t="s">
-        <v>655</v>
+        <v>653</v>
       </c>
       <c r="B171" s="33" t="s">
-        <v>661</v>
+        <v>659</v>
       </c>
       <c r="C171" s="19" t="s">
-        <v>664</v>
+        <v>662</v>
       </c>
       <c r="D171" s="32"/>
       <c r="E171" s="32" t="s">
@@ -8650,13 +8584,13 @@
     </row>
     <row r="172" spans="1:9" s="37" customFormat="1" ht="30">
       <c r="A172" s="21" t="s">
-        <v>656</v>
+        <v>654</v>
       </c>
       <c r="B172" s="33" t="s">
-        <v>661</v>
+        <v>659</v>
       </c>
       <c r="C172" s="19" t="s">
-        <v>665</v>
+        <v>663</v>
       </c>
       <c r="D172" s="32"/>
       <c r="E172" s="32" t="s">
@@ -8675,13 +8609,13 @@
     </row>
     <row r="173" spans="1:9" s="37" customFormat="1" ht="30">
       <c r="A173" s="21" t="s">
-        <v>657</v>
+        <v>655</v>
       </c>
       <c r="B173" s="33" t="s">
-        <v>661</v>
+        <v>659</v>
       </c>
       <c r="C173" s="19" t="s">
-        <v>666</v>
+        <v>664</v>
       </c>
       <c r="D173" s="32"/>
       <c r="E173" s="32" t="s">
@@ -8700,13 +8634,13 @@
     </row>
     <row r="174" spans="1:9" s="37" customFormat="1" ht="30">
       <c r="A174" s="21" t="s">
-        <v>658</v>
+        <v>656</v>
       </c>
       <c r="B174" s="33" t="s">
-        <v>661</v>
+        <v>659</v>
       </c>
       <c r="C174" s="19" t="s">
-        <v>667</v>
+        <v>665</v>
       </c>
       <c r="D174" s="32"/>
       <c r="E174" s="32" t="s">
@@ -8725,13 +8659,13 @@
     </row>
     <row r="175" spans="1:9" s="37" customFormat="1" ht="30">
       <c r="A175" s="21" t="s">
-        <v>659</v>
+        <v>657</v>
       </c>
       <c r="B175" s="23" t="s">
-        <v>668</v>
+        <v>666</v>
       </c>
       <c r="C175" s="19" t="s">
-        <v>674</v>
+        <v>672</v>
       </c>
       <c r="D175" s="32"/>
       <c r="E175" s="32" t="s">
@@ -8747,18 +8681,18 @@
         <v>17</v>
       </c>
       <c r="I175" s="19" t="s">
-        <v>766</v>
+        <v>743</v>
       </c>
     </row>
     <row r="176" spans="1:9" s="37" customFormat="1" ht="120">
       <c r="A176" s="21" t="s">
-        <v>660</v>
+        <v>658</v>
       </c>
       <c r="B176" s="23" t="s">
-        <v>668</v>
+        <v>666</v>
       </c>
       <c r="C176" s="19" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="D176" s="32"/>
       <c r="E176" s="32" t="s">
@@ -8777,13 +8711,13 @@
     </row>
     <row r="177" spans="1:9" s="37" customFormat="1" ht="45">
       <c r="A177" s="21" t="s">
-        <v>669</v>
+        <v>667</v>
       </c>
       <c r="B177" s="33" t="s">
-        <v>668</v>
+        <v>666</v>
       </c>
       <c r="C177" s="19" t="s">
-        <v>676</v>
+        <v>674</v>
       </c>
       <c r="D177" s="32"/>
       <c r="E177" s="32" t="s">
@@ -8802,13 +8736,13 @@
     </row>
     <row r="178" spans="1:9" s="37" customFormat="1" ht="30">
       <c r="A178" s="21" t="s">
-        <v>670</v>
+        <v>668</v>
       </c>
       <c r="B178" s="33" t="s">
-        <v>668</v>
+        <v>666</v>
       </c>
       <c r="C178" s="19" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
       <c r="D178" s="32"/>
       <c r="E178" s="32" t="s">
@@ -8827,13 +8761,13 @@
     </row>
     <row r="179" spans="1:9" s="37" customFormat="1" ht="30">
       <c r="A179" s="21" t="s">
-        <v>671</v>
+        <v>669</v>
       </c>
       <c r="B179" s="33" t="s">
-        <v>668</v>
+        <v>666</v>
       </c>
       <c r="C179" s="19" t="s">
-        <v>678</v>
+        <v>676</v>
       </c>
       <c r="D179" s="32"/>
       <c r="E179" s="32" t="s">
@@ -8852,13 +8786,13 @@
     </row>
     <row r="180" spans="1:9" s="37" customFormat="1" ht="30">
       <c r="A180" s="21" t="s">
-        <v>672</v>
+        <v>670</v>
       </c>
       <c r="B180" s="33" t="s">
-        <v>668</v>
+        <v>666</v>
       </c>
       <c r="C180" s="19" t="s">
-        <v>679</v>
+        <v>677</v>
       </c>
       <c r="D180" s="32"/>
       <c r="E180" s="32" t="s">
@@ -8877,13 +8811,13 @@
     </row>
     <row r="181" spans="1:9" s="37" customFormat="1" ht="30">
       <c r="A181" s="21" t="s">
-        <v>673</v>
+        <v>671</v>
       </c>
       <c r="B181" s="33" t="s">
-        <v>668</v>
+        <v>666</v>
       </c>
       <c r="C181" s="19" t="s">
-        <v>680</v>
+        <v>678</v>
       </c>
       <c r="D181" s="32"/>
       <c r="E181" s="32" t="s">
@@ -8908,7 +8842,7 @@
         <v>256</v>
       </c>
       <c r="C182" s="19" t="s">
-        <v>681</v>
+        <v>679</v>
       </c>
       <c r="D182" s="29"/>
       <c r="E182" s="29" t="s">
@@ -8958,7 +8892,7 @@
         <v>256</v>
       </c>
       <c r="C184" s="19" t="s">
-        <v>682</v>
+        <v>680</v>
       </c>
       <c r="D184" s="29"/>
       <c r="E184" s="29" t="s">
@@ -8977,13 +8911,13 @@
     </row>
     <row r="185" spans="1:9" ht="30">
       <c r="A185" s="21" t="s">
-        <v>683</v>
+        <v>681</v>
       </c>
       <c r="B185" s="23" t="s">
         <v>256</v>
       </c>
       <c r="C185" s="19" t="s">
-        <v>684</v>
+        <v>682</v>
       </c>
       <c r="D185" s="32"/>
       <c r="E185" s="32" t="s">
@@ -9302,13 +9236,13 @@
     </row>
     <row r="198" spans="1:9" s="37" customFormat="1" ht="30">
       <c r="A198" s="38" t="s">
+        <v>683</v>
+      </c>
+      <c r="B198" s="23" t="s">
+        <v>684</v>
+      </c>
+      <c r="C198" s="19" t="s">
         <v>685</v>
-      </c>
-      <c r="B198" s="23" t="s">
-        <v>686</v>
-      </c>
-      <c r="C198" s="19" t="s">
-        <v>687</v>
       </c>
       <c r="D198" s="32"/>
       <c r="E198" s="32" t="s">
@@ -9324,18 +9258,18 @@
         <v>17</v>
       </c>
       <c r="I198" s="19" t="s">
-        <v>768</v>
+        <v>745</v>
       </c>
     </row>
     <row r="199" spans="1:9" s="37" customFormat="1" ht="120">
       <c r="A199" s="21" t="s">
-        <v>689</v>
+        <v>687</v>
       </c>
       <c r="B199" s="23" t="s">
+        <v>684</v>
+      </c>
+      <c r="C199" s="19" t="s">
         <v>686</v>
-      </c>
-      <c r="C199" s="19" t="s">
-        <v>688</v>
       </c>
       <c r="D199" s="32"/>
       <c r="E199" s="32" t="s">
@@ -9354,13 +9288,13 @@
     </row>
     <row r="200" spans="1:9" s="37" customFormat="1" ht="30">
       <c r="A200" s="21" t="s">
+        <v>688</v>
+      </c>
+      <c r="B200" s="23" t="s">
+        <v>684</v>
+      </c>
+      <c r="C200" s="19" t="s">
         <v>690</v>
-      </c>
-      <c r="B200" s="23" t="s">
-        <v>686</v>
-      </c>
-      <c r="C200" s="19" t="s">
-        <v>692</v>
       </c>
       <c r="D200" s="32"/>
       <c r="E200" s="32" t="s">
@@ -9379,13 +9313,13 @@
     </row>
     <row r="201" spans="1:9" s="37" customFormat="1" ht="30">
       <c r="A201" s="21" t="s">
-        <v>691</v>
+        <v>689</v>
       </c>
       <c r="B201" s="23" t="s">
-        <v>686</v>
+        <v>684</v>
       </c>
       <c r="C201" s="19" t="s">
-        <v>695</v>
+        <v>693</v>
       </c>
       <c r="D201" s="32"/>
       <c r="E201" s="32" t="s">
@@ -9404,13 +9338,13 @@
     </row>
     <row r="202" spans="1:9" s="37" customFormat="1" ht="30">
       <c r="A202" s="21" t="s">
-        <v>693</v>
+        <v>691</v>
       </c>
       <c r="B202" s="23" t="s">
-        <v>686</v>
+        <v>684</v>
       </c>
       <c r="C202" s="19" t="s">
-        <v>696</v>
+        <v>694</v>
       </c>
       <c r="D202" s="21"/>
       <c r="E202" s="21" t="s">
@@ -9429,13 +9363,13 @@
     </row>
     <row r="203" spans="1:9" s="37" customFormat="1" ht="30">
       <c r="A203" s="21" t="s">
-        <v>694</v>
+        <v>692</v>
       </c>
       <c r="B203" s="23" t="s">
-        <v>686</v>
+        <v>684</v>
       </c>
       <c r="C203" s="19" t="s">
-        <v>697</v>
+        <v>695</v>
       </c>
       <c r="D203" s="21"/>
       <c r="E203" s="21" t="s">
@@ -10951,7 +10885,7 @@
         <v>17</v>
       </c>
       <c r="I263" s="19" t="s">
-        <v>538</v>
+        <v>536</v>
       </c>
     </row>
     <row r="264" spans="1:9" ht="30">
@@ -10978,7 +10912,7 @@
         <v>17</v>
       </c>
       <c r="I264" s="19" t="s">
-        <v>543</v>
+        <v>541</v>
       </c>
     </row>
     <row r="265" spans="1:9" ht="60">
@@ -11005,7 +10939,7 @@
         <v>17</v>
       </c>
       <c r="I265" s="19" t="s">
-        <v>551</v>
+        <v>549</v>
       </c>
     </row>
     <row r="266" spans="1:9" ht="30">
@@ -11032,7 +10966,7 @@
         <v>17</v>
       </c>
       <c r="I266" s="19" t="s">
-        <v>546</v>
+        <v>544</v>
       </c>
     </row>
     <row r="267" spans="1:9" ht="45">
@@ -11585,7 +11519,7 @@
       </c>
       <c r="I288" s="31"/>
     </row>
-    <row r="289" spans="1:9" ht="30">
+    <row r="289" spans="1:10" ht="30">
       <c r="A289" s="29" t="s">
         <v>200</v>
       </c>
@@ -11610,7 +11544,7 @@
       </c>
       <c r="I289" s="31"/>
     </row>
-    <row r="290" spans="1:9" ht="75">
+    <row r="290" spans="1:10" ht="75">
       <c r="A290" s="29" t="s">
         <v>201</v>
       </c>
@@ -11635,7 +11569,7 @@
       </c>
       <c r="I290" s="31"/>
     </row>
-    <row r="291" spans="1:9" ht="330">
+    <row r="291" spans="1:10" ht="330">
       <c r="A291" s="29" t="s">
         <v>202</v>
       </c>
@@ -11660,7 +11594,7 @@
       </c>
       <c r="I291" s="31"/>
     </row>
-    <row r="292" spans="1:9" ht="30">
+    <row r="292" spans="1:10" ht="30">
       <c r="A292" s="29" t="s">
         <v>203</v>
       </c>
@@ -11685,7 +11619,7 @@
       </c>
       <c r="I292" s="31"/>
     </row>
-    <row r="293" spans="1:9" ht="30">
+    <row r="293" spans="1:10" ht="30">
       <c r="A293" s="29" t="s">
         <v>204</v>
       </c>
@@ -11710,7 +11644,7 @@
       </c>
       <c r="I293" s="31"/>
     </row>
-    <row r="294" spans="1:9" ht="30">
+    <row r="294" spans="1:10" ht="30">
       <c r="A294" s="29" t="s">
         <v>205</v>
       </c>
@@ -11735,7 +11669,7 @@
       </c>
       <c r="I294" s="31"/>
     </row>
-    <row r="295" spans="1:9" ht="45">
+    <row r="295" spans="1:10" ht="45">
       <c r="A295" s="29" t="s">
         <v>206</v>
       </c>
@@ -11760,7 +11694,7 @@
       </c>
       <c r="I295" s="31"/>
     </row>
-    <row r="296" spans="1:9" ht="75">
+    <row r="296" spans="1:10" ht="75">
       <c r="A296" s="29" t="s">
         <v>207</v>
       </c>
@@ -11785,7 +11719,7 @@
       </c>
       <c r="I296" s="31"/>
     </row>
-    <row r="297" spans="1:9" ht="60">
+    <row r="297" spans="1:10" ht="60">
       <c r="A297" s="29" t="s">
         <v>208</v>
       </c>
@@ -11810,7 +11744,7 @@
       </c>
       <c r="I297" s="31"/>
     </row>
-    <row r="298" spans="1:9" ht="45">
+    <row r="298" spans="1:10" ht="45">
       <c r="A298" s="21" t="s">
         <v>524</v>
       </c>
@@ -11835,7 +11769,7 @@
       </c>
       <c r="I298" s="34"/>
     </row>
-    <row r="299" spans="1:9" ht="60">
+    <row r="299" spans="1:10" ht="60">
       <c r="A299" s="21" t="s">
         <v>525</v>
       </c>
@@ -11860,7 +11794,7 @@
       </c>
       <c r="I299" s="34"/>
     </row>
-    <row r="300" spans="1:9" ht="30">
+    <row r="300" spans="1:10" ht="30">
       <c r="A300" s="29" t="s">
         <v>209</v>
       </c>
@@ -11885,7 +11819,7 @@
       </c>
       <c r="I300" s="31"/>
     </row>
-    <row r="301" spans="1:9" s="37" customFormat="1" ht="60">
+    <row r="301" spans="1:10" s="37" customFormat="1" ht="60">
       <c r="A301" s="29" t="s">
         <v>238</v>
       </c>
@@ -11910,7 +11844,7 @@
       </c>
       <c r="I301" s="31"/>
     </row>
-    <row r="302" spans="1:9" s="37" customFormat="1" ht="45">
+    <row r="302" spans="1:10" s="37" customFormat="1" ht="45">
       <c r="A302" s="29" t="s">
         <v>239</v>
       </c>
@@ -11939,7 +11873,7 @@
         <v>427</v>
       </c>
     </row>
-    <row r="303" spans="1:9" s="37" customFormat="1" ht="30">
+    <row r="303" spans="1:10" s="37" customFormat="1" ht="30">
       <c r="A303" s="29" t="s">
         <v>240</v>
       </c>
@@ -11964,21 +11898,23 @@
       </c>
       <c r="I303" s="31"/>
     </row>
-    <row r="304" spans="1:9" s="37" customFormat="1" ht="60">
+    <row r="304" spans="1:10" s="37" customFormat="1" ht="60">
       <c r="A304" s="21" t="s">
-        <v>528</v>
-      </c>
-      <c r="B304" s="30" t="s">
-        <v>270</v>
+        <v>699</v>
+      </c>
+      <c r="B304" s="36">
+        <v>8</v>
       </c>
       <c r="C304" s="19" t="s">
-        <v>698</v>
-      </c>
-      <c r="D304" s="32"/>
-      <c r="E304" s="29" t="s">
+        <v>755</v>
+      </c>
+      <c r="D304" s="21" t="s">
+        <v>735</v>
+      </c>
+      <c r="E304" s="32" t="s">
         <v>22</v>
       </c>
-      <c r="F304" s="29" t="s">
+      <c r="F304" s="32" t="s">
         <v>3</v>
       </c>
       <c r="G304" s="32" t="s">
@@ -11988,22 +11924,25 @@
         <v>18</v>
       </c>
       <c r="I304" s="19"/>
+      <c r="J304" s="39"/>
     </row>
     <row r="305" spans="1:10" s="37" customFormat="1" ht="45">
       <c r="A305" s="21" t="s">
-        <v>529</v>
-      </c>
-      <c r="B305" s="35">
+        <v>700</v>
+      </c>
+      <c r="B305" s="36">
         <v>8</v>
       </c>
       <c r="C305" s="19" t="s">
-        <v>699</v>
-      </c>
-      <c r="D305" s="32"/>
-      <c r="E305" s="29" t="s">
+        <v>696</v>
+      </c>
+      <c r="D305" s="21" t="s">
+        <v>735</v>
+      </c>
+      <c r="E305" s="32" t="s">
         <v>22</v>
       </c>
-      <c r="F305" s="29" t="s">
+      <c r="F305" s="32" t="s">
         <v>3</v>
       </c>
       <c r="G305" s="32" t="s">
@@ -12017,15 +11956,17 @@
     </row>
     <row r="306" spans="1:10" s="37" customFormat="1" ht="60">
       <c r="A306" s="21" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="B306" s="36">
         <v>8</v>
       </c>
       <c r="C306" s="19" t="s">
-        <v>719</v>
-      </c>
-      <c r="D306" s="32"/>
+        <v>704</v>
+      </c>
+      <c r="D306" s="21" t="s">
+        <v>737</v>
+      </c>
       <c r="E306" s="32" t="s">
         <v>22</v>
       </c>
@@ -12043,15 +11984,17 @@
     </row>
     <row r="307" spans="1:10" s="37" customFormat="1" ht="45">
       <c r="A307" s="21" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="B307" s="36">
         <v>8</v>
       </c>
       <c r="C307" s="19" t="s">
-        <v>714</v>
-      </c>
-      <c r="D307" s="32"/>
+        <v>703</v>
+      </c>
+      <c r="D307" s="21" t="s">
+        <v>737</v>
+      </c>
       <c r="E307" s="32" t="s">
         <v>22</v>
       </c>
@@ -12069,15 +12012,17 @@
     </row>
     <row r="308" spans="1:10" s="37" customFormat="1" ht="60">
       <c r="A308" s="21" t="s">
-        <v>704</v>
-      </c>
-      <c r="B308" s="36">
+        <v>705</v>
+      </c>
+      <c r="B308" s="35">
         <v>8</v>
       </c>
       <c r="C308" s="19" t="s">
-        <v>715</v>
-      </c>
-      <c r="D308" s="32"/>
+        <v>707</v>
+      </c>
+      <c r="D308" s="21" t="s">
+        <v>532</v>
+      </c>
       <c r="E308" s="32" t="s">
         <v>22</v>
       </c>
@@ -12095,15 +12040,17 @@
     </row>
     <row r="309" spans="1:10" s="37" customFormat="1" ht="45">
       <c r="A309" s="21" t="s">
-        <v>705</v>
-      </c>
-      <c r="B309" s="36">
+        <v>706</v>
+      </c>
+      <c r="B309" s="35">
         <v>8</v>
       </c>
       <c r="C309" s="19" t="s">
-        <v>716</v>
-      </c>
-      <c r="D309" s="32"/>
+        <v>708</v>
+      </c>
+      <c r="D309" s="21" t="s">
+        <v>532</v>
+      </c>
       <c r="E309" s="32" t="s">
         <v>22</v>
       </c>
@@ -12121,19 +12068,21 @@
     </row>
     <row r="310" spans="1:10" s="37" customFormat="1" ht="60">
       <c r="A310" s="21" t="s">
-        <v>706</v>
-      </c>
-      <c r="B310" s="36">
-        <v>8</v>
+        <v>528</v>
+      </c>
+      <c r="B310" s="30" t="s">
+        <v>270</v>
       </c>
       <c r="C310" s="19" t="s">
-        <v>717</v>
-      </c>
-      <c r="D310" s="32"/>
-      <c r="E310" s="32" t="s">
+        <v>698</v>
+      </c>
+      <c r="D310" s="32" t="s">
+        <v>533</v>
+      </c>
+      <c r="E310" s="29" t="s">
         <v>22</v>
       </c>
-      <c r="F310" s="32" t="s">
+      <c r="F310" s="29" t="s">
         <v>3</v>
       </c>
       <c r="G310" s="32" t="s">
@@ -12147,19 +12096,21 @@
     </row>
     <row r="311" spans="1:10" s="37" customFormat="1" ht="45">
       <c r="A311" s="21" t="s">
-        <v>707</v>
-      </c>
-      <c r="B311" s="36">
-        <v>8</v>
+        <v>529</v>
+      </c>
+      <c r="B311" s="30" t="s">
+        <v>270</v>
       </c>
       <c r="C311" s="19" t="s">
-        <v>718</v>
-      </c>
-      <c r="D311" s="32"/>
-      <c r="E311" s="32" t="s">
+        <v>527</v>
+      </c>
+      <c r="D311" s="32" t="s">
+        <v>533</v>
+      </c>
+      <c r="E311" s="29" t="s">
         <v>22</v>
       </c>
-      <c r="F311" s="32" t="s">
+      <c r="F311" s="29" t="s">
         <v>3</v>
       </c>
       <c r="G311" s="32" t="s">
@@ -12173,19 +12124,21 @@
     </row>
     <row r="312" spans="1:10" s="37" customFormat="1" ht="60">
       <c r="A312" s="21" t="s">
-        <v>708</v>
-      </c>
-      <c r="B312" s="36">
-        <v>8</v>
+        <v>530</v>
+      </c>
+      <c r="B312" s="30" t="s">
+        <v>270</v>
       </c>
       <c r="C312" s="19" t="s">
-        <v>720</v>
-      </c>
-      <c r="D312" s="32"/>
-      <c r="E312" s="32" t="s">
+        <v>697</v>
+      </c>
+      <c r="D312" s="32" t="s">
+        <v>534</v>
+      </c>
+      <c r="E312" s="29" t="s">
         <v>22</v>
       </c>
-      <c r="F312" s="32" t="s">
+      <c r="F312" s="29" t="s">
         <v>3</v>
       </c>
       <c r="G312" s="32" t="s">
@@ -12199,19 +12152,21 @@
     </row>
     <row r="313" spans="1:10" s="37" customFormat="1" ht="45">
       <c r="A313" s="21" t="s">
-        <v>709</v>
-      </c>
-      <c r="B313" s="36">
-        <v>8</v>
+        <v>531</v>
+      </c>
+      <c r="B313" s="30" t="s">
+        <v>270</v>
       </c>
       <c r="C313" s="19" t="s">
-        <v>721</v>
-      </c>
-      <c r="D313" s="32"/>
-      <c r="E313" s="32" t="s">
+        <v>526</v>
+      </c>
+      <c r="D313" s="21" t="s">
+        <v>534</v>
+      </c>
+      <c r="E313" s="29" t="s">
         <v>22</v>
       </c>
-      <c r="F313" s="32" t="s">
+      <c r="F313" s="29" t="s">
         <v>3</v>
       </c>
       <c r="G313" s="32" t="s">
@@ -12225,16 +12180,16 @@
     </row>
     <row r="314" spans="1:10" s="37" customFormat="1" ht="60">
       <c r="A314" s="21" t="s">
-        <v>710</v>
-      </c>
-      <c r="B314" s="36">
+        <v>709</v>
+      </c>
+      <c r="B314" s="35">
         <v>8</v>
       </c>
       <c r="C314" s="19" t="s">
-        <v>722</v>
+        <v>715</v>
       </c>
       <c r="D314" s="21" t="s">
-        <v>758</v>
+        <v>738</v>
       </c>
       <c r="E314" s="32" t="s">
         <v>22</v>
@@ -12253,16 +12208,16 @@
     </row>
     <row r="315" spans="1:10" s="37" customFormat="1" ht="45">
       <c r="A315" s="21" t="s">
-        <v>711</v>
-      </c>
-      <c r="B315" s="36">
+        <v>710</v>
+      </c>
+      <c r="B315" s="35">
         <v>8</v>
       </c>
       <c r="C315" s="19" t="s">
-        <v>723</v>
+        <v>716</v>
       </c>
       <c r="D315" s="21" t="s">
-        <v>758</v>
+        <v>738</v>
       </c>
       <c r="E315" s="32" t="s">
         <v>22</v>
@@ -12281,16 +12236,16 @@
     </row>
     <row r="316" spans="1:10" s="37" customFormat="1" ht="60">
       <c r="A316" s="21" t="s">
-        <v>712</v>
-      </c>
-      <c r="B316" s="36">
+        <v>711</v>
+      </c>
+      <c r="B316" s="35">
         <v>8</v>
       </c>
       <c r="C316" s="19" t="s">
-        <v>724</v>
+        <v>717</v>
       </c>
       <c r="D316" s="21" t="s">
-        <v>760</v>
+        <v>740</v>
       </c>
       <c r="E316" s="32" t="s">
         <v>22</v>
@@ -12309,16 +12264,16 @@
     </row>
     <row r="317" spans="1:10" s="37" customFormat="1" ht="45">
       <c r="A317" s="21" t="s">
-        <v>713</v>
-      </c>
-      <c r="B317" s="36">
+        <v>712</v>
+      </c>
+      <c r="B317" s="35">
         <v>8</v>
       </c>
       <c r="C317" s="19" t="s">
-        <v>714</v>
+        <v>718</v>
       </c>
       <c r="D317" s="21" t="s">
-        <v>760</v>
+        <v>740</v>
       </c>
       <c r="E317" s="32" t="s">
         <v>22</v>
@@ -12332,21 +12287,21 @@
       <c r="H317" s="32" t="s">
         <v>18</v>
       </c>
-      <c r="I317" s="19"/>
+      <c r="I317" s="34"/>
       <c r="J317" s="39"/>
     </row>
     <row r="318" spans="1:10" s="37" customFormat="1" ht="60">
       <c r="A318" s="21" t="s">
-        <v>725</v>
+        <v>713</v>
       </c>
       <c r="B318" s="35">
         <v>8</v>
       </c>
       <c r="C318" s="19" t="s">
-        <v>727</v>
+        <v>719</v>
       </c>
       <c r="D318" s="21" t="s">
-        <v>534</v>
+        <v>742</v>
       </c>
       <c r="E318" s="32" t="s">
         <v>22</v>
@@ -12360,21 +12315,21 @@
       <c r="H318" s="32" t="s">
         <v>18</v>
       </c>
-      <c r="I318" s="19"/>
+      <c r="I318" s="34"/>
       <c r="J318" s="39"/>
     </row>
     <row r="319" spans="1:10" s="37" customFormat="1" ht="45">
       <c r="A319" s="21" t="s">
-        <v>726</v>
+        <v>714</v>
       </c>
       <c r="B319" s="35">
         <v>8</v>
       </c>
       <c r="C319" s="19" t="s">
-        <v>728</v>
+        <v>720</v>
       </c>
       <c r="D319" s="21" t="s">
-        <v>534</v>
+        <v>742</v>
       </c>
       <c r="E319" s="32" t="s">
         <v>22</v>
@@ -12388,26 +12343,26 @@
       <c r="H319" s="32" t="s">
         <v>18</v>
       </c>
-      <c r="I319" s="19"/>
+      <c r="I319" s="34"/>
       <c r="J319" s="39"/>
     </row>
     <row r="320" spans="1:10" s="37" customFormat="1" ht="60">
       <c r="A320" s="21" t="s">
-        <v>530</v>
-      </c>
-      <c r="B320" s="30" t="s">
-        <v>270</v>
+        <v>722</v>
+      </c>
+      <c r="B320" s="35">
+        <v>8</v>
       </c>
       <c r="C320" s="19" t="s">
-        <v>701</v>
-      </c>
-      <c r="D320" s="32" t="s">
-        <v>535</v>
-      </c>
-      <c r="E320" s="29" t="s">
+        <v>724</v>
+      </c>
+      <c r="D320" s="21" t="s">
+        <v>744</v>
+      </c>
+      <c r="E320" s="32" t="s">
         <v>22</v>
       </c>
-      <c r="F320" s="29" t="s">
+      <c r="F320" s="32" t="s">
         <v>3</v>
       </c>
       <c r="G320" s="32" t="s">
@@ -12416,26 +12371,26 @@
       <c r="H320" s="32" t="s">
         <v>18</v>
       </c>
-      <c r="I320" s="19"/>
+      <c r="I320" s="34"/>
       <c r="J320" s="39"/>
     </row>
     <row r="321" spans="1:10" s="37" customFormat="1" ht="45">
       <c r="A321" s="21" t="s">
-        <v>531</v>
-      </c>
-      <c r="B321" s="30" t="s">
-        <v>270</v>
-      </c>
-      <c r="C321" s="19" t="s">
-        <v>527</v>
-      </c>
-      <c r="D321" s="32" t="s">
-        <v>535</v>
-      </c>
-      <c r="E321" s="29" t="s">
+        <v>723</v>
+      </c>
+      <c r="B321" s="35">
+        <v>8</v>
+      </c>
+      <c r="C321" s="34" t="s">
+        <v>721</v>
+      </c>
+      <c r="D321" s="21" t="s">
+        <v>744</v>
+      </c>
+      <c r="E321" s="32" t="s">
         <v>22</v>
       </c>
-      <c r="F321" s="29" t="s">
+      <c r="F321" s="32" t="s">
         <v>3</v>
       </c>
       <c r="G321" s="32" t="s">
@@ -12444,404 +12399,384 @@
       <c r="H321" s="32" t="s">
         <v>18</v>
       </c>
-      <c r="I321" s="19"/>
+      <c r="I321" s="34"/>
       <c r="J321" s="39"/>
     </row>
-    <row r="322" spans="1:10" s="37" customFormat="1" ht="60">
+    <row r="322" spans="1:10" s="37" customFormat="1" ht="210">
       <c r="A322" s="21" t="s">
-        <v>532</v>
-      </c>
-      <c r="B322" s="30" t="s">
-        <v>270</v>
+        <v>241</v>
+      </c>
+      <c r="B322" s="23" t="s">
+        <v>725</v>
       </c>
       <c r="C322" s="19" t="s">
-        <v>700</v>
-      </c>
-      <c r="D322" s="32" t="s">
-        <v>536</v>
-      </c>
+        <v>726</v>
+      </c>
+      <c r="D322" s="29"/>
       <c r="E322" s="29" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="F322" s="29" t="s">
         <v>3</v>
       </c>
-      <c r="G322" s="32" t="s">
-        <v>15</v>
-      </c>
-      <c r="H322" s="32" t="s">
-        <v>18</v>
-      </c>
-      <c r="I322" s="19"/>
+      <c r="G322" s="29" t="s">
+        <v>15</v>
+      </c>
+      <c r="H322" s="29" t="s">
+        <v>21</v>
+      </c>
+      <c r="I322" s="31"/>
       <c r="J322" s="39"/>
     </row>
-    <row r="323" spans="1:10" s="37" customFormat="1" ht="45">
-      <c r="A323" s="21" t="s">
-        <v>533</v>
-      </c>
-      <c r="B323" s="30" t="s">
-        <v>270</v>
-      </c>
-      <c r="C323" s="19" t="s">
-        <v>526</v>
-      </c>
-      <c r="D323" s="21" t="s">
-        <v>536</v>
-      </c>
+    <row r="323" spans="1:10" s="37" customFormat="1" ht="47.25" customHeight="1">
+      <c r="A323" s="29" t="s">
+        <v>242</v>
+      </c>
+      <c r="B323" s="23" t="s">
+        <v>725</v>
+      </c>
+      <c r="C323" s="31" t="s">
+        <v>411</v>
+      </c>
+      <c r="D323" s="29"/>
       <c r="E323" s="29" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="F323" s="29" t="s">
         <v>3</v>
       </c>
-      <c r="G323" s="32" t="s">
-        <v>15</v>
-      </c>
-      <c r="H323" s="32" t="s">
-        <v>18</v>
-      </c>
-      <c r="I323" s="19"/>
+      <c r="G323" s="29" t="s">
+        <v>15</v>
+      </c>
+      <c r="H323" s="29" t="s">
+        <v>17</v>
+      </c>
+      <c r="I323" s="19" t="s">
+        <v>564</v>
+      </c>
       <c r="J323" s="39"/>
     </row>
     <row r="324" spans="1:10" s="37" customFormat="1" ht="60">
-      <c r="A324" s="21" t="s">
+      <c r="A324" s="29" t="s">
+        <v>243</v>
+      </c>
+      <c r="B324" s="23" t="s">
+        <v>727</v>
+      </c>
+      <c r="C324" s="19" t="s">
+        <v>412</v>
+      </c>
+      <c r="D324" s="29"/>
+      <c r="E324" s="29" t="s">
+        <v>19</v>
+      </c>
+      <c r="F324" s="29" t="s">
+        <v>3</v>
+      </c>
+      <c r="G324" s="29" t="s">
+        <v>15</v>
+      </c>
+      <c r="H324" s="29" t="s">
+        <v>17</v>
+      </c>
+      <c r="I324" s="19" t="s">
+        <v>428</v>
+      </c>
+      <c r="J324" s="39"/>
+    </row>
+    <row r="325" spans="1:10" s="37" customFormat="1" ht="105">
+      <c r="A325" s="29" t="s">
+        <v>244</v>
+      </c>
+      <c r="B325" s="23" t="s">
+        <v>727</v>
+      </c>
+      <c r="C325" s="19" t="s">
+        <v>413</v>
+      </c>
+      <c r="D325" s="29"/>
+      <c r="E325" s="29" t="s">
+        <v>19</v>
+      </c>
+      <c r="F325" s="29" t="s">
+        <v>3</v>
+      </c>
+      <c r="G325" s="29" t="s">
+        <v>15</v>
+      </c>
+      <c r="H325" s="29" t="s">
+        <v>21</v>
+      </c>
+      <c r="I325" s="31"/>
+    </row>
+    <row r="326" spans="1:10" s="37" customFormat="1" ht="180">
+      <c r="A326" s="29" t="s">
+        <v>245</v>
+      </c>
+      <c r="B326" s="23" t="s">
+        <v>728</v>
+      </c>
+      <c r="C326" s="19" t="s">
+        <v>414</v>
+      </c>
+      <c r="D326" s="29"/>
+      <c r="E326" s="29" t="s">
+        <v>19</v>
+      </c>
+      <c r="F326" s="29" t="s">
+        <v>3</v>
+      </c>
+      <c r="G326" s="29" t="s">
+        <v>15</v>
+      </c>
+      <c r="H326" s="29" t="s">
+        <v>21</v>
+      </c>
+      <c r="I326" s="31"/>
+      <c r="J326" s="39"/>
+    </row>
+    <row r="327" spans="1:10" s="37" customFormat="1" ht="409.5">
+      <c r="A327" s="21" t="s">
+        <v>246</v>
+      </c>
+      <c r="B327" s="23" t="s">
         <v>729</v>
       </c>
-      <c r="B324" s="35">
-        <v>8</v>
-      </c>
-      <c r="C324" s="19" t="s">
-        <v>736</v>
-      </c>
-      <c r="D324" s="21" t="s">
-        <v>761</v>
-      </c>
-      <c r="E324" s="32" t="s">
-        <v>22</v>
-      </c>
-      <c r="F324" s="32" t="s">
-        <v>3</v>
-      </c>
-      <c r="G324" s="32" t="s">
-        <v>15</v>
-      </c>
-      <c r="H324" s="32" t="s">
-        <v>18</v>
-      </c>
-      <c r="I324" s="19"/>
-      <c r="J324" s="39"/>
-    </row>
-    <row r="325" spans="1:10" s="37" customFormat="1" ht="45">
-      <c r="A325" s="21" t="s">
+      <c r="C327" s="19" t="s">
+        <v>415</v>
+      </c>
+      <c r="D327" s="29"/>
+      <c r="E327" s="29" t="s">
+        <v>19</v>
+      </c>
+      <c r="F327" s="29" t="s">
+        <v>3</v>
+      </c>
+      <c r="G327" s="29" t="s">
+        <v>15</v>
+      </c>
+      <c r="H327" s="29" t="s">
+        <v>21</v>
+      </c>
+      <c r="I327" s="31"/>
+    </row>
+    <row r="328" spans="1:10" s="37" customFormat="1" ht="45">
+      <c r="A328" s="21" t="s">
+        <v>537</v>
+      </c>
+      <c r="B328" s="23" t="s">
+        <v>731</v>
+      </c>
+      <c r="C328" s="19" t="s">
         <v>730</v>
       </c>
-      <c r="B325" s="35">
-        <v>8</v>
-      </c>
-      <c r="C325" s="19" t="s">
-        <v>737</v>
-      </c>
-      <c r="D325" s="21" t="s">
-        <v>761</v>
-      </c>
-      <c r="E325" s="32" t="s">
-        <v>22</v>
-      </c>
-      <c r="F325" s="32" t="s">
-        <v>3</v>
-      </c>
-      <c r="G325" s="32" t="s">
-        <v>15</v>
-      </c>
-      <c r="H325" s="32" t="s">
-        <v>18</v>
-      </c>
-      <c r="I325" s="19"/>
-      <c r="J325" s="39"/>
-    </row>
-    <row r="326" spans="1:10" s="37" customFormat="1" ht="60">
-      <c r="A326" s="21" t="s">
+      <c r="D328" s="21"/>
+      <c r="E328" s="21" t="s">
+        <v>19</v>
+      </c>
+      <c r="F328" s="21" t="s">
+        <v>3</v>
+      </c>
+      <c r="G328" s="21" t="s">
+        <v>15</v>
+      </c>
+      <c r="H328" s="21" t="s">
+        <v>20</v>
+      </c>
+      <c r="I328" s="19"/>
+    </row>
+    <row r="329" spans="1:10" s="37" customFormat="1" ht="30">
+      <c r="A329" s="21" t="s">
+        <v>558</v>
+      </c>
+      <c r="B329" s="23" t="s">
         <v>731</v>
       </c>
-      <c r="B326" s="35">
-        <v>8</v>
-      </c>
-      <c r="C326" s="19" t="s">
-        <v>738</v>
-      </c>
-      <c r="D326" s="21" t="s">
-        <v>763</v>
-      </c>
-      <c r="E326" s="32" t="s">
-        <v>22</v>
-      </c>
-      <c r="F326" s="32" t="s">
-        <v>3</v>
-      </c>
-      <c r="G326" s="32" t="s">
-        <v>15</v>
-      </c>
-      <c r="H326" s="32" t="s">
-        <v>18</v>
-      </c>
-      <c r="I326" s="19"/>
-      <c r="J326" s="39"/>
-    </row>
-    <row r="327" spans="1:10" s="37" customFormat="1" ht="45">
-      <c r="A327" s="21" t="s">
-        <v>732</v>
-      </c>
-      <c r="B327" s="35">
-        <v>8</v>
-      </c>
-      <c r="C327" s="19" t="s">
-        <v>739</v>
-      </c>
-      <c r="D327" s="21" t="s">
-        <v>763</v>
-      </c>
-      <c r="E327" s="32" t="s">
-        <v>22</v>
-      </c>
-      <c r="F327" s="32" t="s">
-        <v>3</v>
-      </c>
-      <c r="G327" s="32" t="s">
-        <v>16</v>
-      </c>
-      <c r="H327" s="32" t="s">
-        <v>18</v>
-      </c>
-      <c r="I327" s="34"/>
-      <c r="J327" s="39"/>
-    </row>
-    <row r="328" spans="1:10" s="37" customFormat="1" ht="60">
-      <c r="A328" s="21" t="s">
-        <v>733</v>
-      </c>
-      <c r="B328" s="35">
-        <v>8</v>
-      </c>
-      <c r="C328" s="19" t="s">
-        <v>740</v>
-      </c>
-      <c r="D328" s="21" t="s">
-        <v>765</v>
-      </c>
-      <c r="E328" s="32" t="s">
-        <v>22</v>
-      </c>
-      <c r="F328" s="32" t="s">
-        <v>3</v>
-      </c>
-      <c r="G328" s="32" t="s">
-        <v>16</v>
-      </c>
-      <c r="H328" s="32" t="s">
-        <v>18</v>
-      </c>
-      <c r="I328" s="34"/>
-      <c r="J328" s="39"/>
-    </row>
-    <row r="329" spans="1:10" s="37" customFormat="1" ht="45">
-      <c r="A329" s="21" t="s">
-        <v>734</v>
-      </c>
-      <c r="B329" s="35">
-        <v>8</v>
-      </c>
       <c r="C329" s="19" t="s">
-        <v>741</v>
+        <v>538</v>
       </c>
       <c r="D329" s="21" t="s">
-        <v>765</v>
-      </c>
-      <c r="E329" s="32" t="s">
-        <v>22</v>
-      </c>
-      <c r="F329" s="32" t="s">
-        <v>3</v>
-      </c>
-      <c r="G329" s="32" t="s">
-        <v>16</v>
-      </c>
-      <c r="H329" s="32" t="s">
-        <v>18</v>
-      </c>
-      <c r="I329" s="34"/>
-      <c r="J329" s="39"/>
-    </row>
-    <row r="330" spans="1:10" s="37" customFormat="1" ht="60">
+        <v>539</v>
+      </c>
+      <c r="E329" s="21" t="s">
+        <v>19</v>
+      </c>
+      <c r="F329" s="21" t="s">
+        <v>3</v>
+      </c>
+      <c r="G329" s="21" t="s">
+        <v>15</v>
+      </c>
+      <c r="H329" s="21" t="s">
+        <v>20</v>
+      </c>
+      <c r="I329" s="19"/>
+    </row>
+    <row r="330" spans="1:10" s="37" customFormat="1" ht="45">
       <c r="A330" s="21" t="s">
-        <v>735</v>
-      </c>
-      <c r="B330" s="35">
-        <v>8</v>
+        <v>559</v>
+      </c>
+      <c r="B330" s="23" t="s">
+        <v>731</v>
       </c>
       <c r="C330" s="19" t="s">
-        <v>742</v>
-      </c>
-      <c r="D330" s="32"/>
-      <c r="E330" s="32" t="s">
-        <v>22</v>
-      </c>
-      <c r="F330" s="32" t="s">
-        <v>3</v>
-      </c>
-      <c r="G330" s="32" t="s">
-        <v>16</v>
-      </c>
-      <c r="H330" s="32" t="s">
-        <v>18</v>
-      </c>
-      <c r="I330" s="34"/>
-      <c r="J330" s="39"/>
+        <v>540</v>
+      </c>
+      <c r="D330" s="21" t="s">
+        <v>539</v>
+      </c>
+      <c r="E330" s="21" t="s">
+        <v>19</v>
+      </c>
+      <c r="F330" s="21" t="s">
+        <v>3</v>
+      </c>
+      <c r="G330" s="21" t="s">
+        <v>15</v>
+      </c>
+      <c r="H330" s="21" t="s">
+        <v>20</v>
+      </c>
+      <c r="I330" s="19"/>
     </row>
     <row r="331" spans="1:10" s="37" customFormat="1" ht="45">
       <c r="A331" s="21" t="s">
-        <v>743</v>
-      </c>
-      <c r="B331" s="35">
-        <v>8</v>
+        <v>542</v>
+      </c>
+      <c r="B331" s="23" t="s">
+        <v>731</v>
       </c>
       <c r="C331" s="19" t="s">
-        <v>744</v>
-      </c>
-      <c r="D331" s="32"/>
-      <c r="E331" s="32" t="s">
-        <v>22</v>
-      </c>
-      <c r="F331" s="32" t="s">
-        <v>3</v>
-      </c>
-      <c r="G331" s="32" t="s">
-        <v>16</v>
-      </c>
-      <c r="H331" s="32" t="s">
-        <v>18</v>
-      </c>
-      <c r="I331" s="34"/>
-      <c r="J331" s="39"/>
-    </row>
-    <row r="332" spans="1:10" s="37" customFormat="1" ht="60">
+        <v>543</v>
+      </c>
+      <c r="D331" s="21"/>
+      <c r="E331" s="21" t="s">
+        <v>19</v>
+      </c>
+      <c r="F331" s="21" t="s">
+        <v>3</v>
+      </c>
+      <c r="G331" s="21" t="s">
+        <v>15</v>
+      </c>
+      <c r="H331" s="21" t="s">
+        <v>20</v>
+      </c>
+      <c r="I331" s="19"/>
+    </row>
+    <row r="332" spans="1:10" s="37" customFormat="1" ht="45">
       <c r="A332" s="21" t="s">
-        <v>745</v>
-      </c>
-      <c r="B332" s="35">
-        <v>8</v>
+        <v>545</v>
+      </c>
+      <c r="B332" s="23" t="s">
+        <v>731</v>
       </c>
       <c r="C332" s="19" t="s">
-        <v>747</v>
-      </c>
-      <c r="D332" s="21" t="s">
-        <v>767</v>
-      </c>
-      <c r="E332" s="32" t="s">
-        <v>22</v>
-      </c>
-      <c r="F332" s="32" t="s">
-        <v>3</v>
-      </c>
-      <c r="G332" s="32" t="s">
-        <v>16</v>
-      </c>
-      <c r="H332" s="32" t="s">
-        <v>18</v>
-      </c>
-      <c r="I332" s="34"/>
-      <c r="J332" s="39"/>
-    </row>
-    <row r="333" spans="1:10" s="37" customFormat="1" ht="45">
+        <v>546</v>
+      </c>
+      <c r="D332" s="21"/>
+      <c r="E332" s="21" t="s">
+        <v>19</v>
+      </c>
+      <c r="F332" s="21" t="s">
+        <v>3</v>
+      </c>
+      <c r="G332" s="21" t="s">
+        <v>15</v>
+      </c>
+      <c r="H332" s="21" t="s">
+        <v>20</v>
+      </c>
+      <c r="I332" s="19"/>
+    </row>
+    <row r="333" spans="1:10" s="37" customFormat="1" ht="30">
       <c r="A333" s="21" t="s">
-        <v>746</v>
-      </c>
-      <c r="B333" s="35">
-        <v>8</v>
-      </c>
-      <c r="C333" s="34" t="s">
-        <v>744</v>
+        <v>552</v>
+      </c>
+      <c r="B333" s="23" t="s">
+        <v>731</v>
+      </c>
+      <c r="C333" s="19" t="s">
+        <v>553</v>
       </c>
       <c r="D333" s="21" t="s">
-        <v>767</v>
-      </c>
-      <c r="E333" s="32" t="s">
-        <v>22</v>
-      </c>
-      <c r="F333" s="32" t="s">
-        <v>3</v>
-      </c>
-      <c r="G333" s="32" t="s">
-        <v>16</v>
-      </c>
-      <c r="H333" s="32" t="s">
-        <v>18</v>
-      </c>
-      <c r="I333" s="34"/>
-      <c r="J333" s="39"/>
-    </row>
-    <row r="334" spans="1:10" s="37" customFormat="1" ht="210">
+        <v>554</v>
+      </c>
+      <c r="E333" s="21" t="s">
+        <v>19</v>
+      </c>
+      <c r="F333" s="21" t="s">
+        <v>3</v>
+      </c>
+      <c r="G333" s="21" t="s">
+        <v>15</v>
+      </c>
+      <c r="H333" s="21" t="s">
+        <v>20</v>
+      </c>
+      <c r="I333" s="19"/>
+    </row>
+    <row r="334" spans="1:10" s="37" customFormat="1" ht="30">
       <c r="A334" s="21" t="s">
-        <v>241</v>
+        <v>555</v>
       </c>
       <c r="B334" s="23" t="s">
-        <v>748</v>
+        <v>731</v>
       </c>
       <c r="C334" s="19" t="s">
-        <v>749</v>
-      </c>
-      <c r="D334" s="29"/>
-      <c r="E334" s="29" t="s">
-        <v>19</v>
-      </c>
-      <c r="F334" s="29" t="s">
-        <v>3</v>
-      </c>
-      <c r="G334" s="29" t="s">
-        <v>15</v>
-      </c>
-      <c r="H334" s="29" t="s">
-        <v>21</v>
-      </c>
-      <c r="I334" s="31"/>
-      <c r="J334" s="39"/>
-    </row>
-    <row r="335" spans="1:10" s="37" customFormat="1" ht="47.25" customHeight="1">
-      <c r="A335" s="29" t="s">
-        <v>242</v>
+        <v>556</v>
+      </c>
+      <c r="D334" s="21" t="s">
+        <v>554</v>
+      </c>
+      <c r="E334" s="21" t="s">
+        <v>19</v>
+      </c>
+      <c r="F334" s="21" t="s">
+        <v>3</v>
+      </c>
+      <c r="G334" s="21" t="s">
+        <v>15</v>
+      </c>
+      <c r="H334" s="21" t="s">
+        <v>20</v>
+      </c>
+      <c r="I334" s="19"/>
+    </row>
+    <row r="335" spans="1:10" s="37" customFormat="1" ht="45">
+      <c r="A335" s="21" t="s">
+        <v>550</v>
       </c>
       <c r="B335" s="23" t="s">
-        <v>748</v>
-      </c>
-      <c r="C335" s="31" t="s">
-        <v>411</v>
-      </c>
-      <c r="D335" s="29"/>
-      <c r="E335" s="29" t="s">
-        <v>19</v>
-      </c>
-      <c r="F335" s="29" t="s">
-        <v>3</v>
-      </c>
-      <c r="G335" s="29" t="s">
-        <v>15</v>
-      </c>
-      <c r="H335" s="29" t="s">
-        <v>17</v>
-      </c>
-      <c r="I335" s="19" t="s">
-        <v>566</v>
-      </c>
-      <c r="J335" s="39"/>
-    </row>
-    <row r="336" spans="1:10" s="37" customFormat="1" ht="60">
-      <c r="A336" s="29" t="s">
-        <v>243</v>
+        <v>731</v>
+      </c>
+      <c r="C335" s="19" t="s">
+        <v>551</v>
+      </c>
+      <c r="D335" s="21"/>
+      <c r="E335" s="21" t="s">
+        <v>19</v>
+      </c>
+      <c r="F335" s="21" t="s">
+        <v>3</v>
+      </c>
+      <c r="G335" s="21" t="s">
+        <v>15</v>
+      </c>
+      <c r="H335" s="21" t="s">
+        <v>20</v>
+      </c>
+      <c r="I335" s="19"/>
+    </row>
+    <row r="336" spans="1:10" s="37" customFormat="1" ht="135">
+      <c r="A336" s="21" t="s">
+        <v>247</v>
       </c>
       <c r="B336" s="23" t="s">
-        <v>750</v>
+        <v>732</v>
       </c>
       <c r="C336" s="19" t="s">
-        <v>412</v>
+        <v>416</v>
       </c>
       <c r="D336" s="29"/>
       <c r="E336" s="29" t="s">
@@ -12854,359 +12789,42 @@
         <v>15</v>
       </c>
       <c r="H336" s="29" t="s">
-        <v>17</v>
-      </c>
-      <c r="I336" s="19" t="s">
-        <v>428</v>
-      </c>
-      <c r="J336" s="39"/>
-    </row>
-    <row r="337" spans="1:10" s="37" customFormat="1" ht="105">
-      <c r="A337" s="29" t="s">
-        <v>244</v>
+        <v>21</v>
+      </c>
+      <c r="I336" s="31"/>
+    </row>
+    <row r="337" spans="1:9" s="37" customFormat="1" ht="45">
+      <c r="A337" s="21" t="s">
+        <v>565</v>
       </c>
       <c r="B337" s="23" t="s">
-        <v>750</v>
+        <v>560</v>
       </c>
       <c r="C337" s="19" t="s">
-        <v>413</v>
-      </c>
-      <c r="D337" s="29"/>
-      <c r="E337" s="29" t="s">
-        <v>19</v>
-      </c>
-      <c r="F337" s="29" t="s">
-        <v>3</v>
-      </c>
-      <c r="G337" s="29" t="s">
-        <v>15</v>
-      </c>
-      <c r="H337" s="29" t="s">
+        <v>733</v>
+      </c>
+      <c r="D337" s="21"/>
+      <c r="E337" s="21" t="s">
+        <v>22</v>
+      </c>
+      <c r="F337" s="21" t="s">
+        <v>3</v>
+      </c>
+      <c r="G337" s="21" t="s">
+        <v>15</v>
+      </c>
+      <c r="H337" s="21" t="s">
         <v>21</v>
       </c>
-      <c r="I337" s="31"/>
-    </row>
-    <row r="338" spans="1:10" s="37" customFormat="1" ht="180">
-      <c r="A338" s="29" t="s">
-        <v>245</v>
-      </c>
-      <c r="B338" s="23" t="s">
-        <v>751</v>
-      </c>
-      <c r="C338" s="19" t="s">
-        <v>414</v>
-      </c>
-      <c r="D338" s="29"/>
-      <c r="E338" s="29" t="s">
-        <v>19</v>
-      </c>
-      <c r="F338" s="29" t="s">
-        <v>3</v>
-      </c>
-      <c r="G338" s="29" t="s">
-        <v>15</v>
-      </c>
-      <c r="H338" s="29" t="s">
-        <v>21</v>
-      </c>
-      <c r="I338" s="31"/>
-      <c r="J338" s="39"/>
-    </row>
-    <row r="339" spans="1:10" s="37" customFormat="1" ht="409.5">
-      <c r="A339" s="21" t="s">
-        <v>246</v>
-      </c>
-      <c r="B339" s="23" t="s">
-        <v>752</v>
-      </c>
-      <c r="C339" s="19" t="s">
-        <v>415</v>
-      </c>
-      <c r="D339" s="29"/>
-      <c r="E339" s="29" t="s">
-        <v>19</v>
-      </c>
-      <c r="F339" s="29" t="s">
-        <v>3</v>
-      </c>
-      <c r="G339" s="29" t="s">
-        <v>15</v>
-      </c>
-      <c r="H339" s="29" t="s">
-        <v>21</v>
-      </c>
-      <c r="I339" s="31"/>
-    </row>
-    <row r="340" spans="1:10" s="37" customFormat="1" ht="45">
-      <c r="A340" s="21" t="s">
-        <v>539</v>
-      </c>
-      <c r="B340" s="23" t="s">
-        <v>754</v>
-      </c>
-      <c r="C340" s="19" t="s">
-        <v>753</v>
-      </c>
-      <c r="D340" s="21"/>
-      <c r="E340" s="21" t="s">
-        <v>19</v>
-      </c>
-      <c r="F340" s="21" t="s">
-        <v>3</v>
-      </c>
-      <c r="G340" s="21" t="s">
-        <v>15</v>
-      </c>
-      <c r="H340" s="21" t="s">
-        <v>20</v>
-      </c>
-      <c r="I340" s="19"/>
-    </row>
-    <row r="341" spans="1:10" s="37" customFormat="1" ht="30">
-      <c r="A341" s="21" t="s">
-        <v>560</v>
-      </c>
-      <c r="B341" s="23" t="s">
-        <v>754</v>
-      </c>
-      <c r="C341" s="19" t="s">
-        <v>540</v>
-      </c>
-      <c r="D341" s="21" t="s">
-        <v>541</v>
-      </c>
-      <c r="E341" s="21" t="s">
-        <v>19</v>
-      </c>
-      <c r="F341" s="21" t="s">
-        <v>3</v>
-      </c>
-      <c r="G341" s="21" t="s">
-        <v>15</v>
-      </c>
-      <c r="H341" s="21" t="s">
-        <v>20</v>
-      </c>
-      <c r="I341" s="19"/>
-    </row>
-    <row r="342" spans="1:10" s="37" customFormat="1" ht="45">
-      <c r="A342" s="21" t="s">
-        <v>561</v>
-      </c>
-      <c r="B342" s="23" t="s">
-        <v>754</v>
-      </c>
-      <c r="C342" s="19" t="s">
-        <v>542</v>
-      </c>
-      <c r="D342" s="21" t="s">
-        <v>541</v>
-      </c>
-      <c r="E342" s="21" t="s">
-        <v>19</v>
-      </c>
-      <c r="F342" s="21" t="s">
-        <v>3</v>
-      </c>
-      <c r="G342" s="21" t="s">
-        <v>15</v>
-      </c>
-      <c r="H342" s="21" t="s">
-        <v>20</v>
-      </c>
-      <c r="I342" s="19"/>
-    </row>
-    <row r="343" spans="1:10" s="37" customFormat="1" ht="45">
-      <c r="A343" s="21" t="s">
-        <v>544</v>
-      </c>
-      <c r="B343" s="23" t="s">
-        <v>754</v>
-      </c>
-      <c r="C343" s="19" t="s">
-        <v>545</v>
-      </c>
-      <c r="D343" s="21"/>
-      <c r="E343" s="21" t="s">
-        <v>19</v>
-      </c>
-      <c r="F343" s="21" t="s">
-        <v>3</v>
-      </c>
-      <c r="G343" s="21" t="s">
-        <v>15</v>
-      </c>
-      <c r="H343" s="21" t="s">
-        <v>20</v>
-      </c>
-      <c r="I343" s="19"/>
-    </row>
-    <row r="344" spans="1:10" s="37" customFormat="1" ht="45">
-      <c r="A344" s="21" t="s">
-        <v>547</v>
-      </c>
-      <c r="B344" s="23" t="s">
-        <v>754</v>
-      </c>
-      <c r="C344" s="19" t="s">
-        <v>548</v>
-      </c>
-      <c r="D344" s="21"/>
-      <c r="E344" s="21" t="s">
-        <v>19</v>
-      </c>
-      <c r="F344" s="21" t="s">
-        <v>3</v>
-      </c>
-      <c r="G344" s="21" t="s">
-        <v>15</v>
-      </c>
-      <c r="H344" s="21" t="s">
-        <v>20</v>
-      </c>
-      <c r="I344" s="19"/>
-    </row>
-    <row r="345" spans="1:10" s="37" customFormat="1" ht="30">
-      <c r="A345" s="21" t="s">
-        <v>554</v>
-      </c>
-      <c r="B345" s="23" t="s">
-        <v>754</v>
-      </c>
-      <c r="C345" s="19" t="s">
-        <v>555</v>
-      </c>
-      <c r="D345" s="21" t="s">
-        <v>556</v>
-      </c>
-      <c r="E345" s="21" t="s">
-        <v>19</v>
-      </c>
-      <c r="F345" s="21" t="s">
-        <v>3</v>
-      </c>
-      <c r="G345" s="21" t="s">
-        <v>15</v>
-      </c>
-      <c r="H345" s="21" t="s">
-        <v>20</v>
-      </c>
-      <c r="I345" s="19"/>
-    </row>
-    <row r="346" spans="1:10" s="37" customFormat="1" ht="30">
-      <c r="A346" s="21" t="s">
-        <v>557</v>
-      </c>
-      <c r="B346" s="23" t="s">
-        <v>754</v>
-      </c>
-      <c r="C346" s="19" t="s">
-        <v>558</v>
-      </c>
-      <c r="D346" s="21" t="s">
-        <v>556</v>
-      </c>
-      <c r="E346" s="21" t="s">
-        <v>19</v>
-      </c>
-      <c r="F346" s="21" t="s">
-        <v>3</v>
-      </c>
-      <c r="G346" s="21" t="s">
-        <v>15</v>
-      </c>
-      <c r="H346" s="21" t="s">
-        <v>20</v>
-      </c>
-      <c r="I346" s="19"/>
-    </row>
-    <row r="347" spans="1:10" s="37" customFormat="1" ht="45">
-      <c r="A347" s="21" t="s">
-        <v>552</v>
-      </c>
-      <c r="B347" s="23" t="s">
-        <v>754</v>
-      </c>
-      <c r="C347" s="19" t="s">
-        <v>553</v>
-      </c>
-      <c r="D347" s="21"/>
-      <c r="E347" s="21" t="s">
-        <v>19</v>
-      </c>
-      <c r="F347" s="21" t="s">
-        <v>3</v>
-      </c>
-      <c r="G347" s="21" t="s">
-        <v>15</v>
-      </c>
-      <c r="H347" s="21" t="s">
-        <v>20</v>
-      </c>
-      <c r="I347" s="19"/>
-    </row>
-    <row r="348" spans="1:10" s="37" customFormat="1" ht="135">
-      <c r="A348" s="21" t="s">
-        <v>247</v>
-      </c>
-      <c r="B348" s="23" t="s">
-        <v>755</v>
-      </c>
-      <c r="C348" s="19" t="s">
-        <v>416</v>
-      </c>
-      <c r="D348" s="29"/>
-      <c r="E348" s="29" t="s">
-        <v>19</v>
-      </c>
-      <c r="F348" s="29" t="s">
-        <v>3</v>
-      </c>
-      <c r="G348" s="29" t="s">
-        <v>15</v>
-      </c>
-      <c r="H348" s="29" t="s">
-        <v>21</v>
-      </c>
-      <c r="I348" s="31"/>
-    </row>
-    <row r="349" spans="1:10" s="37" customFormat="1" ht="45">
-      <c r="A349" s="21" t="s">
-        <v>567</v>
-      </c>
-      <c r="B349" s="23" t="s">
-        <v>562</v>
-      </c>
-      <c r="C349" s="19" t="s">
-        <v>756</v>
-      </c>
-      <c r="D349" s="21"/>
-      <c r="E349" s="21" t="s">
-        <v>22</v>
-      </c>
-      <c r="F349" s="21" t="s">
-        <v>3</v>
-      </c>
-      <c r="G349" s="21" t="s">
-        <v>15</v>
-      </c>
-      <c r="H349" s="21" t="s">
-        <v>21</v>
-      </c>
-      <c r="I349" s="31" t="s">
+      <c r="I337" s="31" t="s">
         <v>427</v>
       </c>
     </row>
-    <row r="350" spans="1:10" s="37" customFormat="1">
-      <c r="B350" s="40"/>
+    <row r="338" spans="1:9" s="37" customFormat="1">
+      <c r="B338" s="40"/>
     </row>
   </sheetData>
   <mergeCells count="12">
-    <mergeCell ref="A4:G4"/>
-    <mergeCell ref="B8:I8"/>
-    <mergeCell ref="B7:I7"/>
-    <mergeCell ref="B6:I6"/>
-    <mergeCell ref="B5:I5"/>
     <mergeCell ref="B11:I11"/>
     <mergeCell ref="D12:I15"/>
     <mergeCell ref="B16:I16"/>
@@ -13214,9 +12832,14 @@
     <mergeCell ref="B9:I9"/>
     <mergeCell ref="B10:I10"/>
     <mergeCell ref="B17:I17"/>
+    <mergeCell ref="A4:G4"/>
+    <mergeCell ref="B8:I8"/>
+    <mergeCell ref="B7:I7"/>
+    <mergeCell ref="B6:I6"/>
+    <mergeCell ref="B5:I5"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
-  <conditionalFormatting sqref="A345:I346 A226:H226 B198:I198 A199:I225 A20:I197 A227:I339">
+  <conditionalFormatting sqref="A333:I334 A226:H226 B198:I198 A199:I225 A20:I197 A227:I327">
     <cfRule type="expression" dxfId="88" priority="139">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Section Deleted")</formula>
     </cfRule>
@@ -13227,7 +12850,7 @@
       <formula>EXACT(INDIRECT("L"&amp;ROW()),"Deleted")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A345:I346 A226:H226 B198:I198 A199:I225 A20:I197 A227:I339">
+  <conditionalFormatting sqref="A333:I334 A226:H226 B198:I198 A199:I225 A20:I197 A227:I327">
     <cfRule type="expression" dxfId="85" priority="93">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"SectionDeleted")</formula>
     </cfRule>
@@ -13238,7 +12861,7 @@
       <formula>EXACT(INDIRECT("L"&amp;ROW()),"Deleted")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F345:F346 F20:F339">
+  <conditionalFormatting sqref="F333:F334 F20:F327">
     <cfRule type="expression" dxfId="82" priority="99">
       <formula>NOT(VLOOKUP(F20,$A$12:$C$15,2,FALSE)="In")</formula>
     </cfRule>
@@ -13246,7 +12869,7 @@
       <formula>(VLOOKUP(F20,$A$12:$C$15,2,FALSE)="In")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A343:I343">
+  <conditionalFormatting sqref="A331:I331">
     <cfRule type="expression" dxfId="80" priority="44">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Section Deleted")</formula>
     </cfRule>
@@ -13257,7 +12880,7 @@
       <formula>EXACT(INDIRECT("L"&amp;ROW()),"Deleted")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A343:I343">
+  <conditionalFormatting sqref="A331:I331">
     <cfRule type="expression" dxfId="77" priority="39">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"SectionDeleted")</formula>
     </cfRule>
@@ -13268,15 +12891,15 @@
       <formula>EXACT(INDIRECT("L"&amp;ROW()),"Deleted")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F343">
+  <conditionalFormatting sqref="F331">
     <cfRule type="expression" dxfId="74" priority="42">
-      <formula>NOT(VLOOKUP(F343,$A$12:$C$15,2,FALSE)="In")</formula>
+      <formula>NOT(VLOOKUP(F331,$A$12:$C$15,2,FALSE)="In")</formula>
     </cfRule>
     <cfRule type="expression" dxfId="73" priority="43">
-      <formula>(VLOOKUP(F343,$A$12:$C$15,2,FALSE)="In")</formula>
+      <formula>(VLOOKUP(F331,$A$12:$C$15,2,FALSE)="In")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A348:I348">
+  <conditionalFormatting sqref="A336:I336">
     <cfRule type="expression" dxfId="72" priority="76">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Section Deleted")</formula>
     </cfRule>
@@ -13287,7 +12910,7 @@
       <formula>EXACT(INDIRECT("L"&amp;ROW()),"Deleted")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A348:I348">
+  <conditionalFormatting sqref="A336:I336">
     <cfRule type="expression" dxfId="69" priority="71">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"SectionDeleted")</formula>
     </cfRule>
@@ -13298,15 +12921,15 @@
       <formula>EXACT(INDIRECT("L"&amp;ROW()),"Deleted")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F348">
+  <conditionalFormatting sqref="F336">
     <cfRule type="expression" dxfId="66" priority="74">
-      <formula>NOT(VLOOKUP(F348,$A$12:$C$15,2,FALSE)="In")</formula>
+      <formula>NOT(VLOOKUP(F336,$A$12:$C$15,2,FALSE)="In")</formula>
     </cfRule>
     <cfRule type="expression" dxfId="65" priority="75">
-      <formula>(VLOOKUP(F348,$A$12:$C$15,2,FALSE)="In")</formula>
+      <formula>(VLOOKUP(F336,$A$12:$C$15,2,FALSE)="In")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A340:I340">
+  <conditionalFormatting sqref="A328:I328">
     <cfRule type="expression" dxfId="64" priority="60">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Section Deleted")</formula>
     </cfRule>
@@ -13317,7 +12940,7 @@
       <formula>EXACT(INDIRECT("L"&amp;ROW()),"Deleted")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A340:I340">
+  <conditionalFormatting sqref="A328:I328">
     <cfRule type="expression" dxfId="61" priority="55">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"SectionDeleted")</formula>
     </cfRule>
@@ -13328,15 +12951,15 @@
       <formula>EXACT(INDIRECT("L"&amp;ROW()),"Deleted")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F340">
+  <conditionalFormatting sqref="F328">
     <cfRule type="expression" dxfId="58" priority="58">
-      <formula>NOT(VLOOKUP(F340,$A$12:$C$15,2,FALSE)="In")</formula>
+      <formula>NOT(VLOOKUP(F328,$A$12:$C$15,2,FALSE)="In")</formula>
     </cfRule>
     <cfRule type="expression" dxfId="57" priority="59">
-      <formula>(VLOOKUP(F340,$A$12:$C$15,2,FALSE)="In")</formula>
+      <formula>(VLOOKUP(F328,$A$12:$C$15,2,FALSE)="In")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A341:I342">
+  <conditionalFormatting sqref="A329:I330">
     <cfRule type="expression" dxfId="56" priority="52">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Section Deleted")</formula>
     </cfRule>
@@ -13347,7 +12970,7 @@
       <formula>EXACT(INDIRECT("L"&amp;ROW()),"Deleted")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A341:I342">
+  <conditionalFormatting sqref="A329:I330">
     <cfRule type="expression" dxfId="53" priority="47">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"SectionDeleted")</formula>
     </cfRule>
@@ -13358,15 +12981,15 @@
       <formula>EXACT(INDIRECT("L"&amp;ROW()),"Deleted")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F341:F342">
+  <conditionalFormatting sqref="F329:F330">
     <cfRule type="expression" dxfId="50" priority="50">
-      <formula>NOT(VLOOKUP(F341,$A$12:$C$15,2,FALSE)="In")</formula>
+      <formula>NOT(VLOOKUP(F329,$A$12:$C$15,2,FALSE)="In")</formula>
     </cfRule>
     <cfRule type="expression" dxfId="49" priority="51">
-      <formula>(VLOOKUP(F341,$A$12:$C$15,2,FALSE)="In")</formula>
+      <formula>(VLOOKUP(F329,$A$12:$C$15,2,FALSE)="In")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A344:I344">
+  <conditionalFormatting sqref="A332:I332">
     <cfRule type="expression" dxfId="48" priority="36">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Section Deleted")</formula>
     </cfRule>
@@ -13377,7 +13000,7 @@
       <formula>EXACT(INDIRECT("L"&amp;ROW()),"Deleted")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A344:I344">
+  <conditionalFormatting sqref="A332:I332">
     <cfRule type="expression" dxfId="45" priority="31">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"SectionDeleted")</formula>
     </cfRule>
@@ -13388,15 +13011,15 @@
       <formula>EXACT(INDIRECT("L"&amp;ROW()),"Deleted")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F344">
+  <conditionalFormatting sqref="F332">
     <cfRule type="expression" dxfId="42" priority="34">
-      <formula>NOT(VLOOKUP(F344,$A$12:$C$15,2,FALSE)="In")</formula>
+      <formula>NOT(VLOOKUP(F332,$A$12:$C$15,2,FALSE)="In")</formula>
     </cfRule>
     <cfRule type="expression" dxfId="41" priority="35">
-      <formula>(VLOOKUP(F344,$A$12:$C$15,2,FALSE)="In")</formula>
+      <formula>(VLOOKUP(F332,$A$12:$C$15,2,FALSE)="In")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A347:I347">
+  <conditionalFormatting sqref="A335:I335">
     <cfRule type="expression" dxfId="40" priority="20">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Section Deleted")</formula>
     </cfRule>
@@ -13407,7 +13030,7 @@
       <formula>EXACT(INDIRECT("L"&amp;ROW()),"Deleted")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A347:I347">
+  <conditionalFormatting sqref="A335:I335">
     <cfRule type="expression" dxfId="37" priority="15">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"SectionDeleted")</formula>
     </cfRule>
@@ -13418,15 +13041,15 @@
       <formula>EXACT(INDIRECT("L"&amp;ROW()),"Deleted")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F347">
+  <conditionalFormatting sqref="F335">
     <cfRule type="expression" dxfId="34" priority="18">
-      <formula>NOT(VLOOKUP(F347,$A$12:$C$15,2,FALSE)="In")</formula>
+      <formula>NOT(VLOOKUP(F335,$A$12:$C$15,2,FALSE)="In")</formula>
     </cfRule>
     <cfRule type="expression" dxfId="33" priority="19">
-      <formula>(VLOOKUP(F347,$A$12:$C$15,2,FALSE)="In")</formula>
+      <formula>(VLOOKUP(F335,$A$12:$C$15,2,FALSE)="In")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A349:H349">
+  <conditionalFormatting sqref="A337:H337">
     <cfRule type="expression" dxfId="32" priority="12">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Section Deleted")</formula>
     </cfRule>
@@ -13437,7 +13060,7 @@
       <formula>EXACT(INDIRECT("L"&amp;ROW()),"Deleted")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A349:H349">
+  <conditionalFormatting sqref="A337:H337">
     <cfRule type="expression" dxfId="29" priority="7">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"SectionDeleted")</formula>
     </cfRule>
@@ -13448,15 +13071,15 @@
       <formula>EXACT(INDIRECT("L"&amp;ROW()),"Deleted")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F349">
+  <conditionalFormatting sqref="F337">
     <cfRule type="expression" dxfId="26" priority="10">
-      <formula>NOT(VLOOKUP(F349,$A$12:$C$15,2,FALSE)="In")</formula>
+      <formula>NOT(VLOOKUP(F337,$A$12:$C$15,2,FALSE)="In")</formula>
     </cfRule>
     <cfRule type="expression" dxfId="25" priority="11">
-      <formula>(VLOOKUP(F349,$A$12:$C$15,2,FALSE)="In")</formula>
+      <formula>(VLOOKUP(F337,$A$12:$C$15,2,FALSE)="In")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I349">
+  <conditionalFormatting sqref="I337">
     <cfRule type="expression" dxfId="24" priority="4">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Section Deleted")</formula>
     </cfRule>
@@ -13467,7 +13090,7 @@
       <formula>EXACT(INDIRECT("L"&amp;ROW()),"Deleted")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I349">
+  <conditionalFormatting sqref="I337">
     <cfRule type="expression" dxfId="21" priority="1">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"SectionDeleted")</formula>
     </cfRule>
@@ -13479,23 +13102,23 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="7">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F4 F20:F349" xr:uid="{00000000-0002-0000-0000-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F4 F20:F337" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>$A$13:$A$15</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E4 E20:E349" xr:uid="{00000000-0002-0000-0000-000001000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E4 E20:E337" xr:uid="{00000000-0002-0000-0000-000001000000}">
       <formula1>"Protocol,Product"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G4 G20:G349" xr:uid="{00000000-0002-0000-0000-000002000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G4 G20:G337" xr:uid="{00000000-0002-0000-0000-000002000000}">
       <formula1>"Informative,Normative"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B13:B15" xr:uid="{00000000-0002-0000-0000-000003000000}">
       <formula1>"In, Out"</formula1>
     </dataValidation>
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C3" xr:uid="{00000000-0002-0000-0000-000004000000}"/>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H348 H20:H339" xr:uid="{00000000-0002-0000-0000-000005000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H336 H20:H327" xr:uid="{00000000-0002-0000-0000-000005000000}">
       <formula1>"Non-testable, Unverified, Adapter, Test Case"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H349 H340:H347" xr:uid="{00000000-0002-0000-0000-000006000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H337 H328:H335" xr:uid="{00000000-0002-0000-0000-000006000000}">
       <formula1>"Message Deserialization, Non-testable, Unverified, Adapter, Test Case"</formula1>
     </dataValidation>
   </dataValidations>
@@ -13505,7 +13128,7 @@
     <oddFooter>&amp;F&amp;RPage &amp;P</oddFooter>
   </headerFooter>
   <ignoredErrors>
-    <ignoredError sqref="B1:B9 B11:B16 B18:B45 B182:B184 B186:B197 B204:B304 B320:B323 B349:B350" numberStoredAsText="1"/>
+    <ignoredError sqref="B1:B9 B11:B16 B18:B45 B182:B184 B186:B197 B204:B303 B310:B313 B337:B338" numberStoredAsText="1"/>
   </ignoredErrors>
   <tableParts count="2">
     <tablePart r:id="rId2"/>
